--- a/France Ligue 1/France Ligue 1.xlsx
+++ b/France Ligue 1/France Ligue 1.xlsx
@@ -63480,7 +63480,7 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>5177253</v>
+        <v>5177255</v>
       </c>
       <c r="C708" t="s">
         <v>28</v>
@@ -63492,73 +63492,73 @@
         <v>44857.41666666666</v>
       </c>
       <c r="F708" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G708" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="H708">
         <v>2</v>
       </c>
       <c r="I708">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J708" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K708">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="L708">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M708">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N708">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="O708">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P708">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q708">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R708">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S708">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T708">
         <v>2.5</v>
       </c>
       <c r="U708">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V708">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W708">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X708">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y708">
         <v>-1</v>
       </c>
       <c r="Z708">
+        <v>0</v>
+      </c>
+      <c r="AA708">
+        <v>-0</v>
+      </c>
+      <c r="AB708">
         <v>0.875</v>
-      </c>
-      <c r="AA708">
-        <v>-1</v>
-      </c>
-      <c r="AB708">
-        <v>0.95</v>
       </c>
       <c r="AC708">
         <v>-1</v>
@@ -63569,7 +63569,7 @@
         <v>707</v>
       </c>
       <c r="B709">
-        <v>5177255</v>
+        <v>5177254</v>
       </c>
       <c r="C709" t="s">
         <v>28</v>
@@ -63581,10 +63581,10 @@
         <v>44857.41666666666</v>
       </c>
       <c r="F709" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G709" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H709">
         <v>2</v>
@@ -63596,58 +63596,58 @@
         <v>57</v>
       </c>
       <c r="K709">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="L709">
+        <v>3.6</v>
+      </c>
+      <c r="M709">
         <v>3.4</v>
       </c>
-      <c r="M709">
-        <v>2.8</v>
-      </c>
       <c r="N709">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O709">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P709">
+        <v>3.1</v>
+      </c>
+      <c r="Q709">
+        <v>-0.25</v>
+      </c>
+      <c r="R709">
+        <v>1.95</v>
+      </c>
+      <c r="S709">
+        <v>1.95</v>
+      </c>
+      <c r="T709">
         <v>2.75</v>
       </c>
-      <c r="Q709">
-        <v>0</v>
-      </c>
-      <c r="R709">
-        <v>1.85</v>
-      </c>
-      <c r="S709">
-        <v>2</v>
-      </c>
-      <c r="T709">
-        <v>2.5</v>
-      </c>
       <c r="U709">
-        <v>1.875</v>
+        <v>2.01</v>
       </c>
       <c r="V709">
-        <v>1.975</v>
+        <v>1.89</v>
       </c>
       <c r="W709">
         <v>-1</v>
       </c>
       <c r="X709">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y709">
         <v>-1</v>
       </c>
       <c r="Z709">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA709">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB709">
-        <v>0.875</v>
+        <v>1.01</v>
       </c>
       <c r="AC709">
         <v>-1</v>
@@ -63658,7 +63658,7 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>5177254</v>
+        <v>5177253</v>
       </c>
       <c r="C710" t="s">
         <v>28</v>
@@ -63670,73 +63670,73 @@
         <v>44857.41666666666</v>
       </c>
       <c r="F710" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G710" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H710">
         <v>2</v>
       </c>
       <c r="I710">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J710" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K710">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L710">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M710">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N710">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O710">
         <v>3.6</v>
       </c>
       <c r="P710">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q710">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R710">
+        <v>1.875</v>
+      </c>
+      <c r="S710">
+        <v>1.975</v>
+      </c>
+      <c r="T710">
+        <v>2.5</v>
+      </c>
+      <c r="U710">
         <v>1.95</v>
       </c>
-      <c r="S710">
-        <v>1.95</v>
-      </c>
-      <c r="T710">
-        <v>2.75</v>
-      </c>
-      <c r="U710">
-        <v>2.01</v>
-      </c>
       <c r="V710">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W710">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X710">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y710">
         <v>-1</v>
       </c>
       <c r="Z710">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA710">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB710">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AC710">
         <v>-1</v>
@@ -64459,7 +64459,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>5177264</v>
+        <v>5177259</v>
       </c>
       <c r="C719" t="s">
         <v>28</v>
@@ -64471,76 +64471,76 @@
         <v>44864.45833333334</v>
       </c>
       <c r="F719" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G719" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I719">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J719" t="s">
         <v>57</v>
       </c>
       <c r="K719">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L719">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M719">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N719">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="O719">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P719">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q719">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R719">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S719">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T719">
         <v>2.5</v>
       </c>
       <c r="U719">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V719">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W719">
         <v>-1</v>
       </c>
       <c r="X719">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Y719">
         <v>-1</v>
       </c>
       <c r="Z719">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA719">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB719">
         <v>-1</v>
       </c>
       <c r="AC719">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="720" spans="1:29">
@@ -64548,7 +64548,7 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>5177265</v>
+        <v>5177264</v>
       </c>
       <c r="C720" t="s">
         <v>28</v>
@@ -64560,40 +64560,40 @@
         <v>44864.45833333334</v>
       </c>
       <c r="F720" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G720" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H720">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I720">
         <v>0</v>
       </c>
       <c r="J720" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K720">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="L720">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M720">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N720">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="O720">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P720">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q720">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R720">
         <v>1.975</v>
@@ -64602,34 +64602,34 @@
         <v>1.875</v>
       </c>
       <c r="T720">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U720">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V720">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W720">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X720">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y720">
         <v>-1</v>
       </c>
       <c r="Z720">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA720">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB720">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC720">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:29">
@@ -64637,7 +64637,7 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>5177259</v>
+        <v>5177265</v>
       </c>
       <c r="C721" t="s">
         <v>28</v>
@@ -64649,76 +64649,76 @@
         <v>44864.45833333334</v>
       </c>
       <c r="F721" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G721" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H721">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I721">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J721" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K721">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="L721">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M721">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="N721">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="O721">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P721">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q721">
+        <v>-1.5</v>
+      </c>
+      <c r="R721">
+        <v>1.975</v>
+      </c>
+      <c r="S721">
+        <v>1.875</v>
+      </c>
+      <c r="T721">
+        <v>3.25</v>
+      </c>
+      <c r="U721">
+        <v>2.025</v>
+      </c>
+      <c r="V721">
+        <v>1.825</v>
+      </c>
+      <c r="W721">
+        <v>0.363</v>
+      </c>
+      <c r="X721">
+        <v>-1</v>
+      </c>
+      <c r="Y721">
+        <v>-1</v>
+      </c>
+      <c r="Z721">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA721">
+        <v>-1</v>
+      </c>
+      <c r="AB721">
         <v>-0.5</v>
       </c>
-      <c r="R721">
-        <v>1.9</v>
-      </c>
-      <c r="S721">
-        <v>1.95</v>
-      </c>
-      <c r="T721">
-        <v>2.5</v>
-      </c>
-      <c r="U721">
-        <v>1.875</v>
-      </c>
-      <c r="V721">
-        <v>1.975</v>
-      </c>
-      <c r="W721">
-        <v>-1</v>
-      </c>
-      <c r="X721">
-        <v>2.75</v>
-      </c>
-      <c r="Y721">
-        <v>-1</v>
-      </c>
-      <c r="Z721">
-        <v>-1</v>
-      </c>
-      <c r="AA721">
-        <v>0.95</v>
-      </c>
-      <c r="AB721">
-        <v>-1</v>
-      </c>
       <c r="AC721">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="722" spans="1:29">
@@ -66684,7 +66684,7 @@
         <v>742</v>
       </c>
       <c r="B744">
-        <v>5938162</v>
+        <v>5938163</v>
       </c>
       <c r="C744" t="s">
         <v>28</v>
@@ -66696,76 +66696,76 @@
         <v>44923.45833333334</v>
       </c>
       <c r="F744" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G744" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I744">
         <v>0</v>
       </c>
       <c r="J744" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K744">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="L744">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M744">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N744">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O744">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P744">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q744">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R744">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S744">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T744">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U744">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V744">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W744">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X744">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y744">
         <v>-1</v>
       </c>
       <c r="Z744">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA744">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB744">
         <v>-1</v>
       </c>
       <c r="AC744">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="745" spans="1:29">
@@ -66773,7 +66773,7 @@
         <v>743</v>
       </c>
       <c r="B745">
-        <v>5938163</v>
+        <v>5938162</v>
       </c>
       <c r="C745" t="s">
         <v>28</v>
@@ -66785,76 +66785,76 @@
         <v>44923.45833333334</v>
       </c>
       <c r="F745" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G745" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I745">
         <v>0</v>
       </c>
       <c r="J745" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K745">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="L745">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M745">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N745">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O745">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P745">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q745">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R745">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S745">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T745">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U745">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V745">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W745">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X745">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y745">
         <v>-1</v>
       </c>
       <c r="Z745">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA745">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB745">
         <v>-1</v>
       </c>
       <c r="AC745">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="746" spans="1:29">
@@ -67040,7 +67040,7 @@
         <v>746</v>
       </c>
       <c r="B748">
-        <v>5938165</v>
+        <v>5938175</v>
       </c>
       <c r="C748" t="s">
         <v>28</v>
@@ -67052,76 +67052,76 @@
         <v>44923.70833333334</v>
       </c>
       <c r="F748" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G748" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H748">
         <v>2</v>
       </c>
       <c r="I748">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J748" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K748">
-        <v>3.75</v>
+        <v>1.142</v>
       </c>
       <c r="L748">
+        <v>8</v>
+      </c>
+      <c r="M748">
+        <v>17</v>
+      </c>
+      <c r="N748">
+        <v>1.2</v>
+      </c>
+      <c r="O748">
+        <v>7</v>
+      </c>
+      <c r="P748">
+        <v>15</v>
+      </c>
+      <c r="Q748">
+        <v>-2</v>
+      </c>
+      <c r="R748">
+        <v>1.875</v>
+      </c>
+      <c r="S748">
+        <v>1.975</v>
+      </c>
+      <c r="T748">
         <v>3.5</v>
       </c>
-      <c r="M748">
-        <v>1.95</v>
-      </c>
-      <c r="N748">
-        <v>3.3</v>
-      </c>
-      <c r="O748">
-        <v>3.5</v>
-      </c>
-      <c r="P748">
-        <v>2.15</v>
-      </c>
-      <c r="Q748">
-        <v>0.25</v>
-      </c>
-      <c r="R748">
-        <v>1.95</v>
-      </c>
-      <c r="S748">
-        <v>1.9</v>
-      </c>
-      <c r="T748">
-        <v>2.75</v>
-      </c>
       <c r="U748">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V748">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W748">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X748">
         <v>-1</v>
       </c>
       <c r="Y748">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z748">
         <v>-1</v>
       </c>
       <c r="AA748">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB748">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC748">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="749" spans="1:29">
@@ -67129,7 +67129,7 @@
         <v>747</v>
       </c>
       <c r="B749">
-        <v>5938175</v>
+        <v>5938165</v>
       </c>
       <c r="C749" t="s">
         <v>28</v>
@@ -67141,76 +67141,76 @@
         <v>44923.70833333334</v>
       </c>
       <c r="F749" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G749" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H749">
         <v>2</v>
       </c>
       <c r="I749">
+        <v>4</v>
+      </c>
+      <c r="J749" t="s">
+        <v>55</v>
+      </c>
+      <c r="K749">
+        <v>3.75</v>
+      </c>
+      <c r="L749">
+        <v>3.5</v>
+      </c>
+      <c r="M749">
+        <v>1.95</v>
+      </c>
+      <c r="N749">
+        <v>3.3</v>
+      </c>
+      <c r="O749">
+        <v>3.5</v>
+      </c>
+      <c r="P749">
+        <v>2.15</v>
+      </c>
+      <c r="Q749">
+        <v>0.25</v>
+      </c>
+      <c r="R749">
+        <v>1.95</v>
+      </c>
+      <c r="S749">
+        <v>1.9</v>
+      </c>
+      <c r="T749">
+        <v>2.75</v>
+      </c>
+      <c r="U749">
+        <v>2</v>
+      </c>
+      <c r="V749">
+        <v>1.85</v>
+      </c>
+      <c r="W749">
+        <v>-1</v>
+      </c>
+      <c r="X749">
+        <v>-1</v>
+      </c>
+      <c r="Y749">
+        <v>1.15</v>
+      </c>
+      <c r="Z749">
+        <v>-1</v>
+      </c>
+      <c r="AA749">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB749">
         <v>1</v>
       </c>
-      <c r="J749" t="s">
-        <v>56</v>
-      </c>
-      <c r="K749">
-        <v>1.142</v>
-      </c>
-      <c r="L749">
-        <v>8</v>
-      </c>
-      <c r="M749">
-        <v>17</v>
-      </c>
-      <c r="N749">
-        <v>1.2</v>
-      </c>
-      <c r="O749">
-        <v>7</v>
-      </c>
-      <c r="P749">
-        <v>15</v>
-      </c>
-      <c r="Q749">
-        <v>-2</v>
-      </c>
-      <c r="R749">
-        <v>1.875</v>
-      </c>
-      <c r="S749">
-        <v>1.975</v>
-      </c>
-      <c r="T749">
-        <v>3.5</v>
-      </c>
-      <c r="U749">
-        <v>1.925</v>
-      </c>
-      <c r="V749">
-        <v>1.925</v>
-      </c>
-      <c r="W749">
-        <v>0.2</v>
-      </c>
-      <c r="X749">
-        <v>-1</v>
-      </c>
-      <c r="Y749">
-        <v>-1</v>
-      </c>
-      <c r="Z749">
-        <v>-1</v>
-      </c>
-      <c r="AA749">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB749">
-        <v>-1</v>
-      </c>
       <c r="AC749">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="750" spans="1:29">
@@ -67396,7 +67396,7 @@
         <v>750</v>
       </c>
       <c r="B752">
-        <v>5938179</v>
+        <v>5938178</v>
       </c>
       <c r="C752" t="s">
         <v>28</v>
@@ -67408,76 +67408,76 @@
         <v>44924.70833333334</v>
       </c>
       <c r="F752" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G752" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H752">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I752">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J752" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K752">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L752">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M752">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="N752">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="O752">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P752">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Q752">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R752">
-        <v>2.06</v>
+        <v>2.155</v>
       </c>
       <c r="S752">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="T752">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U752">
+        <v>1.86</v>
+      </c>
+      <c r="V752">
         <v>2.04</v>
       </c>
-      <c r="V752">
-        <v>1.86</v>
-      </c>
       <c r="W752">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X752">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y752">
         <v>-1</v>
       </c>
       <c r="Z752">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="AA752">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB752">
+        <v>-1</v>
+      </c>
+      <c r="AC752">
         <v>1.04</v>
-      </c>
-      <c r="AC752">
-        <v>-1</v>
       </c>
     </row>
     <row r="753" spans="1:29">
@@ -67485,7 +67485,7 @@
         <v>751</v>
       </c>
       <c r="B753">
-        <v>5938178</v>
+        <v>5938179</v>
       </c>
       <c r="C753" t="s">
         <v>28</v>
@@ -67497,76 +67497,76 @@
         <v>44924.70833333334</v>
       </c>
       <c r="F753" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G753" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I753">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J753" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K753">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="L753">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M753">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N753">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="O753">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P753">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q753">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R753">
-        <v>2.155</v>
+        <v>2.06</v>
       </c>
       <c r="S753">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="T753">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U753">
+        <v>2.04</v>
+      </c>
+      <c r="V753">
         <v>1.86</v>
       </c>
-      <c r="V753">
-        <v>2.04</v>
-      </c>
       <c r="W753">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X753">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y753">
         <v>-1</v>
       </c>
       <c r="Z753">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AA753">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB753">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AC753">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="754" spans="1:29">
@@ -68464,7 +68464,7 @@
         <v>762</v>
       </c>
       <c r="B764">
-        <v>6081167</v>
+        <v>6081165</v>
       </c>
       <c r="C764" t="s">
         <v>28</v>
@@ -68476,76 +68476,76 @@
         <v>44937.625</v>
       </c>
       <c r="F764" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G764" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J764" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K764">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="L764">
+        <v>3.5</v>
+      </c>
+      <c r="M764">
+        <v>1.75</v>
+      </c>
+      <c r="N764">
+        <v>4.2</v>
+      </c>
+      <c r="O764">
         <v>3.4</v>
       </c>
-      <c r="M764">
-        <v>2</v>
-      </c>
-      <c r="N764">
-        <v>4.5</v>
-      </c>
-      <c r="O764">
-        <v>3.75</v>
-      </c>
       <c r="P764">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q764">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R764">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S764">
-        <v>2.08</v>
+        <v>1.925</v>
       </c>
       <c r="T764">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U764">
-        <v>1.94</v>
+        <v>1.825</v>
       </c>
       <c r="V764">
-        <v>1.96</v>
+        <v>2.025</v>
       </c>
       <c r="W764">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X764">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y764">
         <v>-1</v>
       </c>
       <c r="Z764">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA764">
         <v>-1</v>
       </c>
       <c r="AB764">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC764">
-        <v>0.96</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="765" spans="1:29">
@@ -68553,7 +68553,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>6081166</v>
+        <v>6081164</v>
       </c>
       <c r="C765" t="s">
         <v>28</v>
@@ -68565,76 +68565,76 @@
         <v>44937.625</v>
       </c>
       <c r="F765" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="G765" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H765">
         <v>0</v>
       </c>
       <c r="I765">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J765" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K765">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="L765">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M765">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="N765">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O765">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P765">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Q765">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R765">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S765">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T765">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U765">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V765">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W765">
         <v>-1</v>
       </c>
       <c r="X765">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y765">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z765">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA765">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB765">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC765">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="766" spans="1:29">
@@ -68731,7 +68731,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>6081164</v>
+        <v>6081166</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68743,76 +68743,76 @@
         <v>44937.625</v>
       </c>
       <c r="F767" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G767" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H767">
         <v>0</v>
       </c>
       <c r="I767">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J767" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K767">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="L767">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M767">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="N767">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O767">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P767">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Q767">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R767">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S767">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T767">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U767">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V767">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W767">
         <v>-1</v>
       </c>
       <c r="X767">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y767">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z767">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA767">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB767">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC767">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="768" spans="1:29">
@@ -68820,7 +68820,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>6081165</v>
+        <v>6081167</v>
       </c>
       <c r="C768" t="s">
         <v>28</v>
@@ -68832,76 +68832,76 @@
         <v>44937.625</v>
       </c>
       <c r="F768" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G768" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J768" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K768">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="L768">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M768">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="N768">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O768">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P768">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="Q768">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R768">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S768">
-        <v>1.925</v>
+        <v>2.08</v>
       </c>
       <c r="T768">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U768">
-        <v>1.825</v>
+        <v>1.94</v>
       </c>
       <c r="V768">
-        <v>2.025</v>
+        <v>1.96</v>
       </c>
       <c r="W768">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X768">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y768">
         <v>-1</v>
       </c>
       <c r="Z768">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA768">
         <v>-1</v>
       </c>
       <c r="AB768">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC768">
-        <v>-1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="769" spans="1:29">
@@ -68909,7 +68909,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>6081168</v>
+        <v>6081171</v>
       </c>
       <c r="C769" t="s">
         <v>28</v>
@@ -68921,10 +68921,10 @@
         <v>44937.70833333334</v>
       </c>
       <c r="F769" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G769" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H769">
         <v>2</v>
@@ -68936,58 +68936,58 @@
         <v>57</v>
       </c>
       <c r="K769">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L769">
+        <v>3.3</v>
+      </c>
+      <c r="M769">
+        <v>2.25</v>
+      </c>
+      <c r="N769">
         <v>3.6</v>
       </c>
-      <c r="M769">
-        <v>1.85</v>
-      </c>
-      <c r="N769">
-        <v>4.5</v>
-      </c>
       <c r="O769">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P769">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q769">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R769">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S769">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T769">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U769">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V769">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W769">
         <v>-1</v>
       </c>
       <c r="X769">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Y769">
         <v>-1</v>
       </c>
       <c r="Z769">
-        <v>0.8500000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA769">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB769">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC769">
         <v>-1</v>
@@ -68998,7 +68998,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>6081169</v>
+        <v>6081173</v>
       </c>
       <c r="C770" t="s">
         <v>28</v>
@@ -69010,76 +69010,76 @@
         <v>44937.70833333334</v>
       </c>
       <c r="F770" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G770" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H770">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I770">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J770" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K770">
+        <v>4.5</v>
+      </c>
+      <c r="L770">
+        <v>3.75</v>
+      </c>
+      <c r="M770">
+        <v>1.75</v>
+      </c>
+      <c r="N770">
+        <v>5.25</v>
+      </c>
+      <c r="O770">
+        <v>4</v>
+      </c>
+      <c r="P770">
+        <v>1.65</v>
+      </c>
+      <c r="Q770">
+        <v>0.75</v>
+      </c>
+      <c r="R770">
+        <v>2.05</v>
+      </c>
+      <c r="S770">
         <v>1.8</v>
       </c>
-      <c r="L770">
-        <v>3.5</v>
-      </c>
-      <c r="M770">
-        <v>4.5</v>
-      </c>
-      <c r="N770">
-        <v>1.85</v>
-      </c>
-      <c r="O770">
-        <v>3.5</v>
-      </c>
-      <c r="P770">
-        <v>4.333</v>
-      </c>
-      <c r="Q770">
-        <v>-0.5</v>
-      </c>
-      <c r="R770">
-        <v>1.85</v>
-      </c>
-      <c r="S770">
-        <v>2</v>
-      </c>
       <c r="T770">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U770">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V770">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W770">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X770">
         <v>-1</v>
       </c>
       <c r="Y770">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z770">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA770">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB770">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC770">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="771" spans="1:29">
@@ -69176,7 +69176,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>6081171</v>
+        <v>6081168</v>
       </c>
       <c r="C772" t="s">
         <v>28</v>
@@ -69188,10 +69188,10 @@
         <v>44937.70833333334</v>
       </c>
       <c r="F772" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G772" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H772">
         <v>2</v>
@@ -69203,58 +69203,58 @@
         <v>57</v>
       </c>
       <c r="K772">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L772">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M772">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N772">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O772">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P772">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="Q772">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R772">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S772">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T772">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U772">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V772">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W772">
         <v>-1</v>
       </c>
       <c r="X772">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Y772">
         <v>-1</v>
       </c>
       <c r="Z772">
-        <v>0.5249999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA772">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB772">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC772">
         <v>-1</v>
@@ -69265,7 +69265,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>6081173</v>
+        <v>6081169</v>
       </c>
       <c r="C773" t="s">
         <v>28</v>
@@ -69277,76 +69277,76 @@
         <v>44937.70833333334</v>
       </c>
       <c r="F773" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G773" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I773">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J773" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K773">
+        <v>1.8</v>
+      </c>
+      <c r="L773">
+        <v>3.5</v>
+      </c>
+      <c r="M773">
         <v>4.5</v>
       </c>
-      <c r="L773">
-        <v>3.75</v>
-      </c>
-      <c r="M773">
-        <v>1.75</v>
-      </c>
       <c r="N773">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="O773">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P773">
-        <v>1.65</v>
+        <v>4.333</v>
       </c>
       <c r="Q773">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R773">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S773">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T773">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U773">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V773">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W773">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X773">
         <v>-1</v>
       </c>
       <c r="Y773">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z773">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA773">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB773">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC773">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="774" spans="1:29">
@@ -70600,7 +70600,7 @@
         <v>786</v>
       </c>
       <c r="B788">
-        <v>5177335</v>
+        <v>5177329</v>
       </c>
       <c r="C788" t="s">
         <v>28</v>
@@ -70612,76 +70612,76 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F788" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G788" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H788">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I788">
         <v>0</v>
       </c>
       <c r="J788" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K788">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L788">
         <v>3.5</v>
       </c>
       <c r="M788">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N788">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O788">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P788">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q788">
         <v>-0.25</v>
       </c>
       <c r="R788">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S788">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T788">
         <v>2.25</v>
       </c>
       <c r="U788">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V788">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W788">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X788">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y788">
         <v>-1</v>
       </c>
       <c r="Z788">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA788">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB788">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC788">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="789" spans="1:29">
@@ -70689,7 +70689,7 @@
         <v>787</v>
       </c>
       <c r="B789">
-        <v>5177328</v>
+        <v>5177334</v>
       </c>
       <c r="C789" t="s">
         <v>28</v>
@@ -70701,13 +70701,13 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F789" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G789" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I789">
         <v>2</v>
@@ -70716,19 +70716,19 @@
         <v>55</v>
       </c>
       <c r="K789">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L789">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M789">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N789">
         <v>2.375</v>
       </c>
       <c r="O789">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P789">
         <v>3.1</v>
@@ -70737,19 +70737,19 @@
         <v>-0.25</v>
       </c>
       <c r="R789">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S789">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T789">
         <v>2.5</v>
       </c>
       <c r="U789">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V789">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W789">
         <v>-1</v>
@@ -70764,13 +70764,13 @@
         <v>-1</v>
       </c>
       <c r="AA789">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB789">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC789">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="790" spans="1:29">
@@ -70778,7 +70778,7 @@
         <v>788</v>
       </c>
       <c r="B790">
-        <v>5177334</v>
+        <v>5177328</v>
       </c>
       <c r="C790" t="s">
         <v>28</v>
@@ -70790,13 +70790,13 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F790" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G790" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I790">
         <v>2</v>
@@ -70805,19 +70805,19 @@
         <v>55</v>
       </c>
       <c r="K790">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L790">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M790">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N790">
         <v>2.375</v>
       </c>
       <c r="O790">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P790">
         <v>3.1</v>
@@ -70826,19 +70826,19 @@
         <v>-0.25</v>
       </c>
       <c r="R790">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S790">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T790">
         <v>2.5</v>
       </c>
       <c r="U790">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V790">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W790">
         <v>-1</v>
@@ -70853,13 +70853,13 @@
         <v>-1</v>
       </c>
       <c r="AA790">
+        <v>0.825</v>
+      </c>
+      <c r="AB790">
+        <v>-1</v>
+      </c>
+      <c r="AC790">
         <v>0.8</v>
-      </c>
-      <c r="AB790">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC790">
-        <v>-1</v>
       </c>
     </row>
     <row r="791" spans="1:29">
@@ -70867,7 +70867,7 @@
         <v>789</v>
       </c>
       <c r="B791">
-        <v>5177329</v>
+        <v>5177335</v>
       </c>
       <c r="C791" t="s">
         <v>28</v>
@@ -70879,76 +70879,76 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F791" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G791" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I791">
         <v>0</v>
       </c>
       <c r="J791" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K791">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L791">
         <v>3.5</v>
       </c>
       <c r="M791">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N791">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="O791">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P791">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q791">
         <v>-0.25</v>
       </c>
       <c r="R791">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="S791">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T791">
         <v>2.25</v>
       </c>
       <c r="U791">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V791">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W791">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X791">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y791">
         <v>-1</v>
       </c>
       <c r="Z791">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA791">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB791">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC791">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="792" spans="1:29">
@@ -71134,7 +71134,7 @@
         <v>792</v>
       </c>
       <c r="B794">
-        <v>5177340</v>
+        <v>5177345</v>
       </c>
       <c r="C794" t="s">
         <v>28</v>
@@ -71146,76 +71146,76 @@
         <v>44958.625</v>
       </c>
       <c r="F794" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G794" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I794">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J794" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K794">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="L794">
+        <v>3.6</v>
+      </c>
+      <c r="M794">
         <v>4.333</v>
       </c>
-      <c r="M794">
-        <v>7</v>
-      </c>
       <c r="N794">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="O794">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P794">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q794">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R794">
         <v>2</v>
       </c>
       <c r="S794">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="T794">
         <v>2.5</v>
       </c>
       <c r="U794">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V794">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W794">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X794">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y794">
         <v>-1</v>
       </c>
       <c r="Z794">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA794">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB794">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC794">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="795" spans="1:29">
@@ -71223,7 +71223,7 @@
         <v>793</v>
       </c>
       <c r="B795">
-        <v>5177345</v>
+        <v>5177340</v>
       </c>
       <c r="C795" t="s">
         <v>28</v>
@@ -71235,76 +71235,76 @@
         <v>44958.625</v>
       </c>
       <c r="F795" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G795" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H795">
+        <v>0</v>
+      </c>
+      <c r="I795">
+        <v>0</v>
+      </c>
+      <c r="J795" t="s">
+        <v>57</v>
+      </c>
+      <c r="K795">
+        <v>1.45</v>
+      </c>
+      <c r="L795">
+        <v>4.333</v>
+      </c>
+      <c r="M795">
+        <v>7</v>
+      </c>
+      <c r="N795">
+        <v>1.55</v>
+      </c>
+      <c r="O795">
         <v>4</v>
       </c>
-      <c r="I795">
-        <v>2</v>
-      </c>
-      <c r="J795" t="s">
-        <v>56</v>
-      </c>
-      <c r="K795">
-        <v>1.8</v>
-      </c>
-      <c r="L795">
-        <v>3.6</v>
-      </c>
-      <c r="M795">
-        <v>4.333</v>
-      </c>
-      <c r="N795">
-        <v>1.75</v>
-      </c>
-      <c r="O795">
-        <v>3.75</v>
-      </c>
       <c r="P795">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q795">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R795">
         <v>2</v>
       </c>
       <c r="S795">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="T795">
         <v>2.5</v>
       </c>
       <c r="U795">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V795">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W795">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X795">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y795">
         <v>-1</v>
       </c>
       <c r="Z795">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA795">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB795">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC795">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="796" spans="1:29">
@@ -71312,7 +71312,7 @@
         <v>794</v>
       </c>
       <c r="B796">
-        <v>5177339</v>
+        <v>5177338</v>
       </c>
       <c r="C796" t="s">
         <v>28</v>
@@ -71324,13 +71324,13 @@
         <v>44958.625</v>
       </c>
       <c r="F796" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G796" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I796">
         <v>2</v>
@@ -71339,61 +71339,61 @@
         <v>55</v>
       </c>
       <c r="K796">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L796">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M796">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="N796">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="O796">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P796">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q796">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R796">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S796">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T796">
+        <v>2</v>
+      </c>
+      <c r="U796">
+        <v>1.925</v>
+      </c>
+      <c r="V796">
+        <v>1.925</v>
+      </c>
+      <c r="W796">
+        <v>-1</v>
+      </c>
+      <c r="X796">
+        <v>-1</v>
+      </c>
+      <c r="Y796">
         <v>2.5</v>
       </c>
-      <c r="U796">
-        <v>1.95</v>
-      </c>
-      <c r="V796">
-        <v>1.9</v>
-      </c>
-      <c r="W796">
-        <v>-1</v>
-      </c>
-      <c r="X796">
-        <v>-1</v>
-      </c>
-      <c r="Y796">
-        <v>0.7</v>
-      </c>
       <c r="Z796">
         <v>-1</v>
       </c>
       <c r="AA796">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB796">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC796">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="797" spans="1:29">
@@ -71401,7 +71401,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>5177338</v>
+        <v>5177346</v>
       </c>
       <c r="C797" t="s">
         <v>28</v>
@@ -71413,73 +71413,73 @@
         <v>44958.625</v>
       </c>
       <c r="F797" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G797" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H797">
+        <v>4</v>
+      </c>
+      <c r="I797">
         <v>1</v>
       </c>
-      <c r="I797">
-        <v>2</v>
-      </c>
       <c r="J797" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K797">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L797">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M797">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N797">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O797">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P797">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q797">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R797">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S797">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T797">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U797">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V797">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W797">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X797">
         <v>-1</v>
       </c>
       <c r="Y797">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z797">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA797">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB797">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC797">
         <v>-1</v>
@@ -71490,7 +71490,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>5177346</v>
+        <v>5177339</v>
       </c>
       <c r="C798" t="s">
         <v>28</v>
@@ -71502,76 +71502,76 @@
         <v>44958.625</v>
       </c>
       <c r="F798" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G798" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H798">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I798">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J798" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K798">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="L798">
         <v>3.6</v>
       </c>
       <c r="M798">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N798">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="O798">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P798">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q798">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R798">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S798">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T798">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U798">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V798">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W798">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X798">
         <v>-1</v>
       </c>
       <c r="Y798">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z798">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA798">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB798">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC798">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="799" spans="1:29">
@@ -71579,7 +71579,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>5177342</v>
+        <v>5177343</v>
       </c>
       <c r="C799" t="s">
         <v>28</v>
@@ -71591,76 +71591,76 @@
         <v>44958.70833333334</v>
       </c>
       <c r="F799" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G799" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H799">
         <v>0</v>
       </c>
       <c r="I799">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J799" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K799">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L799">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M799">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N799">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O799">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P799">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q799">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R799">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S799">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T799">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U799">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V799">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W799">
         <v>-1</v>
       </c>
       <c r="X799">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y799">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z799">
         <v>-1</v>
       </c>
       <c r="AA799">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB799">
         <v>-1</v>
       </c>
       <c r="AC799">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="800" spans="1:29">
@@ -71668,7 +71668,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>5177341</v>
+        <v>5177342</v>
       </c>
       <c r="C800" t="s">
         <v>28</v>
@@ -71680,76 +71680,76 @@
         <v>44958.70833333334</v>
       </c>
       <c r="F800" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G800" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H800">
+        <v>0</v>
+      </c>
+      <c r="I800">
+        <v>0</v>
+      </c>
+      <c r="J800" t="s">
+        <v>57</v>
+      </c>
+      <c r="K800">
+        <v>1.5</v>
+      </c>
+      <c r="L800">
+        <v>4.333</v>
+      </c>
+      <c r="M800">
+        <v>6</v>
+      </c>
+      <c r="N800">
+        <v>1.5</v>
+      </c>
+      <c r="O800">
+        <v>4.333</v>
+      </c>
+      <c r="P800">
+        <v>6.5</v>
+      </c>
+      <c r="Q800">
+        <v>-1</v>
+      </c>
+      <c r="R800">
+        <v>1.85</v>
+      </c>
+      <c r="S800">
+        <v>2</v>
+      </c>
+      <c r="T800">
+        <v>2.75</v>
+      </c>
+      <c r="U800">
+        <v>1.85</v>
+      </c>
+      <c r="V800">
+        <v>2</v>
+      </c>
+      <c r="W800">
+        <v>-1</v>
+      </c>
+      <c r="X800">
+        <v>3.333</v>
+      </c>
+      <c r="Y800">
+        <v>-1</v>
+      </c>
+      <c r="Z800">
+        <v>-1</v>
+      </c>
+      <c r="AA800">
         <v>1</v>
       </c>
-      <c r="I800">
-        <v>3</v>
-      </c>
-      <c r="J800" t="s">
-        <v>55</v>
-      </c>
-      <c r="K800">
-        <v>8.5</v>
-      </c>
-      <c r="L800">
-        <v>5.5</v>
-      </c>
-      <c r="M800">
-        <v>1.3</v>
-      </c>
-      <c r="N800">
-        <v>8.5</v>
-      </c>
-      <c r="O800">
-        <v>6</v>
-      </c>
-      <c r="P800">
-        <v>1.285</v>
-      </c>
-      <c r="Q800">
-        <v>1.75</v>
-      </c>
-      <c r="R800">
-        <v>1.825</v>
-      </c>
-      <c r="S800">
-        <v>2.025</v>
-      </c>
-      <c r="T800">
-        <v>3.25</v>
-      </c>
-      <c r="U800">
-        <v>1.925</v>
-      </c>
-      <c r="V800">
-        <v>1.925</v>
-      </c>
-      <c r="W800">
-        <v>-1</v>
-      </c>
-      <c r="X800">
-        <v>-1</v>
-      </c>
-      <c r="Y800">
-        <v>0.2849999999999999</v>
-      </c>
-      <c r="Z800">
-        <v>-0.5</v>
-      </c>
-      <c r="AA800">
-        <v>0.5125</v>
-      </c>
       <c r="AB800">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC800">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:29">
@@ -71757,7 +71757,7 @@
         <v>799</v>
       </c>
       <c r="B801">
-        <v>5177343</v>
+        <v>5177341</v>
       </c>
       <c r="C801" t="s">
         <v>28</v>
@@ -71769,55 +71769,55 @@
         <v>44958.70833333334</v>
       </c>
       <c r="F801" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G801" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I801">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J801" t="s">
         <v>55</v>
       </c>
       <c r="K801">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="L801">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M801">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="N801">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="O801">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="P801">
-        <v>5</v>
+        <v>1.285</v>
       </c>
       <c r="Q801">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R801">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S801">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T801">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U801">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V801">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W801">
         <v>-1</v>
@@ -71826,19 +71826,19 @@
         <v>-1</v>
       </c>
       <c r="Y801">
-        <v>4</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z801">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA801">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AB801">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC801">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="802" spans="1:29">
@@ -74160,7 +74160,7 @@
         <v>826</v>
       </c>
       <c r="B828">
-        <v>5177376</v>
+        <v>5177373</v>
       </c>
       <c r="C828" t="s">
         <v>28</v>
@@ -74172,55 +74172,55 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F828" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G828" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I828">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J828" t="s">
         <v>55</v>
       </c>
       <c r="K828">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="L828">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M828">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="N828">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="O828">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P828">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="Q828">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R828">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="S828">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="T828">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U828">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="V828">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="W828">
         <v>-1</v>
@@ -74229,19 +74229,19 @@
         <v>-1</v>
       </c>
       <c r="Y828">
-        <v>1.25</v>
+        <v>0.833</v>
       </c>
       <c r="Z828">
         <v>-1</v>
       </c>
       <c r="AA828">
-        <v>0.95</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB828">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AC828">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="829" spans="1:29">
@@ -74249,7 +74249,7 @@
         <v>827</v>
       </c>
       <c r="B829">
-        <v>5177373</v>
+        <v>5177376</v>
       </c>
       <c r="C829" t="s">
         <v>28</v>
@@ -74261,56 +74261,56 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F829" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G829" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H829">
+        <v>0</v>
+      </c>
+      <c r="I829">
         <v>1</v>
-      </c>
-      <c r="I829">
-        <v>2</v>
       </c>
       <c r="J829" t="s">
         <v>55</v>
       </c>
       <c r="K829">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="L829">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M829">
+        <v>3.2</v>
+      </c>
+      <c r="N829">
+        <v>3.25</v>
+      </c>
+      <c r="O829">
+        <v>3.25</v>
+      </c>
+      <c r="P829">
+        <v>2.25</v>
+      </c>
+      <c r="Q829">
+        <v>0.25</v>
+      </c>
+      <c r="R829">
+        <v>1.9</v>
+      </c>
+      <c r="S829">
+        <v>1.95</v>
+      </c>
+      <c r="T829">
+        <v>2.5</v>
+      </c>
+      <c r="U829">
+        <v>2.05</v>
+      </c>
+      <c r="V829">
         <v>1.8</v>
       </c>
-      <c r="N829">
-        <v>4.333</v>
-      </c>
-      <c r="O829">
-        <v>3.6</v>
-      </c>
-      <c r="P829">
-        <v>1.833</v>
-      </c>
-      <c r="Q829">
-        <v>0.5</v>
-      </c>
-      <c r="R829">
-        <v>2.02</v>
-      </c>
-      <c r="S829">
-        <v>1.88</v>
-      </c>
-      <c r="T829">
-        <v>2.75</v>
-      </c>
-      <c r="U829">
-        <v>2.03</v>
-      </c>
-      <c r="V829">
-        <v>1.87</v>
-      </c>
       <c r="W829">
         <v>-1</v>
       </c>
@@ -74318,19 +74318,19 @@
         <v>-1</v>
       </c>
       <c r="Y829">
-        <v>0.833</v>
+        <v>1.25</v>
       </c>
       <c r="Z829">
         <v>-1</v>
       </c>
       <c r="AA829">
-        <v>0.8799999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB829">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC829">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="830" spans="1:29">
@@ -74338,7 +74338,7 @@
         <v>828</v>
       </c>
       <c r="B830">
-        <v>5177368</v>
+        <v>5177374</v>
       </c>
       <c r="C830" t="s">
         <v>28</v>
@@ -74350,13 +74350,13 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F830" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G830" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H830">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I830">
         <v>0</v>
@@ -74365,43 +74365,43 @@
         <v>56</v>
       </c>
       <c r="K830">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="L830">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M830">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="N830">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O830">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P830">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q830">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R830">
+        <v>2</v>
+      </c>
+      <c r="S830">
+        <v>1.85</v>
+      </c>
+      <c r="T830">
+        <v>2.5</v>
+      </c>
+      <c r="U830">
         <v>2.025</v>
       </c>
-      <c r="S830">
+      <c r="V830">
         <v>1.825</v>
       </c>
-      <c r="T830">
-        <v>2</v>
-      </c>
-      <c r="U830">
-        <v>1.875</v>
-      </c>
-      <c r="V830">
-        <v>1.975</v>
-      </c>
       <c r="W830">
-        <v>1.05</v>
+        <v>0.571</v>
       </c>
       <c r="X830">
         <v>-1</v>
@@ -74410,16 +74410,16 @@
         <v>-1</v>
       </c>
       <c r="Z830">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA830">
         <v>-1</v>
       </c>
       <c r="AB830">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC830">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="831" spans="1:29">
@@ -74427,7 +74427,7 @@
         <v>829</v>
       </c>
       <c r="B831">
-        <v>5177374</v>
+        <v>5177368</v>
       </c>
       <c r="C831" t="s">
         <v>28</v>
@@ -74439,13 +74439,13 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F831" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G831" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I831">
         <v>0</v>
@@ -74454,43 +74454,43 @@
         <v>56</v>
       </c>
       <c r="K831">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="L831">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M831">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="N831">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="O831">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P831">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q831">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R831">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S831">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T831">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U831">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V831">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W831">
-        <v>0.571</v>
+        <v>1.05</v>
       </c>
       <c r="X831">
         <v>-1</v>
@@ -74499,16 +74499,16 @@
         <v>-1</v>
       </c>
       <c r="Z831">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA831">
         <v>-1</v>
       </c>
       <c r="AB831">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC831">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="832" spans="1:29">
@@ -79678,7 +79678,7 @@
         <v>888</v>
       </c>
       <c r="B890">
-        <v>5177427</v>
+        <v>5177431</v>
       </c>
       <c r="C890" t="s">
         <v>28</v>
@@ -79690,55 +79690,55 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F890" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G890" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I890">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J890" t="s">
         <v>55</v>
       </c>
       <c r="K890">
+        <v>2.3</v>
+      </c>
+      <c r="L890">
+        <v>3.5</v>
+      </c>
+      <c r="M890">
+        <v>2.875</v>
+      </c>
+      <c r="N890">
+        <v>1.95</v>
+      </c>
+      <c r="O890">
+        <v>3.75</v>
+      </c>
+      <c r="P890">
+        <v>3.6</v>
+      </c>
+      <c r="Q890">
+        <v>-0.5</v>
+      </c>
+      <c r="R890">
+        <v>1.95</v>
+      </c>
+      <c r="S890">
+        <v>1.9</v>
+      </c>
+      <c r="T890">
         <v>2.75</v>
       </c>
-      <c r="L890">
-        <v>3</v>
-      </c>
-      <c r="M890">
-        <v>2.75</v>
-      </c>
-      <c r="N890">
-        <v>2.8</v>
-      </c>
-      <c r="O890">
-        <v>2.8</v>
-      </c>
-      <c r="P890">
-        <v>3</v>
-      </c>
-      <c r="Q890">
-        <v>0</v>
-      </c>
-      <c r="R890">
-        <v>1.85</v>
-      </c>
-      <c r="S890">
-        <v>2</v>
-      </c>
-      <c r="T890">
-        <v>1.75</v>
-      </c>
       <c r="U890">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V890">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W890">
         <v>-1</v>
@@ -79747,19 +79747,19 @@
         <v>-1</v>
       </c>
       <c r="Y890">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Z890">
         <v>-1</v>
       </c>
       <c r="AA890">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB890">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC890">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="891" spans="1:29">
@@ -79767,7 +79767,7 @@
         <v>889</v>
       </c>
       <c r="B891">
-        <v>5177431</v>
+        <v>5177427</v>
       </c>
       <c r="C891" t="s">
         <v>28</v>
@@ -79779,55 +79779,55 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F891" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G891" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H891">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I891">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J891" t="s">
         <v>55</v>
       </c>
       <c r="K891">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L891">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M891">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N891">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="O891">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="P891">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q891">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R891">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S891">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T891">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U891">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V891">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W891">
         <v>-1</v>
@@ -79836,19 +79836,19 @@
         <v>-1</v>
       </c>
       <c r="Y891">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Z891">
         <v>-1</v>
       </c>
       <c r="AA891">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB891">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC891">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="892" spans="1:29">
@@ -94719,7 +94719,7 @@
         <v>1057</v>
       </c>
       <c r="B1059">
-        <v>6847912</v>
+        <v>6847907</v>
       </c>
       <c r="C1059" t="s">
         <v>28</v>
@@ -94731,13 +94731,13 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F1059" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G1059" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H1059">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1059">
         <v>0</v>
@@ -94746,43 +94746,43 @@
         <v>56</v>
       </c>
       <c r="K1059">
-        <v>1.869</v>
+        <v>2.2</v>
       </c>
       <c r="L1059">
         <v>3.75</v>
       </c>
       <c r="M1059">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="N1059">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="O1059">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P1059">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q1059">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R1059">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S1059">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T1059">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U1059">
+        <v>2.025</v>
+      </c>
+      <c r="V1059">
         <v>1.825</v>
       </c>
-      <c r="V1059">
-        <v>2.025</v>
-      </c>
       <c r="W1059">
-        <v>0.833</v>
+        <v>1.375</v>
       </c>
       <c r="X1059">
         <v>-1</v>
@@ -94791,16 +94791,16 @@
         <v>-1</v>
       </c>
       <c r="Z1059">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA1059">
         <v>-1</v>
       </c>
       <c r="AB1059">
+        <v>-1</v>
+      </c>
+      <c r="AC1059">
         <v>0.825</v>
-      </c>
-      <c r="AC1059">
-        <v>-1</v>
       </c>
     </row>
     <row r="1060" spans="1:29">
@@ -94808,7 +94808,7 @@
         <v>1058</v>
       </c>
       <c r="B1060">
-        <v>6847907</v>
+        <v>6847912</v>
       </c>
       <c r="C1060" t="s">
         <v>28</v>
@@ -94820,13 +94820,13 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F1060" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G1060" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H1060">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1060">
         <v>0</v>
@@ -94835,43 +94835,43 @@
         <v>56</v>
       </c>
       <c r="K1060">
-        <v>2.2</v>
+        <v>1.869</v>
       </c>
       <c r="L1060">
         <v>3.75</v>
       </c>
       <c r="M1060">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="N1060">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O1060">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P1060">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q1060">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R1060">
+        <v>1.85</v>
+      </c>
+      <c r="S1060">
+        <v>2</v>
+      </c>
+      <c r="T1060">
+        <v>2.5</v>
+      </c>
+      <c r="U1060">
         <v>1.825</v>
       </c>
-      <c r="S1060">
+      <c r="V1060">
         <v>2.025</v>
       </c>
-      <c r="T1060">
-        <v>3</v>
-      </c>
-      <c r="U1060">
-        <v>2.025</v>
-      </c>
-      <c r="V1060">
-        <v>1.825</v>
-      </c>
       <c r="W1060">
-        <v>1.375</v>
+        <v>0.833</v>
       </c>
       <c r="X1060">
         <v>-1</v>
@@ -94880,16 +94880,16 @@
         <v>-1</v>
       </c>
       <c r="Z1060">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA1060">
+        <v>-1</v>
+      </c>
+      <c r="AB1060">
         <v>0.825</v>
       </c>
-      <c r="AA1060">
-        <v>-1</v>
-      </c>
-      <c r="AB1060">
-        <v>-1</v>
-      </c>
       <c r="AC1060">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1061" spans="1:29">
@@ -102412,10 +102412,10 @@
         <v>1</v>
       </c>
       <c r="R1145">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S1145">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T1145">
         <v>3</v>
@@ -102791,10 +102791,10 @@
         <v>2.75</v>
       </c>
       <c r="U1150">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V1150">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W1150">
         <v>0</v>
@@ -102865,10 +102865,10 @@
         <v>2</v>
       </c>
       <c r="U1151">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V1151">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="W1151">
         <v>0</v>

--- a/France Ligue 1/France Ligue 1.xlsx
+++ b/France Ligue 1/France Ligue 1.xlsx
@@ -64459,7 +64459,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>5177259</v>
+        <v>5177264</v>
       </c>
       <c r="C719" t="s">
         <v>28</v>
@@ -64471,76 +64471,76 @@
         <v>44864.45833333334</v>
       </c>
       <c r="F719" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G719" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H719">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I719">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J719" t="s">
         <v>57</v>
       </c>
       <c r="K719">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L719">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M719">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N719">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="O719">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P719">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q719">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R719">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S719">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T719">
         <v>2.5</v>
       </c>
       <c r="U719">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V719">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W719">
         <v>-1</v>
       </c>
       <c r="X719">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y719">
         <v>-1</v>
       </c>
       <c r="Z719">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA719">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB719">
         <v>-1</v>
       </c>
       <c r="AC719">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:29">
@@ -64548,7 +64548,7 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>5177264</v>
+        <v>5177265</v>
       </c>
       <c r="C720" t="s">
         <v>28</v>
@@ -64560,40 +64560,40 @@
         <v>44864.45833333334</v>
       </c>
       <c r="F720" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G720" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I720">
         <v>0</v>
       </c>
       <c r="J720" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K720">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="L720">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M720">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N720">
-        <v>2.75</v>
+        <v>1.363</v>
       </c>
       <c r="O720">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P720">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="Q720">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R720">
         <v>1.975</v>
@@ -64602,34 +64602,34 @@
         <v>1.875</v>
       </c>
       <c r="T720">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U720">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V720">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W720">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X720">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y720">
         <v>-1</v>
       </c>
       <c r="Z720">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA720">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB720">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC720">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="721" spans="1:29">
@@ -64637,7 +64637,7 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>5177265</v>
+        <v>5177259</v>
       </c>
       <c r="C721" t="s">
         <v>28</v>
@@ -64649,76 +64649,76 @@
         <v>44864.45833333334</v>
       </c>
       <c r="F721" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G721" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H721">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I721">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J721" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K721">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="L721">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M721">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N721">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="O721">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P721">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q721">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R721">
+        <v>1.9</v>
+      </c>
+      <c r="S721">
+        <v>1.95</v>
+      </c>
+      <c r="T721">
+        <v>2.5</v>
+      </c>
+      <c r="U721">
+        <v>1.875</v>
+      </c>
+      <c r="V721">
         <v>1.975</v>
       </c>
-      <c r="S721">
-        <v>1.875</v>
-      </c>
-      <c r="T721">
-        <v>3.25</v>
-      </c>
-      <c r="U721">
-        <v>2.025</v>
-      </c>
-      <c r="V721">
-        <v>1.825</v>
-      </c>
       <c r="W721">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X721">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y721">
         <v>-1</v>
       </c>
       <c r="Z721">
+        <v>-1</v>
+      </c>
+      <c r="AA721">
+        <v>0.95</v>
+      </c>
+      <c r="AB721">
+        <v>-1</v>
+      </c>
+      <c r="AC721">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA721">
-        <v>-1</v>
-      </c>
-      <c r="AB721">
-        <v>-0.5</v>
-      </c>
-      <c r="AC721">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="722" spans="1:29">
@@ -65438,7 +65438,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>5177274</v>
+        <v>5177273</v>
       </c>
       <c r="C730" t="s">
         <v>28</v>
@@ -65450,76 +65450,76 @@
         <v>44871.45833333334</v>
       </c>
       <c r="F730" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G730" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H730">
+        <v>1</v>
+      </c>
+      <c r="I730">
         <v>0</v>
       </c>
-      <c r="I730">
-        <v>2</v>
-      </c>
       <c r="J730" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K730">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="L730">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M730">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N730">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="O730">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P730">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q730">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R730">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S730">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T730">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U730">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="V730">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="W730">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X730">
         <v>-1</v>
       </c>
       <c r="Y730">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z730">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA730">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB730">
         <v>-1</v>
       </c>
       <c r="AC730">
-        <v>0.8999999999999999</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="731" spans="1:29">
@@ -65527,7 +65527,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>5177273</v>
+        <v>5177274</v>
       </c>
       <c r="C731" t="s">
         <v>28</v>
@@ -65539,76 +65539,76 @@
         <v>44871.45833333334</v>
       </c>
       <c r="F731" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G731" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I731">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J731" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K731">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="L731">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M731">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N731">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="O731">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P731">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q731">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R731">
+        <v>1.925</v>
+      </c>
+      <c r="S731">
+        <v>1.925</v>
+      </c>
+      <c r="T731">
+        <v>3</v>
+      </c>
+      <c r="U731">
+        <v>1.95</v>
+      </c>
+      <c r="V731">
         <v>1.9</v>
       </c>
-      <c r="S731">
-        <v>2</v>
-      </c>
-      <c r="T731">
-        <v>2.5</v>
-      </c>
-      <c r="U731">
-        <v>2.01</v>
-      </c>
-      <c r="V731">
-        <v>1.89</v>
-      </c>
       <c r="W731">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X731">
         <v>-1</v>
       </c>
       <c r="Y731">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z731">
+        <v>-1</v>
+      </c>
+      <c r="AA731">
+        <v>0.925</v>
+      </c>
+      <c r="AB731">
+        <v>-1</v>
+      </c>
+      <c r="AC731">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA731">
-        <v>-1</v>
-      </c>
-      <c r="AB731">
-        <v>-1</v>
-      </c>
-      <c r="AC731">
-        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="732" spans="1:29">
@@ -68464,7 +68464,7 @@
         <v>762</v>
       </c>
       <c r="B764">
-        <v>6081165</v>
+        <v>6081167</v>
       </c>
       <c r="C764" t="s">
         <v>28</v>
@@ -68476,76 +68476,76 @@
         <v>44937.625</v>
       </c>
       <c r="F764" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G764" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J764" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K764">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="L764">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M764">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="N764">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O764">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P764">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="Q764">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R764">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S764">
-        <v>1.925</v>
+        <v>2.08</v>
       </c>
       <c r="T764">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U764">
-        <v>1.825</v>
+        <v>1.94</v>
       </c>
       <c r="V764">
-        <v>2.025</v>
+        <v>1.96</v>
       </c>
       <c r="W764">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X764">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y764">
         <v>-1</v>
       </c>
       <c r="Z764">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA764">
         <v>-1</v>
       </c>
       <c r="AB764">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC764">
-        <v>-1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="765" spans="1:29">
@@ -68553,7 +68553,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>6081164</v>
+        <v>6081166</v>
       </c>
       <c r="C765" t="s">
         <v>28</v>
@@ -68565,76 +68565,76 @@
         <v>44937.625</v>
       </c>
       <c r="F765" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G765" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H765">
         <v>0</v>
       </c>
       <c r="I765">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J765" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K765">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="L765">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M765">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="N765">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O765">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P765">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Q765">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R765">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S765">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T765">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U765">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V765">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W765">
         <v>-1</v>
       </c>
       <c r="X765">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y765">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z765">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA765">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB765">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC765">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="766" spans="1:29">
@@ -68642,7 +68642,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>6081163</v>
+        <v>6081164</v>
       </c>
       <c r="C766" t="s">
         <v>28</v>
@@ -68654,16 +68654,16 @@
         <v>44937.625</v>
       </c>
       <c r="F766" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G766" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H766">
         <v>0</v>
       </c>
       <c r="I766">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J766" t="s">
         <v>55</v>
@@ -68672,37 +68672,37 @@
         <v>2.8</v>
       </c>
       <c r="L766">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M766">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N766">
+        <v>3</v>
+      </c>
+      <c r="O766">
         <v>3.3</v>
       </c>
-      <c r="O766">
-        <v>3</v>
-      </c>
       <c r="P766">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q766">
         <v>0.25</v>
       </c>
       <c r="R766">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S766">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T766">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U766">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V766">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W766">
         <v>-1</v>
@@ -68711,19 +68711,19 @@
         <v>-1</v>
       </c>
       <c r="Y766">
-        <v>1.375</v>
+        <v>1.4</v>
       </c>
       <c r="Z766">
         <v>-1</v>
       </c>
       <c r="AA766">
-        <v>1.025</v>
+        <v>1.1</v>
       </c>
       <c r="AB766">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC766">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="767" spans="1:29">
@@ -68731,7 +68731,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>6081166</v>
+        <v>6081165</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68743,76 +68743,76 @@
         <v>44937.625</v>
       </c>
       <c r="F767" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G767" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J767" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K767">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="L767">
         <v>3.5</v>
       </c>
       <c r="M767">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="N767">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O767">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P767">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="Q767">
         <v>0.5</v>
       </c>
       <c r="R767">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S767">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T767">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U767">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V767">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W767">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X767">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y767">
         <v>-1</v>
       </c>
       <c r="Z767">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA767">
         <v>-1</v>
       </c>
       <c r="AB767">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC767">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="768" spans="1:29">
@@ -68820,7 +68820,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>6081167</v>
+        <v>6081163</v>
       </c>
       <c r="C768" t="s">
         <v>28</v>
@@ -68832,76 +68832,76 @@
         <v>44937.625</v>
       </c>
       <c r="F768" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G768" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H768">
         <v>0</v>
       </c>
       <c r="I768">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J768" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K768">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="L768">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M768">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N768">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="O768">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P768">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q768">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R768">
+        <v>1.825</v>
+      </c>
+      <c r="S768">
+        <v>2.025</v>
+      </c>
+      <c r="T768">
+        <v>2</v>
+      </c>
+      <c r="U768">
         <v>1.85</v>
       </c>
-      <c r="S768">
-        <v>2.08</v>
-      </c>
-      <c r="T768">
-        <v>2.5</v>
-      </c>
-      <c r="U768">
-        <v>1.94</v>
-      </c>
       <c r="V768">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="W768">
         <v>-1</v>
       </c>
       <c r="X768">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y768">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z768">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA768">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB768">
         <v>-1</v>
       </c>
       <c r="AC768">
-        <v>0.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:29">
@@ -69176,7 +69176,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>6081168</v>
+        <v>6081169</v>
       </c>
       <c r="C772" t="s">
         <v>28</v>
@@ -69188,40 +69188,40 @@
         <v>44937.70833333334</v>
       </c>
       <c r="F772" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G772" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I772">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J772" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K772">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="L772">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M772">
+        <v>4.5</v>
+      </c>
+      <c r="N772">
         <v>1.85</v>
       </c>
-      <c r="N772">
-        <v>4.5</v>
-      </c>
       <c r="O772">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P772">
-        <v>1.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q772">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R772">
         <v>1.85</v>
@@ -69230,19 +69230,19 @@
         <v>2</v>
       </c>
       <c r="T772">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U772">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V772">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W772">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X772">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y772">
         <v>-1</v>
@@ -69254,7 +69254,7 @@
         <v>-1</v>
       </c>
       <c r="AB772">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC772">
         <v>-1</v>
@@ -69265,7 +69265,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>6081169</v>
+        <v>6081168</v>
       </c>
       <c r="C773" t="s">
         <v>28</v>
@@ -69277,40 +69277,40 @@
         <v>44937.70833333334</v>
       </c>
       <c r="F773" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G773" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H773">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I773">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J773" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K773">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="L773">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M773">
+        <v>1.85</v>
+      </c>
+      <c r="N773">
         <v>4.5</v>
       </c>
-      <c r="N773">
-        <v>1.85</v>
-      </c>
       <c r="O773">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P773">
-        <v>4.333</v>
+        <v>1.75</v>
       </c>
       <c r="Q773">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R773">
         <v>1.85</v>
@@ -69319,19 +69319,19 @@
         <v>2</v>
       </c>
       <c r="T773">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U773">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V773">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W773">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X773">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y773">
         <v>-1</v>
@@ -69343,7 +69343,7 @@
         <v>-1</v>
       </c>
       <c r="AB773">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC773">
         <v>-1</v>
@@ -70600,7 +70600,7 @@
         <v>786</v>
       </c>
       <c r="B788">
-        <v>5177329</v>
+        <v>5177335</v>
       </c>
       <c r="C788" t="s">
         <v>28</v>
@@ -70612,76 +70612,76 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F788" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G788" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I788">
         <v>0</v>
       </c>
       <c r="J788" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K788">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L788">
         <v>3.5</v>
       </c>
       <c r="M788">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N788">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="O788">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P788">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q788">
         <v>-0.25</v>
       </c>
       <c r="R788">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="S788">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T788">
         <v>2.25</v>
       </c>
       <c r="U788">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V788">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W788">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X788">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y788">
         <v>-1</v>
       </c>
       <c r="Z788">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA788">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB788">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC788">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="789" spans="1:29">
@@ -70689,7 +70689,7 @@
         <v>787</v>
       </c>
       <c r="B789">
-        <v>5177334</v>
+        <v>5177328</v>
       </c>
       <c r="C789" t="s">
         <v>28</v>
@@ -70701,13 +70701,13 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F789" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G789" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I789">
         <v>2</v>
@@ -70716,19 +70716,19 @@
         <v>55</v>
       </c>
       <c r="K789">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L789">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M789">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N789">
         <v>2.375</v>
       </c>
       <c r="O789">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P789">
         <v>3.1</v>
@@ -70737,19 +70737,19 @@
         <v>-0.25</v>
       </c>
       <c r="R789">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S789">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T789">
         <v>2.5</v>
       </c>
       <c r="U789">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V789">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W789">
         <v>-1</v>
@@ -70764,13 +70764,13 @@
         <v>-1</v>
       </c>
       <c r="AA789">
+        <v>0.825</v>
+      </c>
+      <c r="AB789">
+        <v>-1</v>
+      </c>
+      <c r="AC789">
         <v>0.8</v>
-      </c>
-      <c r="AB789">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC789">
-        <v>-1</v>
       </c>
     </row>
     <row r="790" spans="1:29">
@@ -70778,7 +70778,7 @@
         <v>788</v>
       </c>
       <c r="B790">
-        <v>5177328</v>
+        <v>5177334</v>
       </c>
       <c r="C790" t="s">
         <v>28</v>
@@ -70790,13 +70790,13 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F790" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G790" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I790">
         <v>2</v>
@@ -70805,19 +70805,19 @@
         <v>55</v>
       </c>
       <c r="K790">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L790">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M790">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N790">
         <v>2.375</v>
       </c>
       <c r="O790">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P790">
         <v>3.1</v>
@@ -70826,19 +70826,19 @@
         <v>-0.25</v>
       </c>
       <c r="R790">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S790">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T790">
         <v>2.5</v>
       </c>
       <c r="U790">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V790">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W790">
         <v>-1</v>
@@ -70853,13 +70853,13 @@
         <v>-1</v>
       </c>
       <c r="AA790">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB790">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC790">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="791" spans="1:29">
@@ -70867,7 +70867,7 @@
         <v>789</v>
       </c>
       <c r="B791">
-        <v>5177335</v>
+        <v>5177329</v>
       </c>
       <c r="C791" t="s">
         <v>28</v>
@@ -70879,76 +70879,76 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F791" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G791" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H791">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I791">
         <v>0</v>
       </c>
       <c r="J791" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K791">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L791">
         <v>3.5</v>
       </c>
       <c r="M791">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N791">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O791">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P791">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q791">
         <v>-0.25</v>
       </c>
       <c r="R791">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S791">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T791">
         <v>2.25</v>
       </c>
       <c r="U791">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V791">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W791">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X791">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y791">
         <v>-1</v>
       </c>
       <c r="Z791">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA791">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB791">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC791">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="792" spans="1:29">
@@ -71134,7 +71134,7 @@
         <v>792</v>
       </c>
       <c r="B794">
-        <v>5177345</v>
+        <v>5177340</v>
       </c>
       <c r="C794" t="s">
         <v>28</v>
@@ -71146,76 +71146,76 @@
         <v>44958.625</v>
       </c>
       <c r="F794" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G794" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H794">
+        <v>0</v>
+      </c>
+      <c r="I794">
+        <v>0</v>
+      </c>
+      <c r="J794" t="s">
+        <v>57</v>
+      </c>
+      <c r="K794">
+        <v>1.45</v>
+      </c>
+      <c r="L794">
+        <v>4.333</v>
+      </c>
+      <c r="M794">
+        <v>7</v>
+      </c>
+      <c r="N794">
+        <v>1.55</v>
+      </c>
+      <c r="O794">
         <v>4</v>
       </c>
-      <c r="I794">
-        <v>2</v>
-      </c>
-      <c r="J794" t="s">
-        <v>56</v>
-      </c>
-      <c r="K794">
-        <v>1.8</v>
-      </c>
-      <c r="L794">
-        <v>3.6</v>
-      </c>
-      <c r="M794">
-        <v>4.333</v>
-      </c>
-      <c r="N794">
-        <v>1.75</v>
-      </c>
-      <c r="O794">
-        <v>3.75</v>
-      </c>
       <c r="P794">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q794">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R794">
         <v>2</v>
       </c>
       <c r="S794">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="T794">
         <v>2.5</v>
       </c>
       <c r="U794">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V794">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W794">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X794">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y794">
         <v>-1</v>
       </c>
       <c r="Z794">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA794">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB794">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC794">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="795" spans="1:29">
@@ -71223,7 +71223,7 @@
         <v>793</v>
       </c>
       <c r="B795">
-        <v>5177340</v>
+        <v>5177345</v>
       </c>
       <c r="C795" t="s">
         <v>28</v>
@@ -71235,76 +71235,76 @@
         <v>44958.625</v>
       </c>
       <c r="F795" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G795" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I795">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J795" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K795">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="L795">
+        <v>3.6</v>
+      </c>
+      <c r="M795">
         <v>4.333</v>
       </c>
-      <c r="M795">
-        <v>7</v>
-      </c>
       <c r="N795">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="O795">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P795">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q795">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R795">
         <v>2</v>
       </c>
       <c r="S795">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="T795">
         <v>2.5</v>
       </c>
       <c r="U795">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V795">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W795">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X795">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y795">
         <v>-1</v>
       </c>
       <c r="Z795">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA795">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB795">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC795">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="796" spans="1:29">
@@ -71312,7 +71312,7 @@
         <v>794</v>
       </c>
       <c r="B796">
-        <v>5177338</v>
+        <v>5177339</v>
       </c>
       <c r="C796" t="s">
         <v>28</v>
@@ -71324,13 +71324,13 @@
         <v>44958.625</v>
       </c>
       <c r="F796" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G796" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I796">
         <v>2</v>
@@ -71339,41 +71339,41 @@
         <v>55</v>
       </c>
       <c r="K796">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L796">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M796">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="N796">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="O796">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P796">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q796">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R796">
+        <v>1.875</v>
+      </c>
+      <c r="S796">
+        <v>1.975</v>
+      </c>
+      <c r="T796">
+        <v>2.5</v>
+      </c>
+      <c r="U796">
         <v>1.95</v>
       </c>
-      <c r="S796">
+      <c r="V796">
         <v>1.9</v>
       </c>
-      <c r="T796">
-        <v>2</v>
-      </c>
-      <c r="U796">
-        <v>1.925</v>
-      </c>
-      <c r="V796">
-        <v>1.925</v>
-      </c>
       <c r="W796">
         <v>-1</v>
       </c>
@@ -71381,19 +71381,19 @@
         <v>-1</v>
       </c>
       <c r="Y796">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="Z796">
         <v>-1</v>
       </c>
       <c r="AA796">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB796">
+        <v>-1</v>
+      </c>
+      <c r="AC796">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB796">
-        <v>0.925</v>
-      </c>
-      <c r="AC796">
-        <v>-1</v>
       </c>
     </row>
     <row r="797" spans="1:29">
@@ -71401,7 +71401,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>5177346</v>
+        <v>5177338</v>
       </c>
       <c r="C797" t="s">
         <v>28</v>
@@ -71413,73 +71413,73 @@
         <v>44958.625</v>
       </c>
       <c r="F797" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G797" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H797">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I797">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J797" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K797">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L797">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M797">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N797">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O797">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P797">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q797">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R797">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S797">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T797">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U797">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V797">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W797">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X797">
         <v>-1</v>
       </c>
       <c r="Y797">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z797">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA797">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB797">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC797">
         <v>-1</v>
@@ -71490,7 +71490,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>5177339</v>
+        <v>5177346</v>
       </c>
       <c r="C798" t="s">
         <v>28</v>
@@ -71502,76 +71502,76 @@
         <v>44958.625</v>
       </c>
       <c r="F798" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G798" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I798">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J798" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K798">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="L798">
         <v>3.6</v>
       </c>
       <c r="M798">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N798">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="O798">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P798">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q798">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R798">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S798">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T798">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U798">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V798">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W798">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X798">
         <v>-1</v>
       </c>
       <c r="Y798">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z798">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA798">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB798">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC798">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="799" spans="1:29">
@@ -71579,7 +71579,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>5177343</v>
+        <v>5177342</v>
       </c>
       <c r="C799" t="s">
         <v>28</v>
@@ -71591,76 +71591,76 @@
         <v>44958.70833333334</v>
       </c>
       <c r="F799" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G799" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H799">
         <v>0</v>
       </c>
       <c r="I799">
+        <v>0</v>
+      </c>
+      <c r="J799" t="s">
+        <v>57</v>
+      </c>
+      <c r="K799">
+        <v>1.5</v>
+      </c>
+      <c r="L799">
+        <v>4.333</v>
+      </c>
+      <c r="M799">
+        <v>6</v>
+      </c>
+      <c r="N799">
+        <v>1.5</v>
+      </c>
+      <c r="O799">
+        <v>4.333</v>
+      </c>
+      <c r="P799">
+        <v>6.5</v>
+      </c>
+      <c r="Q799">
+        <v>-1</v>
+      </c>
+      <c r="R799">
+        <v>1.85</v>
+      </c>
+      <c r="S799">
+        <v>2</v>
+      </c>
+      <c r="T799">
+        <v>2.75</v>
+      </c>
+      <c r="U799">
+        <v>1.85</v>
+      </c>
+      <c r="V799">
+        <v>2</v>
+      </c>
+      <c r="W799">
+        <v>-1</v>
+      </c>
+      <c r="X799">
+        <v>3.333</v>
+      </c>
+      <c r="Y799">
+        <v>-1</v>
+      </c>
+      <c r="Z799">
+        <v>-1</v>
+      </c>
+      <c r="AA799">
         <v>1</v>
       </c>
-      <c r="J799" t="s">
-        <v>55</v>
-      </c>
-      <c r="K799">
-        <v>1.8</v>
-      </c>
-      <c r="L799">
-        <v>3.5</v>
-      </c>
-      <c r="M799">
-        <v>4.5</v>
-      </c>
-      <c r="N799">
-        <v>1.8</v>
-      </c>
-      <c r="O799">
-        <v>3.3</v>
-      </c>
-      <c r="P799">
-        <v>5</v>
-      </c>
-      <c r="Q799">
-        <v>-0.75</v>
-      </c>
-      <c r="R799">
-        <v>2.05</v>
-      </c>
-      <c r="S799">
-        <v>1.8</v>
-      </c>
-      <c r="T799">
-        <v>2.25</v>
-      </c>
-      <c r="U799">
-        <v>1.975</v>
-      </c>
-      <c r="V799">
-        <v>1.875</v>
-      </c>
-      <c r="W799">
-        <v>-1</v>
-      </c>
-      <c r="X799">
-        <v>-1</v>
-      </c>
-      <c r="Y799">
-        <v>4</v>
-      </c>
-      <c r="Z799">
-        <v>-1</v>
-      </c>
-      <c r="AA799">
-        <v>0.8</v>
-      </c>
       <c r="AB799">
         <v>-1</v>
       </c>
       <c r="AC799">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:29">
@@ -71668,7 +71668,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>5177342</v>
+        <v>5177341</v>
       </c>
       <c r="C800" t="s">
         <v>28</v>
@@ -71680,76 +71680,76 @@
         <v>44958.70833333334</v>
       </c>
       <c r="F800" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G800" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I800">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J800" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K800">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="L800">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="M800">
+        <v>1.3</v>
+      </c>
+      <c r="N800">
+        <v>8.5</v>
+      </c>
+      <c r="O800">
         <v>6</v>
       </c>
-      <c r="N800">
-        <v>1.5</v>
-      </c>
-      <c r="O800">
-        <v>4.333</v>
-      </c>
       <c r="P800">
-        <v>6.5</v>
+        <v>1.285</v>
       </c>
       <c r="Q800">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R800">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S800">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T800">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U800">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V800">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W800">
         <v>-1</v>
       </c>
       <c r="X800">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y800">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z800">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA800">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB800">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC800">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="801" spans="1:29">
@@ -71757,7 +71757,7 @@
         <v>799</v>
       </c>
       <c r="B801">
-        <v>5177341</v>
+        <v>5177343</v>
       </c>
       <c r="C801" t="s">
         <v>28</v>
@@ -71769,55 +71769,55 @@
         <v>44958.70833333334</v>
       </c>
       <c r="F801" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G801" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H801">
+        <v>0</v>
+      </c>
+      <c r="I801">
         <v>1</v>
-      </c>
-      <c r="I801">
-        <v>3</v>
       </c>
       <c r="J801" t="s">
         <v>55</v>
       </c>
       <c r="K801">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="L801">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M801">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="N801">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="O801">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="P801">
-        <v>1.285</v>
+        <v>5</v>
       </c>
       <c r="Q801">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R801">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S801">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T801">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U801">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V801">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W801">
         <v>-1</v>
@@ -71826,19 +71826,19 @@
         <v>-1</v>
       </c>
       <c r="Y801">
-        <v>0.2849999999999999</v>
+        <v>4</v>
       </c>
       <c r="Z801">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA801">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AB801">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC801">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="802" spans="1:29">
@@ -74160,7 +74160,7 @@
         <v>826</v>
       </c>
       <c r="B828">
-        <v>5177373</v>
+        <v>5177376</v>
       </c>
       <c r="C828" t="s">
         <v>28</v>
@@ -74172,56 +74172,56 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F828" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G828" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H828">
+        <v>0</v>
+      </c>
+      <c r="I828">
         <v>1</v>
-      </c>
-      <c r="I828">
-        <v>2</v>
       </c>
       <c r="J828" t="s">
         <v>55</v>
       </c>
       <c r="K828">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="L828">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M828">
+        <v>3.2</v>
+      </c>
+      <c r="N828">
+        <v>3.25</v>
+      </c>
+      <c r="O828">
+        <v>3.25</v>
+      </c>
+      <c r="P828">
+        <v>2.25</v>
+      </c>
+      <c r="Q828">
+        <v>0.25</v>
+      </c>
+      <c r="R828">
+        <v>1.9</v>
+      </c>
+      <c r="S828">
+        <v>1.95</v>
+      </c>
+      <c r="T828">
+        <v>2.5</v>
+      </c>
+      <c r="U828">
+        <v>2.05</v>
+      </c>
+      <c r="V828">
         <v>1.8</v>
       </c>
-      <c r="N828">
-        <v>4.333</v>
-      </c>
-      <c r="O828">
-        <v>3.6</v>
-      </c>
-      <c r="P828">
-        <v>1.833</v>
-      </c>
-      <c r="Q828">
-        <v>0.5</v>
-      </c>
-      <c r="R828">
-        <v>2.02</v>
-      </c>
-      <c r="S828">
-        <v>1.88</v>
-      </c>
-      <c r="T828">
-        <v>2.75</v>
-      </c>
-      <c r="U828">
-        <v>2.03</v>
-      </c>
-      <c r="V828">
-        <v>1.87</v>
-      </c>
       <c r="W828">
         <v>-1</v>
       </c>
@@ -74229,19 +74229,19 @@
         <v>-1</v>
       </c>
       <c r="Y828">
-        <v>0.833</v>
+        <v>1.25</v>
       </c>
       <c r="Z828">
         <v>-1</v>
       </c>
       <c r="AA828">
-        <v>0.8799999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB828">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC828">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="829" spans="1:29">
@@ -74249,7 +74249,7 @@
         <v>827</v>
       </c>
       <c r="B829">
-        <v>5177376</v>
+        <v>5177373</v>
       </c>
       <c r="C829" t="s">
         <v>28</v>
@@ -74261,55 +74261,55 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F829" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G829" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I829">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J829" t="s">
         <v>55</v>
       </c>
       <c r="K829">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="L829">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M829">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="N829">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="O829">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P829">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="Q829">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R829">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="S829">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="T829">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U829">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="V829">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="W829">
         <v>-1</v>
@@ -74318,19 +74318,19 @@
         <v>-1</v>
       </c>
       <c r="Y829">
-        <v>1.25</v>
+        <v>0.833</v>
       </c>
       <c r="Z829">
         <v>-1</v>
       </c>
       <c r="AA829">
-        <v>0.95</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB829">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AC829">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="830" spans="1:29">
@@ -74338,7 +74338,7 @@
         <v>828</v>
       </c>
       <c r="B830">
-        <v>5177374</v>
+        <v>5177368</v>
       </c>
       <c r="C830" t="s">
         <v>28</v>
@@ -74350,13 +74350,13 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F830" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G830" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I830">
         <v>0</v>
@@ -74365,43 +74365,43 @@
         <v>56</v>
       </c>
       <c r="K830">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="L830">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M830">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="N830">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="O830">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P830">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q830">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R830">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S830">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T830">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U830">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V830">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W830">
-        <v>0.571</v>
+        <v>1.05</v>
       </c>
       <c r="X830">
         <v>-1</v>
@@ -74410,16 +74410,16 @@
         <v>-1</v>
       </c>
       <c r="Z830">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA830">
         <v>-1</v>
       </c>
       <c r="AB830">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC830">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="831" spans="1:29">
@@ -74427,7 +74427,7 @@
         <v>829</v>
       </c>
       <c r="B831">
-        <v>5177368</v>
+        <v>5177374</v>
       </c>
       <c r="C831" t="s">
         <v>28</v>
@@ -74439,13 +74439,13 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F831" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G831" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H831">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I831">
         <v>0</v>
@@ -74454,43 +74454,43 @@
         <v>56</v>
       </c>
       <c r="K831">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="L831">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M831">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="N831">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O831">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P831">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q831">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R831">
+        <v>2</v>
+      </c>
+      <c r="S831">
+        <v>1.85</v>
+      </c>
+      <c r="T831">
+        <v>2.5</v>
+      </c>
+      <c r="U831">
         <v>2.025</v>
       </c>
-      <c r="S831">
+      <c r="V831">
         <v>1.825</v>
       </c>
-      <c r="T831">
-        <v>2</v>
-      </c>
-      <c r="U831">
-        <v>1.875</v>
-      </c>
-      <c r="V831">
-        <v>1.975</v>
-      </c>
       <c r="W831">
-        <v>1.05</v>
+        <v>0.571</v>
       </c>
       <c r="X831">
         <v>-1</v>
@@ -74499,16 +74499,16 @@
         <v>-1</v>
       </c>
       <c r="Z831">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA831">
         <v>-1</v>
       </c>
       <c r="AB831">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC831">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="832" spans="1:29">
@@ -79678,7 +79678,7 @@
         <v>888</v>
       </c>
       <c r="B890">
-        <v>5177431</v>
+        <v>5177427</v>
       </c>
       <c r="C890" t="s">
         <v>28</v>
@@ -79690,55 +79690,55 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F890" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G890" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H890">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I890">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J890" t="s">
         <v>55</v>
       </c>
       <c r="K890">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L890">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M890">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N890">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="O890">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="P890">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q890">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R890">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S890">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T890">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U890">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V890">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W890">
         <v>-1</v>
@@ -79747,19 +79747,19 @@
         <v>-1</v>
       </c>
       <c r="Y890">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Z890">
         <v>-1</v>
       </c>
       <c r="AA890">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB890">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC890">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="891" spans="1:29">
@@ -79767,7 +79767,7 @@
         <v>889</v>
       </c>
       <c r="B891">
-        <v>5177427</v>
+        <v>5177431</v>
       </c>
       <c r="C891" t="s">
         <v>28</v>
@@ -79779,55 +79779,55 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F891" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G891" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I891">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J891" t="s">
         <v>55</v>
       </c>
       <c r="K891">
+        <v>2.3</v>
+      </c>
+      <c r="L891">
+        <v>3.5</v>
+      </c>
+      <c r="M891">
+        <v>2.875</v>
+      </c>
+      <c r="N891">
+        <v>1.95</v>
+      </c>
+      <c r="O891">
+        <v>3.75</v>
+      </c>
+      <c r="P891">
+        <v>3.6</v>
+      </c>
+      <c r="Q891">
+        <v>-0.5</v>
+      </c>
+      <c r="R891">
+        <v>1.95</v>
+      </c>
+      <c r="S891">
+        <v>1.9</v>
+      </c>
+      <c r="T891">
         <v>2.75</v>
       </c>
-      <c r="L891">
-        <v>3</v>
-      </c>
-      <c r="M891">
-        <v>2.75</v>
-      </c>
-      <c r="N891">
-        <v>2.8</v>
-      </c>
-      <c r="O891">
-        <v>2.8</v>
-      </c>
-      <c r="P891">
-        <v>3</v>
-      </c>
-      <c r="Q891">
-        <v>0</v>
-      </c>
-      <c r="R891">
-        <v>1.85</v>
-      </c>
-      <c r="S891">
-        <v>2</v>
-      </c>
-      <c r="T891">
-        <v>1.75</v>
-      </c>
       <c r="U891">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V891">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W891">
         <v>-1</v>
@@ -79836,19 +79836,19 @@
         <v>-1</v>
       </c>
       <c r="Y891">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Z891">
         <v>-1</v>
       </c>
       <c r="AA891">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB891">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC891">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="892" spans="1:29">
@@ -82170,7 +82170,7 @@
         <v>916</v>
       </c>
       <c r="B918">
-        <v>5505012</v>
+        <v>5505011</v>
       </c>
       <c r="C918" t="s">
         <v>28</v>
@@ -82182,58 +82182,58 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F918" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G918" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H918">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I918">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J918" t="s">
         <v>56</v>
       </c>
       <c r="K918">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="L918">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M918">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="N918">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="O918">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P918">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="Q918">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R918">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S918">
         <v>1.95</v>
       </c>
       <c r="T918">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U918">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V918">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W918">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="X918">
         <v>-1</v>
@@ -82242,16 +82242,16 @@
         <v>-1</v>
       </c>
       <c r="Z918">
-        <v>0.8999999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AA918">
         <v>-1</v>
       </c>
       <c r="AB918">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC918">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="919" spans="1:29">
@@ -82259,7 +82259,7 @@
         <v>917</v>
       </c>
       <c r="B919">
-        <v>5505011</v>
+        <v>5505012</v>
       </c>
       <c r="C919" t="s">
         <v>28</v>
@@ -82271,58 +82271,58 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F919" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G919" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H919">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I919">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J919" t="s">
         <v>56</v>
       </c>
       <c r="K919">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="L919">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M919">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="N919">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="O919">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P919">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="Q919">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R919">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S919">
         <v>1.95</v>
       </c>
       <c r="T919">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U919">
+        <v>2</v>
+      </c>
+      <c r="V919">
         <v>1.85</v>
       </c>
-      <c r="V919">
-        <v>2.05</v>
-      </c>
       <c r="W919">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="X919">
         <v>-1</v>
@@ -82331,16 +82331,16 @@
         <v>-1</v>
       </c>
       <c r="Z919">
-        <v>0.98</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA919">
         <v>-1</v>
       </c>
       <c r="AB919">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC919">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="920" spans="1:29">
@@ -96944,7 +96944,7 @@
         <v>1082</v>
       </c>
       <c r="B1084">
-        <v>6847939</v>
+        <v>6847940</v>
       </c>
       <c r="C1084" t="s">
         <v>28</v>
@@ -96956,40 +96956,40 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F1084" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G1084" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1084">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J1084" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K1084">
         <v>2.15</v>
       </c>
       <c r="L1084">
+        <v>3.4</v>
+      </c>
+      <c r="M1084">
+        <v>3.25</v>
+      </c>
+      <c r="N1084">
+        <v>2.25</v>
+      </c>
+      <c r="O1084">
         <v>3.3</v>
       </c>
-      <c r="M1084">
-        <v>3.4</v>
-      </c>
-      <c r="N1084">
-        <v>1.95</v>
-      </c>
-      <c r="O1084">
+      <c r="P1084">
         <v>3.25</v>
       </c>
-      <c r="P1084">
-        <v>4.333</v>
-      </c>
       <c r="Q1084">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1084">
         <v>1.95</v>
@@ -96998,22 +96998,22 @@
         <v>1.9</v>
       </c>
       <c r="T1084">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U1084">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V1084">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W1084">
         <v>-1</v>
       </c>
       <c r="X1084">
+        <v>-1</v>
+      </c>
+      <c r="Y1084">
         <v>2.25</v>
-      </c>
-      <c r="Y1084">
-        <v>-1</v>
       </c>
       <c r="Z1084">
         <v>-1</v>
@@ -97022,10 +97022,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB1084">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC1084">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1085" spans="1:29">
@@ -97033,7 +97033,7 @@
         <v>1083</v>
       </c>
       <c r="B1085">
-        <v>6847940</v>
+        <v>6847939</v>
       </c>
       <c r="C1085" t="s">
         <v>28</v>
@@ -97045,40 +97045,40 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F1085" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G1085" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="H1085">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1085">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1085" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K1085">
         <v>2.15</v>
       </c>
       <c r="L1085">
+        <v>3.3</v>
+      </c>
+      <c r="M1085">
         <v>3.4</v>
       </c>
-      <c r="M1085">
+      <c r="N1085">
+        <v>1.95</v>
+      </c>
+      <c r="O1085">
         <v>3.25</v>
       </c>
-      <c r="N1085">
-        <v>2.25</v>
-      </c>
-      <c r="O1085">
-        <v>3.3</v>
-      </c>
       <c r="P1085">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q1085">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1085">
         <v>1.95</v>
@@ -97087,22 +97087,22 @@
         <v>1.9</v>
       </c>
       <c r="T1085">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U1085">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V1085">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W1085">
         <v>-1</v>
       </c>
       <c r="X1085">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y1085">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z1085">
         <v>-1</v>
@@ -97111,10 +97111,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB1085">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC1085">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="1086" spans="1:29">
@@ -99970,7 +99970,7 @@
         <v>1116</v>
       </c>
       <c r="B1118">
-        <v>6847968</v>
+        <v>6847975</v>
       </c>
       <c r="C1118" t="s">
         <v>28</v>
@@ -99982,76 +99982,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F1118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1118" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H1118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1118">
         <v>1</v>
       </c>
       <c r="J1118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1118">
-        <v>1.142</v>
+        <v>3.4</v>
       </c>
       <c r="L1118">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M1118">
-        <v>17</v>
+        <v>2.1</v>
       </c>
       <c r="N1118">
-        <v>1.111</v>
+        <v>4</v>
       </c>
       <c r="O1118">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P1118">
-        <v>23</v>
+        <v>1.95</v>
       </c>
       <c r="Q1118">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R1118">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S1118">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="T1118">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1118">
-        <v>1.87</v>
+        <v>1.925</v>
       </c>
       <c r="V1118">
-        <v>2.03</v>
+        <v>1.925</v>
       </c>
       <c r="W1118">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X1118">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y1118">
         <v>-1</v>
       </c>
       <c r="Z1118">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA1118">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
       <c r="AB1118">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC1118">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="1119" spans="1:29">
@@ -100148,7 +100148,7 @@
         <v>1118</v>
       </c>
       <c r="B1120">
-        <v>6847975</v>
+        <v>6847969</v>
       </c>
       <c r="C1120" t="s">
         <v>28</v>
@@ -100160,76 +100160,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F1120" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G1120" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H1120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1120">
         <v>1</v>
       </c>
       <c r="J1120" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1120">
+        <v>4</v>
+      </c>
+      <c r="L1120">
+        <v>3.3</v>
+      </c>
+      <c r="M1120">
+        <v>1.95</v>
+      </c>
+      <c r="N1120">
+        <v>3.6</v>
+      </c>
+      <c r="O1120">
         <v>3.4</v>
       </c>
-      <c r="L1120">
-        <v>3.4</v>
-      </c>
-      <c r="M1120">
-        <v>2.1</v>
-      </c>
-      <c r="N1120">
-        <v>4</v>
-      </c>
-      <c r="O1120">
-        <v>3.6</v>
-      </c>
       <c r="P1120">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="Q1120">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R1120">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S1120">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T1120">
         <v>2.5</v>
       </c>
       <c r="U1120">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V1120">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W1120">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X1120">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y1120">
         <v>-1</v>
       </c>
       <c r="Z1120">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA1120">
         <v>-1</v>
       </c>
       <c r="AB1120">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC1120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1121" spans="1:29">
@@ -100237,7 +100237,7 @@
         <v>1119</v>
       </c>
       <c r="B1121">
-        <v>6847969</v>
+        <v>6847968</v>
       </c>
       <c r="C1121" t="s">
         <v>28</v>
@@ -100249,13 +100249,13 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F1121" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G1121" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H1121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1121">
         <v>1</v>
@@ -100264,43 +100264,43 @@
         <v>56</v>
       </c>
       <c r="K1121">
-        <v>4</v>
+        <v>1.142</v>
       </c>
       <c r="L1121">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="M1121">
-        <v>1.95</v>
+        <v>17</v>
       </c>
       <c r="N1121">
-        <v>3.6</v>
+        <v>1.111</v>
       </c>
       <c r="O1121">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="P1121">
-        <v>2.05</v>
+        <v>23</v>
       </c>
       <c r="Q1121">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R1121">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="S1121">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="T1121">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U1121">
-        <v>2.025</v>
+        <v>1.87</v>
       </c>
       <c r="V1121">
-        <v>1.825</v>
+        <v>2.03</v>
       </c>
       <c r="W1121">
-        <v>2.6</v>
+        <v>0.111</v>
       </c>
       <c r="X1121">
         <v>-1</v>
@@ -100309,13 +100309,13 @@
         <v>-1</v>
       </c>
       <c r="Z1121">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1121">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
       <c r="AB1121">
-        <v>1.025</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC1121">
         <v>-1</v>
@@ -101127,7 +101127,7 @@
         <v>1129</v>
       </c>
       <c r="B1131">
-        <v>6847982</v>
+        <v>6847984</v>
       </c>
       <c r="C1131" t="s">
         <v>28</v>
@@ -101139,55 +101139,55 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F1131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1131" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1131">
+        <v>0</v>
+      </c>
+      <c r="I1131">
         <v>1</v>
-      </c>
-      <c r="I1131">
-        <v>2</v>
       </c>
       <c r="J1131" t="s">
         <v>55</v>
       </c>
       <c r="K1131">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="L1131">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M1131">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="N1131">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O1131">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P1131">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q1131">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R1131">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S1131">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T1131">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1131">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V1131">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W1131">
         <v>-1</v>
@@ -101196,19 +101196,19 @@
         <v>-1</v>
       </c>
       <c r="Y1131">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="Z1131">
         <v>-1</v>
       </c>
       <c r="AA1131">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB1131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC1131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="1132" spans="1:29">
@@ -101216,7 +101216,7 @@
         <v>1130</v>
       </c>
       <c r="B1132">
-        <v>6847984</v>
+        <v>6847985</v>
       </c>
       <c r="C1132" t="s">
         <v>28</v>
@@ -101228,76 +101228,76 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F1132" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1132" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H1132">
+        <v>2</v>
+      </c>
+      <c r="I1132">
         <v>0</v>
       </c>
-      <c r="I1132">
-        <v>1</v>
-      </c>
       <c r="J1132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1132">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="L1132">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M1132">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="N1132">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O1132">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P1132">
+        <v>4.5</v>
+      </c>
+      <c r="Q1132">
+        <v>-0.75</v>
+      </c>
+      <c r="R1132">
+        <v>2.05</v>
+      </c>
+      <c r="S1132">
+        <v>1.8</v>
+      </c>
+      <c r="T1132">
         <v>2.5</v>
       </c>
-      <c r="Q1132">
-        <v>0</v>
-      </c>
-      <c r="R1132">
+      <c r="U1132">
         <v>2.025</v>
       </c>
-      <c r="S1132">
+      <c r="V1132">
         <v>1.825</v>
       </c>
-      <c r="T1132">
-        <v>2.25</v>
-      </c>
-      <c r="U1132">
-        <v>2.05</v>
-      </c>
-      <c r="V1132">
-        <v>1.8</v>
-      </c>
       <c r="W1132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X1132">
         <v>-1</v>
       </c>
       <c r="Y1132">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1132">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA1132">
+        <v>-1</v>
+      </c>
+      <c r="AB1132">
+        <v>-1</v>
+      </c>
+      <c r="AC1132">
         <v>0.825</v>
-      </c>
-      <c r="AB1132">
-        <v>-1</v>
-      </c>
-      <c r="AC1132">
-        <v>0.8</v>
       </c>
     </row>
     <row r="1133" spans="1:29">
@@ -101305,7 +101305,7 @@
         <v>1131</v>
       </c>
       <c r="B1133">
-        <v>6847985</v>
+        <v>6847982</v>
       </c>
       <c r="C1133" t="s">
         <v>28</v>
@@ -101317,76 +101317,76 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F1133" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G1133" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H1133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1133" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1133">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L1133">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M1133">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N1133">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O1133">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P1133">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q1133">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R1133">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S1133">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T1133">
         <v>2.5</v>
       </c>
       <c r="U1133">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V1133">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W1133">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X1133">
         <v>-1</v>
       </c>
       <c r="Y1133">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z1133">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA1133">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB1133">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC1133">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1134" spans="1:29">
@@ -102412,10 +102412,10 @@
         <v>1</v>
       </c>
       <c r="R1145">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S1145">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T1145">
         <v>3</v>
@@ -102708,10 +102708,10 @@
         <v>-0.75</v>
       </c>
       <c r="R1149">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="S1149">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="T1149">
         <v>2.5</v>
@@ -102782,19 +102782,19 @@
         <v>-1.25</v>
       </c>
       <c r="R1150">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="S1150">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="T1150">
         <v>2.75</v>
       </c>
       <c r="U1150">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V1150">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="W1150">
         <v>0</v>
@@ -102856,19 +102856,19 @@
         <v>-0.25</v>
       </c>
       <c r="R1151">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S1151">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T1151">
         <v>2</v>
       </c>
       <c r="U1151">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V1151">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="W1151">
         <v>0</v>
@@ -102930,10 +102930,10 @@
         <v>0</v>
       </c>
       <c r="R1152">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="S1152">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="T1152">
         <v>2.25</v>

--- a/France Ligue 1/France Ligue 1.xlsx
+++ b/France Ligue 1/France Ligue 1.xlsx
@@ -55559,7 +55559,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>5177158</v>
+        <v>5177156</v>
       </c>
       <c r="C619" t="s">
         <v>28</v>
@@ -55571,76 +55571,76 @@
         <v>44794.41666666666</v>
       </c>
       <c r="F619" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G619" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H619">
         <v>1</v>
       </c>
       <c r="I619">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J619" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K619">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L619">
+        <v>3.4</v>
+      </c>
+      <c r="M619">
+        <v>2.05</v>
+      </c>
+      <c r="N619">
+        <v>3.6</v>
+      </c>
+      <c r="O619">
         <v>3.3</v>
       </c>
-      <c r="M619">
-        <v>3.5</v>
-      </c>
-      <c r="N619">
-        <v>1.909</v>
-      </c>
-      <c r="O619">
-        <v>3.5</v>
-      </c>
       <c r="P619">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="Q619">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R619">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S619">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T619">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U619">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V619">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W619">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X619">
         <v>-1</v>
       </c>
       <c r="Y619">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z619">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA619">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB619">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC619">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="620" spans="1:29">
@@ -55648,7 +55648,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>5177156</v>
+        <v>5177158</v>
       </c>
       <c r="C620" t="s">
         <v>28</v>
@@ -55660,76 +55660,76 @@
         <v>44794.41666666666</v>
       </c>
       <c r="F620" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G620" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H620">
         <v>1</v>
       </c>
       <c r="I620">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J620" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K620">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="L620">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M620">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="N620">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="O620">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P620">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q620">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R620">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S620">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T620">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U620">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V620">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W620">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X620">
         <v>-1</v>
       </c>
       <c r="Y620">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z620">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA620">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB620">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC620">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="621" spans="1:29">
@@ -57250,7 +57250,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>5177179</v>
+        <v>5177183</v>
       </c>
       <c r="C638" t="s">
         <v>28</v>
@@ -57262,49 +57262,49 @@
         <v>44804.66666666666</v>
       </c>
       <c r="F638" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G638" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H638">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I638">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J638" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K638">
-        <v>1.4</v>
+        <v>10</v>
       </c>
       <c r="L638">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="M638">
-        <v>7.5</v>
+        <v>1.25</v>
       </c>
       <c r="N638">
-        <v>1.4</v>
+        <v>9.5</v>
       </c>
       <c r="O638">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P638">
-        <v>8</v>
+        <v>1.25</v>
       </c>
       <c r="Q638">
-        <v>-1.5</v>
+        <v>2</v>
       </c>
       <c r="R638">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S638">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T638">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U638">
         <v>1.975</v>
@@ -57313,19 +57313,19 @@
         <v>1.875</v>
       </c>
       <c r="W638">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X638">
         <v>-1</v>
       </c>
       <c r="Y638">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z638">
         <v>-1</v>
       </c>
       <c r="AA638">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB638">
         <v>-1</v>
@@ -57428,7 +57428,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>5177182</v>
+        <v>5177179</v>
       </c>
       <c r="C640" t="s">
         <v>28</v>
@@ -57440,49 +57440,49 @@
         <v>44804.66666666666</v>
       </c>
       <c r="F640" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G640" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H640">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I640">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J640" t="s">
         <v>56</v>
       </c>
       <c r="K640">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="L640">
         <v>4.75</v>
       </c>
       <c r="M640">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="N640">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="O640">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P640">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Q640">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R640">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S640">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T640">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U640">
         <v>1.975</v>
@@ -57491,7 +57491,7 @@
         <v>1.875</v>
       </c>
       <c r="W640">
-        <v>0.55</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X640">
         <v>-1</v>
@@ -57500,16 +57500,16 @@
         <v>-1</v>
       </c>
       <c r="Z640">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA640">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB640">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC640">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="641" spans="1:29">
@@ -57517,7 +57517,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>5177183</v>
+        <v>5177182</v>
       </c>
       <c r="C641" t="s">
         <v>28</v>
@@ -57529,49 +57529,49 @@
         <v>44804.66666666666</v>
       </c>
       <c r="F641" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G641" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I641">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J641" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K641">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="L641">
+        <v>4.75</v>
+      </c>
+      <c r="M641">
         <v>6.5</v>
       </c>
-      <c r="M641">
-        <v>1.25</v>
-      </c>
       <c r="N641">
-        <v>9.5</v>
+        <v>1.55</v>
       </c>
       <c r="O641">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P641">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q641">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R641">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S641">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T641">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U641">
         <v>1.975</v>
@@ -57580,25 +57580,25 @@
         <v>1.875</v>
       </c>
       <c r="W641">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X641">
         <v>-1</v>
       </c>
       <c r="Y641">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z641">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA641">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB641">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC641">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="642" spans="1:29">
@@ -59920,7 +59920,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>5177213</v>
+        <v>5177211</v>
       </c>
       <c r="C668" t="s">
         <v>28</v>
@@ -59932,76 +59932,76 @@
         <v>44822.41666666666</v>
       </c>
       <c r="F668" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G668" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I668">
         <v>1</v>
       </c>
       <c r="J668" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K668">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="L668">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M668">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="N668">
+        <v>1.615</v>
+      </c>
+      <c r="O668">
+        <v>4</v>
+      </c>
+      <c r="P668">
+        <v>5.5</v>
+      </c>
+      <c r="Q668">
+        <v>-0.75</v>
+      </c>
+      <c r="R668">
+        <v>1.8</v>
+      </c>
+      <c r="S668">
         <v>2.05</v>
       </c>
-      <c r="O668">
-        <v>3.6</v>
-      </c>
-      <c r="P668">
-        <v>3.6</v>
-      </c>
-      <c r="Q668">
-        <v>-0.5</v>
-      </c>
-      <c r="R668">
-        <v>2.025</v>
-      </c>
-      <c r="S668">
-        <v>1.825</v>
-      </c>
       <c r="T668">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U668">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V668">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W668">
         <v>-1</v>
       </c>
       <c r="X668">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y668">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z668">
         <v>-1</v>
       </c>
       <c r="AA668">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB668">
         <v>-1</v>
       </c>
       <c r="AC668">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="669" spans="1:29">
@@ -60009,7 +60009,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>5177211</v>
+        <v>5177213</v>
       </c>
       <c r="C669" t="s">
         <v>28</v>
@@ -60021,76 +60021,76 @@
         <v>44822.41666666666</v>
       </c>
       <c r="F669" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G669" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I669">
         <v>1</v>
       </c>
       <c r="J669" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K669">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="L669">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M669">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="N669">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="O669">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P669">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q669">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R669">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S669">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T669">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U669">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V669">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W669">
         <v>-1</v>
       </c>
       <c r="X669">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y669">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z669">
         <v>-1</v>
       </c>
       <c r="AA669">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB669">
         <v>-1</v>
       </c>
       <c r="AC669">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="670" spans="1:29">
@@ -65438,7 +65438,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>5177273</v>
+        <v>5177274</v>
       </c>
       <c r="C730" t="s">
         <v>28</v>
@@ -65450,76 +65450,76 @@
         <v>44871.45833333334</v>
       </c>
       <c r="F730" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G730" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I730">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J730" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K730">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="L730">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M730">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N730">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="O730">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P730">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q730">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R730">
+        <v>1.925</v>
+      </c>
+      <c r="S730">
+        <v>1.925</v>
+      </c>
+      <c r="T730">
+        <v>3</v>
+      </c>
+      <c r="U730">
+        <v>1.95</v>
+      </c>
+      <c r="V730">
         <v>1.9</v>
       </c>
-      <c r="S730">
-        <v>2</v>
-      </c>
-      <c r="T730">
-        <v>2.5</v>
-      </c>
-      <c r="U730">
-        <v>2.01</v>
-      </c>
-      <c r="V730">
-        <v>1.89</v>
-      </c>
       <c r="W730">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X730">
         <v>-1</v>
       </c>
       <c r="Y730">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z730">
+        <v>-1</v>
+      </c>
+      <c r="AA730">
+        <v>0.925</v>
+      </c>
+      <c r="AB730">
+        <v>-1</v>
+      </c>
+      <c r="AC730">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA730">
-        <v>-1</v>
-      </c>
-      <c r="AB730">
-        <v>-1</v>
-      </c>
-      <c r="AC730">
-        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="731" spans="1:29">
@@ -65527,7 +65527,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>5177274</v>
+        <v>5177273</v>
       </c>
       <c r="C731" t="s">
         <v>28</v>
@@ -65539,76 +65539,76 @@
         <v>44871.45833333334</v>
       </c>
       <c r="F731" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G731" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H731">
+        <v>1</v>
+      </c>
+      <c r="I731">
         <v>0</v>
       </c>
-      <c r="I731">
-        <v>2</v>
-      </c>
       <c r="J731" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K731">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="L731">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M731">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N731">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="O731">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P731">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q731">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R731">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S731">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T731">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U731">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="V731">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="W731">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X731">
         <v>-1</v>
       </c>
       <c r="Y731">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z731">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA731">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB731">
         <v>-1</v>
       </c>
       <c r="AC731">
-        <v>0.8999999999999999</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="732" spans="1:29">
@@ -66150,7 +66150,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>5177277</v>
+        <v>5177284</v>
       </c>
       <c r="C738" t="s">
         <v>28</v>
@@ -66162,76 +66162,76 @@
         <v>44878.45833333334</v>
       </c>
       <c r="F738" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G738" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H738">
         <v>2</v>
       </c>
       <c r="I738">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J738" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K738">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L738">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M738">
+        <v>3.2</v>
+      </c>
+      <c r="N738">
+        <v>2</v>
+      </c>
+      <c r="O738">
         <v>3.6</v>
       </c>
-      <c r="N738">
-        <v>2.1</v>
-      </c>
-      <c r="O738">
-        <v>3.2</v>
-      </c>
       <c r="P738">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q738">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R738">
+        <v>2.025</v>
+      </c>
+      <c r="S738">
         <v>1.825</v>
       </c>
-      <c r="S738">
-        <v>2.025</v>
-      </c>
       <c r="T738">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U738">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V738">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W738">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X738">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y738">
         <v>-1</v>
       </c>
       <c r="Z738">
+        <v>1.025</v>
+      </c>
+      <c r="AA738">
+        <v>-1</v>
+      </c>
+      <c r="AB738">
+        <v>0.475</v>
+      </c>
+      <c r="AC738">
         <v>-0.5</v>
-      </c>
-      <c r="AA738">
-        <v>0.5125</v>
-      </c>
-      <c r="AB738">
-        <v>1.05</v>
-      </c>
-      <c r="AC738">
-        <v>-1</v>
       </c>
     </row>
     <row r="739" spans="1:29">
@@ -66239,7 +66239,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>5177284</v>
+        <v>5177279</v>
       </c>
       <c r="C739" t="s">
         <v>28</v>
@@ -66251,76 +66251,76 @@
         <v>44878.45833333334</v>
       </c>
       <c r="F739" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G739" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I739">
         <v>1</v>
       </c>
       <c r="J739" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K739">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L739">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M739">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N739">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="O739">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P739">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q739">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R739">
+        <v>2.05</v>
+      </c>
+      <c r="S739">
+        <v>1.8</v>
+      </c>
+      <c r="T739">
+        <v>2.5</v>
+      </c>
+      <c r="U739">
         <v>2.025</v>
       </c>
-      <c r="S739">
+      <c r="V739">
         <v>1.825</v>
       </c>
-      <c r="T739">
-        <v>2.75</v>
-      </c>
-      <c r="U739">
-        <v>1.95</v>
-      </c>
-      <c r="V739">
-        <v>1.9</v>
-      </c>
       <c r="W739">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X739">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y739">
         <v>-1</v>
       </c>
       <c r="Z739">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA739">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB739">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC739">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="740" spans="1:29">
@@ -66328,7 +66328,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>5177279</v>
+        <v>5177278</v>
       </c>
       <c r="C740" t="s">
         <v>28</v>
@@ -66340,76 +66340,76 @@
         <v>44878.45833333334</v>
       </c>
       <c r="F740" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G740" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H740">
         <v>1</v>
       </c>
       <c r="I740">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J740" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K740">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="L740">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M740">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="N740">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="O740">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="P740">
-        <v>2.55</v>
+        <v>11</v>
       </c>
       <c r="Q740">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R740">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S740">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T740">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U740">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V740">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W740">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X740">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y740">
         <v>-1</v>
       </c>
       <c r="Z740">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA740">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB740">
         <v>-1</v>
       </c>
       <c r="AC740">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="741" spans="1:29">
@@ -66417,7 +66417,7 @@
         <v>739</v>
       </c>
       <c r="B741">
-        <v>5177278</v>
+        <v>5177277</v>
       </c>
       <c r="C741" t="s">
         <v>28</v>
@@ -66429,76 +66429,76 @@
         <v>44878.45833333334</v>
       </c>
       <c r="F741" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G741" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I741">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J741" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K741">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L741">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M741">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="N741">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="O741">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P741">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="Q741">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R741">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S741">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T741">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U741">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V741">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W741">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X741">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y741">
         <v>-1</v>
       </c>
       <c r="Z741">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA741">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
       <c r="AB741">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC741">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="742" spans="1:29">
@@ -66684,7 +66684,7 @@
         <v>742</v>
       </c>
       <c r="B744">
-        <v>5938163</v>
+        <v>5938162</v>
       </c>
       <c r="C744" t="s">
         <v>28</v>
@@ -66696,76 +66696,76 @@
         <v>44923.45833333334</v>
       </c>
       <c r="F744" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G744" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I744">
         <v>0</v>
       </c>
       <c r="J744" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K744">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="L744">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M744">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N744">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O744">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P744">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q744">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R744">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S744">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T744">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U744">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V744">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W744">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X744">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y744">
         <v>-1</v>
       </c>
       <c r="Z744">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA744">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB744">
         <v>-1</v>
       </c>
       <c r="AC744">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="745" spans="1:29">
@@ -66773,7 +66773,7 @@
         <v>743</v>
       </c>
       <c r="B745">
-        <v>5938162</v>
+        <v>5938163</v>
       </c>
       <c r="C745" t="s">
         <v>28</v>
@@ -66785,76 +66785,76 @@
         <v>44923.45833333334</v>
       </c>
       <c r="F745" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G745" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I745">
         <v>0</v>
       </c>
       <c r="J745" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K745">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="L745">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M745">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N745">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O745">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P745">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q745">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R745">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S745">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T745">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U745">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V745">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W745">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X745">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y745">
         <v>-1</v>
       </c>
       <c r="Z745">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA745">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB745">
         <v>-1</v>
       </c>
       <c r="AC745">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="746" spans="1:29">
@@ -67396,7 +67396,7 @@
         <v>750</v>
       </c>
       <c r="B752">
-        <v>5938178</v>
+        <v>5938179</v>
       </c>
       <c r="C752" t="s">
         <v>28</v>
@@ -67408,76 +67408,76 @@
         <v>44924.70833333334</v>
       </c>
       <c r="F752" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G752" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I752">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J752" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K752">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="L752">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M752">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N752">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="O752">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P752">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q752">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R752">
-        <v>2.155</v>
+        <v>2.06</v>
       </c>
       <c r="S752">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="T752">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U752">
+        <v>2.04</v>
+      </c>
+      <c r="V752">
         <v>1.86</v>
       </c>
-      <c r="V752">
-        <v>2.04</v>
-      </c>
       <c r="W752">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X752">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y752">
         <v>-1</v>
       </c>
       <c r="Z752">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AA752">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB752">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AC752">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="753" spans="1:29">
@@ -67485,7 +67485,7 @@
         <v>751</v>
       </c>
       <c r="B753">
-        <v>5938179</v>
+        <v>5938178</v>
       </c>
       <c r="C753" t="s">
         <v>28</v>
@@ -67497,76 +67497,76 @@
         <v>44924.70833333334</v>
       </c>
       <c r="F753" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G753" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H753">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I753">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J753" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K753">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L753">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M753">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="N753">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="O753">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P753">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Q753">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R753">
-        <v>2.06</v>
+        <v>2.155</v>
       </c>
       <c r="S753">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="T753">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U753">
+        <v>1.86</v>
+      </c>
+      <c r="V753">
         <v>2.04</v>
       </c>
-      <c r="V753">
-        <v>1.86</v>
-      </c>
       <c r="W753">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X753">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y753">
         <v>-1</v>
       </c>
       <c r="Z753">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="AA753">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB753">
+        <v>-1</v>
+      </c>
+      <c r="AC753">
         <v>1.04</v>
-      </c>
-      <c r="AC753">
-        <v>-1</v>
       </c>
     </row>
     <row r="754" spans="1:29">
@@ -67574,7 +67574,7 @@
         <v>752</v>
       </c>
       <c r="B754">
-        <v>5177305</v>
+        <v>5177298</v>
       </c>
       <c r="C754" t="s">
         <v>28</v>
@@ -67586,13 +67586,13 @@
         <v>44927.45833333334</v>
       </c>
       <c r="F754" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G754" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I754">
         <v>0</v>
@@ -67604,40 +67604,40 @@
         <v>2</v>
       </c>
       <c r="L754">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M754">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N754">
+        <v>1.833</v>
+      </c>
+      <c r="O754">
+        <v>3.4</v>
+      </c>
+      <c r="P754">
+        <v>4.75</v>
+      </c>
+      <c r="Q754">
+        <v>-0.5</v>
+      </c>
+      <c r="R754">
+        <v>1.85</v>
+      </c>
+      <c r="S754">
+        <v>2</v>
+      </c>
+      <c r="T754">
+        <v>2.5</v>
+      </c>
+      <c r="U754">
         <v>2.05</v>
       </c>
-      <c r="O754">
-        <v>3.3</v>
-      </c>
-      <c r="P754">
-        <v>3.6</v>
-      </c>
-      <c r="Q754">
-        <v>-0.25</v>
-      </c>
-      <c r="R754">
+      <c r="V754">
         <v>1.8</v>
       </c>
-      <c r="S754">
-        <v>2.05</v>
-      </c>
-      <c r="T754">
-        <v>2.25</v>
-      </c>
-      <c r="U754">
-        <v>1.8</v>
-      </c>
-      <c r="V754">
-        <v>2.05</v>
-      </c>
       <c r="W754">
-        <v>1.05</v>
+        <v>0.833</v>
       </c>
       <c r="X754">
         <v>-1</v>
@@ -67646,16 +67646,16 @@
         <v>-1</v>
       </c>
       <c r="Z754">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA754">
+        <v>-1</v>
+      </c>
+      <c r="AB754">
+        <v>-1</v>
+      </c>
+      <c r="AC754">
         <v>0.8</v>
-      </c>
-      <c r="AA754">
-        <v>-1</v>
-      </c>
-      <c r="AB754">
-        <v>-0.5</v>
-      </c>
-      <c r="AC754">
-        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="755" spans="1:29">
@@ -67663,7 +67663,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>5177296</v>
+        <v>5177297</v>
       </c>
       <c r="C755" t="s">
         <v>28</v>
@@ -67675,40 +67675,40 @@
         <v>44927.45833333334</v>
       </c>
       <c r="F755" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G755" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H755">
         <v>1</v>
       </c>
       <c r="I755">
+        <v>2</v>
+      </c>
+      <c r="J755" t="s">
+        <v>55</v>
+      </c>
+      <c r="K755">
+        <v>2.8</v>
+      </c>
+      <c r="L755">
+        <v>3.3</v>
+      </c>
+      <c r="M755">
+        <v>2.45</v>
+      </c>
+      <c r="N755">
+        <v>2.5</v>
+      </c>
+      <c r="O755">
+        <v>3.4</v>
+      </c>
+      <c r="P755">
+        <v>2.75</v>
+      </c>
+      <c r="Q755">
         <v>0</v>
-      </c>
-      <c r="J755" t="s">
-        <v>56</v>
-      </c>
-      <c r="K755">
-        <v>1.45</v>
-      </c>
-      <c r="L755">
-        <v>4.75</v>
-      </c>
-      <c r="M755">
-        <v>6</v>
-      </c>
-      <c r="N755">
-        <v>1.5</v>
-      </c>
-      <c r="O755">
-        <v>4.5</v>
-      </c>
-      <c r="P755">
-        <v>5.75</v>
-      </c>
-      <c r="Q755">
-        <v>-1</v>
       </c>
       <c r="R755">
         <v>1.8</v>
@@ -67717,34 +67717,34 @@
         <v>2.05</v>
       </c>
       <c r="T755">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U755">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V755">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W755">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X755">
         <v>-1</v>
       </c>
       <c r="Y755">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z755">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA755">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB755">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC755">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="756" spans="1:29">
@@ -67752,7 +67752,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>5177297</v>
+        <v>5177296</v>
       </c>
       <c r="C756" t="s">
         <v>28</v>
@@ -67764,40 +67764,40 @@
         <v>44927.45833333334</v>
       </c>
       <c r="F756" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G756" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H756">
         <v>1</v>
       </c>
       <c r="I756">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J756" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K756">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="L756">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M756">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="N756">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="O756">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P756">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q756">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R756">
         <v>1.8</v>
@@ -67806,34 +67806,34 @@
         <v>2.05</v>
       </c>
       <c r="T756">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U756">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V756">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W756">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X756">
         <v>-1</v>
       </c>
       <c r="Y756">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z756">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA756">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB756">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC756">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="757" spans="1:29">
@@ -67841,7 +67841,7 @@
         <v>755</v>
       </c>
       <c r="B757">
-        <v>5177298</v>
+        <v>5177305</v>
       </c>
       <c r="C757" t="s">
         <v>28</v>
@@ -67853,13 +67853,13 @@
         <v>44927.45833333334</v>
       </c>
       <c r="F757" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G757" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I757">
         <v>0</v>
@@ -67871,58 +67871,58 @@
         <v>2</v>
       </c>
       <c r="L757">
+        <v>3.2</v>
+      </c>
+      <c r="M757">
+        <v>4</v>
+      </c>
+      <c r="N757">
+        <v>2.05</v>
+      </c>
+      <c r="O757">
         <v>3.3</v>
       </c>
-      <c r="M757">
-        <v>3.8</v>
-      </c>
-      <c r="N757">
-        <v>1.833</v>
-      </c>
-      <c r="O757">
-        <v>3.4</v>
-      </c>
       <c r="P757">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q757">
+        <v>-0.25</v>
+      </c>
+      <c r="R757">
+        <v>1.8</v>
+      </c>
+      <c r="S757">
+        <v>2.05</v>
+      </c>
+      <c r="T757">
+        <v>2.25</v>
+      </c>
+      <c r="U757">
+        <v>1.8</v>
+      </c>
+      <c r="V757">
+        <v>2.05</v>
+      </c>
+      <c r="W757">
+        <v>1.05</v>
+      </c>
+      <c r="X757">
+        <v>-1</v>
+      </c>
+      <c r="Y757">
+        <v>-1</v>
+      </c>
+      <c r="Z757">
+        <v>0.8</v>
+      </c>
+      <c r="AA757">
+        <v>-1</v>
+      </c>
+      <c r="AB757">
         <v>-0.5</v>
       </c>
-      <c r="R757">
-        <v>1.85</v>
-      </c>
-      <c r="S757">
-        <v>2</v>
-      </c>
-      <c r="T757">
-        <v>2.5</v>
-      </c>
-      <c r="U757">
-        <v>2.05</v>
-      </c>
-      <c r="V757">
-        <v>1.8</v>
-      </c>
-      <c r="W757">
-        <v>0.833</v>
-      </c>
-      <c r="X757">
-        <v>-1</v>
-      </c>
-      <c r="Y757">
-        <v>-1</v>
-      </c>
-      <c r="Z757">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA757">
-        <v>-1</v>
-      </c>
-      <c r="AB757">
-        <v>-1</v>
-      </c>
       <c r="AC757">
-        <v>0.8</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="758" spans="1:29">
@@ -68642,7 +68642,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>6081164</v>
+        <v>6081163</v>
       </c>
       <c r="C766" t="s">
         <v>28</v>
@@ -68654,16 +68654,16 @@
         <v>44937.625</v>
       </c>
       <c r="F766" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G766" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H766">
         <v>0</v>
       </c>
       <c r="I766">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J766" t="s">
         <v>55</v>
@@ -68672,37 +68672,37 @@
         <v>2.8</v>
       </c>
       <c r="L766">
+        <v>3.2</v>
+      </c>
+      <c r="M766">
+        <v>2.5</v>
+      </c>
+      <c r="N766">
         <v>3.3</v>
       </c>
-      <c r="M766">
-        <v>2.45</v>
-      </c>
-      <c r="N766">
+      <c r="O766">
         <v>3</v>
       </c>
-      <c r="O766">
-        <v>3.3</v>
-      </c>
       <c r="P766">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q766">
         <v>0.25</v>
       </c>
       <c r="R766">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S766">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T766">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U766">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V766">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W766">
         <v>-1</v>
@@ -68711,19 +68711,19 @@
         <v>-1</v>
       </c>
       <c r="Y766">
-        <v>1.4</v>
+        <v>1.375</v>
       </c>
       <c r="Z766">
         <v>-1</v>
       </c>
       <c r="AA766">
-        <v>1.1</v>
+        <v>1.025</v>
       </c>
       <c r="AB766">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC766">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:29">
@@ -68731,7 +68731,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>6081165</v>
+        <v>6081164</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68743,73 +68743,73 @@
         <v>44937.625</v>
       </c>
       <c r="F767" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G767" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J767" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K767">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="L767">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M767">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="N767">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O767">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P767">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="Q767">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R767">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S767">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T767">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U767">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V767">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W767">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X767">
         <v>-1</v>
       </c>
       <c r="Y767">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z767">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA767">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB767">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC767">
         <v>-1</v>
@@ -68820,7 +68820,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>6081163</v>
+        <v>6081165</v>
       </c>
       <c r="C768" t="s">
         <v>28</v>
@@ -68832,76 +68832,76 @@
         <v>44937.625</v>
       </c>
       <c r="F768" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G768" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768">
         <v>1</v>
       </c>
       <c r="J768" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K768">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="L768">
+        <v>3.5</v>
+      </c>
+      <c r="M768">
+        <v>1.75</v>
+      </c>
+      <c r="N768">
+        <v>4.2</v>
+      </c>
+      <c r="O768">
+        <v>3.4</v>
+      </c>
+      <c r="P768">
+        <v>1.909</v>
+      </c>
+      <c r="Q768">
+        <v>0.5</v>
+      </c>
+      <c r="R768">
+        <v>1.925</v>
+      </c>
+      <c r="S768">
+        <v>1.925</v>
+      </c>
+      <c r="T768">
+        <v>2.25</v>
+      </c>
+      <c r="U768">
+        <v>1.825</v>
+      </c>
+      <c r="V768">
+        <v>2.025</v>
+      </c>
+      <c r="W768">
         <v>3.2</v>
       </c>
-      <c r="M768">
-        <v>2.5</v>
-      </c>
-      <c r="N768">
-        <v>3.3</v>
-      </c>
-      <c r="O768">
-        <v>3</v>
-      </c>
-      <c r="P768">
-        <v>2.375</v>
-      </c>
-      <c r="Q768">
-        <v>0.25</v>
-      </c>
-      <c r="R768">
-        <v>1.825</v>
-      </c>
-      <c r="S768">
-        <v>2.025</v>
-      </c>
-      <c r="T768">
-        <v>2</v>
-      </c>
-      <c r="U768">
-        <v>1.85</v>
-      </c>
-      <c r="V768">
-        <v>2</v>
-      </c>
-      <c r="W768">
-        <v>-1</v>
-      </c>
       <c r="X768">
         <v>-1</v>
       </c>
       <c r="Y768">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z768">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA768">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB768">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC768">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="769" spans="1:29">
@@ -68909,7 +68909,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>6081171</v>
+        <v>6081168</v>
       </c>
       <c r="C769" t="s">
         <v>28</v>
@@ -68921,10 +68921,10 @@
         <v>44937.70833333334</v>
       </c>
       <c r="F769" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G769" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H769">
         <v>2</v>
@@ -68936,58 +68936,58 @@
         <v>57</v>
       </c>
       <c r="K769">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L769">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M769">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N769">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O769">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P769">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="Q769">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R769">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S769">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T769">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U769">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V769">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W769">
         <v>-1</v>
       </c>
       <c r="X769">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Y769">
         <v>-1</v>
       </c>
       <c r="Z769">
-        <v>0.5249999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA769">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB769">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC769">
         <v>-1</v>
@@ -68998,7 +68998,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>6081173</v>
+        <v>6081169</v>
       </c>
       <c r="C770" t="s">
         <v>28</v>
@@ -69010,76 +69010,76 @@
         <v>44937.70833333334</v>
       </c>
       <c r="F770" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G770" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I770">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J770" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K770">
+        <v>1.8</v>
+      </c>
+      <c r="L770">
+        <v>3.5</v>
+      </c>
+      <c r="M770">
         <v>4.5</v>
       </c>
-      <c r="L770">
-        <v>3.75</v>
-      </c>
-      <c r="M770">
-        <v>1.75</v>
-      </c>
       <c r="N770">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="O770">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P770">
-        <v>1.65</v>
+        <v>4.333</v>
       </c>
       <c r="Q770">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R770">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S770">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T770">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U770">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V770">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W770">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X770">
         <v>-1</v>
       </c>
       <c r="Y770">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z770">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA770">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB770">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC770">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="771" spans="1:29">
@@ -69176,7 +69176,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>6081169</v>
+        <v>6081171</v>
       </c>
       <c r="C772" t="s">
         <v>28</v>
@@ -69188,73 +69188,73 @@
         <v>44937.70833333334</v>
       </c>
       <c r="F772" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G772" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H772">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I772">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J772" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K772">
+        <v>3.1</v>
+      </c>
+      <c r="L772">
+        <v>3.3</v>
+      </c>
+      <c r="M772">
+        <v>2.25</v>
+      </c>
+      <c r="N772">
+        <v>3.6</v>
+      </c>
+      <c r="O772">
+        <v>3.3</v>
+      </c>
+      <c r="P772">
+        <v>2.05</v>
+      </c>
+      <c r="Q772">
+        <v>0.25</v>
+      </c>
+      <c r="R772">
+        <v>2.05</v>
+      </c>
+      <c r="S772">
         <v>1.8</v>
       </c>
-      <c r="L772">
-        <v>3.5</v>
-      </c>
-      <c r="M772">
-        <v>4.5</v>
-      </c>
-      <c r="N772">
-        <v>1.85</v>
-      </c>
-      <c r="O772">
-        <v>3.5</v>
-      </c>
-      <c r="P772">
-        <v>4.333</v>
-      </c>
-      <c r="Q772">
+      <c r="T772">
+        <v>2.25</v>
+      </c>
+      <c r="U772">
+        <v>1.9</v>
+      </c>
+      <c r="V772">
+        <v>1.95</v>
+      </c>
+      <c r="W772">
+        <v>-1</v>
+      </c>
+      <c r="X772">
+        <v>2.3</v>
+      </c>
+      <c r="Y772">
+        <v>-1</v>
+      </c>
+      <c r="Z772">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA772">
         <v>-0.5</v>
       </c>
-      <c r="R772">
-        <v>1.85</v>
-      </c>
-      <c r="S772">
-        <v>2</v>
-      </c>
-      <c r="T772">
-        <v>2.5</v>
-      </c>
-      <c r="U772">
-        <v>1.95</v>
-      </c>
-      <c r="V772">
-        <v>1.9</v>
-      </c>
-      <c r="W772">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X772">
-        <v>-1</v>
-      </c>
-      <c r="Y772">
-        <v>-1</v>
-      </c>
-      <c r="Z772">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA772">
-        <v>-1</v>
-      </c>
       <c r="AB772">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC772">
         <v>-1</v>
@@ -69265,7 +69265,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>6081168</v>
+        <v>6081173</v>
       </c>
       <c r="C773" t="s">
         <v>28</v>
@@ -69277,76 +69277,76 @@
         <v>44937.70833333334</v>
       </c>
       <c r="F773" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G773" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773">
         <v>2</v>
       </c>
       <c r="J773" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K773">
+        <v>4.5</v>
+      </c>
+      <c r="L773">
+        <v>3.75</v>
+      </c>
+      <c r="M773">
+        <v>1.75</v>
+      </c>
+      <c r="N773">
+        <v>5.25</v>
+      </c>
+      <c r="O773">
         <v>4</v>
       </c>
-      <c r="L773">
-        <v>3.6</v>
-      </c>
-      <c r="M773">
-        <v>1.85</v>
-      </c>
-      <c r="N773">
-        <v>4.5</v>
-      </c>
-      <c r="O773">
-        <v>3.8</v>
-      </c>
       <c r="P773">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q773">
         <v>0.75</v>
       </c>
       <c r="R773">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S773">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T773">
         <v>2.75</v>
       </c>
       <c r="U773">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V773">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W773">
         <v>-1</v>
       </c>
       <c r="X773">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y773">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z773">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA773">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB773">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC773">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="774" spans="1:29">
@@ -69888,7 +69888,7 @@
         <v>778</v>
       </c>
       <c r="B780">
-        <v>5177325</v>
+        <v>5177326</v>
       </c>
       <c r="C780" t="s">
         <v>28</v>
@@ -69900,76 +69900,76 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F780" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G780" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I780">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J780" t="s">
         <v>57</v>
       </c>
       <c r="K780">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="L780">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M780">
+        <v>3.5</v>
+      </c>
+      <c r="N780">
+        <v>1.85</v>
+      </c>
+      <c r="O780">
+        <v>3.6</v>
+      </c>
+      <c r="P780">
+        <v>4.2</v>
+      </c>
+      <c r="Q780">
+        <v>-0.5</v>
+      </c>
+      <c r="R780">
+        <v>1.825</v>
+      </c>
+      <c r="S780">
+        <v>2.025</v>
+      </c>
+      <c r="T780">
         <v>2.75</v>
       </c>
-      <c r="N780">
-        <v>2.5</v>
-      </c>
-      <c r="O780">
-        <v>3.2</v>
-      </c>
-      <c r="P780">
-        <v>2.875</v>
-      </c>
-      <c r="Q780">
-        <v>-0.25</v>
-      </c>
-      <c r="R780">
-        <v>2.075</v>
-      </c>
-      <c r="S780">
-        <v>1.725</v>
-      </c>
-      <c r="T780">
-        <v>2.25</v>
-      </c>
       <c r="U780">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V780">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W780">
         <v>-1</v>
       </c>
       <c r="X780">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y780">
         <v>-1</v>
       </c>
       <c r="Z780">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA780">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="AB780">
         <v>-1</v>
       </c>
       <c r="AC780">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="781" spans="1:29">
@@ -69977,7 +69977,7 @@
         <v>779</v>
       </c>
       <c r="B781">
-        <v>5177326</v>
+        <v>5177325</v>
       </c>
       <c r="C781" t="s">
         <v>28</v>
@@ -69989,76 +69989,76 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F781" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G781" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I781">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J781" t="s">
         <v>57</v>
       </c>
       <c r="K781">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="L781">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M781">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N781">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="O781">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P781">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q781">
+        <v>-0.25</v>
+      </c>
+      <c r="R781">
+        <v>2.075</v>
+      </c>
+      <c r="S781">
+        <v>1.725</v>
+      </c>
+      <c r="T781">
+        <v>2.25</v>
+      </c>
+      <c r="U781">
+        <v>1.875</v>
+      </c>
+      <c r="V781">
+        <v>1.975</v>
+      </c>
+      <c r="W781">
+        <v>-1</v>
+      </c>
+      <c r="X781">
+        <v>2.2</v>
+      </c>
+      <c r="Y781">
+        <v>-1</v>
+      </c>
+      <c r="Z781">
         <v>-0.5</v>
       </c>
-      <c r="R781">
-        <v>1.825</v>
-      </c>
-      <c r="S781">
-        <v>2.025</v>
-      </c>
-      <c r="T781">
-        <v>2.75</v>
-      </c>
-      <c r="U781">
-        <v>1.95</v>
-      </c>
-      <c r="V781">
-        <v>1.9</v>
-      </c>
-      <c r="W781">
-        <v>-1</v>
-      </c>
-      <c r="X781">
-        <v>2.6</v>
-      </c>
-      <c r="Y781">
-        <v>-1</v>
-      </c>
-      <c r="Z781">
-        <v>-1</v>
-      </c>
       <c r="AA781">
-        <v>1.025</v>
+        <v>0.3625</v>
       </c>
       <c r="AB781">
         <v>-1</v>
       </c>
       <c r="AC781">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="782" spans="1:29">
@@ -71579,7 +71579,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>5177342</v>
+        <v>5177343</v>
       </c>
       <c r="C799" t="s">
         <v>28</v>
@@ -71591,76 +71591,76 @@
         <v>44958.70833333334</v>
       </c>
       <c r="F799" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G799" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H799">
         <v>0</v>
       </c>
       <c r="I799">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J799" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K799">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L799">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M799">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N799">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O799">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P799">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q799">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R799">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S799">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T799">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U799">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V799">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W799">
         <v>-1</v>
       </c>
       <c r="X799">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y799">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z799">
         <v>-1</v>
       </c>
       <c r="AA799">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB799">
         <v>-1</v>
       </c>
       <c r="AC799">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="800" spans="1:29">
@@ -71668,7 +71668,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>5177341</v>
+        <v>5177342</v>
       </c>
       <c r="C800" t="s">
         <v>28</v>
@@ -71680,76 +71680,76 @@
         <v>44958.70833333334</v>
       </c>
       <c r="F800" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G800" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H800">
+        <v>0</v>
+      </c>
+      <c r="I800">
+        <v>0</v>
+      </c>
+      <c r="J800" t="s">
+        <v>57</v>
+      </c>
+      <c r="K800">
+        <v>1.5</v>
+      </c>
+      <c r="L800">
+        <v>4.333</v>
+      </c>
+      <c r="M800">
+        <v>6</v>
+      </c>
+      <c r="N800">
+        <v>1.5</v>
+      </c>
+      <c r="O800">
+        <v>4.333</v>
+      </c>
+      <c r="P800">
+        <v>6.5</v>
+      </c>
+      <c r="Q800">
+        <v>-1</v>
+      </c>
+      <c r="R800">
+        <v>1.85</v>
+      </c>
+      <c r="S800">
+        <v>2</v>
+      </c>
+      <c r="T800">
+        <v>2.75</v>
+      </c>
+      <c r="U800">
+        <v>1.85</v>
+      </c>
+      <c r="V800">
+        <v>2</v>
+      </c>
+      <c r="W800">
+        <v>-1</v>
+      </c>
+      <c r="X800">
+        <v>3.333</v>
+      </c>
+      <c r="Y800">
+        <v>-1</v>
+      </c>
+      <c r="Z800">
+        <v>-1</v>
+      </c>
+      <c r="AA800">
         <v>1</v>
       </c>
-      <c r="I800">
-        <v>3</v>
-      </c>
-      <c r="J800" t="s">
-        <v>55</v>
-      </c>
-      <c r="K800">
-        <v>8.5</v>
-      </c>
-      <c r="L800">
-        <v>5.5</v>
-      </c>
-      <c r="M800">
-        <v>1.3</v>
-      </c>
-      <c r="N800">
-        <v>8.5</v>
-      </c>
-      <c r="O800">
-        <v>6</v>
-      </c>
-      <c r="P800">
-        <v>1.285</v>
-      </c>
-      <c r="Q800">
-        <v>1.75</v>
-      </c>
-      <c r="R800">
-        <v>1.825</v>
-      </c>
-      <c r="S800">
-        <v>2.025</v>
-      </c>
-      <c r="T800">
-        <v>3.25</v>
-      </c>
-      <c r="U800">
-        <v>1.925</v>
-      </c>
-      <c r="V800">
-        <v>1.925</v>
-      </c>
-      <c r="W800">
-        <v>-1</v>
-      </c>
-      <c r="X800">
-        <v>-1</v>
-      </c>
-      <c r="Y800">
-        <v>0.2849999999999999</v>
-      </c>
-      <c r="Z800">
-        <v>-0.5</v>
-      </c>
-      <c r="AA800">
-        <v>0.5125</v>
-      </c>
       <c r="AB800">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC800">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:29">
@@ -71757,7 +71757,7 @@
         <v>799</v>
       </c>
       <c r="B801">
-        <v>5177343</v>
+        <v>5177341</v>
       </c>
       <c r="C801" t="s">
         <v>28</v>
@@ -71769,55 +71769,55 @@
         <v>44958.70833333334</v>
       </c>
       <c r="F801" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G801" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I801">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J801" t="s">
         <v>55</v>
       </c>
       <c r="K801">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="L801">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M801">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="N801">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="O801">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="P801">
-        <v>5</v>
+        <v>1.285</v>
       </c>
       <c r="Q801">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R801">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S801">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T801">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U801">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V801">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W801">
         <v>-1</v>
@@ -71826,19 +71826,19 @@
         <v>-1</v>
       </c>
       <c r="Y801">
-        <v>4</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z801">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA801">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AB801">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC801">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="802" spans="1:29">
@@ -96944,7 +96944,7 @@
         <v>1082</v>
       </c>
       <c r="B1084">
-        <v>6847940</v>
+        <v>6847939</v>
       </c>
       <c r="C1084" t="s">
         <v>28</v>
@@ -96956,40 +96956,40 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F1084" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G1084" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="H1084">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1084">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1084" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K1084">
         <v>2.15</v>
       </c>
       <c r="L1084">
+        <v>3.3</v>
+      </c>
+      <c r="M1084">
         <v>3.4</v>
       </c>
-      <c r="M1084">
+      <c r="N1084">
+        <v>1.95</v>
+      </c>
+      <c r="O1084">
         <v>3.25</v>
       </c>
-      <c r="N1084">
-        <v>2.25</v>
-      </c>
-      <c r="O1084">
-        <v>3.3</v>
-      </c>
       <c r="P1084">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q1084">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1084">
         <v>1.95</v>
@@ -96998,22 +96998,22 @@
         <v>1.9</v>
       </c>
       <c r="T1084">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U1084">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V1084">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W1084">
         <v>-1</v>
       </c>
       <c r="X1084">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y1084">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z1084">
         <v>-1</v>
@@ -97022,10 +97022,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB1084">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC1084">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="1085" spans="1:29">
@@ -97033,7 +97033,7 @@
         <v>1083</v>
       </c>
       <c r="B1085">
-        <v>6847939</v>
+        <v>6847940</v>
       </c>
       <c r="C1085" t="s">
         <v>28</v>
@@ -97045,40 +97045,40 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F1085" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G1085" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1085">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J1085" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K1085">
         <v>2.15</v>
       </c>
       <c r="L1085">
+        <v>3.4</v>
+      </c>
+      <c r="M1085">
+        <v>3.25</v>
+      </c>
+      <c r="N1085">
+        <v>2.25</v>
+      </c>
+      <c r="O1085">
         <v>3.3</v>
       </c>
-      <c r="M1085">
-        <v>3.4</v>
-      </c>
-      <c r="N1085">
-        <v>1.95</v>
-      </c>
-      <c r="O1085">
+      <c r="P1085">
         <v>3.25</v>
       </c>
-      <c r="P1085">
-        <v>4.333</v>
-      </c>
       <c r="Q1085">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1085">
         <v>1.95</v>
@@ -97087,22 +97087,22 @@
         <v>1.9</v>
       </c>
       <c r="T1085">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U1085">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V1085">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W1085">
         <v>-1</v>
       </c>
       <c r="X1085">
+        <v>-1</v>
+      </c>
+      <c r="Y1085">
         <v>2.25</v>
-      </c>
-      <c r="Y1085">
-        <v>-1</v>
       </c>
       <c r="Z1085">
         <v>-1</v>
@@ -97111,10 +97111,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB1085">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC1085">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1086" spans="1:29">
@@ -99970,7 +99970,7 @@
         <v>1116</v>
       </c>
       <c r="B1118">
-        <v>6847975</v>
+        <v>6847974</v>
       </c>
       <c r="C1118" t="s">
         <v>28</v>
@@ -99982,46 +99982,46 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F1118" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G1118" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H1118">
         <v>1</v>
       </c>
       <c r="I1118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1118" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1118">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="L1118">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M1118">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="N1118">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="O1118">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P1118">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="Q1118">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R1118">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S1118">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T1118">
         <v>2.5</v>
@@ -100033,19 +100033,19 @@
         <v>1.925</v>
       </c>
       <c r="W1118">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X1118">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y1118">
         <v>-1</v>
       </c>
       <c r="Z1118">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA1118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1118">
         <v>-1</v>
@@ -100059,7 +100059,7 @@
         <v>1117</v>
       </c>
       <c r="B1119">
-        <v>6847974</v>
+        <v>6847975</v>
       </c>
       <c r="C1119" t="s">
         <v>28</v>
@@ -100071,46 +100071,46 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F1119" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G1119" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H1119">
         <v>1</v>
       </c>
       <c r="I1119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1119">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="L1119">
+        <v>3.4</v>
+      </c>
+      <c r="M1119">
+        <v>2.1</v>
+      </c>
+      <c r="N1119">
         <v>4</v>
       </c>
-      <c r="M1119">
-        <v>5</v>
-      </c>
-      <c r="N1119">
-        <v>1.727</v>
-      </c>
       <c r="O1119">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P1119">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q1119">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R1119">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S1119">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T1119">
         <v>2.5</v>
@@ -100122,19 +100122,19 @@
         <v>1.925</v>
       </c>
       <c r="W1119">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X1119">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y1119">
         <v>-1</v>
       </c>
       <c r="Z1119">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA1119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB1119">
         <v>-1</v>
@@ -100237,7 +100237,7 @@
         <v>1119</v>
       </c>
       <c r="B1121">
-        <v>6847968</v>
+        <v>6847976</v>
       </c>
       <c r="C1121" t="s">
         <v>28</v>
@@ -100249,58 +100249,58 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F1121" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G1121" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H1121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I1121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1121" t="s">
         <v>56</v>
       </c>
       <c r="K1121">
-        <v>1.142</v>
+        <v>1.615</v>
       </c>
       <c r="L1121">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="M1121">
-        <v>17</v>
+        <v>5.25</v>
       </c>
       <c r="N1121">
-        <v>1.111</v>
+        <v>1.65</v>
       </c>
       <c r="O1121">
-        <v>8.5</v>
+        <v>3.75</v>
       </c>
       <c r="P1121">
-        <v>23</v>
+        <v>5.5</v>
       </c>
       <c r="Q1121">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1121">
-        <v>1.87</v>
+        <v>1.875</v>
       </c>
       <c r="S1121">
-        <v>2.06</v>
+        <v>1.975</v>
       </c>
       <c r="T1121">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1121">
-        <v>1.87</v>
+        <v>2.025</v>
       </c>
       <c r="V1121">
-        <v>2.03</v>
+        <v>1.825</v>
       </c>
       <c r="W1121">
-        <v>0.111</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X1121">
         <v>-1</v>
@@ -100309,13 +100309,13 @@
         <v>-1</v>
       </c>
       <c r="Z1121">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA1121">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
       <c r="AB1121">
-        <v>0.8700000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC1121">
         <v>-1</v>
@@ -100326,7 +100326,7 @@
         <v>1120</v>
       </c>
       <c r="B1122">
-        <v>6847976</v>
+        <v>7579908</v>
       </c>
       <c r="C1122" t="s">
         <v>28</v>
@@ -100338,73 +100338,73 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F1122" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G1122" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H1122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I1122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J1122" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1122">
-        <v>1.615</v>
+        <v>3.25</v>
       </c>
       <c r="L1122">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M1122">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N1122">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="O1122">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P1122">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q1122">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R1122">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S1122">
-        <v>1.975</v>
+        <v>2.08</v>
       </c>
       <c r="T1122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1122">
-        <v>2.025</v>
+        <v>2.11</v>
       </c>
       <c r="V1122">
-        <v>1.825</v>
+        <v>1.79</v>
       </c>
       <c r="W1122">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X1122">
         <v>-1</v>
       </c>
       <c r="Y1122">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z1122">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA1122">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AB1122">
-        <v>1.025</v>
+        <v>1.11</v>
       </c>
       <c r="AC1122">
         <v>-1</v>
@@ -100415,7 +100415,7 @@
         <v>1121</v>
       </c>
       <c r="B1123">
-        <v>6847972</v>
+        <v>6847968</v>
       </c>
       <c r="C1123" t="s">
         <v>28</v>
@@ -100427,58 +100427,58 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F1123" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G1123" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H1123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1123" t="s">
         <v>56</v>
       </c>
       <c r="K1123">
-        <v>2.2</v>
+        <v>1.142</v>
       </c>
       <c r="L1123">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="M1123">
-        <v>3.4</v>
+        <v>17</v>
       </c>
       <c r="N1123">
-        <v>2.25</v>
+        <v>1.111</v>
       </c>
       <c r="O1123">
+        <v>8.5</v>
+      </c>
+      <c r="P1123">
+        <v>23</v>
+      </c>
+      <c r="Q1123">
+        <v>-2.25</v>
+      </c>
+      <c r="R1123">
+        <v>1.87</v>
+      </c>
+      <c r="S1123">
+        <v>2.06</v>
+      </c>
+      <c r="T1123">
         <v>3.25</v>
       </c>
-      <c r="P1123">
-        <v>3.3</v>
-      </c>
-      <c r="Q1123">
-        <v>-0.25</v>
-      </c>
-      <c r="R1123">
-        <v>1.99</v>
-      </c>
-      <c r="S1123">
-        <v>1.94</v>
-      </c>
-      <c r="T1123">
-        <v>2.25</v>
-      </c>
       <c r="U1123">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="V1123">
-        <v>1.91</v>
+        <v>2.03</v>
       </c>
       <c r="W1123">
-        <v>1.25</v>
+        <v>0.111</v>
       </c>
       <c r="X1123">
         <v>-1</v>
@@ -100487,16 +100487,16 @@
         <v>-1</v>
       </c>
       <c r="Z1123">
-        <v>0.99</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1123">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
       <c r="AB1123">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC1123">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1124" spans="1:29">
@@ -100682,7 +100682,7 @@
         <v>1124</v>
       </c>
       <c r="B1126">
-        <v>7579908</v>
+        <v>6847972</v>
       </c>
       <c r="C1126" t="s">
         <v>28</v>
@@ -100694,76 +100694,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F1126" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G1126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H1126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1126">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1126" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1126">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="L1126">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M1126">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N1126">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="O1126">
         <v>3.25</v>
       </c>
       <c r="P1126">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="Q1126">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R1126">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="S1126">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="T1126">
         <v>2.25</v>
       </c>
       <c r="U1126">
-        <v>2.11</v>
+        <v>1.99</v>
       </c>
       <c r="V1126">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="W1126">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X1126">
         <v>-1</v>
       </c>
       <c r="Y1126">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z1126">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AA1126">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AB1126">
-        <v>1.11</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1126">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="1127" spans="1:29">
@@ -102669,7 +102669,7 @@
         <v>1147</v>
       </c>
       <c r="B1149">
-        <v>7728864</v>
+        <v>7728862</v>
       </c>
       <c r="C1149" t="s">
         <v>28</v>
@@ -102681,46 +102681,46 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F1149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1149" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K1149">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L1149">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M1149">
+        <v>8</v>
+      </c>
+      <c r="N1149">
+        <v>1.363</v>
+      </c>
+      <c r="O1149">
         <v>4.75</v>
       </c>
-      <c r="N1149">
-        <v>1.7</v>
-      </c>
-      <c r="O1149">
-        <v>3.5</v>
-      </c>
       <c r="P1149">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q1149">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R1149">
+        <v>1.85</v>
+      </c>
+      <c r="S1149">
+        <v>2.05</v>
+      </c>
+      <c r="T1149">
+        <v>2.75</v>
+      </c>
+      <c r="U1149">
         <v>1.99</v>
       </c>
-      <c r="S1149">
+      <c r="V1149">
         <v>1.91</v>
-      </c>
-      <c r="T1149">
-        <v>2.5</v>
-      </c>
-      <c r="U1149">
-        <v>1.95</v>
-      </c>
-      <c r="V1149">
-        <v>1.95</v>
       </c>
       <c r="W1149">
         <v>0</v>
@@ -102743,7 +102743,7 @@
         <v>1148</v>
       </c>
       <c r="B1150">
-        <v>7728862</v>
+        <v>7728864</v>
       </c>
       <c r="C1150" t="s">
         <v>28</v>
@@ -102755,46 +102755,46 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F1150" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1150" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1150">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L1150">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M1150">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="N1150">
-        <v>1.363</v>
+        <v>1.7</v>
       </c>
       <c r="O1150">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P1150">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q1150">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1150">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="S1150">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="T1150">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1150">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V1150">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W1150">
         <v>0</v>
@@ -102936,13 +102936,13 @@
         <v>2.1</v>
       </c>
       <c r="T1152">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1152">
-        <v>2.11</v>
+        <v>1.8</v>
       </c>
       <c r="V1152">
-        <v>1.79</v>
+        <v>2.1</v>
       </c>
       <c r="W1152">
         <v>0</v>

--- a/France Ligue 1/France Ligue 1.xlsx
+++ b/France Ligue 1/France Ligue 1.xlsx
@@ -59030,7 +59030,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>5177194</v>
+        <v>5177196</v>
       </c>
       <c r="C658" t="s">
         <v>28</v>
@@ -59042,76 +59042,76 @@
         <v>44815.41666666666</v>
       </c>
       <c r="F658" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G658" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658">
         <v>1</v>
       </c>
       <c r="J658" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K658">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L658">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M658">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N658">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O658">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P658">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="Q658">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R658">
+        <v>2.11</v>
+      </c>
+      <c r="S658">
+        <v>1.79</v>
+      </c>
+      <c r="T658">
+        <v>2.75</v>
+      </c>
+      <c r="U658">
+        <v>2.02</v>
+      </c>
+      <c r="V658">
         <v>1.88</v>
       </c>
-      <c r="S658">
-        <v>2.02</v>
-      </c>
-      <c r="T658">
-        <v>2</v>
-      </c>
-      <c r="U658">
-        <v>1.9</v>
-      </c>
-      <c r="V658">
-        <v>2</v>
-      </c>
       <c r="W658">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X658">
         <v>-1</v>
       </c>
       <c r="Y658">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z658">
-        <v>-1</v>
+        <v>1.11</v>
       </c>
       <c r="AA658">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AB658">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
       <c r="AC658">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="659" spans="1:29">
@@ -59119,7 +59119,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>5177196</v>
+        <v>5177194</v>
       </c>
       <c r="C659" t="s">
         <v>28</v>
@@ -59131,76 +59131,76 @@
         <v>44815.41666666666</v>
       </c>
       <c r="F659" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G659" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659">
         <v>1</v>
       </c>
       <c r="J659" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K659">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L659">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M659">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="N659">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="O659">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P659">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q659">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R659">
-        <v>2.11</v>
+        <v>1.88</v>
       </c>
       <c r="S659">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="T659">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U659">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="V659">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="W659">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X659">
         <v>-1</v>
       </c>
       <c r="Y659">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z659">
-        <v>1.11</v>
+        <v>-1</v>
       </c>
       <c r="AA659">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AB659">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
       <c r="AC659">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:29">
@@ -59920,7 +59920,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>5177211</v>
+        <v>5177213</v>
       </c>
       <c r="C668" t="s">
         <v>28</v>
@@ -59932,76 +59932,76 @@
         <v>44822.41666666666</v>
       </c>
       <c r="F668" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G668" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I668">
         <v>1</v>
       </c>
       <c r="J668" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K668">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="L668">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M668">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="N668">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="O668">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P668">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q668">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R668">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S668">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T668">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U668">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V668">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W668">
         <v>-1</v>
       </c>
       <c r="X668">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y668">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z668">
         <v>-1</v>
       </c>
       <c r="AA668">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB668">
         <v>-1</v>
       </c>
       <c r="AC668">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="669" spans="1:29">
@@ -60009,7 +60009,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>5177213</v>
+        <v>5177211</v>
       </c>
       <c r="C669" t="s">
         <v>28</v>
@@ -60021,76 +60021,76 @@
         <v>44822.41666666666</v>
       </c>
       <c r="F669" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G669" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I669">
         <v>1</v>
       </c>
       <c r="J669" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K669">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="L669">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M669">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="N669">
+        <v>1.615</v>
+      </c>
+      <c r="O669">
+        <v>4</v>
+      </c>
+      <c r="P669">
+        <v>5.5</v>
+      </c>
+      <c r="Q669">
+        <v>-0.75</v>
+      </c>
+      <c r="R669">
+        <v>1.8</v>
+      </c>
+      <c r="S669">
         <v>2.05</v>
       </c>
-      <c r="O669">
-        <v>3.6</v>
-      </c>
-      <c r="P669">
-        <v>3.6</v>
-      </c>
-      <c r="Q669">
-        <v>-0.5</v>
-      </c>
-      <c r="R669">
-        <v>2.025</v>
-      </c>
-      <c r="S669">
-        <v>1.825</v>
-      </c>
       <c r="T669">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U669">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V669">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W669">
         <v>-1</v>
       </c>
       <c r="X669">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y669">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z669">
         <v>-1</v>
       </c>
       <c r="AA669">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB669">
         <v>-1</v>
       </c>
       <c r="AC669">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="670" spans="1:29">
@@ -66150,7 +66150,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>5177284</v>
+        <v>5177277</v>
       </c>
       <c r="C738" t="s">
         <v>28</v>
@@ -66162,76 +66162,76 @@
         <v>44878.45833333334</v>
       </c>
       <c r="F738" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G738" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H738">
         <v>2</v>
       </c>
       <c r="I738">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J738" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K738">
+        <v>2</v>
+      </c>
+      <c r="L738">
+        <v>3.3</v>
+      </c>
+      <c r="M738">
+        <v>3.6</v>
+      </c>
+      <c r="N738">
         <v>2.1</v>
       </c>
-      <c r="L738">
-        <v>3.5</v>
-      </c>
-      <c r="M738">
+      <c r="O738">
         <v>3.2</v>
       </c>
-      <c r="N738">
-        <v>2</v>
-      </c>
-      <c r="O738">
-        <v>3.6</v>
-      </c>
       <c r="P738">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q738">
+        <v>-0.25</v>
+      </c>
+      <c r="R738">
+        <v>1.825</v>
+      </c>
+      <c r="S738">
+        <v>2.025</v>
+      </c>
+      <c r="T738">
+        <v>2.25</v>
+      </c>
+      <c r="U738">
+        <v>2.05</v>
+      </c>
+      <c r="V738">
+        <v>1.75</v>
+      </c>
+      <c r="W738">
+        <v>-1</v>
+      </c>
+      <c r="X738">
+        <v>2.2</v>
+      </c>
+      <c r="Y738">
+        <v>-1</v>
+      </c>
+      <c r="Z738">
         <v>-0.5</v>
       </c>
-      <c r="R738">
-        <v>2.025</v>
-      </c>
-      <c r="S738">
-        <v>1.825</v>
-      </c>
-      <c r="T738">
-        <v>2.75</v>
-      </c>
-      <c r="U738">
-        <v>1.95</v>
-      </c>
-      <c r="V738">
-        <v>1.9</v>
-      </c>
-      <c r="W738">
-        <v>1</v>
-      </c>
-      <c r="X738">
-        <v>-1</v>
-      </c>
-      <c r="Y738">
-        <v>-1</v>
-      </c>
-      <c r="Z738">
-        <v>1.025</v>
-      </c>
       <c r="AA738">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB738">
-        <v>0.475</v>
+        <v>1.05</v>
       </c>
       <c r="AC738">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="739" spans="1:29">
@@ -66239,7 +66239,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>5177279</v>
+        <v>5177284</v>
       </c>
       <c r="C739" t="s">
         <v>28</v>
@@ -66251,76 +66251,76 @@
         <v>44878.45833333334</v>
       </c>
       <c r="F739" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G739" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I739">
         <v>1</v>
       </c>
       <c r="J739" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K739">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L739">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M739">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N739">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="O739">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P739">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q739">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R739">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S739">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T739">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U739">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V739">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W739">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X739">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y739">
         <v>-1</v>
       </c>
       <c r="Z739">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA739">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB739">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC739">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="740" spans="1:29">
@@ -66328,7 +66328,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>5177278</v>
+        <v>5177279</v>
       </c>
       <c r="C740" t="s">
         <v>28</v>
@@ -66340,76 +66340,76 @@
         <v>44878.45833333334</v>
       </c>
       <c r="F740" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G740" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H740">
         <v>1</v>
       </c>
       <c r="I740">
+        <v>1</v>
+      </c>
+      <c r="J740" t="s">
+        <v>57</v>
+      </c>
+      <c r="K740">
+        <v>2.4</v>
+      </c>
+      <c r="L740">
+        <v>3.4</v>
+      </c>
+      <c r="M740">
+        <v>2.7</v>
+      </c>
+      <c r="N740">
+        <v>2.8</v>
+      </c>
+      <c r="O740">
+        <v>3.25</v>
+      </c>
+      <c r="P740">
+        <v>2.55</v>
+      </c>
+      <c r="Q740">
         <v>0</v>
       </c>
-      <c r="J740" t="s">
-        <v>56</v>
-      </c>
-      <c r="K740">
-        <v>1.4</v>
-      </c>
-      <c r="L740">
-        <v>4.75</v>
-      </c>
-      <c r="M740">
-        <v>7</v>
-      </c>
-      <c r="N740">
-        <v>1.25</v>
-      </c>
-      <c r="O740">
-        <v>6</v>
-      </c>
-      <c r="P740">
-        <v>11</v>
-      </c>
-      <c r="Q740">
-        <v>-1.75</v>
-      </c>
       <c r="R740">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S740">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T740">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U740">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V740">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W740">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X740">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y740">
         <v>-1</v>
       </c>
       <c r="Z740">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA740">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB740">
         <v>-1</v>
       </c>
       <c r="AC740">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="741" spans="1:29">
@@ -66417,7 +66417,7 @@
         <v>739</v>
       </c>
       <c r="B741">
-        <v>5177277</v>
+        <v>5177278</v>
       </c>
       <c r="C741" t="s">
         <v>28</v>
@@ -66429,76 +66429,76 @@
         <v>44878.45833333334</v>
       </c>
       <c r="F741" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G741" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I741">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J741" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K741">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L741">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M741">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="N741">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="O741">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P741">
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="Q741">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R741">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S741">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T741">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U741">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V741">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W741">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X741">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y741">
         <v>-1</v>
       </c>
       <c r="Z741">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA741">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
       <c r="AB741">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC741">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="742" spans="1:29">
@@ -67040,7 +67040,7 @@
         <v>746</v>
       </c>
       <c r="B748">
-        <v>5938175</v>
+        <v>5938165</v>
       </c>
       <c r="C748" t="s">
         <v>28</v>
@@ -67052,76 +67052,76 @@
         <v>44923.70833333334</v>
       </c>
       <c r="F748" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G748" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H748">
         <v>2</v>
       </c>
       <c r="I748">
+        <v>4</v>
+      </c>
+      <c r="J748" t="s">
+        <v>55</v>
+      </c>
+      <c r="K748">
+        <v>3.75</v>
+      </c>
+      <c r="L748">
+        <v>3.5</v>
+      </c>
+      <c r="M748">
+        <v>1.95</v>
+      </c>
+      <c r="N748">
+        <v>3.3</v>
+      </c>
+      <c r="O748">
+        <v>3.5</v>
+      </c>
+      <c r="P748">
+        <v>2.15</v>
+      </c>
+      <c r="Q748">
+        <v>0.25</v>
+      </c>
+      <c r="R748">
+        <v>1.95</v>
+      </c>
+      <c r="S748">
+        <v>1.9</v>
+      </c>
+      <c r="T748">
+        <v>2.75</v>
+      </c>
+      <c r="U748">
+        <v>2</v>
+      </c>
+      <c r="V748">
+        <v>1.85</v>
+      </c>
+      <c r="W748">
+        <v>-1</v>
+      </c>
+      <c r="X748">
+        <v>-1</v>
+      </c>
+      <c r="Y748">
+        <v>1.15</v>
+      </c>
+      <c r="Z748">
+        <v>-1</v>
+      </c>
+      <c r="AA748">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB748">
         <v>1</v>
       </c>
-      <c r="J748" t="s">
-        <v>56</v>
-      </c>
-      <c r="K748">
-        <v>1.142</v>
-      </c>
-      <c r="L748">
-        <v>8</v>
-      </c>
-      <c r="M748">
-        <v>17</v>
-      </c>
-      <c r="N748">
-        <v>1.2</v>
-      </c>
-      <c r="O748">
-        <v>7</v>
-      </c>
-      <c r="P748">
-        <v>15</v>
-      </c>
-      <c r="Q748">
-        <v>-2</v>
-      </c>
-      <c r="R748">
-        <v>1.875</v>
-      </c>
-      <c r="S748">
-        <v>1.975</v>
-      </c>
-      <c r="T748">
-        <v>3.5</v>
-      </c>
-      <c r="U748">
-        <v>1.925</v>
-      </c>
-      <c r="V748">
-        <v>1.925</v>
-      </c>
-      <c r="W748">
-        <v>0.2</v>
-      </c>
-      <c r="X748">
-        <v>-1</v>
-      </c>
-      <c r="Y748">
-        <v>-1</v>
-      </c>
-      <c r="Z748">
-        <v>-1</v>
-      </c>
-      <c r="AA748">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB748">
-        <v>-1</v>
-      </c>
       <c r="AC748">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="749" spans="1:29">
@@ -67129,7 +67129,7 @@
         <v>747</v>
       </c>
       <c r="B749">
-        <v>5938165</v>
+        <v>5938175</v>
       </c>
       <c r="C749" t="s">
         <v>28</v>
@@ -67141,76 +67141,76 @@
         <v>44923.70833333334</v>
       </c>
       <c r="F749" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G749" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H749">
         <v>2</v>
       </c>
       <c r="I749">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J749" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K749">
-        <v>3.75</v>
+        <v>1.142</v>
       </c>
       <c r="L749">
+        <v>8</v>
+      </c>
+      <c r="M749">
+        <v>17</v>
+      </c>
+      <c r="N749">
+        <v>1.2</v>
+      </c>
+      <c r="O749">
+        <v>7</v>
+      </c>
+      <c r="P749">
+        <v>15</v>
+      </c>
+      <c r="Q749">
+        <v>-2</v>
+      </c>
+      <c r="R749">
+        <v>1.875</v>
+      </c>
+      <c r="S749">
+        <v>1.975</v>
+      </c>
+      <c r="T749">
         <v>3.5</v>
       </c>
-      <c r="M749">
-        <v>1.95</v>
-      </c>
-      <c r="N749">
-        <v>3.3</v>
-      </c>
-      <c r="O749">
-        <v>3.5</v>
-      </c>
-      <c r="P749">
-        <v>2.15</v>
-      </c>
-      <c r="Q749">
-        <v>0.25</v>
-      </c>
-      <c r="R749">
-        <v>1.95</v>
-      </c>
-      <c r="S749">
-        <v>1.9</v>
-      </c>
-      <c r="T749">
-        <v>2.75</v>
-      </c>
       <c r="U749">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V749">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W749">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X749">
         <v>-1</v>
       </c>
       <c r="Y749">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z749">
         <v>-1</v>
       </c>
       <c r="AA749">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB749">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC749">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="750" spans="1:29">
@@ -67396,7 +67396,7 @@
         <v>750</v>
       </c>
       <c r="B752">
-        <v>5938179</v>
+        <v>5938178</v>
       </c>
       <c r="C752" t="s">
         <v>28</v>
@@ -67408,76 +67408,76 @@
         <v>44924.70833333334</v>
       </c>
       <c r="F752" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G752" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H752">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I752">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J752" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K752">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L752">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M752">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="N752">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="O752">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P752">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Q752">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R752">
-        <v>2.06</v>
+        <v>2.155</v>
       </c>
       <c r="S752">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="T752">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U752">
+        <v>1.86</v>
+      </c>
+      <c r="V752">
         <v>2.04</v>
       </c>
-      <c r="V752">
-        <v>1.86</v>
-      </c>
       <c r="W752">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X752">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y752">
         <v>-1</v>
       </c>
       <c r="Z752">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="AA752">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB752">
+        <v>-1</v>
+      </c>
+      <c r="AC752">
         <v>1.04</v>
-      </c>
-      <c r="AC752">
-        <v>-1</v>
       </c>
     </row>
     <row r="753" spans="1:29">
@@ -67485,7 +67485,7 @@
         <v>751</v>
       </c>
       <c r="B753">
-        <v>5938178</v>
+        <v>5938179</v>
       </c>
       <c r="C753" t="s">
         <v>28</v>
@@ -67497,76 +67497,76 @@
         <v>44924.70833333334</v>
       </c>
       <c r="F753" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G753" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I753">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J753" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K753">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="L753">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M753">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N753">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="O753">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P753">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q753">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R753">
-        <v>2.155</v>
+        <v>2.06</v>
       </c>
       <c r="S753">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="T753">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U753">
+        <v>2.04</v>
+      </c>
+      <c r="V753">
         <v>1.86</v>
       </c>
-      <c r="V753">
-        <v>2.04</v>
-      </c>
       <c r="W753">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X753">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y753">
         <v>-1</v>
       </c>
       <c r="Z753">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AA753">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB753">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AC753">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="754" spans="1:29">
@@ -67574,7 +67574,7 @@
         <v>752</v>
       </c>
       <c r="B754">
-        <v>5177298</v>
+        <v>5177296</v>
       </c>
       <c r="C754" t="s">
         <v>28</v>
@@ -67586,10 +67586,10 @@
         <v>44927.45833333334</v>
       </c>
       <c r="F754" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G754" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H754">
         <v>1</v>
@@ -67601,43 +67601,43 @@
         <v>56</v>
       </c>
       <c r="K754">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="L754">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M754">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="N754">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O754">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P754">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q754">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R754">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S754">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T754">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U754">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V754">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W754">
-        <v>0.833</v>
+        <v>0.5</v>
       </c>
       <c r="X754">
         <v>-1</v>
@@ -67646,16 +67646,16 @@
         <v>-1</v>
       </c>
       <c r="Z754">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA754">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB754">
         <v>-1</v>
       </c>
       <c r="AC754">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="755" spans="1:29">
@@ -67663,7 +67663,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>5177297</v>
+        <v>5177305</v>
       </c>
       <c r="C755" t="s">
         <v>28</v>
@@ -67675,40 +67675,40 @@
         <v>44927.45833333334</v>
       </c>
       <c r="F755" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G755" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I755">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J755" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K755">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L755">
+        <v>3.2</v>
+      </c>
+      <c r="M755">
+        <v>4</v>
+      </c>
+      <c r="N755">
+        <v>2.05</v>
+      </c>
+      <c r="O755">
         <v>3.3</v>
       </c>
-      <c r="M755">
-        <v>2.45</v>
-      </c>
-      <c r="N755">
-        <v>2.5</v>
-      </c>
-      <c r="O755">
-        <v>3.4</v>
-      </c>
       <c r="P755">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q755">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R755">
         <v>1.8</v>
@@ -67717,34 +67717,34 @@
         <v>2.05</v>
       </c>
       <c r="T755">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U755">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V755">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W755">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X755">
         <v>-1</v>
       </c>
       <c r="Y755">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z755">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA755">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB755">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC755">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="756" spans="1:29">
@@ -67752,7 +67752,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>5177296</v>
+        <v>5177297</v>
       </c>
       <c r="C756" t="s">
         <v>28</v>
@@ -67764,40 +67764,40 @@
         <v>44927.45833333334</v>
       </c>
       <c r="F756" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G756" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H756">
         <v>1</v>
       </c>
       <c r="I756">
+        <v>2</v>
+      </c>
+      <c r="J756" t="s">
+        <v>55</v>
+      </c>
+      <c r="K756">
+        <v>2.8</v>
+      </c>
+      <c r="L756">
+        <v>3.3</v>
+      </c>
+      <c r="M756">
+        <v>2.45</v>
+      </c>
+      <c r="N756">
+        <v>2.5</v>
+      </c>
+      <c r="O756">
+        <v>3.4</v>
+      </c>
+      <c r="P756">
+        <v>2.75</v>
+      </c>
+      <c r="Q756">
         <v>0</v>
-      </c>
-      <c r="J756" t="s">
-        <v>56</v>
-      </c>
-      <c r="K756">
-        <v>1.45</v>
-      </c>
-      <c r="L756">
-        <v>4.75</v>
-      </c>
-      <c r="M756">
-        <v>6</v>
-      </c>
-      <c r="N756">
-        <v>1.5</v>
-      </c>
-      <c r="O756">
-        <v>4.5</v>
-      </c>
-      <c r="P756">
-        <v>5.75</v>
-      </c>
-      <c r="Q756">
-        <v>-1</v>
       </c>
       <c r="R756">
         <v>1.8</v>
@@ -67806,34 +67806,34 @@
         <v>2.05</v>
       </c>
       <c r="T756">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U756">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V756">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W756">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X756">
         <v>-1</v>
       </c>
       <c r="Y756">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z756">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA756">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB756">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC756">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="757" spans="1:29">
@@ -67841,7 +67841,7 @@
         <v>755</v>
       </c>
       <c r="B757">
-        <v>5177305</v>
+        <v>5177298</v>
       </c>
       <c r="C757" t="s">
         <v>28</v>
@@ -67853,13 +67853,13 @@
         <v>44927.45833333334</v>
       </c>
       <c r="F757" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G757" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I757">
         <v>0</v>
@@ -67871,40 +67871,40 @@
         <v>2</v>
       </c>
       <c r="L757">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M757">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N757">
+        <v>1.833</v>
+      </c>
+      <c r="O757">
+        <v>3.4</v>
+      </c>
+      <c r="P757">
+        <v>4.75</v>
+      </c>
+      <c r="Q757">
+        <v>-0.5</v>
+      </c>
+      <c r="R757">
+        <v>1.85</v>
+      </c>
+      <c r="S757">
+        <v>2</v>
+      </c>
+      <c r="T757">
+        <v>2.5</v>
+      </c>
+      <c r="U757">
         <v>2.05</v>
       </c>
-      <c r="O757">
-        <v>3.3</v>
-      </c>
-      <c r="P757">
-        <v>3.6</v>
-      </c>
-      <c r="Q757">
-        <v>-0.25</v>
-      </c>
-      <c r="R757">
+      <c r="V757">
         <v>1.8</v>
       </c>
-      <c r="S757">
-        <v>2.05</v>
-      </c>
-      <c r="T757">
-        <v>2.25</v>
-      </c>
-      <c r="U757">
-        <v>1.8</v>
-      </c>
-      <c r="V757">
-        <v>2.05</v>
-      </c>
       <c r="W757">
-        <v>1.05</v>
+        <v>0.833</v>
       </c>
       <c r="X757">
         <v>-1</v>
@@ -67913,16 +67913,16 @@
         <v>-1</v>
       </c>
       <c r="Z757">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA757">
+        <v>-1</v>
+      </c>
+      <c r="AB757">
+        <v>-1</v>
+      </c>
+      <c r="AC757">
         <v>0.8</v>
-      </c>
-      <c r="AA757">
-        <v>-1</v>
-      </c>
-      <c r="AB757">
-        <v>-0.5</v>
-      </c>
-      <c r="AC757">
-        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="758" spans="1:29">
@@ -68642,7 +68642,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>6081163</v>
+        <v>6081164</v>
       </c>
       <c r="C766" t="s">
         <v>28</v>
@@ -68654,16 +68654,16 @@
         <v>44937.625</v>
       </c>
       <c r="F766" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G766" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H766">
         <v>0</v>
       </c>
       <c r="I766">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J766" t="s">
         <v>55</v>
@@ -68672,37 +68672,37 @@
         <v>2.8</v>
       </c>
       <c r="L766">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M766">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N766">
+        <v>3</v>
+      </c>
+      <c r="O766">
         <v>3.3</v>
       </c>
-      <c r="O766">
-        <v>3</v>
-      </c>
       <c r="P766">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q766">
         <v>0.25</v>
       </c>
       <c r="R766">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S766">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T766">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U766">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V766">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W766">
         <v>-1</v>
@@ -68711,19 +68711,19 @@
         <v>-1</v>
       </c>
       <c r="Y766">
-        <v>1.375</v>
+        <v>1.4</v>
       </c>
       <c r="Z766">
         <v>-1</v>
       </c>
       <c r="AA766">
-        <v>1.025</v>
+        <v>1.1</v>
       </c>
       <c r="AB766">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC766">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="767" spans="1:29">
@@ -68731,7 +68731,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>6081164</v>
+        <v>6081165</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68743,73 +68743,73 @@
         <v>44937.625</v>
       </c>
       <c r="F767" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G767" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J767" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K767">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="L767">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M767">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="N767">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O767">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P767">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q767">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R767">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S767">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T767">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U767">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V767">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W767">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X767">
         <v>-1</v>
       </c>
       <c r="Y767">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z767">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA767">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB767">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC767">
         <v>-1</v>
@@ -68820,7 +68820,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>6081165</v>
+        <v>6081163</v>
       </c>
       <c r="C768" t="s">
         <v>28</v>
@@ -68832,76 +68832,76 @@
         <v>44937.625</v>
       </c>
       <c r="F768" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G768" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768">
         <v>1</v>
       </c>
       <c r="J768" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K768">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="L768">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M768">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="N768">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="O768">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P768">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="Q768">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R768">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S768">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T768">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U768">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V768">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W768">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X768">
         <v>-1</v>
       </c>
       <c r="Y768">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z768">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA768">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB768">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC768">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:29">
@@ -69888,7 +69888,7 @@
         <v>778</v>
       </c>
       <c r="B780">
-        <v>5177326</v>
+        <v>5177325</v>
       </c>
       <c r="C780" t="s">
         <v>28</v>
@@ -69900,76 +69900,76 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F780" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G780" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H780">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I780">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J780" t="s">
         <v>57</v>
       </c>
       <c r="K780">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="L780">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M780">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N780">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="O780">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P780">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q780">
+        <v>-0.25</v>
+      </c>
+      <c r="R780">
+        <v>2.075</v>
+      </c>
+      <c r="S780">
+        <v>1.725</v>
+      </c>
+      <c r="T780">
+        <v>2.25</v>
+      </c>
+      <c r="U780">
+        <v>1.875</v>
+      </c>
+      <c r="V780">
+        <v>1.975</v>
+      </c>
+      <c r="W780">
+        <v>-1</v>
+      </c>
+      <c r="X780">
+        <v>2.2</v>
+      </c>
+      <c r="Y780">
+        <v>-1</v>
+      </c>
+      <c r="Z780">
         <v>-0.5</v>
       </c>
-      <c r="R780">
-        <v>1.825</v>
-      </c>
-      <c r="S780">
-        <v>2.025</v>
-      </c>
-      <c r="T780">
-        <v>2.75</v>
-      </c>
-      <c r="U780">
-        <v>1.95</v>
-      </c>
-      <c r="V780">
-        <v>1.9</v>
-      </c>
-      <c r="W780">
-        <v>-1</v>
-      </c>
-      <c r="X780">
-        <v>2.6</v>
-      </c>
-      <c r="Y780">
-        <v>-1</v>
-      </c>
-      <c r="Z780">
-        <v>-1</v>
-      </c>
       <c r="AA780">
-        <v>1.025</v>
+        <v>0.3625</v>
       </c>
       <c r="AB780">
         <v>-1</v>
       </c>
       <c r="AC780">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="781" spans="1:29">
@@ -69977,7 +69977,7 @@
         <v>779</v>
       </c>
       <c r="B781">
-        <v>5177325</v>
+        <v>5177326</v>
       </c>
       <c r="C781" t="s">
         <v>28</v>
@@ -69989,76 +69989,76 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F781" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G781" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I781">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J781" t="s">
         <v>57</v>
       </c>
       <c r="K781">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="L781">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M781">
+        <v>3.5</v>
+      </c>
+      <c r="N781">
+        <v>1.85</v>
+      </c>
+      <c r="O781">
+        <v>3.6</v>
+      </c>
+      <c r="P781">
+        <v>4.2</v>
+      </c>
+      <c r="Q781">
+        <v>-0.5</v>
+      </c>
+      <c r="R781">
+        <v>1.825</v>
+      </c>
+      <c r="S781">
+        <v>2.025</v>
+      </c>
+      <c r="T781">
         <v>2.75</v>
       </c>
-      <c r="N781">
-        <v>2.5</v>
-      </c>
-      <c r="O781">
-        <v>3.2</v>
-      </c>
-      <c r="P781">
-        <v>2.875</v>
-      </c>
-      <c r="Q781">
-        <v>-0.25</v>
-      </c>
-      <c r="R781">
-        <v>2.075</v>
-      </c>
-      <c r="S781">
-        <v>1.725</v>
-      </c>
-      <c r="T781">
-        <v>2.25</v>
-      </c>
       <c r="U781">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V781">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W781">
         <v>-1</v>
       </c>
       <c r="X781">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y781">
         <v>-1</v>
       </c>
       <c r="Z781">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA781">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="AB781">
         <v>-1</v>
       </c>
       <c r="AC781">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="782" spans="1:29">
@@ -71579,7 +71579,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>5177343</v>
+        <v>5177342</v>
       </c>
       <c r="C799" t="s">
         <v>28</v>
@@ -71591,76 +71591,76 @@
         <v>44958.70833333334</v>
       </c>
       <c r="F799" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G799" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H799">
         <v>0</v>
       </c>
       <c r="I799">
+        <v>0</v>
+      </c>
+      <c r="J799" t="s">
+        <v>57</v>
+      </c>
+      <c r="K799">
+        <v>1.5</v>
+      </c>
+      <c r="L799">
+        <v>4.333</v>
+      </c>
+      <c r="M799">
+        <v>6</v>
+      </c>
+      <c r="N799">
+        <v>1.5</v>
+      </c>
+      <c r="O799">
+        <v>4.333</v>
+      </c>
+      <c r="P799">
+        <v>6.5</v>
+      </c>
+      <c r="Q799">
+        <v>-1</v>
+      </c>
+      <c r="R799">
+        <v>1.85</v>
+      </c>
+      <c r="S799">
+        <v>2</v>
+      </c>
+      <c r="T799">
+        <v>2.75</v>
+      </c>
+      <c r="U799">
+        <v>1.85</v>
+      </c>
+      <c r="V799">
+        <v>2</v>
+      </c>
+      <c r="W799">
+        <v>-1</v>
+      </c>
+      <c r="X799">
+        <v>3.333</v>
+      </c>
+      <c r="Y799">
+        <v>-1</v>
+      </c>
+      <c r="Z799">
+        <v>-1</v>
+      </c>
+      <c r="AA799">
         <v>1</v>
       </c>
-      <c r="J799" t="s">
-        <v>55</v>
-      </c>
-      <c r="K799">
-        <v>1.8</v>
-      </c>
-      <c r="L799">
-        <v>3.5</v>
-      </c>
-      <c r="M799">
-        <v>4.5</v>
-      </c>
-      <c r="N799">
-        <v>1.8</v>
-      </c>
-      <c r="O799">
-        <v>3.3</v>
-      </c>
-      <c r="P799">
-        <v>5</v>
-      </c>
-      <c r="Q799">
-        <v>-0.75</v>
-      </c>
-      <c r="R799">
-        <v>2.05</v>
-      </c>
-      <c r="S799">
-        <v>1.8</v>
-      </c>
-      <c r="T799">
-        <v>2.25</v>
-      </c>
-      <c r="U799">
-        <v>1.975</v>
-      </c>
-      <c r="V799">
-        <v>1.875</v>
-      </c>
-      <c r="W799">
-        <v>-1</v>
-      </c>
-      <c r="X799">
-        <v>-1</v>
-      </c>
-      <c r="Y799">
-        <v>4</v>
-      </c>
-      <c r="Z799">
-        <v>-1</v>
-      </c>
-      <c r="AA799">
-        <v>0.8</v>
-      </c>
       <c r="AB799">
         <v>-1</v>
       </c>
       <c r="AC799">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:29">
@@ -71668,7 +71668,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>5177342</v>
+        <v>5177341</v>
       </c>
       <c r="C800" t="s">
         <v>28</v>
@@ -71680,76 +71680,76 @@
         <v>44958.70833333334</v>
       </c>
       <c r="F800" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G800" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I800">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J800" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K800">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="L800">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="M800">
+        <v>1.3</v>
+      </c>
+      <c r="N800">
+        <v>8.5</v>
+      </c>
+      <c r="O800">
         <v>6</v>
       </c>
-      <c r="N800">
-        <v>1.5</v>
-      </c>
-      <c r="O800">
-        <v>4.333</v>
-      </c>
       <c r="P800">
-        <v>6.5</v>
+        <v>1.285</v>
       </c>
       <c r="Q800">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R800">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S800">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T800">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U800">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V800">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W800">
         <v>-1</v>
       </c>
       <c r="X800">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y800">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z800">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA800">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB800">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC800">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="801" spans="1:29">
@@ -71757,7 +71757,7 @@
         <v>799</v>
       </c>
       <c r="B801">
-        <v>5177341</v>
+        <v>5177343</v>
       </c>
       <c r="C801" t="s">
         <v>28</v>
@@ -71769,55 +71769,55 @@
         <v>44958.70833333334</v>
       </c>
       <c r="F801" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G801" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H801">
+        <v>0</v>
+      </c>
+      <c r="I801">
         <v>1</v>
-      </c>
-      <c r="I801">
-        <v>3</v>
       </c>
       <c r="J801" t="s">
         <v>55</v>
       </c>
       <c r="K801">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="L801">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M801">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="N801">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="O801">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="P801">
-        <v>1.285</v>
+        <v>5</v>
       </c>
       <c r="Q801">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R801">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S801">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T801">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U801">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V801">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W801">
         <v>-1</v>
@@ -71826,19 +71826,19 @@
         <v>-1</v>
       </c>
       <c r="Y801">
-        <v>0.2849999999999999</v>
+        <v>4</v>
       </c>
       <c r="Z801">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA801">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AB801">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC801">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="802" spans="1:29">
@@ -79678,7 +79678,7 @@
         <v>888</v>
       </c>
       <c r="B890">
-        <v>5177427</v>
+        <v>5177431</v>
       </c>
       <c r="C890" t="s">
         <v>28</v>
@@ -79690,55 +79690,55 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F890" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G890" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I890">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J890" t="s">
         <v>55</v>
       </c>
       <c r="K890">
+        <v>2.3</v>
+      </c>
+      <c r="L890">
+        <v>3.5</v>
+      </c>
+      <c r="M890">
+        <v>2.875</v>
+      </c>
+      <c r="N890">
+        <v>1.95</v>
+      </c>
+      <c r="O890">
+        <v>3.75</v>
+      </c>
+      <c r="P890">
+        <v>3.6</v>
+      </c>
+      <c r="Q890">
+        <v>-0.5</v>
+      </c>
+      <c r="R890">
+        <v>1.95</v>
+      </c>
+      <c r="S890">
+        <v>1.9</v>
+      </c>
+      <c r="T890">
         <v>2.75</v>
       </c>
-      <c r="L890">
-        <v>3</v>
-      </c>
-      <c r="M890">
-        <v>2.75</v>
-      </c>
-      <c r="N890">
-        <v>2.8</v>
-      </c>
-      <c r="O890">
-        <v>2.8</v>
-      </c>
-      <c r="P890">
-        <v>3</v>
-      </c>
-      <c r="Q890">
-        <v>0</v>
-      </c>
-      <c r="R890">
-        <v>1.85</v>
-      </c>
-      <c r="S890">
-        <v>2</v>
-      </c>
-      <c r="T890">
-        <v>1.75</v>
-      </c>
       <c r="U890">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V890">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W890">
         <v>-1</v>
@@ -79747,19 +79747,19 @@
         <v>-1</v>
       </c>
       <c r="Y890">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Z890">
         <v>-1</v>
       </c>
       <c r="AA890">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB890">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC890">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="891" spans="1:29">
@@ -79767,7 +79767,7 @@
         <v>889</v>
       </c>
       <c r="B891">
-        <v>5177431</v>
+        <v>5177427</v>
       </c>
       <c r="C891" t="s">
         <v>28</v>
@@ -79779,55 +79779,55 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F891" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G891" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H891">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I891">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J891" t="s">
         <v>55</v>
       </c>
       <c r="K891">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L891">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M891">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N891">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="O891">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="P891">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q891">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R891">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S891">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T891">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U891">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V891">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W891">
         <v>-1</v>
@@ -79836,19 +79836,19 @@
         <v>-1</v>
       </c>
       <c r="Y891">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Z891">
         <v>-1</v>
       </c>
       <c r="AA891">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB891">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC891">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="892" spans="1:29">
@@ -83950,7 +83950,7 @@
         <v>936</v>
       </c>
       <c r="B938">
-        <v>5560098</v>
+        <v>5560103</v>
       </c>
       <c r="C938" t="s">
         <v>28</v>
@@ -83962,76 +83962,76 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F938" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G938" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="H938">
         <v>1</v>
       </c>
       <c r="I938">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J938" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K938">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L938">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M938">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N938">
         <v>1.909</v>
       </c>
       <c r="O938">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P938">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q938">
         <v>-0.5</v>
       </c>
       <c r="R938">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S938">
-        <v>1.93</v>
+        <v>1.975</v>
       </c>
       <c r="T938">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U938">
         <v>1.95</v>
       </c>
       <c r="V938">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W938">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X938">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y938">
         <v>-1</v>
       </c>
       <c r="Z938">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA938">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB938">
         <v>-1</v>
       </c>
       <c r="AC938">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="939" spans="1:29">
@@ -84039,7 +84039,7 @@
         <v>937</v>
       </c>
       <c r="B939">
-        <v>5560103</v>
+        <v>5560104</v>
       </c>
       <c r="C939" t="s">
         <v>28</v>
@@ -84051,13 +84051,13 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F939" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G939" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H939">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I939">
         <v>0</v>
@@ -84066,61 +84066,61 @@
         <v>56</v>
       </c>
       <c r="K939">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="L939">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="M939">
+        <v>9.5</v>
+      </c>
+      <c r="N939">
+        <v>1.166</v>
+      </c>
+      <c r="O939">
+        <v>8</v>
+      </c>
+      <c r="P939">
+        <v>15</v>
+      </c>
+      <c r="Q939">
+        <v>-2.25</v>
+      </c>
+      <c r="R939">
+        <v>1.95</v>
+      </c>
+      <c r="S939">
+        <v>1.9</v>
+      </c>
+      <c r="T939">
         <v>3.75</v>
       </c>
-      <c r="N939">
-        <v>1.909</v>
-      </c>
-      <c r="O939">
-        <v>3.3</v>
-      </c>
-      <c r="P939">
-        <v>4.5</v>
-      </c>
-      <c r="Q939">
+      <c r="U939">
+        <v>1.975</v>
+      </c>
+      <c r="V939">
+        <v>1.875</v>
+      </c>
+      <c r="W939">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X939">
+        <v>-1</v>
+      </c>
+      <c r="Y939">
+        <v>-1</v>
+      </c>
+      <c r="Z939">
+        <v>0.95</v>
+      </c>
+      <c r="AA939">
+        <v>-1</v>
+      </c>
+      <c r="AB939">
+        <v>0.4875</v>
+      </c>
+      <c r="AC939">
         <v>-0.5</v>
-      </c>
-      <c r="R939">
-        <v>1.875</v>
-      </c>
-      <c r="S939">
-        <v>1.975</v>
-      </c>
-      <c r="T939">
-        <v>2.25</v>
-      </c>
-      <c r="U939">
-        <v>1.95</v>
-      </c>
-      <c r="V939">
-        <v>1.9</v>
-      </c>
-      <c r="W939">
-        <v>0.909</v>
-      </c>
-      <c r="X939">
-        <v>-1</v>
-      </c>
-      <c r="Y939">
-        <v>-1</v>
-      </c>
-      <c r="Z939">
-        <v>0.875</v>
-      </c>
-      <c r="AA939">
-        <v>-1</v>
-      </c>
-      <c r="AB939">
-        <v>-1</v>
-      </c>
-      <c r="AC939">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="940" spans="1:29">
@@ -84128,7 +84128,7 @@
         <v>938</v>
       </c>
       <c r="B940">
-        <v>5560104</v>
+        <v>5560098</v>
       </c>
       <c r="C940" t="s">
         <v>28</v>
@@ -84140,76 +84140,76 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F940" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G940" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H940">
+        <v>1</v>
+      </c>
+      <c r="I940">
+        <v>1</v>
+      </c>
+      <c r="J940" t="s">
+        <v>57</v>
+      </c>
+      <c r="K940">
+        <v>1.8</v>
+      </c>
+      <c r="L940">
+        <v>3.6</v>
+      </c>
+      <c r="M940">
+        <v>4.5</v>
+      </c>
+      <c r="N940">
+        <v>1.909</v>
+      </c>
+      <c r="O940">
+        <v>3.5</v>
+      </c>
+      <c r="P940">
         <v>4</v>
       </c>
-      <c r="I940">
-        <v>0</v>
-      </c>
-      <c r="J940" t="s">
-        <v>56</v>
-      </c>
-      <c r="K940">
-        <v>1.3</v>
-      </c>
-      <c r="L940">
-        <v>5.5</v>
-      </c>
-      <c r="M940">
-        <v>9.5</v>
-      </c>
-      <c r="N940">
-        <v>1.166</v>
-      </c>
-      <c r="O940">
-        <v>8</v>
-      </c>
-      <c r="P940">
-        <v>15</v>
-      </c>
       <c r="Q940">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R940">
+        <v>2</v>
+      </c>
+      <c r="S940">
+        <v>1.93</v>
+      </c>
+      <c r="T940">
+        <v>2.5</v>
+      </c>
+      <c r="U940">
         <v>1.95</v>
       </c>
-      <c r="S940">
-        <v>1.9</v>
-      </c>
-      <c r="T940">
-        <v>3.75</v>
-      </c>
-      <c r="U940">
-        <v>1.975</v>
-      </c>
       <c r="V940">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W940">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X940">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y940">
         <v>-1</v>
       </c>
       <c r="Z940">
+        <v>-1</v>
+      </c>
+      <c r="AA940">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="AB940">
+        <v>-1</v>
+      </c>
+      <c r="AC940">
         <v>0.95</v>
-      </c>
-      <c r="AA940">
-        <v>-1</v>
-      </c>
-      <c r="AB940">
-        <v>0.4875</v>
-      </c>
-      <c r="AC940">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="941" spans="1:29">
@@ -85374,7 +85374,7 @@
         <v>952</v>
       </c>
       <c r="B954">
-        <v>5611339</v>
+        <v>5608134</v>
       </c>
       <c r="C954" t="s">
         <v>28</v>
@@ -85386,58 +85386,58 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F954" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G954" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H954">
         <v>2</v>
       </c>
       <c r="I954">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J954" t="s">
         <v>56</v>
       </c>
       <c r="K954">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L954">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M954">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="N954">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="O954">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P954">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q954">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R954">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S954">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T954">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U954">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="V954">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="W954">
-        <v>1.25</v>
+        <v>0.444</v>
       </c>
       <c r="X954">
         <v>-1</v>
@@ -85446,16 +85446,16 @@
         <v>-1</v>
       </c>
       <c r="Z954">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA954">
-        <v>-1</v>
+        <v>0.465</v>
       </c>
       <c r="AB954">
-        <v>-1</v>
+        <v>0.47</v>
       </c>
       <c r="AC954">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="955" spans="1:29">
@@ -85463,7 +85463,7 @@
         <v>953</v>
       </c>
       <c r="B955">
-        <v>5608134</v>
+        <v>5611339</v>
       </c>
       <c r="C955" t="s">
         <v>28</v>
@@ -85475,58 +85475,58 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F955" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G955" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H955">
         <v>2</v>
       </c>
       <c r="I955">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J955" t="s">
         <v>56</v>
       </c>
       <c r="K955">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L955">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M955">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="N955">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O955">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P955">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q955">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R955">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S955">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T955">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U955">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="V955">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="W955">
-        <v>0.444</v>
+        <v>1.25</v>
       </c>
       <c r="X955">
         <v>-1</v>
@@ -85535,16 +85535,16 @@
         <v>-1</v>
       </c>
       <c r="Z955">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA955">
-        <v>0.465</v>
+        <v>-1</v>
       </c>
       <c r="AB955">
-        <v>0.47</v>
+        <v>-1</v>
       </c>
       <c r="AC955">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="956" spans="1:29">
@@ -85552,7 +85552,7 @@
         <v>954</v>
       </c>
       <c r="B956">
-        <v>5607268</v>
+        <v>5611341</v>
       </c>
       <c r="C956" t="s">
         <v>28</v>
@@ -85564,76 +85564,76 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F956" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G956" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H956">
         <v>1</v>
       </c>
       <c r="I956">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J956" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K956">
-        <v>1.363</v>
+        <v>5</v>
       </c>
       <c r="L956">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M956">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N956">
-        <v>1.285</v>
+        <v>4.333</v>
       </c>
       <c r="O956">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P956">
-        <v>8.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q956">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R956">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S956">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T956">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U956">
+        <v>1.825</v>
+      </c>
+      <c r="V956">
         <v>2.025</v>
       </c>
-      <c r="V956">
-        <v>1.825</v>
-      </c>
       <c r="W956">
         <v>-1</v>
       </c>
       <c r="X956">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y956">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z956">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA956">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB956">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC956">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="957" spans="1:29">
@@ -85641,7 +85641,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>5603276</v>
+        <v>5607268</v>
       </c>
       <c r="C957" t="s">
         <v>28</v>
@@ -85653,49 +85653,49 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F957" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G957" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H957">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I957">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J957" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K957">
-        <v>1.142</v>
+        <v>1.363</v>
       </c>
       <c r="L957">
+        <v>5</v>
+      </c>
+      <c r="M957">
         <v>8</v>
       </c>
-      <c r="M957">
-        <v>15</v>
-      </c>
       <c r="N957">
-        <v>1.166</v>
+        <v>1.285</v>
       </c>
       <c r="O957">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P957">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="Q957">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R957">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S957">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T957">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U957">
         <v>2.025</v>
@@ -85704,25 +85704,25 @@
         <v>1.825</v>
       </c>
       <c r="W957">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X957">
         <v>-1</v>
       </c>
       <c r="Y957">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z957">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA957">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB957">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC957">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="958" spans="1:29">
@@ -85730,7 +85730,7 @@
         <v>956</v>
       </c>
       <c r="B958">
-        <v>5611341</v>
+        <v>5611340</v>
       </c>
       <c r="C958" t="s">
         <v>28</v>
@@ -85742,67 +85742,67 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F958" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G958" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H958">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I958">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J958" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K958">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="L958">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M958">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="N958">
-        <v>4.333</v>
+        <v>1.666</v>
       </c>
       <c r="O958">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P958">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q958">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R958">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S958">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T958">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U958">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V958">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W958">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X958">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y958">
         <v>-1</v>
       </c>
       <c r="Z958">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA958">
         <v>-1</v>
@@ -85811,7 +85811,7 @@
         <v>-1</v>
       </c>
       <c r="AC958">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="959" spans="1:29">
@@ -85819,7 +85819,7 @@
         <v>957</v>
       </c>
       <c r="B959">
-        <v>5736383</v>
+        <v>5603276</v>
       </c>
       <c r="C959" t="s">
         <v>28</v>
@@ -85831,13 +85831,13 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F959" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G959" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H959">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I959">
         <v>0</v>
@@ -85846,43 +85846,43 @@
         <v>56</v>
       </c>
       <c r="K959">
-        <v>2</v>
+        <v>1.142</v>
       </c>
       <c r="L959">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M959">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="N959">
-        <v>1.909</v>
+        <v>1.166</v>
       </c>
       <c r="O959">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="P959">
-        <v>3.75</v>
+        <v>19</v>
       </c>
       <c r="Q959">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R959">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="S959">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="T959">
         <v>3</v>
       </c>
       <c r="U959">
-        <v>1.94</v>
+        <v>2.025</v>
       </c>
       <c r="V959">
-        <v>1.96</v>
+        <v>1.825</v>
       </c>
       <c r="W959">
-        <v>0.909</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X959">
         <v>-1</v>
@@ -85891,16 +85891,16 @@
         <v>-1</v>
       </c>
       <c r="Z959">
-        <v>0.97</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA959">
         <v>-1</v>
       </c>
       <c r="AB959">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC959">
-        <v>0.96</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="960" spans="1:29">
@@ -86175,7 +86175,7 @@
         <v>961</v>
       </c>
       <c r="B963">
-        <v>5611340</v>
+        <v>5736383</v>
       </c>
       <c r="C963" t="s">
         <v>28</v>
@@ -86187,13 +86187,13 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F963" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G963" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H963">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I963">
         <v>0</v>
@@ -86202,43 +86202,43 @@
         <v>56</v>
       </c>
       <c r="K963">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="L963">
+        <v>3.6</v>
+      </c>
+      <c r="M963">
+        <v>3.5</v>
+      </c>
+      <c r="N963">
+        <v>1.909</v>
+      </c>
+      <c r="O963">
         <v>3.8</v>
       </c>
-      <c r="M963">
-        <v>4.75</v>
-      </c>
-      <c r="N963">
-        <v>1.666</v>
-      </c>
-      <c r="O963">
-        <v>4.5</v>
-      </c>
       <c r="P963">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q963">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R963">
-        <v>1.825</v>
+        <v>1.97</v>
       </c>
       <c r="S963">
-        <v>2.025</v>
+        <v>1.96</v>
       </c>
       <c r="T963">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U963">
-        <v>1.975</v>
+        <v>1.94</v>
       </c>
       <c r="V963">
-        <v>1.875</v>
+        <v>1.96</v>
       </c>
       <c r="W963">
-        <v>0.6659999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X963">
         <v>-1</v>
@@ -86247,7 +86247,7 @@
         <v>-1</v>
       </c>
       <c r="Z963">
-        <v>0.825</v>
+        <v>0.97</v>
       </c>
       <c r="AA963">
         <v>-1</v>
@@ -86256,7 +86256,7 @@
         <v>-1</v>
       </c>
       <c r="AC963">
-        <v>0.875</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="964" spans="1:29">
@@ -99970,7 +99970,7 @@
         <v>1116</v>
       </c>
       <c r="B1118">
-        <v>6847974</v>
+        <v>6847968</v>
       </c>
       <c r="C1118" t="s">
         <v>28</v>
@@ -99982,58 +99982,58 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F1118" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G1118" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="H1118">
+        <v>3</v>
+      </c>
+      <c r="I1118">
         <v>1</v>
-      </c>
-      <c r="I1118">
-        <v>0</v>
       </c>
       <c r="J1118" t="s">
         <v>56</v>
       </c>
       <c r="K1118">
-        <v>1.65</v>
+        <v>1.142</v>
       </c>
       <c r="L1118">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M1118">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N1118">
-        <v>1.727</v>
+        <v>1.111</v>
       </c>
       <c r="O1118">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="P1118">
-        <v>4.75</v>
+        <v>23</v>
       </c>
       <c r="Q1118">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R1118">
-        <v>1.975</v>
+        <v>1.87</v>
       </c>
       <c r="S1118">
-        <v>1.875</v>
+        <v>2.06</v>
       </c>
       <c r="T1118">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U1118">
-        <v>1.925</v>
+        <v>1.87</v>
       </c>
       <c r="V1118">
-        <v>1.925</v>
+        <v>2.03</v>
       </c>
       <c r="W1118">
-        <v>0.7270000000000001</v>
+        <v>0.111</v>
       </c>
       <c r="X1118">
         <v>-1</v>
@@ -100042,16 +100042,16 @@
         <v>-1</v>
       </c>
       <c r="Z1118">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1118">
-        <v>-0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AB1118">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC1118">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1119" spans="1:29">
@@ -100059,7 +100059,7 @@
         <v>1117</v>
       </c>
       <c r="B1119">
-        <v>6847975</v>
+        <v>6847974</v>
       </c>
       <c r="C1119" t="s">
         <v>28</v>
@@ -100071,46 +100071,46 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F1119" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G1119" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H1119">
         <v>1</v>
       </c>
       <c r="I1119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1119" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1119">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="L1119">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M1119">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="N1119">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="O1119">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P1119">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="Q1119">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R1119">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S1119">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T1119">
         <v>2.5</v>
@@ -100122,19 +100122,19 @@
         <v>1.925</v>
       </c>
       <c r="W1119">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X1119">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y1119">
         <v>-1</v>
       </c>
       <c r="Z1119">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA1119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1119">
         <v>-1</v>
@@ -100415,7 +100415,7 @@
         <v>1121</v>
       </c>
       <c r="B1123">
-        <v>6847968</v>
+        <v>6847975</v>
       </c>
       <c r="C1123" t="s">
         <v>28</v>
@@ -100427,76 +100427,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F1123" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1123" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H1123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1123">
         <v>1</v>
       </c>
       <c r="J1123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1123">
-        <v>1.142</v>
+        <v>3.4</v>
       </c>
       <c r="L1123">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M1123">
-        <v>17</v>
+        <v>2.1</v>
       </c>
       <c r="N1123">
-        <v>1.111</v>
+        <v>4</v>
       </c>
       <c r="O1123">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P1123">
-        <v>23</v>
+        <v>1.95</v>
       </c>
       <c r="Q1123">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R1123">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S1123">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="T1123">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1123">
-        <v>1.87</v>
+        <v>1.925</v>
       </c>
       <c r="V1123">
-        <v>2.03</v>
+        <v>1.925</v>
       </c>
       <c r="W1123">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X1123">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y1123">
         <v>-1</v>
       </c>
       <c r="Z1123">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA1123">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
       <c r="AB1123">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC1123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="1124" spans="1:29">
@@ -101127,7 +101127,7 @@
         <v>1129</v>
       </c>
       <c r="B1131">
-        <v>6847984</v>
+        <v>6847982</v>
       </c>
       <c r="C1131" t="s">
         <v>28</v>
@@ -101139,55 +101139,55 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F1131" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1131" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1131" t="s">
         <v>55</v>
       </c>
       <c r="K1131">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="L1131">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M1131">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="N1131">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O1131">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P1131">
+        <v>3.8</v>
+      </c>
+      <c r="Q1131">
+        <v>-0.5</v>
+      </c>
+      <c r="R1131">
+        <v>1.9</v>
+      </c>
+      <c r="S1131">
+        <v>1.95</v>
+      </c>
+      <c r="T1131">
         <v>2.5</v>
       </c>
-      <c r="Q1131">
-        <v>0</v>
-      </c>
-      <c r="R1131">
-        <v>2.025</v>
-      </c>
-      <c r="S1131">
-        <v>1.825</v>
-      </c>
-      <c r="T1131">
-        <v>2.25</v>
-      </c>
       <c r="U1131">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V1131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W1131">
         <v>-1</v>
@@ -101196,19 +101196,19 @@
         <v>-1</v>
       </c>
       <c r="Y1131">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="Z1131">
         <v>-1</v>
       </c>
       <c r="AA1131">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB1131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC1131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1132" spans="1:29">
@@ -101216,7 +101216,7 @@
         <v>1130</v>
       </c>
       <c r="B1132">
-        <v>6847985</v>
+        <v>6847984</v>
       </c>
       <c r="C1132" t="s">
         <v>28</v>
@@ -101228,76 +101228,76 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F1132" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G1132" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H1132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1132">
+        <v>1</v>
+      </c>
+      <c r="J1132" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1132">
+        <v>2.9</v>
+      </c>
+      <c r="L1132">
+        <v>3.3</v>
+      </c>
+      <c r="M1132">
+        <v>2.4</v>
+      </c>
+      <c r="N1132">
+        <v>2.875</v>
+      </c>
+      <c r="O1132">
+        <v>3.2</v>
+      </c>
+      <c r="P1132">
+        <v>2.5</v>
+      </c>
+      <c r="Q1132">
         <v>0</v>
       </c>
-      <c r="J1132" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1132">
+      <c r="R1132">
+        <v>2.025</v>
+      </c>
+      <c r="S1132">
+        <v>1.825</v>
+      </c>
+      <c r="T1132">
+        <v>2.25</v>
+      </c>
+      <c r="U1132">
+        <v>2.05</v>
+      </c>
+      <c r="V1132">
         <v>1.8</v>
       </c>
-      <c r="L1132">
-        <v>3.75</v>
-      </c>
-      <c r="M1132">
-        <v>4.333</v>
-      </c>
-      <c r="N1132">
-        <v>1.8</v>
-      </c>
-      <c r="O1132">
-        <v>3.75</v>
-      </c>
-      <c r="P1132">
-        <v>4.5</v>
-      </c>
-      <c r="Q1132">
-        <v>-0.75</v>
-      </c>
-      <c r="R1132">
-        <v>2.05</v>
-      </c>
-      <c r="S1132">
-        <v>1.8</v>
-      </c>
-      <c r="T1132">
-        <v>2.5</v>
-      </c>
-      <c r="U1132">
-        <v>2.025</v>
-      </c>
-      <c r="V1132">
-        <v>1.825</v>
-      </c>
       <c r="W1132">
+        <v>-1</v>
+      </c>
+      <c r="X1132">
+        <v>-1</v>
+      </c>
+      <c r="Y1132">
+        <v>1.5</v>
+      </c>
+      <c r="Z1132">
+        <v>-1</v>
+      </c>
+      <c r="AA1132">
+        <v>0.825</v>
+      </c>
+      <c r="AB1132">
+        <v>-1</v>
+      </c>
+      <c r="AC1132">
         <v>0.8</v>
-      </c>
-      <c r="X1132">
-        <v>-1</v>
-      </c>
-      <c r="Y1132">
-        <v>-1</v>
-      </c>
-      <c r="Z1132">
-        <v>1.05</v>
-      </c>
-      <c r="AA1132">
-        <v>-1</v>
-      </c>
-      <c r="AB1132">
-        <v>-1</v>
-      </c>
-      <c r="AC1132">
-        <v>0.825</v>
       </c>
     </row>
     <row r="1133" spans="1:29">
@@ -101305,7 +101305,7 @@
         <v>1131</v>
       </c>
       <c r="B1133">
-        <v>6847982</v>
+        <v>6847985</v>
       </c>
       <c r="C1133" t="s">
         <v>28</v>
@@ -101317,76 +101317,76 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F1133" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G1133" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H1133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1133" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1133">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L1133">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M1133">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="N1133">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O1133">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P1133">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q1133">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R1133">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S1133">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T1133">
         <v>2.5</v>
       </c>
       <c r="U1133">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V1133">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W1133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X1133">
         <v>-1</v>
       </c>
       <c r="Y1133">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z1133">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA1133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB1133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC1133">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="1134" spans="1:29">
@@ -102669,7 +102669,7 @@
         <v>1147</v>
       </c>
       <c r="B1149">
-        <v>7728862</v>
+        <v>7728864</v>
       </c>
       <c r="C1149" t="s">
         <v>28</v>
@@ -102681,46 +102681,46 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F1149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1149" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1149">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L1149">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M1149">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="N1149">
-        <v>1.363</v>
+        <v>1.7</v>
       </c>
       <c r="O1149">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P1149">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q1149">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1149">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="S1149">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="T1149">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1149">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="V1149">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W1149">
         <v>0</v>
@@ -102743,7 +102743,7 @@
         <v>1148</v>
       </c>
       <c r="B1150">
-        <v>7728864</v>
+        <v>7728862</v>
       </c>
       <c r="C1150" t="s">
         <v>28</v>
@@ -102755,46 +102755,46 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F1150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1150" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K1150">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L1150">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M1150">
+        <v>8</v>
+      </c>
+      <c r="N1150">
+        <v>1.363</v>
+      </c>
+      <c r="O1150">
         <v>4.75</v>
       </c>
-      <c r="N1150">
-        <v>1.7</v>
-      </c>
-      <c r="O1150">
-        <v>3.5</v>
-      </c>
       <c r="P1150">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q1150">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R1150">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S1150">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="T1150">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1150">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V1150">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W1150">
         <v>0</v>
@@ -102865,10 +102865,10 @@
         <v>2</v>
       </c>
       <c r="U1151">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V1151">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="W1151">
         <v>0</v>
@@ -102918,31 +102918,31 @@
         <v>2.7</v>
       </c>
       <c r="N1152">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O1152">
         <v>3.2</v>
       </c>
       <c r="P1152">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q1152">
         <v>0</v>
       </c>
       <c r="R1152">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S1152">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="T1152">
         <v>2</v>
       </c>
       <c r="U1152">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V1152">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="W1152">
         <v>0</v>
@@ -103013,10 +103013,10 @@
         <v>2.5</v>
       </c>
       <c r="U1153">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V1153">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="W1153">
         <v>0</v>

--- a/France Ligue 1/France Ligue 1.xlsx
+++ b/France Ligue 1/France Ligue 1.xlsx
@@ -35445,7 +35445,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>3713319</v>
+        <v>3713317</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35457,10 +35457,10 @@
         <v>44552.70833333334</v>
       </c>
       <c r="F393" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G393" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H393">
         <v>2</v>
@@ -35472,43 +35472,43 @@
         <v>56</v>
       </c>
       <c r="K393">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L393">
         <v>3.4</v>
       </c>
       <c r="M393">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N393">
+        <v>2.2</v>
+      </c>
+      <c r="O393">
+        <v>3.5</v>
+      </c>
+      <c r="P393">
+        <v>3.2</v>
+      </c>
+      <c r="Q393">
+        <v>-0.25</v>
+      </c>
+      <c r="R393">
+        <v>1.9</v>
+      </c>
+      <c r="S393">
         <v>1.95</v>
       </c>
-      <c r="O393">
-        <v>3.6</v>
-      </c>
-      <c r="P393">
-        <v>3.5</v>
-      </c>
-      <c r="Q393">
-        <v>-0.5</v>
-      </c>
-      <c r="R393">
-        <v>2</v>
-      </c>
-      <c r="S393">
-        <v>1.85</v>
-      </c>
       <c r="T393">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U393">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V393">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W393">
-        <v>0.95</v>
+        <v>1.2</v>
       </c>
       <c r="X393">
         <v>-1</v>
@@ -35517,16 +35517,16 @@
         <v>-1</v>
       </c>
       <c r="Z393">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA393">
         <v>-1</v>
       </c>
       <c r="AB393">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC393">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="394" spans="1:29">
@@ -35534,7 +35534,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>3713316</v>
+        <v>3713319</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35546,76 +35546,76 @@
         <v>44552.70833333334</v>
       </c>
       <c r="F394" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G394" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I394">
         <v>1</v>
       </c>
       <c r="J394" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K394">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="L394">
+        <v>3.4</v>
+      </c>
+      <c r="M394">
+        <v>3.3</v>
+      </c>
+      <c r="N394">
+        <v>1.95</v>
+      </c>
+      <c r="O394">
         <v>3.6</v>
       </c>
-      <c r="M394">
-        <v>4.8</v>
-      </c>
-      <c r="N394">
-        <v>1.533</v>
-      </c>
-      <c r="O394">
-        <v>4.2</v>
-      </c>
       <c r="P394">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q394">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R394">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S394">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T394">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U394">
-        <v>1.92</v>
+        <v>2.025</v>
       </c>
       <c r="V394">
-        <v>1.98</v>
+        <v>1.825</v>
       </c>
       <c r="W394">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X394">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y394">
         <v>-1</v>
       </c>
       <c r="Z394">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA394">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB394">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC394">
-        <v>0.98</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="395" spans="1:29">
@@ -35623,7 +35623,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>3713317</v>
+        <v>3713316</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35635,76 +35635,76 @@
         <v>44552.70833333334</v>
       </c>
       <c r="F395" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G395" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I395">
         <v>1</v>
       </c>
       <c r="J395" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K395">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L395">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M395">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="N395">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="O395">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P395">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q395">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R395">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S395">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T395">
         <v>2.5</v>
       </c>
       <c r="U395">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V395">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W395">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X395">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y395">
         <v>-1</v>
       </c>
       <c r="Z395">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA395">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB395">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC395">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="396" spans="1:29">
@@ -38382,7 +38382,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>3713346</v>
+        <v>3713342</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -38394,10 +38394,10 @@
         <v>44584.45833333334</v>
       </c>
       <c r="F426" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G426" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H426">
         <v>2</v>
@@ -38409,43 +38409,43 @@
         <v>56</v>
       </c>
       <c r="K426">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L426">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M426">
+        <v>4.2</v>
+      </c>
+      <c r="N426">
         <v>2.05</v>
       </c>
-      <c r="N426">
-        <v>4.333</v>
-      </c>
       <c r="O426">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P426">
+        <v>4.2</v>
+      </c>
+      <c r="Q426">
+        <v>-0.5</v>
+      </c>
+      <c r="R426">
+        <v>2.05</v>
+      </c>
+      <c r="S426">
         <v>1.8</v>
       </c>
-      <c r="Q426">
-        <v>0.5</v>
-      </c>
-      <c r="R426">
-        <v>2.025</v>
-      </c>
-      <c r="S426">
-        <v>1.825</v>
-      </c>
       <c r="T426">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U426">
-        <v>1.925</v>
+        <v>1.84</v>
       </c>
       <c r="V426">
-        <v>1.925</v>
+        <v>2.06</v>
       </c>
       <c r="W426">
-        <v>3.333</v>
+        <v>1.05</v>
       </c>
       <c r="X426">
         <v>-1</v>
@@ -38454,13 +38454,13 @@
         <v>-1</v>
       </c>
       <c r="Z426">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA426">
         <v>-1</v>
       </c>
       <c r="AB426">
-        <v>0.925</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC426">
         <v>-1</v>
@@ -38560,7 +38560,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>3713342</v>
+        <v>3713346</v>
       </c>
       <c r="C428" t="s">
         <v>28</v>
@@ -38572,10 +38572,10 @@
         <v>44584.45833333334</v>
       </c>
       <c r="F428" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G428" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H428">
         <v>2</v>
@@ -38587,43 +38587,43 @@
         <v>56</v>
       </c>
       <c r="K428">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L428">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M428">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="N428">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="O428">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P428">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q428">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R428">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S428">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T428">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U428">
-        <v>1.84</v>
+        <v>1.925</v>
       </c>
       <c r="V428">
-        <v>2.06</v>
+        <v>1.925</v>
       </c>
       <c r="W428">
-        <v>1.05</v>
+        <v>3.333</v>
       </c>
       <c r="X428">
         <v>-1</v>
@@ -38632,13 +38632,13 @@
         <v>-1</v>
       </c>
       <c r="Z428">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA428">
         <v>-1</v>
       </c>
       <c r="AB428">
-        <v>0.8400000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC428">
         <v>-1</v>
@@ -39628,7 +39628,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>3713362</v>
+        <v>3713361</v>
       </c>
       <c r="C440" t="s">
         <v>28</v>
@@ -39640,76 +39640,76 @@
         <v>44598.45833333334</v>
       </c>
       <c r="F440" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G440" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I440">
         <v>0</v>
       </c>
       <c r="J440" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K440">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L440">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M440">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N440">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O440">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P440">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q440">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R440">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S440">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T440">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U440">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V440">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W440">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X440">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y440">
         <v>-1</v>
       </c>
       <c r="Z440">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA440">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB440">
         <v>-1</v>
       </c>
       <c r="AC440">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="441" spans="1:29">
@@ -39717,7 +39717,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>3713361</v>
+        <v>3713362</v>
       </c>
       <c r="C441" t="s">
         <v>28</v>
@@ -39729,76 +39729,76 @@
         <v>44598.45833333334</v>
       </c>
       <c r="F441" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G441" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441">
         <v>0</v>
       </c>
       <c r="J441" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K441">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L441">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M441">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N441">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O441">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P441">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q441">
+        <v>-0.25</v>
+      </c>
+      <c r="R441">
+        <v>1.9</v>
+      </c>
+      <c r="S441">
+        <v>1.95</v>
+      </c>
+      <c r="T441">
+        <v>2.25</v>
+      </c>
+      <c r="U441">
+        <v>2.05</v>
+      </c>
+      <c r="V441">
+        <v>1.8</v>
+      </c>
+      <c r="W441">
+        <v>-1</v>
+      </c>
+      <c r="X441">
+        <v>2.3</v>
+      </c>
+      <c r="Y441">
+        <v>-1</v>
+      </c>
+      <c r="Z441">
         <v>-0.5</v>
       </c>
-      <c r="R441">
-        <v>1.925</v>
-      </c>
-      <c r="S441">
-        <v>1.925</v>
-      </c>
-      <c r="T441">
-        <v>2.5</v>
-      </c>
-      <c r="U441">
-        <v>2</v>
-      </c>
-      <c r="V441">
-        <v>1.85</v>
-      </c>
-      <c r="W441">
-        <v>0.909</v>
-      </c>
-      <c r="X441">
-        <v>-1</v>
-      </c>
-      <c r="Y441">
-        <v>-1</v>
-      </c>
-      <c r="Z441">
-        <v>0.925</v>
-      </c>
       <c r="AA441">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB441">
         <v>-1</v>
       </c>
       <c r="AC441">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="442" spans="1:29">
@@ -48261,7 +48261,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>3956980</v>
+        <v>3953059</v>
       </c>
       <c r="C537" t="s">
         <v>28</v>
@@ -48273,76 +48273,76 @@
         <v>44671.58333333334</v>
       </c>
       <c r="F537" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G537" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H537">
+        <v>2</v>
+      </c>
+      <c r="I537">
+        <v>2</v>
+      </c>
+      <c r="J537" t="s">
+        <v>57</v>
+      </c>
+      <c r="K537">
+        <v>2.4</v>
+      </c>
+      <c r="L537">
+        <v>3.5</v>
+      </c>
+      <c r="M537">
+        <v>2.875</v>
+      </c>
+      <c r="N537">
+        <v>2.375</v>
+      </c>
+      <c r="O537">
+        <v>3.4</v>
+      </c>
+      <c r="P537">
+        <v>3</v>
+      </c>
+      <c r="Q537">
+        <v>-0.25</v>
+      </c>
+      <c r="R537">
+        <v>2.05</v>
+      </c>
+      <c r="S537">
+        <v>1.75</v>
+      </c>
+      <c r="T537">
+        <v>2.75</v>
+      </c>
+      <c r="U537">
+        <v>2</v>
+      </c>
+      <c r="V537">
+        <v>1.85</v>
+      </c>
+      <c r="W537">
+        <v>-1</v>
+      </c>
+      <c r="X537">
+        <v>2.4</v>
+      </c>
+      <c r="Y537">
+        <v>-1</v>
+      </c>
+      <c r="Z537">
+        <v>-0.5</v>
+      </c>
+      <c r="AA537">
+        <v>0.375</v>
+      </c>
+      <c r="AB537">
         <v>1</v>
       </c>
-      <c r="I537">
-        <v>0</v>
-      </c>
-      <c r="J537" t="s">
-        <v>56</v>
-      </c>
-      <c r="K537">
-        <v>1.85</v>
-      </c>
-      <c r="L537">
-        <v>3.4</v>
-      </c>
-      <c r="M537">
-        <v>4.5</v>
-      </c>
-      <c r="N537">
-        <v>1.55</v>
-      </c>
-      <c r="O537">
-        <v>4</v>
-      </c>
-      <c r="P537">
-        <v>7</v>
-      </c>
-      <c r="Q537">
-        <v>-1</v>
-      </c>
-      <c r="R537">
-        <v>1.95</v>
-      </c>
-      <c r="S537">
-        <v>1.9</v>
-      </c>
-      <c r="T537">
-        <v>2.5</v>
-      </c>
-      <c r="U537">
-        <v>1.975</v>
-      </c>
-      <c r="V537">
-        <v>1.875</v>
-      </c>
-      <c r="W537">
-        <v>0.55</v>
-      </c>
-      <c r="X537">
-        <v>-1</v>
-      </c>
-      <c r="Y537">
-        <v>-1</v>
-      </c>
-      <c r="Z537">
-        <v>0</v>
-      </c>
-      <c r="AA537">
-        <v>-0</v>
-      </c>
-      <c r="AB537">
-        <v>-1</v>
-      </c>
       <c r="AC537">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="538" spans="1:29">
@@ -48350,7 +48350,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>3953059</v>
+        <v>3956980</v>
       </c>
       <c r="C538" t="s">
         <v>28</v>
@@ -48362,76 +48362,76 @@
         <v>44671.58333333334</v>
       </c>
       <c r="F538" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G538" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I538">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J538" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K538">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="L538">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M538">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N538">
-        <v>2.375</v>
+        <v>1.55</v>
       </c>
       <c r="O538">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P538">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q538">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R538">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S538">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T538">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U538">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V538">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W538">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X538">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y538">
         <v>-1</v>
       </c>
       <c r="Z538">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA538">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB538">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC538">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="539" spans="1:29">
@@ -48706,7 +48706,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>3946448</v>
+        <v>3958253</v>
       </c>
       <c r="C542" t="s">
         <v>28</v>
@@ -48718,49 +48718,49 @@
         <v>44671.66666666666</v>
       </c>
       <c r="F542" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G542" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I542">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J542" t="s">
         <v>56</v>
       </c>
       <c r="K542">
-        <v>3.75</v>
+        <v>1.6</v>
       </c>
       <c r="L542">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M542">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N542">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="O542">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P542">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="Q542">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R542">
+        <v>1.95</v>
+      </c>
+      <c r="S542">
         <v>1.9</v>
       </c>
-      <c r="S542">
-        <v>1.95</v>
-      </c>
       <c r="T542">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U542">
         <v>1.975</v>
@@ -48769,7 +48769,7 @@
         <v>1.875</v>
       </c>
       <c r="W542">
-        <v>3</v>
+        <v>0.55</v>
       </c>
       <c r="X542">
         <v>-1</v>
@@ -48778,16 +48778,16 @@
         <v>-1</v>
       </c>
       <c r="Z542">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA542">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB542">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC542">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="543" spans="1:29">
@@ -48795,7 +48795,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>3958253</v>
+        <v>3946448</v>
       </c>
       <c r="C543" t="s">
         <v>28</v>
@@ -48807,49 +48807,49 @@
         <v>44671.66666666666</v>
       </c>
       <c r="F543" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G543" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H543">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I543">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J543" t="s">
         <v>56</v>
       </c>
       <c r="K543">
-        <v>1.6</v>
+        <v>3.75</v>
       </c>
       <c r="L543">
+        <v>3.8</v>
+      </c>
+      <c r="M543">
+        <v>1.909</v>
+      </c>
+      <c r="N543">
         <v>4</v>
       </c>
-      <c r="M543">
-        <v>5.5</v>
-      </c>
-      <c r="N543">
-        <v>1.55</v>
-      </c>
       <c r="O543">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P543">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q543">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R543">
+        <v>1.9</v>
+      </c>
+      <c r="S543">
         <v>1.95</v>
       </c>
-      <c r="S543">
-        <v>1.9</v>
-      </c>
       <c r="T543">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U543">
         <v>1.975</v>
@@ -48858,7 +48858,7 @@
         <v>1.875</v>
       </c>
       <c r="W543">
-        <v>0.55</v>
+        <v>3</v>
       </c>
       <c r="X543">
         <v>-1</v>
@@ -48867,16 +48867,16 @@
         <v>-1</v>
       </c>
       <c r="Z543">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA543">
+        <v>-1</v>
+      </c>
+      <c r="AB543">
         <v>0</v>
       </c>
-      <c r="AA543">
+      <c r="AC543">
         <v>-0</v>
-      </c>
-      <c r="AB543">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC543">
-        <v>-1</v>
       </c>
     </row>
     <row r="544" spans="1:29">
@@ -51910,7 +51910,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>4223799</v>
+        <v>4104050</v>
       </c>
       <c r="C578" t="s">
         <v>28</v>
@@ -51922,13 +51922,13 @@
         <v>44695.66666666666</v>
       </c>
       <c r="F578" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G578" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I578">
         <v>0</v>
@@ -51937,43 +51937,43 @@
         <v>56</v>
       </c>
       <c r="K578">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L578">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M578">
         <v>3.4</v>
       </c>
       <c r="N578">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O578">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P578">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q578">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R578">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S578">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="T578">
         <v>2.75</v>
       </c>
       <c r="U578">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="V578">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="W578">
-        <v>0.909</v>
+        <v>1.15</v>
       </c>
       <c r="X578">
         <v>-1</v>
@@ -51982,7 +51982,7 @@
         <v>-1</v>
       </c>
       <c r="Z578">
-        <v>0.9299999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA578">
         <v>-1</v>
@@ -51991,7 +51991,7 @@
         <v>-1</v>
       </c>
       <c r="AC578">
-        <v>0.8600000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="579" spans="1:29">
@@ -51999,7 +51999,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>4104050</v>
+        <v>4104049</v>
       </c>
       <c r="C579" t="s">
         <v>28</v>
@@ -52011,58 +52011,58 @@
         <v>44695.66666666666</v>
       </c>
       <c r="F579" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G579" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I579">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J579" t="s">
         <v>56</v>
       </c>
       <c r="K579">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L579">
+        <v>5.5</v>
+      </c>
+      <c r="M579">
+        <v>8</v>
+      </c>
+      <c r="N579">
+        <v>1.444</v>
+      </c>
+      <c r="O579">
+        <v>5.25</v>
+      </c>
+      <c r="P579">
+        <v>5.75</v>
+      </c>
+      <c r="Q579">
+        <v>-1.25</v>
+      </c>
+      <c r="R579">
+        <v>1.93</v>
+      </c>
+      <c r="S579">
+        <v>1.97</v>
+      </c>
+      <c r="T579">
         <v>3.5</v>
       </c>
-      <c r="M579">
-        <v>3.4</v>
-      </c>
-      <c r="N579">
-        <v>2.15</v>
-      </c>
-      <c r="O579">
-        <v>3.6</v>
-      </c>
-      <c r="P579">
-        <v>3.2</v>
-      </c>
-      <c r="Q579">
-        <v>-0.25</v>
-      </c>
-      <c r="R579">
-        <v>1.9</v>
-      </c>
-      <c r="S579">
-        <v>2</v>
-      </c>
-      <c r="T579">
-        <v>2.75</v>
-      </c>
       <c r="U579">
+        <v>1.94</v>
+      </c>
+      <c r="V579">
         <v>1.96</v>
       </c>
-      <c r="V579">
-        <v>1.94</v>
-      </c>
       <c r="W579">
-        <v>1.15</v>
+        <v>0.444</v>
       </c>
       <c r="X579">
         <v>-1</v>
@@ -52071,16 +52071,16 @@
         <v>-1</v>
       </c>
       <c r="Z579">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA579">
-        <v>-1</v>
+        <v>0.485</v>
       </c>
       <c r="AB579">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AC579">
-        <v>0.9399999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="580" spans="1:29">
@@ -52088,7 +52088,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>4104049</v>
+        <v>4104048</v>
       </c>
       <c r="C580" t="s">
         <v>28</v>
@@ -52100,61 +52100,61 @@
         <v>44695.66666666666</v>
       </c>
       <c r="F580" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G580" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H580">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I580">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J580" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K580">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L580">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M580">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="N580">
-        <v>1.444</v>
+        <v>2.45</v>
       </c>
       <c r="O580">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P580">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q580">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R580">
-        <v>1.93</v>
+        <v>2.11</v>
       </c>
       <c r="S580">
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
       <c r="T580">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U580">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="V580">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="W580">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X580">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y580">
         <v>-1</v>
@@ -52163,13 +52163,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA580">
-        <v>0.485</v>
+        <v>0.395</v>
       </c>
       <c r="AB580">
-        <v>0.9399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC580">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="581" spans="1:29">
@@ -52177,7 +52177,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>4104048</v>
+        <v>4104052</v>
       </c>
       <c r="C581" t="s">
         <v>28</v>
@@ -52189,76 +52189,76 @@
         <v>44695.66666666666</v>
       </c>
       <c r="F581" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G581" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H581">
         <v>0</v>
       </c>
       <c r="I581">
+        <v>4</v>
+      </c>
+      <c r="J581" t="s">
+        <v>55</v>
+      </c>
+      <c r="K581">
+        <v>7.5</v>
+      </c>
+      <c r="L581">
+        <v>5.25</v>
+      </c>
+      <c r="M581">
+        <v>1.363</v>
+      </c>
+      <c r="N581">
+        <v>8.5</v>
+      </c>
+      <c r="O581">
+        <v>6.5</v>
+      </c>
+      <c r="P581">
+        <v>1.3</v>
+      </c>
+      <c r="Q581">
+        <v>1.75</v>
+      </c>
+      <c r="R581">
+        <v>1.95</v>
+      </c>
+      <c r="S581">
+        <v>1.9</v>
+      </c>
+      <c r="T581">
+        <v>4</v>
+      </c>
+      <c r="U581">
+        <v>2.025</v>
+      </c>
+      <c r="V581">
+        <v>1.825</v>
+      </c>
+      <c r="W581">
+        <v>-1</v>
+      </c>
+      <c r="X581">
+        <v>-1</v>
+      </c>
+      <c r="Y581">
+        <v>0.3</v>
+      </c>
+      <c r="Z581">
+        <v>-1</v>
+      </c>
+      <c r="AA581">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB581">
         <v>0</v>
       </c>
-      <c r="J581" t="s">
-        <v>57</v>
-      </c>
-      <c r="K581">
-        <v>2.25</v>
-      </c>
-      <c r="L581">
-        <v>3.5</v>
-      </c>
-      <c r="M581">
-        <v>3.1</v>
-      </c>
-      <c r="N581">
-        <v>2.45</v>
-      </c>
-      <c r="O581">
-        <v>3.3</v>
-      </c>
-      <c r="P581">
-        <v>2.9</v>
-      </c>
-      <c r="Q581">
-        <v>-0.25</v>
-      </c>
-      <c r="R581">
-        <v>2.11</v>
-      </c>
-      <c r="S581">
-        <v>1.79</v>
-      </c>
-      <c r="T581">
-        <v>2.5</v>
-      </c>
-      <c r="U581">
-        <v>1.99</v>
-      </c>
-      <c r="V581">
-        <v>1.91</v>
-      </c>
-      <c r="W581">
-        <v>-1</v>
-      </c>
-      <c r="X581">
-        <v>2.3</v>
-      </c>
-      <c r="Y581">
-        <v>-1</v>
-      </c>
-      <c r="Z581">
-        <v>-0.5</v>
-      </c>
-      <c r="AA581">
-        <v>0.395</v>
-      </c>
-      <c r="AB581">
-        <v>-1</v>
-      </c>
       <c r="AC581">
-        <v>0.9099999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="582" spans="1:29">
@@ -52266,7 +52266,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>4104052</v>
+        <v>4223799</v>
       </c>
       <c r="C582" t="s">
         <v>28</v>
@@ -52278,76 +52278,76 @@
         <v>44695.66666666666</v>
       </c>
       <c r="F582" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G582" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H582">
+        <v>2</v>
+      </c>
+      <c r="I582">
         <v>0</v>
       </c>
-      <c r="I582">
-        <v>4</v>
-      </c>
       <c r="J582" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K582">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="L582">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="M582">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="N582">
-        <v>8.5</v>
+        <v>1.909</v>
       </c>
       <c r="O582">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P582">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q582">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R582">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S582">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="T582">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U582">
-        <v>2.025</v>
+        <v>2.04</v>
       </c>
       <c r="V582">
-        <v>1.825</v>
+        <v>1.86</v>
       </c>
       <c r="W582">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X582">
         <v>-1</v>
       </c>
       <c r="Y582">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z582">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA582">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB582">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC582">
-        <v>-0</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="583" spans="1:29">
@@ -53690,7 +53690,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>5205212</v>
+        <v>5205211</v>
       </c>
       <c r="C598" t="s">
         <v>28</v>
@@ -53702,58 +53702,58 @@
         <v>44780.41666666666</v>
       </c>
       <c r="F598" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G598" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H598">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I598">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J598" t="s">
         <v>56</v>
       </c>
       <c r="K598">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L598">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M598">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="N598">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O598">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P598">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q598">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R598">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S598">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T598">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U598">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V598">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W598">
-        <v>1.15</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X598">
         <v>-1</v>
@@ -53762,13 +53762,13 @@
         <v>-1</v>
       </c>
       <c r="Z598">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA598">
         <v>-1</v>
       </c>
       <c r="AB598">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC598">
         <v>-1</v>
@@ -53779,7 +53779,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>5205211</v>
+        <v>5205212</v>
       </c>
       <c r="C599" t="s">
         <v>28</v>
@@ -53791,58 +53791,58 @@
         <v>44780.41666666666</v>
       </c>
       <c r="F599" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G599" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H599">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I599">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J599" t="s">
         <v>56</v>
       </c>
       <c r="K599">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L599">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M599">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="N599">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O599">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P599">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q599">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R599">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S599">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T599">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U599">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V599">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W599">
-        <v>0.6000000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="X599">
         <v>-1</v>
@@ -53851,13 +53851,13 @@
         <v>-1</v>
       </c>
       <c r="Z599">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA599">
         <v>-1</v>
       </c>
       <c r="AB599">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC599">
         <v>-1</v>
@@ -55559,7 +55559,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>5177156</v>
+        <v>5177158</v>
       </c>
       <c r="C619" t="s">
         <v>28</v>
@@ -55571,76 +55571,76 @@
         <v>44794.41666666666</v>
       </c>
       <c r="F619" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G619" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H619">
         <v>1</v>
       </c>
       <c r="I619">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J619" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K619">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="L619">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M619">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="N619">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="O619">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P619">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q619">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R619">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S619">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T619">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U619">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V619">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W619">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X619">
         <v>-1</v>
       </c>
       <c r="Y619">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z619">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA619">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB619">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC619">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="620" spans="1:29">
@@ -55648,7 +55648,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>5177158</v>
+        <v>5177156</v>
       </c>
       <c r="C620" t="s">
         <v>28</v>
@@ -55660,76 +55660,76 @@
         <v>44794.41666666666</v>
       </c>
       <c r="F620" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G620" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H620">
         <v>1</v>
       </c>
       <c r="I620">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J620" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K620">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L620">
+        <v>3.4</v>
+      </c>
+      <c r="M620">
+        <v>2.05</v>
+      </c>
+      <c r="N620">
+        <v>3.6</v>
+      </c>
+      <c r="O620">
         <v>3.3</v>
       </c>
-      <c r="M620">
-        <v>3.5</v>
-      </c>
-      <c r="N620">
-        <v>1.909</v>
-      </c>
-      <c r="O620">
-        <v>3.5</v>
-      </c>
       <c r="P620">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="Q620">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R620">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S620">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T620">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U620">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V620">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W620">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X620">
         <v>-1</v>
       </c>
       <c r="Y620">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z620">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA620">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB620">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC620">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="621" spans="1:29">
@@ -57250,7 +57250,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>5177183</v>
+        <v>5177179</v>
       </c>
       <c r="C638" t="s">
         <v>28</v>
@@ -57262,49 +57262,49 @@
         <v>44804.66666666666</v>
       </c>
       <c r="F638" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G638" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H638">
+        <v>1</v>
+      </c>
+      <c r="I638">
         <v>0</v>
       </c>
-      <c r="I638">
+      <c r="J638" t="s">
+        <v>56</v>
+      </c>
+      <c r="K638">
+        <v>1.4</v>
+      </c>
+      <c r="L638">
+        <v>4.75</v>
+      </c>
+      <c r="M638">
+        <v>7.5</v>
+      </c>
+      <c r="N638">
+        <v>1.4</v>
+      </c>
+      <c r="O638">
+        <v>5</v>
+      </c>
+      <c r="P638">
+        <v>8</v>
+      </c>
+      <c r="Q638">
+        <v>-1.5</v>
+      </c>
+      <c r="R638">
+        <v>2.05</v>
+      </c>
+      <c r="S638">
+        <v>1.8</v>
+      </c>
+      <c r="T638">
         <v>3</v>
-      </c>
-      <c r="J638" t="s">
-        <v>55</v>
-      </c>
-      <c r="K638">
-        <v>10</v>
-      </c>
-      <c r="L638">
-        <v>6.5</v>
-      </c>
-      <c r="M638">
-        <v>1.25</v>
-      </c>
-      <c r="N638">
-        <v>9.5</v>
-      </c>
-      <c r="O638">
-        <v>6</v>
-      </c>
-      <c r="P638">
-        <v>1.25</v>
-      </c>
-      <c r="Q638">
-        <v>2</v>
-      </c>
-      <c r="R638">
-        <v>1.825</v>
-      </c>
-      <c r="S638">
-        <v>2.025</v>
-      </c>
-      <c r="T638">
-        <v>4</v>
       </c>
       <c r="U638">
         <v>1.975</v>
@@ -57313,19 +57313,19 @@
         <v>1.875</v>
       </c>
       <c r="W638">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X638">
         <v>-1</v>
       </c>
       <c r="Y638">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z638">
         <v>-1</v>
       </c>
       <c r="AA638">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB638">
         <v>-1</v>
@@ -57428,7 +57428,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>5177179</v>
+        <v>5177182</v>
       </c>
       <c r="C640" t="s">
         <v>28</v>
@@ -57440,49 +57440,49 @@
         <v>44804.66666666666</v>
       </c>
       <c r="F640" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G640" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H640">
+        <v>3</v>
+      </c>
+      <c r="I640">
         <v>1</v>
-      </c>
-      <c r="I640">
-        <v>0</v>
       </c>
       <c r="J640" t="s">
         <v>56</v>
       </c>
       <c r="K640">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="L640">
         <v>4.75</v>
       </c>
       <c r="M640">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N640">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="O640">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P640">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Q640">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R640">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S640">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T640">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U640">
         <v>1.975</v>
@@ -57491,7 +57491,7 @@
         <v>1.875</v>
       </c>
       <c r="W640">
-        <v>0.3999999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="X640">
         <v>-1</v>
@@ -57500,16 +57500,16 @@
         <v>-1</v>
       </c>
       <c r="Z640">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA640">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB640">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC640">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="641" spans="1:29">
@@ -57517,7 +57517,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>5177182</v>
+        <v>5177183</v>
       </c>
       <c r="C641" t="s">
         <v>28</v>
@@ -57529,49 +57529,49 @@
         <v>44804.66666666666</v>
       </c>
       <c r="F641" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G641" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H641">
+        <v>0</v>
+      </c>
+      <c r="I641">
         <v>3</v>
       </c>
-      <c r="I641">
-        <v>1</v>
-      </c>
       <c r="J641" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K641">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="L641">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="M641">
-        <v>6.5</v>
+        <v>1.25</v>
       </c>
       <c r="N641">
-        <v>1.55</v>
+        <v>9.5</v>
       </c>
       <c r="O641">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P641">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q641">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R641">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S641">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T641">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U641">
         <v>1.975</v>
@@ -57580,25 +57580,25 @@
         <v>1.875</v>
       </c>
       <c r="W641">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X641">
         <v>-1</v>
       </c>
       <c r="Y641">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z641">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA641">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB641">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC641">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="642" spans="1:29">
@@ -58140,7 +58140,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>5177191</v>
+        <v>5177186</v>
       </c>
       <c r="C648" t="s">
         <v>28</v>
@@ -58152,76 +58152,76 @@
         <v>44808.41666666666</v>
       </c>
       <c r="F648" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G648" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I648">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J648" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K648">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L648">
         <v>3.5</v>
       </c>
       <c r="M648">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N648">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="O648">
         <v>3.4</v>
       </c>
       <c r="P648">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="Q648">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R648">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S648">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T648">
         <v>2.5</v>
       </c>
       <c r="U648">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V648">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W648">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X648">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y648">
         <v>-1</v>
       </c>
       <c r="Z648">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA648">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB648">
         <v>-1</v>
       </c>
       <c r="AC648">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="649" spans="1:29">
@@ -58229,7 +58229,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>5177186</v>
+        <v>5177191</v>
       </c>
       <c r="C649" t="s">
         <v>28</v>
@@ -58241,76 +58241,76 @@
         <v>44808.41666666666</v>
       </c>
       <c r="F649" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G649" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I649">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J649" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K649">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="L649">
         <v>3.5</v>
       </c>
       <c r="M649">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N649">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="O649">
         <v>3.4</v>
       </c>
       <c r="P649">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="Q649">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R649">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S649">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T649">
         <v>2.5</v>
       </c>
       <c r="U649">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V649">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W649">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X649">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y649">
         <v>-1</v>
       </c>
       <c r="Z649">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA649">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB649">
         <v>-1</v>
       </c>
       <c r="AC649">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="650" spans="1:29">
@@ -59030,7 +59030,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>5177196</v>
+        <v>5177194</v>
       </c>
       <c r="C658" t="s">
         <v>28</v>
@@ -59042,76 +59042,76 @@
         <v>44815.41666666666</v>
       </c>
       <c r="F658" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G658" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658">
         <v>1</v>
       </c>
       <c r="J658" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K658">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L658">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M658">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="N658">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="O658">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P658">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q658">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R658">
-        <v>2.11</v>
+        <v>1.88</v>
       </c>
       <c r="S658">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="T658">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U658">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="V658">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="W658">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X658">
         <v>-1</v>
       </c>
       <c r="Y658">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z658">
-        <v>1.11</v>
+        <v>-1</v>
       </c>
       <c r="AA658">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AB658">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
       <c r="AC658">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:29">
@@ -59119,7 +59119,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>5177194</v>
+        <v>5177196</v>
       </c>
       <c r="C659" t="s">
         <v>28</v>
@@ -59131,76 +59131,76 @@
         <v>44815.41666666666</v>
       </c>
       <c r="F659" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G659" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659">
         <v>1</v>
       </c>
       <c r="J659" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K659">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L659">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M659">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N659">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O659">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P659">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="Q659">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R659">
+        <v>2.11</v>
+      </c>
+      <c r="S659">
+        <v>1.79</v>
+      </c>
+      <c r="T659">
+        <v>2.75</v>
+      </c>
+      <c r="U659">
+        <v>2.02</v>
+      </c>
+      <c r="V659">
         <v>1.88</v>
       </c>
-      <c r="S659">
-        <v>2.02</v>
-      </c>
-      <c r="T659">
-        <v>2</v>
-      </c>
-      <c r="U659">
-        <v>1.9</v>
-      </c>
-      <c r="V659">
-        <v>2</v>
-      </c>
       <c r="W659">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X659">
         <v>-1</v>
       </c>
       <c r="Y659">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z659">
-        <v>-1</v>
+        <v>1.11</v>
       </c>
       <c r="AA659">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AB659">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
       <c r="AC659">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="660" spans="1:29">
@@ -64459,7 +64459,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>5177264</v>
+        <v>5177259</v>
       </c>
       <c r="C719" t="s">
         <v>28</v>
@@ -64471,76 +64471,76 @@
         <v>44864.45833333334</v>
       </c>
       <c r="F719" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G719" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I719">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J719" t="s">
         <v>57</v>
       </c>
       <c r="K719">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L719">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M719">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N719">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="O719">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P719">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q719">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R719">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S719">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T719">
         <v>2.5</v>
       </c>
       <c r="U719">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V719">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W719">
         <v>-1</v>
       </c>
       <c r="X719">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Y719">
         <v>-1</v>
       </c>
       <c r="Z719">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA719">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB719">
         <v>-1</v>
       </c>
       <c r="AC719">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="720" spans="1:29">
@@ -64548,7 +64548,7 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>5177265</v>
+        <v>5177264</v>
       </c>
       <c r="C720" t="s">
         <v>28</v>
@@ -64560,40 +64560,40 @@
         <v>44864.45833333334</v>
       </c>
       <c r="F720" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G720" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H720">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I720">
         <v>0</v>
       </c>
       <c r="J720" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K720">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="L720">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M720">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N720">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="O720">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P720">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q720">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R720">
         <v>1.975</v>
@@ -64602,34 +64602,34 @@
         <v>1.875</v>
       </c>
       <c r="T720">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U720">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V720">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W720">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X720">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y720">
         <v>-1</v>
       </c>
       <c r="Z720">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA720">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB720">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC720">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:29">
@@ -64637,7 +64637,7 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>5177259</v>
+        <v>5177265</v>
       </c>
       <c r="C721" t="s">
         <v>28</v>
@@ -64649,76 +64649,76 @@
         <v>44864.45833333334</v>
       </c>
       <c r="F721" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G721" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H721">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I721">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J721" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K721">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="L721">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M721">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="N721">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="O721">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P721">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q721">
+        <v>-1.5</v>
+      </c>
+      <c r="R721">
+        <v>1.975</v>
+      </c>
+      <c r="S721">
+        <v>1.875</v>
+      </c>
+      <c r="T721">
+        <v>3.25</v>
+      </c>
+      <c r="U721">
+        <v>2.025</v>
+      </c>
+      <c r="V721">
+        <v>1.825</v>
+      </c>
+      <c r="W721">
+        <v>0.363</v>
+      </c>
+      <c r="X721">
+        <v>-1</v>
+      </c>
+      <c r="Y721">
+        <v>-1</v>
+      </c>
+      <c r="Z721">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA721">
+        <v>-1</v>
+      </c>
+      <c r="AB721">
         <v>-0.5</v>
       </c>
-      <c r="R721">
-        <v>1.9</v>
-      </c>
-      <c r="S721">
-        <v>1.95</v>
-      </c>
-      <c r="T721">
-        <v>2.5</v>
-      </c>
-      <c r="U721">
-        <v>1.875</v>
-      </c>
-      <c r="V721">
-        <v>1.975</v>
-      </c>
-      <c r="W721">
-        <v>-1</v>
-      </c>
-      <c r="X721">
-        <v>2.75</v>
-      </c>
-      <c r="Y721">
-        <v>-1</v>
-      </c>
-      <c r="Z721">
-        <v>-1</v>
-      </c>
-      <c r="AA721">
-        <v>0.95</v>
-      </c>
-      <c r="AB721">
-        <v>-1</v>
-      </c>
       <c r="AC721">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="722" spans="1:29">
@@ -66684,7 +66684,7 @@
         <v>742</v>
       </c>
       <c r="B744">
-        <v>5938162</v>
+        <v>5938163</v>
       </c>
       <c r="C744" t="s">
         <v>28</v>
@@ -66696,76 +66696,76 @@
         <v>44923.45833333334</v>
       </c>
       <c r="F744" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G744" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I744">
         <v>0</v>
       </c>
       <c r="J744" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K744">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="L744">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M744">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N744">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O744">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P744">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q744">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R744">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S744">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T744">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U744">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V744">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W744">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X744">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y744">
         <v>-1</v>
       </c>
       <c r="Z744">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA744">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB744">
         <v>-1</v>
       </c>
       <c r="AC744">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="745" spans="1:29">
@@ -66773,7 +66773,7 @@
         <v>743</v>
       </c>
       <c r="B745">
-        <v>5938163</v>
+        <v>5938162</v>
       </c>
       <c r="C745" t="s">
         <v>28</v>
@@ -66785,76 +66785,76 @@
         <v>44923.45833333334</v>
       </c>
       <c r="F745" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G745" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I745">
         <v>0</v>
       </c>
       <c r="J745" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K745">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="L745">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M745">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N745">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O745">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P745">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q745">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R745">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S745">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T745">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U745">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V745">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W745">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X745">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y745">
         <v>-1</v>
       </c>
       <c r="Z745">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA745">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB745">
         <v>-1</v>
       </c>
       <c r="AC745">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="746" spans="1:29">
@@ -67040,7 +67040,7 @@
         <v>746</v>
       </c>
       <c r="B748">
-        <v>5938165</v>
+        <v>5938175</v>
       </c>
       <c r="C748" t="s">
         <v>28</v>
@@ -67052,76 +67052,76 @@
         <v>44923.70833333334</v>
       </c>
       <c r="F748" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G748" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H748">
         <v>2</v>
       </c>
       <c r="I748">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J748" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K748">
-        <v>3.75</v>
+        <v>1.142</v>
       </c>
       <c r="L748">
+        <v>8</v>
+      </c>
+      <c r="M748">
+        <v>17</v>
+      </c>
+      <c r="N748">
+        <v>1.2</v>
+      </c>
+      <c r="O748">
+        <v>7</v>
+      </c>
+      <c r="P748">
+        <v>15</v>
+      </c>
+      <c r="Q748">
+        <v>-2</v>
+      </c>
+      <c r="R748">
+        <v>1.875</v>
+      </c>
+      <c r="S748">
+        <v>1.975</v>
+      </c>
+      <c r="T748">
         <v>3.5</v>
       </c>
-      <c r="M748">
-        <v>1.95</v>
-      </c>
-      <c r="N748">
-        <v>3.3</v>
-      </c>
-      <c r="O748">
-        <v>3.5</v>
-      </c>
-      <c r="P748">
-        <v>2.15</v>
-      </c>
-      <c r="Q748">
-        <v>0.25</v>
-      </c>
-      <c r="R748">
-        <v>1.95</v>
-      </c>
-      <c r="S748">
-        <v>1.9</v>
-      </c>
-      <c r="T748">
-        <v>2.75</v>
-      </c>
       <c r="U748">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V748">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W748">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X748">
         <v>-1</v>
       </c>
       <c r="Y748">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z748">
         <v>-1</v>
       </c>
       <c r="AA748">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB748">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC748">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="749" spans="1:29">
@@ -67129,7 +67129,7 @@
         <v>747</v>
       </c>
       <c r="B749">
-        <v>5938175</v>
+        <v>5938165</v>
       </c>
       <c r="C749" t="s">
         <v>28</v>
@@ -67141,76 +67141,76 @@
         <v>44923.70833333334</v>
       </c>
       <c r="F749" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G749" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H749">
         <v>2</v>
       </c>
       <c r="I749">
+        <v>4</v>
+      </c>
+      <c r="J749" t="s">
+        <v>55</v>
+      </c>
+      <c r="K749">
+        <v>3.75</v>
+      </c>
+      <c r="L749">
+        <v>3.5</v>
+      </c>
+      <c r="M749">
+        <v>1.95</v>
+      </c>
+      <c r="N749">
+        <v>3.3</v>
+      </c>
+      <c r="O749">
+        <v>3.5</v>
+      </c>
+      <c r="P749">
+        <v>2.15</v>
+      </c>
+      <c r="Q749">
+        <v>0.25</v>
+      </c>
+      <c r="R749">
+        <v>1.95</v>
+      </c>
+      <c r="S749">
+        <v>1.9</v>
+      </c>
+      <c r="T749">
+        <v>2.75</v>
+      </c>
+      <c r="U749">
+        <v>2</v>
+      </c>
+      <c r="V749">
+        <v>1.85</v>
+      </c>
+      <c r="W749">
+        <v>-1</v>
+      </c>
+      <c r="X749">
+        <v>-1</v>
+      </c>
+      <c r="Y749">
+        <v>1.15</v>
+      </c>
+      <c r="Z749">
+        <v>-1</v>
+      </c>
+      <c r="AA749">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB749">
         <v>1</v>
       </c>
-      <c r="J749" t="s">
-        <v>56</v>
-      </c>
-      <c r="K749">
-        <v>1.142</v>
-      </c>
-      <c r="L749">
-        <v>8</v>
-      </c>
-      <c r="M749">
-        <v>17</v>
-      </c>
-      <c r="N749">
-        <v>1.2</v>
-      </c>
-      <c r="O749">
-        <v>7</v>
-      </c>
-      <c r="P749">
-        <v>15</v>
-      </c>
-      <c r="Q749">
-        <v>-2</v>
-      </c>
-      <c r="R749">
-        <v>1.875</v>
-      </c>
-      <c r="S749">
-        <v>1.975</v>
-      </c>
-      <c r="T749">
-        <v>3.5</v>
-      </c>
-      <c r="U749">
-        <v>1.925</v>
-      </c>
-      <c r="V749">
-        <v>1.925</v>
-      </c>
-      <c r="W749">
-        <v>0.2</v>
-      </c>
-      <c r="X749">
-        <v>-1</v>
-      </c>
-      <c r="Y749">
-        <v>-1</v>
-      </c>
-      <c r="Z749">
-        <v>-1</v>
-      </c>
-      <c r="AA749">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB749">
-        <v>-1</v>
-      </c>
       <c r="AC749">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="750" spans="1:29">
@@ -67574,7 +67574,7 @@
         <v>752</v>
       </c>
       <c r="B754">
-        <v>5177296</v>
+        <v>5177305</v>
       </c>
       <c r="C754" t="s">
         <v>28</v>
@@ -67586,13 +67586,13 @@
         <v>44927.45833333334</v>
       </c>
       <c r="F754" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G754" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I754">
         <v>0</v>
@@ -67601,25 +67601,25 @@
         <v>56</v>
       </c>
       <c r="K754">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="L754">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M754">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N754">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="O754">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P754">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q754">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R754">
         <v>1.8</v>
@@ -67628,16 +67628,16 @@
         <v>2.05</v>
       </c>
       <c r="T754">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U754">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V754">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W754">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="X754">
         <v>-1</v>
@@ -67646,16 +67646,16 @@
         <v>-1</v>
       </c>
       <c r="Z754">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA754">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB754">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC754">
-        <v>0.8999999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="755" spans="1:29">
@@ -67663,7 +67663,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>5177305</v>
+        <v>5177296</v>
       </c>
       <c r="C755" t="s">
         <v>28</v>
@@ -67675,13 +67675,13 @@
         <v>44927.45833333334</v>
       </c>
       <c r="F755" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G755" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I755">
         <v>0</v>
@@ -67690,25 +67690,25 @@
         <v>56</v>
       </c>
       <c r="K755">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="L755">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M755">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N755">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="O755">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P755">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q755">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R755">
         <v>1.8</v>
@@ -67717,16 +67717,16 @@
         <v>2.05</v>
       </c>
       <c r="T755">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U755">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V755">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W755">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="X755">
         <v>-1</v>
@@ -67735,16 +67735,16 @@
         <v>-1</v>
       </c>
       <c r="Z755">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA755">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB755">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC755">
-        <v>0.5249999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="756" spans="1:29">
@@ -68464,7 +68464,7 @@
         <v>762</v>
       </c>
       <c r="B764">
-        <v>6081167</v>
+        <v>6081165</v>
       </c>
       <c r="C764" t="s">
         <v>28</v>
@@ -68476,76 +68476,76 @@
         <v>44937.625</v>
       </c>
       <c r="F764" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G764" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J764" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K764">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="L764">
+        <v>3.5</v>
+      </c>
+      <c r="M764">
+        <v>1.75</v>
+      </c>
+      <c r="N764">
+        <v>4.2</v>
+      </c>
+      <c r="O764">
         <v>3.4</v>
       </c>
-      <c r="M764">
-        <v>2</v>
-      </c>
-      <c r="N764">
-        <v>4.5</v>
-      </c>
-      <c r="O764">
-        <v>3.75</v>
-      </c>
       <c r="P764">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q764">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R764">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S764">
-        <v>2.08</v>
+        <v>1.925</v>
       </c>
       <c r="T764">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U764">
-        <v>1.94</v>
+        <v>1.825</v>
       </c>
       <c r="V764">
-        <v>1.96</v>
+        <v>2.025</v>
       </c>
       <c r="W764">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X764">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y764">
         <v>-1</v>
       </c>
       <c r="Z764">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA764">
         <v>-1</v>
       </c>
       <c r="AB764">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC764">
-        <v>0.96</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="765" spans="1:29">
@@ -68553,7 +68553,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>6081166</v>
+        <v>6081164</v>
       </c>
       <c r="C765" t="s">
         <v>28</v>
@@ -68565,76 +68565,76 @@
         <v>44937.625</v>
       </c>
       <c r="F765" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="G765" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H765">
         <v>0</v>
       </c>
       <c r="I765">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J765" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K765">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="L765">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M765">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="N765">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O765">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P765">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Q765">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R765">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S765">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T765">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U765">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V765">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W765">
         <v>-1</v>
       </c>
       <c r="X765">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y765">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z765">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA765">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB765">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC765">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="766" spans="1:29">
@@ -68642,7 +68642,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>6081164</v>
+        <v>6081163</v>
       </c>
       <c r="C766" t="s">
         <v>28</v>
@@ -68654,16 +68654,16 @@
         <v>44937.625</v>
       </c>
       <c r="F766" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G766" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H766">
         <v>0</v>
       </c>
       <c r="I766">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J766" t="s">
         <v>55</v>
@@ -68672,37 +68672,37 @@
         <v>2.8</v>
       </c>
       <c r="L766">
+        <v>3.2</v>
+      </c>
+      <c r="M766">
+        <v>2.5</v>
+      </c>
+      <c r="N766">
         <v>3.3</v>
       </c>
-      <c r="M766">
-        <v>2.45</v>
-      </c>
-      <c r="N766">
+      <c r="O766">
         <v>3</v>
       </c>
-      <c r="O766">
-        <v>3.3</v>
-      </c>
       <c r="P766">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q766">
         <v>0.25</v>
       </c>
       <c r="R766">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S766">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T766">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U766">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V766">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W766">
         <v>-1</v>
@@ -68711,19 +68711,19 @@
         <v>-1</v>
       </c>
       <c r="Y766">
-        <v>1.4</v>
+        <v>1.375</v>
       </c>
       <c r="Z766">
         <v>-1</v>
       </c>
       <c r="AA766">
-        <v>1.1</v>
+        <v>1.025</v>
       </c>
       <c r="AB766">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC766">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:29">
@@ -68731,7 +68731,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>6081165</v>
+        <v>6081166</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68743,76 +68743,76 @@
         <v>44937.625</v>
       </c>
       <c r="F767" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G767" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J767" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K767">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="L767">
         <v>3.5</v>
       </c>
       <c r="M767">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="N767">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O767">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P767">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="Q767">
         <v>0.5</v>
       </c>
       <c r="R767">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S767">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T767">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U767">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V767">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W767">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X767">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y767">
         <v>-1</v>
       </c>
       <c r="Z767">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA767">
         <v>-1</v>
       </c>
       <c r="AB767">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC767">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="768" spans="1:29">
@@ -68820,7 +68820,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>6081163</v>
+        <v>6081167</v>
       </c>
       <c r="C768" t="s">
         <v>28</v>
@@ -68832,76 +68832,76 @@
         <v>44937.625</v>
       </c>
       <c r="F768" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G768" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H768">
         <v>0</v>
       </c>
       <c r="I768">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J768" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K768">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="L768">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M768">
+        <v>2</v>
+      </c>
+      <c r="N768">
+        <v>4.5</v>
+      </c>
+      <c r="O768">
+        <v>3.75</v>
+      </c>
+      <c r="P768">
+        <v>1.8</v>
+      </c>
+      <c r="Q768">
+        <v>0.75</v>
+      </c>
+      <c r="R768">
+        <v>1.85</v>
+      </c>
+      <c r="S768">
+        <v>2.08</v>
+      </c>
+      <c r="T768">
         <v>2.5</v>
       </c>
-      <c r="N768">
-        <v>3.3</v>
-      </c>
-      <c r="O768">
-        <v>3</v>
-      </c>
-      <c r="P768">
-        <v>2.375</v>
-      </c>
-      <c r="Q768">
-        <v>0.25</v>
-      </c>
-      <c r="R768">
-        <v>1.825</v>
-      </c>
-      <c r="S768">
-        <v>2.025</v>
-      </c>
-      <c r="T768">
-        <v>2</v>
-      </c>
       <c r="U768">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="V768">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="W768">
         <v>-1</v>
       </c>
       <c r="X768">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y768">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z768">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA768">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB768">
         <v>-1</v>
       </c>
       <c r="AC768">
-        <v>1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="769" spans="1:29">
@@ -68909,7 +68909,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>6081168</v>
+        <v>6081171</v>
       </c>
       <c r="C769" t="s">
         <v>28</v>
@@ -68921,10 +68921,10 @@
         <v>44937.70833333334</v>
       </c>
       <c r="F769" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G769" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H769">
         <v>2</v>
@@ -68936,58 +68936,58 @@
         <v>57</v>
       </c>
       <c r="K769">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L769">
+        <v>3.3</v>
+      </c>
+      <c r="M769">
+        <v>2.25</v>
+      </c>
+      <c r="N769">
         <v>3.6</v>
       </c>
-      <c r="M769">
-        <v>1.85</v>
-      </c>
-      <c r="N769">
-        <v>4.5</v>
-      </c>
       <c r="O769">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P769">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q769">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R769">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S769">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T769">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U769">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V769">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W769">
         <v>-1</v>
       </c>
       <c r="X769">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Y769">
         <v>-1</v>
       </c>
       <c r="Z769">
-        <v>0.8500000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA769">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB769">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC769">
         <v>-1</v>
@@ -68998,7 +68998,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>6081169</v>
+        <v>6081173</v>
       </c>
       <c r="C770" t="s">
         <v>28</v>
@@ -69010,76 +69010,76 @@
         <v>44937.70833333334</v>
       </c>
       <c r="F770" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G770" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H770">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I770">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J770" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K770">
+        <v>4.5</v>
+      </c>
+      <c r="L770">
+        <v>3.75</v>
+      </c>
+      <c r="M770">
+        <v>1.75</v>
+      </c>
+      <c r="N770">
+        <v>5.25</v>
+      </c>
+      <c r="O770">
+        <v>4</v>
+      </c>
+      <c r="P770">
+        <v>1.65</v>
+      </c>
+      <c r="Q770">
+        <v>0.75</v>
+      </c>
+      <c r="R770">
+        <v>2.05</v>
+      </c>
+      <c r="S770">
         <v>1.8</v>
       </c>
-      <c r="L770">
-        <v>3.5</v>
-      </c>
-      <c r="M770">
-        <v>4.5</v>
-      </c>
-      <c r="N770">
-        <v>1.85</v>
-      </c>
-      <c r="O770">
-        <v>3.5</v>
-      </c>
-      <c r="P770">
-        <v>4.333</v>
-      </c>
-      <c r="Q770">
-        <v>-0.5</v>
-      </c>
-      <c r="R770">
-        <v>1.85</v>
-      </c>
-      <c r="S770">
-        <v>2</v>
-      </c>
       <c r="T770">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U770">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V770">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W770">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X770">
         <v>-1</v>
       </c>
       <c r="Y770">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z770">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA770">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB770">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC770">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="771" spans="1:29">
@@ -69176,7 +69176,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>6081171</v>
+        <v>6081168</v>
       </c>
       <c r="C772" t="s">
         <v>28</v>
@@ -69188,10 +69188,10 @@
         <v>44937.70833333334</v>
       </c>
       <c r="F772" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G772" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H772">
         <v>2</v>
@@ -69203,58 +69203,58 @@
         <v>57</v>
       </c>
       <c r="K772">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L772">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M772">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N772">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O772">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P772">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="Q772">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R772">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S772">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T772">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U772">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V772">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W772">
         <v>-1</v>
       </c>
       <c r="X772">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Y772">
         <v>-1</v>
       </c>
       <c r="Z772">
-        <v>0.5249999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA772">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB772">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC772">
         <v>-1</v>
@@ -69265,7 +69265,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>6081173</v>
+        <v>6081169</v>
       </c>
       <c r="C773" t="s">
         <v>28</v>
@@ -69277,76 +69277,76 @@
         <v>44937.70833333334</v>
       </c>
       <c r="F773" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G773" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I773">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J773" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K773">
+        <v>1.8</v>
+      </c>
+      <c r="L773">
+        <v>3.5</v>
+      </c>
+      <c r="M773">
         <v>4.5</v>
       </c>
-      <c r="L773">
-        <v>3.75</v>
-      </c>
-      <c r="M773">
-        <v>1.75</v>
-      </c>
       <c r="N773">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="O773">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P773">
-        <v>1.65</v>
+        <v>4.333</v>
       </c>
       <c r="Q773">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R773">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S773">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T773">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U773">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V773">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W773">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X773">
         <v>-1</v>
       </c>
       <c r="Y773">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z773">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA773">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB773">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC773">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="774" spans="1:29">
@@ -70600,7 +70600,7 @@
         <v>786</v>
       </c>
       <c r="B788">
-        <v>5177335</v>
+        <v>5177329</v>
       </c>
       <c r="C788" t="s">
         <v>28</v>
@@ -70612,76 +70612,76 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F788" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G788" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H788">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I788">
         <v>0</v>
       </c>
       <c r="J788" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K788">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L788">
         <v>3.5</v>
       </c>
       <c r="M788">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N788">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O788">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P788">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q788">
         <v>-0.25</v>
       </c>
       <c r="R788">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S788">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T788">
         <v>2.25</v>
       </c>
       <c r="U788">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V788">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W788">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X788">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y788">
         <v>-1</v>
       </c>
       <c r="Z788">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA788">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB788">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC788">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="789" spans="1:29">
@@ -70689,7 +70689,7 @@
         <v>787</v>
       </c>
       <c r="B789">
-        <v>5177328</v>
+        <v>5177334</v>
       </c>
       <c r="C789" t="s">
         <v>28</v>
@@ -70701,13 +70701,13 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F789" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G789" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I789">
         <v>2</v>
@@ -70716,19 +70716,19 @@
         <v>55</v>
       </c>
       <c r="K789">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L789">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M789">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N789">
         <v>2.375</v>
       </c>
       <c r="O789">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P789">
         <v>3.1</v>
@@ -70737,19 +70737,19 @@
         <v>-0.25</v>
       </c>
       <c r="R789">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S789">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T789">
         <v>2.5</v>
       </c>
       <c r="U789">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V789">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W789">
         <v>-1</v>
@@ -70764,13 +70764,13 @@
         <v>-1</v>
       </c>
       <c r="AA789">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB789">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC789">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="790" spans="1:29">
@@ -70778,7 +70778,7 @@
         <v>788</v>
       </c>
       <c r="B790">
-        <v>5177334</v>
+        <v>5177328</v>
       </c>
       <c r="C790" t="s">
         <v>28</v>
@@ -70790,13 +70790,13 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F790" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G790" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I790">
         <v>2</v>
@@ -70805,19 +70805,19 @@
         <v>55</v>
       </c>
       <c r="K790">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L790">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M790">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N790">
         <v>2.375</v>
       </c>
       <c r="O790">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P790">
         <v>3.1</v>
@@ -70826,19 +70826,19 @@
         <v>-0.25</v>
       </c>
       <c r="R790">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S790">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T790">
         <v>2.5</v>
       </c>
       <c r="U790">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V790">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W790">
         <v>-1</v>
@@ -70853,13 +70853,13 @@
         <v>-1</v>
       </c>
       <c r="AA790">
+        <v>0.825</v>
+      </c>
+      <c r="AB790">
+        <v>-1</v>
+      </c>
+      <c r="AC790">
         <v>0.8</v>
-      </c>
-      <c r="AB790">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC790">
-        <v>-1</v>
       </c>
     </row>
     <row r="791" spans="1:29">
@@ -70867,7 +70867,7 @@
         <v>789</v>
       </c>
       <c r="B791">
-        <v>5177329</v>
+        <v>5177335</v>
       </c>
       <c r="C791" t="s">
         <v>28</v>
@@ -70879,76 +70879,76 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F791" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G791" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I791">
         <v>0</v>
       </c>
       <c r="J791" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K791">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L791">
         <v>3.5</v>
       </c>
       <c r="M791">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N791">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="O791">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P791">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q791">
         <v>-0.25</v>
       </c>
       <c r="R791">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="S791">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T791">
         <v>2.25</v>
       </c>
       <c r="U791">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V791">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W791">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X791">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y791">
         <v>-1</v>
       </c>
       <c r="Z791">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA791">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB791">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC791">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="792" spans="1:29">
@@ -71134,7 +71134,7 @@
         <v>792</v>
       </c>
       <c r="B794">
-        <v>5177340</v>
+        <v>5177345</v>
       </c>
       <c r="C794" t="s">
         <v>28</v>
@@ -71146,76 +71146,76 @@
         <v>44958.625</v>
       </c>
       <c r="F794" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G794" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I794">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J794" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K794">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="L794">
+        <v>3.6</v>
+      </c>
+      <c r="M794">
         <v>4.333</v>
       </c>
-      <c r="M794">
-        <v>7</v>
-      </c>
       <c r="N794">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="O794">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P794">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q794">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R794">
         <v>2</v>
       </c>
       <c r="S794">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="T794">
         <v>2.5</v>
       </c>
       <c r="U794">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V794">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W794">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X794">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y794">
         <v>-1</v>
       </c>
       <c r="Z794">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA794">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB794">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC794">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="795" spans="1:29">
@@ -71223,7 +71223,7 @@
         <v>793</v>
       </c>
       <c r="B795">
-        <v>5177345</v>
+        <v>5177340</v>
       </c>
       <c r="C795" t="s">
         <v>28</v>
@@ -71235,76 +71235,76 @@
         <v>44958.625</v>
       </c>
       <c r="F795" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G795" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H795">
+        <v>0</v>
+      </c>
+      <c r="I795">
+        <v>0</v>
+      </c>
+      <c r="J795" t="s">
+        <v>57</v>
+      </c>
+      <c r="K795">
+        <v>1.45</v>
+      </c>
+      <c r="L795">
+        <v>4.333</v>
+      </c>
+      <c r="M795">
+        <v>7</v>
+      </c>
+      <c r="N795">
+        <v>1.55</v>
+      </c>
+      <c r="O795">
         <v>4</v>
       </c>
-      <c r="I795">
-        <v>2</v>
-      </c>
-      <c r="J795" t="s">
-        <v>56</v>
-      </c>
-      <c r="K795">
-        <v>1.8</v>
-      </c>
-      <c r="L795">
-        <v>3.6</v>
-      </c>
-      <c r="M795">
-        <v>4.333</v>
-      </c>
-      <c r="N795">
-        <v>1.75</v>
-      </c>
-      <c r="O795">
-        <v>3.75</v>
-      </c>
       <c r="P795">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q795">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R795">
         <v>2</v>
       </c>
       <c r="S795">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="T795">
         <v>2.5</v>
       </c>
       <c r="U795">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V795">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W795">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X795">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y795">
         <v>-1</v>
       </c>
       <c r="Z795">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA795">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB795">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC795">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="796" spans="1:29">
@@ -71312,7 +71312,7 @@
         <v>794</v>
       </c>
       <c r="B796">
-        <v>5177339</v>
+        <v>5177338</v>
       </c>
       <c r="C796" t="s">
         <v>28</v>
@@ -71324,13 +71324,13 @@
         <v>44958.625</v>
       </c>
       <c r="F796" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G796" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I796">
         <v>2</v>
@@ -71339,61 +71339,61 @@
         <v>55</v>
       </c>
       <c r="K796">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L796">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M796">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="N796">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="O796">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P796">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q796">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R796">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S796">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T796">
+        <v>2</v>
+      </c>
+      <c r="U796">
+        <v>1.925</v>
+      </c>
+      <c r="V796">
+        <v>1.925</v>
+      </c>
+      <c r="W796">
+        <v>-1</v>
+      </c>
+      <c r="X796">
+        <v>-1</v>
+      </c>
+      <c r="Y796">
         <v>2.5</v>
       </c>
-      <c r="U796">
-        <v>1.95</v>
-      </c>
-      <c r="V796">
-        <v>1.9</v>
-      </c>
-      <c r="W796">
-        <v>-1</v>
-      </c>
-      <c r="X796">
-        <v>-1</v>
-      </c>
-      <c r="Y796">
-        <v>0.7</v>
-      </c>
       <c r="Z796">
         <v>-1</v>
       </c>
       <c r="AA796">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB796">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC796">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="797" spans="1:29">
@@ -71401,7 +71401,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>5177338</v>
+        <v>5177346</v>
       </c>
       <c r="C797" t="s">
         <v>28</v>
@@ -71413,73 +71413,73 @@
         <v>44958.625</v>
       </c>
       <c r="F797" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G797" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H797">
+        <v>4</v>
+      </c>
+      <c r="I797">
         <v>1</v>
       </c>
-      <c r="I797">
-        <v>2</v>
-      </c>
       <c r="J797" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K797">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L797">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M797">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N797">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O797">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P797">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q797">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R797">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S797">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T797">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U797">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V797">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W797">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X797">
         <v>-1</v>
       </c>
       <c r="Y797">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z797">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA797">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB797">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC797">
         <v>-1</v>
@@ -71490,7 +71490,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>5177346</v>
+        <v>5177339</v>
       </c>
       <c r="C798" t="s">
         <v>28</v>
@@ -71502,76 +71502,76 @@
         <v>44958.625</v>
       </c>
       <c r="F798" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G798" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H798">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I798">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J798" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K798">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="L798">
         <v>3.6</v>
       </c>
       <c r="M798">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N798">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="O798">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P798">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q798">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R798">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S798">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T798">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U798">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V798">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W798">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X798">
         <v>-1</v>
       </c>
       <c r="Y798">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z798">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA798">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB798">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC798">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="799" spans="1:29">
@@ -71579,7 +71579,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>5177342</v>
+        <v>5177343</v>
       </c>
       <c r="C799" t="s">
         <v>28</v>
@@ -71591,76 +71591,76 @@
         <v>44958.70833333334</v>
       </c>
       <c r="F799" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G799" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H799">
         <v>0</v>
       </c>
       <c r="I799">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J799" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K799">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L799">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M799">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N799">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O799">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P799">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q799">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R799">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S799">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T799">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U799">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V799">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W799">
         <v>-1</v>
       </c>
       <c r="X799">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y799">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z799">
         <v>-1</v>
       </c>
       <c r="AA799">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB799">
         <v>-1</v>
       </c>
       <c r="AC799">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="800" spans="1:29">
@@ -71668,7 +71668,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>5177341</v>
+        <v>5177342</v>
       </c>
       <c r="C800" t="s">
         <v>28</v>
@@ -71680,76 +71680,76 @@
         <v>44958.70833333334</v>
       </c>
       <c r="F800" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G800" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H800">
+        <v>0</v>
+      </c>
+      <c r="I800">
+        <v>0</v>
+      </c>
+      <c r="J800" t="s">
+        <v>57</v>
+      </c>
+      <c r="K800">
+        <v>1.5</v>
+      </c>
+      <c r="L800">
+        <v>4.333</v>
+      </c>
+      <c r="M800">
+        <v>6</v>
+      </c>
+      <c r="N800">
+        <v>1.5</v>
+      </c>
+      <c r="O800">
+        <v>4.333</v>
+      </c>
+      <c r="P800">
+        <v>6.5</v>
+      </c>
+      <c r="Q800">
+        <v>-1</v>
+      </c>
+      <c r="R800">
+        <v>1.85</v>
+      </c>
+      <c r="S800">
+        <v>2</v>
+      </c>
+      <c r="T800">
+        <v>2.75</v>
+      </c>
+      <c r="U800">
+        <v>1.85</v>
+      </c>
+      <c r="V800">
+        <v>2</v>
+      </c>
+      <c r="W800">
+        <v>-1</v>
+      </c>
+      <c r="X800">
+        <v>3.333</v>
+      </c>
+      <c r="Y800">
+        <v>-1</v>
+      </c>
+      <c r="Z800">
+        <v>-1</v>
+      </c>
+      <c r="AA800">
         <v>1</v>
       </c>
-      <c r="I800">
-        <v>3</v>
-      </c>
-      <c r="J800" t="s">
-        <v>55</v>
-      </c>
-      <c r="K800">
-        <v>8.5</v>
-      </c>
-      <c r="L800">
-        <v>5.5</v>
-      </c>
-      <c r="M800">
-        <v>1.3</v>
-      </c>
-      <c r="N800">
-        <v>8.5</v>
-      </c>
-      <c r="O800">
-        <v>6</v>
-      </c>
-      <c r="P800">
-        <v>1.285</v>
-      </c>
-      <c r="Q800">
-        <v>1.75</v>
-      </c>
-      <c r="R800">
-        <v>1.825</v>
-      </c>
-      <c r="S800">
-        <v>2.025</v>
-      </c>
-      <c r="T800">
-        <v>3.25</v>
-      </c>
-      <c r="U800">
-        <v>1.925</v>
-      </c>
-      <c r="V800">
-        <v>1.925</v>
-      </c>
-      <c r="W800">
-        <v>-1</v>
-      </c>
-      <c r="X800">
-        <v>-1</v>
-      </c>
-      <c r="Y800">
-        <v>0.2849999999999999</v>
-      </c>
-      <c r="Z800">
-        <v>-0.5</v>
-      </c>
-      <c r="AA800">
-        <v>0.5125</v>
-      </c>
       <c r="AB800">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC800">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:29">
@@ -71757,7 +71757,7 @@
         <v>799</v>
       </c>
       <c r="B801">
-        <v>5177343</v>
+        <v>5177341</v>
       </c>
       <c r="C801" t="s">
         <v>28</v>
@@ -71769,55 +71769,55 @@
         <v>44958.70833333334</v>
       </c>
       <c r="F801" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G801" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I801">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J801" t="s">
         <v>55</v>
       </c>
       <c r="K801">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="L801">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M801">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="N801">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="O801">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="P801">
-        <v>5</v>
+        <v>1.285</v>
       </c>
       <c r="Q801">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R801">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S801">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T801">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U801">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V801">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W801">
         <v>-1</v>
@@ -71826,19 +71826,19 @@
         <v>-1</v>
       </c>
       <c r="Y801">
-        <v>4</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z801">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA801">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AB801">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC801">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="802" spans="1:29">
@@ -74160,7 +74160,7 @@
         <v>826</v>
       </c>
       <c r="B828">
-        <v>5177376</v>
+        <v>5177373</v>
       </c>
       <c r="C828" t="s">
         <v>28</v>
@@ -74172,55 +74172,55 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F828" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G828" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I828">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J828" t="s">
         <v>55</v>
       </c>
       <c r="K828">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="L828">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M828">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="N828">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="O828">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P828">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="Q828">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R828">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="S828">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="T828">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U828">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="V828">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="W828">
         <v>-1</v>
@@ -74229,19 +74229,19 @@
         <v>-1</v>
       </c>
       <c r="Y828">
-        <v>1.25</v>
+        <v>0.833</v>
       </c>
       <c r="Z828">
         <v>-1</v>
       </c>
       <c r="AA828">
-        <v>0.95</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB828">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AC828">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="829" spans="1:29">
@@ -74249,7 +74249,7 @@
         <v>827</v>
       </c>
       <c r="B829">
-        <v>5177373</v>
+        <v>5177376</v>
       </c>
       <c r="C829" t="s">
         <v>28</v>
@@ -74261,56 +74261,56 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F829" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G829" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H829">
+        <v>0</v>
+      </c>
+      <c r="I829">
         <v>1</v>
-      </c>
-      <c r="I829">
-        <v>2</v>
       </c>
       <c r="J829" t="s">
         <v>55</v>
       </c>
       <c r="K829">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="L829">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M829">
+        <v>3.2</v>
+      </c>
+      <c r="N829">
+        <v>3.25</v>
+      </c>
+      <c r="O829">
+        <v>3.25</v>
+      </c>
+      <c r="P829">
+        <v>2.25</v>
+      </c>
+      <c r="Q829">
+        <v>0.25</v>
+      </c>
+      <c r="R829">
+        <v>1.9</v>
+      </c>
+      <c r="S829">
+        <v>1.95</v>
+      </c>
+      <c r="T829">
+        <v>2.5</v>
+      </c>
+      <c r="U829">
+        <v>2.05</v>
+      </c>
+      <c r="V829">
         <v>1.8</v>
       </c>
-      <c r="N829">
-        <v>4.333</v>
-      </c>
-      <c r="O829">
-        <v>3.6</v>
-      </c>
-      <c r="P829">
-        <v>1.833</v>
-      </c>
-      <c r="Q829">
-        <v>0.5</v>
-      </c>
-      <c r="R829">
-        <v>2.02</v>
-      </c>
-      <c r="S829">
-        <v>1.88</v>
-      </c>
-      <c r="T829">
-        <v>2.75</v>
-      </c>
-      <c r="U829">
-        <v>2.03</v>
-      </c>
-      <c r="V829">
-        <v>1.87</v>
-      </c>
       <c r="W829">
         <v>-1</v>
       </c>
@@ -74318,19 +74318,19 @@
         <v>-1</v>
       </c>
       <c r="Y829">
-        <v>0.833</v>
+        <v>1.25</v>
       </c>
       <c r="Z829">
         <v>-1</v>
       </c>
       <c r="AA829">
-        <v>0.8799999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB829">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC829">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="830" spans="1:29">
@@ -74338,7 +74338,7 @@
         <v>828</v>
       </c>
       <c r="B830">
-        <v>5177368</v>
+        <v>5177374</v>
       </c>
       <c r="C830" t="s">
         <v>28</v>
@@ -74350,13 +74350,13 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F830" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G830" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H830">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I830">
         <v>0</v>
@@ -74365,43 +74365,43 @@
         <v>56</v>
       </c>
       <c r="K830">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="L830">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M830">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="N830">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O830">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P830">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q830">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R830">
+        <v>2</v>
+      </c>
+      <c r="S830">
+        <v>1.85</v>
+      </c>
+      <c r="T830">
+        <v>2.5</v>
+      </c>
+      <c r="U830">
         <v>2.025</v>
       </c>
-      <c r="S830">
+      <c r="V830">
         <v>1.825</v>
       </c>
-      <c r="T830">
-        <v>2</v>
-      </c>
-      <c r="U830">
-        <v>1.875</v>
-      </c>
-      <c r="V830">
-        <v>1.975</v>
-      </c>
       <c r="W830">
-        <v>1.05</v>
+        <v>0.571</v>
       </c>
       <c r="X830">
         <v>-1</v>
@@ -74410,16 +74410,16 @@
         <v>-1</v>
       </c>
       <c r="Z830">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA830">
         <v>-1</v>
       </c>
       <c r="AB830">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC830">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="831" spans="1:29">
@@ -74427,7 +74427,7 @@
         <v>829</v>
       </c>
       <c r="B831">
-        <v>5177374</v>
+        <v>5177368</v>
       </c>
       <c r="C831" t="s">
         <v>28</v>
@@ -74439,13 +74439,13 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F831" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G831" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I831">
         <v>0</v>
@@ -74454,43 +74454,43 @@
         <v>56</v>
       </c>
       <c r="K831">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="L831">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M831">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="N831">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="O831">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P831">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q831">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R831">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S831">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T831">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U831">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V831">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W831">
-        <v>0.571</v>
+        <v>1.05</v>
       </c>
       <c r="X831">
         <v>-1</v>
@@ -74499,16 +74499,16 @@
         <v>-1</v>
       </c>
       <c r="Z831">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA831">
         <v>-1</v>
       </c>
       <c r="AB831">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC831">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="832" spans="1:29">
@@ -82170,7 +82170,7 @@
         <v>916</v>
       </c>
       <c r="B918">
-        <v>5505011</v>
+        <v>5505012</v>
       </c>
       <c r="C918" t="s">
         <v>28</v>
@@ -82182,58 +82182,58 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F918" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G918" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H918">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I918">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J918" t="s">
         <v>56</v>
       </c>
       <c r="K918">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="L918">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M918">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="N918">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="O918">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P918">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="Q918">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R918">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S918">
         <v>1.95</v>
       </c>
       <c r="T918">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U918">
+        <v>2</v>
+      </c>
+      <c r="V918">
         <v>1.85</v>
       </c>
-      <c r="V918">
-        <v>2.05</v>
-      </c>
       <c r="W918">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="X918">
         <v>-1</v>
@@ -82242,16 +82242,16 @@
         <v>-1</v>
       </c>
       <c r="Z918">
-        <v>0.98</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA918">
         <v>-1</v>
       </c>
       <c r="AB918">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC918">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="919" spans="1:29">
@@ -82259,7 +82259,7 @@
         <v>917</v>
       </c>
       <c r="B919">
-        <v>5505012</v>
+        <v>5505011</v>
       </c>
       <c r="C919" t="s">
         <v>28</v>
@@ -82271,58 +82271,58 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F919" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G919" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H919">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I919">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J919" t="s">
         <v>56</v>
       </c>
       <c r="K919">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="L919">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M919">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="N919">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="O919">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P919">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="Q919">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R919">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S919">
         <v>1.95</v>
       </c>
       <c r="T919">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U919">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V919">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W919">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="X919">
         <v>-1</v>
@@ -82331,16 +82331,16 @@
         <v>-1</v>
       </c>
       <c r="Z919">
-        <v>0.8999999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AA919">
         <v>-1</v>
       </c>
       <c r="AB919">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC919">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="920" spans="1:29">
@@ -83950,7 +83950,7 @@
         <v>936</v>
       </c>
       <c r="B938">
-        <v>5560103</v>
+        <v>5560098</v>
       </c>
       <c r="C938" t="s">
         <v>28</v>
@@ -83962,76 +83962,76 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F938" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G938" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="H938">
         <v>1</v>
       </c>
       <c r="I938">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J938" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K938">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L938">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M938">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N938">
         <v>1.909</v>
       </c>
       <c r="O938">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P938">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q938">
         <v>-0.5</v>
       </c>
       <c r="R938">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S938">
-        <v>1.975</v>
+        <v>1.93</v>
       </c>
       <c r="T938">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U938">
         <v>1.95</v>
       </c>
       <c r="V938">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W938">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X938">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y938">
         <v>-1</v>
       </c>
       <c r="Z938">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA938">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB938">
         <v>-1</v>
       </c>
       <c r="AC938">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="939" spans="1:29">
@@ -84039,7 +84039,7 @@
         <v>937</v>
       </c>
       <c r="B939">
-        <v>5560104</v>
+        <v>5560103</v>
       </c>
       <c r="C939" t="s">
         <v>28</v>
@@ -84051,13 +84051,13 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F939" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G939" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H939">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I939">
         <v>0</v>
@@ -84066,43 +84066,43 @@
         <v>56</v>
       </c>
       <c r="K939">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="L939">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="M939">
-        <v>9.5</v>
+        <v>3.75</v>
       </c>
       <c r="N939">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="O939">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="P939">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="Q939">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R939">
+        <v>1.875</v>
+      </c>
+      <c r="S939">
+        <v>1.975</v>
+      </c>
+      <c r="T939">
+        <v>2.25</v>
+      </c>
+      <c r="U939">
         <v>1.95</v>
       </c>
-      <c r="S939">
+      <c r="V939">
         <v>1.9</v>
       </c>
-      <c r="T939">
-        <v>3.75</v>
-      </c>
-      <c r="U939">
-        <v>1.975</v>
-      </c>
-      <c r="V939">
-        <v>1.875</v>
-      </c>
       <c r="W939">
-        <v>0.1659999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X939">
         <v>-1</v>
@@ -84111,16 +84111,16 @@
         <v>-1</v>
       </c>
       <c r="Z939">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA939">
         <v>-1</v>
       </c>
       <c r="AB939">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC939">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="940" spans="1:29">
@@ -84128,7 +84128,7 @@
         <v>938</v>
       </c>
       <c r="B940">
-        <v>5560098</v>
+        <v>5560104</v>
       </c>
       <c r="C940" t="s">
         <v>28</v>
@@ -84140,76 +84140,76 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F940" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G940" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H940">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I940">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J940" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K940">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="L940">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M940">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="N940">
-        <v>1.909</v>
+        <v>1.166</v>
       </c>
       <c r="O940">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="P940">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Q940">
+        <v>-2.25</v>
+      </c>
+      <c r="R940">
+        <v>1.95</v>
+      </c>
+      <c r="S940">
+        <v>1.9</v>
+      </c>
+      <c r="T940">
+        <v>3.75</v>
+      </c>
+      <c r="U940">
+        <v>1.975</v>
+      </c>
+      <c r="V940">
+        <v>1.875</v>
+      </c>
+      <c r="W940">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X940">
+        <v>-1</v>
+      </c>
+      <c r="Y940">
+        <v>-1</v>
+      </c>
+      <c r="Z940">
+        <v>0.95</v>
+      </c>
+      <c r="AA940">
+        <v>-1</v>
+      </c>
+      <c r="AB940">
+        <v>0.4875</v>
+      </c>
+      <c r="AC940">
         <v>-0.5</v>
-      </c>
-      <c r="R940">
-        <v>2</v>
-      </c>
-      <c r="S940">
-        <v>1.93</v>
-      </c>
-      <c r="T940">
-        <v>2.5</v>
-      </c>
-      <c r="U940">
-        <v>1.95</v>
-      </c>
-      <c r="V940">
-        <v>1.95</v>
-      </c>
-      <c r="W940">
-        <v>-1</v>
-      </c>
-      <c r="X940">
-        <v>2.5</v>
-      </c>
-      <c r="Y940">
-        <v>-1</v>
-      </c>
-      <c r="Z940">
-        <v>-1</v>
-      </c>
-      <c r="AA940">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="AB940">
-        <v>-1</v>
-      </c>
-      <c r="AC940">
-        <v>0.95</v>
       </c>
     </row>
     <row r="941" spans="1:29">
@@ -85374,7 +85374,7 @@
         <v>952</v>
       </c>
       <c r="B954">
-        <v>5608134</v>
+        <v>5611339</v>
       </c>
       <c r="C954" t="s">
         <v>28</v>
@@ -85386,58 +85386,58 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F954" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G954" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H954">
         <v>2</v>
       </c>
       <c r="I954">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J954" t="s">
         <v>56</v>
       </c>
       <c r="K954">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L954">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M954">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="N954">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O954">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P954">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q954">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R954">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S954">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T954">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U954">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="V954">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="W954">
-        <v>0.444</v>
+        <v>1.25</v>
       </c>
       <c r="X954">
         <v>-1</v>
@@ -85446,16 +85446,16 @@
         <v>-1</v>
       </c>
       <c r="Z954">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA954">
-        <v>0.465</v>
+        <v>-1</v>
       </c>
       <c r="AB954">
-        <v>0.47</v>
+        <v>-1</v>
       </c>
       <c r="AC954">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="955" spans="1:29">
@@ -85463,7 +85463,7 @@
         <v>953</v>
       </c>
       <c r="B955">
-        <v>5611339</v>
+        <v>5608134</v>
       </c>
       <c r="C955" t="s">
         <v>28</v>
@@ -85475,58 +85475,58 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F955" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G955" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H955">
         <v>2</v>
       </c>
       <c r="I955">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J955" t="s">
         <v>56</v>
       </c>
       <c r="K955">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L955">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M955">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="N955">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="O955">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P955">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q955">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R955">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S955">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T955">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U955">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="V955">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="W955">
-        <v>1.25</v>
+        <v>0.444</v>
       </c>
       <c r="X955">
         <v>-1</v>
@@ -85535,16 +85535,16 @@
         <v>-1</v>
       </c>
       <c r="Z955">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA955">
-        <v>-1</v>
+        <v>0.465</v>
       </c>
       <c r="AB955">
-        <v>-1</v>
+        <v>0.47</v>
       </c>
       <c r="AC955">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="956" spans="1:29">
@@ -85552,7 +85552,7 @@
         <v>954</v>
       </c>
       <c r="B956">
-        <v>5611341</v>
+        <v>5607268</v>
       </c>
       <c r="C956" t="s">
         <v>28</v>
@@ -85564,76 +85564,76 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F956" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G956" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H956">
         <v>1</v>
       </c>
       <c r="I956">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J956" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K956">
+        <v>1.363</v>
+      </c>
+      <c r="L956">
         <v>5</v>
       </c>
-      <c r="L956">
-        <v>4</v>
-      </c>
       <c r="M956">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N956">
-        <v>4.333</v>
+        <v>1.285</v>
       </c>
       <c r="O956">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P956">
-        <v>1.7</v>
+        <v>8.5</v>
       </c>
       <c r="Q956">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R956">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S956">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T956">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U956">
+        <v>2.025</v>
+      </c>
+      <c r="V956">
         <v>1.825</v>
       </c>
-      <c r="V956">
-        <v>2.025</v>
-      </c>
       <c r="W956">
         <v>-1</v>
       </c>
       <c r="X956">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y956">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z956">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA956">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB956">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC956">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="957" spans="1:29">
@@ -85641,7 +85641,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>5607268</v>
+        <v>5603276</v>
       </c>
       <c r="C957" t="s">
         <v>28</v>
@@ -85653,49 +85653,49 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F957" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G957" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="H957">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I957">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J957" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K957">
-        <v>1.363</v>
+        <v>1.142</v>
       </c>
       <c r="L957">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M957">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N957">
-        <v>1.285</v>
+        <v>1.166</v>
       </c>
       <c r="O957">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P957">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="Q957">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R957">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S957">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T957">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U957">
         <v>2.025</v>
@@ -85704,25 +85704,25 @@
         <v>1.825</v>
       </c>
       <c r="W957">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X957">
         <v>-1</v>
       </c>
       <c r="Y957">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z957">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA957">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB957">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC957">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="958" spans="1:29">
@@ -85730,7 +85730,7 @@
         <v>956</v>
       </c>
       <c r="B958">
-        <v>5611340</v>
+        <v>5611341</v>
       </c>
       <c r="C958" t="s">
         <v>28</v>
@@ -85742,67 +85742,67 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F958" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G958" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H958">
+        <v>1</v>
+      </c>
+      <c r="I958">
+        <v>1</v>
+      </c>
+      <c r="J958" t="s">
+        <v>57</v>
+      </c>
+      <c r="K958">
+        <v>5</v>
+      </c>
+      <c r="L958">
+        <v>4</v>
+      </c>
+      <c r="M958">
+        <v>1.615</v>
+      </c>
+      <c r="N958">
+        <v>4.333</v>
+      </c>
+      <c r="O958">
+        <v>4</v>
+      </c>
+      <c r="P958">
+        <v>1.7</v>
+      </c>
+      <c r="Q958">
+        <v>0.75</v>
+      </c>
+      <c r="R958">
+        <v>1.925</v>
+      </c>
+      <c r="S958">
+        <v>1.925</v>
+      </c>
+      <c r="T958">
         <v>3</v>
       </c>
-      <c r="I958">
-        <v>0</v>
-      </c>
-      <c r="J958" t="s">
-        <v>56</v>
-      </c>
-      <c r="K958">
-        <v>1.7</v>
-      </c>
-      <c r="L958">
-        <v>3.8</v>
-      </c>
-      <c r="M958">
-        <v>4.75</v>
-      </c>
-      <c r="N958">
-        <v>1.666</v>
-      </c>
-      <c r="O958">
-        <v>4.5</v>
-      </c>
-      <c r="P958">
-        <v>4.2</v>
-      </c>
-      <c r="Q958">
-        <v>-0.75</v>
-      </c>
-      <c r="R958">
+      <c r="U958">
         <v>1.825</v>
       </c>
-      <c r="S958">
+      <c r="V958">
         <v>2.025</v>
       </c>
-      <c r="T958">
-        <v>3.75</v>
-      </c>
-      <c r="U958">
-        <v>1.975</v>
-      </c>
-      <c r="V958">
-        <v>1.875</v>
-      </c>
       <c r="W958">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X958">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y958">
         <v>-1</v>
       </c>
       <c r="Z958">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA958">
         <v>-1</v>
@@ -85811,7 +85811,7 @@
         <v>-1</v>
       </c>
       <c r="AC958">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="959" spans="1:29">
@@ -85819,7 +85819,7 @@
         <v>957</v>
       </c>
       <c r="B959">
-        <v>5603276</v>
+        <v>5736383</v>
       </c>
       <c r="C959" t="s">
         <v>28</v>
@@ -85831,13 +85831,13 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F959" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G959" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H959">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I959">
         <v>0</v>
@@ -85846,43 +85846,43 @@
         <v>56</v>
       </c>
       <c r="K959">
-        <v>1.142</v>
+        <v>2</v>
       </c>
       <c r="L959">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M959">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="N959">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="O959">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P959">
-        <v>19</v>
+        <v>3.75</v>
       </c>
       <c r="Q959">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R959">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="S959">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="T959">
         <v>3</v>
       </c>
       <c r="U959">
-        <v>2.025</v>
+        <v>1.94</v>
       </c>
       <c r="V959">
-        <v>1.825</v>
+        <v>1.96</v>
       </c>
       <c r="W959">
-        <v>0.1659999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X959">
         <v>-1</v>
@@ -85891,16 +85891,16 @@
         <v>-1</v>
       </c>
       <c r="Z959">
-        <v>0.8999999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AA959">
         <v>-1</v>
       </c>
       <c r="AB959">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC959">
-        <v>-0</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="960" spans="1:29">
@@ -86175,7 +86175,7 @@
         <v>961</v>
       </c>
       <c r="B963">
-        <v>5736383</v>
+        <v>5611340</v>
       </c>
       <c r="C963" t="s">
         <v>28</v>
@@ -86187,13 +86187,13 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F963" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G963" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H963">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I963">
         <v>0</v>
@@ -86202,43 +86202,43 @@
         <v>56</v>
       </c>
       <c r="K963">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="L963">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M963">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="N963">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O963">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P963">
+        <v>4.2</v>
+      </c>
+      <c r="Q963">
+        <v>-0.75</v>
+      </c>
+      <c r="R963">
+        <v>1.825</v>
+      </c>
+      <c r="S963">
+        <v>2.025</v>
+      </c>
+      <c r="T963">
         <v>3.75</v>
       </c>
-      <c r="Q963">
-        <v>-0.5</v>
-      </c>
-      <c r="R963">
-        <v>1.97</v>
-      </c>
-      <c r="S963">
-        <v>1.96</v>
-      </c>
-      <c r="T963">
-        <v>3</v>
-      </c>
       <c r="U963">
-        <v>1.94</v>
+        <v>1.975</v>
       </c>
       <c r="V963">
-        <v>1.96</v>
+        <v>1.875</v>
       </c>
       <c r="W963">
-        <v>0.909</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X963">
         <v>-1</v>
@@ -86247,7 +86247,7 @@
         <v>-1</v>
       </c>
       <c r="Z963">
-        <v>0.97</v>
+        <v>0.825</v>
       </c>
       <c r="AA963">
         <v>-1</v>
@@ -86256,7 +86256,7 @@
         <v>-1</v>
       </c>
       <c r="AC963">
-        <v>0.96</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="964" spans="1:29">
@@ -100148,7 +100148,7 @@
         <v>1118</v>
       </c>
       <c r="B1120">
-        <v>6847969</v>
+        <v>6847975</v>
       </c>
       <c r="C1120" t="s">
         <v>28</v>
@@ -100160,76 +100160,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F1120" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G1120" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H1120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1120">
         <v>1</v>
       </c>
       <c r="J1120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1120">
+        <v>3.4</v>
+      </c>
+      <c r="L1120">
+        <v>3.4</v>
+      </c>
+      <c r="M1120">
+        <v>2.1</v>
+      </c>
+      <c r="N1120">
         <v>4</v>
       </c>
-      <c r="L1120">
-        <v>3.3</v>
-      </c>
-      <c r="M1120">
+      <c r="O1120">
+        <v>3.6</v>
+      </c>
+      <c r="P1120">
         <v>1.95</v>
       </c>
-      <c r="N1120">
-        <v>3.6</v>
-      </c>
-      <c r="O1120">
-        <v>3.4</v>
-      </c>
-      <c r="P1120">
-        <v>2.05</v>
-      </c>
       <c r="Q1120">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R1120">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S1120">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T1120">
         <v>2.5</v>
       </c>
       <c r="U1120">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V1120">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W1120">
+        <v>-1</v>
+      </c>
+      <c r="X1120">
         <v>2.6</v>
       </c>
-      <c r="X1120">
-        <v>-1</v>
-      </c>
       <c r="Y1120">
         <v>-1</v>
       </c>
       <c r="Z1120">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA1120">
         <v>-1</v>
       </c>
       <c r="AB1120">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC1120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="1121" spans="1:29">
@@ -100237,7 +100237,7 @@
         <v>1119</v>
       </c>
       <c r="B1121">
-        <v>6847976</v>
+        <v>6847969</v>
       </c>
       <c r="C1121" t="s">
         <v>28</v>
@@ -100249,46 +100249,46 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F1121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1121" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H1121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I1121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1121" t="s">
         <v>56</v>
       </c>
       <c r="K1121">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="L1121">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M1121">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N1121">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="O1121">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P1121">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q1121">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R1121">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S1121">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T1121">
         <v>2.5</v>
@@ -100300,7 +100300,7 @@
         <v>1.825</v>
       </c>
       <c r="W1121">
-        <v>0.6499999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="X1121">
         <v>-1</v>
@@ -100309,7 +100309,7 @@
         <v>-1</v>
       </c>
       <c r="Z1121">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA1121">
         <v>-1</v>
@@ -100326,7 +100326,7 @@
         <v>1120</v>
       </c>
       <c r="B1122">
-        <v>7579908</v>
+        <v>6847976</v>
       </c>
       <c r="C1122" t="s">
         <v>28</v>
@@ -100338,73 +100338,73 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F1122" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G1122" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H1122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I1122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1122">
-        <v>3.25</v>
+        <v>1.615</v>
       </c>
       <c r="L1122">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M1122">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="N1122">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O1122">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P1122">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="Q1122">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1122">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S1122">
-        <v>2.08</v>
+        <v>1.975</v>
       </c>
       <c r="T1122">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1122">
-        <v>2.11</v>
+        <v>2.025</v>
       </c>
       <c r="V1122">
-        <v>1.79</v>
+        <v>1.825</v>
       </c>
       <c r="W1122">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X1122">
         <v>-1</v>
       </c>
       <c r="Y1122">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z1122">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA1122">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AB1122">
-        <v>1.11</v>
+        <v>1.025</v>
       </c>
       <c r="AC1122">
         <v>-1</v>
@@ -100415,7 +100415,7 @@
         <v>1121</v>
       </c>
       <c r="B1123">
-        <v>6847975</v>
+        <v>6847972</v>
       </c>
       <c r="C1123" t="s">
         <v>28</v>
@@ -100427,76 +100427,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F1123" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G1123" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H1123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1123" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1123">
+        <v>2.2</v>
+      </c>
+      <c r="L1123">
+        <v>3.1</v>
+      </c>
+      <c r="M1123">
         <v>3.4</v>
       </c>
-      <c r="L1123">
-        <v>3.4</v>
-      </c>
-      <c r="M1123">
-        <v>2.1</v>
-      </c>
       <c r="N1123">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="O1123">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P1123">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="Q1123">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1123">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="S1123">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="T1123">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1123">
-        <v>1.925</v>
+        <v>1.99</v>
       </c>
       <c r="V1123">
-        <v>1.925</v>
+        <v>1.91</v>
       </c>
       <c r="W1123">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X1123">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y1123">
         <v>-1</v>
       </c>
       <c r="Z1123">
-        <v>0.8999999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AA1123">
         <v>-1</v>
       </c>
       <c r="AB1123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1123">
-        <v>0.925</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="1124" spans="1:29">
@@ -100682,7 +100682,7 @@
         <v>1124</v>
       </c>
       <c r="B1126">
-        <v>6847972</v>
+        <v>7579908</v>
       </c>
       <c r="C1126" t="s">
         <v>28</v>
@@ -100694,76 +100694,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F1126" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G1126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J1126" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1126">
+        <v>3.25</v>
+      </c>
+      <c r="L1126">
+        <v>3.3</v>
+      </c>
+      <c r="M1126">
         <v>2.2</v>
       </c>
-      <c r="L1126">
+      <c r="N1126">
         <v>3.1</v>
-      </c>
-      <c r="M1126">
-        <v>3.4</v>
-      </c>
-      <c r="N1126">
-        <v>2.25</v>
       </c>
       <c r="O1126">
         <v>3.25</v>
       </c>
       <c r="P1126">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q1126">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R1126">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S1126">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="T1126">
         <v>2.25</v>
       </c>
       <c r="U1126">
-        <v>1.99</v>
+        <v>2.11</v>
       </c>
       <c r="V1126">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="W1126">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X1126">
         <v>-1</v>
       </c>
       <c r="Y1126">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z1126">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AA1126">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AB1126">
-        <v>-0.5</v>
+        <v>1.11</v>
       </c>
       <c r="AC1126">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1127" spans="1:29">
@@ -101127,7 +101127,7 @@
         <v>1129</v>
       </c>
       <c r="B1131">
-        <v>6847982</v>
+        <v>6847984</v>
       </c>
       <c r="C1131" t="s">
         <v>28</v>
@@ -101139,55 +101139,55 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F1131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1131" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1131">
+        <v>0</v>
+      </c>
+      <c r="I1131">
         <v>1</v>
-      </c>
-      <c r="I1131">
-        <v>2</v>
       </c>
       <c r="J1131" t="s">
         <v>55</v>
       </c>
       <c r="K1131">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="L1131">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M1131">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="N1131">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O1131">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P1131">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q1131">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R1131">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S1131">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T1131">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1131">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V1131">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W1131">
         <v>-1</v>
@@ -101196,19 +101196,19 @@
         <v>-1</v>
       </c>
       <c r="Y1131">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="Z1131">
         <v>-1</v>
       </c>
       <c r="AA1131">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB1131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC1131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="1132" spans="1:29">
@@ -101216,7 +101216,7 @@
         <v>1130</v>
       </c>
       <c r="B1132">
-        <v>6847984</v>
+        <v>6847985</v>
       </c>
       <c r="C1132" t="s">
         <v>28</v>
@@ -101228,76 +101228,76 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F1132" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1132" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H1132">
+        <v>2</v>
+      </c>
+      <c r="I1132">
         <v>0</v>
       </c>
-      <c r="I1132">
-        <v>1</v>
-      </c>
       <c r="J1132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1132">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="L1132">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M1132">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="N1132">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O1132">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P1132">
+        <v>4.5</v>
+      </c>
+      <c r="Q1132">
+        <v>-0.75</v>
+      </c>
+      <c r="R1132">
+        <v>2.05</v>
+      </c>
+      <c r="S1132">
+        <v>1.8</v>
+      </c>
+      <c r="T1132">
         <v>2.5</v>
       </c>
-      <c r="Q1132">
-        <v>0</v>
-      </c>
-      <c r="R1132">
+      <c r="U1132">
         <v>2.025</v>
       </c>
-      <c r="S1132">
+      <c r="V1132">
         <v>1.825</v>
       </c>
-      <c r="T1132">
-        <v>2.25</v>
-      </c>
-      <c r="U1132">
-        <v>2.05</v>
-      </c>
-      <c r="V1132">
-        <v>1.8</v>
-      </c>
       <c r="W1132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X1132">
         <v>-1</v>
       </c>
       <c r="Y1132">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1132">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA1132">
+        <v>-1</v>
+      </c>
+      <c r="AB1132">
+        <v>-1</v>
+      </c>
+      <c r="AC1132">
         <v>0.825</v>
-      </c>
-      <c r="AB1132">
-        <v>-1</v>
-      </c>
-      <c r="AC1132">
-        <v>0.8</v>
       </c>
     </row>
     <row r="1133" spans="1:29">
@@ -101305,7 +101305,7 @@
         <v>1131</v>
       </c>
       <c r="B1133">
-        <v>6847985</v>
+        <v>6847982</v>
       </c>
       <c r="C1133" t="s">
         <v>28</v>
@@ -101317,76 +101317,76 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F1133" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G1133" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H1133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1133" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1133">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L1133">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M1133">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N1133">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O1133">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P1133">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q1133">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R1133">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S1133">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T1133">
         <v>2.5</v>
       </c>
       <c r="U1133">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V1133">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W1133">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X1133">
         <v>-1</v>
       </c>
       <c r="Y1133">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z1133">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA1133">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB1133">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC1133">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1134" spans="1:29">
@@ -102412,10 +102412,10 @@
         <v>1</v>
       </c>
       <c r="R1145">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="S1145">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="T1145">
         <v>3</v>
@@ -102474,13 +102474,13 @@
         <v>3.75</v>
       </c>
       <c r="N1146">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="O1146">
         <v>4</v>
       </c>
       <c r="P1146">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q1146">
         <v>-0.75</v>
@@ -102566,13 +102566,13 @@
         <v>1.88</v>
       </c>
       <c r="T1147">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1147">
+        <v>2.08</v>
+      </c>
+      <c r="V1147">
         <v>1.82</v>
-      </c>
-      <c r="V1147">
-        <v>2.08</v>
       </c>
       <c r="W1147">
         <v>0</v>
@@ -102669,7 +102669,7 @@
         <v>1147</v>
       </c>
       <c r="B1149">
-        <v>7728864</v>
+        <v>7728866</v>
       </c>
       <c r="C1149" t="s">
         <v>28</v>
@@ -102681,31 +102681,31 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F1149" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G1149" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K1149">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L1149">
+        <v>3.2</v>
+      </c>
+      <c r="M1149">
+        <v>3.3</v>
+      </c>
+      <c r="N1149">
+        <v>2.25</v>
+      </c>
+      <c r="O1149">
+        <v>3</v>
+      </c>
+      <c r="P1149">
         <v>3.5</v>
       </c>
-      <c r="M1149">
-        <v>4.75</v>
-      </c>
-      <c r="N1149">
-        <v>1.7</v>
-      </c>
-      <c r="O1149">
-        <v>3.5</v>
-      </c>
-      <c r="P1149">
-        <v>5</v>
-      </c>
       <c r="Q1149">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R1149">
         <v>1.99</v>
@@ -102714,7 +102714,7 @@
         <v>1.91</v>
       </c>
       <c r="T1149">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U1149">
         <v>1.95</v>
@@ -102773,28 +102773,28 @@
         <v>1.363</v>
       </c>
       <c r="O1150">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P1150">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Q1150">
         <v>-1.25</v>
       </c>
       <c r="R1150">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S1150">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T1150">
         <v>2.75</v>
       </c>
       <c r="U1150">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="V1150">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W1150">
         <v>0</v>
@@ -102817,7 +102817,7 @@
         <v>1149</v>
       </c>
       <c r="B1151">
-        <v>7728866</v>
+        <v>7728864</v>
       </c>
       <c r="C1151" t="s">
         <v>28</v>
@@ -102829,46 +102829,46 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F1151" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G1151" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="K1151">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L1151">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M1151">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N1151">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O1151">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P1151">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q1151">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1151">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="S1151">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="T1151">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U1151">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="V1151">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="W1151">
         <v>0</v>
@@ -102930,19 +102930,19 @@
         <v>0</v>
       </c>
       <c r="R1152">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="S1152">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="T1152">
         <v>2</v>
       </c>
       <c r="U1152">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V1152">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="W1152">
         <v>0</v>

--- a/France Ligue 1/France Ligue 1.xlsx
+++ b/France Ligue 1/France Ligue 1.xlsx
@@ -172,10 +172,10 @@
     <t>Toulouse</t>
   </si>
   <si>
-    <t>AC Ajaccio</t>
+    <t>Auxerre</t>
   </si>
   <si>
-    <t>Auxerre</t>
+    <t>AC Ajaccio</t>
   </si>
   <si>
     <t>Le Havre</t>
@@ -53349,7 +53349,7 @@
         <v>35</v>
       </c>
       <c r="G594" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H594">
         <v>2</v>
@@ -53690,7 +53690,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>5205211</v>
+        <v>5205212</v>
       </c>
       <c r="C598" t="s">
         <v>28</v>
@@ -53702,58 +53702,58 @@
         <v>44780.41666666666</v>
       </c>
       <c r="F598" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G598" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H598">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I598">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J598" t="s">
         <v>56</v>
       </c>
       <c r="K598">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L598">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M598">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="N598">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O598">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P598">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q598">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R598">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S598">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T598">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U598">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V598">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W598">
-        <v>0.6000000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="X598">
         <v>-1</v>
@@ -53762,13 +53762,13 @@
         <v>-1</v>
       </c>
       <c r="Z598">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA598">
         <v>-1</v>
       </c>
       <c r="AB598">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC598">
         <v>-1</v>
@@ -53779,7 +53779,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>5205212</v>
+        <v>5205211</v>
       </c>
       <c r="C599" t="s">
         <v>28</v>
@@ -53791,58 +53791,58 @@
         <v>44780.41666666666</v>
       </c>
       <c r="F599" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G599" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H599">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I599">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J599" t="s">
         <v>56</v>
       </c>
       <c r="K599">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L599">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M599">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="N599">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O599">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P599">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q599">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R599">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S599">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T599">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U599">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V599">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W599">
-        <v>1.15</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X599">
         <v>-1</v>
@@ -53851,13 +53851,13 @@
         <v>-1</v>
       </c>
       <c r="Z599">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA599">
         <v>-1</v>
       </c>
       <c r="AB599">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC599">
         <v>-1</v>
@@ -54491,7 +54491,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>5177144</v>
+        <v>5177145</v>
       </c>
       <c r="C607" t="s">
         <v>28</v>
@@ -54506,73 +54506,73 @@
         <v>52</v>
       </c>
       <c r="G607" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J607" t="s">
         <v>57</v>
       </c>
       <c r="K607">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L607">
         <v>3.2</v>
       </c>
       <c r="M607">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N607">
+        <v>2.45</v>
+      </c>
+      <c r="O607">
         <v>3.25</v>
       </c>
-      <c r="O607">
-        <v>3.1</v>
-      </c>
       <c r="P607">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Q607">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R607">
+        <v>2.1</v>
+      </c>
+      <c r="S607">
+        <v>1.775</v>
+      </c>
+      <c r="T607">
+        <v>2.5</v>
+      </c>
+      <c r="U607">
+        <v>2.025</v>
+      </c>
+      <c r="V607">
         <v>1.825</v>
       </c>
-      <c r="S607">
-        <v>2.025</v>
-      </c>
-      <c r="T607">
+      <c r="W607">
+        <v>-1</v>
+      </c>
+      <c r="X607">
         <v>2.25</v>
       </c>
-      <c r="U607">
-        <v>2.05</v>
-      </c>
-      <c r="V607">
-        <v>1.8</v>
-      </c>
-      <c r="W607">
-        <v>-1</v>
-      </c>
-      <c r="X607">
-        <v>2.1</v>
-      </c>
       <c r="Y607">
         <v>-1</v>
       </c>
       <c r="Z607">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA607">
-        <v>-0.5</v>
+        <v>0.3875</v>
       </c>
       <c r="AB607">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC607">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="608" spans="1:29">
@@ -54580,7 +54580,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>5177145</v>
+        <v>5177144</v>
       </c>
       <c r="C608" t="s">
         <v>28</v>
@@ -54595,73 +54595,73 @@
         <v>53</v>
       </c>
       <c r="G608" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J608" t="s">
         <v>57</v>
       </c>
       <c r="K608">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L608">
         <v>3.2</v>
       </c>
       <c r="M608">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="N608">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="O608">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P608">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q608">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R608">
+        <v>1.825</v>
+      </c>
+      <c r="S608">
+        <v>2.025</v>
+      </c>
+      <c r="T608">
+        <v>2.25</v>
+      </c>
+      <c r="U608">
+        <v>2.05</v>
+      </c>
+      <c r="V608">
+        <v>1.8</v>
+      </c>
+      <c r="W608">
+        <v>-1</v>
+      </c>
+      <c r="X608">
         <v>2.1</v>
       </c>
-      <c r="S608">
-        <v>1.775</v>
-      </c>
-      <c r="T608">
-        <v>2.5</v>
-      </c>
-      <c r="U608">
-        <v>2.025</v>
-      </c>
-      <c r="V608">
-        <v>1.825</v>
-      </c>
-      <c r="W608">
-        <v>-1</v>
-      </c>
-      <c r="X608">
-        <v>2.25</v>
-      </c>
       <c r="Y608">
         <v>-1</v>
       </c>
       <c r="Z608">
+        <v>0.4125</v>
+      </c>
+      <c r="AA608">
         <v>-0.5</v>
       </c>
-      <c r="AA608">
-        <v>0.3875</v>
-      </c>
       <c r="AB608">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC608">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="609" spans="1:29">
@@ -55381,7 +55381,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>5177163</v>
+        <v>5177155</v>
       </c>
       <c r="C617" t="s">
         <v>28</v>
@@ -55393,73 +55393,73 @@
         <v>44794.41666666666</v>
       </c>
       <c r="F617" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G617" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I617">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J617" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K617">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L617">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M617">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N617">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="O617">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P617">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q617">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R617">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S617">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T617">
         <v>2.5</v>
       </c>
       <c r="U617">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V617">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W617">
         <v>-1</v>
       </c>
       <c r="X617">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y617">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z617">
         <v>-1</v>
       </c>
       <c r="AA617">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB617">
         <v>1</v>
-      </c>
-      <c r="AB617">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC617">
         <v>-1</v>
@@ -55470,7 +55470,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>5177155</v>
+        <v>5177163</v>
       </c>
       <c r="C618" t="s">
         <v>28</v>
@@ -55482,73 +55482,73 @@
         <v>44794.41666666666</v>
       </c>
       <c r="F618" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G618" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H618">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I618">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J618" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K618">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L618">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M618">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N618">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O618">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P618">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q618">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R618">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S618">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T618">
         <v>2.5</v>
       </c>
       <c r="U618">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V618">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W618">
         <v>-1</v>
       </c>
       <c r="X618">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y618">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z618">
         <v>-1</v>
       </c>
       <c r="AA618">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB618">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC618">
         <v>-1</v>
@@ -55559,7 +55559,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>5177158</v>
+        <v>5177156</v>
       </c>
       <c r="C619" t="s">
         <v>28</v>
@@ -55571,76 +55571,76 @@
         <v>44794.41666666666</v>
       </c>
       <c r="F619" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G619" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H619">
         <v>1</v>
       </c>
       <c r="I619">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J619" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K619">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L619">
+        <v>3.4</v>
+      </c>
+      <c r="M619">
+        <v>2.05</v>
+      </c>
+      <c r="N619">
+        <v>3.6</v>
+      </c>
+      <c r="O619">
         <v>3.3</v>
       </c>
-      <c r="M619">
-        <v>3.5</v>
-      </c>
-      <c r="N619">
-        <v>1.909</v>
-      </c>
-      <c r="O619">
-        <v>3.5</v>
-      </c>
       <c r="P619">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="Q619">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R619">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S619">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T619">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U619">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V619">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W619">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X619">
         <v>-1</v>
       </c>
       <c r="Y619">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z619">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA619">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB619">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC619">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="620" spans="1:29">
@@ -55648,7 +55648,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>5177156</v>
+        <v>5177158</v>
       </c>
       <c r="C620" t="s">
         <v>28</v>
@@ -55660,76 +55660,76 @@
         <v>44794.41666666666</v>
       </c>
       <c r="F620" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G620" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H620">
         <v>1</v>
       </c>
       <c r="I620">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J620" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K620">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="L620">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M620">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="N620">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="O620">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P620">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q620">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R620">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S620">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T620">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U620">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V620">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W620">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X620">
         <v>-1</v>
       </c>
       <c r="Y620">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z620">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA620">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB620">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC620">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="621" spans="1:29">
@@ -55752,7 +55752,7 @@
         <v>42</v>
       </c>
       <c r="G621" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H621">
         <v>2</v>
@@ -55927,7 +55927,7 @@
         <v>44799.66666666666</v>
       </c>
       <c r="F623" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G623" t="s">
         <v>36</v>
@@ -56016,7 +56016,7 @@
         <v>44800.5</v>
       </c>
       <c r="F624" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G624" t="s">
         <v>31</v>
@@ -56909,7 +56909,7 @@
         <v>35</v>
       </c>
       <c r="G634" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H634">
         <v>2</v>
@@ -57176,7 +57176,7 @@
         <v>46</v>
       </c>
       <c r="G637" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H637">
         <v>2</v>
@@ -57707,7 +57707,7 @@
         <v>44807.5</v>
       </c>
       <c r="F643" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G643" t="s">
         <v>38</v>
@@ -58140,7 +58140,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>5177186</v>
+        <v>5177191</v>
       </c>
       <c r="C648" t="s">
         <v>28</v>
@@ -58152,76 +58152,76 @@
         <v>44808.41666666666</v>
       </c>
       <c r="F648" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G648" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I648">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J648" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K648">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="L648">
         <v>3.5</v>
       </c>
       <c r="M648">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N648">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="O648">
         <v>3.4</v>
       </c>
       <c r="P648">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="Q648">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R648">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S648">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T648">
         <v>2.5</v>
       </c>
       <c r="U648">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V648">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W648">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X648">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y648">
         <v>-1</v>
       </c>
       <c r="Z648">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA648">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB648">
         <v>-1</v>
       </c>
       <c r="AC648">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="649" spans="1:29">
@@ -58229,7 +58229,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>5177191</v>
+        <v>5177186</v>
       </c>
       <c r="C649" t="s">
         <v>28</v>
@@ -58241,76 +58241,76 @@
         <v>44808.41666666666</v>
       </c>
       <c r="F649" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G649" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I649">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J649" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K649">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L649">
         <v>3.5</v>
       </c>
       <c r="M649">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N649">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="O649">
         <v>3.4</v>
       </c>
       <c r="P649">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="Q649">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R649">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S649">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T649">
         <v>2.5</v>
       </c>
       <c r="U649">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V649">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W649">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X649">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y649">
         <v>-1</v>
       </c>
       <c r="Z649">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA649">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB649">
         <v>-1</v>
       </c>
       <c r="AC649">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="650" spans="1:29">
@@ -58330,7 +58330,7 @@
         <v>44808.41666666666</v>
       </c>
       <c r="F650" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G650" t="s">
         <v>29</v>
@@ -59042,7 +59042,7 @@
         <v>44815.41666666666</v>
       </c>
       <c r="F658" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G658" t="s">
         <v>48</v>
@@ -59401,7 +59401,7 @@
         <v>42</v>
       </c>
       <c r="G662" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H662">
         <v>5</v>
@@ -59576,7 +59576,7 @@
         <v>44820.66666666666</v>
       </c>
       <c r="F664" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G664" t="s">
         <v>29</v>
@@ -59920,7 +59920,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>5177213</v>
+        <v>5177211</v>
       </c>
       <c r="C668" t="s">
         <v>28</v>
@@ -59932,76 +59932,76 @@
         <v>44822.41666666666</v>
       </c>
       <c r="F668" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G668" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I668">
         <v>1</v>
       </c>
       <c r="J668" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K668">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="L668">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M668">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="N668">
+        <v>1.615</v>
+      </c>
+      <c r="O668">
+        <v>4</v>
+      </c>
+      <c r="P668">
+        <v>5.5</v>
+      </c>
+      <c r="Q668">
+        <v>-0.75</v>
+      </c>
+      <c r="R668">
+        <v>1.8</v>
+      </c>
+      <c r="S668">
         <v>2.05</v>
       </c>
-      <c r="O668">
-        <v>3.6</v>
-      </c>
-      <c r="P668">
-        <v>3.6</v>
-      </c>
-      <c r="Q668">
-        <v>-0.5</v>
-      </c>
-      <c r="R668">
-        <v>2.025</v>
-      </c>
-      <c r="S668">
-        <v>1.825</v>
-      </c>
       <c r="T668">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U668">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V668">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W668">
         <v>-1</v>
       </c>
       <c r="X668">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y668">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z668">
         <v>-1</v>
       </c>
       <c r="AA668">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB668">
         <v>-1</v>
       </c>
       <c r="AC668">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="669" spans="1:29">
@@ -60009,7 +60009,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>5177211</v>
+        <v>5177213</v>
       </c>
       <c r="C669" t="s">
         <v>28</v>
@@ -60021,76 +60021,76 @@
         <v>44822.41666666666</v>
       </c>
       <c r="F669" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G669" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I669">
         <v>1</v>
       </c>
       <c r="J669" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K669">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="L669">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M669">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="N669">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="O669">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P669">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q669">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R669">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S669">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T669">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U669">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V669">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W669">
         <v>-1</v>
       </c>
       <c r="X669">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y669">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z669">
         <v>-1</v>
       </c>
       <c r="AA669">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB669">
         <v>-1</v>
       </c>
       <c r="AC669">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="670" spans="1:29">
@@ -60202,7 +60202,7 @@
         <v>30</v>
       </c>
       <c r="G671" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H671">
         <v>0</v>
@@ -60822,7 +60822,7 @@
         <v>44836.41666666666</v>
       </c>
       <c r="F678" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G678" t="s">
         <v>30</v>
@@ -61089,7 +61089,7 @@
         <v>44836.41666666666</v>
       </c>
       <c r="F681" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G681" t="s">
         <v>50</v>
@@ -61448,7 +61448,7 @@
         <v>38</v>
       </c>
       <c r="G685" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H685">
         <v>1</v>
@@ -61982,7 +61982,7 @@
         <v>50</v>
       </c>
       <c r="G691" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H691">
         <v>2</v>
@@ -62783,7 +62783,7 @@
         <v>49</v>
       </c>
       <c r="G700" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H700">
         <v>1</v>
@@ -62869,7 +62869,7 @@
         <v>44850.41666666666</v>
       </c>
       <c r="F701" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G701" t="s">
         <v>48</v>
@@ -63136,7 +63136,7 @@
         <v>44855.66666666666</v>
       </c>
       <c r="F704" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G704" t="s">
         <v>45</v>
@@ -63673,7 +63673,7 @@
         <v>37</v>
       </c>
       <c r="G710" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H710">
         <v>2</v>
@@ -64293,10 +64293,10 @@
         <v>44864.375</v>
       </c>
       <c r="F717" t="s">
+        <v>52</v>
+      </c>
+      <c r="G717" t="s">
         <v>53</v>
-      </c>
-      <c r="G717" t="s">
-        <v>52</v>
       </c>
       <c r="H717">
         <v>1</v>
@@ -64919,7 +64919,7 @@
         <v>49</v>
       </c>
       <c r="G724" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H724">
         <v>1</v>
@@ -65005,7 +65005,7 @@
         <v>44870.54166666666</v>
       </c>
       <c r="F725" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G725" t="s">
         <v>31</v>
@@ -66076,7 +66076,7 @@
         <v>45</v>
       </c>
       <c r="G737" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H737">
         <v>5</v>
@@ -66165,7 +66165,7 @@
         <v>33</v>
       </c>
       <c r="G738" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H738">
         <v>2</v>
@@ -66785,7 +66785,7 @@
         <v>44923.45833333334</v>
       </c>
       <c r="F745" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G745" t="s">
         <v>47</v>
@@ -66874,7 +66874,7 @@
         <v>44923.54166666666</v>
       </c>
       <c r="F746" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G746" t="s">
         <v>43</v>
@@ -67589,7 +67589,7 @@
         <v>51</v>
       </c>
       <c r="G754" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H754">
         <v>2</v>
@@ -67856,7 +67856,7 @@
         <v>33</v>
       </c>
       <c r="G757" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H757">
         <v>1</v>
@@ -68565,7 +68565,7 @@
         <v>44937.625</v>
       </c>
       <c r="F765" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G765" t="s">
         <v>51</v>
@@ -68654,7 +68654,7 @@
         <v>44937.625</v>
       </c>
       <c r="F766" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G766" t="s">
         <v>37</v>
@@ -69369,7 +69369,7 @@
         <v>41</v>
       </c>
       <c r="G774" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H774">
         <v>1</v>
@@ -69888,7 +69888,7 @@
         <v>778</v>
       </c>
       <c r="B780">
-        <v>5177325</v>
+        <v>5177326</v>
       </c>
       <c r="C780" t="s">
         <v>28</v>
@@ -69900,76 +69900,76 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F780" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G780" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I780">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J780" t="s">
         <v>57</v>
       </c>
       <c r="K780">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="L780">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M780">
+        <v>3.5</v>
+      </c>
+      <c r="N780">
+        <v>1.85</v>
+      </c>
+      <c r="O780">
+        <v>3.6</v>
+      </c>
+      <c r="P780">
+        <v>4.2</v>
+      </c>
+      <c r="Q780">
+        <v>-0.5</v>
+      </c>
+      <c r="R780">
+        <v>1.825</v>
+      </c>
+      <c r="S780">
+        <v>2.025</v>
+      </c>
+      <c r="T780">
         <v>2.75</v>
       </c>
-      <c r="N780">
-        <v>2.5</v>
-      </c>
-      <c r="O780">
-        <v>3.2</v>
-      </c>
-      <c r="P780">
-        <v>2.875</v>
-      </c>
-      <c r="Q780">
-        <v>-0.25</v>
-      </c>
-      <c r="R780">
-        <v>2.075</v>
-      </c>
-      <c r="S780">
-        <v>1.725</v>
-      </c>
-      <c r="T780">
-        <v>2.25</v>
-      </c>
       <c r="U780">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V780">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W780">
         <v>-1</v>
       </c>
       <c r="X780">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y780">
         <v>-1</v>
       </c>
       <c r="Z780">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA780">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="AB780">
         <v>-1</v>
       </c>
       <c r="AC780">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="781" spans="1:29">
@@ -69977,7 +69977,7 @@
         <v>779</v>
       </c>
       <c r="B781">
-        <v>5177326</v>
+        <v>5177325</v>
       </c>
       <c r="C781" t="s">
         <v>28</v>
@@ -69989,76 +69989,76 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F781" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G781" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I781">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J781" t="s">
         <v>57</v>
       </c>
       <c r="K781">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="L781">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M781">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N781">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="O781">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P781">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q781">
+        <v>-0.25</v>
+      </c>
+      <c r="R781">
+        <v>2.075</v>
+      </c>
+      <c r="S781">
+        <v>1.725</v>
+      </c>
+      <c r="T781">
+        <v>2.25</v>
+      </c>
+      <c r="U781">
+        <v>1.875</v>
+      </c>
+      <c r="V781">
+        <v>1.975</v>
+      </c>
+      <c r="W781">
+        <v>-1</v>
+      </c>
+      <c r="X781">
+        <v>2.2</v>
+      </c>
+      <c r="Y781">
+        <v>-1</v>
+      </c>
+      <c r="Z781">
         <v>-0.5</v>
       </c>
-      <c r="R781">
-        <v>1.825</v>
-      </c>
-      <c r="S781">
-        <v>2.025</v>
-      </c>
-      <c r="T781">
-        <v>2.75</v>
-      </c>
-      <c r="U781">
-        <v>1.95</v>
-      </c>
-      <c r="V781">
-        <v>1.9</v>
-      </c>
-      <c r="W781">
-        <v>-1</v>
-      </c>
-      <c r="X781">
-        <v>2.6</v>
-      </c>
-      <c r="Y781">
-        <v>-1</v>
-      </c>
-      <c r="Z781">
-        <v>-1</v>
-      </c>
       <c r="AA781">
-        <v>1.025</v>
+        <v>0.3625</v>
       </c>
       <c r="AB781">
         <v>-1</v>
       </c>
       <c r="AC781">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="782" spans="1:29">
@@ -70081,7 +70081,7 @@
         <v>43</v>
       </c>
       <c r="G782" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H782">
         <v>7</v>
@@ -70790,7 +70790,7 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F790" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G790" t="s">
         <v>46</v>
@@ -70968,7 +70968,7 @@
         <v>44955.54513888889</v>
       </c>
       <c r="F792" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G792" t="s">
         <v>35</v>
@@ -71134,7 +71134,7 @@
         <v>792</v>
       </c>
       <c r="B794">
-        <v>5177345</v>
+        <v>5177340</v>
       </c>
       <c r="C794" t="s">
         <v>28</v>
@@ -71146,76 +71146,76 @@
         <v>44958.625</v>
       </c>
       <c r="F794" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G794" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H794">
+        <v>0</v>
+      </c>
+      <c r="I794">
+        <v>0</v>
+      </c>
+      <c r="J794" t="s">
+        <v>57</v>
+      </c>
+      <c r="K794">
+        <v>1.45</v>
+      </c>
+      <c r="L794">
+        <v>4.333</v>
+      </c>
+      <c r="M794">
+        <v>7</v>
+      </c>
+      <c r="N794">
+        <v>1.55</v>
+      </c>
+      <c r="O794">
         <v>4</v>
       </c>
-      <c r="I794">
-        <v>2</v>
-      </c>
-      <c r="J794" t="s">
-        <v>56</v>
-      </c>
-      <c r="K794">
-        <v>1.8</v>
-      </c>
-      <c r="L794">
-        <v>3.6</v>
-      </c>
-      <c r="M794">
-        <v>4.333</v>
-      </c>
-      <c r="N794">
-        <v>1.75</v>
-      </c>
-      <c r="O794">
-        <v>3.75</v>
-      </c>
       <c r="P794">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q794">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R794">
         <v>2</v>
       </c>
       <c r="S794">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="T794">
         <v>2.5</v>
       </c>
       <c r="U794">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V794">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W794">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X794">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y794">
         <v>-1</v>
       </c>
       <c r="Z794">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA794">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB794">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC794">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="795" spans="1:29">
@@ -71223,7 +71223,7 @@
         <v>793</v>
       </c>
       <c r="B795">
-        <v>5177340</v>
+        <v>5177345</v>
       </c>
       <c r="C795" t="s">
         <v>28</v>
@@ -71235,76 +71235,76 @@
         <v>44958.625</v>
       </c>
       <c r="F795" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G795" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I795">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J795" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K795">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="L795">
+        <v>3.6</v>
+      </c>
+      <c r="M795">
         <v>4.333</v>
       </c>
-      <c r="M795">
-        <v>7</v>
-      </c>
       <c r="N795">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="O795">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P795">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q795">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R795">
         <v>2</v>
       </c>
       <c r="S795">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="T795">
         <v>2.5</v>
       </c>
       <c r="U795">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V795">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W795">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X795">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y795">
         <v>-1</v>
       </c>
       <c r="Z795">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA795">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB795">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC795">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="796" spans="1:29">
@@ -71312,7 +71312,7 @@
         <v>794</v>
       </c>
       <c r="B796">
-        <v>5177338</v>
+        <v>5177346</v>
       </c>
       <c r="C796" t="s">
         <v>28</v>
@@ -71324,73 +71324,73 @@
         <v>44958.625</v>
       </c>
       <c r="F796" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G796" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H796">
+        <v>4</v>
+      </c>
+      <c r="I796">
         <v>1</v>
       </c>
-      <c r="I796">
-        <v>2</v>
-      </c>
       <c r="J796" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K796">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L796">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M796">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N796">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O796">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P796">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q796">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R796">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S796">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T796">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U796">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V796">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W796">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X796">
         <v>-1</v>
       </c>
       <c r="Y796">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z796">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA796">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB796">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC796">
         <v>-1</v>
@@ -71401,7 +71401,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>5177346</v>
+        <v>5177339</v>
       </c>
       <c r="C797" t="s">
         <v>28</v>
@@ -71413,76 +71413,76 @@
         <v>44958.625</v>
       </c>
       <c r="F797" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G797" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H797">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I797">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J797" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K797">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="L797">
         <v>3.6</v>
       </c>
       <c r="M797">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N797">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="O797">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P797">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q797">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R797">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S797">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T797">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U797">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V797">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W797">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X797">
         <v>-1</v>
       </c>
       <c r="Y797">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z797">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA797">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB797">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC797">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="798" spans="1:29">
@@ -71490,7 +71490,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>5177339</v>
+        <v>5177338</v>
       </c>
       <c r="C798" t="s">
         <v>28</v>
@@ -71502,13 +71502,13 @@
         <v>44958.625</v>
       </c>
       <c r="F798" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G798" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I798">
         <v>2</v>
@@ -71517,61 +71517,61 @@
         <v>55</v>
       </c>
       <c r="K798">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L798">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M798">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="N798">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="O798">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P798">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q798">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R798">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S798">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T798">
+        <v>2</v>
+      </c>
+      <c r="U798">
+        <v>1.925</v>
+      </c>
+      <c r="V798">
+        <v>1.925</v>
+      </c>
+      <c r="W798">
+        <v>-1</v>
+      </c>
+      <c r="X798">
+        <v>-1</v>
+      </c>
+      <c r="Y798">
         <v>2.5</v>
       </c>
-      <c r="U798">
-        <v>1.95</v>
-      </c>
-      <c r="V798">
-        <v>1.9</v>
-      </c>
-      <c r="W798">
-        <v>-1</v>
-      </c>
-      <c r="X798">
-        <v>-1</v>
-      </c>
-      <c r="Y798">
-        <v>0.7</v>
-      </c>
       <c r="Z798">
         <v>-1</v>
       </c>
       <c r="AA798">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB798">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC798">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="799" spans="1:29">
@@ -71861,7 +71861,7 @@
         <v>43</v>
       </c>
       <c r="G802" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H802">
         <v>3</v>
@@ -72570,7 +72570,7 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F810" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G810" t="s">
         <v>37</v>
@@ -72659,7 +72659,7 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F811" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G811" t="s">
         <v>33</v>
@@ -72929,7 +72929,7 @@
         <v>48</v>
       </c>
       <c r="G814" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H814">
         <v>3</v>
@@ -73374,7 +73374,7 @@
         <v>47</v>
       </c>
       <c r="G819" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H819">
         <v>1</v>
@@ -73816,7 +73816,7 @@
         <v>44974.70833333334</v>
       </c>
       <c r="F824" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G824" t="s">
         <v>35</v>
@@ -74442,7 +74442,7 @@
         <v>29</v>
       </c>
       <c r="G831" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H831">
         <v>3</v>
@@ -74976,7 +74976,7 @@
         <v>29</v>
       </c>
       <c r="G837" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H837">
         <v>0</v>
@@ -75062,7 +75062,7 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F838" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G838" t="s">
         <v>49</v>
@@ -75599,7 +75599,7 @@
         <v>48</v>
       </c>
       <c r="G844" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H844">
         <v>1</v>
@@ -75955,7 +75955,7 @@
         <v>37</v>
       </c>
       <c r="G848" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H848">
         <v>1</v>
@@ -76575,7 +76575,7 @@
         <v>44996.54166666666</v>
       </c>
       <c r="F855" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G855" t="s">
         <v>42</v>
@@ -77109,7 +77109,7 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F861" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G861" t="s">
         <v>46</v>
@@ -77643,7 +77643,7 @@
         <v>45004.375</v>
       </c>
       <c r="F867" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G867" t="s">
         <v>43</v>
@@ -77824,7 +77824,7 @@
         <v>31</v>
       </c>
       <c r="G869" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H869">
         <v>2</v>
@@ -78355,7 +78355,7 @@
         <v>45017.5</v>
       </c>
       <c r="F875" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G875" t="s">
         <v>49</v>
@@ -78803,7 +78803,7 @@
         <v>50</v>
       </c>
       <c r="G880" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H880">
         <v>2</v>
@@ -79779,10 +79779,10 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F891" t="s">
+        <v>53</v>
+      </c>
+      <c r="G891" t="s">
         <v>52</v>
-      </c>
-      <c r="G891" t="s">
-        <v>53</v>
       </c>
       <c r="H891">
         <v>0</v>
@@ -80405,7 +80405,7 @@
         <v>31</v>
       </c>
       <c r="G898" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H898">
         <v>3</v>
@@ -80669,7 +80669,7 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F901" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G901" t="s">
         <v>33</v>
@@ -81025,7 +81025,7 @@
         <v>45038.5</v>
       </c>
       <c r="F905" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G905" t="s">
         <v>36</v>
@@ -81381,7 +81381,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F909" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G909" t="s">
         <v>30</v>
@@ -81918,7 +81918,7 @@
         <v>36</v>
       </c>
       <c r="G915" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H915">
         <v>3</v>
@@ -82452,7 +82452,7 @@
         <v>38</v>
       </c>
       <c r="G921" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H921">
         <v>2</v>
@@ -83072,7 +83072,7 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F928" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G928" t="s">
         <v>51</v>
@@ -83161,7 +83161,7 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F929" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G929" t="s">
         <v>50</v>
@@ -83787,7 +83787,7 @@
         <v>45</v>
       </c>
       <c r="G936" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H936">
         <v>5</v>
@@ -84054,7 +84054,7 @@
         <v>30</v>
       </c>
       <c r="G939" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H939">
         <v>1</v>
@@ -84763,7 +84763,7 @@
         <v>45067.33333333334</v>
       </c>
       <c r="F947" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G947" t="s">
         <v>42</v>
@@ -85297,7 +85297,7 @@
         <v>45067.65625</v>
       </c>
       <c r="F953" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G953" t="s">
         <v>45</v>
@@ -85656,7 +85656,7 @@
         <v>41</v>
       </c>
       <c r="G957" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H957">
         <v>3</v>
@@ -86012,7 +86012,7 @@
         <v>51</v>
       </c>
       <c r="G961" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H961">
         <v>1</v>
@@ -86276,7 +86276,7 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F964" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G964" t="s">
         <v>38</v>
@@ -86543,7 +86543,7 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F967" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G967" t="s">
         <v>41</v>
@@ -101127,7 +101127,7 @@
         <v>1129</v>
       </c>
       <c r="B1131">
-        <v>6847984</v>
+        <v>6847982</v>
       </c>
       <c r="C1131" t="s">
         <v>28</v>
@@ -101139,55 +101139,55 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F1131" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1131" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1131" t="s">
         <v>55</v>
       </c>
       <c r="K1131">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="L1131">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M1131">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="N1131">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O1131">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P1131">
+        <v>3.8</v>
+      </c>
+      <c r="Q1131">
+        <v>-0.5</v>
+      </c>
+      <c r="R1131">
+        <v>1.9</v>
+      </c>
+      <c r="S1131">
+        <v>1.95</v>
+      </c>
+      <c r="T1131">
         <v>2.5</v>
       </c>
-      <c r="Q1131">
-        <v>0</v>
-      </c>
-      <c r="R1131">
-        <v>2.025</v>
-      </c>
-      <c r="S1131">
-        <v>1.825</v>
-      </c>
-      <c r="T1131">
-        <v>2.25</v>
-      </c>
       <c r="U1131">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V1131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W1131">
         <v>-1</v>
@@ -101196,19 +101196,19 @@
         <v>-1</v>
       </c>
       <c r="Y1131">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="Z1131">
         <v>-1</v>
       </c>
       <c r="AA1131">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB1131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC1131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1132" spans="1:29">
@@ -101216,7 +101216,7 @@
         <v>1130</v>
       </c>
       <c r="B1132">
-        <v>6847985</v>
+        <v>6847984</v>
       </c>
       <c r="C1132" t="s">
         <v>28</v>
@@ -101228,76 +101228,76 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F1132" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G1132" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H1132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1132">
+        <v>1</v>
+      </c>
+      <c r="J1132" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1132">
+        <v>2.9</v>
+      </c>
+      <c r="L1132">
+        <v>3.3</v>
+      </c>
+      <c r="M1132">
+        <v>2.4</v>
+      </c>
+      <c r="N1132">
+        <v>2.875</v>
+      </c>
+      <c r="O1132">
+        <v>3.2</v>
+      </c>
+      <c r="P1132">
+        <v>2.5</v>
+      </c>
+      <c r="Q1132">
         <v>0</v>
       </c>
-      <c r="J1132" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1132">
+      <c r="R1132">
+        <v>2.025</v>
+      </c>
+      <c r="S1132">
+        <v>1.825</v>
+      </c>
+      <c r="T1132">
+        <v>2.25</v>
+      </c>
+      <c r="U1132">
+        <v>2.05</v>
+      </c>
+      <c r="V1132">
         <v>1.8</v>
       </c>
-      <c r="L1132">
-        <v>3.75</v>
-      </c>
-      <c r="M1132">
-        <v>4.333</v>
-      </c>
-      <c r="N1132">
-        <v>1.8</v>
-      </c>
-      <c r="O1132">
-        <v>3.75</v>
-      </c>
-      <c r="P1132">
-        <v>4.5</v>
-      </c>
-      <c r="Q1132">
-        <v>-0.75</v>
-      </c>
-      <c r="R1132">
-        <v>2.05</v>
-      </c>
-      <c r="S1132">
-        <v>1.8</v>
-      </c>
-      <c r="T1132">
-        <v>2.5</v>
-      </c>
-      <c r="U1132">
-        <v>2.025</v>
-      </c>
-      <c r="V1132">
-        <v>1.825</v>
-      </c>
       <c r="W1132">
+        <v>-1</v>
+      </c>
+      <c r="X1132">
+        <v>-1</v>
+      </c>
+      <c r="Y1132">
+        <v>1.5</v>
+      </c>
+      <c r="Z1132">
+        <v>-1</v>
+      </c>
+      <c r="AA1132">
+        <v>0.825</v>
+      </c>
+      <c r="AB1132">
+        <v>-1</v>
+      </c>
+      <c r="AC1132">
         <v>0.8</v>
-      </c>
-      <c r="X1132">
-        <v>-1</v>
-      </c>
-      <c r="Y1132">
-        <v>-1</v>
-      </c>
-      <c r="Z1132">
-        <v>1.05</v>
-      </c>
-      <c r="AA1132">
-        <v>-1</v>
-      </c>
-      <c r="AB1132">
-        <v>-1</v>
-      </c>
-      <c r="AC1132">
-        <v>0.825</v>
       </c>
     </row>
     <row r="1133" spans="1:29">
@@ -101305,7 +101305,7 @@
         <v>1131</v>
       </c>
       <c r="B1133">
-        <v>6847982</v>
+        <v>6847985</v>
       </c>
       <c r="C1133" t="s">
         <v>28</v>
@@ -101317,76 +101317,76 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F1133" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G1133" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H1133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1133" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1133">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L1133">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M1133">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="N1133">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O1133">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P1133">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q1133">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R1133">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S1133">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T1133">
         <v>2.5</v>
       </c>
       <c r="U1133">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V1133">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W1133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X1133">
         <v>-1</v>
       </c>
       <c r="Y1133">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z1133">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA1133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB1133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC1133">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="1134" spans="1:29">
@@ -101928,7 +101928,7 @@
         <v>1138</v>
       </c>
       <c r="B1140">
-        <v>6847993</v>
+        <v>6847992</v>
       </c>
       <c r="C1140" t="s">
         <v>28</v>
@@ -101940,76 +101940,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F1140" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G1140" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H1140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1140" t="s">
         <v>57</v>
       </c>
       <c r="K1140">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L1140">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M1140">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="N1140">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="O1140">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P1140">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q1140">
+        <v>0.25</v>
+      </c>
+      <c r="R1140">
+        <v>1.8</v>
+      </c>
+      <c r="S1140">
+        <v>2.05</v>
+      </c>
+      <c r="T1140">
+        <v>2.25</v>
+      </c>
+      <c r="U1140">
+        <v>1.85</v>
+      </c>
+      <c r="V1140">
+        <v>2</v>
+      </c>
+      <c r="W1140">
+        <v>-1</v>
+      </c>
+      <c r="X1140">
+        <v>2.3</v>
+      </c>
+      <c r="Y1140">
+        <v>-1</v>
+      </c>
+      <c r="Z1140">
+        <v>0.4</v>
+      </c>
+      <c r="AA1140">
         <v>-0.5</v>
       </c>
-      <c r="R1140">
-        <v>2</v>
-      </c>
-      <c r="S1140">
-        <v>1.93</v>
-      </c>
-      <c r="T1140">
-        <v>2.5</v>
-      </c>
-      <c r="U1140">
-        <v>2.07</v>
-      </c>
-      <c r="V1140">
-        <v>1.83</v>
-      </c>
-      <c r="W1140">
-        <v>-1</v>
-      </c>
-      <c r="X1140">
-        <v>2.4</v>
-      </c>
-      <c r="Y1140">
-        <v>-1</v>
-      </c>
-      <c r="Z1140">
-        <v>-1</v>
-      </c>
-      <c r="AA1140">
-        <v>0.9299999999999999</v>
-      </c>
       <c r="AB1140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1140">
-        <v>0.8300000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1141" spans="1:29">
@@ -102017,7 +102017,7 @@
         <v>1139</v>
       </c>
       <c r="B1141">
-        <v>6847992</v>
+        <v>6847989</v>
       </c>
       <c r="C1141" t="s">
         <v>28</v>
@@ -102029,76 +102029,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F1141" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G1141" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H1141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1141" t="s">
         <v>57</v>
       </c>
       <c r="K1141">
+        <v>2.5</v>
+      </c>
+      <c r="L1141">
+        <v>3.25</v>
+      </c>
+      <c r="M1141">
         <v>2.8</v>
       </c>
-      <c r="L1141">
-        <v>3.6</v>
-      </c>
-      <c r="M1141">
-        <v>2.3</v>
-      </c>
       <c r="N1141">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O1141">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P1141">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="Q1141">
         <v>0.25</v>
       </c>
       <c r="R1141">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S1141">
-        <v>2.05</v>
+        <v>2.125</v>
       </c>
       <c r="T1141">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1141">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V1141">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W1141">
         <v>-1</v>
       </c>
       <c r="X1141">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y1141">
         <v>-1</v>
       </c>
       <c r="Z1141">
-        <v>0.4</v>
+        <v>0.405</v>
       </c>
       <c r="AA1141">
         <v>-0.5</v>
       </c>
       <c r="AB1141">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC1141">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1142" spans="1:29">
@@ -102106,7 +102106,7 @@
         <v>1140</v>
       </c>
       <c r="B1142">
-        <v>6847989</v>
+        <v>6847993</v>
       </c>
       <c r="C1142" t="s">
         <v>28</v>
@@ -102118,76 +102118,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F1142" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G1142" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="H1142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1142" t="s">
         <v>57</v>
       </c>
       <c r="K1142">
+        <v>2</v>
+      </c>
+      <c r="L1142">
+        <v>3.5</v>
+      </c>
+      <c r="M1142">
+        <v>3.6</v>
+      </c>
+      <c r="N1142">
+        <v>1.95</v>
+      </c>
+      <c r="O1142">
+        <v>3.4</v>
+      </c>
+      <c r="P1142">
+        <v>4</v>
+      </c>
+      <c r="Q1142">
+        <v>-0.5</v>
+      </c>
+      <c r="R1142">
+        <v>2</v>
+      </c>
+      <c r="S1142">
+        <v>1.93</v>
+      </c>
+      <c r="T1142">
         <v>2.5</v>
       </c>
-      <c r="L1142">
-        <v>3.25</v>
-      </c>
-      <c r="M1142">
-        <v>2.8</v>
-      </c>
-      <c r="N1142">
-        <v>3.1</v>
-      </c>
-      <c r="O1142">
-        <v>3.1</v>
-      </c>
-      <c r="P1142">
-        <v>2.5</v>
-      </c>
-      <c r="Q1142">
-        <v>0.25</v>
-      </c>
-      <c r="R1142">
-        <v>1.81</v>
-      </c>
-      <c r="S1142">
-        <v>2.125</v>
-      </c>
-      <c r="T1142">
-        <v>2</v>
-      </c>
       <c r="U1142">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="V1142">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="W1142">
         <v>-1</v>
       </c>
       <c r="X1142">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y1142">
         <v>-1</v>
       </c>
       <c r="Z1142">
-        <v>0.405</v>
+        <v>-1</v>
       </c>
       <c r="AA1142">
-        <v>-0.5</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB1142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC1142">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="1143" spans="1:29">
@@ -102403,7 +102403,7 @@
         <v>6</v>
       </c>
       <c r="O1145">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P1145">
         <v>1.5</v>
@@ -102480,25 +102480,25 @@
         <v>4</v>
       </c>
       <c r="P1146">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q1146">
         <v>-0.75</v>
       </c>
       <c r="R1146">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S1146">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="T1146">
         <v>2.5</v>
       </c>
       <c r="U1146">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V1146">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="W1146">
         <v>0</v>
@@ -102548,22 +102548,22 @@
         <v>2.1</v>
       </c>
       <c r="N1147">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O1147">
         <v>3.3</v>
       </c>
       <c r="P1147">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="Q1147">
         <v>0.25</v>
       </c>
       <c r="R1147">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="S1147">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="T1147">
         <v>2.5</v>
@@ -102622,31 +102622,31 @@
         <v>6</v>
       </c>
       <c r="N1148">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O1148">
         <v>4.333</v>
       </c>
       <c r="P1148">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q1148">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R1148">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="S1148">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="T1148">
         <v>2.75</v>
       </c>
       <c r="U1148">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V1148">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W1148">
         <v>0</v>
@@ -102669,7 +102669,7 @@
         <v>1147</v>
       </c>
       <c r="B1149">
-        <v>7728866</v>
+        <v>7728862</v>
       </c>
       <c r="C1149" t="s">
         <v>28</v>
@@ -102681,46 +102681,46 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F1149" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G1149" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="K1149">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L1149">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M1149">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="N1149">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O1149">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P1149">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q1149">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R1149">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="S1149">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T1149">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U1149">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="V1149">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="W1149">
         <v>0</v>
@@ -102743,7 +102743,7 @@
         <v>1148</v>
       </c>
       <c r="B1150">
-        <v>7728862</v>
+        <v>7728864</v>
       </c>
       <c r="C1150" t="s">
         <v>28</v>
@@ -102755,46 +102755,46 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F1150" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1150" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1150">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L1150">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M1150">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="N1150">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="O1150">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P1150">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="Q1150">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1150">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="S1150">
-        <v>2.03</v>
+        <v>1.89</v>
       </c>
       <c r="T1150">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1150">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="V1150">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="W1150">
         <v>0</v>
@@ -102817,7 +102817,7 @@
         <v>1149</v>
       </c>
       <c r="B1151">
-        <v>7728864</v>
+        <v>7728866</v>
       </c>
       <c r="C1151" t="s">
         <v>28</v>
@@ -102829,46 +102829,46 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F1151" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G1151" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K1151">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L1151">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M1151">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="N1151">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="O1151">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P1151">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q1151">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R1151">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="S1151">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="T1151">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U1151">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V1151">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W1151">
         <v>0</v>
@@ -102921,19 +102921,19 @@
         <v>2.45</v>
       </c>
       <c r="O1152">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P1152">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q1152">
         <v>0</v>
       </c>
       <c r="R1152">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S1152">
-        <v>2.1</v>
+        <v>2.125</v>
       </c>
       <c r="T1152">
         <v>2</v>
@@ -102992,31 +102992,31 @@
         <v>2.4</v>
       </c>
       <c r="N1153">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="O1153">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P1153">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q1153">
         <v>0</v>
       </c>
       <c r="R1153">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="S1153">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="T1153">
         <v>2.5</v>
       </c>
       <c r="U1153">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="V1153">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="W1153">
         <v>0</v>

--- a/France Ligue 1/France Ligue 1.xlsx
+++ b/France Ligue 1/France Ligue 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -133,16 +133,16 @@
     <t>Rennes</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Clermont Foot</t>
+    <t>AC Ajaccio</t>
   </si>
   <si>
     <t>Auxerre</t>
   </si>
   <si>
-    <t>AC Ajaccio</t>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Clermont Foot</t>
   </si>
   <si>
     <t>Troyes</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC420"/>
+  <dimension ref="A1:AC422"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,7 +649,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -827,7 +827,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -916,7 +916,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1005,7 +1005,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6081167</v>
+        <v>6081163</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1539,73 +1539,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="L12">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M12">
+        <v>2.5</v>
+      </c>
+      <c r="N12">
+        <v>3.3</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>2.375</v>
+      </c>
+      <c r="Q12">
+        <v>0.25</v>
+      </c>
+      <c r="R12">
+        <v>1.825</v>
+      </c>
+      <c r="S12">
+        <v>2.025</v>
+      </c>
+      <c r="T12">
         <v>2</v>
       </c>
-      <c r="N12">
-        <v>4.5</v>
-      </c>
-      <c r="O12">
-        <v>3.75</v>
-      </c>
-      <c r="P12">
-        <v>1.8</v>
-      </c>
-      <c r="Q12">
-        <v>0.75</v>
-      </c>
-      <c r="R12">
+      <c r="U12">
         <v>1.85</v>
       </c>
-      <c r="S12">
-        <v>2.08</v>
-      </c>
-      <c r="T12">
-        <v>2.5</v>
-      </c>
-      <c r="U12">
-        <v>1.94</v>
-      </c>
       <c r="V12">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z12">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1613,7 +1613,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6081165</v>
+        <v>6081164</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1628,70 +1628,70 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="L13">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M13">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="N13">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O13">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P13">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R13">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W13">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z13">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1702,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6081164</v>
+        <v>6081166</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1714,76 +1714,76 @@
         <v>44937.625</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="L14">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M14">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O14">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Q14">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R14">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S14">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V14">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y14">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA14">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1791,7 +1791,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6081163</v>
+        <v>6081167</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1803,76 +1803,76 @@
         <v>44937.625</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="L15">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>4.5</v>
+      </c>
+      <c r="O15">
+        <v>3.75</v>
+      </c>
+      <c r="P15">
+        <v>1.8</v>
+      </c>
+      <c r="Q15">
+        <v>0.75</v>
+      </c>
+      <c r="R15">
+        <v>1.85</v>
+      </c>
+      <c r="S15">
+        <v>2.08</v>
+      </c>
+      <c r="T15">
         <v>2.5</v>
       </c>
-      <c r="N15">
-        <v>3.3</v>
-      </c>
-      <c r="O15">
-        <v>3</v>
-      </c>
-      <c r="P15">
-        <v>2.375</v>
-      </c>
-      <c r="Q15">
-        <v>0.25</v>
-      </c>
-      <c r="R15">
-        <v>1.825</v>
-      </c>
-      <c r="S15">
-        <v>2.025</v>
-      </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
       <c r="U15">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y15">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA15">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1880,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6081166</v>
+        <v>6081165</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1892,76 +1892,76 @@
         <v>44937.625</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="L16">
         <v>3.5</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="N16">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P16">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="Q16">
         <v>0.5</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S16">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X16">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2429,7 +2429,7 @@
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2770,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5177317</v>
+        <v>5177326</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2782,76 +2782,76 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K26">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L26">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M26">
+        <v>3.5</v>
+      </c>
+      <c r="N26">
+        <v>1.85</v>
+      </c>
+      <c r="O26">
+        <v>3.6</v>
+      </c>
+      <c r="P26">
+        <v>4.2</v>
+      </c>
+      <c r="Q26">
+        <v>-0.5</v>
+      </c>
+      <c r="R26">
+        <v>1.825</v>
+      </c>
+      <c r="S26">
+        <v>2.025</v>
+      </c>
+      <c r="T26">
         <v>2.75</v>
       </c>
-      <c r="N26">
-        <v>2.375</v>
-      </c>
-      <c r="O26">
-        <v>3.4</v>
-      </c>
-      <c r="P26">
-        <v>3</v>
-      </c>
-      <c r="Q26">
-        <v>-0.25</v>
-      </c>
-      <c r="R26">
-        <v>2</v>
-      </c>
-      <c r="S26">
-        <v>1.85</v>
-      </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
       <c r="U26">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V26">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y26">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5177320</v>
+        <v>5177317</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2871,25 +2871,25 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
         <v>52</v>
       </c>
       <c r="K27">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L27">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M27">
         <v>2.75</v>
@@ -2898,28 +2898,28 @@
         <v>2.375</v>
       </c>
       <c r="O27">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P27">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q27">
         <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2928,16 +2928,16 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.8400000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB27">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2948,7 +2948,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5177326</v>
+        <v>5177320</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2960,76 +2960,76 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="L28">
         <v>3.4</v>
       </c>
       <c r="M28">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N28">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P28">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>1.825</v>
+        <v>2.09</v>
       </c>
       <c r="S28">
-        <v>2.025</v>
+        <v>1.84</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>1.025</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3141,7 +3141,7 @@
         <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H30">
         <v>7</v>
@@ -3672,7 +3672,7 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
         <v>31</v>
@@ -3749,7 +3749,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5177335</v>
+        <v>5177334</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3761,73 +3761,73 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L37">
         <v>3.5</v>
       </c>
       <c r="M37">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N37">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O37">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P37">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q37">
         <v>-0.25</v>
       </c>
       <c r="R37">
+        <v>2.05</v>
+      </c>
+      <c r="S37">
+        <v>1.8</v>
+      </c>
+      <c r="T37">
+        <v>2.5</v>
+      </c>
+      <c r="U37">
         <v>1.85</v>
       </c>
-      <c r="S37">
+      <c r="V37">
         <v>2</v>
       </c>
-      <c r="T37">
-        <v>2.25</v>
-      </c>
-      <c r="U37">
-        <v>1.875</v>
-      </c>
-      <c r="V37">
-        <v>1.975</v>
-      </c>
       <c r="W37">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z37">
+        <v>-1</v>
+      </c>
+      <c r="AA37">
+        <v>0.8</v>
+      </c>
+      <c r="AB37">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
-      <c r="AB37">
-        <v>0.875</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3838,7 +3838,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5177334</v>
+        <v>5177335</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3850,73 +3850,73 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L38">
         <v>3.5</v>
       </c>
       <c r="M38">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N38">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P38">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -3939,7 +3939,7 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
         <v>37</v>
@@ -4028,7 +4028,7 @@
         <v>44955.54513888889</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
         <v>33</v>
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5177340</v>
+        <v>5177338</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,76 +4206,76 @@
         <v>44958.625</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="L42">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M42">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="N42">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P42">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
+        <v>1.95</v>
+      </c>
+      <c r="S42">
+        <v>1.9</v>
+      </c>
+      <c r="T42">
         <v>2</v>
       </c>
-      <c r="S42">
-        <v>1.93</v>
-      </c>
-      <c r="T42">
+      <c r="U42">
+        <v>1.925</v>
+      </c>
+      <c r="V42">
+        <v>1.925</v>
+      </c>
+      <c r="W42">
+        <v>-1</v>
+      </c>
+      <c r="X42">
+        <v>-1</v>
+      </c>
+      <c r="Y42">
         <v>2.5</v>
       </c>
-      <c r="U42">
-        <v>1.975</v>
-      </c>
-      <c r="V42">
-        <v>1.875</v>
-      </c>
-      <c r="W42">
-        <v>-1</v>
-      </c>
-      <c r="X42">
-        <v>3</v>
-      </c>
-      <c r="Y42">
-        <v>-1</v>
-      </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.9299999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4283,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5177345</v>
+        <v>5177339</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4295,76 +4295,76 @@
         <v>44958.625</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="L43">
         <v>3.6</v>
       </c>
       <c r="M43">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N43">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="O43">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P43">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q43">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4372,7 +4372,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5177338</v>
+        <v>5177340</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4384,76 +4384,76 @@
         <v>44958.625</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
         <v>42</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>53</v>
+      </c>
+      <c r="K44">
+        <v>1.45</v>
+      </c>
+      <c r="L44">
+        <v>4.333</v>
+      </c>
+      <c r="M44">
+        <v>7</v>
+      </c>
+      <c r="N44">
+        <v>1.55</v>
+      </c>
+      <c r="O44">
+        <v>4</v>
+      </c>
+      <c r="P44">
+        <v>6.5</v>
+      </c>
+      <c r="Q44">
+        <v>-1</v>
+      </c>
+      <c r="R44">
         <v>2</v>
       </c>
-      <c r="J44" t="s">
-        <v>52</v>
-      </c>
-      <c r="K44">
-        <v>2.2</v>
-      </c>
-      <c r="L44">
-        <v>3.25</v>
-      </c>
-      <c r="M44">
-        <v>3.25</v>
-      </c>
-      <c r="N44">
-        <v>2.25</v>
-      </c>
-      <c r="O44">
-        <v>3.1</v>
-      </c>
-      <c r="P44">
-        <v>3.5</v>
-      </c>
-      <c r="Q44">
-        <v>-0.25</v>
-      </c>
-      <c r="R44">
-        <v>1.95</v>
-      </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T44">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y44">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.8999999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB44">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4461,7 +4461,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5177339</v>
+        <v>5177345</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4473,76 +4473,76 @@
         <v>44958.625</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I45">
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K45">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="L45">
         <v>3.6</v>
       </c>
       <c r="M45">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="N45">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="O45">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P45">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q45">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R45">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
         <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA45">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4728,7 +4728,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5177337</v>
+        <v>5177342</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4740,61 +4740,61 @@
         <v>44958.70833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
         <v>41</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>53</v>
+      </c>
+      <c r="K48">
+        <v>1.5</v>
+      </c>
+      <c r="L48">
+        <v>4.333</v>
+      </c>
+      <c r="M48">
+        <v>6</v>
+      </c>
+      <c r="N48">
+        <v>1.5</v>
+      </c>
+      <c r="O48">
+        <v>4.333</v>
+      </c>
+      <c r="P48">
+        <v>6.5</v>
+      </c>
+      <c r="Q48">
+        <v>-1</v>
+      </c>
+      <c r="R48">
+        <v>1.85</v>
+      </c>
+      <c r="S48">
         <v>2</v>
       </c>
-      <c r="J48" t="s">
-        <v>51</v>
-      </c>
-      <c r="K48">
-        <v>1.333</v>
-      </c>
-      <c r="L48">
-        <v>5</v>
-      </c>
-      <c r="M48">
-        <v>8.5</v>
-      </c>
-      <c r="N48">
-        <v>1.333</v>
-      </c>
-      <c r="O48">
-        <v>5</v>
-      </c>
-      <c r="P48">
-        <v>8.5</v>
-      </c>
-      <c r="Q48">
-        <v>-1.5</v>
-      </c>
-      <c r="R48">
-        <v>2.02</v>
-      </c>
-      <c r="S48">
-        <v>1.91</v>
-      </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W48">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y48">
         <v>-1</v>
@@ -4803,13 +4803,13 @@
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.9099999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB48">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4817,7 +4817,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5177341</v>
+        <v>5177337</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4829,73 +4829,73 @@
         <v>44958.70833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>51</v>
+      </c>
+      <c r="K49">
+        <v>1.333</v>
+      </c>
+      <c r="L49">
+        <v>5</v>
+      </c>
+      <c r="M49">
+        <v>8.5</v>
+      </c>
+      <c r="N49">
+        <v>1.333</v>
+      </c>
+      <c r="O49">
+        <v>5</v>
+      </c>
+      <c r="P49">
+        <v>8.5</v>
+      </c>
+      <c r="Q49">
+        <v>-1.5</v>
+      </c>
+      <c r="R49">
+        <v>2.02</v>
+      </c>
+      <c r="S49">
+        <v>1.91</v>
+      </c>
+      <c r="T49">
         <v>3</v>
       </c>
-      <c r="J49" t="s">
-        <v>52</v>
-      </c>
-      <c r="K49">
-        <v>8.5</v>
-      </c>
-      <c r="L49">
-        <v>5.5</v>
-      </c>
-      <c r="M49">
-        <v>1.3</v>
-      </c>
-      <c r="N49">
-        <v>8.5</v>
-      </c>
-      <c r="O49">
-        <v>6</v>
-      </c>
-      <c r="P49">
-        <v>1.285</v>
-      </c>
-      <c r="Q49">
-        <v>1.75</v>
-      </c>
-      <c r="R49">
-        <v>1.825</v>
-      </c>
-      <c r="S49">
-        <v>2.025</v>
-      </c>
-      <c r="T49">
-        <v>3.25</v>
-      </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.5125</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB49">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4906,7 +4906,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5177342</v>
+        <v>5177341</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4918,76 +4918,76 @@
         <v>44958.70833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K50">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="L50">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="M50">
+        <v>1.3</v>
+      </c>
+      <c r="N50">
+        <v>8.5</v>
+      </c>
+      <c r="O50">
         <v>6</v>
       </c>
-      <c r="N50">
-        <v>1.5</v>
-      </c>
-      <c r="O50">
-        <v>4.333</v>
-      </c>
       <c r="P50">
-        <v>6.5</v>
+        <v>1.285</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R50">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S50">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA50">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC50">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5363,7 +5363,7 @@
         <v>44962.375</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s">
         <v>32</v>
@@ -5529,7 +5529,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5177353</v>
+        <v>5177348</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5541,67 +5541,67 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K57">
+        <v>3.25</v>
+      </c>
+      <c r="L57">
+        <v>3.4</v>
+      </c>
+      <c r="M57">
+        <v>2.2</v>
+      </c>
+      <c r="N57">
+        <v>3.8</v>
+      </c>
+      <c r="O57">
+        <v>3.6</v>
+      </c>
+      <c r="P57">
+        <v>1.909</v>
+      </c>
+      <c r="Q57">
+        <v>0.5</v>
+      </c>
+      <c r="R57">
+        <v>1.9</v>
+      </c>
+      <c r="S57">
         <v>1.95</v>
-      </c>
-      <c r="L57">
-        <v>3.3</v>
-      </c>
-      <c r="M57">
-        <v>4.2</v>
-      </c>
-      <c r="N57">
-        <v>2.05</v>
-      </c>
-      <c r="O57">
-        <v>3.3</v>
-      </c>
-      <c r="P57">
-        <v>3.8</v>
-      </c>
-      <c r="Q57">
-        <v>-0.5</v>
-      </c>
-      <c r="R57">
-        <v>2.05</v>
-      </c>
-      <c r="S57">
-        <v>1.75</v>
       </c>
       <c r="T57">
         <v>2.5</v>
       </c>
       <c r="U57">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W57">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA57">
         <v>-1</v>
@@ -5610,7 +5610,7 @@
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5177348</v>
+        <v>5177347</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,76 +5630,76 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K58">
+        <v>2.625</v>
+      </c>
+      <c r="L58">
+        <v>3.2</v>
+      </c>
+      <c r="M58">
+        <v>2.75</v>
+      </c>
+      <c r="N58">
+        <v>2.55</v>
+      </c>
+      <c r="O58">
+        <v>2.9</v>
+      </c>
+      <c r="P58">
+        <v>3</v>
+      </c>
+      <c r="Q58">
         <v>0</v>
       </c>
-      <c r="J58" t="s">
-        <v>53</v>
-      </c>
-      <c r="K58">
-        <v>3.25</v>
-      </c>
-      <c r="L58">
-        <v>3.4</v>
-      </c>
-      <c r="M58">
-        <v>2.2</v>
-      </c>
-      <c r="N58">
-        <v>3.8</v>
-      </c>
-      <c r="O58">
-        <v>3.6</v>
-      </c>
-      <c r="P58">
-        <v>1.909</v>
-      </c>
-      <c r="Q58">
-        <v>0.5</v>
-      </c>
       <c r="R58">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S58">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U58">
+        <v>1.775</v>
+      </c>
+      <c r="V58">
+        <v>2.1</v>
+      </c>
+      <c r="W58">
+        <v>-1</v>
+      </c>
+      <c r="X58">
+        <v>-1</v>
+      </c>
+      <c r="Y58">
         <v>2</v>
       </c>
-      <c r="V58">
-        <v>1.85</v>
-      </c>
-      <c r="W58">
-        <v>-1</v>
-      </c>
-      <c r="X58">
-        <v>2.6</v>
-      </c>
-      <c r="Y58">
-        <v>-1</v>
-      </c>
       <c r="Z58">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC58">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5177347</v>
+        <v>5177353</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,76 +5719,76 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
         <v>0</v>
       </c>
-      <c r="I59">
-        <v>2</v>
-      </c>
       <c r="J59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K59">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L59">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M59">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="N59">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="O59">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P59">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S59">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T59">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V59">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA59">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5808,7 +5808,7 @@
         <v>44962.54513888889</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
         <v>34</v>
@@ -5989,7 +5989,7 @@
         <v>45</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H62">
         <v>3</v>
@@ -6164,7 +6164,7 @@
         <v>44968.70833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s">
         <v>47</v>
@@ -6434,7 +6434,7 @@
         <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6612,7 +6612,7 @@
         <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6876,7 +6876,7 @@
         <v>44974.70833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G72" t="s">
         <v>33</v>
@@ -7235,7 +7235,7 @@
         <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7413,7 +7413,7 @@
         <v>44</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -7499,7 +7499,7 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G79" t="s">
         <v>32</v>
@@ -7769,7 +7769,7 @@
         <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -8036,7 +8036,7 @@
         <v>44</v>
       </c>
       <c r="G85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8122,7 +8122,7 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s">
         <v>35</v>
@@ -8211,7 +8211,7 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
         <v>43</v>
@@ -8659,7 +8659,7 @@
         <v>45</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -9015,7 +9015,7 @@
         <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9104,7 +9104,7 @@
         <v>48</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9193,7 +9193,7 @@
         <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>44996.54166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
         <v>38</v>
@@ -9724,7 +9724,7 @@
         <v>44996.70833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G104" t="s">
         <v>46</v>
@@ -9813,7 +9813,7 @@
         <v>44997.375</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
         <v>34</v>
@@ -10080,7 +10080,7 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
         <v>37</v>
@@ -10703,7 +10703,7 @@
         <v>45004.375</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G115" t="s">
         <v>32</v>
@@ -10795,7 +10795,7 @@
         <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10884,7 +10884,7 @@
         <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -11062,7 +11062,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11415,7 +11415,7 @@
         <v>45017.5</v>
       </c>
       <c r="F123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G123" t="s">
         <v>43</v>
@@ -11682,7 +11682,7 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G126" t="s">
         <v>29</v>
@@ -11771,10 +11771,10 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12664,7 +12664,7 @@
         <v>48</v>
       </c>
       <c r="G137" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12738,7 +12738,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5177436</v>
+        <v>5177427</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12750,7 +12750,7 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
         <v>40</v>
@@ -12759,46 +12759,46 @@
         <v>0</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
         <v>52</v>
       </c>
       <c r="K138">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="L138">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M138">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N138">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O138">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="P138">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q138">
         <v>0</v>
       </c>
       <c r="R138">
-        <v>2.11</v>
+        <v>1.85</v>
       </c>
       <c r="S138">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="T138">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U138">
-        <v>1.87</v>
+        <v>1.975</v>
       </c>
       <c r="V138">
-        <v>2.03</v>
+        <v>1.875</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12807,19 +12807,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.8200000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB138">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC138">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12827,7 +12827,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5177427</v>
+        <v>5177436</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12839,55 +12839,55 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F139" t="s">
+        <v>43</v>
+      </c>
+      <c r="G139" t="s">
         <v>42</v>
-      </c>
-      <c r="G139" t="s">
-        <v>41</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
         <v>52</v>
       </c>
       <c r="K139">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="L139">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M139">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N139">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O139">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="P139">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q139">
         <v>0</v>
       </c>
       <c r="R139">
-        <v>1.85</v>
+        <v>2.11</v>
       </c>
       <c r="S139">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="T139">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>1.87</v>
       </c>
       <c r="V139">
-        <v>1.875</v>
+        <v>2.03</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12896,19 +12896,19 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB139">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13462,7 +13462,7 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G146" t="s">
         <v>30</v>
@@ -13551,7 +13551,7 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G147" t="s">
         <v>45</v>
@@ -13640,7 +13640,7 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G148" t="s">
         <v>31</v>
@@ -13732,7 +13732,7 @@
         <v>35</v>
       </c>
       <c r="G149" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -14085,7 +14085,7 @@
         <v>45038.5</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G153" t="s">
         <v>36</v>
@@ -14355,7 +14355,7 @@
         <v>45</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14441,10 +14441,10 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14978,7 +14978,7 @@
         <v>36</v>
       </c>
       <c r="G163" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H163">
         <v>3</v>
@@ -15242,7 +15242,7 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G166" t="s">
         <v>48</v>
@@ -15512,7 +15512,7 @@
         <v>47</v>
       </c>
       <c r="G169" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -15687,7 +15687,7 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G171" t="s">
         <v>31</v>
@@ -16120,7 +16120,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5540067</v>
+        <v>5534524</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16132,76 +16132,76 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H176">
         <v>0</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K176">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="L176">
         <v>3.4</v>
       </c>
       <c r="M176">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="N176">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="O176">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P176">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="Q176">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R176">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S176">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T176">
         <v>2.25</v>
       </c>
       <c r="U176">
+        <v>1.825</v>
+      </c>
+      <c r="V176">
         <v>2.025</v>
       </c>
-      <c r="V176">
-        <v>1.825</v>
-      </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y176">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA176">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5540066</v>
+        <v>5540067</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16221,76 +16221,76 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K177">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L177">
+        <v>3.4</v>
+      </c>
+      <c r="M177">
+        <v>2.7</v>
+      </c>
+      <c r="N177">
+        <v>2.7</v>
+      </c>
+      <c r="O177">
         <v>3.3</v>
       </c>
-      <c r="M177">
-        <v>3.1</v>
-      </c>
-      <c r="N177">
-        <v>2.4</v>
-      </c>
-      <c r="O177">
-        <v>3.4</v>
-      </c>
       <c r="P177">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R177">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S177">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T177">
         <v>2.25</v>
       </c>
       <c r="U177">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V177">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB177">
         <v>-0.5</v>
       </c>
       <c r="AC177">
-        <v>0.4875</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16298,7 +16298,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5534524</v>
+        <v>5540066</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16310,76 +16310,76 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F178" t="s">
+        <v>40</v>
+      </c>
+      <c r="G178" t="s">
         <v>42</v>
       </c>
-      <c r="G178" t="s">
-        <v>29</v>
-      </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
         <v>53</v>
       </c>
       <c r="K178">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="L178">
+        <v>3.3</v>
+      </c>
+      <c r="M178">
+        <v>3.1</v>
+      </c>
+      <c r="N178">
+        <v>2.4</v>
+      </c>
+      <c r="O178">
         <v>3.4</v>
       </c>
-      <c r="M178">
-        <v>2.2</v>
-      </c>
-      <c r="N178">
-        <v>3.6</v>
-      </c>
-      <c r="O178">
-        <v>3.6</v>
-      </c>
       <c r="P178">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="Q178">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S178">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V178">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC178">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16402,7 +16402,7 @@
         <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16847,7 +16847,7 @@
         <v>46</v>
       </c>
       <c r="G184" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H184">
         <v>5</v>
@@ -16933,7 +16933,7 @@
         <v>45060.33333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G185" t="s">
         <v>33</v>
@@ -17111,10 +17111,10 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G187" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17823,7 +17823,7 @@
         <v>45067.33333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G195" t="s">
         <v>38</v>
@@ -17989,7 +17989,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>5579235</v>
+        <v>5579233</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18001,76 +18001,76 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G197" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
         <v>53</v>
       </c>
       <c r="K197">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="L197">
         <v>3.8</v>
       </c>
       <c r="M197">
-        <v>4.333</v>
+        <v>1.7</v>
       </c>
       <c r="N197">
+        <v>7.5</v>
+      </c>
+      <c r="O197">
+        <v>5.25</v>
+      </c>
+      <c r="P197">
+        <v>1.4</v>
+      </c>
+      <c r="Q197">
+        <v>1.25</v>
+      </c>
+      <c r="R197">
         <v>2</v>
       </c>
-      <c r="O197">
-        <v>3.8</v>
-      </c>
-      <c r="P197">
-        <v>3.4</v>
-      </c>
-      <c r="Q197">
-        <v>-0.5</v>
-      </c>
-      <c r="R197">
-        <v>2.025</v>
-      </c>
       <c r="S197">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T197">
         <v>3</v>
       </c>
       <c r="U197">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V197">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W197">
         <v>-1</v>
       </c>
       <c r="X197">
-        <v>2.8</v>
+        <v>4.25</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA197">
+        <v>-1</v>
+      </c>
+      <c r="AB197">
+        <v>-1</v>
+      </c>
+      <c r="AC197">
         <v>0.825</v>
-      </c>
-      <c r="AB197">
-        <v>-1</v>
-      </c>
-      <c r="AC197">
-        <v>0.95</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18078,7 +18078,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>5579236</v>
+        <v>5579235</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18090,37 +18090,37 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G198" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198" t="s">
+        <v>53</v>
+      </c>
+      <c r="K198">
+        <v>1.727</v>
+      </c>
+      <c r="L198">
+        <v>3.8</v>
+      </c>
+      <c r="M198">
+        <v>4.333</v>
+      </c>
+      <c r="N198">
         <v>2</v>
       </c>
-      <c r="I198">
-        <v>1</v>
-      </c>
-      <c r="J198" t="s">
-        <v>51</v>
-      </c>
-      <c r="K198">
-        <v>2.05</v>
-      </c>
-      <c r="L198">
+      <c r="O198">
+        <v>3.8</v>
+      </c>
+      <c r="P198">
         <v>3.4</v>
-      </c>
-      <c r="M198">
-        <v>3.4</v>
-      </c>
-      <c r="N198">
-        <v>2.05</v>
-      </c>
-      <c r="O198">
-        <v>3.6</v>
-      </c>
-      <c r="P198">
-        <v>3.6</v>
       </c>
       <c r="Q198">
         <v>-0.5</v>
@@ -18132,34 +18132,34 @@
         <v>1.825</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U198">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W198">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB198">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18167,7 +18167,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>5579233</v>
+        <v>5579236</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18179,76 +18179,76 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G199" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199">
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K199">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="L199">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M199">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="N199">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="O199">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P199">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q199">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S199">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T199">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U199">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V199">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X199">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA199">
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC199">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18357,7 +18357,7 @@
         <v>45067.65625</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G201" t="s">
         <v>46</v>
@@ -18449,7 +18449,7 @@
         <v>47</v>
       </c>
       <c r="G202" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18627,7 +18627,7 @@
         <v>34</v>
       </c>
       <c r="G204" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H204">
         <v>3</v>
@@ -18879,7 +18879,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>5611342</v>
+        <v>5611340</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18891,40 +18891,40 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G207" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K207">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="L207">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M207">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N207">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O207">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P207">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q207">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R207">
         <v>1.825</v>
@@ -18933,34 +18933,34 @@
         <v>2.025</v>
       </c>
       <c r="T207">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U207">
+        <v>1.975</v>
+      </c>
+      <c r="V207">
         <v>1.875</v>
       </c>
-      <c r="V207">
-        <v>1.975</v>
-      </c>
       <c r="W207">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X207">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA207">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
         <v>-1</v>
       </c>
       <c r="AC207">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18968,7 +18968,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>5611340</v>
+        <v>5611339</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18980,13 +18980,13 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G208" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H208">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I208">
         <v>0</v>
@@ -18995,43 +18995,43 @@
         <v>51</v>
       </c>
       <c r="K208">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="L208">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M208">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N208">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O208">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P208">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q208">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S208">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T208">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U208">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V208">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W208">
-        <v>0.6659999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19040,7 +19040,7 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA208">
         <v>-1</v>
@@ -19049,7 +19049,7 @@
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19057,7 +19057,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>5611339</v>
+        <v>5611342</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19069,76 +19069,76 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F209" t="s">
+        <v>29</v>
+      </c>
+      <c r="G209" t="s">
         <v>40</v>
       </c>
-      <c r="G209" t="s">
-        <v>44</v>
-      </c>
       <c r="H209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K209">
         <v>2.15</v>
       </c>
       <c r="L209">
+        <v>3.4</v>
+      </c>
+      <c r="M209">
         <v>3.3</v>
       </c>
-      <c r="M209">
-        <v>3.4</v>
-      </c>
       <c r="N209">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O209">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P209">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q209">
         <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S209">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T209">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U209">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V209">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W209">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19324,7 +19324,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>5642021</v>
+        <v>5644619</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19336,58 +19336,58 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G212" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H212">
+        <v>3</v>
+      </c>
+      <c r="I212">
         <v>1</v>
-      </c>
-      <c r="I212">
-        <v>0</v>
       </c>
       <c r="J212" t="s">
         <v>51</v>
       </c>
       <c r="K212">
-        <v>1.444</v>
+        <v>2.45</v>
       </c>
       <c r="L212">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M212">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="N212">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O212">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P212">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="Q212">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R212">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S212">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U212">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V212">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W212">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19396,16 +19396,16 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA212">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC212">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19413,7 +19413,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>5644619</v>
+        <v>5642185</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19425,73 +19425,73 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G213" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H213">
+        <v>2</v>
+      </c>
+      <c r="I213">
         <v>3</v>
       </c>
-      <c r="I213">
-        <v>1</v>
-      </c>
       <c r="J213" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K213">
-        <v>2.45</v>
+        <v>1.285</v>
       </c>
       <c r="L213">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M213">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="N213">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O213">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P213">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="Q213">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R213">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S213">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T213">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U213">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V213">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W213">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z213">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB213">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19502,7 +19502,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>5642185</v>
+        <v>5642021</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19514,76 +19514,76 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G214" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K214">
-        <v>1.285</v>
+        <v>1.444</v>
       </c>
       <c r="L214">
+        <v>4.5</v>
+      </c>
+      <c r="M214">
+        <v>7</v>
+      </c>
+      <c r="N214">
+        <v>1.5</v>
+      </c>
+      <c r="O214">
+        <v>4.5</v>
+      </c>
+      <c r="P214">
         <v>6</v>
       </c>
-      <c r="M214">
-        <v>9</v>
-      </c>
-      <c r="N214">
-        <v>1.3</v>
-      </c>
-      <c r="O214">
-        <v>6.5</v>
-      </c>
-      <c r="P214">
-        <v>8</v>
-      </c>
       <c r="Q214">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R214">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S214">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T214">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U214">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V214">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA214">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB214">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19692,7 +19692,7 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G216" t="s">
         <v>38</v>
@@ -19781,7 +19781,7 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F217" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G217" t="s">
         <v>47</v>
@@ -20137,7 +20137,7 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G221" t="s">
         <v>34</v>
@@ -20493,7 +20493,7 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G225" t="s">
         <v>34</v>
@@ -20582,7 +20582,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G226" t="s">
         <v>32</v>
@@ -21386,7 +21386,7 @@
         <v>50</v>
       </c>
       <c r="G235" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21475,7 +21475,7 @@
         <v>48</v>
       </c>
       <c r="G236" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H236">
         <v>2</v>
@@ -21920,7 +21920,7 @@
         <v>47</v>
       </c>
       <c r="G241" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H241">
         <v>2</v>
@@ -22362,7 +22362,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G246" t="s">
         <v>49</v>
@@ -22718,7 +22718,7 @@
         <v>45171.5</v>
       </c>
       <c r="F250" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G250" t="s">
         <v>38</v>
@@ -22899,7 +22899,7 @@
         <v>29</v>
       </c>
       <c r="G252" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H252">
         <v>2</v>
@@ -23774,7 +23774,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6847861</v>
+        <v>6847866</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23786,46 +23786,46 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F262" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G262" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262" t="s">
+        <v>52</v>
+      </c>
+      <c r="K262">
+        <v>1.95</v>
+      </c>
+      <c r="L262">
+        <v>3.5</v>
+      </c>
+      <c r="M262">
+        <v>3.7</v>
+      </c>
+      <c r="N262">
+        <v>1.85</v>
+      </c>
+      <c r="O262">
+        <v>3.75</v>
+      </c>
+      <c r="P262">
+        <v>4</v>
+      </c>
+      <c r="Q262">
+        <v>-0.5</v>
+      </c>
+      <c r="R262">
+        <v>1.85</v>
+      </c>
+      <c r="S262">
         <v>2</v>
-      </c>
-      <c r="I262">
-        <v>2</v>
-      </c>
-      <c r="J262" t="s">
-        <v>53</v>
-      </c>
-      <c r="K262">
-        <v>2.1</v>
-      </c>
-      <c r="L262">
-        <v>3.6</v>
-      </c>
-      <c r="M262">
-        <v>3.2</v>
-      </c>
-      <c r="N262">
-        <v>2.9</v>
-      </c>
-      <c r="O262">
-        <v>3.5</v>
-      </c>
-      <c r="P262">
-        <v>2.45</v>
-      </c>
-      <c r="Q262">
-        <v>0.25</v>
-      </c>
-      <c r="R262">
-        <v>1.8</v>
-      </c>
-      <c r="S262">
-        <v>2.05</v>
       </c>
       <c r="T262">
         <v>2.5</v>
@@ -23840,22 +23840,22 @@
         <v>-1</v>
       </c>
       <c r="X262">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y262">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z262">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA262">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB262">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC262">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23863,7 +23863,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6847866</v>
+        <v>6847867</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23875,34 +23875,34 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F263" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G263" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J263" t="s">
         <v>52</v>
       </c>
       <c r="K263">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="L263">
         <v>3.5</v>
       </c>
       <c r="M263">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="N263">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O263">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P263">
         <v>4</v>
@@ -23911,19 +23911,19 @@
         <v>-0.5</v>
       </c>
       <c r="R263">
+        <v>2</v>
+      </c>
+      <c r="S263">
         <v>1.85</v>
-      </c>
-      <c r="S263">
-        <v>2</v>
       </c>
       <c r="T263">
         <v>2.5</v>
       </c>
       <c r="U263">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V263">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W263">
         <v>-1</v>
@@ -23938,13 +23938,13 @@
         <v>-1</v>
       </c>
       <c r="AA263">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC263">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23952,7 +23952,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6847867</v>
+        <v>6847861</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23964,73 +23964,73 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G264" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264">
         <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K264">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L264">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M264">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N264">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="O264">
         <v>3.5</v>
       </c>
       <c r="P264">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q264">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R264">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S264">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T264">
         <v>2.5</v>
       </c>
       <c r="U264">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V264">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W264">
         <v>-1</v>
       </c>
       <c r="X264">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y264">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA264">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB264">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC264">
         <v>-1</v>
@@ -24409,7 +24409,7 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F269" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G269" t="s">
         <v>33</v>
@@ -24590,7 +24590,7 @@
         <v>50</v>
       </c>
       <c r="G271" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H271">
         <v>2</v>
@@ -25121,7 +25121,7 @@
         <v>45199.5</v>
       </c>
       <c r="F277" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G277" t="s">
         <v>46</v>
@@ -25391,7 +25391,7 @@
         <v>45</v>
       </c>
       <c r="G280" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H280">
         <v>0</v>
@@ -26278,7 +26278,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F290" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G290" t="s">
         <v>29</v>
@@ -26993,7 +26993,7 @@
         <v>36</v>
       </c>
       <c r="G298" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H298">
         <v>1</v>
@@ -27260,7 +27260,7 @@
         <v>33</v>
       </c>
       <c r="G301" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -27346,7 +27346,7 @@
         <v>45226.66666666666</v>
       </c>
       <c r="F302" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G302" t="s">
         <v>45</v>
@@ -27613,7 +27613,7 @@
         <v>45228.375</v>
       </c>
       <c r="F305" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G305" t="s">
         <v>46</v>
@@ -27779,7 +27779,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6847911</v>
+        <v>6847912</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27791,76 +27791,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F307" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G307" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I307">
         <v>0</v>
       </c>
       <c r="J307" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K307">
-        <v>2.25</v>
+        <v>1.869</v>
       </c>
       <c r="L307">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M307">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N307">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="O307">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P307">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q307">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R307">
+        <v>1.85</v>
+      </c>
+      <c r="S307">
         <v>2</v>
       </c>
-      <c r="S307">
-        <v>1.85</v>
-      </c>
       <c r="T307">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U307">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="V307">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W307">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X307">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y307">
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA307">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB307">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC307">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27868,7 +27868,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6847912</v>
+        <v>6847911</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27880,76 +27880,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F308" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G308" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H308">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308">
         <v>0</v>
       </c>
       <c r="J308" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K308">
-        <v>1.869</v>
+        <v>2.25</v>
       </c>
       <c r="L308">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M308">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N308">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="O308">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P308">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q308">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R308">
+        <v>2</v>
+      </c>
+      <c r="S308">
         <v>1.85</v>
       </c>
-      <c r="S308">
-        <v>2</v>
-      </c>
       <c r="T308">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U308">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="V308">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="W308">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X308">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y308">
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA308">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB308">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC308">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -28595,7 +28595,7 @@
         <v>35</v>
       </c>
       <c r="G316" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H316">
         <v>0</v>
@@ -28684,7 +28684,7 @@
         <v>32</v>
       </c>
       <c r="G317" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H317">
         <v>2</v>
@@ -29126,7 +29126,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F322" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G322" t="s">
         <v>44</v>
@@ -29660,7 +29660,7 @@
         <v>45255.54166666666</v>
       </c>
       <c r="F328" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G328" t="s">
         <v>34</v>
@@ -30108,7 +30108,7 @@
         <v>37</v>
       </c>
       <c r="G333" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H333">
         <v>1</v>
@@ -30375,7 +30375,7 @@
         <v>37</v>
       </c>
       <c r="G336" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H336">
         <v>1</v>
@@ -30906,10 +30906,10 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F342" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G342" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H342">
         <v>3</v>
@@ -31351,7 +31351,7 @@
         <v>45267.6875</v>
       </c>
       <c r="F347" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G347" t="s">
         <v>35</v>
@@ -31799,7 +31799,7 @@
         <v>49</v>
       </c>
       <c r="G352" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H352">
         <v>0</v>
@@ -31885,7 +31885,7 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F353" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G353" t="s">
         <v>36</v>
@@ -32511,7 +32511,7 @@
         <v>31</v>
       </c>
       <c r="G360" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H360">
         <v>0</v>
@@ -32674,7 +32674,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>6847959</v>
+        <v>6847961</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32686,76 +32686,76 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F362" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G362" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I362">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J362" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K362">
+        <v>2.3</v>
+      </c>
+      <c r="L362">
+        <v>3.25</v>
+      </c>
+      <c r="M362">
+        <v>3.1</v>
+      </c>
+      <c r="N362">
+        <v>2.375</v>
+      </c>
+      <c r="O362">
         <v>3.2</v>
       </c>
-      <c r="L362">
-        <v>3.5</v>
-      </c>
-      <c r="M362">
-        <v>2.15</v>
-      </c>
-      <c r="N362">
-        <v>3.2</v>
-      </c>
-      <c r="O362">
-        <v>3.4</v>
-      </c>
       <c r="P362">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q362">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R362">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S362">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T362">
         <v>2.25</v>
       </c>
       <c r="U362">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V362">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W362">
         <v>-1</v>
       </c>
       <c r="X362">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y362">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z362">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA362">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB362">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC362">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="363" spans="1:29">
@@ -32763,7 +32763,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>6847961</v>
+        <v>6847959</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32775,76 +32775,76 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F363" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G363" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J363" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K363">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L363">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M363">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="N363">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="O363">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P363">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q363">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R363">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S363">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T363">
         <v>2.25</v>
       </c>
       <c r="U363">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V363">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W363">
         <v>-1</v>
       </c>
       <c r="X363">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y363">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z363">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA363">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB363">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC363">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="364" spans="1:29">
@@ -32867,7 +32867,7 @@
         <v>47</v>
       </c>
       <c r="G364" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H364">
         <v>2</v>
@@ -33030,7 +33030,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6847976</v>
+        <v>7579908</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33042,73 +33042,73 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F366" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G366" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H366">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I366">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J366" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K366">
-        <v>1.615</v>
+        <v>3.25</v>
       </c>
       <c r="L366">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M366">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N366">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="O366">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P366">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q366">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R366">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S366">
-        <v>1.975</v>
+        <v>2.08</v>
       </c>
       <c r="T366">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U366">
-        <v>2.025</v>
+        <v>2.11</v>
       </c>
       <c r="V366">
-        <v>1.825</v>
+        <v>1.79</v>
       </c>
       <c r="W366">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X366">
         <v>-1</v>
       </c>
       <c r="Y366">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z366">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA366">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AB366">
-        <v>1.025</v>
+        <v>1.11</v>
       </c>
       <c r="AC366">
         <v>-1</v>
@@ -33119,7 +33119,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6847975</v>
+        <v>6847976</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33131,76 +33131,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F367" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G367" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J367" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K367">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="L367">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M367">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="N367">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="O367">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P367">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q367">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R367">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S367">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T367">
         <v>2.5</v>
       </c>
       <c r="U367">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V367">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W367">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X367">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y367">
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA367">
         <v>-1</v>
       </c>
       <c r="AB367">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC367">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33208,7 +33208,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>6847972</v>
+        <v>6847975</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33220,76 +33220,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F368" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G368" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J368" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K368">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="L368">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M368">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="N368">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="O368">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P368">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="Q368">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R368">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="S368">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="T368">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U368">
-        <v>1.99</v>
+        <v>1.925</v>
       </c>
       <c r="V368">
-        <v>1.91</v>
+        <v>1.925</v>
       </c>
       <c r="W368">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X368">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y368">
         <v>-1</v>
       </c>
       <c r="Z368">
-        <v>0.99</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA368">
         <v>-1</v>
       </c>
       <c r="AB368">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC368">
-        <v>0.455</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -33297,7 +33297,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>6847971</v>
+        <v>6847972</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33309,13 +33309,13 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F369" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G369" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I369">
         <v>0</v>
@@ -33324,61 +33324,61 @@
         <v>51</v>
       </c>
       <c r="K369">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L369">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M369">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N369">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O369">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P369">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q369">
+        <v>-0.25</v>
+      </c>
+      <c r="R369">
+        <v>1.99</v>
+      </c>
+      <c r="S369">
+        <v>1.94</v>
+      </c>
+      <c r="T369">
+        <v>2.25</v>
+      </c>
+      <c r="U369">
+        <v>1.99</v>
+      </c>
+      <c r="V369">
+        <v>1.91</v>
+      </c>
+      <c r="W369">
+        <v>1.25</v>
+      </c>
+      <c r="X369">
+        <v>-1</v>
+      </c>
+      <c r="Y369">
+        <v>-1</v>
+      </c>
+      <c r="Z369">
+        <v>0.99</v>
+      </c>
+      <c r="AA369">
+        <v>-1</v>
+      </c>
+      <c r="AB369">
         <v>-0.5</v>
       </c>
-      <c r="R369">
-        <v>1.95</v>
-      </c>
-      <c r="S369">
-        <v>1.98</v>
-      </c>
-      <c r="T369">
-        <v>2.5</v>
-      </c>
-      <c r="U369">
-        <v>2.02</v>
-      </c>
-      <c r="V369">
-        <v>1.88</v>
-      </c>
-      <c r="W369">
-        <v>0.8</v>
-      </c>
-      <c r="X369">
-        <v>-1</v>
-      </c>
-      <c r="Y369">
-        <v>-1</v>
-      </c>
-      <c r="Z369">
-        <v>0.95</v>
-      </c>
-      <c r="AA369">
-        <v>-1</v>
-      </c>
-      <c r="AB369">
-        <v>-1</v>
-      </c>
       <c r="AC369">
-        <v>0.8799999999999999</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="370" spans="1:29">
@@ -33386,7 +33386,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>6847970</v>
+        <v>6847971</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33398,76 +33398,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F370" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G370" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H370">
         <v>1</v>
       </c>
       <c r="I370">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J370" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K370">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="L370">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M370">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="N370">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="O370">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P370">
-        <v>1.85</v>
+        <v>4.333</v>
       </c>
       <c r="Q370">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R370">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S370">
-        <v>1.875</v>
+        <v>1.98</v>
       </c>
       <c r="T370">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U370">
-        <v>1.925</v>
+        <v>2.02</v>
       </c>
       <c r="V370">
-        <v>1.925</v>
+        <v>1.88</v>
       </c>
       <c r="W370">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X370">
         <v>-1</v>
       </c>
       <c r="Y370">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z370">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA370">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB370">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC370">
-        <v>-0</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="371" spans="1:29">
@@ -33475,7 +33475,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>6847974</v>
+        <v>6847970</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33487,40 +33487,40 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F371" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G371" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H371">
         <v>1</v>
       </c>
       <c r="I371">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J371" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K371">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="L371">
+        <v>3.8</v>
+      </c>
+      <c r="M371">
+        <v>1.75</v>
+      </c>
+      <c r="N371">
+        <v>3.75</v>
+      </c>
+      <c r="O371">
         <v>4</v>
       </c>
-      <c r="M371">
-        <v>5</v>
-      </c>
-      <c r="N371">
-        <v>1.727</v>
-      </c>
-      <c r="O371">
-        <v>3.8</v>
-      </c>
       <c r="P371">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q371">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R371">
         <v>1.975</v>
@@ -33529,7 +33529,7 @@
         <v>1.875</v>
       </c>
       <c r="T371">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U371">
         <v>1.925</v>
@@ -33538,25 +33538,25 @@
         <v>1.925</v>
       </c>
       <c r="W371">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X371">
         <v>-1</v>
       </c>
       <c r="Y371">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z371">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA371">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB371">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC371">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33564,7 +33564,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6847969</v>
+        <v>6847968</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33576,13 +33576,13 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F372" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G372" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I372">
         <v>1</v>
@@ -33591,43 +33591,43 @@
         <v>51</v>
       </c>
       <c r="K372">
-        <v>4</v>
+        <v>1.142</v>
       </c>
       <c r="L372">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="M372">
-        <v>1.95</v>
+        <v>17</v>
       </c>
       <c r="N372">
-        <v>3.6</v>
+        <v>1.111</v>
       </c>
       <c r="O372">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="P372">
-        <v>2.05</v>
+        <v>23</v>
       </c>
       <c r="Q372">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R372">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="S372">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="T372">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U372">
-        <v>2.025</v>
+        <v>1.87</v>
       </c>
       <c r="V372">
-        <v>1.825</v>
+        <v>2.03</v>
       </c>
       <c r="W372">
-        <v>2.6</v>
+        <v>0.111</v>
       </c>
       <c r="X372">
         <v>-1</v>
@@ -33636,13 +33636,13 @@
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA372">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
       <c r="AB372">
-        <v>1.025</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC372">
         <v>-1</v>
@@ -33653,7 +33653,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6847968</v>
+        <v>6847969</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33665,13 +33665,13 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F373" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G373" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H373">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I373">
         <v>1</v>
@@ -33680,43 +33680,43 @@
         <v>51</v>
       </c>
       <c r="K373">
-        <v>1.142</v>
+        <v>4</v>
       </c>
       <c r="L373">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="M373">
-        <v>17</v>
+        <v>1.95</v>
       </c>
       <c r="N373">
-        <v>1.111</v>
+        <v>3.6</v>
       </c>
       <c r="O373">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="P373">
-        <v>23</v>
+        <v>2.05</v>
       </c>
       <c r="Q373">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R373">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="S373">
-        <v>2.06</v>
+        <v>1.8</v>
       </c>
       <c r="T373">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U373">
-        <v>1.87</v>
+        <v>2.025</v>
       </c>
       <c r="V373">
-        <v>2.03</v>
+        <v>1.825</v>
       </c>
       <c r="W373">
-        <v>0.111</v>
+        <v>2.6</v>
       </c>
       <c r="X373">
         <v>-1</v>
@@ -33725,13 +33725,13 @@
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA373">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
       <c r="AB373">
-        <v>0.8700000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC373">
         <v>-1</v>
@@ -33742,7 +33742,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>7579908</v>
+        <v>6847974</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33754,76 +33754,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F374" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G374" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H374">
         <v>1</v>
       </c>
       <c r="I374">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J374" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K374">
-        <v>3.25</v>
+        <v>1.65</v>
       </c>
       <c r="L374">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M374">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="N374">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="O374">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P374">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q374">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R374">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S374">
-        <v>2.08</v>
+        <v>1.875</v>
       </c>
       <c r="T374">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U374">
-        <v>2.11</v>
+        <v>1.925</v>
       </c>
       <c r="V374">
-        <v>1.79</v>
+        <v>1.925</v>
       </c>
       <c r="W374">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X374">
         <v>-1</v>
       </c>
       <c r="Y374">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z374">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA374">
-        <v>1.08</v>
+        <v>-0.5</v>
       </c>
       <c r="AB374">
-        <v>1.11</v>
+        <v>-1</v>
       </c>
       <c r="AC374">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -34276,7 +34276,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>6847982</v>
+        <v>6847985</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34288,76 +34288,76 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F380" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G380" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I380">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J380" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K380">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L380">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M380">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="N380">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O380">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P380">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q380">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R380">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S380">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T380">
         <v>2.5</v>
       </c>
       <c r="U380">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V380">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W380">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X380">
         <v>-1</v>
       </c>
       <c r="Y380">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z380">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA380">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB380">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC380">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -34365,7 +34365,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>6847985</v>
+        <v>6847982</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34377,76 +34377,76 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F381" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G381" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H381">
+        <v>1</v>
+      </c>
+      <c r="I381">
         <v>2</v>
       </c>
-      <c r="I381">
-        <v>0</v>
-      </c>
       <c r="J381" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K381">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L381">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M381">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N381">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O381">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P381">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q381">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R381">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S381">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T381">
         <v>2.5</v>
       </c>
       <c r="U381">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V381">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W381">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X381">
         <v>-1</v>
       </c>
       <c r="Y381">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z381">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA381">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB381">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC381">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="382" spans="1:29">
@@ -35178,7 +35178,7 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F390" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G390" t="s">
         <v>35</v>
@@ -35359,7 +35359,7 @@
         <v>46</v>
       </c>
       <c r="G392" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H392">
         <v>2</v>
@@ -35982,7 +35982,7 @@
         <v>36</v>
       </c>
       <c r="G399" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H399">
         <v>4</v>
@@ -36068,7 +36068,7 @@
         <v>45326.54513888889</v>
       </c>
       <c r="F400" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G400" t="s">
         <v>45</v>
@@ -36780,10 +36780,10 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F408" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G408" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H408">
         <v>1</v>
@@ -37151,31 +37151,31 @@
         <v>6.5</v>
       </c>
       <c r="N412">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="O412">
         <v>4.333</v>
       </c>
       <c r="P412">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q412">
         <v>-1</v>
       </c>
       <c r="R412">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="S412">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T412">
         <v>2.25</v>
       </c>
       <c r="U412">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V412">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="W412">
         <v>0</v>
@@ -37225,31 +37225,31 @@
         <v>1.533</v>
       </c>
       <c r="N413">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="O413">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P413">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q413">
         <v>1.25</v>
       </c>
       <c r="R413">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="S413">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="T413">
         <v>3</v>
       </c>
       <c r="U413">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V413">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="W413">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>-0.75</v>
       </c>
       <c r="R415">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S415">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T415">
         <v>2.25</v>
@@ -37459,10 +37459,10 @@
         <v>-1</v>
       </c>
       <c r="R416">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S416">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="T416">
         <v>3</v>
@@ -37509,7 +37509,7 @@
         <v>38</v>
       </c>
       <c r="G417" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K417">
         <v>1.5</v>
@@ -37542,10 +37542,10 @@
         <v>2.75</v>
       </c>
       <c r="U417">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="V417">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W417">
         <v>0</v>
@@ -37654,7 +37654,7 @@
         <v>45340.69791666666</v>
       </c>
       <c r="F419" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G419" t="s">
         <v>47</v>
@@ -37678,13 +37678,13 @@
         <v>3.1</v>
       </c>
       <c r="Q419">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R419">
+        <v>1.77</v>
+      </c>
+      <c r="S419">
         <v>2.14</v>
-      </c>
-      <c r="S419">
-        <v>1.77</v>
       </c>
       <c r="T419">
         <v>2.25</v>
@@ -37743,31 +37743,31 @@
         <v>1.95</v>
       </c>
       <c r="N420">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O420">
         <v>3.6</v>
       </c>
       <c r="P420">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q420">
         <v>0.5</v>
       </c>
       <c r="R420">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S420">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T420">
         <v>2.5</v>
       </c>
       <c r="U420">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="V420">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W420">
         <v>0</v>
@@ -37782,6 +37782,154 @@
         <v>0</v>
       </c>
       <c r="AA420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:27">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421">
+        <v>6848026</v>
+      </c>
+      <c r="C421" t="s">
+        <v>28</v>
+      </c>
+      <c r="D421" t="s">
+        <v>28</v>
+      </c>
+      <c r="E421" s="2">
+        <v>45346.54166666666</v>
+      </c>
+      <c r="F421" t="s">
+        <v>44</v>
+      </c>
+      <c r="G421" t="s">
+        <v>31</v>
+      </c>
+      <c r="K421">
+        <v>2.55</v>
+      </c>
+      <c r="L421">
+        <v>3.2</v>
+      </c>
+      <c r="M421">
+        <v>2.8</v>
+      </c>
+      <c r="N421">
+        <v>2.55</v>
+      </c>
+      <c r="O421">
+        <v>3.2</v>
+      </c>
+      <c r="P421">
+        <v>2.875</v>
+      </c>
+      <c r="Q421">
+        <v>0</v>
+      </c>
+      <c r="R421">
+        <v>1.84</v>
+      </c>
+      <c r="S421">
+        <v>2.06</v>
+      </c>
+      <c r="T421">
+        <v>2.25</v>
+      </c>
+      <c r="U421">
+        <v>1.95</v>
+      </c>
+      <c r="V421">
+        <v>1.95</v>
+      </c>
+      <c r="W421">
+        <v>0</v>
+      </c>
+      <c r="X421">
+        <v>0</v>
+      </c>
+      <c r="Y421">
+        <v>0</v>
+      </c>
+      <c r="Z421">
+        <v>0</v>
+      </c>
+      <c r="AA421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:27">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422">
+        <v>6848023</v>
+      </c>
+      <c r="C422" t="s">
+        <v>28</v>
+      </c>
+      <c r="D422" t="s">
+        <v>28</v>
+      </c>
+      <c r="E422" s="2">
+        <v>45346.70833333334</v>
+      </c>
+      <c r="F422" t="s">
+        <v>35</v>
+      </c>
+      <c r="G422" t="s">
+        <v>41</v>
+      </c>
+      <c r="K422">
+        <v>2.75</v>
+      </c>
+      <c r="L422">
+        <v>3</v>
+      </c>
+      <c r="M422">
+        <v>2.75</v>
+      </c>
+      <c r="N422">
+        <v>2.75</v>
+      </c>
+      <c r="O422">
+        <v>3</v>
+      </c>
+      <c r="P422">
+        <v>2.75</v>
+      </c>
+      <c r="Q422">
+        <v>0</v>
+      </c>
+      <c r="R422">
+        <v>1.95</v>
+      </c>
+      <c r="S422">
+        <v>1.95</v>
+      </c>
+      <c r="T422">
+        <v>2.25</v>
+      </c>
+      <c r="U422">
+        <v>2.01</v>
+      </c>
+      <c r="V422">
+        <v>1.89</v>
+      </c>
+      <c r="W422">
+        <v>0</v>
+      </c>
+      <c r="X422">
+        <v>0</v>
+      </c>
+      <c r="Y422">
+        <v>0</v>
+      </c>
+      <c r="Z422">
+        <v>0</v>
+      </c>
+      <c r="AA422">
         <v>0</v>
       </c>
     </row>

--- a/France Ligue 1/France Ligue 1.xlsx
+++ b/France Ligue 1/France Ligue 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -133,16 +133,16 @@
     <t>Rennes</t>
   </si>
   <si>
-    <t>AC Ajaccio</t>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Clermont Foot</t>
   </si>
   <si>
     <t>Auxerre</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Clermont Foot</t>
+    <t>AC Ajaccio</t>
   </si>
   <si>
     <t>Troyes</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC422"/>
+  <dimension ref="A1:AC420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,7 +649,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -827,7 +827,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -916,7 +916,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1005,7 +1005,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6081163</v>
+        <v>6081167</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1539,73 +1539,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="L12">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>4.5</v>
+      </c>
+      <c r="O12">
+        <v>3.75</v>
+      </c>
+      <c r="P12">
+        <v>1.8</v>
+      </c>
+      <c r="Q12">
+        <v>0.75</v>
+      </c>
+      <c r="R12">
+        <v>1.85</v>
+      </c>
+      <c r="S12">
+        <v>2.08</v>
+      </c>
+      <c r="T12">
         <v>2.5</v>
       </c>
-      <c r="N12">
-        <v>3.3</v>
-      </c>
-      <c r="O12">
-        <v>3</v>
-      </c>
-      <c r="P12">
-        <v>2.375</v>
-      </c>
-      <c r="Q12">
-        <v>0.25</v>
-      </c>
-      <c r="R12">
-        <v>1.825</v>
-      </c>
-      <c r="S12">
-        <v>2.025</v>
-      </c>
-      <c r="T12">
-        <v>2</v>
-      </c>
       <c r="U12">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y12">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA12">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1613,7 +1613,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6081164</v>
+        <v>6081165</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1628,70 +1628,70 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="L13">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M13">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O13">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P13">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q13">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S13">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA13">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1702,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6081166</v>
+        <v>6081164</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1714,76 +1714,76 @@
         <v>44937.625</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="L14">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="N14">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P14">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Q14">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S14">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC14">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1791,7 +1791,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6081167</v>
+        <v>6081163</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1803,76 +1803,76 @@
         <v>44937.625</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M15">
+        <v>2.5</v>
+      </c>
+      <c r="N15">
+        <v>3.3</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>2.375</v>
+      </c>
+      <c r="Q15">
+        <v>0.25</v>
+      </c>
+      <c r="R15">
+        <v>1.825</v>
+      </c>
+      <c r="S15">
+        <v>2.025</v>
+      </c>
+      <c r="T15">
         <v>2</v>
       </c>
-      <c r="N15">
-        <v>4.5</v>
-      </c>
-      <c r="O15">
-        <v>3.75</v>
-      </c>
-      <c r="P15">
-        <v>1.8</v>
-      </c>
-      <c r="Q15">
-        <v>0.75</v>
-      </c>
-      <c r="R15">
+      <c r="U15">
         <v>1.85</v>
       </c>
-      <c r="S15">
-        <v>2.08</v>
-      </c>
-      <c r="T15">
-        <v>2.5</v>
-      </c>
-      <c r="U15">
-        <v>1.94</v>
-      </c>
       <c r="V15">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB15">
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1880,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6081165</v>
+        <v>6081166</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1892,76 +1892,76 @@
         <v>44937.625</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="L16">
         <v>3.5</v>
       </c>
       <c r="M16">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="Q16">
         <v>0.5</v>
       </c>
       <c r="R16">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T16">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2429,7 +2429,7 @@
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2770,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5177326</v>
+        <v>5177317</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2782,76 +2782,76 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26">
+        <v>2.5</v>
+      </c>
+      <c r="L26">
+        <v>3.3</v>
+      </c>
+      <c r="M26">
+        <v>2.75</v>
+      </c>
+      <c r="N26">
+        <v>2.375</v>
+      </c>
+      <c r="O26">
+        <v>3.4</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+      <c r="Q26">
+        <v>-0.25</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>1.85</v>
+      </c>
+      <c r="T26">
+        <v>2.5</v>
+      </c>
+      <c r="U26">
+        <v>2</v>
+      </c>
+      <c r="V26">
+        <v>1.85</v>
+      </c>
+      <c r="W26">
+        <v>-1</v>
+      </c>
+      <c r="X26">
+        <v>-1</v>
+      </c>
+      <c r="Y26">
+        <v>2</v>
+      </c>
+      <c r="Z26">
+        <v>-1</v>
+      </c>
+      <c r="AA26">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB26">
         <v>1</v>
       </c>
-      <c r="J26" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26">
-        <v>2.05</v>
-      </c>
-      <c r="L26">
-        <v>3.4</v>
-      </c>
-      <c r="M26">
-        <v>3.5</v>
-      </c>
-      <c r="N26">
-        <v>1.85</v>
-      </c>
-      <c r="O26">
-        <v>3.6</v>
-      </c>
-      <c r="P26">
-        <v>4.2</v>
-      </c>
-      <c r="Q26">
-        <v>-0.5</v>
-      </c>
-      <c r="R26">
-        <v>1.825</v>
-      </c>
-      <c r="S26">
-        <v>2.025</v>
-      </c>
-      <c r="T26">
-        <v>2.75</v>
-      </c>
-      <c r="U26">
-        <v>1.95</v>
-      </c>
-      <c r="V26">
-        <v>1.9</v>
-      </c>
-      <c r="W26">
-        <v>-1</v>
-      </c>
-      <c r="X26">
-        <v>2.6</v>
-      </c>
-      <c r="Y26">
-        <v>-1</v>
-      </c>
-      <c r="Z26">
-        <v>-1</v>
-      </c>
-      <c r="AA26">
-        <v>1.025</v>
-      </c>
-      <c r="AB26">
-        <v>-1</v>
-      </c>
       <c r="AC26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5177317</v>
+        <v>5177320</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2871,25 +2871,25 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
         <v>52</v>
       </c>
       <c r="K27">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L27">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M27">
         <v>2.75</v>
@@ -2898,28 +2898,28 @@
         <v>2.375</v>
       </c>
       <c r="O27">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P27">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q27">
         <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="S27">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2928,16 +2928,16 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.8500000000000001</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB27">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2948,7 +2948,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5177320</v>
+        <v>5177326</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2960,76 +2960,76 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K28">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="L28">
         <v>3.4</v>
       </c>
       <c r="M28">
+        <v>3.5</v>
+      </c>
+      <c r="N28">
+        <v>1.85</v>
+      </c>
+      <c r="O28">
+        <v>3.6</v>
+      </c>
+      <c r="P28">
+        <v>4.2</v>
+      </c>
+      <c r="Q28">
+        <v>-0.5</v>
+      </c>
+      <c r="R28">
+        <v>1.825</v>
+      </c>
+      <c r="S28">
+        <v>2.025</v>
+      </c>
+      <c r="T28">
         <v>2.75</v>
       </c>
-      <c r="N28">
-        <v>2.375</v>
-      </c>
-      <c r="O28">
-        <v>3.25</v>
-      </c>
-      <c r="P28">
-        <v>3.1</v>
-      </c>
-      <c r="Q28">
-        <v>-0.25</v>
-      </c>
-      <c r="R28">
-        <v>2.09</v>
-      </c>
-      <c r="S28">
-        <v>1.84</v>
-      </c>
-      <c r="T28">
-        <v>2.5</v>
-      </c>
       <c r="U28">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V28">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y28">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.8400000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB28">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3141,7 +3141,7 @@
         <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H30">
         <v>7</v>
@@ -3672,7 +3672,7 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
         <v>31</v>
@@ -3749,7 +3749,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5177334</v>
+        <v>5177335</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3761,73 +3761,73 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L37">
         <v>3.5</v>
       </c>
       <c r="M37">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N37">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O37">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P37">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q37">
         <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S37">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3838,7 +3838,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5177335</v>
+        <v>5177334</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3850,73 +3850,73 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L38">
         <v>3.5</v>
       </c>
       <c r="M38">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N38">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O38">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
+        <v>2.05</v>
+      </c>
+      <c r="S38">
+        <v>1.8</v>
+      </c>
+      <c r="T38">
+        <v>2.5</v>
+      </c>
+      <c r="U38">
         <v>1.85</v>
       </c>
-      <c r="S38">
+      <c r="V38">
         <v>2</v>
       </c>
-      <c r="T38">
-        <v>2.25</v>
-      </c>
-      <c r="U38">
-        <v>1.875</v>
-      </c>
-      <c r="V38">
-        <v>1.975</v>
-      </c>
       <c r="W38">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z38">
+        <v>-1</v>
+      </c>
+      <c r="AA38">
+        <v>0.8</v>
+      </c>
+      <c r="AB38">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA38">
-        <v>-1</v>
-      </c>
-      <c r="AB38">
-        <v>0.875</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -3939,7 +3939,7 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s">
         <v>37</v>
@@ -4028,7 +4028,7 @@
         <v>44955.54513888889</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
         <v>33</v>
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5177338</v>
+        <v>5177340</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,76 +4206,76 @@
         <v>44958.625</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>53</v>
+      </c>
+      <c r="K42">
+        <v>1.45</v>
+      </c>
+      <c r="L42">
+        <v>4.333</v>
+      </c>
+      <c r="M42">
+        <v>7</v>
+      </c>
+      <c r="N42">
+        <v>1.55</v>
+      </c>
+      <c r="O42">
+        <v>4</v>
+      </c>
+      <c r="P42">
+        <v>6.5</v>
+      </c>
+      <c r="Q42">
+        <v>-1</v>
+      </c>
+      <c r="R42">
         <v>2</v>
       </c>
-      <c r="J42" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42">
-        <v>2.2</v>
-      </c>
-      <c r="L42">
-        <v>3.25</v>
-      </c>
-      <c r="M42">
-        <v>3.25</v>
-      </c>
-      <c r="N42">
-        <v>2.25</v>
-      </c>
-      <c r="O42">
-        <v>3.1</v>
-      </c>
-      <c r="P42">
-        <v>3.5</v>
-      </c>
-      <c r="Q42">
-        <v>-0.25</v>
-      </c>
-      <c r="R42">
-        <v>1.95</v>
-      </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y42">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4283,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5177339</v>
+        <v>5177345</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4295,76 +4295,76 @@
         <v>44958.625</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I43">
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K43">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="L43">
         <v>3.6</v>
       </c>
       <c r="M43">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="N43">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="O43">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P43">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q43">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R43">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC43">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4372,7 +4372,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5177340</v>
+        <v>5177338</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4384,76 +4384,76 @@
         <v>44958.625</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
         <v>42</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K44">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="L44">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M44">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="N44">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P44">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q44">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
+        <v>1.95</v>
+      </c>
+      <c r="S44">
+        <v>1.9</v>
+      </c>
+      <c r="T44">
         <v>2</v>
       </c>
-      <c r="S44">
-        <v>1.93</v>
-      </c>
-      <c r="T44">
+      <c r="U44">
+        <v>1.925</v>
+      </c>
+      <c r="V44">
+        <v>1.925</v>
+      </c>
+      <c r="W44">
+        <v>-1</v>
+      </c>
+      <c r="X44">
+        <v>-1</v>
+      </c>
+      <c r="Y44">
         <v>2.5</v>
       </c>
-      <c r="U44">
-        <v>1.975</v>
-      </c>
-      <c r="V44">
-        <v>1.875</v>
-      </c>
-      <c r="W44">
-        <v>-1</v>
-      </c>
-      <c r="X44">
-        <v>3</v>
-      </c>
-      <c r="Y44">
-        <v>-1</v>
-      </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.9299999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC44">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4461,7 +4461,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5177345</v>
+        <v>5177339</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4473,76 +4473,76 @@
         <v>44958.625</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K45">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="L45">
         <v>3.6</v>
       </c>
       <c r="M45">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N45">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="O45">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P45">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
         <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z45">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4728,7 +4728,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5177342</v>
+        <v>5177337</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4740,61 +4740,61 @@
         <v>44958.70833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>41</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K48">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="L48">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M48">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="N48">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O48">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P48">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q48">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R48">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X48">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
@@ -4803,13 +4803,13 @@
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC48">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4817,7 +4817,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5177337</v>
+        <v>5177341</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4829,73 +4829,73 @@
         <v>44958.70833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
         <v>3</v>
       </c>
-      <c r="I49">
-        <v>2</v>
-      </c>
       <c r="J49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K49">
-        <v>1.333</v>
+        <v>8.5</v>
       </c>
       <c r="L49">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M49">
+        <v>1.3</v>
+      </c>
+      <c r="N49">
         <v>8.5</v>
       </c>
-      <c r="N49">
-        <v>1.333</v>
-      </c>
       <c r="O49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P49">
-        <v>8.5</v>
+        <v>1.285</v>
       </c>
       <c r="Q49">
-        <v>-1.5</v>
+        <v>1.75</v>
       </c>
       <c r="R49">
-        <v>2.02</v>
+        <v>1.825</v>
       </c>
       <c r="S49">
-        <v>1.91</v>
+        <v>2.025</v>
       </c>
       <c r="T49">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U49">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA49">
-        <v>0.9099999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AB49">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4906,7 +4906,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5177341</v>
+        <v>5177342</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4918,76 +4918,76 @@
         <v>44958.70833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>53</v>
+      </c>
+      <c r="K50">
+        <v>1.5</v>
+      </c>
+      <c r="L50">
+        <v>4.333</v>
+      </c>
+      <c r="M50">
+        <v>6</v>
+      </c>
+      <c r="N50">
+        <v>1.5</v>
+      </c>
+      <c r="O50">
+        <v>4.333</v>
+      </c>
+      <c r="P50">
+        <v>6.5</v>
+      </c>
+      <c r="Q50">
+        <v>-1</v>
+      </c>
+      <c r="R50">
+        <v>1.85</v>
+      </c>
+      <c r="S50">
+        <v>2</v>
+      </c>
+      <c r="T50">
+        <v>2.75</v>
+      </c>
+      <c r="U50">
+        <v>1.85</v>
+      </c>
+      <c r="V50">
+        <v>2</v>
+      </c>
+      <c r="W50">
+        <v>-1</v>
+      </c>
+      <c r="X50">
+        <v>3.333</v>
+      </c>
+      <c r="Y50">
+        <v>-1</v>
+      </c>
+      <c r="Z50">
+        <v>-1</v>
+      </c>
+      <c r="AA50">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>3</v>
-      </c>
-      <c r="J50" t="s">
-        <v>52</v>
-      </c>
-      <c r="K50">
-        <v>8.5</v>
-      </c>
-      <c r="L50">
-        <v>5.5</v>
-      </c>
-      <c r="M50">
-        <v>1.3</v>
-      </c>
-      <c r="N50">
-        <v>8.5</v>
-      </c>
-      <c r="O50">
-        <v>6</v>
-      </c>
-      <c r="P50">
-        <v>1.285</v>
-      </c>
-      <c r="Q50">
-        <v>1.75</v>
-      </c>
-      <c r="R50">
-        <v>1.825</v>
-      </c>
-      <c r="S50">
-        <v>2.025</v>
-      </c>
-      <c r="T50">
-        <v>3.25</v>
-      </c>
-      <c r="U50">
-        <v>1.925</v>
-      </c>
-      <c r="V50">
-        <v>1.925</v>
-      </c>
-      <c r="W50">
-        <v>-1</v>
-      </c>
-      <c r="X50">
-        <v>-1</v>
-      </c>
-      <c r="Y50">
-        <v>0.2849999999999999</v>
-      </c>
-      <c r="Z50">
-        <v>-0.5</v>
-      </c>
-      <c r="AA50">
-        <v>0.5125</v>
-      </c>
       <c r="AB50">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5363,7 +5363,7 @@
         <v>44962.375</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
         <v>32</v>
@@ -5529,7 +5529,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5177348</v>
+        <v>5177353</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5541,67 +5541,67 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K57">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="L57">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M57">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N57">
+        <v>2.05</v>
+      </c>
+      <c r="O57">
+        <v>3.3</v>
+      </c>
+      <c r="P57">
         <v>3.8</v>
       </c>
-      <c r="O57">
-        <v>3.6</v>
-      </c>
-      <c r="P57">
-        <v>1.909</v>
-      </c>
       <c r="Q57">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S57">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T57">
         <v>2.5</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V57">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X57">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA57">
         <v>-1</v>
@@ -5610,7 +5610,7 @@
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5618,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5177347</v>
+        <v>5177348</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5630,76 +5630,76 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>53</v>
+      </c>
+      <c r="K58">
+        <v>3.25</v>
+      </c>
+      <c r="L58">
+        <v>3.4</v>
+      </c>
+      <c r="M58">
+        <v>2.2</v>
+      </c>
+      <c r="N58">
+        <v>3.8</v>
+      </c>
+      <c r="O58">
+        <v>3.6</v>
+      </c>
+      <c r="P58">
+        <v>1.909</v>
+      </c>
+      <c r="Q58">
+        <v>0.5</v>
+      </c>
+      <c r="R58">
+        <v>1.9</v>
+      </c>
+      <c r="S58">
+        <v>1.95</v>
+      </c>
+      <c r="T58">
+        <v>2.5</v>
+      </c>
+      <c r="U58">
         <v>2</v>
       </c>
-      <c r="J58" t="s">
-        <v>52</v>
-      </c>
-      <c r="K58">
-        <v>2.625</v>
-      </c>
-      <c r="L58">
-        <v>3.2</v>
-      </c>
-      <c r="M58">
-        <v>2.75</v>
-      </c>
-      <c r="N58">
-        <v>2.55</v>
-      </c>
-      <c r="O58">
-        <v>2.9</v>
-      </c>
-      <c r="P58">
-        <v>3</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>1.775</v>
-      </c>
-      <c r="S58">
-        <v>2.1</v>
-      </c>
-      <c r="T58">
-        <v>1.75</v>
-      </c>
-      <c r="U58">
-        <v>1.775</v>
-      </c>
       <c r="V58">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y58">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA58">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5177353</v>
+        <v>5177347</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,76 +5719,76 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
         <v>2</v>
       </c>
-      <c r="I59">
+      <c r="J59" t="s">
+        <v>52</v>
+      </c>
+      <c r="K59">
+        <v>2.625</v>
+      </c>
+      <c r="L59">
+        <v>3.2</v>
+      </c>
+      <c r="M59">
+        <v>2.75</v>
+      </c>
+      <c r="N59">
+        <v>2.55</v>
+      </c>
+      <c r="O59">
+        <v>2.9</v>
+      </c>
+      <c r="P59">
+        <v>3</v>
+      </c>
+      <c r="Q59">
         <v>0</v>
       </c>
-      <c r="J59" t="s">
-        <v>51</v>
-      </c>
-      <c r="K59">
-        <v>1.95</v>
-      </c>
-      <c r="L59">
-        <v>3.3</v>
-      </c>
-      <c r="M59">
-        <v>4.2</v>
-      </c>
-      <c r="N59">
-        <v>2.05</v>
-      </c>
-      <c r="O59">
-        <v>3.3</v>
-      </c>
-      <c r="P59">
-        <v>3.8</v>
-      </c>
-      <c r="Q59">
+      <c r="R59">
+        <v>1.775</v>
+      </c>
+      <c r="S59">
+        <v>2.1</v>
+      </c>
+      <c r="T59">
+        <v>1.75</v>
+      </c>
+      <c r="U59">
+        <v>1.775</v>
+      </c>
+      <c r="V59">
+        <v>2.1</v>
+      </c>
+      <c r="W59">
+        <v>-1</v>
+      </c>
+      <c r="X59">
+        <v>-1</v>
+      </c>
+      <c r="Y59">
+        <v>2</v>
+      </c>
+      <c r="Z59">
+        <v>-1</v>
+      </c>
+      <c r="AA59">
+        <v>1.1</v>
+      </c>
+      <c r="AB59">
+        <v>0.3875</v>
+      </c>
+      <c r="AC59">
         <v>-0.5</v>
-      </c>
-      <c r="R59">
-        <v>2.05</v>
-      </c>
-      <c r="S59">
-        <v>1.75</v>
-      </c>
-      <c r="T59">
-        <v>2.5</v>
-      </c>
-      <c r="U59">
-        <v>2.05</v>
-      </c>
-      <c r="V59">
-        <v>1.8</v>
-      </c>
-      <c r="W59">
-        <v>1.05</v>
-      </c>
-      <c r="X59">
-        <v>-1</v>
-      </c>
-      <c r="Y59">
-        <v>-1</v>
-      </c>
-      <c r="Z59">
-        <v>1.05</v>
-      </c>
-      <c r="AA59">
-        <v>-1</v>
-      </c>
-      <c r="AB59">
-        <v>-1</v>
-      </c>
-      <c r="AC59">
-        <v>0.8</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5808,7 +5808,7 @@
         <v>44962.54513888889</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
         <v>34</v>
@@ -5989,7 +5989,7 @@
         <v>45</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H62">
         <v>3</v>
@@ -6164,7 +6164,7 @@
         <v>44968.70833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
         <v>47</v>
@@ -6434,7 +6434,7 @@
         <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6612,7 +6612,7 @@
         <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6876,7 +6876,7 @@
         <v>44974.70833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G72" t="s">
         <v>33</v>
@@ -7235,7 +7235,7 @@
         <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7413,7 +7413,7 @@
         <v>44</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -7499,7 +7499,7 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G79" t="s">
         <v>32</v>
@@ -7769,7 +7769,7 @@
         <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -8036,7 +8036,7 @@
         <v>44</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8122,7 +8122,7 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
         <v>35</v>
@@ -8211,7 +8211,7 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G87" t="s">
         <v>43</v>
@@ -8288,7 +8288,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5177382</v>
+        <v>5177386</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8300,76 +8300,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H88">
+        <v>3</v>
+      </c>
+      <c r="I88">
         <v>0</v>
       </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
       <c r="J88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K88">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L88">
+        <v>3.4</v>
+      </c>
+      <c r="M88">
         <v>3.2</v>
       </c>
-      <c r="M88">
+      <c r="N88">
+        <v>2.1</v>
+      </c>
+      <c r="O88">
+        <v>3.5</v>
+      </c>
+      <c r="P88">
+        <v>3.6</v>
+      </c>
+      <c r="Q88">
+        <v>-0.5</v>
+      </c>
+      <c r="R88">
         <v>2.05</v>
       </c>
-      <c r="N88">
-        <v>3.6</v>
-      </c>
-      <c r="O88">
-        <v>3.2</v>
-      </c>
-      <c r="P88">
-        <v>2.15</v>
-      </c>
-      <c r="Q88">
-        <v>0.25</v>
-      </c>
-      <c r="R88">
-        <v>1.975</v>
-      </c>
       <c r="S88">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T88">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA88">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC88">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5177386</v>
+        <v>5177382</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,76 +8389,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K89">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M89">
+        <v>2.05</v>
+      </c>
+      <c r="N89">
+        <v>3.6</v>
+      </c>
+      <c r="O89">
         <v>3.2</v>
       </c>
-      <c r="N89">
-        <v>2.1</v>
-      </c>
-      <c r="O89">
-        <v>3.5</v>
-      </c>
       <c r="P89">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S89">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W89">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z89">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB89">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8659,7 +8659,7 @@
         <v>45</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -9015,7 +9015,7 @@
         <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9104,7 +9104,7 @@
         <v>48</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9193,7 +9193,7 @@
         <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>44996.54166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G103" t="s">
         <v>38</v>
@@ -9724,7 +9724,7 @@
         <v>44996.70833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
         <v>46</v>
@@ -9813,7 +9813,7 @@
         <v>44997.375</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G105" t="s">
         <v>34</v>
@@ -10080,7 +10080,7 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
         <v>37</v>
@@ -10703,7 +10703,7 @@
         <v>45004.375</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G115" t="s">
         <v>32</v>
@@ -10795,7 +10795,7 @@
         <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10884,7 +10884,7 @@
         <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -11062,7 +11062,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11415,7 +11415,7 @@
         <v>45017.5</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G123" t="s">
         <v>43</v>
@@ -11682,7 +11682,7 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
         <v>29</v>
@@ -11771,10 +11771,10 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F127" t="s">
+        <v>40</v>
+      </c>
+      <c r="G127" t="s">
         <v>42</v>
-      </c>
-      <c r="G127" t="s">
-        <v>39</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12664,7 +12664,7 @@
         <v>48</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12750,10 +12750,10 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12842,7 +12842,7 @@
         <v>43</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -13462,7 +13462,7 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
         <v>30</v>
@@ -13551,7 +13551,7 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
         <v>45</v>
@@ -13640,7 +13640,7 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s">
         <v>31</v>
@@ -13732,7 +13732,7 @@
         <v>35</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -14085,7 +14085,7 @@
         <v>45038.5</v>
       </c>
       <c r="F153" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G153" t="s">
         <v>36</v>
@@ -14355,7 +14355,7 @@
         <v>45</v>
       </c>
       <c r="G156" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14441,10 +14441,10 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G157" t="s">
         <v>39</v>
-      </c>
-      <c r="G157" t="s">
-        <v>41</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14978,7 +14978,7 @@
         <v>36</v>
       </c>
       <c r="G163" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H163">
         <v>3</v>
@@ -15242,7 +15242,7 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G166" t="s">
         <v>48</v>
@@ -15512,7 +15512,7 @@
         <v>47</v>
       </c>
       <c r="G169" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -15687,7 +15687,7 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G171" t="s">
         <v>31</v>
@@ -16132,7 +16132,7 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G176" t="s">
         <v>29</v>
@@ -16310,10 +16310,10 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F178" t="s">
+        <v>41</v>
+      </c>
+      <c r="G178" t="s">
         <v>40</v>
-      </c>
-      <c r="G178" t="s">
-        <v>42</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16402,7 +16402,7 @@
         <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16847,7 +16847,7 @@
         <v>46</v>
       </c>
       <c r="G184" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H184">
         <v>5</v>
@@ -16933,7 +16933,7 @@
         <v>45060.33333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G185" t="s">
         <v>33</v>
@@ -17111,10 +17111,10 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F187" t="s">
+        <v>39</v>
+      </c>
+      <c r="G187" t="s">
         <v>41</v>
-      </c>
-      <c r="G187" t="s">
-        <v>40</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17823,7 +17823,7 @@
         <v>45067.33333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G195" t="s">
         <v>38</v>
@@ -18179,10 +18179,10 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G199" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H199">
         <v>2</v>
@@ -18357,7 +18357,7 @@
         <v>45067.65625</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G201" t="s">
         <v>46</v>
@@ -18449,7 +18449,7 @@
         <v>47</v>
       </c>
       <c r="G202" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18627,7 +18627,7 @@
         <v>34</v>
       </c>
       <c r="G204" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H204">
         <v>3</v>
@@ -18879,7 +18879,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>5611340</v>
+        <v>5611342</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18891,40 +18891,40 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G207" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K207">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="L207">
+        <v>3.4</v>
+      </c>
+      <c r="M207">
+        <v>3.3</v>
+      </c>
+      <c r="N207">
+        <v>2.05</v>
+      </c>
+      <c r="O207">
         <v>3.8</v>
       </c>
-      <c r="M207">
-        <v>4.75</v>
-      </c>
-      <c r="N207">
-        <v>1.666</v>
-      </c>
-      <c r="O207">
-        <v>4.5</v>
-      </c>
       <c r="P207">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q207">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R207">
         <v>1.825</v>
@@ -18933,34 +18933,34 @@
         <v>2.025</v>
       </c>
       <c r="T207">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U207">
+        <v>1.875</v>
+      </c>
+      <c r="V207">
         <v>1.975</v>
       </c>
-      <c r="V207">
-        <v>1.875</v>
-      </c>
       <c r="W207">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB207">
         <v>-1</v>
       </c>
       <c r="AC207">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18968,7 +18968,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>5611339</v>
+        <v>5611340</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18980,13 +18980,13 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G208" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I208">
         <v>0</v>
@@ -18995,43 +18995,43 @@
         <v>51</v>
       </c>
       <c r="K208">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="L208">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M208">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N208">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O208">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P208">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R208">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S208">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T208">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U208">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V208">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W208">
-        <v>1.25</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19040,7 +19040,7 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA208">
         <v>-1</v>
@@ -19049,7 +19049,7 @@
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19057,7 +19057,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>5611342</v>
+        <v>5611339</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19069,76 +19069,76 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G209" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K209">
         <v>2.15</v>
       </c>
       <c r="L209">
+        <v>3.3</v>
+      </c>
+      <c r="M209">
         <v>3.4</v>
       </c>
-      <c r="M209">
+      <c r="N209">
+        <v>2.25</v>
+      </c>
+      <c r="O209">
         <v>3.3</v>
       </c>
-      <c r="N209">
-        <v>2.05</v>
-      </c>
-      <c r="O209">
-        <v>3.8</v>
-      </c>
       <c r="P209">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q209">
         <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S209">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T209">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V209">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X209">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA209">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19428,7 +19428,7 @@
         <v>46</v>
       </c>
       <c r="G213" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19692,7 +19692,7 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G216" t="s">
         <v>38</v>
@@ -19781,7 +19781,7 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F217" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G217" t="s">
         <v>47</v>
@@ -20036,7 +20036,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>5635385</v>
+        <v>5635384</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20048,76 +20048,76 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G220" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J220" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K220">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="L220">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M220">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="N220">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O220">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P220">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q220">
         <v>0.25</v>
       </c>
       <c r="R220">
-        <v>1.825</v>
+        <v>1.89</v>
       </c>
       <c r="S220">
-        <v>2.025</v>
+        <v>2.01</v>
       </c>
       <c r="T220">
         <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V220">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W220">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z220">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB220">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20125,7 +20125,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>5635384</v>
+        <v>5635385</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20137,76 +20137,76 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G221" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H221">
+        <v>2</v>
+      </c>
+      <c r="I221">
         <v>1</v>
       </c>
-      <c r="I221">
-        <v>3</v>
-      </c>
       <c r="J221" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K221">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="L221">
+        <v>3.4</v>
+      </c>
+      <c r="M221">
+        <v>2.375</v>
+      </c>
+      <c r="N221">
+        <v>3.1</v>
+      </c>
+      <c r="O221">
         <v>3.5</v>
       </c>
-      <c r="M221">
-        <v>3.1</v>
-      </c>
-      <c r="N221">
-        <v>3</v>
-      </c>
-      <c r="O221">
-        <v>3.75</v>
-      </c>
       <c r="P221">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q221">
         <v>0.25</v>
       </c>
       <c r="R221">
-        <v>1.89</v>
+        <v>1.825</v>
       </c>
       <c r="S221">
-        <v>2.01</v>
+        <v>2.025</v>
       </c>
       <c r="T221">
         <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V221">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA221">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20493,7 +20493,7 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G225" t="s">
         <v>34</v>
@@ -20582,7 +20582,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G226" t="s">
         <v>32</v>
@@ -21386,7 +21386,7 @@
         <v>50</v>
       </c>
       <c r="G235" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21475,7 +21475,7 @@
         <v>48</v>
       </c>
       <c r="G236" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H236">
         <v>2</v>
@@ -21920,7 +21920,7 @@
         <v>47</v>
       </c>
       <c r="G241" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H241">
         <v>2</v>
@@ -22362,7 +22362,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G246" t="s">
         <v>49</v>
@@ -22718,7 +22718,7 @@
         <v>45171.5</v>
       </c>
       <c r="F250" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G250" t="s">
         <v>38</v>
@@ -22899,7 +22899,7 @@
         <v>29</v>
       </c>
       <c r="G252" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H252">
         <v>2</v>
@@ -23774,7 +23774,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6847866</v>
+        <v>6847861</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23786,46 +23786,46 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F262" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G262" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J262" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K262">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L262">
+        <v>3.6</v>
+      </c>
+      <c r="M262">
+        <v>3.2</v>
+      </c>
+      <c r="N262">
+        <v>2.9</v>
+      </c>
+      <c r="O262">
         <v>3.5</v>
       </c>
-      <c r="M262">
-        <v>3.7</v>
-      </c>
-      <c r="N262">
-        <v>1.85</v>
-      </c>
-      <c r="O262">
-        <v>3.75</v>
-      </c>
       <c r="P262">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q262">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R262">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S262">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T262">
         <v>2.5</v>
@@ -23840,22 +23840,22 @@
         <v>-1</v>
       </c>
       <c r="X262">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y262">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z262">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA262">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB262">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC262">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23863,7 +23863,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6847867</v>
+        <v>6847866</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23875,34 +23875,34 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F263" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G263" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
         <v>1</v>
-      </c>
-      <c r="I263">
-        <v>2</v>
       </c>
       <c r="J263" t="s">
         <v>52</v>
       </c>
       <c r="K263">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="L263">
         <v>3.5</v>
       </c>
       <c r="M263">
-        <v>4.333</v>
+        <v>3.7</v>
       </c>
       <c r="N263">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O263">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P263">
         <v>4</v>
@@ -23911,19 +23911,19 @@
         <v>-0.5</v>
       </c>
       <c r="R263">
+        <v>1.85</v>
+      </c>
+      <c r="S263">
         <v>2</v>
-      </c>
-      <c r="S263">
-        <v>1.85</v>
       </c>
       <c r="T263">
         <v>2.5</v>
       </c>
       <c r="U263">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V263">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W263">
         <v>-1</v>
@@ -23938,13 +23938,13 @@
         <v>-1</v>
       </c>
       <c r="AA263">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB263">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23952,7 +23952,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6847861</v>
+        <v>6847867</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23964,73 +23964,73 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G264" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264">
         <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K264">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L264">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M264">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N264">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="O264">
         <v>3.5</v>
       </c>
       <c r="P264">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q264">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R264">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S264">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T264">
         <v>2.5</v>
       </c>
       <c r="U264">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V264">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W264">
         <v>-1</v>
       </c>
       <c r="X264">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z264">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB264">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC264">
         <v>-1</v>
@@ -24409,7 +24409,7 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F269" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G269" t="s">
         <v>33</v>
@@ -24590,7 +24590,7 @@
         <v>50</v>
       </c>
       <c r="G271" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H271">
         <v>2</v>
@@ -25121,7 +25121,7 @@
         <v>45199.5</v>
       </c>
       <c r="F277" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G277" t="s">
         <v>46</v>
@@ -25391,7 +25391,7 @@
         <v>45</v>
       </c>
       <c r="G280" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H280">
         <v>0</v>
@@ -26278,7 +26278,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F290" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G290" t="s">
         <v>29</v>
@@ -26993,7 +26993,7 @@
         <v>36</v>
       </c>
       <c r="G298" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H298">
         <v>1</v>
@@ -27260,7 +27260,7 @@
         <v>33</v>
       </c>
       <c r="G301" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -27346,7 +27346,7 @@
         <v>45226.66666666666</v>
       </c>
       <c r="F302" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G302" t="s">
         <v>45</v>
@@ -27613,7 +27613,7 @@
         <v>45228.375</v>
       </c>
       <c r="F305" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G305" t="s">
         <v>46</v>
@@ -27779,7 +27779,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6847912</v>
+        <v>6847911</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27791,76 +27791,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F307" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G307" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H307">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307">
         <v>0</v>
       </c>
       <c r="J307" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K307">
-        <v>1.869</v>
+        <v>2.25</v>
       </c>
       <c r="L307">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M307">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N307">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="O307">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P307">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q307">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R307">
+        <v>2</v>
+      </c>
+      <c r="S307">
         <v>1.85</v>
       </c>
-      <c r="S307">
-        <v>2</v>
-      </c>
       <c r="T307">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U307">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="V307">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="W307">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X307">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y307">
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA307">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB307">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC307">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27868,7 +27868,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6847911</v>
+        <v>6847912</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27880,76 +27880,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F308" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G308" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I308">
         <v>0</v>
       </c>
       <c r="J308" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K308">
-        <v>2.25</v>
+        <v>1.869</v>
       </c>
       <c r="L308">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M308">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N308">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="O308">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P308">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q308">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R308">
+        <v>1.85</v>
+      </c>
+      <c r="S308">
         <v>2</v>
       </c>
-      <c r="S308">
-        <v>1.85</v>
-      </c>
       <c r="T308">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U308">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="V308">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W308">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X308">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y308">
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA308">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB308">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC308">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -28595,7 +28595,7 @@
         <v>35</v>
       </c>
       <c r="G316" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H316">
         <v>0</v>
@@ -28684,7 +28684,7 @@
         <v>32</v>
       </c>
       <c r="G317" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H317">
         <v>2</v>
@@ -29126,7 +29126,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F322" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G322" t="s">
         <v>44</v>
@@ -29660,7 +29660,7 @@
         <v>45255.54166666666</v>
       </c>
       <c r="F328" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G328" t="s">
         <v>34</v>
@@ -30108,7 +30108,7 @@
         <v>37</v>
       </c>
       <c r="G333" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H333">
         <v>1</v>
@@ -30375,7 +30375,7 @@
         <v>37</v>
       </c>
       <c r="G336" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H336">
         <v>1</v>
@@ -30906,10 +30906,10 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F342" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G342" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H342">
         <v>3</v>
@@ -31351,7 +31351,7 @@
         <v>45267.6875</v>
       </c>
       <c r="F347" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G347" t="s">
         <v>35</v>
@@ -31799,7 +31799,7 @@
         <v>49</v>
       </c>
       <c r="G352" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H352">
         <v>0</v>
@@ -31885,7 +31885,7 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F353" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G353" t="s">
         <v>36</v>
@@ -32511,7 +32511,7 @@
         <v>31</v>
       </c>
       <c r="G360" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H360">
         <v>0</v>
@@ -32585,7 +32585,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>6847967</v>
+        <v>6847961</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32597,55 +32597,55 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F361" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G361" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I361">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J361" t="s">
         <v>52</v>
       </c>
       <c r="K361">
+        <v>2.3</v>
+      </c>
+      <c r="L361">
+        <v>3.25</v>
+      </c>
+      <c r="M361">
+        <v>3.1</v>
+      </c>
+      <c r="N361">
+        <v>2.375</v>
+      </c>
+      <c r="O361">
         <v>3.2</v>
       </c>
-      <c r="L361">
-        <v>3.5</v>
-      </c>
-      <c r="M361">
-        <v>2.15</v>
-      </c>
-      <c r="N361">
-        <v>3.3</v>
-      </c>
-      <c r="O361">
-        <v>3.25</v>
-      </c>
       <c r="P361">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q361">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R361">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S361">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T361">
         <v>2.25</v>
       </c>
       <c r="U361">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V361">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W361">
         <v>-1</v>
@@ -32654,19 +32654,19 @@
         <v>-1</v>
       </c>
       <c r="Y361">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Z361">
         <v>-1</v>
       </c>
       <c r="AA361">
-        <v>1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB361">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC361">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -32674,7 +32674,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>6847961</v>
+        <v>6847959</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32686,76 +32686,76 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F362" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G362" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J362" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K362">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L362">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M362">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="N362">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="O362">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P362">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q362">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R362">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S362">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T362">
         <v>2.25</v>
       </c>
       <c r="U362">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V362">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W362">
         <v>-1</v>
       </c>
       <c r="X362">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y362">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z362">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA362">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB362">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC362">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="363" spans="1:29">
@@ -32763,7 +32763,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>6847959</v>
+        <v>6847967</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32775,19 +32775,19 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F363" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G363" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H363">
         <v>0</v>
       </c>
       <c r="I363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J363" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K363">
         <v>3.2</v>
@@ -32799,10 +32799,10 @@
         <v>2.15</v>
       </c>
       <c r="N363">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O363">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P363">
         <v>2.25</v>
@@ -32811,40 +32811,40 @@
         <v>0.25</v>
       </c>
       <c r="R363">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S363">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T363">
         <v>2.25</v>
       </c>
       <c r="U363">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V363">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W363">
         <v>-1</v>
       </c>
       <c r="X363">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y363">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z363">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA363">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB363">
         <v>-1</v>
       </c>
       <c r="AC363">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="364" spans="1:29">
@@ -32867,7 +32867,7 @@
         <v>47</v>
       </c>
       <c r="G364" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H364">
         <v>2</v>
@@ -33030,7 +33030,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>7579908</v>
+        <v>6847972</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33042,76 +33042,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F366" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G366" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I366">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J366" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K366">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="L366">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M366">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N366">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="O366">
         <v>3.25</v>
       </c>
       <c r="P366">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="Q366">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R366">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="S366">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="T366">
         <v>2.25</v>
       </c>
       <c r="U366">
-        <v>2.11</v>
+        <v>1.99</v>
       </c>
       <c r="V366">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="W366">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X366">
         <v>-1</v>
       </c>
       <c r="Y366">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z366">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AA366">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AB366">
-        <v>1.11</v>
+        <v>-0.5</v>
       </c>
       <c r="AC366">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33119,7 +33119,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6847976</v>
+        <v>7579908</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33131,73 +33131,73 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F367" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G367" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H367">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I367">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J367" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K367">
-        <v>1.615</v>
+        <v>3.25</v>
       </c>
       <c r="L367">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M367">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N367">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="O367">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P367">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q367">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R367">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S367">
-        <v>1.975</v>
+        <v>2.08</v>
       </c>
       <c r="T367">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U367">
-        <v>2.025</v>
+        <v>2.11</v>
       </c>
       <c r="V367">
-        <v>1.825</v>
+        <v>1.79</v>
       </c>
       <c r="W367">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X367">
         <v>-1</v>
       </c>
       <c r="Y367">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z367">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA367">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AB367">
-        <v>1.025</v>
+        <v>1.11</v>
       </c>
       <c r="AC367">
         <v>-1</v>
@@ -33208,7 +33208,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>6847975</v>
+        <v>6847971</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33220,67 +33220,67 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F368" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G368" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H368">
         <v>1</v>
       </c>
       <c r="I368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J368" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K368">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L368">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M368">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N368">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="O368">
         <v>3.6</v>
       </c>
       <c r="P368">
+        <v>4.333</v>
+      </c>
+      <c r="Q368">
+        <v>-0.5</v>
+      </c>
+      <c r="R368">
         <v>1.95</v>
       </c>
-      <c r="Q368">
-        <v>0.5</v>
-      </c>
-      <c r="R368">
-        <v>1.9</v>
-      </c>
       <c r="S368">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T368">
         <v>2.5</v>
       </c>
       <c r="U368">
-        <v>1.925</v>
+        <v>2.02</v>
       </c>
       <c r="V368">
-        <v>1.925</v>
+        <v>1.88</v>
       </c>
       <c r="W368">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X368">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y368">
         <v>-1</v>
       </c>
       <c r="Z368">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA368">
         <v>-1</v>
@@ -33289,7 +33289,7 @@
         <v>-1</v>
       </c>
       <c r="AC368">
-        <v>0.925</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -33297,7 +33297,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>6847972</v>
+        <v>6847976</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33309,13 +33309,13 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F369" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G369" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I369">
         <v>0</v>
@@ -33324,43 +33324,43 @@
         <v>51</v>
       </c>
       <c r="K369">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L369">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M369">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N369">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O369">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P369">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q369">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R369">
-        <v>1.99</v>
+        <v>1.875</v>
       </c>
       <c r="S369">
-        <v>1.94</v>
+        <v>1.975</v>
       </c>
       <c r="T369">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U369">
-        <v>1.99</v>
+        <v>2.025</v>
       </c>
       <c r="V369">
-        <v>1.91</v>
+        <v>1.825</v>
       </c>
       <c r="W369">
-        <v>1.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X369">
         <v>-1</v>
@@ -33369,16 +33369,16 @@
         <v>-1</v>
       </c>
       <c r="Z369">
-        <v>0.99</v>
+        <v>0.875</v>
       </c>
       <c r="AA369">
         <v>-1</v>
       </c>
       <c r="AB369">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC369">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370" spans="1:29">
@@ -33386,7 +33386,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>6847971</v>
+        <v>6847975</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33398,67 +33398,67 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F370" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G370" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H370">
         <v>1</v>
       </c>
       <c r="I370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J370" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K370">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L370">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M370">
+        <v>2.1</v>
+      </c>
+      <c r="N370">
         <v>4</v>
-      </c>
-      <c r="N370">
-        <v>1.8</v>
       </c>
       <c r="O370">
         <v>3.6</v>
       </c>
       <c r="P370">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="Q370">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R370">
+        <v>1.9</v>
+      </c>
+      <c r="S370">
         <v>1.95</v>
-      </c>
-      <c r="S370">
-        <v>1.98</v>
       </c>
       <c r="T370">
         <v>2.5</v>
       </c>
       <c r="U370">
-        <v>2.02</v>
+        <v>1.925</v>
       </c>
       <c r="V370">
-        <v>1.88</v>
+        <v>1.925</v>
       </c>
       <c r="W370">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X370">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y370">
         <v>-1</v>
       </c>
       <c r="Z370">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA370">
         <v>-1</v>
@@ -33467,7 +33467,7 @@
         <v>-1</v>
       </c>
       <c r="AC370">
-        <v>0.8799999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="371" spans="1:29">
@@ -33564,7 +33564,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6847968</v>
+        <v>6847974</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33576,58 +33576,58 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F372" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G372" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H372">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J372" t="s">
         <v>51</v>
       </c>
       <c r="K372">
-        <v>1.142</v>
+        <v>1.65</v>
       </c>
       <c r="L372">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M372">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N372">
-        <v>1.111</v>
+        <v>1.727</v>
       </c>
       <c r="O372">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="P372">
-        <v>23</v>
+        <v>4.75</v>
       </c>
       <c r="Q372">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R372">
-        <v>1.87</v>
+        <v>1.975</v>
       </c>
       <c r="S372">
-        <v>2.06</v>
+        <v>1.875</v>
       </c>
       <c r="T372">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U372">
-        <v>1.87</v>
+        <v>1.925</v>
       </c>
       <c r="V372">
-        <v>2.03</v>
+        <v>1.925</v>
       </c>
       <c r="W372">
-        <v>0.111</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X372">
         <v>-1</v>
@@ -33636,16 +33636,16 @@
         <v>-1</v>
       </c>
       <c r="Z372">
+        <v>0.4875</v>
+      </c>
+      <c r="AA372">
         <v>-0.5</v>
       </c>
-      <c r="AA372">
-        <v>0.53</v>
-      </c>
       <c r="AB372">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC372">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33742,7 +33742,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6847974</v>
+        <v>6847968</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33754,58 +33754,58 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F374" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G374" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H374">
+        <v>3</v>
+      </c>
+      <c r="I374">
         <v>1</v>
-      </c>
-      <c r="I374">
-        <v>0</v>
       </c>
       <c r="J374" t="s">
         <v>51</v>
       </c>
       <c r="K374">
-        <v>1.65</v>
+        <v>1.142</v>
       </c>
       <c r="L374">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M374">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N374">
-        <v>1.727</v>
+        <v>1.111</v>
       </c>
       <c r="O374">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="P374">
-        <v>4.75</v>
+        <v>23</v>
       </c>
       <c r="Q374">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R374">
-        <v>1.975</v>
+        <v>1.87</v>
       </c>
       <c r="S374">
-        <v>1.875</v>
+        <v>2.06</v>
       </c>
       <c r="T374">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U374">
-        <v>1.925</v>
+        <v>1.87</v>
       </c>
       <c r="V374">
-        <v>1.925</v>
+        <v>2.03</v>
       </c>
       <c r="W374">
-        <v>0.7270000000000001</v>
+        <v>0.111</v>
       </c>
       <c r="X374">
         <v>-1</v>
@@ -33814,16 +33814,16 @@
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA374">
-        <v>-0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AB374">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC374">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -34288,7 +34288,7 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F380" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G380" t="s">
         <v>37</v>
@@ -34380,7 +34380,7 @@
         <v>31</v>
       </c>
       <c r="G381" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H381">
         <v>1</v>
@@ -35178,7 +35178,7 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F390" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G390" t="s">
         <v>35</v>
@@ -35359,7 +35359,7 @@
         <v>46</v>
       </c>
       <c r="G392" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H392">
         <v>2</v>
@@ -35982,7 +35982,7 @@
         <v>36</v>
       </c>
       <c r="G399" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H399">
         <v>4</v>
@@ -36068,7 +36068,7 @@
         <v>45326.54513888889</v>
       </c>
       <c r="F400" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G400" t="s">
         <v>45</v>
@@ -36780,10 +36780,10 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F408" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G408" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H408">
         <v>1</v>
@@ -37124,7 +37124,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>6848016</v>
+        <v>6848013</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37133,49 +37133,49 @@
         <v>28</v>
       </c>
       <c r="E412" s="2">
-        <v>45339.54166666666</v>
+        <v>45340.375</v>
       </c>
       <c r="F412" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G412" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K412">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="L412">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M412">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="N412">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O412">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P412">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q412">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R412">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="S412">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="T412">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U412">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="V412">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="W412">
         <v>0</v>
@@ -37198,7 +37198,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>6848019</v>
+        <v>6848020</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37207,49 +37207,49 @@
         <v>28</v>
       </c>
       <c r="E413" s="2">
-        <v>45339.70833333334</v>
+        <v>45340.45833333334</v>
       </c>
       <c r="F413" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G413" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K413">
-        <v>5.75</v>
+        <v>1.666</v>
       </c>
       <c r="L413">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M413">
-        <v>1.533</v>
+        <v>4.75</v>
       </c>
       <c r="N413">
-        <v>7.5</v>
+        <v>1.727</v>
       </c>
       <c r="O413">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P413">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q413">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R413">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="S413">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T413">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U413">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V413">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="W413">
         <v>0</v>
@@ -37272,7 +37272,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>6848013</v>
+        <v>6848015</v>
       </c>
       <c r="C414" t="s">
         <v>28</v>
@@ -37281,49 +37281,49 @@
         <v>28</v>
       </c>
       <c r="E414" s="2">
-        <v>45340.375</v>
+        <v>45340.45833333334</v>
       </c>
       <c r="F414" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G414" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K414">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="L414">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M414">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N414">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O414">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P414">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q414">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R414">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="S414">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="T414">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U414">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="V414">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="W414">
         <v>0</v>
@@ -37346,7 +37346,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>6848020</v>
+        <v>6848014</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37358,46 +37358,46 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F415" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G415" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K415">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L415">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M415">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N415">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O415">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P415">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q415">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R415">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="S415">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="T415">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U415">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="V415">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="W415">
         <v>0</v>
@@ -37420,7 +37420,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>6848015</v>
+        <v>6848018</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37429,49 +37429,49 @@
         <v>28</v>
       </c>
       <c r="E416" s="2">
-        <v>45340.45833333334</v>
+        <v>45340.54513888889</v>
       </c>
       <c r="F416" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G416" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K416">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="L416">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M416">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N416">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O416">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P416">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q416">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R416">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S416">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T416">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U416">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="V416">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="W416">
         <v>0</v>
@@ -37494,7 +37494,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>6848014</v>
+        <v>6848021</v>
       </c>
       <c r="C417" t="s">
         <v>28</v>
@@ -37503,49 +37503,49 @@
         <v>28</v>
       </c>
       <c r="E417" s="2">
-        <v>45340.45833333334</v>
+        <v>45340.69791666666</v>
       </c>
       <c r="F417" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G417" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K417">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L417">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M417">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N417">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="O417">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P417">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q417">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R417">
-        <v>1.88</v>
+        <v>2.16</v>
       </c>
       <c r="S417">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="T417">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U417">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="V417">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="W417">
         <v>0</v>
@@ -37568,7 +37568,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>6848018</v>
+        <v>6848030</v>
       </c>
       <c r="C418" t="s">
         <v>28</v>
@@ -37577,49 +37577,49 @@
         <v>28</v>
       </c>
       <c r="E418" s="2">
-        <v>45340.54513888889</v>
+        <v>45345.70833333334</v>
       </c>
       <c r="F418" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G418" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K418">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="L418">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M418">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="N418">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O418">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P418">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q418">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R418">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S418">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T418">
         <v>2.5</v>
       </c>
       <c r="U418">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="V418">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W418">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>6848021</v>
+        <v>6848026</v>
       </c>
       <c r="C419" t="s">
         <v>28</v>
@@ -37651,40 +37651,40 @@
         <v>28</v>
       </c>
       <c r="E419" s="2">
-        <v>45340.69791666666</v>
+        <v>45346.54166666666</v>
       </c>
       <c r="F419" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G419" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="K419">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L419">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M419">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="N419">
         <v>2.55</v>
       </c>
       <c r="O419">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P419">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q419">
         <v>0</v>
       </c>
       <c r="R419">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="S419">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="T419">
         <v>2.25</v>
@@ -37716,7 +37716,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>6848030</v>
+        <v>6848023</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37725,49 +37725,49 @@
         <v>28</v>
       </c>
       <c r="E420" s="2">
-        <v>45345.70833333334</v>
+        <v>45346.70833333334</v>
       </c>
       <c r="F420" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G420" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K420">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="L420">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M420">
+        <v>2.75</v>
+      </c>
+      <c r="N420">
+        <v>2.75</v>
+      </c>
+      <c r="O420">
+        <v>3</v>
+      </c>
+      <c r="P420">
+        <v>2.75</v>
+      </c>
+      <c r="Q420">
+        <v>0</v>
+      </c>
+      <c r="R420">
         <v>1.95</v>
       </c>
-      <c r="N420">
-        <v>4.2</v>
-      </c>
-      <c r="O420">
-        <v>3.6</v>
-      </c>
-      <c r="P420">
-        <v>1.8</v>
-      </c>
-      <c r="Q420">
-        <v>0.5</v>
-      </c>
-      <c r="R420">
-        <v>2.05</v>
-      </c>
       <c r="S420">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T420">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U420">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="V420">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="W420">
         <v>0</v>
@@ -37782,154 +37782,6 @@
         <v>0</v>
       </c>
       <c r="AA420">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:27">
-      <c r="A421" s="1">
-        <v>419</v>
-      </c>
-      <c r="B421">
-        <v>6848026</v>
-      </c>
-      <c r="C421" t="s">
-        <v>28</v>
-      </c>
-      <c r="D421" t="s">
-        <v>28</v>
-      </c>
-      <c r="E421" s="2">
-        <v>45346.54166666666</v>
-      </c>
-      <c r="F421" t="s">
-        <v>44</v>
-      </c>
-      <c r="G421" t="s">
-        <v>31</v>
-      </c>
-      <c r="K421">
-        <v>2.55</v>
-      </c>
-      <c r="L421">
-        <v>3.2</v>
-      </c>
-      <c r="M421">
-        <v>2.8</v>
-      </c>
-      <c r="N421">
-        <v>2.55</v>
-      </c>
-      <c r="O421">
-        <v>3.2</v>
-      </c>
-      <c r="P421">
-        <v>2.875</v>
-      </c>
-      <c r="Q421">
-        <v>0</v>
-      </c>
-      <c r="R421">
-        <v>1.84</v>
-      </c>
-      <c r="S421">
-        <v>2.06</v>
-      </c>
-      <c r="T421">
-        <v>2.25</v>
-      </c>
-      <c r="U421">
-        <v>1.95</v>
-      </c>
-      <c r="V421">
-        <v>1.95</v>
-      </c>
-      <c r="W421">
-        <v>0</v>
-      </c>
-      <c r="X421">
-        <v>0</v>
-      </c>
-      <c r="Y421">
-        <v>0</v>
-      </c>
-      <c r="Z421">
-        <v>0</v>
-      </c>
-      <c r="AA421">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="1:27">
-      <c r="A422" s="1">
-        <v>420</v>
-      </c>
-      <c r="B422">
-        <v>6848023</v>
-      </c>
-      <c r="C422" t="s">
-        <v>28</v>
-      </c>
-      <c r="D422" t="s">
-        <v>28</v>
-      </c>
-      <c r="E422" s="2">
-        <v>45346.70833333334</v>
-      </c>
-      <c r="F422" t="s">
-        <v>35</v>
-      </c>
-      <c r="G422" t="s">
-        <v>41</v>
-      </c>
-      <c r="K422">
-        <v>2.75</v>
-      </c>
-      <c r="L422">
-        <v>3</v>
-      </c>
-      <c r="M422">
-        <v>2.75</v>
-      </c>
-      <c r="N422">
-        <v>2.75</v>
-      </c>
-      <c r="O422">
-        <v>3</v>
-      </c>
-      <c r="P422">
-        <v>2.75</v>
-      </c>
-      <c r="Q422">
-        <v>0</v>
-      </c>
-      <c r="R422">
-        <v>1.95</v>
-      </c>
-      <c r="S422">
-        <v>1.95</v>
-      </c>
-      <c r="T422">
-        <v>2.25</v>
-      </c>
-      <c r="U422">
-        <v>2.01</v>
-      </c>
-      <c r="V422">
-        <v>1.89</v>
-      </c>
-      <c r="W422">
-        <v>0</v>
-      </c>
-      <c r="X422">
-        <v>0</v>
-      </c>
-      <c r="Y422">
-        <v>0</v>
-      </c>
-      <c r="Z422">
-        <v>0</v>
-      </c>
-      <c r="AA422">
         <v>0</v>
       </c>
     </row>

--- a/France Ligue 1/France Ligue 1.xlsx
+++ b/France Ligue 1/France Ligue 1.xlsx
@@ -30894,7 +30894,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>6847941</v>
+        <v>6847943</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30906,76 +30906,76 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F342" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G342" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J342" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K342">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L342">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M342">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N342">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O342">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P342">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q342">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R342">
-        <v>1.975</v>
+        <v>1.99</v>
       </c>
       <c r="S342">
-        <v>1.875</v>
+        <v>1.94</v>
       </c>
       <c r="T342">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U342">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V342">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W342">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X342">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y342">
         <v>-1</v>
       </c>
       <c r="Z342">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AA342">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB342">
         <v>-1</v>
       </c>
       <c r="AC342">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="343" spans="1:29">
@@ -30983,7 +30983,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>6847943</v>
+        <v>6847941</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -30995,76 +30995,76 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F343" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G343" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J343" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K343">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L343">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M343">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N343">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O343">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P343">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q343">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R343">
-        <v>1.99</v>
+        <v>1.975</v>
       </c>
       <c r="S343">
-        <v>1.94</v>
+        <v>1.875</v>
       </c>
       <c r="T343">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U343">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V343">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W343">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X343">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y343">
         <v>-1</v>
       </c>
       <c r="Z343">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AA343">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB343">
         <v>-1</v>
       </c>
       <c r="AC343">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="344" spans="1:29">
@@ -33475,7 +33475,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>7579908</v>
+        <v>6847975</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33487,76 +33487,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F371" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G371" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H371">
         <v>1</v>
       </c>
       <c r="I371">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J371" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K371">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L371">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M371">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N371">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O371">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P371">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="Q371">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R371">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S371">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="T371">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U371">
-        <v>2.11</v>
+        <v>1.925</v>
       </c>
       <c r="V371">
-        <v>1.79</v>
+        <v>1.925</v>
       </c>
       <c r="W371">
         <v>-1</v>
       </c>
       <c r="X371">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y371">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z371">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA371">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AB371">
-        <v>1.11</v>
+        <v>-1</v>
       </c>
       <c r="AC371">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33564,7 +33564,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6847975</v>
+        <v>6847968</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33576,76 +33576,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F372" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G372" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I372">
         <v>1</v>
       </c>
       <c r="J372" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K372">
-        <v>3.4</v>
+        <v>1.142</v>
       </c>
       <c r="L372">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M372">
-        <v>2.1</v>
+        <v>17</v>
       </c>
       <c r="N372">
-        <v>4</v>
+        <v>1.111</v>
       </c>
       <c r="O372">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="P372">
-        <v>1.95</v>
+        <v>23</v>
       </c>
       <c r="Q372">
-        <v>0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R372">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S372">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="T372">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U372">
-        <v>1.925</v>
+        <v>1.87</v>
       </c>
       <c r="V372">
-        <v>1.925</v>
+        <v>2.03</v>
       </c>
       <c r="W372">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X372">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA372">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
       <c r="AB372">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC372">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33653,7 +33653,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6847968</v>
+        <v>6847974</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33665,58 +33665,58 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F373" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G373" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H373">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J373" t="s">
         <v>51</v>
       </c>
       <c r="K373">
-        <v>1.142</v>
+        <v>1.65</v>
       </c>
       <c r="L373">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M373">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N373">
-        <v>1.111</v>
+        <v>1.727</v>
       </c>
       <c r="O373">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="P373">
-        <v>23</v>
+        <v>4.75</v>
       </c>
       <c r="Q373">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R373">
-        <v>1.87</v>
+        <v>1.975</v>
       </c>
       <c r="S373">
-        <v>2.06</v>
+        <v>1.875</v>
       </c>
       <c r="T373">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U373">
-        <v>1.87</v>
+        <v>1.925</v>
       </c>
       <c r="V373">
-        <v>2.03</v>
+        <v>1.925</v>
       </c>
       <c r="W373">
-        <v>0.111</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X373">
         <v>-1</v>
@@ -33725,16 +33725,16 @@
         <v>-1</v>
       </c>
       <c r="Z373">
+        <v>0.4875</v>
+      </c>
+      <c r="AA373">
         <v>-0.5</v>
       </c>
-      <c r="AA373">
-        <v>0.53</v>
-      </c>
       <c r="AB373">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC373">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33742,7 +33742,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6847974</v>
+        <v>7579908</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33754,76 +33754,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F374" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G374" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H374">
         <v>1</v>
       </c>
       <c r="I374">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J374" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K374">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="L374">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M374">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="N374">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="O374">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P374">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q374">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R374">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S374">
-        <v>1.875</v>
+        <v>2.08</v>
       </c>
       <c r="T374">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U374">
-        <v>1.925</v>
+        <v>2.11</v>
       </c>
       <c r="V374">
-        <v>1.925</v>
+        <v>1.79</v>
       </c>
       <c r="W374">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X374">
         <v>-1</v>
       </c>
       <c r="Y374">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z374">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA374">
-        <v>-0.5</v>
+        <v>1.08</v>
       </c>
       <c r="AB374">
-        <v>-1</v>
+        <v>1.11</v>
       </c>
       <c r="AC374">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -38088,7 +38088,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>6848027</v>
+        <v>6848029</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38100,46 +38100,46 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F423" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G423" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="K423">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="L423">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M423">
-        <v>7.5</v>
+        <v>2.25</v>
       </c>
       <c r="N423">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O423">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P423">
-        <v>8</v>
+        <v>2.375</v>
       </c>
       <c r="Q423">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R423">
+        <v>1.83</v>
+      </c>
+      <c r="S423">
         <v>2.07</v>
-      </c>
-      <c r="S423">
-        <v>1.83</v>
       </c>
       <c r="T423">
         <v>2.25</v>
       </c>
       <c r="U423">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="V423">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="W423">
         <v>0</v>
@@ -38236,7 +38236,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>6848029</v>
+        <v>6848027</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38248,46 +38248,46 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F425" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G425" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K425">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="L425">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M425">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="N425">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O425">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P425">
-        <v>2.375</v>
+        <v>8</v>
       </c>
       <c r="Q425">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R425">
+        <v>2.07</v>
+      </c>
+      <c r="S425">
         <v>1.83</v>
-      </c>
-      <c r="S425">
-        <v>2.07</v>
       </c>
       <c r="T425">
         <v>2.25</v>
       </c>
       <c r="U425">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="V425">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="W425">
         <v>0</v>

--- a/France Ligue 1/France Ligue 1.xlsx
+++ b/France Ligue 1/France Ligue 1.xlsx
@@ -103,12 +103,6 @@
     <t>France Ligue 1</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
     <t>PSG</t>
   </si>
   <si>
@@ -118,28 +112,34 @@
     <t>Nantes</t>
   </si>
   <si>
-    <t>Brest</t>
+    <t>Troyes</t>
   </si>
   <si>
-    <t>Troyes</t>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Reims</t>
   </si>
   <si>
     <t>Nice</t>
   </si>
   <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
     <t>AC Ajaccio</t>
   </si>
   <si>
-    <t>Auxerre</t>
+    <t>Brest</t>
   </si>
   <si>
     <t>Marseille</t>
   </si>
   <si>
-    <t>Montpellier</t>
+    <t>Clermont Foot</t>
   </si>
   <si>
-    <t>Clermont Foot</t>
+    <t>Montpellier</t>
   </si>
   <si>
     <t>Rennes</t>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5639215</v>
+        <v>5642185</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -652,7 +652,7 @@
         <v>40</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -661,41 +661,41 @@
         <v>51</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>9</v>
+      </c>
+      <c r="N2">
+        <v>1.3</v>
+      </c>
+      <c r="O2">
+        <v>6.5</v>
+      </c>
+      <c r="P2">
+        <v>8</v>
+      </c>
+      <c r="Q2">
+        <v>-1.75</v>
+      </c>
+      <c r="R2">
+        <v>1.925</v>
+      </c>
+      <c r="S2">
+        <v>1.925</v>
+      </c>
+      <c r="T2">
         <v>3.75</v>
       </c>
-      <c r="M2">
-        <v>3.5</v>
-      </c>
-      <c r="N2">
-        <v>1.8</v>
-      </c>
-      <c r="O2">
-        <v>4.2</v>
-      </c>
-      <c r="P2">
-        <v>4</v>
-      </c>
-      <c r="Q2">
-        <v>-0.75</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2">
-        <v>1.85</v>
-      </c>
-      <c r="T2">
-        <v>3.5</v>
-      </c>
       <c r="U2">
+        <v>1.875</v>
+      </c>
+      <c r="V2">
         <v>1.975</v>
       </c>
-      <c r="V2">
-        <v>1.875</v>
-      </c>
       <c r="W2">
         <v>-1</v>
       </c>
@@ -703,16 +703,16 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB2">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC2">
         <v>-1</v>
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5635385</v>
+        <v>5638914</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -738,73 +738,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K3">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M3">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="N3">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R3">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U3">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W3">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5642185</v>
+        <v>5642021</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,73 +827,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4">
-        <v>1.285</v>
+        <v>1.444</v>
       </c>
       <c r="L4">
+        <v>4.5</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>1.5</v>
+      </c>
+      <c r="O4">
+        <v>4.5</v>
+      </c>
+      <c r="P4">
         <v>6</v>
       </c>
-      <c r="M4">
-        <v>9</v>
-      </c>
-      <c r="N4">
-        <v>1.3</v>
-      </c>
-      <c r="O4">
-        <v>6.5</v>
-      </c>
-      <c r="P4">
-        <v>8</v>
-      </c>
       <c r="Q4">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5638914</v>
+        <v>5638915</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="L5">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M5">
-        <v>5.75</v>
+        <v>1.285</v>
       </c>
       <c r="N5">
-        <v>1.4</v>
+        <v>15</v>
       </c>
       <c r="O5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P5">
-        <v>5.75</v>
+        <v>1.166</v>
       </c>
       <c r="Q5">
-        <v>-1.5</v>
+        <v>2.25</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y5">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5642021</v>
+        <v>5635385</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1005,55 +1005,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>52</v>
       </c>
       <c r="K6">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="L6">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="N6">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O6">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S6">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1062,16 +1062,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC6">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5641663</v>
+        <v>5639215</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1094,37 +1094,37 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
         <v>51</v>
       </c>
       <c r="K7">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="L7">
+        <v>3.75</v>
+      </c>
+      <c r="M7">
+        <v>3.5</v>
+      </c>
+      <c r="N7">
+        <v>1.8</v>
+      </c>
+      <c r="O7">
+        <v>4.2</v>
+      </c>
+      <c r="P7">
         <v>4</v>
       </c>
-      <c r="M7">
-        <v>1.7</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7">
-        <v>3.8</v>
-      </c>
-      <c r="P7">
-        <v>1.7</v>
-      </c>
       <c r="Q7">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
         <v>2</v>
@@ -1133,13 +1133,13 @@
         <v>1.85</v>
       </c>
       <c r="T7">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U7">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V7">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
         <v>-1</v>
@@ -1148,19 +1148,19 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="Z7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB7">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1168,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5638915</v>
+        <v>5644619</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1183,73 +1183,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="N8">
-        <v>15</v>
+        <v>2.4</v>
       </c>
       <c r="O8">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="P8">
-        <v>1.166</v>
+        <v>2.55</v>
       </c>
       <c r="Q8">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="R8">
+        <v>1.825</v>
+      </c>
+      <c r="S8">
+        <v>2.025</v>
+      </c>
+      <c r="T8">
+        <v>3.5</v>
+      </c>
+      <c r="U8">
+        <v>1.9</v>
+      </c>
+      <c r="V8">
         <v>1.95</v>
       </c>
-      <c r="S8">
-        <v>1.9</v>
-      </c>
-      <c r="T8">
-        <v>4</v>
-      </c>
-      <c r="U8">
-        <v>1.975</v>
-      </c>
-      <c r="V8">
-        <v>1.875</v>
-      </c>
       <c r="W8">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X8">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1257,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5644619</v>
+        <v>5635384</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1272,70 +1272,70 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>3</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N9">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P9">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>1.89</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>2.01</v>
       </c>
       <c r="T9">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
         <v>1.95</v>
       </c>
       <c r="W9">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB9">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1435,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5635384</v>
+        <v>5641663</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1450,52 +1450,52 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
         <v>51</v>
       </c>
       <c r="K11">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O11">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P11">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R11">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
         <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1504,19 +1504,19 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>1.01</v>
+        <v>0.425</v>
       </c>
       <c r="AB11">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1536,7 +1536,7 @@
         <v>45149.66666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
         <v>47</v>
@@ -1628,7 +1628,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1714,10 +1714,10 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
         <v>49</v>
@@ -1880,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6847832</v>
+        <v>6847826</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1895,70 +1895,70 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M16">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N16">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T16">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.87</v>
+        <v>2.025</v>
       </c>
       <c r="V16">
-        <v>2.03</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.98</v>
+        <v>1.05</v>
       </c>
       <c r="AB16">
-        <v>0.8700000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6847826</v>
+        <v>6847831</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1981,28 +1981,28 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>2</v>
-      </c>
-      <c r="I17">
-        <v>4</v>
       </c>
       <c r="J17" t="s">
         <v>51</v>
       </c>
       <c r="K17">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="L17">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N17">
         <v>3</v>
@@ -2011,25 +2011,25 @@
         <v>3.4</v>
       </c>
       <c r="P17">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="Q17">
         <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S17">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2038,16 +2038,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.375</v>
+        <v>1.3</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB17">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6847831</v>
+        <v>6847832</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2070,73 +2070,73 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K18">
         <v>2.5</v>
       </c>
       <c r="L18">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M18">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O18">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P18">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.825</v>
+        <v>1.92</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.98</v>
       </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y18">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>1.025</v>
+        <v>0.98</v>
       </c>
       <c r="AB18">
-        <v>0.8999999999999999</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2429,7 +2429,7 @@
         <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2518,7 +2518,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2607,7 +2607,7 @@
         <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2693,10 +2693,10 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2782,10 +2782,10 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2874,7 +2874,7 @@
         <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2960,7 +2960,7 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
         <v>43</v>
@@ -3138,10 +3138,10 @@
         <v>45163.66666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3230,7 +3230,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3316,7 +3316,7 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
         <v>49</v>
@@ -3494,10 +3494,10 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3571,7 +3571,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6847848</v>
+        <v>6847843</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3583,76 +3583,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35">
+        <v>1.95</v>
+      </c>
+      <c r="L35">
+        <v>3.5</v>
+      </c>
+      <c r="M35">
+        <v>3.75</v>
+      </c>
+      <c r="N35">
+        <v>2.15</v>
+      </c>
+      <c r="O35">
+        <v>3.3</v>
+      </c>
+      <c r="P35">
+        <v>3.4</v>
+      </c>
+      <c r="Q35">
+        <v>-0.25</v>
+      </c>
+      <c r="R35">
         <v>1.85</v>
       </c>
-      <c r="L35">
-        <v>3.6</v>
-      </c>
-      <c r="M35">
-        <v>4</v>
-      </c>
-      <c r="N35">
-        <v>1.909</v>
-      </c>
-      <c r="O35">
-        <v>3.6</v>
-      </c>
-      <c r="P35">
-        <v>4</v>
-      </c>
-      <c r="Q35">
-        <v>-0.5</v>
-      </c>
-      <c r="R35">
-        <v>1.9</v>
-      </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T35">
         <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V35">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA35">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3660,7 +3660,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6847843</v>
+        <v>6847848</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3672,76 +3672,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K36">
+        <v>1.85</v>
+      </c>
+      <c r="L36">
+        <v>3.6</v>
+      </c>
+      <c r="M36">
+        <v>4</v>
+      </c>
+      <c r="N36">
+        <v>1.909</v>
+      </c>
+      <c r="O36">
+        <v>3.6</v>
+      </c>
+      <c r="P36">
+        <v>4</v>
+      </c>
+      <c r="Q36">
+        <v>-0.5</v>
+      </c>
+      <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
         <v>1.95</v>
-      </c>
-      <c r="L36">
-        <v>3.5</v>
-      </c>
-      <c r="M36">
-        <v>3.75</v>
-      </c>
-      <c r="N36">
-        <v>2.15</v>
-      </c>
-      <c r="O36">
-        <v>3.3</v>
-      </c>
-      <c r="P36">
-        <v>3.4</v>
-      </c>
-      <c r="Q36">
-        <v>-0.25</v>
-      </c>
-      <c r="R36">
-        <v>1.85</v>
-      </c>
-      <c r="S36">
-        <v>2</v>
       </c>
       <c r="T36">
         <v>2.5</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3761,7 +3761,7 @@
         <v>45165.50347222222</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
         <v>47</v>
@@ -3850,7 +3850,7 @@
         <v>45165.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -3939,7 +3939,7 @@
         <v>45170.66666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -4028,7 +4028,7 @@
         <v>45171.5</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
         <v>42</v>
@@ -4117,7 +4117,7 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
         <v>49</v>
@@ -4209,7 +4209,7 @@
         <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4283,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6847858</v>
+        <v>6847857</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4295,73 +4295,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="L43">
         <v>3.4</v>
       </c>
       <c r="M43">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N43">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="O43">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P43">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q43">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.875</v>
+        <v>1.82</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>2.11</v>
       </c>
       <c r="T43">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>2.09</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.81</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X43">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.875</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.9750000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4372,7 +4372,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6847857</v>
+        <v>6847858</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4384,73 +4384,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K44">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="L44">
         <v>3.4</v>
       </c>
       <c r="M44">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N44">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="O44">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P44">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R44">
-        <v>1.82</v>
+        <v>1.875</v>
       </c>
       <c r="S44">
-        <v>2.11</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>2.09</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>1.81</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.8200000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>1.09</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4476,7 +4476,7 @@
         <v>47</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4562,7 +4562,7 @@
         <v>45172.50347222222</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
         <v>43</v>
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4740,10 +4740,10 @@
         <v>45184.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -5007,10 +5007,10 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F51" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" t="s">
         <v>30</v>
-      </c>
-      <c r="G51" t="s">
-        <v>32</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5099,7 +5099,7 @@
         <v>43</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5185,10 +5185,10 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5274,10 +5274,10 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5541,10 +5541,10 @@
         <v>45191.66666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5630,10 +5630,10 @@
         <v>45192.5</v>
       </c>
       <c r="F58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" t="s">
         <v>33</v>
-      </c>
-      <c r="G58" t="s">
-        <v>30</v>
       </c>
       <c r="H58">
         <v>5</v>
@@ -5719,7 +5719,7 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6847872</v>
+        <v>6847874</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,10 +5897,10 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5912,43 +5912,43 @@
         <v>52</v>
       </c>
       <c r="K61">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M61">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="N61">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="O61">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P61">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q61">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S61">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U61">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W61">
-        <v>0.3999999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5957,16 +5957,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA61">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AC61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6847874</v>
+        <v>6847872</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5986,10 +5986,10 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6001,43 +6001,43 @@
         <v>52</v>
       </c>
       <c r="K62">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="L62">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M62">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="N62">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="O62">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P62">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R62">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T62">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
-        <v>1.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6046,16 +6046,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB62">
-        <v>0.925</v>
+        <v>0.5125</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6075,7 +6075,7 @@
         <v>45193.50347222222</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s">
         <v>42</v>
@@ -6164,7 +6164,7 @@
         <v>45193.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
         <v>39</v>
@@ -6256,7 +6256,7 @@
         <v>47</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6431,10 +6431,10 @@
         <v>45199.5</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6520,7 +6520,7 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
         <v>39</v>
@@ -6609,7 +6609,7 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
         <v>45</v>
@@ -6787,10 +6787,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6965,10 +6965,10 @@
         <v>45200.50347222222</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7057,7 +7057,7 @@
         <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7146,7 +7146,7 @@
         <v>43</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7235,7 +7235,7 @@
         <v>44</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7321,10 +7321,10 @@
         <v>45206.66666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6847888</v>
+        <v>6847892</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,61 +7499,61 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
         <v>53</v>
       </c>
       <c r="K79">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L79">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M79">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N79">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O79">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P79">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q79">
         <v>-0.75</v>
       </c>
       <c r="R79">
+        <v>1.95</v>
+      </c>
+      <c r="S79">
+        <v>1.9</v>
+      </c>
+      <c r="T79">
+        <v>2.75</v>
+      </c>
+      <c r="U79">
         <v>1.875</v>
       </c>
-      <c r="S79">
+      <c r="V79">
         <v>1.975</v>
       </c>
-      <c r="T79">
-        <v>2.5</v>
-      </c>
-      <c r="U79">
-        <v>2.025</v>
-      </c>
-      <c r="V79">
-        <v>1.825</v>
-      </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y79">
         <v>-1</v>
@@ -7562,13 +7562,13 @@
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC79">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7576,7 +7576,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6847892</v>
+        <v>6847888</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7588,62 +7588,62 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
         <v>53</v>
       </c>
       <c r="K80">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L80">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M80">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N80">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O80">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P80">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q80">
         <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S80">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T80">
+        <v>2.5</v>
+      </c>
+      <c r="U80">
+        <v>2.025</v>
+      </c>
+      <c r="V80">
+        <v>1.825</v>
+      </c>
+      <c r="W80">
+        <v>-1</v>
+      </c>
+      <c r="X80">
         <v>2.75</v>
       </c>
-      <c r="U80">
-        <v>1.875</v>
-      </c>
-      <c r="V80">
-        <v>1.975</v>
-      </c>
-      <c r="W80">
-        <v>-1</v>
-      </c>
-      <c r="X80">
-        <v>2.8</v>
-      </c>
       <c r="Y80">
         <v>-1</v>
       </c>
@@ -7651,13 +7651,13 @@
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB80">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7769,7 +7769,7 @@
         <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7944,7 +7944,7 @@
         <v>45220.5</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
         <v>43</v>
@@ -8033,7 +8033,7 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
         <v>39</v>
@@ -8122,7 +8122,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8199,7 +8199,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6847900</v>
+        <v>6847903</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8211,13 +8211,13 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -8226,25 +8226,25 @@
         <v>52</v>
       </c>
       <c r="K87">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N87">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="O87">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P87">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
         <v>1.875</v>
@@ -8253,16 +8253,16 @@
         <v>1.975</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
-        <v>0.8500000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8280,7 +8280,7 @@
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8288,7 +8288,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6847903</v>
+        <v>6847900</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8300,13 +8300,13 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G88" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -8315,25 +8315,25 @@
         <v>52</v>
       </c>
       <c r="K88">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L88">
+        <v>3.75</v>
+      </c>
+      <c r="M88">
+        <v>5</v>
+      </c>
+      <c r="N88">
+        <v>1.85</v>
+      </c>
+      <c r="O88">
         <v>3.4</v>
       </c>
-      <c r="M88">
-        <v>2.3</v>
-      </c>
-      <c r="N88">
-        <v>3.1</v>
-      </c>
-      <c r="O88">
-        <v>3.5</v>
-      </c>
       <c r="P88">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q88">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
         <v>1.875</v>
@@ -8342,16 +8342,16 @@
         <v>1.975</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
-        <v>2.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8369,7 +8369,7 @@
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8392,7 +8392,7 @@
         <v>46</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8478,7 +8478,7 @@
         <v>45221.50347222222</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>44</v>
@@ -8570,7 +8570,7 @@
         <v>45</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8656,10 +8656,10 @@
         <v>45226.66666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8745,10 +8745,10 @@
         <v>45227.5</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8837,7 +8837,7 @@
         <v>49</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -8923,10 +8923,10 @@
         <v>45228.375</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9000,7 +9000,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6847911</v>
+        <v>6847912</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9012,76 +9012,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G96" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K96">
-        <v>2.25</v>
+        <v>1.869</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M96">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N96">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="O96">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P96">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
+        <v>1.85</v>
+      </c>
+      <c r="S96">
         <v>2</v>
       </c>
-      <c r="S96">
-        <v>1.85</v>
-      </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U96">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="V96">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X96">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA96">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC96">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9089,7 +9089,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6847912</v>
+        <v>6847907</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9101,13 +9101,13 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -9116,43 +9116,43 @@
         <v>52</v>
       </c>
       <c r="K97">
-        <v>1.869</v>
+        <v>2.2</v>
       </c>
       <c r="L97">
         <v>3.75</v>
       </c>
       <c r="M97">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="N97">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P97">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S97">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U97">
+        <v>2.025</v>
+      </c>
+      <c r="V97">
         <v>1.825</v>
       </c>
-      <c r="V97">
-        <v>2.025</v>
-      </c>
       <c r="W97">
-        <v>0.833</v>
+        <v>1.375</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9161,16 +9161,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
+        <v>-1</v>
+      </c>
+      <c r="AC97">
         <v>0.825</v>
-      </c>
-      <c r="AC97">
-        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9178,7 +9178,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6847907</v>
+        <v>6847911</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9190,76 +9190,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>53</v>
+      </c>
+      <c r="K98">
+        <v>2.25</v>
+      </c>
+      <c r="L98">
+        <v>3.5</v>
+      </c>
+      <c r="M98">
+        <v>3</v>
+      </c>
+      <c r="N98">
+        <v>2.8</v>
+      </c>
+      <c r="O98">
+        <v>3.1</v>
+      </c>
+      <c r="P98">
+        <v>2.7</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
         <v>2</v>
       </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98" t="s">
-        <v>52</v>
-      </c>
-      <c r="K98">
-        <v>2.2</v>
-      </c>
-      <c r="L98">
-        <v>3.75</v>
-      </c>
-      <c r="M98">
-        <v>2.9</v>
-      </c>
-      <c r="N98">
-        <v>2.375</v>
-      </c>
-      <c r="O98">
-        <v>3.6</v>
-      </c>
-      <c r="P98">
-        <v>2.75</v>
-      </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-      <c r="R98">
-        <v>1.825</v>
-      </c>
       <c r="S98">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W98">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9368,10 +9368,10 @@
         <v>45233.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9457,7 +9457,7 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
         <v>49</v>
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6847922</v>
+        <v>6847915</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,76 +9724,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K104">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M104">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="N104">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O104">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P104">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y104">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA104">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6847915</v>
+        <v>6847922</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9902,76 +9902,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K106">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L106">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="N106">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O106">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P106">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S106">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T106">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9991,10 +9991,10 @@
         <v>45235.54513888889</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10080,7 +10080,7 @@
         <v>45235.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
         <v>42</v>
@@ -10169,10 +10169,10 @@
         <v>45240.70833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10258,10 +10258,10 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F110" t="s">
+        <v>34</v>
+      </c>
+      <c r="G110" t="s">
         <v>29</v>
-      </c>
-      <c r="G110" t="s">
-        <v>31</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10350,7 +10350,7 @@
         <v>48</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10528,7 +10528,7 @@
         <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>3</v>
@@ -10614,10 +10614,10 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10881,10 +10881,10 @@
         <v>45254.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>5</v>
@@ -10970,7 +10970,7 @@
         <v>45255.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
         <v>49</v>
@@ -11148,7 +11148,7 @@
         <v>45256.375</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
         <v>46</v>
@@ -11237,7 +11237,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
         <v>48</v>
@@ -11326,10 +11326,10 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11415,7 +11415,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
         <v>44</v>
@@ -11507,7 +11507,7 @@
         <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11682,10 +11682,10 @@
         <v>45259.625</v>
       </c>
       <c r="F126" t="s">
+        <v>41</v>
+      </c>
+      <c r="G126" t="s">
         <v>40</v>
-      </c>
-      <c r="G126" t="s">
-        <v>41</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11771,7 +11771,7 @@
         <v>45261.70833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G127" t="s">
         <v>43</v>
@@ -11949,10 +11949,10 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12041,7 +12041,7 @@
         <v>48</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12127,10 +12127,10 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H131">
         <v>3</v>
@@ -12216,10 +12216,10 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12308,7 +12308,7 @@
         <v>46</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12661,7 +12661,7 @@
         <v>45267.6875</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G137" t="s">
         <v>43</v>
@@ -12750,7 +12750,7 @@
         <v>45268.70833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
         <v>49</v>
@@ -12842,7 +12842,7 @@
         <v>42</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12928,10 +12928,10 @@
         <v>45269.70833333334</v>
       </c>
       <c r="F140" t="s">
+        <v>29</v>
+      </c>
+      <c r="G140" t="s">
         <v>31</v>
-      </c>
-      <c r="G140" t="s">
-        <v>33</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13017,10 +13017,10 @@
         <v>45270.375</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13094,7 +13094,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6847951</v>
+        <v>6847957</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13106,76 +13106,76 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G142" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K142">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="L142">
         <v>3.2</v>
       </c>
       <c r="M142">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N142">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="O142">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P142">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>2.02</v>
+        <v>1.975</v>
       </c>
       <c r="S142">
-        <v>1.88</v>
+        <v>1.875</v>
       </c>
       <c r="T142">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.86</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
-        <v>2.04</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z142">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB142">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13195,7 +13195,7 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
         <v>47</v>
@@ -13272,7 +13272,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6847957</v>
+        <v>6847951</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13284,76 +13284,76 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K144">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L144">
         <v>3.2</v>
       </c>
       <c r="M144">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N144">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="O144">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q144">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.975</v>
+        <v>2.02</v>
       </c>
       <c r="S144">
-        <v>1.875</v>
+        <v>1.88</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U144">
-        <v>2.025</v>
+        <v>1.86</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>2.04</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA144">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13462,7 +13462,7 @@
         <v>45270.69791666666</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
         <v>39</v>
@@ -13551,7 +13551,7 @@
         <v>45275.70833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
         <v>45</v>
@@ -13643,7 +13643,7 @@
         <v>48</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -13732,7 +13732,7 @@
         <v>49</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13818,10 +13818,10 @@
         <v>45277.375</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13910,7 +13910,7 @@
         <v>44</v>
       </c>
       <c r="G151" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -14085,7 +14085,7 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G153" t="s">
         <v>43</v>
@@ -14177,7 +14177,7 @@
         <v>39</v>
       </c>
       <c r="G154" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14266,7 +14266,7 @@
         <v>47</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14352,7 +14352,7 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G156" t="s">
         <v>42</v>
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6847969</v>
+        <v>6847976</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,46 +14441,46 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>52</v>
       </c>
       <c r="K157">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="L157">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M157">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N157">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="O157">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P157">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="Q157">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R157">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S157">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T157">
         <v>2.5</v>
@@ -14492,7 +14492,7 @@
         <v>1.825</v>
       </c>
       <c r="W157">
-        <v>2.6</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14501,7 +14501,7 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA157">
         <v>-1</v>
@@ -14518,7 +14518,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6847970</v>
+        <v>6847975</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14530,49 +14530,49 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K158">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L158">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="N158">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O158">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P158">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q158">
         <v>0.5</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T158">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
         <v>1.925</v>
@@ -14584,22 +14584,22 @@
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA158">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14607,7 +14607,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6847968</v>
+        <v>6847972</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14619,58 +14619,58 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
         <v>52</v>
       </c>
       <c r="K159">
-        <v>1.142</v>
+        <v>2.2</v>
       </c>
       <c r="L159">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="M159">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="N159">
-        <v>1.111</v>
+        <v>2.25</v>
       </c>
       <c r="O159">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="P159">
-        <v>23</v>
+        <v>3.3</v>
       </c>
       <c r="Q159">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R159">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="S159">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="T159">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U159">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="V159">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="W159">
-        <v>0.111</v>
+        <v>1.25</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14679,16 +14679,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
+        <v>0.99</v>
+      </c>
+      <c r="AA159">
+        <v>-1</v>
+      </c>
+      <c r="AB159">
         <v>-0.5</v>
       </c>
-      <c r="AA159">
-        <v>0.53</v>
-      </c>
-      <c r="AB159">
-        <v>0.8700000000000001</v>
-      </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14711,7 +14711,7 @@
         <v>45</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6847974</v>
+        <v>6847970</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,40 +14797,40 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G161" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K161">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="L161">
+        <v>3.8</v>
+      </c>
+      <c r="M161">
+        <v>1.75</v>
+      </c>
+      <c r="N161">
+        <v>3.75</v>
+      </c>
+      <c r="O161">
         <v>4</v>
       </c>
-      <c r="M161">
-        <v>5</v>
-      </c>
-      <c r="N161">
-        <v>1.727</v>
-      </c>
-      <c r="O161">
-        <v>3.8</v>
-      </c>
       <c r="P161">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q161">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R161">
         <v>1.975</v>
@@ -14839,7 +14839,7 @@
         <v>1.875</v>
       </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U161">
         <v>1.925</v>
@@ -14848,25 +14848,25 @@
         <v>1.925</v>
       </c>
       <c r="W161">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z161">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC161">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6847975</v>
+        <v>6847969</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,76 +14886,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G162" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162">
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K162">
+        <v>4</v>
+      </c>
+      <c r="L162">
+        <v>3.3</v>
+      </c>
+      <c r="M162">
+        <v>1.95</v>
+      </c>
+      <c r="N162">
+        <v>3.6</v>
+      </c>
+      <c r="O162">
         <v>3.4</v>
       </c>
-      <c r="L162">
-        <v>3.4</v>
-      </c>
-      <c r="M162">
-        <v>2.1</v>
-      </c>
-      <c r="N162">
-        <v>4</v>
-      </c>
-      <c r="O162">
-        <v>3.6</v>
-      </c>
       <c r="P162">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="Q162">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R162">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S162">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T162">
         <v>2.5</v>
       </c>
       <c r="U162">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V162">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X162">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA162">
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC162">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14963,7 +14963,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6847976</v>
+        <v>6847968</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14975,58 +14975,58 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H163">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
         <v>52</v>
       </c>
       <c r="K163">
-        <v>1.615</v>
+        <v>1.142</v>
       </c>
       <c r="L163">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="M163">
-        <v>5.25</v>
+        <v>17</v>
       </c>
       <c r="N163">
-        <v>1.65</v>
+        <v>1.111</v>
       </c>
       <c r="O163">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="P163">
-        <v>5.5</v>
+        <v>23</v>
       </c>
       <c r="Q163">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R163">
-        <v>1.875</v>
+        <v>1.87</v>
       </c>
       <c r="S163">
-        <v>1.975</v>
+        <v>2.06</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U163">
-        <v>2.025</v>
+        <v>1.87</v>
       </c>
       <c r="V163">
-        <v>1.825</v>
+        <v>2.03</v>
       </c>
       <c r="W163">
-        <v>0.6499999999999999</v>
+        <v>0.111</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15035,13 +15035,13 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
       <c r="AB163">
-        <v>1.025</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15052,7 +15052,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6847972</v>
+        <v>6847974</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15064,13 +15064,13 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G164" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -15079,43 +15079,43 @@
         <v>52</v>
       </c>
       <c r="K164">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="L164">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M164">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N164">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="O164">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P164">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R164">
-        <v>1.99</v>
+        <v>1.975</v>
       </c>
       <c r="S164">
-        <v>1.94</v>
+        <v>1.875</v>
       </c>
       <c r="T164">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U164">
-        <v>1.99</v>
+        <v>1.925</v>
       </c>
       <c r="V164">
-        <v>1.91</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
-        <v>1.25</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15124,16 +15124,16 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.99</v>
+        <v>0.4875</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.455</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15242,10 +15242,10 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15334,7 +15334,7 @@
         <v>42</v>
       </c>
       <c r="G167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15423,7 +15423,7 @@
         <v>47</v>
       </c>
       <c r="G168" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -15497,7 +15497,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6847984</v>
+        <v>6847982</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15509,55 +15509,55 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
         <v>51</v>
       </c>
       <c r="K169">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="L169">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M169">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="N169">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O169">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P169">
+        <v>3.8</v>
+      </c>
+      <c r="Q169">
+        <v>-0.5</v>
+      </c>
+      <c r="R169">
+        <v>1.9</v>
+      </c>
+      <c r="S169">
+        <v>1.95</v>
+      </c>
+      <c r="T169">
         <v>2.5</v>
       </c>
-      <c r="Q169">
-        <v>0</v>
-      </c>
-      <c r="R169">
-        <v>2.025</v>
-      </c>
-      <c r="S169">
-        <v>1.825</v>
-      </c>
-      <c r="T169">
-        <v>2.25</v>
-      </c>
       <c r="U169">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V169">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W169">
         <v>-1</v>
@@ -15566,19 +15566,19 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC169">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15586,7 +15586,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6847982</v>
+        <v>6847984</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15598,55 +15598,55 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
         <v>1</v>
-      </c>
-      <c r="I170">
-        <v>2</v>
       </c>
       <c r="J170" t="s">
         <v>51</v>
       </c>
       <c r="K170">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="L170">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M170">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="N170">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O170">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P170">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q170">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R170">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S170">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T170">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V170">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15655,19 +15655,19 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB170">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15687,10 +15687,10 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -15868,7 +15868,7 @@
         <v>49</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -16043,7 +16043,7 @@
         <v>45318.54166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16135,7 +16135,7 @@
         <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16221,7 +16221,7 @@
         <v>45319.375</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G177" t="s">
         <v>47</v>
@@ -16310,10 +16310,10 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -16399,7 +16399,7 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
         <v>48</v>
@@ -16488,7 +16488,7 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G180" t="s">
         <v>43</v>
@@ -16666,10 +16666,10 @@
         <v>45319.69791666666</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G182" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16758,7 +16758,7 @@
         <v>43</v>
       </c>
       <c r="G183" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16847,7 +16847,7 @@
         <v>42</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16933,7 +16933,7 @@
         <v>45325.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
         <v>49</v>
@@ -17022,7 +17022,7 @@
         <v>45326.375</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G186" t="s">
         <v>48</v>
@@ -17114,7 +17114,7 @@
         <v>44</v>
       </c>
       <c r="G187" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7728862</v>
+        <v>7728864</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,73 +17200,73 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J188" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K188">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L188">
+        <v>3.5</v>
+      </c>
+      <c r="M188">
+        <v>4.75</v>
+      </c>
+      <c r="N188">
+        <v>1.85</v>
+      </c>
+      <c r="O188">
+        <v>3.4</v>
+      </c>
+      <c r="P188">
         <v>4.5</v>
       </c>
-      <c r="M188">
-        <v>8</v>
-      </c>
-      <c r="N188">
-        <v>1.4</v>
-      </c>
-      <c r="O188">
-        <v>4.75</v>
-      </c>
-      <c r="P188">
-        <v>7.5</v>
-      </c>
       <c r="Q188">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S188">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V188">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W188">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z188">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB188">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17277,7 +17277,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7728864</v>
+        <v>7728862</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17289,73 +17289,73 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G189" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H189">
+        <v>4</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189" t="s">
+        <v>52</v>
+      </c>
+      <c r="K189">
+        <v>1.4</v>
+      </c>
+      <c r="L189">
+        <v>4.5</v>
+      </c>
+      <c r="M189">
+        <v>8</v>
+      </c>
+      <c r="N189">
+        <v>1.4</v>
+      </c>
+      <c r="O189">
+        <v>4.75</v>
+      </c>
+      <c r="P189">
+        <v>7.5</v>
+      </c>
+      <c r="Q189">
+        <v>-1.25</v>
+      </c>
+      <c r="R189">
         <v>2</v>
       </c>
-      <c r="I189">
-        <v>3</v>
-      </c>
-      <c r="J189" t="s">
-        <v>51</v>
-      </c>
-      <c r="K189">
-        <v>1.75</v>
-      </c>
-      <c r="L189">
-        <v>3.5</v>
-      </c>
-      <c r="M189">
-        <v>4.75</v>
-      </c>
-      <c r="N189">
+      <c r="S189">
         <v>1.85</v>
       </c>
-      <c r="O189">
-        <v>3.4</v>
-      </c>
-      <c r="P189">
-        <v>4.5</v>
-      </c>
-      <c r="Q189">
-        <v>-0.75</v>
-      </c>
-      <c r="R189">
-        <v>2.05</v>
-      </c>
-      <c r="S189">
-        <v>1.8</v>
-      </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V189">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17378,10 +17378,10 @@
         <v>45326.54513888889</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G190" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17734,7 +17734,7 @@
         <v>45332.70833333334</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G194" t="s">
         <v>47</v>
@@ -17912,10 +17912,10 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17989,7 +17989,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6848007</v>
+        <v>6848005</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18001,76 +18001,76 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G197" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197">
         <v>2</v>
       </c>
-      <c r="I197">
-        <v>0</v>
-      </c>
       <c r="J197" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K197">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="L197">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M197">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N197">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="O197">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P197">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="Q197">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S197">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T197">
         <v>2.5</v>
       </c>
       <c r="U197">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V197">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W197">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z197">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC197">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18078,7 +18078,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6848005</v>
+        <v>6848007</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18090,76 +18090,76 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G198" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K198">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="L198">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M198">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="N198">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="O198">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P198">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="Q198">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R198">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S198">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T198">
         <v>2.5</v>
       </c>
       <c r="U198">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V198">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA198">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18179,7 +18179,7 @@
         <v>45333.54513888889</v>
       </c>
       <c r="F199" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G199" t="s">
         <v>45</v>
@@ -18268,10 +18268,10 @@
         <v>45333.69791666666</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G200" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18360,7 +18360,7 @@
         <v>45</v>
       </c>
       <c r="G201" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18446,10 +18446,10 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G202" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -18538,7 +18538,7 @@
         <v>43</v>
       </c>
       <c r="G203" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18612,7 +18612,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6848015</v>
+        <v>6848020</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18624,76 +18624,76 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G204" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I204">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K204">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="L204">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M204">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N204">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O204">
         <v>4</v>
       </c>
       <c r="P204">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q204">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R204">
+        <v>1.8</v>
+      </c>
+      <c r="S204">
         <v>2.05</v>
       </c>
-      <c r="S204">
+      <c r="T204">
+        <v>2.25</v>
+      </c>
+      <c r="U204">
         <v>1.8</v>
       </c>
-      <c r="T204">
-        <v>2.75</v>
-      </c>
-      <c r="U204">
-        <v>1.975</v>
-      </c>
       <c r="V204">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W204">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA204">
+        <v>-1</v>
+      </c>
+      <c r="AB204">
         <v>0.8</v>
       </c>
-      <c r="AB204">
-        <v>0.4875</v>
-      </c>
       <c r="AC204">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18701,7 +18701,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6848020</v>
+        <v>6848014</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18713,58 +18713,58 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F205" t="s">
+        <v>42</v>
+      </c>
+      <c r="G205" t="s">
         <v>40</v>
-      </c>
-      <c r="G205" t="s">
-        <v>44</v>
       </c>
       <c r="H205">
         <v>3</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
         <v>52</v>
       </c>
       <c r="K205">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L205">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M205">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N205">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O205">
         <v>4</v>
       </c>
       <c r="P205">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q205">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R205">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="S205">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T205">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V205">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W205">
-        <v>0.6499999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18773,13 +18773,13 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.8</v>
+        <v>1.08</v>
       </c>
       <c r="AA205">
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC205">
         <v>-1</v>
@@ -18790,7 +18790,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6848014</v>
+        <v>6848015</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18802,25 +18802,25 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G206" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K206">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="L206">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M206">
         <v>6</v>
@@ -18838,40 +18838,40 @@
         <v>-1</v>
       </c>
       <c r="R206">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S206">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V206">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W206">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z206">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB206">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18891,7 +18891,7 @@
         <v>45340.54513888889</v>
       </c>
       <c r="F207" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G207" t="s">
         <v>49</v>
@@ -18980,7 +18980,7 @@
         <v>45340.69791666666</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G208" t="s">
         <v>39</v>
@@ -19158,10 +19158,10 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G210" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19250,7 +19250,7 @@
         <v>43</v>
       </c>
       <c r="G211" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -19339,7 +19339,7 @@
         <v>49</v>
       </c>
       <c r="G212" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19413,7 +19413,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6848027</v>
+        <v>6848024</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19425,76 +19425,76 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G213" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K213">
-        <v>1.45</v>
+        <v>4.2</v>
       </c>
       <c r="L213">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M213">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="N213">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="O213">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="Q213">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R213">
-        <v>2.09</v>
+        <v>1.825</v>
       </c>
       <c r="S213">
-        <v>1.84</v>
+        <v>2.025</v>
       </c>
       <c r="T213">
         <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V213">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X213">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA213">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC213">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19502,7 +19502,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6848029</v>
+        <v>6848027</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19514,76 +19514,76 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G214" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K214">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="L214">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M214">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="N214">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="O214">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P214">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="S214">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y214">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.98</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB214">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19591,7 +19591,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6848024</v>
+        <v>6848029</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19603,73 +19603,73 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G215" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K215">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="L215">
         <v>3.25</v>
       </c>
       <c r="M215">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="N215">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O215">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P215">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q215">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S215">
-        <v>2.025</v>
+        <v>1.98</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>2.025</v>
+        <v>2.06</v>
       </c>
       <c r="V215">
-        <v>1.825</v>
+        <v>1.84</v>
       </c>
       <c r="W215">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z215">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB215">
-        <v>1.025</v>
+        <v>1.06</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19692,7 +19692,7 @@
         <v>45347.54513888889</v>
       </c>
       <c r="F216" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
         <v>42</v>
@@ -19784,7 +19784,7 @@
         <v>39</v>
       </c>
       <c r="G217" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H217">
         <v>4</v>
@@ -19870,10 +19870,10 @@
         <v>45352.70833333334</v>
       </c>
       <c r="F218" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G218" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K218">
         <v>3.2</v>
@@ -19897,19 +19897,19 @@
         <v>0.5</v>
       </c>
       <c r="R218">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S218">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="T218">
         <v>3</v>
       </c>
       <c r="U218">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V218">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19944,7 +19944,7 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F219" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G219" t="s">
         <v>47</v>
@@ -19959,22 +19959,22 @@
         <v>2.5</v>
       </c>
       <c r="N219">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O219">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P219">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q219">
         <v>0</v>
       </c>
       <c r="R219">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="S219">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="T219">
         <v>2.5</v>
@@ -20018,7 +20018,7 @@
         <v>45353.70833333334</v>
       </c>
       <c r="F220" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G220" t="s">
         <v>39</v>
@@ -20045,19 +20045,19 @@
         <v>0.5</v>
       </c>
       <c r="R220">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="S220">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="T220">
         <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V220">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="W220">
         <v>0</v>
@@ -20095,7 +20095,7 @@
         <v>46</v>
       </c>
       <c r="G221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K221">
         <v>3.6</v>
@@ -20119,10 +20119,10 @@
         <v>0.25</v>
       </c>
       <c r="R221">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S221">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T221">
         <v>2.25</v>
@@ -20166,7 +20166,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G222" t="s">
         <v>44</v>
@@ -20193,19 +20193,19 @@
         <v>-0.5</v>
       </c>
       <c r="R222">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S222">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="T222">
         <v>2.25</v>
       </c>
       <c r="U222">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V222">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="W222">
         <v>0</v>
@@ -20240,7 +20240,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F223" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G223" t="s">
         <v>43</v>
@@ -20276,10 +20276,10 @@
         <v>2.5</v>
       </c>
       <c r="U223">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="V223">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="W223">
         <v>0</v>
@@ -20314,7 +20314,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F224" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G224" t="s">
         <v>48</v>
@@ -20329,31 +20329,31 @@
         <v>5.25</v>
       </c>
       <c r="N224">
-        <v>1.615</v>
+        <v>1.55</v>
       </c>
       <c r="O224">
         <v>3.8</v>
       </c>
       <c r="P224">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q224">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R224">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="S224">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="T224">
         <v>2.5</v>
       </c>
       <c r="U224">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V224">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="W224">
         <v>0</v>
@@ -20391,7 +20391,7 @@
         <v>42</v>
       </c>
       <c r="G225" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K225">
         <v>1.4</v>
@@ -20415,19 +20415,19 @@
         <v>-1.25</v>
       </c>
       <c r="R225">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="S225">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="T225">
         <v>2.75</v>
       </c>
       <c r="U225">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V225">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="W225">
         <v>0</v>
@@ -20498,10 +20498,10 @@
         <v>2.5</v>
       </c>
       <c r="U226">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="V226">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W226">
         <v>0</v>

--- a/France Ligue 1/France Ligue 1.xlsx
+++ b/France Ligue 1/France Ligue 1.xlsx
@@ -103,19 +103,16 @@
     <t>France Ligue 1</t>
   </si>
   <si>
-    <t>PSG</t>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
   </si>
   <si>
     <t>Monaco</t>
   </si>
   <si>
-    <t>Nantes</t>
-  </si>
-  <si>
     <t>Troyes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
   </si>
   <si>
     <t>Reims</t>
@@ -124,13 +121,16 @@
     <t>Nice</t>
   </si>
   <si>
-    <t>Auxerre</t>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Brest</t>
   </si>
   <si>
     <t>AC Ajaccio</t>
-  </si>
-  <si>
-    <t>Brest</t>
   </si>
   <si>
     <t>Marseille</t>
@@ -169,10 +169,10 @@
     <t>Angers</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5642185</v>
+        <v>5635385</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -649,46 +649,46 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>51</v>
       </c>
       <c r="K2">
-        <v>1.285</v>
+        <v>2.9</v>
       </c>
       <c r="L2">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M2">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="N2">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="O2">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P2">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="Q2">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R2">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
         <v>1.875</v>
@@ -697,25 +697,25 @@
         <v>1.975</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA2">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5638914</v>
+        <v>5635384</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -738,52 +738,52 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L3">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="N3">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P3">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q3">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R3">
-        <v>1.925</v>
+        <v>1.89</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>2.01</v>
       </c>
       <c r="T3">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -792,19 +792,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>4.75</v>
+        <v>1.2</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>1.01</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5642021</v>
+        <v>5638914</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,73 +827,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>52</v>
       </c>
       <c r="K4">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="L4">
         <v>4.5</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="N4">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O4">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="P4">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R4">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W4">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5635385</v>
+        <v>5639215</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1005,73 +1005,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
         <v>52</v>
       </c>
       <c r="K6">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="N6">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="O6">
+        <v>4.2</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>-0.75</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>1.85</v>
+      </c>
+      <c r="T6">
         <v>3.5</v>
       </c>
-      <c r="P6">
-        <v>2.25</v>
-      </c>
-      <c r="Q6">
-        <v>0.25</v>
-      </c>
-      <c r="R6">
-        <v>1.825</v>
-      </c>
-      <c r="S6">
-        <v>2.025</v>
-      </c>
-      <c r="T6">
-        <v>2.75</v>
-      </c>
       <c r="U6">
+        <v>1.975</v>
+      </c>
+      <c r="V6">
         <v>1.875</v>
       </c>
-      <c r="V6">
-        <v>1.975</v>
-      </c>
       <c r="W6">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5639215</v>
+        <v>5644619</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1094,70 +1094,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
         <v>1</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
       </c>
       <c r="J7" t="s">
         <v>51</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N7">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O7">
         <v>4.2</v>
       </c>
       <c r="P7">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T7">
         <v>3.5</v>
       </c>
       <c r="U7">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1168,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5644619</v>
+        <v>5642185</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1183,70 +1183,70 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
         <v>3</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>52</v>
       </c>
       <c r="K8">
-        <v>2.45</v>
+        <v>1.285</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="N8">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O8">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P8">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T8">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB8">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1257,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5635384</v>
+        <v>5642021</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1272,73 +1272,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>51</v>
       </c>
       <c r="K9">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L9">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M9">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O9">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R9">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="T9">
         <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>1.01</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1346,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5641662</v>
+        <v>5641663</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1361,73 +1361,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>52</v>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>1.7</v>
+      </c>
+      <c r="N10">
         <v>5</v>
       </c>
-      <c r="M10">
-        <v>1.363</v>
-      </c>
-      <c r="N10">
-        <v>7.5</v>
-      </c>
       <c r="O10">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P10">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="Q10">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R10">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W10">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z10">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC10">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1435,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5641663</v>
+        <v>5641662</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1450,73 +1450,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>51</v>
       </c>
       <c r="K11">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M11">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="N11">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="O11">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P11">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="Q11">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T11">
         <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V11">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA11">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1536,7 +1536,7 @@
         <v>45149.66666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
         <v>47</v>
@@ -1628,7 +1628,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13">
         <v>1.666</v>
@@ -1714,10 +1714,10 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
         <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
         <v>49</v>
@@ -1815,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K15">
         <v>4.5</v>
@@ -1895,7 +1895,7 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1904,7 +1904,7 @@
         <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K16">
         <v>4.2</v>
@@ -1981,7 +1981,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -1993,7 +1993,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17">
         <v>2.5</v>
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19">
         <v>1.333</v>
@@ -2260,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K20">
         <v>2.625</v>
@@ -2438,7 +2438,7 @@
         <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22">
         <v>1.666</v>
@@ -2518,7 +2518,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2607,7 +2607,7 @@
         <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K24">
         <v>1.444</v>
@@ -2681,7 +2681,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6847834</v>
+        <v>6847838</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2696,46 +2696,46 @@
         <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K25">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M25">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N25">
-        <v>3.3</v>
+        <v>1.833</v>
       </c>
       <c r="O25">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P25">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q25">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
         <v>1.875</v>
@@ -2744,25 +2744,25 @@
         <v>1.975</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X25">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2770,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6847838</v>
+        <v>6847840</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2782,76 +2782,76 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>2</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>52</v>
       </c>
       <c r="K26">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L26">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N26">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="O26">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S26">
+        <v>1.9</v>
+      </c>
+      <c r="T26">
         <v>2</v>
       </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
       <c r="U26">
+        <v>1.975</v>
+      </c>
+      <c r="V26">
         <v>1.875</v>
       </c>
-      <c r="V26">
-        <v>1.975</v>
-      </c>
       <c r="W26">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z26">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6847840</v>
+        <v>6847834</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2871,76 +2871,76 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K27">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="L27">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="N27">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="O27">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P27">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
+        <v>1.9</v>
+      </c>
+      <c r="S27">
         <v>1.95</v>
       </c>
-      <c r="S27">
-        <v>1.9</v>
-      </c>
       <c r="T27">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
+        <v>1.875</v>
+      </c>
+      <c r="V27">
         <v>1.975</v>
       </c>
-      <c r="V27">
-        <v>1.875</v>
-      </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y27">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA27">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2960,7 +2960,7 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
         <v>43</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K28">
         <v>1.909</v>
@@ -3138,10 +3138,10 @@
         <v>45163.66666666666</v>
       </c>
       <c r="F30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
         <v>31</v>
-      </c>
-      <c r="G30" t="s">
-        <v>30</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3230,7 +3230,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K31">
         <v>1.4</v>
@@ -3316,7 +3316,7 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
         <v>49</v>
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K32">
         <v>1.6</v>
@@ -3497,7 +3497,7 @@
         <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3506,7 +3506,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K34">
         <v>2.4</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K35">
         <v>1.95</v>
@@ -3684,7 +3684,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36">
         <v>1.85</v>
@@ -3761,7 +3761,7 @@
         <v>45165.50347222222</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
         <v>47</v>
@@ -3773,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3850,7 +3850,7 @@
         <v>45165.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -3939,7 +3939,7 @@
         <v>45170.66666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -4028,7 +4028,7 @@
         <v>45171.5</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
         <v>42</v>
@@ -4117,7 +4117,7 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
         <v>49</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K41">
         <v>2.25</v>
@@ -4283,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6847857</v>
+        <v>6847853</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4295,58 +4295,58 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K43">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="L43">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N43">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O43">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P43">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.82</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>2.11</v>
+        <v>1.925</v>
       </c>
       <c r="T43">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U43">
-        <v>2.09</v>
+        <v>1.875</v>
       </c>
       <c r="V43">
-        <v>1.81</v>
+        <v>1.975</v>
       </c>
       <c r="W43">
-        <v>1.6</v>
+        <v>0.909</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4355,16 +4355,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.8200000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4387,7 +4387,7 @@
         <v>44</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4461,7 +4461,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6847853</v>
+        <v>6847857</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4473,59 +4473,59 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K45">
+        <v>2.7</v>
+      </c>
+      <c r="L45">
+        <v>3.4</v>
+      </c>
+      <c r="M45">
+        <v>2.5</v>
+      </c>
+      <c r="N45">
+        <v>2.6</v>
+      </c>
+      <c r="O45">
+        <v>3.2</v>
+      </c>
+      <c r="P45">
+        <v>2.875</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>1.82</v>
+      </c>
+      <c r="S45">
+        <v>2.11</v>
+      </c>
+      <c r="T45">
+        <v>2.25</v>
+      </c>
+      <c r="U45">
+        <v>2.09</v>
+      </c>
+      <c r="V45">
+        <v>1.81</v>
+      </c>
+      <c r="W45">
         <v>1.6</v>
       </c>
-      <c r="L45">
-        <v>4</v>
-      </c>
-      <c r="M45">
-        <v>5.25</v>
-      </c>
-      <c r="N45">
-        <v>1.909</v>
-      </c>
-      <c r="O45">
-        <v>3.75</v>
-      </c>
-      <c r="P45">
-        <v>3.75</v>
-      </c>
-      <c r="Q45">
-        <v>-0.5</v>
-      </c>
-      <c r="R45">
-        <v>1.925</v>
-      </c>
-      <c r="S45">
-        <v>1.925</v>
-      </c>
-      <c r="T45">
-        <v>2.75</v>
-      </c>
-      <c r="U45">
-        <v>1.875</v>
-      </c>
-      <c r="V45">
-        <v>1.975</v>
-      </c>
-      <c r="W45">
-        <v>0.909</v>
-      </c>
       <c r="X45">
         <v>-1</v>
       </c>
@@ -4533,16 +4533,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.925</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
       <c r="AC45">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4562,7 +4562,7 @@
         <v>45172.50347222222</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
         <v>43</v>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K46">
         <v>1.833</v>
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4663,7 +4663,7 @@
         <v>4</v>
       </c>
       <c r="J47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K47">
         <v>3.8</v>
@@ -4740,10 +4740,10 @@
         <v>45184.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4752,7 +4752,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K48">
         <v>1.444</v>
@@ -4930,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -5007,10 +5007,10 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5188,7 +5188,7 @@
         <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5197,7 +5197,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K53">
         <v>1.95</v>
@@ -5274,10 +5274,10 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5286,7 +5286,7 @@
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K54">
         <v>1.833</v>
@@ -5541,10 +5541,10 @@
         <v>45191.66666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5553,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K57">
         <v>1.909</v>
@@ -5630,10 +5630,10 @@
         <v>45192.5</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H58">
         <v>5</v>
@@ -5642,7 +5642,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K58">
         <v>2.2</v>
@@ -5719,7 +5719,7 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K59">
         <v>2.8</v>
@@ -5820,7 +5820,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K60">
         <v>3.1</v>
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6847874</v>
+        <v>6847872</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,10 +5897,10 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5909,46 +5909,46 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K61">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="L61">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M61">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="N61">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="O61">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P61">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R61">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T61">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V61">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
-        <v>1.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5957,16 +5957,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB61">
-        <v>0.925</v>
+        <v>0.5125</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6847872</v>
+        <v>6847874</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5986,10 +5986,10 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -5998,46 +5998,46 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K62">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M62">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="N62">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="O62">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P62">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q62">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S62">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U62">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W62">
-        <v>0.3999999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6046,16 +6046,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA62">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6164,7 +6164,7 @@
         <v>45193.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
         <v>39</v>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K64">
         <v>1.666</v>
@@ -6256,7 +6256,7 @@
         <v>47</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6265,7 +6265,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K65">
         <v>1.75</v>
@@ -6354,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K66">
         <v>2.9</v>
@@ -6434,7 +6434,7 @@
         <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6520,7 +6520,7 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
         <v>39</v>
@@ -6532,7 +6532,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K68">
         <v>2.375</v>
@@ -6609,7 +6609,7 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
         <v>45</v>
@@ -6621,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K69">
         <v>2.2</v>
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6847886</v>
+        <v>6847880</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6698,76 +6698,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G70" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>51</v>
       </c>
       <c r="K70">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="L70">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M70">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="N70">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="O70">
         <v>3.6</v>
       </c>
       <c r="P70">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q70">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
         <v>2.5</v>
       </c>
       <c r="U70">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V70">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6787,10 +6787,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6864,7 +6864,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6847880</v>
+        <v>6847886</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6876,76 +6876,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G72" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
         <v>52</v>
       </c>
       <c r="K72">
+        <v>4.5</v>
+      </c>
+      <c r="L72">
+        <v>3.75</v>
+      </c>
+      <c r="M72">
         <v>1.727</v>
       </c>
-      <c r="L72">
-        <v>4</v>
-      </c>
-      <c r="M72">
-        <v>4.2</v>
-      </c>
       <c r="N72">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="O72">
         <v>3.6</v>
       </c>
       <c r="P72">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q72">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R72">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S72">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T72">
         <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z72">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6965,7 +6965,7 @@
         <v>45200.50347222222</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G73" t="s">
         <v>41</v>
@@ -6977,7 +6977,7 @@
         <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K73">
         <v>2.8</v>
@@ -7057,7 +7057,7 @@
         <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7066,7 +7066,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K74">
         <v>1.533</v>
@@ -7146,7 +7146,7 @@
         <v>43</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7155,7 +7155,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K75">
         <v>1.95</v>
@@ -7235,7 +7235,7 @@
         <v>44</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7244,7 +7244,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K76">
         <v>4.2</v>
@@ -7321,10 +7321,10 @@
         <v>45206.66666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7333,7 +7333,7 @@
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K77">
         <v>2.55</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K78">
         <v>1.45</v>
@@ -7502,7 +7502,7 @@
         <v>45</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7588,7 +7588,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
         <v>46</v>
@@ -7769,7 +7769,7 @@
         <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7778,7 +7778,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K82">
         <v>3.5</v>
@@ -7944,7 +7944,7 @@
         <v>45220.5</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
         <v>43</v>
@@ -7956,7 +7956,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K84">
         <v>1.285</v>
@@ -8033,7 +8033,7 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
         <v>39</v>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K85">
         <v>2.375</v>
@@ -8122,7 +8122,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8134,7 +8134,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K86">
         <v>3.8</v>
@@ -8199,7 +8199,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6847903</v>
+        <v>6847897</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8211,76 +8211,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G87" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L87">
         <v>3.4</v>
       </c>
       <c r="M87">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N87">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P87">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S87">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W87">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8288,7 +8288,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6847900</v>
+        <v>6847903</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8300,40 +8300,40 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K88">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L88">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N88">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P88">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
         <v>1.875</v>
@@ -8342,16 +8342,16 @@
         <v>1.975</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W88">
-        <v>0.8500000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8369,7 +8369,7 @@
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6847897</v>
+        <v>6847900</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,76 +8389,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K89">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="N89">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O89">
         <v>3.4</v>
       </c>
       <c r="P89">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T89">
         <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X89">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8478,7 +8478,7 @@
         <v>45221.50347222222</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
         <v>44</v>
@@ -8490,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K90">
         <v>1.363</v>
@@ -8579,7 +8579,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K91">
         <v>1.7</v>
@@ -8659,7 +8659,7 @@
         <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8668,7 +8668,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K92">
         <v>3.75</v>
@@ -8745,10 +8745,10 @@
         <v>45227.5</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K93">
         <v>1.75</v>
@@ -8837,7 +8837,7 @@
         <v>49</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -8846,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K94">
         <v>1.615</v>
@@ -8923,10 +8923,10 @@
         <v>45228.375</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8935,7 +8935,7 @@
         <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K95">
         <v>6</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K96">
         <v>1.869</v>
@@ -9104,7 +9104,7 @@
         <v>47</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9113,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K97">
         <v>2.2</v>
@@ -9368,7 +9368,7 @@
         <v>45233.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
         <v>41</v>
@@ -9380,7 +9380,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K100">
         <v>1.333</v>
@@ -9457,7 +9457,7 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
         <v>49</v>
@@ -9801,7 +9801,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6847916</v>
+        <v>6847922</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9813,55 +9813,55 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
         <v>1</v>
       </c>
-      <c r="I105">
-        <v>2</v>
-      </c>
       <c r="J105" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K105">
+        <v>2.9</v>
+      </c>
+      <c r="L105">
+        <v>3.4</v>
+      </c>
+      <c r="M105">
+        <v>2.375</v>
+      </c>
+      <c r="N105">
+        <v>2.8</v>
+      </c>
+      <c r="O105">
+        <v>3.25</v>
+      </c>
+      <c r="P105">
+        <v>2.55</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
         <v>2.05</v>
       </c>
-      <c r="L105">
-        <v>3.5</v>
-      </c>
-      <c r="M105">
-        <v>3.6</v>
-      </c>
-      <c r="N105">
-        <v>1.95</v>
-      </c>
-      <c r="O105">
-        <v>3.4</v>
-      </c>
-      <c r="P105">
-        <v>4</v>
-      </c>
-      <c r="Q105">
-        <v>-0.5</v>
-      </c>
-      <c r="R105">
-        <v>2</v>
-      </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V105">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
         <v>-1</v>
@@ -9870,19 +9870,19 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB105">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6847922</v>
+        <v>6847916</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9902,55 +9902,55 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K106">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="L106">
+        <v>3.5</v>
+      </c>
+      <c r="M106">
+        <v>3.6</v>
+      </c>
+      <c r="N106">
+        <v>1.95</v>
+      </c>
+      <c r="O106">
         <v>3.4</v>
       </c>
-      <c r="M106">
-        <v>2.375</v>
-      </c>
-      <c r="N106">
-        <v>2.8</v>
-      </c>
-      <c r="O106">
-        <v>3.25</v>
-      </c>
       <c r="P106">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S106">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V106">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9959,19 +9959,19 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC106">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9991,10 +9991,10 @@
         <v>45235.54513888889</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10003,7 +10003,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K107">
         <v>1.533</v>
@@ -10080,7 +10080,7 @@
         <v>45235.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
         <v>42</v>
@@ -10092,7 +10092,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K108">
         <v>2.15</v>
@@ -10172,7 +10172,7 @@
         <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10258,10 +10258,10 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K110">
         <v>4.333</v>
@@ -10350,7 +10350,7 @@
         <v>48</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6847924</v>
+        <v>6847929</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10436,49 +10436,49 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K112">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="L112">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M112">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="N112">
-        <v>1.55</v>
+        <v>3.3</v>
       </c>
       <c r="O112">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P112">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R112">
+        <v>1.9</v>
+      </c>
+      <c r="S112">
         <v>1.95</v>
       </c>
-      <c r="S112">
-        <v>1.9</v>
-      </c>
       <c r="T112">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U112">
         <v>1.85</v>
@@ -10487,25 +10487,25 @@
         <v>2</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X112">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC112">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10513,7 +10513,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6847929</v>
+        <v>6847925</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10525,40 +10525,40 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K113">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L113">
+        <v>3.4</v>
+      </c>
+      <c r="M113">
+        <v>3.6</v>
+      </c>
+      <c r="N113">
+        <v>2.2</v>
+      </c>
+      <c r="O113">
         <v>3.3</v>
       </c>
-      <c r="M113">
-        <v>2.55</v>
-      </c>
-      <c r="N113">
-        <v>3.3</v>
-      </c>
-      <c r="O113">
-        <v>3.2</v>
-      </c>
       <c r="P113">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q113">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
         <v>1.9</v>
@@ -10576,7 +10576,7 @@
         <v>2</v>
       </c>
       <c r="W113">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10591,10 +10591,10 @@
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10602,7 +10602,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6847925</v>
+        <v>6847924</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10614,49 +10614,49 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L114">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M114">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="N114">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="O114">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P114">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R114">
+        <v>1.95</v>
+      </c>
+      <c r="S114">
         <v>1.9</v>
       </c>
-      <c r="S114">
-        <v>1.95</v>
-      </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
         <v>1.85</v>
@@ -10665,19 +10665,19 @@
         <v>2</v>
       </c>
       <c r="W114">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
       </c>
       <c r="AB114">
         <v>-1</v>
@@ -10715,7 +10715,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K115">
         <v>1.7</v>
@@ -10804,7 +10804,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K116">
         <v>2.375</v>
@@ -10881,10 +10881,10 @@
         <v>45254.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>5</v>
@@ -10893,7 +10893,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K117">
         <v>1.45</v>
@@ -10982,7 +10982,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K118">
         <v>3.4</v>
@@ -11148,7 +11148,7 @@
         <v>45256.375</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G120" t="s">
         <v>46</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K120">
         <v>1.55</v>
@@ -11237,7 +11237,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
         <v>48</v>
@@ -11329,7 +11329,7 @@
         <v>41</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11338,7 +11338,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K122">
         <v>2.15</v>
@@ -11415,7 +11415,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
         <v>44</v>
@@ -11427,7 +11427,7 @@
         <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K123">
         <v>1.95</v>
@@ -11507,7 +11507,7 @@
         <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11516,7 +11516,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K124">
         <v>1.8</v>
@@ -11605,7 +11605,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K125">
         <v>3.1</v>
@@ -11771,7 +11771,7 @@
         <v>45261.70833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
         <v>43</v>
@@ -11783,7 +11783,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K127">
         <v>1.833</v>
@@ -11872,7 +11872,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K128">
         <v>1.833</v>
@@ -11949,10 +11949,10 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -11961,7 +11961,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K129">
         <v>3.8</v>
@@ -12041,7 +12041,7 @@
         <v>48</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12050,7 +12050,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K130">
         <v>9</v>
@@ -12115,7 +12115,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6847949</v>
+        <v>6847941</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12127,40 +12127,40 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K131">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L131">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M131">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N131">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O131">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
         <v>1.975</v>
@@ -12172,31 +12172,31 @@
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V131">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W131">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB131">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12216,7 +12216,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
         <v>41</v>
@@ -12228,7 +12228,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K132">
         <v>1.571</v>
@@ -12293,7 +12293,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6847941</v>
+        <v>6847949</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12305,40 +12305,40 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K133">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L133">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="N133">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O133">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P133">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
         <v>1.975</v>
@@ -12350,31 +12350,31 @@
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X133">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12406,7 +12406,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K134">
         <v>1.4</v>
@@ -12495,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K135">
         <v>1.909</v>
@@ -12584,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K136">
         <v>1.7</v>
@@ -12661,7 +12661,7 @@
         <v>45267.6875</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
         <v>43</v>
@@ -12842,7 +12842,7 @@
         <v>42</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12851,7 +12851,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K139">
         <v>2.55</v>
@@ -12928,10 +12928,10 @@
         <v>45269.70833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -12940,7 +12940,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K140">
         <v>1.2</v>
@@ -13017,10 +13017,10 @@
         <v>45270.375</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13029,7 +13029,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K141">
         <v>1.75</v>
@@ -13109,7 +13109,7 @@
         <v>44</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13118,7 +13118,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K142">
         <v>3.25</v>
@@ -13296,7 +13296,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K144">
         <v>2.1</v>
@@ -13385,7 +13385,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K145">
         <v>1.85</v>
@@ -13462,7 +13462,7 @@
         <v>45270.69791666666</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
         <v>39</v>
@@ -13474,7 +13474,7 @@
         <v>4</v>
       </c>
       <c r="J146" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K146">
         <v>4.5</v>
@@ -13551,7 +13551,7 @@
         <v>45275.70833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
         <v>45</v>
@@ -13563,7 +13563,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K147">
         <v>1.571</v>
@@ -13643,7 +13643,7 @@
         <v>48</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -13652,7 +13652,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K148">
         <v>4.333</v>
@@ -13732,7 +13732,7 @@
         <v>49</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13741,7 +13741,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K149">
         <v>1.8</v>
@@ -13818,10 +13818,10 @@
         <v>45277.375</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13830,7 +13830,7 @@
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K150">
         <v>2.5</v>
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6847967</v>
+        <v>6847959</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,19 +13907,19 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H151">
         <v>0</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K151">
         <v>3.2</v>
@@ -13931,10 +13931,10 @@
         <v>2.15</v>
       </c>
       <c r="N151">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O151">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P151">
         <v>2.25</v>
@@ -13943,40 +13943,40 @@
         <v>0.25</v>
       </c>
       <c r="R151">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S151">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T151">
         <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V151">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y151">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA151">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6847959</v>
+        <v>6847961</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,76 +13996,76 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F152" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K152">
+        <v>2.3</v>
+      </c>
+      <c r="L152">
+        <v>3.25</v>
+      </c>
+      <c r="M152">
+        <v>3.1</v>
+      </c>
+      <c r="N152">
+        <v>2.375</v>
+      </c>
+      <c r="O152">
         <v>3.2</v>
       </c>
-      <c r="L152">
-        <v>3.5</v>
-      </c>
-      <c r="M152">
-        <v>2.15</v>
-      </c>
-      <c r="N152">
-        <v>3.2</v>
-      </c>
-      <c r="O152">
-        <v>3.4</v>
-      </c>
       <c r="P152">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S152">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T152">
         <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z152">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC152">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14073,7 +14073,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6847961</v>
+        <v>6847967</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14085,55 +14085,55 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
         <v>1</v>
       </c>
-      <c r="I153">
+      <c r="J153" t="s">
+        <v>52</v>
+      </c>
+      <c r="K153">
+        <v>3.2</v>
+      </c>
+      <c r="L153">
+        <v>3.5</v>
+      </c>
+      <c r="M153">
+        <v>2.15</v>
+      </c>
+      <c r="N153">
+        <v>3.3</v>
+      </c>
+      <c r="O153">
+        <v>3.25</v>
+      </c>
+      <c r="P153">
+        <v>2.25</v>
+      </c>
+      <c r="Q153">
+        <v>0.25</v>
+      </c>
+      <c r="R153">
+        <v>1.85</v>
+      </c>
+      <c r="S153">
         <v>2</v>
-      </c>
-      <c r="J153" t="s">
-        <v>51</v>
-      </c>
-      <c r="K153">
-        <v>2.3</v>
-      </c>
-      <c r="L153">
-        <v>3.25</v>
-      </c>
-      <c r="M153">
-        <v>3.1</v>
-      </c>
-      <c r="N153">
-        <v>2.375</v>
-      </c>
-      <c r="O153">
-        <v>3.2</v>
-      </c>
-      <c r="P153">
-        <v>3.1</v>
-      </c>
-      <c r="Q153">
-        <v>-0.25</v>
-      </c>
-      <c r="R153">
-        <v>2.075</v>
-      </c>
-      <c r="S153">
-        <v>1.725</v>
       </c>
       <c r="T153">
         <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V153">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W153">
         <v>-1</v>
@@ -14142,19 +14142,19 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14186,7 +14186,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K154">
         <v>1.45</v>
@@ -14266,7 +14266,7 @@
         <v>47</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14364,7 +14364,7 @@
         <v>3</v>
       </c>
       <c r="J156" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K156">
         <v>3.25</v>
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6847976</v>
+        <v>6847968</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,58 +14441,58 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H157">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K157">
-        <v>1.615</v>
+        <v>1.142</v>
       </c>
       <c r="L157">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="M157">
-        <v>5.25</v>
+        <v>17</v>
       </c>
       <c r="N157">
-        <v>1.65</v>
+        <v>1.111</v>
       </c>
       <c r="O157">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="P157">
-        <v>5.5</v>
+        <v>23</v>
       </c>
       <c r="Q157">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R157">
-        <v>1.875</v>
+        <v>1.87</v>
       </c>
       <c r="S157">
-        <v>1.975</v>
+        <v>2.06</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U157">
-        <v>2.025</v>
+        <v>1.87</v>
       </c>
       <c r="V157">
-        <v>1.825</v>
+        <v>2.03</v>
       </c>
       <c r="W157">
-        <v>0.6499999999999999</v>
+        <v>0.111</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14501,13 +14501,13 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
       <c r="AB157">
-        <v>1.025</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14518,7 +14518,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6847975</v>
+        <v>6847971</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14530,67 +14530,67 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K158">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L158">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M158">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N158">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="O158">
         <v>3.6</v>
       </c>
       <c r="P158">
+        <v>4.333</v>
+      </c>
+      <c r="Q158">
+        <v>-0.5</v>
+      </c>
+      <c r="R158">
         <v>1.95</v>
       </c>
-      <c r="Q158">
-        <v>0.5</v>
-      </c>
-      <c r="R158">
-        <v>1.9</v>
-      </c>
       <c r="S158">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T158">
         <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.925</v>
+        <v>2.02</v>
       </c>
       <c r="V158">
-        <v>1.925</v>
+        <v>1.88</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X158">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA158">
         <v>-1</v>
@@ -14599,7 +14599,7 @@
         <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.925</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14607,7 +14607,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6847972</v>
+        <v>6847975</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14619,76 +14619,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K159">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="L159">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M159">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="N159">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="O159">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P159">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="Q159">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R159">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="S159">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="T159">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
-        <v>1.99</v>
+        <v>1.925</v>
       </c>
       <c r="V159">
-        <v>1.91</v>
+        <v>1.925</v>
       </c>
       <c r="W159">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.99</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>0.455</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14696,7 +14696,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6847971</v>
+        <v>6847974</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14708,10 +14708,10 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14720,46 +14720,46 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K160">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M160">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N160">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O160">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P160">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q160">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R160">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S160">
-        <v>1.98</v>
+        <v>1.875</v>
       </c>
       <c r="T160">
         <v>2.5</v>
       </c>
       <c r="U160">
-        <v>2.02</v>
+        <v>1.925</v>
       </c>
       <c r="V160">
-        <v>1.88</v>
+        <v>1.925</v>
       </c>
       <c r="W160">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14768,16 +14768,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB160">
         <v>-1</v>
       </c>
       <c r="AC160">
-        <v>0.8799999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6847970</v>
+        <v>6847972</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,76 +14797,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
         <v>51</v>
       </c>
       <c r="K161">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="L161">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M161">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N161">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O161">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P161">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="Q161">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.975</v>
+        <v>1.99</v>
       </c>
       <c r="S161">
-        <v>1.875</v>
+        <v>1.94</v>
       </c>
       <c r="T161">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U161">
-        <v>1.925</v>
+        <v>1.99</v>
       </c>
       <c r="V161">
-        <v>1.925</v>
+        <v>1.91</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AA161">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC161">
-        <v>-0</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6847969</v>
+        <v>6847970</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,76 +14886,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G162" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
         <v>2</v>
-      </c>
-      <c r="I162">
-        <v>1</v>
       </c>
       <c r="J162" t="s">
         <v>52</v>
       </c>
       <c r="K162">
+        <v>4.2</v>
+      </c>
+      <c r="L162">
+        <v>3.8</v>
+      </c>
+      <c r="M162">
+        <v>1.75</v>
+      </c>
+      <c r="N162">
+        <v>3.75</v>
+      </c>
+      <c r="O162">
         <v>4</v>
       </c>
-      <c r="L162">
-        <v>3.3</v>
-      </c>
-      <c r="M162">
-        <v>1.95</v>
-      </c>
-      <c r="N162">
-        <v>3.6</v>
-      </c>
-      <c r="O162">
-        <v>3.4</v>
-      </c>
       <c r="P162">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="Q162">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R162">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U162">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W162">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z162">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB162">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14963,7 +14963,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6847968</v>
+        <v>6847976</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14975,58 +14975,58 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F163" t="s">
+        <v>37</v>
+      </c>
+      <c r="G163" t="s">
         <v>29</v>
       </c>
-      <c r="G163" t="s">
-        <v>44</v>
-      </c>
       <c r="H163">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K163">
-        <v>1.142</v>
+        <v>1.615</v>
       </c>
       <c r="L163">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="M163">
-        <v>17</v>
+        <v>5.25</v>
       </c>
       <c r="N163">
-        <v>1.111</v>
+        <v>1.65</v>
       </c>
       <c r="O163">
-        <v>8.5</v>
+        <v>3.75</v>
       </c>
       <c r="P163">
-        <v>23</v>
+        <v>5.5</v>
       </c>
       <c r="Q163">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R163">
-        <v>1.87</v>
+        <v>1.875</v>
       </c>
       <c r="S163">
-        <v>2.06</v>
+        <v>1.975</v>
       </c>
       <c r="T163">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>1.87</v>
+        <v>2.025</v>
       </c>
       <c r="V163">
-        <v>2.03</v>
+        <v>1.825</v>
       </c>
       <c r="W163">
-        <v>0.111</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15035,13 +15035,13 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA163">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.8700000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15052,7 +15052,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6847974</v>
+        <v>6847969</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15064,58 +15064,58 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G164" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H164">
+        <v>2</v>
+      </c>
+      <c r="I164">
         <v>1</v>
       </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
       <c r="J164" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K164">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M164">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N164">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O164">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P164">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q164">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R164">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S164">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T164">
         <v>2.5</v>
       </c>
       <c r="U164">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V164">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W164">
-        <v>0.7270000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15124,16 +15124,16 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AA164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC164">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15242,10 +15242,10 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15254,7 +15254,7 @@
         <v>3</v>
       </c>
       <c r="J166" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K166">
         <v>1.727</v>
@@ -15334,7 +15334,7 @@
         <v>42</v>
       </c>
       <c r="G167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15343,7 +15343,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K167">
         <v>2.5</v>
@@ -15423,7 +15423,7 @@
         <v>47</v>
       </c>
       <c r="G168" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -15432,7 +15432,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K168">
         <v>1.363</v>
@@ -15509,7 +15509,7 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
         <v>40</v>
@@ -15521,7 +15521,7 @@
         <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K169">
         <v>1.95</v>
@@ -15586,7 +15586,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6847984</v>
+        <v>6847985</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15598,76 +15598,76 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G170" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
         <v>51</v>
       </c>
       <c r="K170">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="L170">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M170">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="N170">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O170">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P170">
+        <v>4.5</v>
+      </c>
+      <c r="Q170">
+        <v>-0.75</v>
+      </c>
+      <c r="R170">
+        <v>2.05</v>
+      </c>
+      <c r="S170">
+        <v>1.8</v>
+      </c>
+      <c r="T170">
         <v>2.5</v>
       </c>
-      <c r="Q170">
-        <v>0</v>
-      </c>
-      <c r="R170">
+      <c r="U170">
         <v>2.025</v>
       </c>
-      <c r="S170">
+      <c r="V170">
         <v>1.825</v>
       </c>
-      <c r="T170">
-        <v>2.25</v>
-      </c>
-      <c r="U170">
-        <v>2.05</v>
-      </c>
-      <c r="V170">
-        <v>1.8</v>
-      </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA170">
+        <v>-1</v>
+      </c>
+      <c r="AB170">
+        <v>-1</v>
+      </c>
+      <c r="AC170">
         <v>0.825</v>
-      </c>
-      <c r="AB170">
-        <v>-1</v>
-      </c>
-      <c r="AC170">
-        <v>0.8</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15675,7 +15675,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6847985</v>
+        <v>6847984</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15687,76 +15687,76 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
         <v>52</v>
       </c>
       <c r="K171">
+        <v>2.9</v>
+      </c>
+      <c r="L171">
+        <v>3.3</v>
+      </c>
+      <c r="M171">
+        <v>2.4</v>
+      </c>
+      <c r="N171">
+        <v>2.875</v>
+      </c>
+      <c r="O171">
+        <v>3.2</v>
+      </c>
+      <c r="P171">
+        <v>2.5</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <v>2.025</v>
+      </c>
+      <c r="S171">
+        <v>1.825</v>
+      </c>
+      <c r="T171">
+        <v>2.25</v>
+      </c>
+      <c r="U171">
+        <v>2.05</v>
+      </c>
+      <c r="V171">
         <v>1.8</v>
       </c>
-      <c r="L171">
-        <v>3.75</v>
-      </c>
-      <c r="M171">
-        <v>4.333</v>
-      </c>
-      <c r="N171">
-        <v>1.8</v>
-      </c>
-      <c r="O171">
-        <v>3.75</v>
-      </c>
-      <c r="P171">
-        <v>4.5</v>
-      </c>
-      <c r="Q171">
-        <v>-0.75</v>
-      </c>
-      <c r="R171">
-        <v>2.05</v>
-      </c>
-      <c r="S171">
-        <v>1.8</v>
-      </c>
-      <c r="T171">
-        <v>2.5</v>
-      </c>
-      <c r="U171">
-        <v>2.025</v>
-      </c>
-      <c r="V171">
-        <v>1.825</v>
-      </c>
       <c r="W171">
+        <v>-1</v>
+      </c>
+      <c r="X171">
+        <v>-1</v>
+      </c>
+      <c r="Y171">
+        <v>1.5</v>
+      </c>
+      <c r="Z171">
+        <v>-1</v>
+      </c>
+      <c r="AA171">
+        <v>0.825</v>
+      </c>
+      <c r="AB171">
+        <v>-1</v>
+      </c>
+      <c r="AC171">
         <v>0.8</v>
-      </c>
-      <c r="X171">
-        <v>-1</v>
-      </c>
-      <c r="Y171">
-        <v>-1</v>
-      </c>
-      <c r="Z171">
-        <v>1.05</v>
-      </c>
-      <c r="AA171">
-        <v>-1</v>
-      </c>
-      <c r="AB171">
-        <v>-1</v>
-      </c>
-      <c r="AC171">
-        <v>0.825</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15788,7 +15788,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K172">
         <v>3</v>
@@ -15868,7 +15868,7 @@
         <v>49</v>
       </c>
       <c r="G173" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -15877,7 +15877,7 @@
         <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K173">
         <v>3.6</v>
@@ -15966,7 +15966,7 @@
         <v>3</v>
       </c>
       <c r="J174" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K174">
         <v>2.25</v>
@@ -16043,7 +16043,7 @@
         <v>45318.54166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16055,7 +16055,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K175">
         <v>1.4</v>
@@ -16135,7 +16135,7 @@
         <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16298,7 +16298,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6847993</v>
+        <v>6847992</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16310,76 +16310,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
         <v>53</v>
       </c>
       <c r="K178">
+        <v>2.8</v>
+      </c>
+      <c r="L178">
+        <v>3.6</v>
+      </c>
+      <c r="M178">
+        <v>2.3</v>
+      </c>
+      <c r="N178">
+        <v>3</v>
+      </c>
+      <c r="O178">
+        <v>3.3</v>
+      </c>
+      <c r="P178">
+        <v>2.375</v>
+      </c>
+      <c r="Q178">
+        <v>0.25</v>
+      </c>
+      <c r="R178">
+        <v>1.8</v>
+      </c>
+      <c r="S178">
+        <v>2.05</v>
+      </c>
+      <c r="T178">
+        <v>2.25</v>
+      </c>
+      <c r="U178">
+        <v>1.85</v>
+      </c>
+      <c r="V178">
         <v>2</v>
       </c>
-      <c r="L178">
-        <v>3.5</v>
-      </c>
-      <c r="M178">
-        <v>3.6</v>
-      </c>
-      <c r="N178">
-        <v>1.95</v>
-      </c>
-      <c r="O178">
-        <v>3.4</v>
-      </c>
-      <c r="P178">
-        <v>4</v>
-      </c>
-      <c r="Q178">
+      <c r="W178">
+        <v>-1</v>
+      </c>
+      <c r="X178">
+        <v>2.3</v>
+      </c>
+      <c r="Y178">
+        <v>-1</v>
+      </c>
+      <c r="Z178">
+        <v>0.4</v>
+      </c>
+      <c r="AA178">
         <v>-0.5</v>
       </c>
-      <c r="R178">
-        <v>2</v>
-      </c>
-      <c r="S178">
-        <v>1.93</v>
-      </c>
-      <c r="T178">
-        <v>2.5</v>
-      </c>
-      <c r="U178">
-        <v>2.07</v>
-      </c>
-      <c r="V178">
-        <v>1.83</v>
-      </c>
-      <c r="W178">
-        <v>-1</v>
-      </c>
-      <c r="X178">
-        <v>2.4</v>
-      </c>
-      <c r="Y178">
-        <v>-1</v>
-      </c>
-      <c r="Z178">
-        <v>-1</v>
-      </c>
-      <c r="AA178">
-        <v>0.9299999999999999</v>
-      </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC178">
-        <v>0.8300000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16399,7 +16399,7 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
         <v>48</v>
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6847992</v>
+        <v>6847993</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,76 +16488,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
         <v>53</v>
       </c>
       <c r="K180">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L180">
+        <v>3.5</v>
+      </c>
+      <c r="M180">
         <v>3.6</v>
       </c>
-      <c r="M180">
-        <v>2.3</v>
-      </c>
       <c r="N180">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O180">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P180">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S180">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="T180">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="V180">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.5</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16589,7 +16589,7 @@
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K181">
         <v>3.4</v>
@@ -16666,10 +16666,10 @@
         <v>45319.69791666666</v>
       </c>
       <c r="F182" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G182" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16758,7 +16758,7 @@
         <v>43</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16767,7 +16767,7 @@
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K183">
         <v>6</v>
@@ -16856,7 +16856,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K184">
         <v>2</v>
@@ -16933,7 +16933,7 @@
         <v>45325.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G185" t="s">
         <v>49</v>
@@ -16945,7 +16945,7 @@
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K185">
         <v>3.5</v>
@@ -17022,7 +17022,7 @@
         <v>45326.375</v>
       </c>
       <c r="F186" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
         <v>48</v>
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7728866</v>
+        <v>7728862</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,73 +17111,73 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G187" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>51</v>
       </c>
       <c r="K187">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L187">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M187">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="N187">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O187">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P187">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q187">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R187">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S187">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T187">
+        <v>2.75</v>
+      </c>
+      <c r="U187">
         <v>2</v>
       </c>
-      <c r="U187">
-        <v>1.9</v>
-      </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W187">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA187">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC187">
         <v>-1</v>
@@ -17200,7 +17200,7 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
         <v>46</v>
@@ -17212,7 +17212,7 @@
         <v>3</v>
       </c>
       <c r="J188" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K188">
         <v>1.75</v>
@@ -17277,7 +17277,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7728862</v>
+        <v>7728866</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17289,73 +17289,73 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G189" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H189">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
         <v>52</v>
       </c>
       <c r="K189">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L189">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M189">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="N189">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O189">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P189">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="Q189">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
+        <v>2.05</v>
+      </c>
+      <c r="S189">
+        <v>1.8</v>
+      </c>
+      <c r="T189">
         <v>2</v>
       </c>
-      <c r="S189">
-        <v>1.85</v>
-      </c>
-      <c r="T189">
-        <v>2.75</v>
-      </c>
       <c r="U189">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V189">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W189">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z189">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB189">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17378,10 +17378,10 @@
         <v>45326.54513888889</v>
       </c>
       <c r="F190" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17479,7 +17479,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K191">
         <v>2.8</v>
@@ -17657,7 +17657,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K193">
         <v>1.666</v>
@@ -17734,7 +17734,7 @@
         <v>45332.70833333334</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G194" t="s">
         <v>47</v>
@@ -17746,7 +17746,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K194">
         <v>1.5</v>
@@ -17835,7 +17835,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K195">
         <v>3.75</v>
@@ -17915,7 +17915,7 @@
         <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17989,7 +17989,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6848005</v>
+        <v>6848007</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18001,76 +18001,76 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G197" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
         <v>51</v>
       </c>
       <c r="K197">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="L197">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M197">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="N197">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="O197">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P197">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="Q197">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R197">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S197">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T197">
         <v>2.5</v>
       </c>
       <c r="U197">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V197">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA197">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18078,7 +18078,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6848007</v>
+        <v>6848005</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18090,76 +18090,76 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G198" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198">
         <v>2</v>
-      </c>
-      <c r="I198">
-        <v>0</v>
       </c>
       <c r="J198" t="s">
         <v>52</v>
       </c>
       <c r="K198">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="L198">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M198">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N198">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="O198">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P198">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="Q198">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R198">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S198">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T198">
         <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W198">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z198">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC198">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18191,7 +18191,7 @@
         <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K199">
         <v>2.6</v>
@@ -18268,10 +18268,10 @@
         <v>45333.69791666666</v>
       </c>
       <c r="F200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G200" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18280,7 +18280,7 @@
         <v>3</v>
       </c>
       <c r="J200" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K200">
         <v>2.3</v>
@@ -18360,7 +18360,7 @@
         <v>45</v>
       </c>
       <c r="G201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18369,7 +18369,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K201">
         <v>2.625</v>
@@ -18446,10 +18446,10 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F202" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G202" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -18458,7 +18458,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K202">
         <v>5.75</v>
@@ -18538,7 +18538,7 @@
         <v>43</v>
       </c>
       <c r="G203" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18547,7 +18547,7 @@
         <v>3</v>
       </c>
       <c r="J203" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K203">
         <v>1.7</v>
@@ -18636,7 +18636,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K204">
         <v>1.666</v>
@@ -18701,7 +18701,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6848014</v>
+        <v>6848015</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18713,25 +18713,25 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G205" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J205" t="s">
         <v>52</v>
       </c>
       <c r="K205">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="L205">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M205">
         <v>6</v>
@@ -18749,40 +18749,40 @@
         <v>-1</v>
       </c>
       <c r="R205">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S205">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T205">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V205">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W205">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z205">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB205">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18790,7 +18790,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6848015</v>
+        <v>6848014</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18802,25 +18802,25 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G206" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H206">
+        <v>3</v>
+      </c>
+      <c r="I206">
         <v>1</v>
-      </c>
-      <c r="I206">
-        <v>2</v>
       </c>
       <c r="J206" t="s">
         <v>51</v>
       </c>
       <c r="K206">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="L206">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M206">
         <v>6</v>
@@ -18838,40 +18838,40 @@
         <v>-1</v>
       </c>
       <c r="R206">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S206">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T206">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U206">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V206">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AA206">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC206">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18891,7 +18891,7 @@
         <v>45340.54513888889</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G207" t="s">
         <v>49</v>
@@ -18980,7 +18980,7 @@
         <v>45340.69791666666</v>
       </c>
       <c r="F208" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G208" t="s">
         <v>39</v>
@@ -18992,7 +18992,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K208">
         <v>2.5</v>
@@ -19081,7 +19081,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K209">
         <v>4</v>
@@ -19158,10 +19158,10 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K210">
         <v>2.55</v>
@@ -19250,7 +19250,7 @@
         <v>43</v>
       </c>
       <c r="G211" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -19259,7 +19259,7 @@
         <v>3</v>
       </c>
       <c r="J211" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K211">
         <v>2.75</v>
@@ -19339,7 +19339,7 @@
         <v>49</v>
       </c>
       <c r="G212" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19348,7 +19348,7 @@
         <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K212">
         <v>2.375</v>
@@ -19413,7 +19413,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6848024</v>
+        <v>6848029</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19425,73 +19425,73 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G213" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
         <v>52</v>
       </c>
       <c r="K213">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="L213">
         <v>3.25</v>
       </c>
       <c r="M213">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="N213">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O213">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P213">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q213">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R213">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S213">
-        <v>2.025</v>
+        <v>1.98</v>
       </c>
       <c r="T213">
         <v>2.5</v>
       </c>
       <c r="U213">
-        <v>2.025</v>
+        <v>2.06</v>
       </c>
       <c r="V213">
-        <v>1.825</v>
+        <v>1.84</v>
       </c>
       <c r="W213">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z213">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB213">
-        <v>1.025</v>
+        <v>1.06</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19502,7 +19502,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6848027</v>
+        <v>6848024</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19514,76 +19514,76 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G214" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K214">
-        <v>1.45</v>
+        <v>4.2</v>
       </c>
       <c r="L214">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M214">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="N214">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="O214">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P214">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="Q214">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R214">
-        <v>2.09</v>
+        <v>1.825</v>
       </c>
       <c r="S214">
-        <v>1.84</v>
+        <v>2.025</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V214">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X214">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA214">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC214">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19591,7 +19591,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6848029</v>
+        <v>6848027</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19603,76 +19603,76 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G215" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K215">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="L215">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M215">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="N215">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="O215">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P215">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R215">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="S215">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y215">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.98</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB215">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19692,7 +19692,7 @@
         <v>45347.54513888889</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G216" t="s">
         <v>42</v>
@@ -19793,7 +19793,7 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K217">
         <v>1.55</v>
@@ -19870,10 +19870,10 @@
         <v>45352.70833333334</v>
       </c>
       <c r="F218" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G218" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K218">
         <v>3.2</v>
@@ -19885,31 +19885,31 @@
         <v>2.05</v>
       </c>
       <c r="N218">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O218">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P218">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Q218">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R218">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="S218">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="T218">
         <v>3</v>
       </c>
       <c r="U218">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V218">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19944,7 +19944,7 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F219" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G219" t="s">
         <v>47</v>
@@ -19959,31 +19959,31 @@
         <v>2.5</v>
       </c>
       <c r="N219">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="O219">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P219">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q219">
         <v>0</v>
       </c>
       <c r="R219">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="S219">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="T219">
         <v>2.5</v>
       </c>
       <c r="U219">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="V219">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W219">
         <v>0</v>
@@ -20045,19 +20045,19 @@
         <v>0.5</v>
       </c>
       <c r="R220">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S220">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T220">
         <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V220">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="W220">
         <v>0</v>
@@ -20095,7 +20095,7 @@
         <v>46</v>
       </c>
       <c r="G221" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K221">
         <v>3.6</v>
@@ -20107,31 +20107,31 @@
         <v>2.05</v>
       </c>
       <c r="N221">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O221">
         <v>3.2</v>
       </c>
       <c r="P221">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q221">
         <v>0.25</v>
       </c>
       <c r="R221">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S221">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T221">
         <v>2.25</v>
       </c>
       <c r="U221">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="V221">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W221">
         <v>0</v>
@@ -20166,7 +20166,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G222" t="s">
         <v>44</v>
@@ -20184,10 +20184,10 @@
         <v>1.8</v>
       </c>
       <c r="O222">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P222">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q222">
         <v>-0.5</v>
@@ -20255,31 +20255,31 @@
         <v>3</v>
       </c>
       <c r="N223">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O223">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P223">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
-        <v>1.81</v>
+        <v>2.04</v>
       </c>
       <c r="S223">
-        <v>2.09</v>
+        <v>1.86</v>
       </c>
       <c r="T223">
         <v>2.5</v>
       </c>
       <c r="U223">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="V223">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="W223">
         <v>0</v>
@@ -20314,7 +20314,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G224" t="s">
         <v>48</v>
@@ -20329,31 +20329,31 @@
         <v>5.25</v>
       </c>
       <c r="N224">
-        <v>1.55</v>
+        <v>1.571</v>
       </c>
       <c r="O224">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P224">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q224">
         <v>-1</v>
       </c>
       <c r="R224">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S224">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="T224">
         <v>2.5</v>
       </c>
       <c r="U224">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="V224">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W224">
         <v>0</v>
@@ -20391,7 +20391,7 @@
         <v>42</v>
       </c>
       <c r="G225" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K225">
         <v>1.4</v>
@@ -20409,7 +20409,7 @@
         <v>4.75</v>
       </c>
       <c r="P225">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q225">
         <v>-1.25</v>
@@ -20424,10 +20424,10 @@
         <v>2.75</v>
       </c>
       <c r="U225">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="V225">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="W225">
         <v>0</v>
@@ -20477,31 +20477,31 @@
         <v>2.75</v>
       </c>
       <c r="N226">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="O226">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P226">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q226">
         <v>0</v>
       </c>
       <c r="R226">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="S226">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="T226">
         <v>2.5</v>
       </c>
       <c r="U226">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="V226">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="W226">
         <v>0</v>

--- a/France Ligue 1/France Ligue 1.xlsx
+++ b/France Ligue 1/France Ligue 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,22 @@
     <t>France Ligue 1</t>
   </si>
   <si>
-    <t>Lorient</t>
+    <t>Auxerre</t>
   </si>
   <si>
-    <t>Auxerre</t>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lorient</t>
   </si>
   <si>
     <t>Monaco</t>
@@ -115,22 +127,10 @@
     <t>Troyes</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Nice</t>
+    <t>AC Ajaccio</t>
   </si>
   <si>
     <t>PSG</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>AC Ajaccio</t>
   </si>
   <si>
     <t>Marseille</t>
@@ -169,10 +169,10 @@
     <t>Angers</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC226"/>
+  <dimension ref="A1:AC229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5635385</v>
+        <v>5635384</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -649,73 +649,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>51</v>
       </c>
       <c r="K2">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M2">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="N2">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P2">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q2">
         <v>0.25</v>
       </c>
       <c r="R2">
-        <v>1.825</v>
+        <v>1.89</v>
       </c>
       <c r="S2">
-        <v>2.025</v>
+        <v>2.01</v>
       </c>
       <c r="T2">
         <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V2">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB2">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5635384</v>
+        <v>5644619</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -738,70 +738,70 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
         <v>1</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>52</v>
       </c>
       <c r="K3">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L3">
+        <v>3.6</v>
+      </c>
+      <c r="M3">
+        <v>2.7</v>
+      </c>
+      <c r="N3">
+        <v>2.4</v>
+      </c>
+      <c r="O3">
+        <v>4.2</v>
+      </c>
+      <c r="P3">
+        <v>2.55</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1.825</v>
+      </c>
+      <c r="S3">
+        <v>2.025</v>
+      </c>
+      <c r="T3">
         <v>3.5</v>
       </c>
-      <c r="M3">
-        <v>3.1</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
-      <c r="O3">
-        <v>3.75</v>
-      </c>
-      <c r="P3">
-        <v>2.2</v>
-      </c>
-      <c r="Q3">
-        <v>0.25</v>
-      </c>
-      <c r="R3">
-        <v>1.89</v>
-      </c>
-      <c r="S3">
-        <v>2.01</v>
-      </c>
-      <c r="T3">
-        <v>2.75</v>
-      </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
         <v>1.95</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA3">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5638914</v>
+        <v>5639215</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,52 +827,52 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="J4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4">
-        <v>1.5</v>
-      </c>
       <c r="L4">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="N4">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O4">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P4">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -881,19 +881,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5638915</v>
+        <v>5642021</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K5">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="L5">
+        <v>4.5</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>1.5</v>
+      </c>
+      <c r="O5">
+        <v>4.5</v>
+      </c>
+      <c r="P5">
         <v>6</v>
       </c>
-      <c r="M5">
-        <v>1.285</v>
-      </c>
-      <c r="N5">
-        <v>15</v>
-      </c>
-      <c r="O5">
-        <v>8</v>
-      </c>
-      <c r="P5">
-        <v>1.166</v>
-      </c>
       <c r="Q5">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S5">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T5">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5639215</v>
+        <v>5641663</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1005,37 +1005,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="N6">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="O6">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R6">
         <v>2</v>
@@ -1044,13 +1044,13 @@
         <v>1.85</v>
       </c>
       <c r="T6">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1059,19 +1059,19 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB6">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5644619</v>
+        <v>5635385</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1094,37 +1094,37 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K7">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="L7">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="N7">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O7">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
         <v>1.825</v>
@@ -1133,16 +1133,16 @@
         <v>2.025</v>
       </c>
       <c r="T7">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V7">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W7">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1157,10 +1157,10 @@
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1168,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5642185</v>
+        <v>5638914</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1183,37 +1183,37 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
+        <v>4.5</v>
+      </c>
+      <c r="M8">
+        <v>5.75</v>
+      </c>
+      <c r="N8">
+        <v>1.4</v>
+      </c>
+      <c r="O8">
         <v>6</v>
       </c>
-      <c r="M8">
-        <v>9</v>
-      </c>
-      <c r="N8">
-        <v>1.3</v>
-      </c>
-      <c r="O8">
-        <v>6.5</v>
-      </c>
       <c r="P8">
-        <v>8</v>
+        <v>5.75</v>
       </c>
       <c r="Q8">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R8">
         <v>1.925</v>
@@ -1225,10 +1225,10 @@
         <v>3.75</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1237,7 +1237,7 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Z8">
         <v>-1</v>
@@ -1246,10 +1246,10 @@
         <v>0.925</v>
       </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1257,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5642021</v>
+        <v>5638915</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1272,73 +1272,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="L9">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M9">
+        <v>1.285</v>
+      </c>
+      <c r="N9">
+        <v>15</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>1.166</v>
+      </c>
+      <c r="Q9">
+        <v>2.25</v>
+      </c>
+      <c r="R9">
+        <v>1.95</v>
+      </c>
+      <c r="S9">
+        <v>1.9</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>1.975</v>
+      </c>
+      <c r="V9">
+        <v>1.875</v>
+      </c>
+      <c r="W9">
+        <v>-1</v>
+      </c>
+      <c r="X9">
         <v>7</v>
       </c>
-      <c r="N9">
-        <v>1.5</v>
-      </c>
-      <c r="O9">
-        <v>4.5</v>
-      </c>
-      <c r="P9">
-        <v>6</v>
-      </c>
-      <c r="Q9">
-        <v>-1</v>
-      </c>
-      <c r="R9">
-        <v>1.8</v>
-      </c>
-      <c r="S9">
-        <v>2.05</v>
-      </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
-      <c r="U9">
-        <v>1.8</v>
-      </c>
-      <c r="V9">
-        <v>2.05</v>
-      </c>
-      <c r="W9">
-        <v>0.5</v>
-      </c>
-      <c r="X9">
-        <v>-1</v>
-      </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1346,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5641663</v>
+        <v>5641662</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1361,73 +1361,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>52</v>
       </c>
       <c r="K10">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M10">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="O10">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P10">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="Q10">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V10">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA10">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1435,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5641662</v>
+        <v>5642185</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1450,73 +1450,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
         <v>51</v>
       </c>
       <c r="K11">
+        <v>1.285</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <v>9</v>
+      </c>
+      <c r="N11">
+        <v>1.3</v>
+      </c>
+      <c r="O11">
+        <v>6.5</v>
+      </c>
+      <c r="P11">
         <v>8</v>
       </c>
-      <c r="L11">
-        <v>5</v>
-      </c>
-      <c r="M11">
-        <v>1.363</v>
-      </c>
-      <c r="N11">
-        <v>7.5</v>
-      </c>
-      <c r="O11">
-        <v>4.75</v>
-      </c>
-      <c r="P11">
-        <v>1.4</v>
-      </c>
       <c r="Q11">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R11">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S11">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z11">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1536,7 +1536,7 @@
         <v>45149.66666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
         <v>47</v>
@@ -1628,7 +1628,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13">
         <v>1.666</v>
@@ -1714,10 +1714,10 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>49</v>
@@ -1815,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15">
         <v>4.5</v>
@@ -1880,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6847826</v>
+        <v>6847831</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1892,28 +1892,28 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <v>2</v>
       </c>
-      <c r="I16">
-        <v>4</v>
-      </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="L16">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N16">
         <v>3</v>
@@ -1922,25 +1922,25 @@
         <v>3.4</v>
       </c>
       <c r="P16">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="Q16">
         <v>0.25</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S16">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1949,16 +1949,16 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>1.375</v>
+        <v>1.3</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB16">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6847831</v>
+        <v>6847826</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1981,28 +1981,28 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="L17">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M17">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N17">
         <v>3</v>
@@ -2011,26 +2011,26 @@
         <v>3.4</v>
       </c>
       <c r="P17">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q17">
         <v>0.25</v>
       </c>
       <c r="R17">
+        <v>1.8</v>
+      </c>
+      <c r="S17">
+        <v>2.05</v>
+      </c>
+      <c r="T17">
+        <v>2.75</v>
+      </c>
+      <c r="U17">
+        <v>2.025</v>
+      </c>
+      <c r="V17">
         <v>1.825</v>
       </c>
-      <c r="S17">
-        <v>2.025</v>
-      </c>
-      <c r="T17">
-        <v>2.5</v>
-      </c>
-      <c r="U17">
-        <v>1.9</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
       <c r="W17">
         <v>-1</v>
       </c>
@@ -2038,16 +2038,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.3</v>
+        <v>1.375</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
+        <v>1.05</v>
+      </c>
+      <c r="AB17">
         <v>1.025</v>
-      </c>
-      <c r="AB17">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19">
         <v>1.333</v>
@@ -2260,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20">
         <v>2.625</v>
@@ -2438,7 +2438,7 @@
         <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22">
         <v>1.666</v>
@@ -2518,7 +2518,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2607,7 +2607,7 @@
         <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24">
         <v>1.444</v>
@@ -2681,7 +2681,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6847838</v>
+        <v>6847834</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2693,49 +2693,49 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K25">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L25">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N25">
-        <v>1.833</v>
+        <v>3.3</v>
       </c>
       <c r="O25">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P25">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
         <v>1.875</v>
@@ -2744,25 +2744,25 @@
         <v>1.975</v>
       </c>
       <c r="W25">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC25">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2770,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6847840</v>
+        <v>6847838</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2782,76 +2782,76 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>52</v>
       </c>
       <c r="K26">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L26">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M26">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N26">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P26">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
+        <v>1.875</v>
+      </c>
+      <c r="V26">
         <v>1.975</v>
       </c>
-      <c r="V26">
-        <v>1.875</v>
-      </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
+        <v>-1</v>
+      </c>
+      <c r="AC26">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC26">
-        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6847834</v>
+        <v>6847840</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2871,76 +2871,76 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K27">
+        <v>2.6</v>
+      </c>
+      <c r="L27">
+        <v>3.4</v>
+      </c>
+      <c r="M27">
+        <v>2.625</v>
+      </c>
+      <c r="N27">
+        <v>2.8</v>
+      </c>
+      <c r="O27">
         <v>3.1</v>
       </c>
-      <c r="L27">
-        <v>3.6</v>
-      </c>
-      <c r="M27">
-        <v>2.15</v>
-      </c>
-      <c r="N27">
-        <v>3.3</v>
-      </c>
-      <c r="O27">
-        <v>3.25</v>
-      </c>
       <c r="P27">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R27">
+        <v>1.95</v>
+      </c>
+      <c r="S27">
         <v>1.9</v>
       </c>
-      <c r="S27">
-        <v>1.95</v>
-      </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U27">
+        <v>1.975</v>
+      </c>
+      <c r="V27">
         <v>1.875</v>
       </c>
-      <c r="V27">
-        <v>1.975</v>
-      </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z27">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB27">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC27">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2960,7 +2960,7 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
         <v>43</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28">
         <v>1.909</v>
@@ -3138,10 +3138,10 @@
         <v>45163.66666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3230,7 +3230,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K31">
         <v>1.4</v>
@@ -3316,7 +3316,7 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
         <v>49</v>
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K32">
         <v>1.6</v>
@@ -3482,7 +3482,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6847850</v>
+        <v>6847843</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3494,76 +3494,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
         <v>52</v>
       </c>
       <c r="K34">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L34">
+        <v>3.5</v>
+      </c>
+      <c r="M34">
+        <v>3.75</v>
+      </c>
+      <c r="N34">
+        <v>2.15</v>
+      </c>
+      <c r="O34">
+        <v>3.3</v>
+      </c>
+      <c r="P34">
         <v>3.4</v>
-      </c>
-      <c r="M34">
-        <v>2.8</v>
-      </c>
-      <c r="N34">
-        <v>2.2</v>
-      </c>
-      <c r="O34">
-        <v>3.5</v>
-      </c>
-      <c r="P34">
-        <v>3.2</v>
       </c>
       <c r="Q34">
         <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V34">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3571,7 +3571,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6847843</v>
+        <v>6847850</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3583,76 +3583,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
         <v>51</v>
       </c>
       <c r="K35">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L35">
+        <v>3.4</v>
+      </c>
+      <c r="M35">
+        <v>2.8</v>
+      </c>
+      <c r="N35">
+        <v>2.2</v>
+      </c>
+      <c r="O35">
         <v>3.5</v>
       </c>
-      <c r="M35">
-        <v>3.75</v>
-      </c>
-      <c r="N35">
-        <v>2.15</v>
-      </c>
-      <c r="O35">
-        <v>3.3</v>
-      </c>
       <c r="P35">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q35">
         <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V35">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W35">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3684,7 +3684,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K36">
         <v>1.85</v>
@@ -3761,7 +3761,7 @@
         <v>45165.50347222222</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
         <v>47</v>
@@ -3773,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3850,7 +3850,7 @@
         <v>45165.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -3939,7 +3939,7 @@
         <v>45170.66666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -4028,7 +4028,7 @@
         <v>45171.5</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
         <v>42</v>
@@ -4117,7 +4117,7 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
         <v>49</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K41">
         <v>2.25</v>
@@ -4283,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6847853</v>
+        <v>6847858</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4295,76 +4295,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K43">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M43">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="N43">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="O43">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P43">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R43">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S43">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T43">
         <v>2.75</v>
       </c>
       <c r="U43">
+        <v>1.975</v>
+      </c>
+      <c r="V43">
         <v>1.875</v>
       </c>
-      <c r="V43">
-        <v>1.975</v>
-      </c>
       <c r="W43">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4372,7 +4372,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6847858</v>
+        <v>6847857</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4384,73 +4384,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K44">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="L44">
         <v>3.4</v>
       </c>
       <c r="M44">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N44">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="O44">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P44">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q44">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.875</v>
+        <v>1.82</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>2.11</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>2.09</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.81</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X44">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.875</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.9750000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4461,7 +4461,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6847857</v>
+        <v>6847853</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4473,58 +4473,58 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K45">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N45">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O45">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P45">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.82</v>
+        <v>1.925</v>
       </c>
       <c r="S45">
-        <v>2.11</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>2.09</v>
+        <v>1.875</v>
       </c>
       <c r="V45">
-        <v>1.81</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
-        <v>1.6</v>
+        <v>0.909</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4533,16 +4533,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.8200000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4562,7 +4562,7 @@
         <v>45172.50347222222</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
         <v>43</v>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K46">
         <v>1.833</v>
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4663,7 +4663,7 @@
         <v>4</v>
       </c>
       <c r="J47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K47">
         <v>3.8</v>
@@ -4740,10 +4740,10 @@
         <v>45184.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4752,7 +4752,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K48">
         <v>1.444</v>
@@ -4930,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -5007,10 +5007,10 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5084,7 +5084,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6847861</v>
+        <v>6847867</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5096,73 +5096,73 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K52">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M52">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N52">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="O52">
         <v>3.5</v>
       </c>
       <c r="P52">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z52">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB52">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5188,7 +5188,7 @@
         <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5197,7 +5197,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K53">
         <v>1.95</v>
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6847867</v>
+        <v>6847861</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,73 +5274,73 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54">
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K54">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L54">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N54">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="O54">
         <v>3.5</v>
       </c>
       <c r="P54">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S54">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T54">
         <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y54">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA54">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB54">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5541,10 +5541,10 @@
         <v>45191.66666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5553,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K57">
         <v>1.909</v>
@@ -5630,10 +5630,10 @@
         <v>45192.5</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H58">
         <v>5</v>
@@ -5642,7 +5642,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K58">
         <v>2.2</v>
@@ -5719,7 +5719,7 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K59">
         <v>2.8</v>
@@ -5820,7 +5820,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K60">
         <v>3.1</v>
@@ -5909,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K61">
         <v>1.6</v>
@@ -5998,7 +5998,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K62">
         <v>2.7</v>
@@ -6164,7 +6164,7 @@
         <v>45193.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
         <v>39</v>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K64">
         <v>1.666</v>
@@ -6256,7 +6256,7 @@
         <v>47</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6265,7 +6265,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K65">
         <v>1.75</v>
@@ -6354,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K66">
         <v>2.9</v>
@@ -6434,7 +6434,7 @@
         <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6520,7 +6520,7 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
         <v>39</v>
@@ -6532,7 +6532,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K68">
         <v>2.375</v>
@@ -6609,7 +6609,7 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
         <v>45</v>
@@ -6621,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K69">
         <v>2.2</v>
@@ -6710,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K70">
         <v>1.727</v>
@@ -6787,10 +6787,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6888,7 +6888,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K72">
         <v>4.5</v>
@@ -6965,7 +6965,7 @@
         <v>45200.50347222222</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
         <v>41</v>
@@ -6977,7 +6977,7 @@
         <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K73">
         <v>2.8</v>
@@ -7057,7 +7057,7 @@
         <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7066,7 +7066,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K74">
         <v>1.533</v>
@@ -7146,7 +7146,7 @@
         <v>43</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7155,7 +7155,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K75">
         <v>1.95</v>
@@ -7235,7 +7235,7 @@
         <v>44</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7244,7 +7244,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K76">
         <v>4.2</v>
@@ -7321,10 +7321,10 @@
         <v>45206.66666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7333,7 +7333,7 @@
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K77">
         <v>2.55</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K78">
         <v>1.45</v>
@@ -7502,7 +7502,7 @@
         <v>45</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7588,7 +7588,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
         <v>46</v>
@@ -7769,7 +7769,7 @@
         <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7778,7 +7778,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K82">
         <v>3.5</v>
@@ -7944,7 +7944,7 @@
         <v>45220.5</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
         <v>43</v>
@@ -7956,7 +7956,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K84">
         <v>1.285</v>
@@ -8033,7 +8033,7 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
         <v>39</v>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K85">
         <v>2.375</v>
@@ -8122,7 +8122,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8134,7 +8134,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K86">
         <v>3.8</v>
@@ -8199,7 +8199,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6847897</v>
+        <v>6847903</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8211,76 +8211,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K87">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L87">
         <v>3.4</v>
       </c>
       <c r="M87">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="N87">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="O87">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P87">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X87">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8288,7 +8288,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6847903</v>
+        <v>6847900</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8300,40 +8300,40 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K88">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L88">
+        <v>3.75</v>
+      </c>
+      <c r="M88">
+        <v>5</v>
+      </c>
+      <c r="N88">
+        <v>1.85</v>
+      </c>
+      <c r="O88">
         <v>3.4</v>
       </c>
-      <c r="M88">
-        <v>2.3</v>
-      </c>
-      <c r="N88">
-        <v>3.1</v>
-      </c>
-      <c r="O88">
-        <v>3.5</v>
-      </c>
       <c r="P88">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q88">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
         <v>1.875</v>
@@ -8342,16 +8342,16 @@
         <v>1.975</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
-        <v>2.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8369,7 +8369,7 @@
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6847900</v>
+        <v>6847897</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,76 +8389,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K89">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="N89">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O89">
         <v>3.4</v>
       </c>
       <c r="P89">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S89">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
         <v>2.5</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8478,7 +8478,7 @@
         <v>45221.50347222222</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
         <v>44</v>
@@ -8490,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K90">
         <v>1.363</v>
@@ -8579,7 +8579,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K91">
         <v>1.7</v>
@@ -8659,7 +8659,7 @@
         <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8668,7 +8668,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K92">
         <v>3.75</v>
@@ -8745,10 +8745,10 @@
         <v>45227.5</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K93">
         <v>1.75</v>
@@ -8837,7 +8837,7 @@
         <v>49</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -8846,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K94">
         <v>1.615</v>
@@ -8923,10 +8923,10 @@
         <v>45228.375</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8935,7 +8935,7 @@
         <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K95">
         <v>6</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K96">
         <v>1.869</v>
@@ -9089,7 +9089,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6847907</v>
+        <v>6847911</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9101,76 +9101,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97" t="s">
+        <v>53</v>
+      </c>
+      <c r="K97">
+        <v>2.25</v>
+      </c>
+      <c r="L97">
+        <v>3.5</v>
+      </c>
+      <c r="M97">
+        <v>3</v>
+      </c>
+      <c r="N97">
+        <v>2.8</v>
+      </c>
+      <c r="O97">
+        <v>3.1</v>
+      </c>
+      <c r="P97">
+        <v>2.7</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
         <v>2</v>
       </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97" t="s">
-        <v>51</v>
-      </c>
-      <c r="K97">
-        <v>2.2</v>
-      </c>
-      <c r="L97">
-        <v>3.75</v>
-      </c>
-      <c r="M97">
-        <v>2.9</v>
-      </c>
-      <c r="N97">
-        <v>2.375</v>
-      </c>
-      <c r="O97">
-        <v>3.6</v>
-      </c>
-      <c r="P97">
-        <v>2.75</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>1.825</v>
-      </c>
       <c r="S97">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T97">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V97">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W97">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9178,7 +9178,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6847911</v>
+        <v>6847907</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9190,76 +9190,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G98" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K98">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
+        <v>2.9</v>
+      </c>
+      <c r="N98">
+        <v>2.375</v>
+      </c>
+      <c r="O98">
+        <v>3.6</v>
+      </c>
+      <c r="P98">
+        <v>2.75</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>1.825</v>
+      </c>
+      <c r="S98">
+        <v>2.025</v>
+      </c>
+      <c r="T98">
         <v>3</v>
       </c>
-      <c r="N98">
-        <v>2.8</v>
-      </c>
-      <c r="O98">
-        <v>3.1</v>
-      </c>
-      <c r="P98">
-        <v>2.7</v>
-      </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-      <c r="R98">
-        <v>2</v>
-      </c>
-      <c r="S98">
-        <v>1.85</v>
-      </c>
-      <c r="T98">
-        <v>2.25</v>
-      </c>
       <c r="U98">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V98">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X98">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA98">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9368,7 +9368,7 @@
         <v>45233.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
         <v>41</v>
@@ -9380,7 +9380,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K100">
         <v>1.333</v>
@@ -9457,7 +9457,7 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
         <v>49</v>
@@ -9801,7 +9801,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6847922</v>
+        <v>6847916</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9813,55 +9813,55 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K105">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="L105">
+        <v>3.5</v>
+      </c>
+      <c r="M105">
+        <v>3.6</v>
+      </c>
+      <c r="N105">
+        <v>1.95</v>
+      </c>
+      <c r="O105">
         <v>3.4</v>
       </c>
-      <c r="M105">
-        <v>2.375</v>
-      </c>
-      <c r="N105">
-        <v>2.8</v>
-      </c>
-      <c r="O105">
-        <v>3.25</v>
-      </c>
       <c r="P105">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S105">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W105">
         <v>-1</v>
@@ -9870,19 +9870,19 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6847916</v>
+        <v>6847922</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9902,55 +9902,55 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
         <v>1</v>
       </c>
-      <c r="I106">
-        <v>2</v>
-      </c>
       <c r="J106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K106">
+        <v>2.9</v>
+      </c>
+      <c r="L106">
+        <v>3.4</v>
+      </c>
+      <c r="M106">
+        <v>2.375</v>
+      </c>
+      <c r="N106">
+        <v>2.8</v>
+      </c>
+      <c r="O106">
+        <v>3.25</v>
+      </c>
+      <c r="P106">
+        <v>2.55</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
         <v>2.05</v>
       </c>
-      <c r="L106">
-        <v>3.5</v>
-      </c>
-      <c r="M106">
-        <v>3.6</v>
-      </c>
-      <c r="N106">
-        <v>1.95</v>
-      </c>
-      <c r="O106">
-        <v>3.4</v>
-      </c>
-      <c r="P106">
-        <v>4</v>
-      </c>
-      <c r="Q106">
-        <v>-0.5</v>
-      </c>
-      <c r="R106">
-        <v>2</v>
-      </c>
       <c r="S106">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T106">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V106">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9959,19 +9959,19 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB106">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9991,10 +9991,10 @@
         <v>45235.54513888889</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10003,7 +10003,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K107">
         <v>1.533</v>
@@ -10080,7 +10080,7 @@
         <v>45235.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>42</v>
@@ -10092,7 +10092,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K108">
         <v>2.15</v>
@@ -10172,7 +10172,7 @@
         <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10258,10 +10258,10 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K110">
         <v>4.333</v>
@@ -10350,7 +10350,7 @@
         <v>48</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>44</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H112">
         <v>3</v>
@@ -10448,7 +10448,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K112">
         <v>2.75</v>
@@ -10528,7 +10528,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K113">
         <v>2</v>
@@ -10715,7 +10715,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K115">
         <v>1.7</v>
@@ -10804,7 +10804,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K116">
         <v>2.375</v>
@@ -10881,10 +10881,10 @@
         <v>45254.70833333334</v>
       </c>
       <c r="F117" t="s">
+        <v>38</v>
+      </c>
+      <c r="G117" t="s">
         <v>35</v>
-      </c>
-      <c r="G117" t="s">
-        <v>31</v>
       </c>
       <c r="H117">
         <v>5</v>
@@ -10893,7 +10893,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K117">
         <v>1.45</v>
@@ -10982,7 +10982,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K118">
         <v>3.4</v>
@@ -11148,7 +11148,7 @@
         <v>45256.375</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G120" t="s">
         <v>46</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K120">
         <v>1.55</v>
@@ -11225,7 +11225,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6847939</v>
+        <v>6847935</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11237,76 +11237,76 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K121">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L121">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M121">
+        <v>3.8</v>
+      </c>
+      <c r="N121">
+        <v>2.05</v>
+      </c>
+      <c r="O121">
         <v>3.4</v>
       </c>
-      <c r="N121">
-        <v>1.95</v>
-      </c>
-      <c r="O121">
-        <v>3.25</v>
-      </c>
       <c r="P121">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q121">
         <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T121">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V121">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC121">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11314,7 +11314,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6847940</v>
+        <v>6847939</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11326,40 +11326,40 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K122">
         <v>2.15</v>
       </c>
       <c r="L122">
+        <v>3.3</v>
+      </c>
+      <c r="M122">
         <v>3.4</v>
       </c>
-      <c r="M122">
+      <c r="N122">
+        <v>1.95</v>
+      </c>
+      <c r="O122">
         <v>3.25</v>
       </c>
-      <c r="N122">
-        <v>2.25</v>
-      </c>
-      <c r="O122">
-        <v>3.3</v>
-      </c>
       <c r="P122">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
         <v>1.95</v>
@@ -11368,22 +11368,22 @@
         <v>1.9</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U122">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V122">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y122">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
         <v>-1</v>
@@ -11392,10 +11392,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB122">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11403,7 +11403,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6847935</v>
+        <v>6847940</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11415,73 +11415,73 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G123" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K123">
+        <v>2.15</v>
+      </c>
+      <c r="L123">
+        <v>3.4</v>
+      </c>
+      <c r="M123">
+        <v>3.25</v>
+      </c>
+      <c r="N123">
+        <v>2.25</v>
+      </c>
+      <c r="O123">
+        <v>3.3</v>
+      </c>
+      <c r="P123">
+        <v>3.25</v>
+      </c>
+      <c r="Q123">
+        <v>-0.25</v>
+      </c>
+      <c r="R123">
         <v>1.95</v>
       </c>
-      <c r="L123">
-        <v>3.5</v>
-      </c>
-      <c r="M123">
-        <v>3.8</v>
-      </c>
-      <c r="N123">
+      <c r="S123">
+        <v>1.9</v>
+      </c>
+      <c r="T123">
+        <v>2.5</v>
+      </c>
+      <c r="U123">
         <v>2.05</v>
       </c>
-      <c r="O123">
-        <v>3.4</v>
-      </c>
-      <c r="P123">
-        <v>3.8</v>
-      </c>
-      <c r="Q123">
-        <v>-0.5</v>
-      </c>
-      <c r="R123">
-        <v>2.05</v>
-      </c>
-      <c r="S123">
+      <c r="V123">
         <v>1.8</v>
       </c>
-      <c r="T123">
+      <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
+        <v>-1</v>
+      </c>
+      <c r="Y123">
         <v>2.25</v>
       </c>
-      <c r="U123">
-        <v>1.975</v>
-      </c>
-      <c r="V123">
-        <v>1.875</v>
-      </c>
-      <c r="W123">
-        <v>-1</v>
-      </c>
-      <c r="X123">
-        <v>-1</v>
-      </c>
-      <c r="Y123">
-        <v>2.8</v>
-      </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB123">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11507,7 +11507,7 @@
         <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11516,7 +11516,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K124">
         <v>1.8</v>
@@ -11605,7 +11605,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K125">
         <v>3.1</v>
@@ -11771,7 +11771,7 @@
         <v>45261.70833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
         <v>43</v>
@@ -11783,7 +11783,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K127">
         <v>1.833</v>
@@ -11872,7 +11872,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K128">
         <v>1.833</v>
@@ -11949,10 +11949,10 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -11961,7 +11961,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K129">
         <v>3.8</v>
@@ -12041,7 +12041,7 @@
         <v>48</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12050,7 +12050,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K130">
         <v>9</v>
@@ -12115,7 +12115,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6847941</v>
+        <v>6847949</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12127,40 +12127,40 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K131">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L131">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="N131">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P131">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q131">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
         <v>1.975</v>
@@ -12172,31 +12172,31 @@
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V131">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X131">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA131">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC131">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12216,7 +12216,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
         <v>41</v>
@@ -12228,7 +12228,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K132">
         <v>1.571</v>
@@ -12293,7 +12293,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6847949</v>
+        <v>6847941</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12305,40 +12305,40 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K133">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M133">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N133">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O133">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P133">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q133">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
         <v>1.975</v>
@@ -12350,31 +12350,31 @@
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB133">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12406,7 +12406,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K134">
         <v>1.4</v>
@@ -12495,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K135">
         <v>1.909</v>
@@ -12584,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K136">
         <v>1.7</v>
@@ -12661,7 +12661,7 @@
         <v>45267.6875</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
         <v>43</v>
@@ -12842,7 +12842,7 @@
         <v>42</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12851,7 +12851,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K139">
         <v>2.55</v>
@@ -12928,10 +12928,10 @@
         <v>45269.70833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -12940,7 +12940,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K140">
         <v>1.2</v>
@@ -13017,10 +13017,10 @@
         <v>45270.375</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13029,7 +13029,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K141">
         <v>1.75</v>
@@ -13094,7 +13094,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6847957</v>
+        <v>6847951</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13106,13 +13106,13 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -13121,61 +13121,61 @@
         <v>52</v>
       </c>
       <c r="K142">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L142">
         <v>3.2</v>
       </c>
       <c r="M142">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N142">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="O142">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P142">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.975</v>
+        <v>2.02</v>
       </c>
       <c r="S142">
-        <v>1.875</v>
+        <v>1.88</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U142">
-        <v>2.025</v>
+        <v>1.86</v>
       </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>2.04</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA142">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13183,7 +13183,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6847956</v>
+        <v>6847957</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13195,40 +13195,40 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K143">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L143">
         <v>3.2</v>
       </c>
       <c r="M143">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="N143">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="O143">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P143">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="Q143">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
         <v>1.975</v>
@@ -13237,34 +13237,34 @@
         <v>1.875</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13272,7 +13272,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6847951</v>
+        <v>6847956</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13284,76 +13284,76 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K144">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L144">
         <v>3.2</v>
       </c>
       <c r="M144">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="N144">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="O144">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P144">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R144">
-        <v>2.02</v>
+        <v>1.975</v>
       </c>
       <c r="S144">
-        <v>1.88</v>
+        <v>1.875</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V144">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>1.02</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13385,7 +13385,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K145">
         <v>1.85</v>
@@ -13462,7 +13462,7 @@
         <v>45270.69791666666</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G146" t="s">
         <v>39</v>
@@ -13474,7 +13474,7 @@
         <v>4</v>
       </c>
       <c r="J146" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K146">
         <v>4.5</v>
@@ -13551,7 +13551,7 @@
         <v>45275.70833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
         <v>45</v>
@@ -13563,7 +13563,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K147">
         <v>1.571</v>
@@ -13643,7 +13643,7 @@
         <v>48</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -13652,7 +13652,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K148">
         <v>4.333</v>
@@ -13732,7 +13732,7 @@
         <v>49</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13741,7 +13741,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K149">
         <v>1.8</v>
@@ -13818,10 +13818,10 @@
         <v>45277.375</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13830,7 +13830,7 @@
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K150">
         <v>2.5</v>
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6847961</v>
+        <v>6847967</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,55 +13996,55 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G152" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
         <v>1</v>
       </c>
-      <c r="I152">
+      <c r="J152" t="s">
+        <v>51</v>
+      </c>
+      <c r="K152">
+        <v>3.2</v>
+      </c>
+      <c r="L152">
+        <v>3.5</v>
+      </c>
+      <c r="M152">
+        <v>2.15</v>
+      </c>
+      <c r="N152">
+        <v>3.3</v>
+      </c>
+      <c r="O152">
+        <v>3.25</v>
+      </c>
+      <c r="P152">
+        <v>2.25</v>
+      </c>
+      <c r="Q152">
+        <v>0.25</v>
+      </c>
+      <c r="R152">
+        <v>1.85</v>
+      </c>
+      <c r="S152">
         <v>2</v>
-      </c>
-      <c r="J152" t="s">
-        <v>52</v>
-      </c>
-      <c r="K152">
-        <v>2.3</v>
-      </c>
-      <c r="L152">
-        <v>3.25</v>
-      </c>
-      <c r="M152">
-        <v>3.1</v>
-      </c>
-      <c r="N152">
-        <v>2.375</v>
-      </c>
-      <c r="O152">
-        <v>3.2</v>
-      </c>
-      <c r="P152">
-        <v>3.1</v>
-      </c>
-      <c r="Q152">
-        <v>-0.25</v>
-      </c>
-      <c r="R152">
-        <v>2.075</v>
-      </c>
-      <c r="S152">
-        <v>1.725</v>
       </c>
       <c r="T152">
         <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W152">
         <v>-1</v>
@@ -14053,19 +14053,19 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB152">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14073,7 +14073,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6847967</v>
+        <v>6847961</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14085,55 +14085,55 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F153" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K153">
+        <v>2.3</v>
+      </c>
+      <c r="L153">
+        <v>3.25</v>
+      </c>
+      <c r="M153">
+        <v>3.1</v>
+      </c>
+      <c r="N153">
+        <v>2.375</v>
+      </c>
+      <c r="O153">
         <v>3.2</v>
       </c>
-      <c r="L153">
-        <v>3.5</v>
-      </c>
-      <c r="M153">
-        <v>2.15</v>
-      </c>
-      <c r="N153">
-        <v>3.3</v>
-      </c>
-      <c r="O153">
-        <v>3.25</v>
-      </c>
       <c r="P153">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q153">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S153">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T153">
         <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V153">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W153">
         <v>-1</v>
@@ -14142,19 +14142,19 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14186,7 +14186,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K154">
         <v>1.45</v>
@@ -14266,7 +14266,7 @@
         <v>47</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7579908</v>
+        <v>6847976</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,73 +14352,73 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G156" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I156">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
         <v>52</v>
       </c>
       <c r="K156">
-        <v>3.25</v>
+        <v>1.615</v>
       </c>
       <c r="L156">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M156">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="N156">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O156">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P156">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="Q156">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R156">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S156">
-        <v>2.08</v>
+        <v>1.975</v>
       </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>2.11</v>
+        <v>2.025</v>
       </c>
       <c r="V156">
-        <v>1.79</v>
+        <v>1.825</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA156">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>1.11</v>
+        <v>1.025</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6847968</v>
+        <v>6847971</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,58 +14441,58 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G157" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K157">
-        <v>1.142</v>
+        <v>1.833</v>
       </c>
       <c r="L157">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="M157">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="N157">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="O157">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="P157">
-        <v>23</v>
+        <v>4.333</v>
       </c>
       <c r="Q157">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="S157">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="T157">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="V157">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="W157">
-        <v>0.111</v>
+        <v>0.8</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14501,16 +14501,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA157">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14518,7 +14518,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6847971</v>
+        <v>6847970</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14530,76 +14530,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
         <v>51</v>
       </c>
       <c r="K158">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="L158">
+        <v>3.8</v>
+      </c>
+      <c r="M158">
+        <v>1.75</v>
+      </c>
+      <c r="N158">
         <v>3.75</v>
       </c>
-      <c r="M158">
+      <c r="O158">
         <v>4</v>
       </c>
-      <c r="N158">
-        <v>1.8</v>
-      </c>
-      <c r="O158">
-        <v>3.6</v>
-      </c>
       <c r="P158">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R158">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S158">
-        <v>1.98</v>
+        <v>1.875</v>
       </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U158">
-        <v>2.02</v>
+        <v>1.925</v>
       </c>
       <c r="V158">
-        <v>1.88</v>
+        <v>1.925</v>
       </c>
       <c r="W158">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC158">
-        <v>0.8799999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14607,7 +14607,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6847975</v>
+        <v>6847974</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14619,46 +14619,46 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H159">
         <v>1</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K159">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="L159">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M159">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="N159">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="O159">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P159">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="Q159">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R159">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S159">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T159">
         <v>2.5</v>
@@ -14670,19 +14670,19 @@
         <v>1.925</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X159">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB159">
         <v>-1</v>
@@ -14696,7 +14696,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6847974</v>
+        <v>6847975</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14708,46 +14708,46 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H160">
         <v>1</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K160">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="L160">
+        <v>3.4</v>
+      </c>
+      <c r="M160">
+        <v>2.1</v>
+      </c>
+      <c r="N160">
         <v>4</v>
       </c>
-      <c r="M160">
-        <v>5</v>
-      </c>
-      <c r="N160">
-        <v>1.727</v>
-      </c>
       <c r="O160">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P160">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q160">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R160">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S160">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T160">
         <v>2.5</v>
@@ -14759,19 +14759,19 @@
         <v>1.925</v>
       </c>
       <c r="W160">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
         <v>-1</v>
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6847972</v>
+        <v>6847969</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,58 +14797,58 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H161">
         <v>2</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K161">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="L161">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M161">
+        <v>1.95</v>
+      </c>
+      <c r="N161">
+        <v>3.6</v>
+      </c>
+      <c r="O161">
         <v>3.4</v>
       </c>
-      <c r="N161">
-        <v>2.25</v>
-      </c>
-      <c r="O161">
-        <v>3.25</v>
-      </c>
       <c r="P161">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R161">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="S161">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="T161">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
-        <v>1.99</v>
+        <v>2.025</v>
       </c>
       <c r="V161">
-        <v>1.91</v>
+        <v>1.825</v>
       </c>
       <c r="W161">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14857,16 +14857,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.99</v>
+        <v>1.05</v>
       </c>
       <c r="AA161">
         <v>-1</v>
       </c>
       <c r="AB161">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC161">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6847970</v>
+        <v>7579908</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,55 +14886,55 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H162">
         <v>1</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J162" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K162">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="L162">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M162">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N162">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O162">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P162">
+        <v>2.375</v>
+      </c>
+      <c r="Q162">
+        <v>0.25</v>
+      </c>
+      <c r="R162">
         <v>1.85</v>
       </c>
-      <c r="Q162">
-        <v>0.5</v>
-      </c>
-      <c r="R162">
-        <v>1.975</v>
-      </c>
       <c r="S162">
-        <v>1.875</v>
+        <v>2.08</v>
       </c>
       <c r="T162">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U162">
-        <v>1.925</v>
+        <v>2.11</v>
       </c>
       <c r="V162">
-        <v>1.925</v>
+        <v>1.79</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -14943,19 +14943,19 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>0.8500000000000001</v>
+        <v>1.375</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.875</v>
+        <v>1.08</v>
       </c>
       <c r="AB162">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AC162">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14963,7 +14963,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6847976</v>
+        <v>6847972</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14975,58 +14975,58 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G163" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I163">
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K163">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L163">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M163">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N163">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O163">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P163">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q163">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
-        <v>1.875</v>
+        <v>1.99</v>
       </c>
       <c r="S163">
-        <v>1.975</v>
+        <v>1.94</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U163">
-        <v>2.025</v>
+        <v>1.99</v>
       </c>
       <c r="V163">
-        <v>1.825</v>
+        <v>1.91</v>
       </c>
       <c r="W163">
-        <v>0.6499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15035,16 +15035,16 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.875</v>
+        <v>0.99</v>
       </c>
       <c r="AA163">
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15052,7 +15052,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6847969</v>
+        <v>6847968</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15064,58 +15064,58 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G164" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I164">
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K164">
-        <v>4</v>
+        <v>1.142</v>
       </c>
       <c r="L164">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="M164">
-        <v>1.95</v>
+        <v>17</v>
       </c>
       <c r="N164">
-        <v>3.6</v>
+        <v>1.111</v>
       </c>
       <c r="O164">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="P164">
-        <v>2.05</v>
+        <v>23</v>
       </c>
       <c r="Q164">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R164">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="S164">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U164">
-        <v>2.025</v>
+        <v>1.87</v>
       </c>
       <c r="V164">
-        <v>1.825</v>
+        <v>2.03</v>
       </c>
       <c r="W164">
-        <v>2.6</v>
+        <v>0.111</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15124,13 +15124,13 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
       <c r="AB164">
-        <v>1.025</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15242,10 +15242,10 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F166" t="s">
+        <v>35</v>
+      </c>
+      <c r="G166" t="s">
         <v>31</v>
-      </c>
-      <c r="G166" t="s">
-        <v>33</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15254,7 +15254,7 @@
         <v>3</v>
       </c>
       <c r="J166" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K166">
         <v>1.727</v>
@@ -15334,7 +15334,7 @@
         <v>42</v>
       </c>
       <c r="G167" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15343,7 +15343,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K167">
         <v>2.5</v>
@@ -15423,7 +15423,7 @@
         <v>47</v>
       </c>
       <c r="G168" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -15432,7 +15432,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K168">
         <v>1.363</v>
@@ -15497,7 +15497,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6847982</v>
+        <v>6847984</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15509,55 +15509,55 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G169" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
         <v>1</v>
       </c>
-      <c r="I169">
-        <v>2</v>
-      </c>
       <c r="J169" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K169">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="L169">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M169">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="N169">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O169">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P169">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q169">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R169">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S169">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T169">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U169">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V169">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W169">
         <v>-1</v>
@@ -15566,19 +15566,19 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB169">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15598,7 +15598,7 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
         <v>41</v>
@@ -15610,7 +15610,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K170">
         <v>1.8</v>
@@ -15675,7 +15675,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6847984</v>
+        <v>6847982</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15687,55 +15687,55 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G171" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K171">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="L171">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M171">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="N171">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O171">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P171">
+        <v>3.8</v>
+      </c>
+      <c r="Q171">
+        <v>-0.5</v>
+      </c>
+      <c r="R171">
+        <v>1.9</v>
+      </c>
+      <c r="S171">
+        <v>1.95</v>
+      </c>
+      <c r="T171">
         <v>2.5</v>
       </c>
-      <c r="Q171">
-        <v>0</v>
-      </c>
-      <c r="R171">
-        <v>2.025</v>
-      </c>
-      <c r="S171">
-        <v>1.825</v>
-      </c>
-      <c r="T171">
-        <v>2.25</v>
-      </c>
       <c r="U171">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V171">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15744,19 +15744,19 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC171">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15788,7 +15788,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K172">
         <v>3</v>
@@ -15868,7 +15868,7 @@
         <v>49</v>
       </c>
       <c r="G173" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -15877,7 +15877,7 @@
         <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K173">
         <v>3.6</v>
@@ -15966,7 +15966,7 @@
         <v>3</v>
       </c>
       <c r="J174" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K174">
         <v>2.25</v>
@@ -16043,7 +16043,7 @@
         <v>45318.54166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16055,7 +16055,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K175">
         <v>1.4</v>
@@ -16135,7 +16135,7 @@
         <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16399,7 +16399,7 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
         <v>48</v>
@@ -16488,10 +16488,10 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -16589,7 +16589,7 @@
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K181">
         <v>3.4</v>
@@ -16666,10 +16666,10 @@
         <v>45319.69791666666</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16758,7 +16758,7 @@
         <v>43</v>
       </c>
       <c r="G183" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16767,7 +16767,7 @@
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K183">
         <v>6</v>
@@ -16856,7 +16856,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K184">
         <v>2</v>
@@ -16933,7 +16933,7 @@
         <v>45325.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
         <v>49</v>
@@ -16945,7 +16945,7 @@
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K185">
         <v>3.5</v>
@@ -17022,7 +17022,7 @@
         <v>45326.375</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G186" t="s">
         <v>48</v>
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7728862</v>
+        <v>7728864</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,73 +17111,73 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J187" t="s">
         <v>51</v>
       </c>
       <c r="K187">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L187">
+        <v>3.5</v>
+      </c>
+      <c r="M187">
+        <v>4.75</v>
+      </c>
+      <c r="N187">
+        <v>1.85</v>
+      </c>
+      <c r="O187">
+        <v>3.4</v>
+      </c>
+      <c r="P187">
         <v>4.5</v>
       </c>
-      <c r="M187">
-        <v>8</v>
-      </c>
-      <c r="N187">
-        <v>1.4</v>
-      </c>
-      <c r="O187">
-        <v>4.75</v>
-      </c>
-      <c r="P187">
-        <v>7.5</v>
-      </c>
       <c r="Q187">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R187">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S187">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T187">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U187">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V187">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W187">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z187">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB187">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC187">
         <v>-1</v>
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7728864</v>
+        <v>7728862</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,73 +17200,73 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G188" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I188">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>52</v>
       </c>
       <c r="K188">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L188">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M188">
+        <v>8</v>
+      </c>
+      <c r="N188">
+        <v>1.4</v>
+      </c>
+      <c r="O188">
         <v>4.75</v>
       </c>
-      <c r="N188">
+      <c r="P188">
+        <v>7.5</v>
+      </c>
+      <c r="Q188">
+        <v>-1.25</v>
+      </c>
+      <c r="R188">
+        <v>2</v>
+      </c>
+      <c r="S188">
         <v>1.85</v>
       </c>
-      <c r="O188">
-        <v>3.4</v>
-      </c>
-      <c r="P188">
-        <v>4.5</v>
-      </c>
-      <c r="Q188">
-        <v>-0.75</v>
-      </c>
-      <c r="R188">
-        <v>2.05</v>
-      </c>
-      <c r="S188">
-        <v>1.8</v>
-      </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V188">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA188">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17292,7 +17292,7 @@
         <v>44</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17301,7 +17301,7 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K189">
         <v>2.25</v>
@@ -17378,10 +17378,10 @@
         <v>45326.54513888889</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17479,7 +17479,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K191">
         <v>2.8</v>
@@ -17657,7 +17657,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K193">
         <v>1.666</v>
@@ -17734,7 +17734,7 @@
         <v>45332.70833333334</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G194" t="s">
         <v>47</v>
@@ -17746,7 +17746,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K194">
         <v>1.5</v>
@@ -17835,7 +17835,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K195">
         <v>3.75</v>
@@ -17915,7 +17915,7 @@
         <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18001,10 +18001,10 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G197" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H197">
         <v>2</v>
@@ -18013,7 +18013,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K197">
         <v>3.3</v>
@@ -18093,7 +18093,7 @@
         <v>46</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18102,7 +18102,7 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K198">
         <v>2.25</v>
@@ -18191,7 +18191,7 @@
         <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K199">
         <v>2.6</v>
@@ -18268,10 +18268,10 @@
         <v>45333.69791666666</v>
       </c>
       <c r="F200" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G200" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18280,7 +18280,7 @@
         <v>3</v>
       </c>
       <c r="J200" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K200">
         <v>2.3</v>
@@ -18360,7 +18360,7 @@
         <v>45</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18369,7 +18369,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K201">
         <v>2.625</v>
@@ -18446,10 +18446,10 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G202" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -18458,7 +18458,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K202">
         <v>5.75</v>
@@ -18538,7 +18538,7 @@
         <v>43</v>
       </c>
       <c r="G203" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18547,7 +18547,7 @@
         <v>3</v>
       </c>
       <c r="J203" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K203">
         <v>1.7</v>
@@ -18612,7 +18612,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6848020</v>
+        <v>6848015</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18624,76 +18624,76 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J204" t="s">
         <v>51</v>
       </c>
       <c r="K204">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="L204">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M204">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N204">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O204">
         <v>4</v>
       </c>
       <c r="P204">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q204">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R204">
+        <v>2.05</v>
+      </c>
+      <c r="S204">
         <v>1.8</v>
       </c>
-      <c r="S204">
-        <v>2.05</v>
-      </c>
       <c r="T204">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V204">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W204">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z204">
+        <v>-1</v>
+      </c>
+      <c r="AA204">
         <v>0.8</v>
       </c>
-      <c r="AA204">
-        <v>-1</v>
-      </c>
       <c r="AB204">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC204">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18701,7 +18701,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6848015</v>
+        <v>6848014</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18713,25 +18713,25 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G205" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H205">
+        <v>3</v>
+      </c>
+      <c r="I205">
         <v>1</v>
-      </c>
-      <c r="I205">
-        <v>2</v>
       </c>
       <c r="J205" t="s">
         <v>52</v>
       </c>
       <c r="K205">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="L205">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M205">
         <v>6</v>
@@ -18749,40 +18749,40 @@
         <v>-1</v>
       </c>
       <c r="R205">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S205">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T205">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V205">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AA205">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC205">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18790,7 +18790,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6848014</v>
+        <v>6848020</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18802,58 +18802,58 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G206" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H206">
         <v>3</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K206">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L206">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M206">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N206">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O206">
         <v>4</v>
       </c>
       <c r="P206">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q206">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R206">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
       <c r="S206">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U206">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V206">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W206">
-        <v>0.6000000000000001</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18862,13 +18862,13 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>1.08</v>
+        <v>0.8</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -18891,7 +18891,7 @@
         <v>45340.54513888889</v>
       </c>
       <c r="F207" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G207" t="s">
         <v>49</v>
@@ -18980,7 +18980,7 @@
         <v>45340.69791666666</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G208" t="s">
         <v>39</v>
@@ -18992,7 +18992,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K208">
         <v>2.5</v>
@@ -19081,7 +19081,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K209">
         <v>4</v>
@@ -19158,10 +19158,10 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G210" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K210">
         <v>2.55</v>
@@ -19250,7 +19250,7 @@
         <v>43</v>
       </c>
       <c r="G211" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -19259,7 +19259,7 @@
         <v>3</v>
       </c>
       <c r="J211" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K211">
         <v>2.75</v>
@@ -19339,7 +19339,7 @@
         <v>49</v>
       </c>
       <c r="G212" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19348,7 +19348,7 @@
         <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K212">
         <v>2.375</v>
@@ -19413,7 +19413,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6848029</v>
+        <v>6848024</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19425,73 +19425,73 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F213" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G213" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H213">
+        <v>3</v>
+      </c>
+      <c r="I213">
         <v>1</v>
-      </c>
-      <c r="I213">
-        <v>2</v>
       </c>
       <c r="J213" t="s">
         <v>52</v>
       </c>
       <c r="K213">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L213">
         <v>3.25</v>
       </c>
       <c r="M213">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="N213">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="O213">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q213">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S213">
-        <v>1.98</v>
+        <v>2.025</v>
       </c>
       <c r="T213">
         <v>2.5</v>
       </c>
       <c r="U213">
-        <v>2.06</v>
+        <v>2.025</v>
       </c>
       <c r="V213">
-        <v>1.84</v>
+        <v>1.825</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA213">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>1.06</v>
+        <v>1.025</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19502,7 +19502,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6848024</v>
+        <v>6848027</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19514,76 +19514,76 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G214" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H214">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K214">
+        <v>1.45</v>
+      </c>
+      <c r="L214">
         <v>4.2</v>
       </c>
-      <c r="L214">
-        <v>3.25</v>
-      </c>
       <c r="M214">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="N214">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O214">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P214">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="Q214">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R214">
-        <v>1.825</v>
+        <v>2.09</v>
       </c>
       <c r="S214">
-        <v>2.025</v>
+        <v>1.84</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W214">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB214">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19591,7 +19591,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6848027</v>
+        <v>6848029</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19603,76 +19603,76 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G215" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K215">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="L215">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M215">
-        <v>7.5</v>
+        <v>2.25</v>
       </c>
       <c r="N215">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="O215">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P215">
-        <v>7.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q215">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="S215">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.8400000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AC215">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19692,7 +19692,7 @@
         <v>45347.54513888889</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G216" t="s">
         <v>42</v>
@@ -19793,7 +19793,7 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K217">
         <v>1.55</v>
@@ -19870,10 +19870,19 @@
         <v>45352.70833333334</v>
       </c>
       <c r="F218" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G218" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218" t="s">
+        <v>53</v>
       </c>
       <c r="K218">
         <v>3.2</v>
@@ -19885,46 +19894,52 @@
         <v>2.05</v>
       </c>
       <c r="N218">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O218">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P218">
+        <v>1.95</v>
+      </c>
+      <c r="Q218">
+        <v>0.5</v>
+      </c>
+      <c r="R218">
+        <v>1.89</v>
+      </c>
+      <c r="S218">
+        <v>2.01</v>
+      </c>
+      <c r="T218">
+        <v>3.5</v>
+      </c>
+      <c r="U218">
         <v>2.05</v>
       </c>
-      <c r="Q218">
-        <v>0.25</v>
-      </c>
-      <c r="R218">
-        <v>2.07</v>
-      </c>
-      <c r="S218">
-        <v>1.83</v>
-      </c>
-      <c r="T218">
+      <c r="V218">
+        <v>1.85</v>
+      </c>
+      <c r="W218">
+        <v>-1</v>
+      </c>
+      <c r="X218">
         <v>3</v>
       </c>
-      <c r="U218">
-        <v>1.86</v>
-      </c>
-      <c r="V218">
-        <v>2.04</v>
-      </c>
-      <c r="W218">
-        <v>0</v>
-      </c>
-      <c r="X218">
-        <v>0</v>
-      </c>
       <c r="Y218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA218">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB218">
+        <v>-1</v>
+      </c>
+      <c r="AC218">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19944,7 +19959,7 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F219" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G219" t="s">
         <v>47</v>
@@ -19959,31 +19974,31 @@
         <v>2.5</v>
       </c>
       <c r="N219">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="O219">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P219">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q219">
         <v>0</v>
       </c>
       <c r="R219">
-        <v>1.99</v>
+        <v>2.11</v>
       </c>
       <c r="S219">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="T219">
         <v>2.5</v>
       </c>
       <c r="U219">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="V219">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W219">
         <v>0</v>
@@ -20045,10 +20060,10 @@
         <v>0.5</v>
       </c>
       <c r="R220">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S220">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T220">
         <v>2.5</v>
@@ -20095,7 +20110,7 @@
         <v>46</v>
       </c>
       <c r="G221" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K221">
         <v>3.6</v>
@@ -20128,10 +20143,10 @@
         <v>2.25</v>
       </c>
       <c r="U221">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="V221">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W221">
         <v>0</v>
@@ -20154,7 +20169,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6848037</v>
+        <v>6848039</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20166,31 +20181,31 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G222" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K222">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="L222">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M222">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="N222">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="O222">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P222">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q222">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R222">
         <v>1.84</v>
@@ -20202,10 +20217,10 @@
         <v>2.25</v>
       </c>
       <c r="U222">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="V222">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="W222">
         <v>0</v>
@@ -20258,28 +20273,28 @@
         <v>2</v>
       </c>
       <c r="O223">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P223">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q223">
         <v>-0.5</v>
       </c>
       <c r="R223">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="S223">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="T223">
         <v>2.5</v>
       </c>
       <c r="U223">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="V223">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W223">
         <v>0</v>
@@ -20302,7 +20317,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6848039</v>
+        <v>6848037</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20314,40 +20329,40 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F224" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G224" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K224">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="L224">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M224">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="N224">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="O224">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P224">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q224">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R224">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S224">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="T224">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U224">
         <v>2.07</v>
@@ -20391,7 +20406,7 @@
         <v>42</v>
       </c>
       <c r="G225" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K225">
         <v>1.4</v>
@@ -20415,19 +20430,19 @@
         <v>-1.25</v>
       </c>
       <c r="R225">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="S225">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="T225">
         <v>2.75</v>
       </c>
       <c r="U225">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="V225">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="W225">
         <v>0</v>
@@ -20477,45 +20492,267 @@
         <v>2.75</v>
       </c>
       <c r="N226">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O226">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P226">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q226">
         <v>0</v>
       </c>
       <c r="R226">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S226">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T226">
         <v>2.5</v>
       </c>
       <c r="U226">
+        <v>2</v>
+      </c>
+      <c r="V226">
+        <v>1.9</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>6848045</v>
+      </c>
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45359.70833333334</v>
+      </c>
+      <c r="F227" t="s">
+        <v>30</v>
+      </c>
+      <c r="G227" t="s">
+        <v>41</v>
+      </c>
+      <c r="K227">
+        <v>1.75</v>
+      </c>
+      <c r="L227">
+        <v>3.5</v>
+      </c>
+      <c r="M227">
+        <v>4.75</v>
+      </c>
+      <c r="N227">
+        <v>1.75</v>
+      </c>
+      <c r="O227">
+        <v>3.5</v>
+      </c>
+      <c r="P227">
+        <v>4.75</v>
+      </c>
+      <c r="Q227">
+        <v>-0.75</v>
+      </c>
+      <c r="R227">
+        <v>2.06</v>
+      </c>
+      <c r="S227">
+        <v>1.84</v>
+      </c>
+      <c r="T227">
+        <v>2.25</v>
+      </c>
+      <c r="U227">
+        <v>1.93</v>
+      </c>
+      <c r="V227">
+        <v>1.97</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>6848043</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45360.54166666666</v>
+      </c>
+      <c r="F228" t="s">
+        <v>34</v>
+      </c>
+      <c r="G228" t="s">
+        <v>45</v>
+      </c>
+      <c r="K228">
+        <v>3.8</v>
+      </c>
+      <c r="L228">
+        <v>3.5</v>
+      </c>
+      <c r="M228">
+        <v>1.95</v>
+      </c>
+      <c r="N228">
+        <v>3.8</v>
+      </c>
+      <c r="O228">
+        <v>3.5</v>
+      </c>
+      <c r="P228">
+        <v>1.95</v>
+      </c>
+      <c r="Q228">
+        <v>0.5</v>
+      </c>
+      <c r="R228">
+        <v>1.89</v>
+      </c>
+      <c r="S228">
+        <v>2.01</v>
+      </c>
+      <c r="T228">
+        <v>2.5</v>
+      </c>
+      <c r="U228">
+        <v>1.95</v>
+      </c>
+      <c r="V228">
+        <v>1.95</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>6848046</v>
+      </c>
+      <c r="C229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45360.70833333334</v>
+      </c>
+      <c r="F229" t="s">
+        <v>49</v>
+      </c>
+      <c r="G229" t="s">
+        <v>33</v>
+      </c>
+      <c r="K229">
+        <v>1.95</v>
+      </c>
+      <c r="L229">
+        <v>3.4</v>
+      </c>
+      <c r="M229">
+        <v>4</v>
+      </c>
+      <c r="N229">
+        <v>1.95</v>
+      </c>
+      <c r="O229">
+        <v>3.4</v>
+      </c>
+      <c r="P229">
+        <v>4</v>
+      </c>
+      <c r="Q229">
+        <v>-0.5</v>
+      </c>
+      <c r="R229">
+        <v>2.01</v>
+      </c>
+      <c r="S229">
+        <v>1.89</v>
+      </c>
+      <c r="T229">
+        <v>2.25</v>
+      </c>
+      <c r="U229">
+        <v>1.92</v>
+      </c>
+      <c r="V229">
         <v>1.98</v>
       </c>
-      <c r="V226">
-        <v>1.92</v>
-      </c>
-      <c r="W226">
-        <v>0</v>
-      </c>
-      <c r="X226">
-        <v>0</v>
-      </c>
-      <c r="Y226">
-        <v>0</v>
-      </c>
-      <c r="Z226">
-        <v>0</v>
-      </c>
-      <c r="AA226">
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
         <v>0</v>
       </c>
     </row>

--- a/France Ligue 1/France Ligue 1.xlsx
+++ b/France Ligue 1/France Ligue 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -103,34 +103,34 @@
     <t>France Ligue 1</t>
   </si>
   <si>
-    <t>Auxerre</t>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>AC Ajaccio</t>
+  </si>
+  <si>
+    <t>Monaco</t>
   </si>
   <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Monaco</t>
+    <t>Auxerre</t>
   </si>
   <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>AC Ajaccio</t>
-  </si>
-  <si>
-    <t>PSG</t>
+    <t>Reims</t>
   </si>
   <si>
     <t>Marseille</t>
@@ -169,10 +169,10 @@
     <t>Angers</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5635384</v>
+        <v>5635385</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -649,73 +649,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
         <v>1</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>51</v>
       </c>
       <c r="K2">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="L2">
+        <v>3.4</v>
+      </c>
+      <c r="M2">
+        <v>2.375</v>
+      </c>
+      <c r="N2">
+        <v>3.1</v>
+      </c>
+      <c r="O2">
         <v>3.5</v>
       </c>
-      <c r="M2">
-        <v>3.1</v>
-      </c>
-      <c r="N2">
-        <v>3</v>
-      </c>
-      <c r="O2">
-        <v>3.75</v>
-      </c>
       <c r="P2">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q2">
         <v>0.25</v>
       </c>
       <c r="R2">
-        <v>1.89</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>2.01</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
         <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA2">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5644619</v>
+        <v>5641663</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -738,73 +738,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>52</v>
       </c>
       <c r="K3">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="L3">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="N3">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>1.85</v>
+      </c>
+      <c r="T3">
+        <v>2.75</v>
+      </c>
+      <c r="U3">
         <v>1.825</v>
       </c>
-      <c r="S3">
+      <c r="V3">
         <v>2.025</v>
       </c>
-      <c r="T3">
-        <v>3.5</v>
-      </c>
-      <c r="U3">
-        <v>1.9</v>
-      </c>
-      <c r="V3">
-        <v>1.95</v>
-      </c>
       <c r="W3">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z3">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB3">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5639215</v>
+        <v>5642021</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,73 +827,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>51</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M4">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N4">
+        <v>1.5</v>
+      </c>
+      <c r="O4">
+        <v>4.5</v>
+      </c>
+      <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4">
+        <v>-1</v>
+      </c>
+      <c r="R4">
         <v>1.8</v>
       </c>
-      <c r="O4">
-        <v>4.2</v>
-      </c>
-      <c r="P4">
-        <v>4</v>
-      </c>
-      <c r="Q4">
-        <v>-0.75</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5642021</v>
+        <v>5642185</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
         <v>52</v>
       </c>
       <c r="K5">
-        <v>1.444</v>
+        <v>1.285</v>
       </c>
       <c r="L5">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M5">
+        <v>9</v>
+      </c>
+      <c r="N5">
+        <v>1.3</v>
+      </c>
+      <c r="O5">
+        <v>6.5</v>
+      </c>
+      <c r="P5">
+        <v>8</v>
+      </c>
+      <c r="Q5">
+        <v>-1.75</v>
+      </c>
+      <c r="R5">
+        <v>1.925</v>
+      </c>
+      <c r="S5">
+        <v>1.925</v>
+      </c>
+      <c r="T5">
+        <v>3.75</v>
+      </c>
+      <c r="U5">
+        <v>1.875</v>
+      </c>
+      <c r="V5">
+        <v>1.975</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
         <v>7</v>
       </c>
-      <c r="N5">
-        <v>1.5</v>
-      </c>
-      <c r="O5">
-        <v>4.5</v>
-      </c>
-      <c r="P5">
-        <v>6</v>
-      </c>
-      <c r="Q5">
-        <v>-1</v>
-      </c>
-      <c r="R5">
-        <v>1.8</v>
-      </c>
-      <c r="S5">
-        <v>2.05</v>
-      </c>
-      <c r="T5">
-        <v>2.75</v>
-      </c>
-      <c r="U5">
-        <v>1.8</v>
-      </c>
-      <c r="V5">
-        <v>2.05</v>
-      </c>
-      <c r="W5">
-        <v>0.5</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC5">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5641663</v>
+        <v>5641662</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1005,73 +1005,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>51</v>
       </c>
       <c r="K6">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="O6">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P6">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="Q6">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA6">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5635385</v>
+        <v>5638914</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1094,73 +1094,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
         <v>2</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>52</v>
       </c>
       <c r="K7">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M7">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="N7">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P7">
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R7">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U7">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W7">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB7">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1168,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5638914</v>
+        <v>5644619</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1183,73 +1183,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
         <v>1</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
       </c>
       <c r="J8" t="s">
         <v>51</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="L8">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="N8">
+        <v>2.4</v>
+      </c>
+      <c r="O8">
+        <v>4.2</v>
+      </c>
+      <c r="P8">
+        <v>2.55</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1.825</v>
+      </c>
+      <c r="S8">
+        <v>2.025</v>
+      </c>
+      <c r="T8">
+        <v>3.5</v>
+      </c>
+      <c r="U8">
+        <v>1.9</v>
+      </c>
+      <c r="V8">
+        <v>1.95</v>
+      </c>
+      <c r="W8">
         <v>1.4</v>
       </c>
-      <c r="O8">
-        <v>6</v>
-      </c>
-      <c r="P8">
-        <v>5.75</v>
-      </c>
-      <c r="Q8">
-        <v>-1.5</v>
-      </c>
-      <c r="R8">
-        <v>1.925</v>
-      </c>
-      <c r="S8">
-        <v>1.925</v>
-      </c>
-      <c r="T8">
-        <v>3.75</v>
-      </c>
-      <c r="U8">
-        <v>1.925</v>
-      </c>
-      <c r="V8">
-        <v>1.925</v>
-      </c>
-      <c r="W8">
-        <v>-1</v>
-      </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC8">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1257,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5638915</v>
+        <v>5635384</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1272,73 +1272,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="N9">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="P9">
-        <v>1.166</v>
+        <v>2.2</v>
       </c>
       <c r="Q9">
-        <v>2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
+        <v>1.89</v>
+      </c>
+      <c r="S9">
+        <v>2.01</v>
+      </c>
+      <c r="T9">
+        <v>2.75</v>
+      </c>
+      <c r="U9">
         <v>1.95</v>
       </c>
-      <c r="S9">
-        <v>1.9</v>
-      </c>
-      <c r="T9">
-        <v>4</v>
-      </c>
-      <c r="U9">
-        <v>1.975</v>
-      </c>
       <c r="V9">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z9">
+        <v>-1</v>
+      </c>
+      <c r="AA9">
+        <v>1.01</v>
+      </c>
+      <c r="AB9">
         <v>0.95</v>
       </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
-      <c r="AB9">
-        <v>-1</v>
-      </c>
       <c r="AC9">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1346,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5641662</v>
+        <v>5638915</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1361,64 +1361,64 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>1.285</v>
+      </c>
+      <c r="N10">
+        <v>15</v>
+      </c>
+      <c r="O10">
         <v>8</v>
       </c>
-      <c r="L10">
-        <v>5</v>
-      </c>
-      <c r="M10">
-        <v>1.363</v>
-      </c>
-      <c r="N10">
-        <v>7.5</v>
-      </c>
-      <c r="O10">
-        <v>4.75</v>
-      </c>
       <c r="P10">
-        <v>1.4</v>
+        <v>1.166</v>
       </c>
       <c r="Q10">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="R10">
+        <v>1.95</v>
+      </c>
+      <c r="S10">
         <v>1.9</v>
       </c>
-      <c r="S10">
-        <v>1.95</v>
-      </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U10">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V10">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W10">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -1427,7 +1427,7 @@
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1435,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5642185</v>
+        <v>5639215</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1450,53 +1450,53 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M11">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N11">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="O11">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q11">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U11">
+        <v>1.975</v>
+      </c>
+      <c r="V11">
         <v>1.875</v>
       </c>
-      <c r="V11">
-        <v>1.975</v>
-      </c>
       <c r="W11">
         <v>-1</v>
       </c>
@@ -1504,16 +1504,16 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB11">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC11">
         <v>-1</v>
@@ -1536,7 +1536,7 @@
         <v>45149.66666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
         <v>47</v>
@@ -1628,7 +1628,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13">
         <v>1.666</v>
@@ -1714,10 +1714,10 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
         <v>49</v>
@@ -1815,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K15">
         <v>4.5</v>
@@ -1880,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6847831</v>
+        <v>6847826</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1892,28 +1892,28 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="L16">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M16">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N16">
         <v>3</v>
@@ -1922,26 +1922,26 @@
         <v>3.4</v>
       </c>
       <c r="P16">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q16">
         <v>0.25</v>
       </c>
       <c r="R16">
+        <v>1.8</v>
+      </c>
+      <c r="S16">
+        <v>2.05</v>
+      </c>
+      <c r="T16">
+        <v>2.75</v>
+      </c>
+      <c r="U16">
+        <v>2.025</v>
+      </c>
+      <c r="V16">
         <v>1.825</v>
       </c>
-      <c r="S16">
-        <v>2.025</v>
-      </c>
-      <c r="T16">
-        <v>2.5</v>
-      </c>
-      <c r="U16">
-        <v>1.9</v>
-      </c>
-      <c r="V16">
-        <v>1.95</v>
-      </c>
       <c r="W16">
         <v>-1</v>
       </c>
@@ -1949,16 +1949,16 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>1.3</v>
+        <v>1.375</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
+        <v>1.05</v>
+      </c>
+      <c r="AB16">
         <v>1.025</v>
-      </c>
-      <c r="AB16">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6847826</v>
+        <v>6847832</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1981,73 +1981,73 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="L17">
+        <v>3.3</v>
+      </c>
+      <c r="M17">
+        <v>2.8</v>
+      </c>
+      <c r="N17">
+        <v>1.7</v>
+      </c>
+      <c r="O17">
         <v>3.8</v>
       </c>
-      <c r="M17">
-        <v>1.8</v>
-      </c>
-      <c r="N17">
-        <v>3</v>
-      </c>
-      <c r="O17">
-        <v>3.4</v>
-      </c>
       <c r="P17">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="S17">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
-        <v>2.025</v>
+        <v>1.87</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>2.03</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y17">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>1.05</v>
+        <v>0.98</v>
       </c>
       <c r="AB17">
-        <v>1.025</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6847832</v>
+        <v>6847831</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2070,73 +2070,73 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18">
         <v>2.5</v>
       </c>
       <c r="L18">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N18">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O18">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.92</v>
+        <v>1.825</v>
       </c>
       <c r="S18">
-        <v>1.98</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.98</v>
+        <v>1.025</v>
       </c>
       <c r="AB18">
-        <v>0.8700000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19">
         <v>1.333</v>
@@ -2260,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K20">
         <v>2.625</v>
@@ -2438,7 +2438,7 @@
         <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22">
         <v>1.666</v>
@@ -2518,7 +2518,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2607,7 +2607,7 @@
         <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K24">
         <v>1.444</v>
@@ -2681,7 +2681,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6847834</v>
+        <v>6847838</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2693,49 +2693,49 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K25">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M25">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N25">
-        <v>3.3</v>
+        <v>1.833</v>
       </c>
       <c r="O25">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P25">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q25">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
         <v>1.875</v>
@@ -2744,25 +2744,25 @@
         <v>1.975</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X25">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2770,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6847838</v>
+        <v>6847834</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2782,49 +2782,49 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K26">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L26">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N26">
-        <v>1.833</v>
+        <v>3.3</v>
       </c>
       <c r="O26">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U26">
         <v>1.875</v>
@@ -2833,25 +2833,25 @@
         <v>1.975</v>
       </c>
       <c r="W26">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC26">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2874,7 +2874,7 @@
         <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2883,7 +2883,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27">
         <v>2.6</v>
@@ -2960,7 +2960,7 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
         <v>43</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K28">
         <v>1.909</v>
@@ -3138,10 +3138,10 @@
         <v>45163.66666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3230,7 +3230,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K31">
         <v>1.4</v>
@@ -3316,7 +3316,7 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>49</v>
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K32">
         <v>1.6</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K34">
         <v>1.95</v>
@@ -3571,7 +3571,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6847850</v>
+        <v>6847848</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3583,76 +3583,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>1</v>
       </c>
-      <c r="I35">
+      <c r="J35" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35">
+        <v>1.85</v>
+      </c>
+      <c r="L35">
+        <v>3.6</v>
+      </c>
+      <c r="M35">
+        <v>4</v>
+      </c>
+      <c r="N35">
+        <v>1.909</v>
+      </c>
+      <c r="O35">
+        <v>3.6</v>
+      </c>
+      <c r="P35">
+        <v>4</v>
+      </c>
+      <c r="Q35">
+        <v>-0.5</v>
+      </c>
+      <c r="R35">
+        <v>1.9</v>
+      </c>
+      <c r="S35">
+        <v>1.95</v>
+      </c>
+      <c r="T35">
+        <v>2.5</v>
+      </c>
+      <c r="U35">
+        <v>1.95</v>
+      </c>
+      <c r="V35">
+        <v>1.9</v>
+      </c>
+      <c r="W35">
+        <v>-1</v>
+      </c>
+      <c r="X35">
+        <v>-1</v>
+      </c>
+      <c r="Y35">
         <v>3</v>
       </c>
-      <c r="J35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K35">
-        <v>2.4</v>
-      </c>
-      <c r="L35">
-        <v>3.4</v>
-      </c>
-      <c r="M35">
-        <v>2.8</v>
-      </c>
-      <c r="N35">
-        <v>2.2</v>
-      </c>
-      <c r="O35">
-        <v>3.5</v>
-      </c>
-      <c r="P35">
-        <v>3.2</v>
-      </c>
-      <c r="Q35">
-        <v>-0.25</v>
-      </c>
-      <c r="R35">
-        <v>1.95</v>
-      </c>
-      <c r="S35">
-        <v>1.9</v>
-      </c>
-      <c r="T35">
-        <v>2.75</v>
-      </c>
-      <c r="U35">
-        <v>1.925</v>
-      </c>
-      <c r="V35">
-        <v>1.925</v>
-      </c>
-      <c r="W35">
-        <v>-1</v>
-      </c>
-      <c r="X35">
-        <v>-1</v>
-      </c>
-      <c r="Y35">
-        <v>2.2</v>
-      </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
+        <v>0.95</v>
+      </c>
+      <c r="AB35">
+        <v>-1</v>
+      </c>
+      <c r="AC35">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB35">
-        <v>0.925</v>
-      </c>
-      <c r="AC35">
-        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3660,7 +3660,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6847848</v>
+        <v>6847850</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3672,55 +3672,55 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="L36">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M36">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N36">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O36">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P36">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q36">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
+        <v>1.95</v>
+      </c>
+      <c r="S36">
         <v>1.9</v>
       </c>
-      <c r="S36">
-        <v>1.95</v>
-      </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3729,19 +3729,19 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC36">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3761,7 +3761,7 @@
         <v>45165.50347222222</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
         <v>47</v>
@@ -3773,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3850,7 +3850,7 @@
         <v>45165.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -3939,7 +3939,7 @@
         <v>45170.66666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -4028,7 +4028,7 @@
         <v>45171.5</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
         <v>42</v>
@@ -4117,7 +4117,7 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
         <v>49</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K41">
         <v>2.25</v>
@@ -4283,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6847858</v>
+        <v>6847853</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4295,76 +4295,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K43">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="L43">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="N43">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="O43">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P43">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q43">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T43">
         <v>2.75</v>
       </c>
       <c r="U43">
+        <v>1.875</v>
+      </c>
+      <c r="V43">
         <v>1.975</v>
       </c>
-      <c r="V43">
-        <v>1.875</v>
-      </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X43">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
+        <v>-1</v>
+      </c>
+      <c r="AC43">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC43">
-        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4387,7 +4387,7 @@
         <v>48</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K44">
         <v>2.7</v>
@@ -4461,7 +4461,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6847853</v>
+        <v>6847858</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4473,76 +4473,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K45">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="N45">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="O45">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P45">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R45">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
+        <v>1.975</v>
+      </c>
+      <c r="V45">
         <v>1.875</v>
       </c>
-      <c r="V45">
-        <v>1.975</v>
-      </c>
       <c r="W45">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC45">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4562,7 +4562,7 @@
         <v>45172.50347222222</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
         <v>43</v>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K46">
         <v>1.833</v>
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4663,7 +4663,7 @@
         <v>4</v>
       </c>
       <c r="J47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K47">
         <v>3.8</v>
@@ -4740,10 +4740,10 @@
         <v>45184.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4752,7 +4752,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K48">
         <v>1.444</v>
@@ -4930,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -5007,10 +5007,10 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" t="s">
         <v>34</v>
-      </c>
-      <c r="G51" t="s">
-        <v>35</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5096,10 +5096,10 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5108,7 +5108,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K52">
         <v>1.833</v>
@@ -5188,7 +5188,7 @@
         <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5197,7 +5197,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K53">
         <v>1.95</v>
@@ -5541,10 +5541,10 @@
         <v>45191.66666666666</v>
       </c>
       <c r="F57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" t="s">
         <v>35</v>
-      </c>
-      <c r="G57" t="s">
-        <v>30</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5553,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K57">
         <v>1.909</v>
@@ -5630,10 +5630,10 @@
         <v>45192.5</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H58">
         <v>5</v>
@@ -5642,7 +5642,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K58">
         <v>2.2</v>
@@ -5719,7 +5719,7 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K59">
         <v>2.8</v>
@@ -5820,7 +5820,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K60">
         <v>3.1</v>
@@ -5909,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K61">
         <v>1.6</v>
@@ -5998,7 +5998,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K62">
         <v>2.7</v>
@@ -6164,7 +6164,7 @@
         <v>45193.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
         <v>39</v>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K64">
         <v>1.666</v>
@@ -6256,7 +6256,7 @@
         <v>47</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6265,7 +6265,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K65">
         <v>1.75</v>
@@ -6354,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K66">
         <v>2.9</v>
@@ -6434,7 +6434,7 @@
         <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6520,7 +6520,7 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
         <v>39</v>
@@ -6532,7 +6532,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K68">
         <v>2.375</v>
@@ -6609,7 +6609,7 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
         <v>45</v>
@@ -6621,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K69">
         <v>2.2</v>
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6847880</v>
+        <v>6847886</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6698,76 +6698,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G70" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>52</v>
       </c>
       <c r="K70">
+        <v>4.5</v>
+      </c>
+      <c r="L70">
+        <v>3.75</v>
+      </c>
+      <c r="M70">
         <v>1.727</v>
       </c>
-      <c r="L70">
-        <v>4</v>
-      </c>
-      <c r="M70">
-        <v>4.2</v>
-      </c>
       <c r="N70">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="O70">
         <v>3.6</v>
       </c>
       <c r="P70">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R70">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S70">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T70">
         <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z70">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6787,10 +6787,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F71" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" t="s">
         <v>30</v>
-      </c>
-      <c r="G71" t="s">
-        <v>33</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6864,7 +6864,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6847886</v>
+        <v>6847880</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6876,76 +6876,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G72" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
         <v>51</v>
       </c>
       <c r="K72">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="L72">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M72">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="N72">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="O72">
         <v>3.6</v>
       </c>
       <c r="P72">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q72">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R72">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S72">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T72">
         <v>2.5</v>
       </c>
       <c r="U72">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V72">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA72">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC72">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6965,7 +6965,7 @@
         <v>45200.50347222222</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G73" t="s">
         <v>41</v>
@@ -6977,7 +6977,7 @@
         <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K73">
         <v>2.8</v>
@@ -7057,7 +7057,7 @@
         <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7066,7 +7066,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K74">
         <v>1.533</v>
@@ -7146,7 +7146,7 @@
         <v>43</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7155,7 +7155,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K75">
         <v>1.95</v>
@@ -7235,7 +7235,7 @@
         <v>44</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7244,7 +7244,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K76">
         <v>4.2</v>
@@ -7321,10 +7321,10 @@
         <v>45206.66666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7333,7 +7333,7 @@
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K77">
         <v>2.55</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K78">
         <v>1.45</v>
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6847892</v>
+        <v>6847888</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,62 +7499,62 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>53</v>
       </c>
       <c r="K79">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L79">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M79">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N79">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O79">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P79">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q79">
         <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S79">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T79">
+        <v>2.5</v>
+      </c>
+      <c r="U79">
+        <v>2.025</v>
+      </c>
+      <c r="V79">
+        <v>1.825</v>
+      </c>
+      <c r="W79">
+        <v>-1</v>
+      </c>
+      <c r="X79">
         <v>2.75</v>
       </c>
-      <c r="U79">
-        <v>1.875</v>
-      </c>
-      <c r="V79">
-        <v>1.975</v>
-      </c>
-      <c r="W79">
-        <v>-1</v>
-      </c>
-      <c r="X79">
-        <v>2.8</v>
-      </c>
       <c r="Y79">
         <v>-1</v>
       </c>
@@ -7562,13 +7562,13 @@
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB79">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7576,7 +7576,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6847888</v>
+        <v>6847892</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7588,61 +7588,61 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J80" t="s">
         <v>53</v>
       </c>
       <c r="K80">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L80">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M80">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N80">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O80">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P80">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q80">
         <v>-0.75</v>
       </c>
       <c r="R80">
+        <v>1.95</v>
+      </c>
+      <c r="S80">
+        <v>1.9</v>
+      </c>
+      <c r="T80">
+        <v>2.75</v>
+      </c>
+      <c r="U80">
         <v>1.875</v>
       </c>
-      <c r="S80">
+      <c r="V80">
         <v>1.975</v>
       </c>
-      <c r="T80">
-        <v>2.5</v>
-      </c>
-      <c r="U80">
-        <v>2.025</v>
-      </c>
-      <c r="V80">
-        <v>1.825</v>
-      </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y80">
         <v>-1</v>
@@ -7651,13 +7651,13 @@
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC80">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7769,7 +7769,7 @@
         <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7778,7 +7778,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K82">
         <v>3.5</v>
@@ -7944,7 +7944,7 @@
         <v>45220.5</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
         <v>43</v>
@@ -7956,7 +7956,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K84">
         <v>1.285</v>
@@ -8033,7 +8033,7 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
         <v>39</v>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K85">
         <v>2.375</v>
@@ -8122,7 +8122,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8134,7 +8134,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K86">
         <v>3.8</v>
@@ -8199,7 +8199,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6847903</v>
+        <v>6847900</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8211,40 +8211,40 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G87" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L87">
+        <v>3.75</v>
+      </c>
+      <c r="M87">
+        <v>5</v>
+      </c>
+      <c r="N87">
+        <v>1.85</v>
+      </c>
+      <c r="O87">
         <v>3.4</v>
       </c>
-      <c r="M87">
-        <v>2.3</v>
-      </c>
-      <c r="N87">
-        <v>3.1</v>
-      </c>
-      <c r="O87">
-        <v>3.5</v>
-      </c>
       <c r="P87">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
         <v>1.875</v>
@@ -8253,16 +8253,16 @@
         <v>1.975</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W87">
-        <v>2.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8280,7 +8280,7 @@
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8288,7 +8288,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6847900</v>
+        <v>6847903</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8300,40 +8300,40 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K88">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L88">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N88">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P88">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
         <v>1.875</v>
@@ -8342,16 +8342,16 @@
         <v>1.975</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W88">
-        <v>0.8500000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8369,7 +8369,7 @@
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8392,7 +8392,7 @@
         <v>46</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8478,7 +8478,7 @@
         <v>45221.50347222222</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
         <v>44</v>
@@ -8490,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K90">
         <v>1.363</v>
@@ -8579,7 +8579,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K91">
         <v>1.7</v>
@@ -8659,7 +8659,7 @@
         <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8668,7 +8668,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K92">
         <v>3.75</v>
@@ -8745,10 +8745,10 @@
         <v>45227.5</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K93">
         <v>1.75</v>
@@ -8837,7 +8837,7 @@
         <v>49</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -8846,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K94">
         <v>1.615</v>
@@ -8923,10 +8923,10 @@
         <v>45228.375</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8935,7 +8935,7 @@
         <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K95">
         <v>6</v>
@@ -9000,7 +9000,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6847912</v>
+        <v>6847911</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9012,76 +9012,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96" t="s">
+        <v>53</v>
+      </c>
+      <c r="K96">
+        <v>2.25</v>
+      </c>
+      <c r="L96">
+        <v>3.5</v>
+      </c>
+      <c r="M96">
         <v>3</v>
       </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96" t="s">
-        <v>52</v>
-      </c>
-      <c r="K96">
-        <v>1.869</v>
-      </c>
-      <c r="L96">
-        <v>3.75</v>
-      </c>
-      <c r="M96">
-        <v>3.8</v>
-      </c>
       <c r="N96">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="O96">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P96">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q96">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R96">
+        <v>2</v>
+      </c>
+      <c r="S96">
         <v>1.85</v>
       </c>
-      <c r="S96">
-        <v>2</v>
-      </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="V96">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="W96">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB96">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9089,7 +9089,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6847911</v>
+        <v>6847912</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9101,76 +9101,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K97">
-        <v>2.25</v>
+        <v>1.869</v>
       </c>
       <c r="L97">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M97">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N97">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="O97">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
+        <v>1.85</v>
+      </c>
+      <c r="S97">
         <v>2</v>
       </c>
-      <c r="S97">
-        <v>1.85</v>
-      </c>
       <c r="T97">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="V97">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X97">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA97">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC97">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9193,7 +9193,7 @@
         <v>47</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9202,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K98">
         <v>2.2</v>
@@ -9368,7 +9368,7 @@
         <v>45233.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>41</v>
@@ -9380,7 +9380,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K100">
         <v>1.333</v>
@@ -9457,7 +9457,7 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
         <v>49</v>
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6847915</v>
+        <v>6847922</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,76 +9724,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K104">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L104">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="N104">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O104">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P104">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S104">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V104">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9825,7 +9825,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K105">
         <v>2.05</v>
@@ -9890,7 +9890,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6847922</v>
+        <v>6847915</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9902,76 +9902,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K106">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M106">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="N106">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O106">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P106">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S106">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V106">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y106">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA106">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9991,10 +9991,10 @@
         <v>45235.54513888889</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10003,7 +10003,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K107">
         <v>1.533</v>
@@ -10080,7 +10080,7 @@
         <v>45235.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
         <v>42</v>
@@ -10092,7 +10092,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K108">
         <v>2.15</v>
@@ -10172,7 +10172,7 @@
         <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10258,10 +10258,10 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K110">
         <v>4.333</v>
@@ -10350,7 +10350,7 @@
         <v>48</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>44</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>3</v>
@@ -10448,7 +10448,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K112">
         <v>2.75</v>
@@ -10528,7 +10528,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K113">
         <v>2</v>
@@ -10715,7 +10715,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K115">
         <v>1.7</v>
@@ -10804,7 +10804,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K116">
         <v>2.375</v>
@@ -10881,10 +10881,10 @@
         <v>45254.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>5</v>
@@ -10893,7 +10893,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K117">
         <v>1.45</v>
@@ -10982,7 +10982,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K118">
         <v>3.4</v>
@@ -11148,7 +11148,7 @@
         <v>45256.375</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
         <v>46</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K120">
         <v>1.55</v>
@@ -11237,7 +11237,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
         <v>44</v>
@@ -11249,7 +11249,7 @@
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K121">
         <v>1.95</v>
@@ -11326,7 +11326,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
         <v>48</v>
@@ -11418,7 +11418,7 @@
         <v>41</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11427,7 +11427,7 @@
         <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K123">
         <v>2.15</v>
@@ -11507,7 +11507,7 @@
         <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11516,7 +11516,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K124">
         <v>1.8</v>
@@ -11605,7 +11605,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K125">
         <v>3.1</v>
@@ -11771,7 +11771,7 @@
         <v>45261.70833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
         <v>43</v>
@@ -11783,7 +11783,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K127">
         <v>1.833</v>
@@ -11872,7 +11872,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K128">
         <v>1.833</v>
@@ -11949,10 +11949,10 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -11961,7 +11961,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K129">
         <v>3.8</v>
@@ -12041,7 +12041,7 @@
         <v>48</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12050,7 +12050,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K130">
         <v>9</v>
@@ -12115,7 +12115,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6847949</v>
+        <v>6847943</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12127,58 +12127,58 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H131">
+        <v>2</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131" t="s">
+        <v>51</v>
+      </c>
+      <c r="K131">
+        <v>1.571</v>
+      </c>
+      <c r="L131">
+        <v>4</v>
+      </c>
+      <c r="M131">
+        <v>5.5</v>
+      </c>
+      <c r="N131">
+        <v>1.571</v>
+      </c>
+      <c r="O131">
+        <v>4.2</v>
+      </c>
+      <c r="P131">
+        <v>5.5</v>
+      </c>
+      <c r="Q131">
+        <v>-1</v>
+      </c>
+      <c r="R131">
+        <v>1.99</v>
+      </c>
+      <c r="S131">
+        <v>1.94</v>
+      </c>
+      <c r="T131">
         <v>3</v>
       </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131" t="s">
-        <v>52</v>
-      </c>
-      <c r="K131">
-        <v>1.833</v>
-      </c>
-      <c r="L131">
-        <v>3.6</v>
-      </c>
-      <c r="M131">
-        <v>4.2</v>
-      </c>
-      <c r="N131">
-        <v>1.727</v>
-      </c>
-      <c r="O131">
-        <v>3.75</v>
-      </c>
-      <c r="P131">
-        <v>5</v>
-      </c>
-      <c r="Q131">
-        <v>-0.75</v>
-      </c>
-      <c r="R131">
-        <v>1.975</v>
-      </c>
-      <c r="S131">
-        <v>1.875</v>
-      </c>
-      <c r="T131">
-        <v>2.5</v>
-      </c>
       <c r="U131">
+        <v>1.85</v>
+      </c>
+      <c r="V131">
         <v>2.05</v>
       </c>
-      <c r="V131">
-        <v>1.8</v>
-      </c>
       <c r="W131">
-        <v>0.7270000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12187,16 +12187,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.9750000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
         <v>1.05</v>
-      </c>
-      <c r="AC131">
-        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12204,7 +12204,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6847943</v>
+        <v>6847949</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12216,58 +12216,58 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K132">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="L132">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M132">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N132">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="O132">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P132">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q132">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R132">
-        <v>1.99</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.94</v>
+        <v>1.875</v>
       </c>
       <c r="T132">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V132">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
-        <v>0.571</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12276,16 +12276,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.99</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC132">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12308,7 +12308,7 @@
         <v>46</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12406,7 +12406,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K134">
         <v>1.4</v>
@@ -12495,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K135">
         <v>1.909</v>
@@ -12584,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K136">
         <v>1.7</v>
@@ -12661,7 +12661,7 @@
         <v>45267.6875</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
         <v>43</v>
@@ -12842,7 +12842,7 @@
         <v>42</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12851,7 +12851,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K139">
         <v>2.55</v>
@@ -12928,10 +12928,10 @@
         <v>45269.70833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -12940,7 +12940,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K140">
         <v>1.2</v>
@@ -13017,10 +13017,10 @@
         <v>45270.375</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13029,7 +13029,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K141">
         <v>1.75</v>
@@ -13094,7 +13094,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6847951</v>
+        <v>6847957</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13106,13 +13106,13 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G142" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -13121,61 +13121,61 @@
         <v>52</v>
       </c>
       <c r="K142">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="L142">
         <v>3.2</v>
       </c>
       <c r="M142">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N142">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="O142">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P142">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>2.02</v>
+        <v>1.975</v>
       </c>
       <c r="S142">
-        <v>1.88</v>
+        <v>1.875</v>
       </c>
       <c r="T142">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.86</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
-        <v>2.04</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z142">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB142">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13183,7 +13183,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6847957</v>
+        <v>6847956</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13195,40 +13195,40 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K143">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="L143">
         <v>3.2</v>
       </c>
       <c r="M143">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="N143">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O143">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P143">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q143">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R143">
         <v>1.975</v>
@@ -13237,34 +13237,34 @@
         <v>1.875</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y143">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA143">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13272,7 +13272,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6847956</v>
+        <v>6847951</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13284,76 +13284,76 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K144">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L144">
         <v>3.2</v>
       </c>
       <c r="M144">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="N144">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="O144">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="Q144">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.975</v>
+        <v>2.02</v>
       </c>
       <c r="S144">
-        <v>1.875</v>
+        <v>1.88</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X144">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.9750000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13385,7 +13385,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K145">
         <v>1.85</v>
@@ -13462,7 +13462,7 @@
         <v>45270.69791666666</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
         <v>39</v>
@@ -13474,7 +13474,7 @@
         <v>4</v>
       </c>
       <c r="J146" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K146">
         <v>4.5</v>
@@ -13551,7 +13551,7 @@
         <v>45275.70833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G147" t="s">
         <v>45</v>
@@ -13563,7 +13563,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K147">
         <v>1.571</v>
@@ -13643,7 +13643,7 @@
         <v>48</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -13652,7 +13652,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K148">
         <v>4.333</v>
@@ -13732,7 +13732,7 @@
         <v>49</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13741,7 +13741,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K149">
         <v>1.8</v>
@@ -13818,10 +13818,10 @@
         <v>45277.375</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13830,7 +13830,7 @@
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K150">
         <v>2.5</v>
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6847959</v>
+        <v>6847967</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,19 +13907,19 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H151">
         <v>0</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K151">
         <v>3.2</v>
@@ -13931,10 +13931,10 @@
         <v>2.15</v>
       </c>
       <c r="N151">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O151">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P151">
         <v>2.25</v>
@@ -13943,40 +13943,40 @@
         <v>0.25</v>
       </c>
       <c r="R151">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S151">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T151">
         <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V151">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z151">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6847967</v>
+        <v>6847961</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,55 +13996,55 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F152" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K152">
+        <v>2.3</v>
+      </c>
+      <c r="L152">
+        <v>3.25</v>
+      </c>
+      <c r="M152">
+        <v>3.1</v>
+      </c>
+      <c r="N152">
+        <v>2.375</v>
+      </c>
+      <c r="O152">
         <v>3.2</v>
       </c>
-      <c r="L152">
-        <v>3.5</v>
-      </c>
-      <c r="M152">
-        <v>2.15</v>
-      </c>
-      <c r="N152">
-        <v>3.3</v>
-      </c>
-      <c r="O152">
-        <v>3.25</v>
-      </c>
       <c r="P152">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S152">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T152">
         <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W152">
         <v>-1</v>
@@ -14053,19 +14053,19 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC152">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14073,7 +14073,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6847961</v>
+        <v>6847959</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14085,76 +14085,76 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K153">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L153">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="N153">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="O153">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P153">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R153">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S153">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T153">
         <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V153">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y153">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA153">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14186,7 +14186,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K154">
         <v>1.45</v>
@@ -14266,7 +14266,7 @@
         <v>47</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6847976</v>
+        <v>6847974</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,58 +14352,58 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156" t="s">
+        <v>51</v>
+      </c>
+      <c r="K156">
+        <v>1.65</v>
+      </c>
+      <c r="L156">
         <v>4</v>
       </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156" t="s">
-        <v>52</v>
-      </c>
-      <c r="K156">
-        <v>1.615</v>
-      </c>
-      <c r="L156">
-        <v>3.75</v>
-      </c>
       <c r="M156">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="N156">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="O156">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P156">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q156">
         <v>-0.75</v>
       </c>
       <c r="R156">
+        <v>1.975</v>
+      </c>
+      <c r="S156">
         <v>1.875</v>
-      </c>
-      <c r="S156">
-        <v>1.975</v>
       </c>
       <c r="T156">
         <v>2.5</v>
       </c>
       <c r="U156">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V156">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W156">
-        <v>0.6499999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14412,16 +14412,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB156">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6847971</v>
+        <v>6847968</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,76 +14441,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H157">
+        <v>3</v>
+      </c>
+      <c r="I157">
         <v>1</v>
       </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
       <c r="J157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K157">
-        <v>1.833</v>
+        <v>1.142</v>
       </c>
       <c r="L157">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="M157">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="N157">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="O157">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="P157">
-        <v>4.333</v>
+        <v>23</v>
       </c>
       <c r="Q157">
+        <v>-2.25</v>
+      </c>
+      <c r="R157">
+        <v>1.87</v>
+      </c>
+      <c r="S157">
+        <v>2.06</v>
+      </c>
+      <c r="T157">
+        <v>3.25</v>
+      </c>
+      <c r="U157">
+        <v>1.87</v>
+      </c>
+      <c r="V157">
+        <v>2.03</v>
+      </c>
+      <c r="W157">
+        <v>0.111</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
+        <v>-1</v>
+      </c>
+      <c r="Z157">
         <v>-0.5</v>
       </c>
-      <c r="R157">
-        <v>1.95</v>
-      </c>
-      <c r="S157">
-        <v>1.98</v>
-      </c>
-      <c r="T157">
-        <v>2.5</v>
-      </c>
-      <c r="U157">
-        <v>2.02</v>
-      </c>
-      <c r="V157">
-        <v>1.88</v>
-      </c>
-      <c r="W157">
-        <v>0.8</v>
-      </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
-      <c r="Z157">
-        <v>0.95</v>
-      </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC157">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14518,7 +14518,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6847970</v>
+        <v>6847969</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14530,76 +14530,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H158">
+        <v>2</v>
+      </c>
+      <c r="I158">
         <v>1</v>
-      </c>
-      <c r="I158">
-        <v>2</v>
       </c>
       <c r="J158" t="s">
         <v>51</v>
       </c>
       <c r="K158">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L158">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M158">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="N158">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O158">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P158">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="Q158">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S158">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T158">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V158">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA158">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC158">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14607,7 +14607,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6847974</v>
+        <v>6847970</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14619,40 +14619,40 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G159" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H159">
         <v>1</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
         <v>52</v>
       </c>
       <c r="K159">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="L159">
+        <v>3.8</v>
+      </c>
+      <c r="M159">
+        <v>1.75</v>
+      </c>
+      <c r="N159">
+        <v>3.75</v>
+      </c>
+      <c r="O159">
         <v>4</v>
       </c>
-      <c r="M159">
-        <v>5</v>
-      </c>
-      <c r="N159">
-        <v>1.727</v>
-      </c>
-      <c r="O159">
-        <v>3.8</v>
-      </c>
       <c r="P159">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q159">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R159">
         <v>1.975</v>
@@ -14661,7 +14661,7 @@
         <v>1.875</v>
       </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U159">
         <v>1.925</v>
@@ -14670,25 +14670,25 @@
         <v>1.925</v>
       </c>
       <c r="W159">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z159">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC159">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14696,7 +14696,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6847975</v>
+        <v>6847971</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14708,67 +14708,67 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G160" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H160">
         <v>1</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K160">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L160">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M160">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N160">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="O160">
         <v>3.6</v>
       </c>
       <c r="P160">
+        <v>4.333</v>
+      </c>
+      <c r="Q160">
+        <v>-0.5</v>
+      </c>
+      <c r="R160">
         <v>1.95</v>
       </c>
-      <c r="Q160">
-        <v>0.5</v>
-      </c>
-      <c r="R160">
-        <v>1.9</v>
-      </c>
       <c r="S160">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T160">
         <v>2.5</v>
       </c>
       <c r="U160">
-        <v>1.925</v>
+        <v>2.02</v>
       </c>
       <c r="V160">
-        <v>1.925</v>
+        <v>1.88</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X160">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA160">
         <v>-1</v>
@@ -14777,7 +14777,7 @@
         <v>-1</v>
       </c>
       <c r="AC160">
-        <v>0.925</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6847969</v>
+        <v>6847976</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,46 +14797,46 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K161">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="L161">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M161">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N161">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="O161">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P161">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="Q161">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R161">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S161">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T161">
         <v>2.5</v>
@@ -14848,7 +14848,7 @@
         <v>1.825</v>
       </c>
       <c r="W161">
-        <v>2.6</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14857,7 +14857,7 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA161">
         <v>-1</v>
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7579908</v>
+        <v>6847975</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,76 +14886,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G162" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H162">
         <v>1</v>
       </c>
       <c r="I162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K162">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L162">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M162">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N162">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O162">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P162">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="Q162">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R162">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S162">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="T162">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
-        <v>2.11</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>1.79</v>
+        <v>1.925</v>
       </c>
       <c r="W162">
         <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y162">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA162">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>1.11</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14975,7 +14975,7 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G163" t="s">
         <v>49</v>
@@ -14987,7 +14987,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K163">
         <v>2.2</v>
@@ -15052,7 +15052,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6847968</v>
+        <v>7579908</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15064,73 +15064,73 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
         <v>3</v>
-      </c>
-      <c r="I164">
-        <v>1</v>
       </c>
       <c r="J164" t="s">
         <v>52</v>
       </c>
       <c r="K164">
-        <v>1.142</v>
+        <v>3.25</v>
       </c>
       <c r="L164">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="M164">
-        <v>17</v>
+        <v>2.2</v>
       </c>
       <c r="N164">
-        <v>1.111</v>
+        <v>3.1</v>
       </c>
       <c r="O164">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="P164">
-        <v>23</v>
+        <v>2.375</v>
       </c>
       <c r="Q164">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R164">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S164">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T164">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.87</v>
+        <v>2.11</v>
       </c>
       <c r="V164">
-        <v>2.03</v>
+        <v>1.79</v>
       </c>
       <c r="W164">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.53</v>
+        <v>1.08</v>
       </c>
       <c r="AB164">
-        <v>0.8700000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15242,10 +15242,10 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15254,7 +15254,7 @@
         <v>3</v>
       </c>
       <c r="J166" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K166">
         <v>1.727</v>
@@ -15334,7 +15334,7 @@
         <v>42</v>
       </c>
       <c r="G167" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15343,7 +15343,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K167">
         <v>2.5</v>
@@ -15423,7 +15423,7 @@
         <v>47</v>
       </c>
       <c r="G168" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -15432,7 +15432,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K168">
         <v>1.363</v>
@@ -15497,7 +15497,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6847984</v>
+        <v>6847982</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15509,55 +15509,55 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K169">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="L169">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M169">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="N169">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O169">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P169">
+        <v>3.8</v>
+      </c>
+      <c r="Q169">
+        <v>-0.5</v>
+      </c>
+      <c r="R169">
+        <v>1.9</v>
+      </c>
+      <c r="S169">
+        <v>1.95</v>
+      </c>
+      <c r="T169">
         <v>2.5</v>
       </c>
-      <c r="Q169">
-        <v>0</v>
-      </c>
-      <c r="R169">
-        <v>2.025</v>
-      </c>
-      <c r="S169">
-        <v>1.825</v>
-      </c>
-      <c r="T169">
-        <v>2.25</v>
-      </c>
       <c r="U169">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V169">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W169">
         <v>-1</v>
@@ -15566,19 +15566,19 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC169">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15586,7 +15586,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6847985</v>
+        <v>6847984</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15598,76 +15598,76 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
         <v>52</v>
       </c>
       <c r="K170">
+        <v>2.9</v>
+      </c>
+      <c r="L170">
+        <v>3.3</v>
+      </c>
+      <c r="M170">
+        <v>2.4</v>
+      </c>
+      <c r="N170">
+        <v>2.875</v>
+      </c>
+      <c r="O170">
+        <v>3.2</v>
+      </c>
+      <c r="P170">
+        <v>2.5</v>
+      </c>
+      <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <v>2.025</v>
+      </c>
+      <c r="S170">
+        <v>1.825</v>
+      </c>
+      <c r="T170">
+        <v>2.25</v>
+      </c>
+      <c r="U170">
+        <v>2.05</v>
+      </c>
+      <c r="V170">
         <v>1.8</v>
       </c>
-      <c r="L170">
-        <v>3.75</v>
-      </c>
-      <c r="M170">
-        <v>4.333</v>
-      </c>
-      <c r="N170">
-        <v>1.8</v>
-      </c>
-      <c r="O170">
-        <v>3.75</v>
-      </c>
-      <c r="P170">
-        <v>4.5</v>
-      </c>
-      <c r="Q170">
-        <v>-0.75</v>
-      </c>
-      <c r="R170">
-        <v>2.05</v>
-      </c>
-      <c r="S170">
-        <v>1.8</v>
-      </c>
-      <c r="T170">
-        <v>2.5</v>
-      </c>
-      <c r="U170">
-        <v>2.025</v>
-      </c>
-      <c r="V170">
-        <v>1.825</v>
-      </c>
       <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
+        <v>1.5</v>
+      </c>
+      <c r="Z170">
+        <v>-1</v>
+      </c>
+      <c r="AA170">
+        <v>0.825</v>
+      </c>
+      <c r="AB170">
+        <v>-1</v>
+      </c>
+      <c r="AC170">
         <v>0.8</v>
-      </c>
-      <c r="X170">
-        <v>-1</v>
-      </c>
-      <c r="Y170">
-        <v>-1</v>
-      </c>
-      <c r="Z170">
-        <v>1.05</v>
-      </c>
-      <c r="AA170">
-        <v>-1</v>
-      </c>
-      <c r="AB170">
-        <v>-1</v>
-      </c>
-      <c r="AC170">
-        <v>0.825</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15675,7 +15675,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6847982</v>
+        <v>6847985</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15687,76 +15687,76 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
         <v>51</v>
       </c>
       <c r="K171">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L171">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M171">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="N171">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O171">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P171">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q171">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R171">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S171">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T171">
         <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V171">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA171">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15788,7 +15788,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K172">
         <v>3</v>
@@ -15868,7 +15868,7 @@
         <v>49</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -15877,7 +15877,7 @@
         <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K173">
         <v>3.6</v>
@@ -15966,7 +15966,7 @@
         <v>3</v>
       </c>
       <c r="J174" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K174">
         <v>2.25</v>
@@ -16043,7 +16043,7 @@
         <v>45318.54166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16055,7 +16055,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K175">
         <v>1.4</v>
@@ -16135,7 +16135,7 @@
         <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16387,7 +16387,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6847989</v>
+        <v>6847993</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16399,76 +16399,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G179" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
         <v>53</v>
       </c>
       <c r="K179">
+        <v>2</v>
+      </c>
+      <c r="L179">
+        <v>3.5</v>
+      </c>
+      <c r="M179">
+        <v>3.6</v>
+      </c>
+      <c r="N179">
+        <v>1.95</v>
+      </c>
+      <c r="O179">
+        <v>3.4</v>
+      </c>
+      <c r="P179">
+        <v>4</v>
+      </c>
+      <c r="Q179">
+        <v>-0.5</v>
+      </c>
+      <c r="R179">
+        <v>2</v>
+      </c>
+      <c r="S179">
+        <v>1.93</v>
+      </c>
+      <c r="T179">
         <v>2.5</v>
       </c>
-      <c r="L179">
-        <v>3.25</v>
-      </c>
-      <c r="M179">
-        <v>2.8</v>
-      </c>
-      <c r="N179">
-        <v>3.1</v>
-      </c>
-      <c r="O179">
-        <v>3.1</v>
-      </c>
-      <c r="P179">
-        <v>2.5</v>
-      </c>
-      <c r="Q179">
-        <v>0.25</v>
-      </c>
-      <c r="R179">
-        <v>1.81</v>
-      </c>
-      <c r="S179">
-        <v>2.125</v>
-      </c>
-      <c r="T179">
-        <v>2</v>
-      </c>
       <c r="U179">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="V179">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.405</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-0.5</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB179">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6847993</v>
+        <v>6847989</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,76 +16488,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
         <v>53</v>
       </c>
       <c r="K180">
+        <v>2.5</v>
+      </c>
+      <c r="L180">
+        <v>3.25</v>
+      </c>
+      <c r="M180">
+        <v>2.8</v>
+      </c>
+      <c r="N180">
+        <v>3.1</v>
+      </c>
+      <c r="O180">
+        <v>3.1</v>
+      </c>
+      <c r="P180">
+        <v>2.5</v>
+      </c>
+      <c r="Q180">
+        <v>0.25</v>
+      </c>
+      <c r="R180">
+        <v>1.81</v>
+      </c>
+      <c r="S180">
+        <v>2.125</v>
+      </c>
+      <c r="T180">
         <v>2</v>
       </c>
-      <c r="L180">
-        <v>3.5</v>
-      </c>
-      <c r="M180">
-        <v>3.6</v>
-      </c>
-      <c r="N180">
-        <v>1.95</v>
-      </c>
-      <c r="O180">
-        <v>3.4</v>
-      </c>
-      <c r="P180">
-        <v>4</v>
-      </c>
-      <c r="Q180">
+      <c r="U180">
+        <v>2</v>
+      </c>
+      <c r="V180">
+        <v>1.9</v>
+      </c>
+      <c r="W180">
+        <v>-1</v>
+      </c>
+      <c r="X180">
+        <v>2.1</v>
+      </c>
+      <c r="Y180">
+        <v>-1</v>
+      </c>
+      <c r="Z180">
+        <v>0.405</v>
+      </c>
+      <c r="AA180">
         <v>-0.5</v>
       </c>
-      <c r="R180">
-        <v>2</v>
-      </c>
-      <c r="S180">
-        <v>1.93</v>
-      </c>
-      <c r="T180">
-        <v>2.5</v>
-      </c>
-      <c r="U180">
-        <v>2.07</v>
-      </c>
-      <c r="V180">
-        <v>1.83</v>
-      </c>
-      <c r="W180">
-        <v>-1</v>
-      </c>
-      <c r="X180">
-        <v>2.4</v>
-      </c>
-      <c r="Y180">
-        <v>-1</v>
-      </c>
-      <c r="Z180">
-        <v>-1</v>
-      </c>
-      <c r="AA180">
-        <v>0.9299999999999999</v>
-      </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC180">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16589,7 +16589,7 @@
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K181">
         <v>3.4</v>
@@ -16666,10 +16666,10 @@
         <v>45319.69791666666</v>
       </c>
       <c r="F182" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16758,7 +16758,7 @@
         <v>43</v>
       </c>
       <c r="G183" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16767,7 +16767,7 @@
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K183">
         <v>6</v>
@@ -16856,7 +16856,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K184">
         <v>2</v>
@@ -16933,7 +16933,7 @@
         <v>45325.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
         <v>49</v>
@@ -16945,7 +16945,7 @@
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K185">
         <v>3.5</v>
@@ -17022,7 +17022,7 @@
         <v>45326.375</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
         <v>48</v>
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7728864</v>
+        <v>7728866</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,40 +17111,40 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G187" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187">
         <v>2</v>
       </c>
-      <c r="I187">
-        <v>3</v>
-      </c>
       <c r="J187" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K187">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L187">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M187">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="N187">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O187">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P187">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q187">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R187">
         <v>2.05</v>
@@ -17153,13 +17153,13 @@
         <v>1.8</v>
       </c>
       <c r="T187">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U187">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V187">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -17168,7 +17168,7 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Z187">
         <v>-1</v>
@@ -17177,7 +17177,7 @@
         <v>0.8</v>
       </c>
       <c r="AB187">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC187">
         <v>-1</v>
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7728862</v>
+        <v>7728864</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,73 +17200,73 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G188" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J188" t="s">
         <v>52</v>
       </c>
       <c r="K188">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L188">
+        <v>3.5</v>
+      </c>
+      <c r="M188">
+        <v>4.75</v>
+      </c>
+      <c r="N188">
+        <v>1.85</v>
+      </c>
+      <c r="O188">
+        <v>3.4</v>
+      </c>
+      <c r="P188">
         <v>4.5</v>
       </c>
-      <c r="M188">
-        <v>8</v>
-      </c>
-      <c r="N188">
-        <v>1.4</v>
-      </c>
-      <c r="O188">
-        <v>4.75</v>
-      </c>
-      <c r="P188">
-        <v>7.5</v>
-      </c>
       <c r="Q188">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S188">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V188">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W188">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z188">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB188">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17277,7 +17277,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7728866</v>
+        <v>7728862</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17289,73 +17289,73 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G189" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
         <v>51</v>
       </c>
       <c r="K189">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L189">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M189">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="N189">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O189">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P189">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q189">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R189">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S189">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T189">
+        <v>2.75</v>
+      </c>
+      <c r="U189">
         <v>2</v>
       </c>
-      <c r="U189">
-        <v>1.9</v>
-      </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17378,10 +17378,10 @@
         <v>45326.54513888889</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17479,7 +17479,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K191">
         <v>2.8</v>
@@ -17657,7 +17657,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K193">
         <v>1.666</v>
@@ -17734,7 +17734,7 @@
         <v>45332.70833333334</v>
       </c>
       <c r="F194" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G194" t="s">
         <v>47</v>
@@ -17746,7 +17746,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K194">
         <v>1.5</v>
@@ -17835,7 +17835,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K195">
         <v>3.75</v>
@@ -17915,7 +17915,7 @@
         <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17989,7 +17989,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6848007</v>
+        <v>6848005</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18001,76 +18001,76 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G197" t="s">
         <v>31</v>
       </c>
       <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197">
         <v>2</v>
-      </c>
-      <c r="I197">
-        <v>0</v>
       </c>
       <c r="J197" t="s">
         <v>52</v>
       </c>
       <c r="K197">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="L197">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M197">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N197">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="O197">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P197">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="Q197">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S197">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T197">
         <v>2.5</v>
       </c>
       <c r="U197">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V197">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W197">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z197">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC197">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18078,7 +18078,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6848005</v>
+        <v>6848007</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18090,76 +18090,76 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
         <v>51</v>
       </c>
       <c r="K198">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="L198">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M198">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="N198">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="O198">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P198">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="Q198">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R198">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S198">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T198">
         <v>2.5</v>
       </c>
       <c r="U198">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V198">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA198">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18191,7 +18191,7 @@
         <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K199">
         <v>2.6</v>
@@ -18268,10 +18268,10 @@
         <v>45333.69791666666</v>
       </c>
       <c r="F200" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18280,7 +18280,7 @@
         <v>3</v>
       </c>
       <c r="J200" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K200">
         <v>2.3</v>
@@ -18360,7 +18360,7 @@
         <v>45</v>
       </c>
       <c r="G201" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18369,7 +18369,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K201">
         <v>2.625</v>
@@ -18446,10 +18446,10 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F202" t="s">
+        <v>31</v>
+      </c>
+      <c r="G202" t="s">
         <v>32</v>
-      </c>
-      <c r="G202" t="s">
-        <v>38</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -18458,7 +18458,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K202">
         <v>5.75</v>
@@ -18538,7 +18538,7 @@
         <v>43</v>
       </c>
       <c r="G203" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18547,7 +18547,7 @@
         <v>3</v>
       </c>
       <c r="J203" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K203">
         <v>1.7</v>
@@ -18612,7 +18612,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6848015</v>
+        <v>6848014</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18624,25 +18624,25 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G204" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H204">
+        <v>3</v>
+      </c>
+      <c r="I204">
         <v>1</v>
-      </c>
-      <c r="I204">
-        <v>2</v>
       </c>
       <c r="J204" t="s">
         <v>51</v>
       </c>
       <c r="K204">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="L204">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M204">
         <v>6</v>
@@ -18660,40 +18660,40 @@
         <v>-1</v>
       </c>
       <c r="R204">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S204">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T204">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U204">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V204">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W204">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AA204">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC204">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18701,7 +18701,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6848014</v>
+        <v>6848015</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18713,25 +18713,25 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G205" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J205" t="s">
         <v>52</v>
       </c>
       <c r="K205">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="L205">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M205">
         <v>6</v>
@@ -18749,40 +18749,40 @@
         <v>-1</v>
       </c>
       <c r="R205">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S205">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T205">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V205">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W205">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z205">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB205">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18814,7 +18814,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K206">
         <v>1.666</v>
@@ -18891,7 +18891,7 @@
         <v>45340.54513888889</v>
       </c>
       <c r="F207" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G207" t="s">
         <v>49</v>
@@ -18980,7 +18980,7 @@
         <v>45340.69791666666</v>
       </c>
       <c r="F208" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G208" t="s">
         <v>39</v>
@@ -18992,7 +18992,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K208">
         <v>2.5</v>
@@ -19081,7 +19081,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K209">
         <v>4</v>
@@ -19158,10 +19158,10 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G210" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K210">
         <v>2.55</v>
@@ -19250,7 +19250,7 @@
         <v>43</v>
       </c>
       <c r="G211" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -19259,7 +19259,7 @@
         <v>3</v>
       </c>
       <c r="J211" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K211">
         <v>2.75</v>
@@ -19339,7 +19339,7 @@
         <v>49</v>
       </c>
       <c r="G212" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19348,7 +19348,7 @@
         <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K212">
         <v>2.375</v>
@@ -19413,7 +19413,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6848024</v>
+        <v>6848027</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19425,76 +19425,76 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G213" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K213">
+        <v>1.45</v>
+      </c>
+      <c r="L213">
         <v>4.2</v>
       </c>
-      <c r="L213">
-        <v>3.25</v>
-      </c>
       <c r="M213">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="N213">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O213">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P213">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="Q213">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R213">
-        <v>1.825</v>
+        <v>2.09</v>
       </c>
       <c r="S213">
-        <v>2.025</v>
+        <v>1.84</v>
       </c>
       <c r="T213">
         <v>2.5</v>
       </c>
       <c r="U213">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V213">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W213">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB213">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19502,7 +19502,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6848027</v>
+        <v>6848029</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19514,76 +19514,76 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G214" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K214">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="L214">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M214">
-        <v>7.5</v>
+        <v>2.25</v>
       </c>
       <c r="N214">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="O214">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P214">
-        <v>7.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q214">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R214">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="S214">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="V214">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.8400000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AC214">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19591,7 +19591,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6848029</v>
+        <v>6848024</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19603,73 +19603,73 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G215" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H215">
+        <v>3</v>
+      </c>
+      <c r="I215">
         <v>1</v>
-      </c>
-      <c r="I215">
-        <v>2</v>
       </c>
       <c r="J215" t="s">
         <v>51</v>
       </c>
       <c r="K215">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L215">
         <v>3.25</v>
       </c>
       <c r="M215">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="N215">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="O215">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P215">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R215">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S215">
-        <v>1.98</v>
+        <v>2.025</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>2.06</v>
+        <v>2.025</v>
       </c>
       <c r="V215">
-        <v>1.84</v>
+        <v>1.825</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA215">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>1.06</v>
+        <v>1.025</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19692,7 +19692,7 @@
         <v>45347.54513888889</v>
       </c>
       <c r="F216" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G216" t="s">
         <v>42</v>
@@ -19793,7 +19793,7 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K217">
         <v>1.55</v>
@@ -19870,10 +19870,10 @@
         <v>45352.70833333334</v>
       </c>
       <c r="F218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G218" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -19959,11 +19959,20 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F219" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G219" t="s">
         <v>47</v>
       </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219" t="s">
+        <v>52</v>
+      </c>
       <c r="K219">
         <v>2.75</v>
       </c>
@@ -19974,46 +19983,52 @@
         <v>2.5</v>
       </c>
       <c r="N219">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O219">
         <v>3.4</v>
       </c>
       <c r="P219">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q219">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R219">
-        <v>2.11</v>
+        <v>1.775</v>
       </c>
       <c r="S219">
-        <v>1.79</v>
+        <v>2.1</v>
       </c>
       <c r="T219">
         <v>2.5</v>
       </c>
       <c r="U219">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V219">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Z219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>0</v>
+        <v>1.1</v>
+      </c>
+      <c r="AB219">
+        <v>-1</v>
+      </c>
+      <c r="AC219">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20038,6 +20053,15 @@
       <c r="G220" t="s">
         <v>39</v>
       </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220">
+        <v>5</v>
+      </c>
+      <c r="J220" t="s">
+        <v>52</v>
+      </c>
       <c r="K220">
         <v>4.2</v>
       </c>
@@ -20048,46 +20072,52 @@
         <v>1.833</v>
       </c>
       <c r="N220">
+        <v>5.25</v>
+      </c>
+      <c r="O220">
         <v>4.2</v>
       </c>
-      <c r="O220">
-        <v>3.6</v>
-      </c>
       <c r="P220">
-        <v>1.85</v>
+        <v>1.615</v>
       </c>
       <c r="Q220">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R220">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S220">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.91</v>
+        <v>1.825</v>
       </c>
       <c r="V220">
-        <v>1.99</v>
+        <v>2.025</v>
       </c>
       <c r="W220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>0</v>
+        <v>0.615</v>
       </c>
       <c r="Z220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB220">
+        <v>0.825</v>
+      </c>
+      <c r="AC220">
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20110,7 +20140,7 @@
         <v>46</v>
       </c>
       <c r="G221" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K221">
         <v>3.6</v>
@@ -20181,7 +20211,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G222" t="s">
         <v>48</v>
@@ -20208,10 +20238,10 @@
         <v>-0.75</v>
       </c>
       <c r="R222">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="S222">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="T222">
         <v>2.25</v>
@@ -20282,19 +20312,19 @@
         <v>-0.5</v>
       </c>
       <c r="R223">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S223">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T223">
         <v>2.5</v>
       </c>
       <c r="U223">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V223">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W223">
         <v>0</v>
@@ -20329,7 +20359,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G224" t="s">
         <v>44</v>
@@ -20365,10 +20395,10 @@
         <v>2.25</v>
       </c>
       <c r="U224">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="V224">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W224">
         <v>0</v>
@@ -20406,7 +20436,7 @@
         <v>42</v>
       </c>
       <c r="G225" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K225">
         <v>1.4</v>
@@ -20439,10 +20469,10 @@
         <v>2.75</v>
       </c>
       <c r="U225">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="V225">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="W225">
         <v>0</v>
@@ -20492,13 +20522,13 @@
         <v>2.75</v>
       </c>
       <c r="N226">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O226">
         <v>3.25</v>
       </c>
       <c r="P226">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q226">
         <v>0</v>
@@ -20513,10 +20543,10 @@
         <v>2.5</v>
       </c>
       <c r="U226">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="V226">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="W226">
         <v>0</v>
@@ -20551,7 +20581,7 @@
         <v>45359.70833333334</v>
       </c>
       <c r="F227" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G227" t="s">
         <v>41</v>
@@ -20625,7 +20655,7 @@
         <v>45360.54166666666</v>
       </c>
       <c r="F228" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G228" t="s">
         <v>45</v>
@@ -20702,7 +20732,7 @@
         <v>49</v>
       </c>
       <c r="G229" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K229">
         <v>1.95</v>

--- a/France Ligue 1/France Ligue 1.xlsx
+++ b/France Ligue 1/France Ligue 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -103,34 +103,34 @@
     <t>France Ligue 1</t>
   </si>
   <si>
-    <t>Lorient</t>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>AC Ajaccio</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
   </si>
   <si>
     <t>Brest</t>
   </si>
   <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>AC Ajaccio</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Reims</t>
+    <t>Lorient</t>
   </si>
   <si>
     <t>Marseille</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC229"/>
+  <dimension ref="A1:AC235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5635385</v>
+        <v>5644619</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -649,10 +649,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -661,25 +661,25 @@
         <v>51</v>
       </c>
       <c r="K2">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M2">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="N2">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P2">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>1.825</v>
@@ -688,16 +688,16 @@
         <v>2.025</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U2">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -712,10 +712,10 @@
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5641663</v>
+        <v>5642185</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -738,52 +738,52 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>52</v>
       </c>
       <c r="K3">
-        <v>4.5</v>
+        <v>1.285</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M3">
-        <v>1.7</v>
+        <v>9</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="O3">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P3">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="Q3">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -792,19 +792,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AC3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5642185</v>
+        <v>5641662</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>1.285</v>
+        <v>8</v>
       </c>
       <c r="L5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>9</v>
+        <v>1.363</v>
       </c>
       <c r="N5">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="O5">
+        <v>4.75</v>
+      </c>
+      <c r="P5">
+        <v>1.4</v>
+      </c>
+      <c r="Q5">
+        <v>1.25</v>
+      </c>
+      <c r="R5">
+        <v>1.9</v>
+      </c>
+      <c r="S5">
+        <v>1.95</v>
+      </c>
+      <c r="T5">
+        <v>2.75</v>
+      </c>
+      <c r="U5">
+        <v>1.925</v>
+      </c>
+      <c r="V5">
+        <v>1.925</v>
+      </c>
+      <c r="W5">
         <v>6.5</v>
       </c>
-      <c r="P5">
-        <v>8</v>
-      </c>
-      <c r="Q5">
-        <v>-1.75</v>
-      </c>
-      <c r="R5">
-        <v>1.925</v>
-      </c>
-      <c r="S5">
-        <v>1.925</v>
-      </c>
-      <c r="T5">
-        <v>3.75</v>
-      </c>
-      <c r="U5">
-        <v>1.875</v>
-      </c>
-      <c r="V5">
-        <v>1.975</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
+        <v>-1</v>
+      </c>
+      <c r="AC5">
         <v>0.925</v>
-      </c>
-      <c r="AB5">
-        <v>0.875</v>
-      </c>
-      <c r="AC5">
-        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5641662</v>
+        <v>5639215</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1005,73 +1005,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>1.363</v>
+        <v>3.5</v>
       </c>
       <c r="N6">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="O6">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P6">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="Q6">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W6">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5638914</v>
+        <v>5638915</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1094,73 +1094,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="L7">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>5.75</v>
+        <v>1.285</v>
       </c>
       <c r="N7">
-        <v>1.4</v>
+        <v>15</v>
       </c>
       <c r="O7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P7">
-        <v>5.75</v>
+        <v>1.166</v>
       </c>
       <c r="Q7">
-        <v>-1.5</v>
+        <v>2.25</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V7">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y7">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1168,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5644619</v>
+        <v>5638914</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1183,73 +1183,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M8">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="N8">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="O8">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P8">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T8">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1346,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5638915</v>
+        <v>5641663</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1361,73 +1361,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>1.285</v>
+        <v>1.7</v>
       </c>
       <c r="N10">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="O10">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="P10">
-        <v>1.166</v>
+        <v>1.7</v>
       </c>
       <c r="Q10">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC10">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1435,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5639215</v>
+        <v>5635385</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1450,73 +1450,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L11">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
+        <v>2.375</v>
+      </c>
+      <c r="N11">
+        <v>3.1</v>
+      </c>
+      <c r="O11">
         <v>3.5</v>
       </c>
-      <c r="N11">
-        <v>1.8</v>
-      </c>
-      <c r="O11">
-        <v>4.2</v>
-      </c>
       <c r="P11">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T11">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
+        <v>1.875</v>
+      </c>
+      <c r="V11">
         <v>1.975</v>
       </c>
-      <c r="V11">
-        <v>1.875</v>
-      </c>
       <c r="W11">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA11">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1536,7 +1536,7 @@
         <v>45149.66666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
         <v>47</v>
@@ -1628,7 +1628,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1714,10 +1714,10 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
         <v>49</v>
@@ -1895,7 +1895,7 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6847832</v>
+        <v>6847831</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1981,73 +1981,73 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17">
         <v>2.5</v>
       </c>
       <c r="L17">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N17">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P17">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.92</v>
+        <v>1.825</v>
       </c>
       <c r="S17">
-        <v>1.98</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.98</v>
+        <v>1.025</v>
       </c>
       <c r="AB17">
-        <v>0.8700000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6847831</v>
+        <v>6847832</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2070,73 +2070,73 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18">
         <v>2.5</v>
       </c>
       <c r="L18">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M18">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O18">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P18">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.825</v>
+        <v>1.92</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.98</v>
       </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y18">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>1.025</v>
+        <v>0.98</v>
       </c>
       <c r="AB18">
-        <v>0.8999999999999999</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2518,7 +2518,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2681,7 +2681,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6847838</v>
+        <v>6847834</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2696,46 +2696,46 @@
         <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K25">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L25">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N25">
-        <v>1.833</v>
+        <v>3.3</v>
       </c>
       <c r="O25">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P25">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
         <v>1.875</v>
@@ -2744,25 +2744,25 @@
         <v>1.975</v>
       </c>
       <c r="W25">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC25">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2770,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6847834</v>
+        <v>6847840</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2782,76 +2782,76 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K26">
+        <v>2.6</v>
+      </c>
+      <c r="L26">
+        <v>3.4</v>
+      </c>
+      <c r="M26">
+        <v>2.625</v>
+      </c>
+      <c r="N26">
+        <v>2.8</v>
+      </c>
+      <c r="O26">
         <v>3.1</v>
       </c>
-      <c r="L26">
-        <v>3.6</v>
-      </c>
-      <c r="M26">
-        <v>2.15</v>
-      </c>
-      <c r="N26">
-        <v>3.3</v>
-      </c>
-      <c r="O26">
-        <v>3.25</v>
-      </c>
       <c r="P26">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q26">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R26">
+        <v>1.95</v>
+      </c>
+      <c r="S26">
         <v>1.9</v>
       </c>
-      <c r="S26">
-        <v>1.95</v>
-      </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U26">
+        <v>1.975</v>
+      </c>
+      <c r="V26">
         <v>1.875</v>
       </c>
-      <c r="V26">
-        <v>1.975</v>
-      </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z26">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB26">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC26">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6847840</v>
+        <v>6847838</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2871,76 +2871,76 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27">
+        <v>1.8</v>
+      </c>
+      <c r="L27">
+        <v>3.8</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>1.833</v>
+      </c>
+      <c r="O27">
+        <v>3.75</v>
+      </c>
+      <c r="P27">
+        <v>4</v>
+      </c>
+      <c r="Q27">
+        <v>-0.5</v>
+      </c>
+      <c r="R27">
+        <v>1.85</v>
+      </c>
+      <c r="S27">
         <v>2</v>
       </c>
-      <c r="J27" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27">
-        <v>2.6</v>
-      </c>
-      <c r="L27">
-        <v>3.4</v>
-      </c>
-      <c r="M27">
-        <v>2.625</v>
-      </c>
-      <c r="N27">
-        <v>2.8</v>
-      </c>
-      <c r="O27">
-        <v>3.1</v>
-      </c>
-      <c r="P27">
-        <v>2.75</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>1.95</v>
-      </c>
-      <c r="S27">
-        <v>1.9</v>
-      </c>
       <c r="T27">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
+        <v>1.875</v>
+      </c>
+      <c r="V27">
         <v>1.975</v>
       </c>
-      <c r="V27">
-        <v>1.875</v>
-      </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
+        <v>-1</v>
+      </c>
+      <c r="AC27">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC27">
-        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2960,7 +2960,7 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
         <v>43</v>
@@ -3141,7 +3141,7 @@
         <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3230,7 +3230,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3316,7 +3316,7 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>49</v>
@@ -3675,7 +3675,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3761,7 +3761,7 @@
         <v>45165.50347222222</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
         <v>47</v>
@@ -3850,7 +3850,7 @@
         <v>45165.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -4028,7 +4028,7 @@
         <v>45171.5</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
         <v>42</v>
@@ -4117,7 +4117,7 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
         <v>49</v>
@@ -4283,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6847853</v>
+        <v>6847858</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4295,76 +4295,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K43">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M43">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="N43">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="O43">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P43">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R43">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S43">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T43">
         <v>2.75</v>
       </c>
       <c r="U43">
+        <v>1.975</v>
+      </c>
+      <c r="V43">
         <v>1.875</v>
       </c>
-      <c r="V43">
-        <v>1.975</v>
-      </c>
       <c r="W43">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4387,7 +4387,7 @@
         <v>48</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4461,7 +4461,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6847858</v>
+        <v>6847853</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4473,76 +4473,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K45">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="N45">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="O45">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P45">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q45">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S45">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
+        <v>1.875</v>
+      </c>
+      <c r="V45">
         <v>1.975</v>
       </c>
-      <c r="V45">
-        <v>1.875</v>
-      </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X45">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
+        <v>-1</v>
+      </c>
+      <c r="AC45">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC45">
-        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4562,7 +4562,7 @@
         <v>45172.50347222222</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
         <v>43</v>
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4740,10 +4740,10 @@
         <v>45184.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -5007,10 +5007,10 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5084,7 +5084,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6847867</v>
+        <v>6847861</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5096,73 +5096,73 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K52">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L52">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N52">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="O52">
         <v>3.5</v>
       </c>
       <c r="P52">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q52">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S52">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y52">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA52">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB52">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5173,7 +5173,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6847866</v>
+        <v>6847867</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5185,34 +5185,34 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
         <v>52</v>
       </c>
       <c r="K53">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="L53">
         <v>3.5</v>
       </c>
       <c r="M53">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="N53">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O53">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P53">
         <v>4</v>
@@ -5221,19 +5221,19 @@
         <v>-0.5</v>
       </c>
       <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
         <v>1.85</v>
-      </c>
-      <c r="S53">
-        <v>2</v>
       </c>
       <c r="T53">
         <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5248,13 +5248,13 @@
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC53">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6847861</v>
+        <v>6847866</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,46 +5274,46 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>52</v>
+      </c>
+      <c r="K54">
+        <v>1.95</v>
+      </c>
+      <c r="L54">
+        <v>3.5</v>
+      </c>
+      <c r="M54">
+        <v>3.7</v>
+      </c>
+      <c r="N54">
+        <v>1.85</v>
+      </c>
+      <c r="O54">
+        <v>3.75</v>
+      </c>
+      <c r="P54">
+        <v>4</v>
+      </c>
+      <c r="Q54">
+        <v>-0.5</v>
+      </c>
+      <c r="R54">
+        <v>1.85</v>
+      </c>
+      <c r="S54">
         <v>2</v>
-      </c>
-      <c r="I54">
-        <v>2</v>
-      </c>
-      <c r="J54" t="s">
-        <v>53</v>
-      </c>
-      <c r="K54">
-        <v>2.1</v>
-      </c>
-      <c r="L54">
-        <v>3.6</v>
-      </c>
-      <c r="M54">
-        <v>3.2</v>
-      </c>
-      <c r="N54">
-        <v>2.9</v>
-      </c>
-      <c r="O54">
-        <v>3.5</v>
-      </c>
-      <c r="P54">
-        <v>2.45</v>
-      </c>
-      <c r="Q54">
-        <v>0.25</v>
-      </c>
-      <c r="R54">
-        <v>1.8</v>
-      </c>
-      <c r="S54">
-        <v>2.05</v>
       </c>
       <c r="T54">
         <v>2.5</v>
@@ -5328,22 +5328,22 @@
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z54">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB54">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5541,10 +5541,10 @@
         <v>45191.66666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5633,7 +5633,7 @@
         <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H58">
         <v>5</v>
@@ -5719,7 +5719,7 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -6164,7 +6164,7 @@
         <v>45193.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
         <v>39</v>
@@ -6256,7 +6256,7 @@
         <v>47</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6434,7 +6434,7 @@
         <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6520,7 +6520,7 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
         <v>39</v>
@@ -6609,7 +6609,7 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
         <v>45</v>
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6847886</v>
+        <v>6847883</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6698,76 +6698,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K70">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="L70">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M70">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="N70">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P70">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q70">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T70">
         <v>2.5</v>
       </c>
       <c r="U70">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V70">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6775,7 +6775,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6847883</v>
+        <v>6847886</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6787,76 +6787,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K71">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M71">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="N71">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="O71">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P71">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q71">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R71">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S71">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T71">
         <v>2.5</v>
       </c>
       <c r="U71">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6965,7 +6965,7 @@
         <v>45200.50347222222</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
         <v>41</v>
@@ -7235,7 +7235,7 @@
         <v>44</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7321,10 +7321,10 @@
         <v>45206.66666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7499,7 +7499,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s">
         <v>46</v>
@@ -7591,7 +7591,7 @@
         <v>45</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -7769,7 +7769,7 @@
         <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7944,7 +7944,7 @@
         <v>45220.5</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
         <v>43</v>
@@ -8033,7 +8033,7 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
         <v>39</v>
@@ -8122,7 +8122,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8214,7 +8214,7 @@
         <v>47</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8288,7 +8288,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6847903</v>
+        <v>6847897</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8300,76 +8300,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K88">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L88">
         <v>3.4</v>
       </c>
       <c r="M88">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N88">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P88">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q88">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6847897</v>
+        <v>6847903</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,76 +8389,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K89">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L89">
         <v>3.4</v>
       </c>
       <c r="M89">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="N89">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="O89">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X89">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8478,7 +8478,7 @@
         <v>45221.50347222222</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
         <v>44</v>
@@ -8659,7 +8659,7 @@
         <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8745,10 +8745,10 @@
         <v>45227.5</v>
       </c>
       <c r="F93" t="s">
+        <v>33</v>
+      </c>
+      <c r="G93" t="s">
         <v>38</v>
-      </c>
-      <c r="G93" t="s">
-        <v>29</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8923,10 +8923,10 @@
         <v>45228.375</v>
       </c>
       <c r="F95" t="s">
+        <v>37</v>
+      </c>
+      <c r="G95" t="s">
         <v>30</v>
-      </c>
-      <c r="G95" t="s">
-        <v>32</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9000,7 +9000,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6847911</v>
+        <v>6847907</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9012,76 +9012,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G96" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K96">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M96">
+        <v>2.9</v>
+      </c>
+      <c r="N96">
+        <v>2.375</v>
+      </c>
+      <c r="O96">
+        <v>3.6</v>
+      </c>
+      <c r="P96">
+        <v>2.75</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>1.825</v>
+      </c>
+      <c r="S96">
+        <v>2.025</v>
+      </c>
+      <c r="T96">
         <v>3</v>
       </c>
-      <c r="N96">
-        <v>2.8</v>
-      </c>
-      <c r="O96">
-        <v>3.1</v>
-      </c>
-      <c r="P96">
-        <v>2.7</v>
-      </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
-      <c r="R96">
-        <v>2</v>
-      </c>
-      <c r="S96">
-        <v>1.85</v>
-      </c>
-      <c r="T96">
-        <v>2.25</v>
-      </c>
       <c r="U96">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V96">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X96">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA96">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9089,7 +9089,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6847912</v>
+        <v>6847911</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9101,76 +9101,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97" t="s">
+        <v>53</v>
+      </c>
+      <c r="K97">
+        <v>2.25</v>
+      </c>
+      <c r="L97">
+        <v>3.5</v>
+      </c>
+      <c r="M97">
         <v>3</v>
       </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97" t="s">
-        <v>51</v>
-      </c>
-      <c r="K97">
-        <v>1.869</v>
-      </c>
-      <c r="L97">
-        <v>3.75</v>
-      </c>
-      <c r="M97">
-        <v>3.8</v>
-      </c>
       <c r="N97">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P97">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R97">
+        <v>2</v>
+      </c>
+      <c r="S97">
         <v>1.85</v>
       </c>
-      <c r="S97">
-        <v>2</v>
-      </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="V97">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="W97">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB97">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9178,7 +9178,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6847907</v>
+        <v>6847912</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9190,13 +9190,13 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -9205,43 +9205,43 @@
         <v>51</v>
       </c>
       <c r="K98">
-        <v>2.2</v>
+        <v>1.869</v>
       </c>
       <c r="L98">
         <v>3.75</v>
       </c>
       <c r="M98">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="N98">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
+        <v>1.85</v>
+      </c>
+      <c r="S98">
+        <v>2</v>
+      </c>
+      <c r="T98">
+        <v>2.5</v>
+      </c>
+      <c r="U98">
         <v>1.825</v>
       </c>
-      <c r="S98">
+      <c r="V98">
         <v>2.025</v>
       </c>
-      <c r="T98">
-        <v>3</v>
-      </c>
-      <c r="U98">
-        <v>2.025</v>
-      </c>
-      <c r="V98">
-        <v>1.825</v>
-      </c>
       <c r="W98">
-        <v>1.375</v>
+        <v>0.833</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9250,16 +9250,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA98">
+        <v>-1</v>
+      </c>
+      <c r="AB98">
         <v>0.825</v>
       </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
-      <c r="AB98">
-        <v>-1</v>
-      </c>
       <c r="AC98">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9368,7 +9368,7 @@
         <v>45233.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
         <v>41</v>
@@ -9457,7 +9457,7 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
         <v>49</v>
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6847922</v>
+        <v>6847916</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,55 +9724,55 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
         <v>52</v>
       </c>
       <c r="K104">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="L104">
+        <v>3.5</v>
+      </c>
+      <c r="M104">
+        <v>3.6</v>
+      </c>
+      <c r="N104">
+        <v>1.95</v>
+      </c>
+      <c r="O104">
         <v>3.4</v>
       </c>
-      <c r="M104">
-        <v>2.375</v>
-      </c>
-      <c r="N104">
-        <v>2.8</v>
-      </c>
-      <c r="O104">
-        <v>3.25</v>
-      </c>
       <c r="P104">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S104">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W104">
         <v>-1</v>
@@ -9781,19 +9781,19 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9801,7 +9801,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6847916</v>
+        <v>6847915</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9813,76 +9813,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K105">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M105">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N105">
+        <v>2.3</v>
+      </c>
+      <c r="O105">
+        <v>3.2</v>
+      </c>
+      <c r="P105">
+        <v>3.3</v>
+      </c>
+      <c r="Q105">
+        <v>-0.25</v>
+      </c>
+      <c r="R105">
         <v>1.95</v>
       </c>
-      <c r="O105">
-        <v>3.4</v>
-      </c>
-      <c r="P105">
-        <v>4</v>
-      </c>
-      <c r="Q105">
-        <v>-0.5</v>
-      </c>
-      <c r="R105">
-        <v>2</v>
-      </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T105">
         <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y105">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA105">
+        <v>0.45</v>
+      </c>
+      <c r="AB105">
+        <v>-1</v>
+      </c>
+      <c r="AC105">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB105">
-        <v>0.875</v>
-      </c>
-      <c r="AC105">
-        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6847915</v>
+        <v>6847922</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9902,76 +9902,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K106">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L106">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="N106">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O106">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P106">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S106">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T106">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9991,10 +9991,10 @@
         <v>45235.54513888889</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10080,7 +10080,7 @@
         <v>45235.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
         <v>42</v>
@@ -10172,7 +10172,7 @@
         <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10258,10 +10258,10 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10350,7 +10350,7 @@
         <v>48</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10528,7 +10528,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10881,10 +10881,10 @@
         <v>45254.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H117">
         <v>5</v>
@@ -11148,7 +11148,7 @@
         <v>45256.375</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
         <v>46</v>
@@ -11237,7 +11237,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G121" t="s">
         <v>44</v>
@@ -11418,7 +11418,7 @@
         <v>41</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11507,7 +11507,7 @@
         <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11771,7 +11771,7 @@
         <v>45261.70833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
         <v>43</v>
@@ -11952,7 +11952,7 @@
         <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12041,7 +12041,7 @@
         <v>48</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12115,7 +12115,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6847943</v>
+        <v>6847941</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12127,76 +12127,76 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G131" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K131">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M131">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N131">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O131">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
-        <v>1.99</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>1.94</v>
+        <v>1.875</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V131">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W131">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12204,7 +12204,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6847949</v>
+        <v>6847943</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12216,13 +12216,13 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -12231,43 +12231,43 @@
         <v>51</v>
       </c>
       <c r="K132">
-        <v>1.833</v>
+        <v>1.571</v>
       </c>
       <c r="L132">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M132">
+        <v>5.5</v>
+      </c>
+      <c r="N132">
+        <v>1.571</v>
+      </c>
+      <c r="O132">
         <v>4.2</v>
       </c>
-      <c r="N132">
-        <v>1.727</v>
-      </c>
-      <c r="O132">
-        <v>3.75</v>
-      </c>
       <c r="P132">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q132">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>1.99</v>
       </c>
       <c r="S132">
-        <v>1.875</v>
+        <v>1.94</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U132">
+        <v>1.85</v>
+      </c>
+      <c r="V132">
         <v>2.05</v>
       </c>
-      <c r="V132">
-        <v>1.8</v>
-      </c>
       <c r="W132">
-        <v>0.7270000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12276,16 +12276,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.9750000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
+        <v>-1</v>
+      </c>
+      <c r="AC132">
         <v>1.05</v>
-      </c>
-      <c r="AC132">
-        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12293,7 +12293,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6847941</v>
+        <v>6847949</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12305,40 +12305,40 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K133">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L133">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="N133">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O133">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P133">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
         <v>1.975</v>
@@ -12350,31 +12350,31 @@
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X133">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12661,7 +12661,7 @@
         <v>45267.6875</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
         <v>43</v>
@@ -12842,7 +12842,7 @@
         <v>42</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12928,7 +12928,7 @@
         <v>45269.70833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
         <v>31</v>
@@ -13017,10 +13017,10 @@
         <v>45270.375</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13109,7 +13109,7 @@
         <v>44</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13183,7 +13183,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6847956</v>
+        <v>6847951</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13195,76 +13195,76 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K143">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L143">
         <v>3.2</v>
       </c>
       <c r="M143">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="N143">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="O143">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P143">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="Q143">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>1.975</v>
+        <v>2.02</v>
       </c>
       <c r="S143">
-        <v>1.875</v>
+        <v>1.88</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U143">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X143">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.9750000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13272,7 +13272,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6847951</v>
+        <v>6847956</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13284,76 +13284,76 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K144">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L144">
         <v>3.2</v>
       </c>
       <c r="M144">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="N144">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="O144">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P144">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R144">
-        <v>2.02</v>
+        <v>1.975</v>
       </c>
       <c r="S144">
-        <v>1.88</v>
+        <v>1.875</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V144">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>1.02</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13462,7 +13462,7 @@
         <v>45270.69791666666</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
         <v>39</v>
@@ -13551,7 +13551,7 @@
         <v>45275.70833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
         <v>45</v>
@@ -13643,7 +13643,7 @@
         <v>48</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -13732,7 +13732,7 @@
         <v>49</v>
       </c>
       <c r="G149" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13821,7 +13821,7 @@
         <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6847961</v>
+        <v>6847959</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,76 +13996,76 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G152" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K152">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L152">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M152">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="N152">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="O152">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P152">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q152">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R152">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S152">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T152">
         <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y152">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA152">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB152">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14073,7 +14073,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6847959</v>
+        <v>6847961</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14085,76 +14085,76 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F153" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K153">
+        <v>2.3</v>
+      </c>
+      <c r="L153">
+        <v>3.25</v>
+      </c>
+      <c r="M153">
+        <v>3.1</v>
+      </c>
+      <c r="N153">
+        <v>2.375</v>
+      </c>
+      <c r="O153">
         <v>3.2</v>
       </c>
-      <c r="L153">
-        <v>3.5</v>
-      </c>
-      <c r="M153">
-        <v>2.15</v>
-      </c>
-      <c r="N153">
-        <v>3.2</v>
-      </c>
-      <c r="O153">
-        <v>3.4</v>
-      </c>
       <c r="P153">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q153">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S153">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T153">
         <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V153">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z153">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC153">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14266,7 +14266,7 @@
         <v>47</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6847974</v>
+        <v>6847969</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,58 +14352,58 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H156">
+        <v>2</v>
+      </c>
+      <c r="I156">
         <v>1</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
       </c>
       <c r="J156" t="s">
         <v>51</v>
       </c>
       <c r="K156">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M156">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N156">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O156">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P156">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q156">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R156">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S156">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T156">
         <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V156">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W156">
-        <v>0.7270000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14412,16 +14412,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AA156">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC156">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14441,7 +14441,7 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G157" t="s">
         <v>44</v>
@@ -14518,7 +14518,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6847969</v>
+        <v>6847970</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14530,76 +14530,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G158" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
         <v>2</v>
       </c>
-      <c r="I158">
-        <v>1</v>
-      </c>
       <c r="J158" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K158">
+        <v>4.2</v>
+      </c>
+      <c r="L158">
+        <v>3.8</v>
+      </c>
+      <c r="M158">
+        <v>1.75</v>
+      </c>
+      <c r="N158">
+        <v>3.75</v>
+      </c>
+      <c r="O158">
         <v>4</v>
       </c>
-      <c r="L158">
-        <v>3.3</v>
-      </c>
-      <c r="M158">
-        <v>1.95</v>
-      </c>
-      <c r="N158">
-        <v>3.6</v>
-      </c>
-      <c r="O158">
-        <v>3.4</v>
-      </c>
       <c r="P158">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="Q158">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R158">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S158">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U158">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V158">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W158">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z158">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB158">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14607,7 +14607,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6847970</v>
+        <v>6847975</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14619,49 +14619,49 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H159">
         <v>1</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K159">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L159">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M159">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="N159">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O159">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P159">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q159">
         <v>0.5</v>
       </c>
       <c r="R159">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S159">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T159">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
         <v>1.925</v>
@@ -14673,22 +14673,22 @@
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y159">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA159">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6847976</v>
+        <v>6847974</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,13 +14797,13 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H161">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -14812,43 +14812,43 @@
         <v>51</v>
       </c>
       <c r="K161">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="L161">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M161">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="N161">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="O161">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P161">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q161">
         <v>-0.75</v>
       </c>
       <c r="R161">
+        <v>1.975</v>
+      </c>
+      <c r="S161">
         <v>1.875</v>
-      </c>
-      <c r="S161">
-        <v>1.975</v>
       </c>
       <c r="T161">
         <v>2.5</v>
       </c>
       <c r="U161">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V161">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W161">
-        <v>0.6499999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14857,16 +14857,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB161">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6847975</v>
+        <v>6847976</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,76 +14886,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K162">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="L162">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M162">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="N162">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="O162">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P162">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q162">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R162">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S162">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T162">
         <v>2.5</v>
       </c>
       <c r="U162">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V162">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X162">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA162">
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC162">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14963,7 +14963,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6847972</v>
+        <v>7579908</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14975,76 +14975,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G163" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J163" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K163">
+        <v>3.25</v>
+      </c>
+      <c r="L163">
+        <v>3.3</v>
+      </c>
+      <c r="M163">
         <v>2.2</v>
       </c>
-      <c r="L163">
+      <c r="N163">
         <v>3.1</v>
-      </c>
-      <c r="M163">
-        <v>3.4</v>
-      </c>
-      <c r="N163">
-        <v>2.25</v>
       </c>
       <c r="O163">
         <v>3.25</v>
       </c>
       <c r="P163">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R163">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S163">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="T163">
         <v>2.25</v>
       </c>
       <c r="U163">
-        <v>1.99</v>
+        <v>2.11</v>
       </c>
       <c r="V163">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="W163">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z163">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AB163">
-        <v>-0.5</v>
+        <v>1.11</v>
       </c>
       <c r="AC163">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15052,7 +15052,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7579908</v>
+        <v>6847972</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15064,76 +15064,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K164">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="L164">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M164">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N164">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="O164">
         <v>3.25</v>
       </c>
       <c r="P164">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="Q164">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="S164">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="T164">
         <v>2.25</v>
       </c>
       <c r="U164">
-        <v>2.11</v>
+        <v>1.99</v>
       </c>
       <c r="V164">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AA164">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>1.11</v>
+        <v>-0.5</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15242,10 +15242,10 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15334,7 +15334,7 @@
         <v>42</v>
       </c>
       <c r="G167" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15423,7 +15423,7 @@
         <v>47</v>
       </c>
       <c r="G168" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -15497,7 +15497,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6847982</v>
+        <v>6847985</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15509,76 +15509,76 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G169" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K169">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L169">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M169">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="N169">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O169">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P169">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q169">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R169">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S169">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T169">
         <v>2.5</v>
       </c>
       <c r="U169">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V169">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA169">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15586,7 +15586,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6847984</v>
+        <v>6847982</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15598,55 +15598,55 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
         <v>52</v>
       </c>
       <c r="K170">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="L170">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M170">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="N170">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O170">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P170">
+        <v>3.8</v>
+      </c>
+      <c r="Q170">
+        <v>-0.5</v>
+      </c>
+      <c r="R170">
+        <v>1.9</v>
+      </c>
+      <c r="S170">
+        <v>1.95</v>
+      </c>
+      <c r="T170">
         <v>2.5</v>
       </c>
-      <c r="Q170">
-        <v>0</v>
-      </c>
-      <c r="R170">
-        <v>2.025</v>
-      </c>
-      <c r="S170">
-        <v>1.825</v>
-      </c>
-      <c r="T170">
-        <v>2.25</v>
-      </c>
       <c r="U170">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V170">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15655,19 +15655,19 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC170">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15675,7 +15675,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6847985</v>
+        <v>6847984</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15687,76 +15687,76 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K171">
+        <v>2.9</v>
+      </c>
+      <c r="L171">
+        <v>3.3</v>
+      </c>
+      <c r="M171">
+        <v>2.4</v>
+      </c>
+      <c r="N171">
+        <v>2.875</v>
+      </c>
+      <c r="O171">
+        <v>3.2</v>
+      </c>
+      <c r="P171">
+        <v>2.5</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <v>2.025</v>
+      </c>
+      <c r="S171">
+        <v>1.825</v>
+      </c>
+      <c r="T171">
+        <v>2.25</v>
+      </c>
+      <c r="U171">
+        <v>2.05</v>
+      </c>
+      <c r="V171">
         <v>1.8</v>
       </c>
-      <c r="L171">
-        <v>3.75</v>
-      </c>
-      <c r="M171">
-        <v>4.333</v>
-      </c>
-      <c r="N171">
-        <v>1.8</v>
-      </c>
-      <c r="O171">
-        <v>3.75</v>
-      </c>
-      <c r="P171">
-        <v>4.5</v>
-      </c>
-      <c r="Q171">
-        <v>-0.75</v>
-      </c>
-      <c r="R171">
-        <v>2.05</v>
-      </c>
-      <c r="S171">
-        <v>1.8</v>
-      </c>
-      <c r="T171">
-        <v>2.5</v>
-      </c>
-      <c r="U171">
-        <v>2.025</v>
-      </c>
-      <c r="V171">
-        <v>1.825</v>
-      </c>
       <c r="W171">
+        <v>-1</v>
+      </c>
+      <c r="X171">
+        <v>-1</v>
+      </c>
+      <c r="Y171">
+        <v>1.5</v>
+      </c>
+      <c r="Z171">
+        <v>-1</v>
+      </c>
+      <c r="AA171">
+        <v>0.825</v>
+      </c>
+      <c r="AB171">
+        <v>-1</v>
+      </c>
+      <c r="AC171">
         <v>0.8</v>
-      </c>
-      <c r="X171">
-        <v>-1</v>
-      </c>
-      <c r="Y171">
-        <v>-1</v>
-      </c>
-      <c r="Z171">
-        <v>1.05</v>
-      </c>
-      <c r="AA171">
-        <v>-1</v>
-      </c>
-      <c r="AB171">
-        <v>-1</v>
-      </c>
-      <c r="AC171">
-        <v>0.825</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15868,7 +15868,7 @@
         <v>49</v>
       </c>
       <c r="G173" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -16043,7 +16043,7 @@
         <v>45318.54166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16135,7 +16135,7 @@
         <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16298,7 +16298,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6847992</v>
+        <v>6847989</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16310,76 +16310,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F178" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J178" t="s">
         <v>53</v>
       </c>
       <c r="K178">
+        <v>2.5</v>
+      </c>
+      <c r="L178">
+        <v>3.25</v>
+      </c>
+      <c r="M178">
         <v>2.8</v>
       </c>
-      <c r="L178">
-        <v>3.6</v>
-      </c>
-      <c r="M178">
-        <v>2.3</v>
-      </c>
       <c r="N178">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O178">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P178">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="Q178">
         <v>0.25</v>
       </c>
       <c r="R178">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S178">
-        <v>2.05</v>
+        <v>2.125</v>
       </c>
       <c r="T178">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U178">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V178">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.4</v>
+        <v>0.405</v>
       </c>
       <c r="AA178">
         <v>-0.5</v>
       </c>
       <c r="AB178">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC178">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16387,7 +16387,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6847993</v>
+        <v>6847992</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16399,76 +16399,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>53</v>
       </c>
       <c r="K179">
+        <v>2.8</v>
+      </c>
+      <c r="L179">
+        <v>3.6</v>
+      </c>
+      <c r="M179">
+        <v>2.3</v>
+      </c>
+      <c r="N179">
+        <v>3</v>
+      </c>
+      <c r="O179">
+        <v>3.3</v>
+      </c>
+      <c r="P179">
+        <v>2.375</v>
+      </c>
+      <c r="Q179">
+        <v>0.25</v>
+      </c>
+      <c r="R179">
+        <v>1.8</v>
+      </c>
+      <c r="S179">
+        <v>2.05</v>
+      </c>
+      <c r="T179">
+        <v>2.25</v>
+      </c>
+      <c r="U179">
+        <v>1.85</v>
+      </c>
+      <c r="V179">
         <v>2</v>
       </c>
-      <c r="L179">
-        <v>3.5</v>
-      </c>
-      <c r="M179">
-        <v>3.6</v>
-      </c>
-      <c r="N179">
-        <v>1.95</v>
-      </c>
-      <c r="O179">
-        <v>3.4</v>
-      </c>
-      <c r="P179">
-        <v>4</v>
-      </c>
-      <c r="Q179">
+      <c r="W179">
+        <v>-1</v>
+      </c>
+      <c r="X179">
+        <v>2.3</v>
+      </c>
+      <c r="Y179">
+        <v>-1</v>
+      </c>
+      <c r="Z179">
+        <v>0.4</v>
+      </c>
+      <c r="AA179">
         <v>-0.5</v>
       </c>
-      <c r="R179">
-        <v>2</v>
-      </c>
-      <c r="S179">
-        <v>1.93</v>
-      </c>
-      <c r="T179">
-        <v>2.5</v>
-      </c>
-      <c r="U179">
-        <v>2.07</v>
-      </c>
-      <c r="V179">
-        <v>1.83</v>
-      </c>
-      <c r="W179">
-        <v>-1</v>
-      </c>
-      <c r="X179">
-        <v>2.4</v>
-      </c>
-      <c r="Y179">
-        <v>-1</v>
-      </c>
-      <c r="Z179">
-        <v>-1</v>
-      </c>
-      <c r="AA179">
-        <v>0.9299999999999999</v>
-      </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC179">
-        <v>0.8300000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6847989</v>
+        <v>6847993</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,76 +16488,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
         <v>53</v>
       </c>
       <c r="K180">
+        <v>2</v>
+      </c>
+      <c r="L180">
+        <v>3.5</v>
+      </c>
+      <c r="M180">
+        <v>3.6</v>
+      </c>
+      <c r="N180">
+        <v>1.95</v>
+      </c>
+      <c r="O180">
+        <v>3.4</v>
+      </c>
+      <c r="P180">
+        <v>4</v>
+      </c>
+      <c r="Q180">
+        <v>-0.5</v>
+      </c>
+      <c r="R180">
+        <v>2</v>
+      </c>
+      <c r="S180">
+        <v>1.93</v>
+      </c>
+      <c r="T180">
         <v>2.5</v>
       </c>
-      <c r="L180">
-        <v>3.25</v>
-      </c>
-      <c r="M180">
-        <v>2.8</v>
-      </c>
-      <c r="N180">
-        <v>3.1</v>
-      </c>
-      <c r="O180">
-        <v>3.1</v>
-      </c>
-      <c r="P180">
-        <v>2.5</v>
-      </c>
-      <c r="Q180">
-        <v>0.25</v>
-      </c>
-      <c r="R180">
-        <v>1.81</v>
-      </c>
-      <c r="S180">
-        <v>2.125</v>
-      </c>
-      <c r="T180">
-        <v>2</v>
-      </c>
       <c r="U180">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="V180">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.405</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB180">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16666,10 +16666,10 @@
         <v>45319.69791666666</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16758,7 +16758,7 @@
         <v>43</v>
       </c>
       <c r="G183" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -17022,7 +17022,7 @@
         <v>45326.375</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G186" t="s">
         <v>48</v>
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7728866</v>
+        <v>7728862</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,73 +17111,73 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G187" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H187">
+        <v>4</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187" t="s">
+        <v>51</v>
+      </c>
+      <c r="K187">
+        <v>1.4</v>
+      </c>
+      <c r="L187">
+        <v>4.5</v>
+      </c>
+      <c r="M187">
+        <v>8</v>
+      </c>
+      <c r="N187">
+        <v>1.4</v>
+      </c>
+      <c r="O187">
+        <v>4.75</v>
+      </c>
+      <c r="P187">
+        <v>7.5</v>
+      </c>
+      <c r="Q187">
+        <v>-1.25</v>
+      </c>
+      <c r="R187">
+        <v>2</v>
+      </c>
+      <c r="S187">
+        <v>1.85</v>
+      </c>
+      <c r="T187">
+        <v>2.75</v>
+      </c>
+      <c r="U187">
+        <v>2</v>
+      </c>
+      <c r="V187">
+        <v>1.85</v>
+      </c>
+      <c r="W187">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X187">
+        <v>-1</v>
+      </c>
+      <c r="Y187">
+        <v>-1</v>
+      </c>
+      <c r="Z187">
         <v>1</v>
       </c>
-      <c r="I187">
-        <v>2</v>
-      </c>
-      <c r="J187" t="s">
-        <v>52</v>
-      </c>
-      <c r="K187">
-        <v>2.25</v>
-      </c>
-      <c r="L187">
-        <v>3.2</v>
-      </c>
-      <c r="M187">
-        <v>3.3</v>
-      </c>
-      <c r="N187">
-        <v>2.05</v>
-      </c>
-      <c r="O187">
-        <v>3.2</v>
-      </c>
-      <c r="P187">
-        <v>4</v>
-      </c>
-      <c r="Q187">
-        <v>-0.5</v>
-      </c>
-      <c r="R187">
-        <v>2.05</v>
-      </c>
-      <c r="S187">
-        <v>1.8</v>
-      </c>
-      <c r="T187">
-        <v>2</v>
-      </c>
-      <c r="U187">
-        <v>1.9</v>
-      </c>
-      <c r="V187">
-        <v>1.95</v>
-      </c>
-      <c r="W187">
-        <v>-1</v>
-      </c>
-      <c r="X187">
-        <v>-1</v>
-      </c>
-      <c r="Y187">
-        <v>3</v>
-      </c>
-      <c r="Z187">
-        <v>-1</v>
-      </c>
       <c r="AA187">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC187">
         <v>-1</v>
@@ -17200,7 +17200,7 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
         <v>46</v>
@@ -17277,7 +17277,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7728862</v>
+        <v>7728866</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17289,73 +17289,73 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G189" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <v>2</v>
+      </c>
+      <c r="J189" t="s">
+        <v>52</v>
+      </c>
+      <c r="K189">
+        <v>2.25</v>
+      </c>
+      <c r="L189">
+        <v>3.2</v>
+      </c>
+      <c r="M189">
+        <v>3.3</v>
+      </c>
+      <c r="N189">
+        <v>2.05</v>
+      </c>
+      <c r="O189">
+        <v>3.2</v>
+      </c>
+      <c r="P189">
         <v>4</v>
       </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
-      <c r="J189" t="s">
-        <v>51</v>
-      </c>
-      <c r="K189">
-        <v>1.4</v>
-      </c>
-      <c r="L189">
-        <v>4.5</v>
-      </c>
-      <c r="M189">
-        <v>8</v>
-      </c>
-      <c r="N189">
-        <v>1.4</v>
-      </c>
-      <c r="O189">
-        <v>4.75</v>
-      </c>
-      <c r="P189">
-        <v>7.5</v>
-      </c>
       <c r="Q189">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
+        <v>2.05</v>
+      </c>
+      <c r="S189">
+        <v>1.8</v>
+      </c>
+      <c r="T189">
         <v>2</v>
       </c>
-      <c r="S189">
-        <v>1.85</v>
-      </c>
-      <c r="T189">
-        <v>2.75</v>
-      </c>
       <c r="U189">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V189">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W189">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z189">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB189">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17378,10 +17378,10 @@
         <v>45326.54513888889</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G190" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17734,7 +17734,7 @@
         <v>45332.70833333334</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G194" t="s">
         <v>47</v>
@@ -17915,7 +17915,7 @@
         <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17989,7 +17989,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6848005</v>
+        <v>6848007</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18001,76 +18001,76 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G197" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K197">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="L197">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M197">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="N197">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="O197">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P197">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="Q197">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R197">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S197">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T197">
         <v>2.5</v>
       </c>
       <c r="U197">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V197">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA197">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18078,7 +18078,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6848007</v>
+        <v>6848005</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18090,76 +18090,76 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G198" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198">
         <v>2</v>
       </c>
-      <c r="I198">
-        <v>0</v>
-      </c>
       <c r="J198" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K198">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="L198">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M198">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N198">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="O198">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P198">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="Q198">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R198">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S198">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T198">
         <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W198">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z198">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC198">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18268,10 +18268,10 @@
         <v>45333.69791666666</v>
       </c>
       <c r="F200" t="s">
+        <v>29</v>
+      </c>
+      <c r="G200" t="s">
         <v>35</v>
-      </c>
-      <c r="G200" t="s">
-        <v>34</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18360,7 +18360,7 @@
         <v>45</v>
       </c>
       <c r="G201" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18449,7 +18449,7 @@
         <v>31</v>
       </c>
       <c r="G202" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -18538,7 +18538,7 @@
         <v>43</v>
       </c>
       <c r="G203" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18701,7 +18701,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6848015</v>
+        <v>6848020</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18713,76 +18713,76 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G205" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I205">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K205">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="L205">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M205">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N205">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O205">
         <v>4</v>
       </c>
       <c r="P205">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q205">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R205">
+        <v>1.8</v>
+      </c>
+      <c r="S205">
         <v>2.05</v>
       </c>
-      <c r="S205">
+      <c r="T205">
+        <v>2.25</v>
+      </c>
+      <c r="U205">
         <v>1.8</v>
       </c>
-      <c r="T205">
-        <v>2.75</v>
-      </c>
-      <c r="U205">
-        <v>1.975</v>
-      </c>
       <c r="V205">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA205">
+        <v>-1</v>
+      </c>
+      <c r="AB205">
         <v>0.8</v>
       </c>
-      <c r="AB205">
-        <v>0.4875</v>
-      </c>
       <c r="AC205">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18790,7 +18790,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6848020</v>
+        <v>6848015</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18802,76 +18802,76 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G206" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K206">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="L206">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M206">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N206">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O206">
         <v>4</v>
       </c>
       <c r="P206">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q206">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R206">
+        <v>2.05</v>
+      </c>
+      <c r="S206">
         <v>1.8</v>
       </c>
-      <c r="S206">
-        <v>2.05</v>
-      </c>
       <c r="T206">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V206">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W206">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z206">
+        <v>-1</v>
+      </c>
+      <c r="AA206">
         <v>0.8</v>
       </c>
-      <c r="AA206">
-        <v>-1</v>
-      </c>
       <c r="AB206">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18891,7 +18891,7 @@
         <v>45340.54513888889</v>
       </c>
       <c r="F207" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G207" t="s">
         <v>49</v>
@@ -18980,7 +18980,7 @@
         <v>45340.69791666666</v>
       </c>
       <c r="F208" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G208" t="s">
         <v>39</v>
@@ -19158,7 +19158,7 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G210" t="s">
         <v>31</v>
@@ -19250,7 +19250,7 @@
         <v>43</v>
       </c>
       <c r="G211" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -19339,7 +19339,7 @@
         <v>49</v>
       </c>
       <c r="G212" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19425,7 +19425,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F213" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G213" t="s">
         <v>40</v>
@@ -19517,7 +19517,7 @@
         <v>48</v>
       </c>
       <c r="G214" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -19692,7 +19692,7 @@
         <v>45347.54513888889</v>
       </c>
       <c r="F216" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G216" t="s">
         <v>42</v>
@@ -19870,10 +19870,10 @@
         <v>45352.70833333334</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G218" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -19959,7 +19959,7 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F219" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G219" t="s">
         <v>47</v>
@@ -20140,7 +20140,16 @@
         <v>46</v>
       </c>
       <c r="G221" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="H221">
+        <v>2</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221" t="s">
+        <v>51</v>
       </c>
       <c r="K221">
         <v>3.6</v>
@@ -20152,46 +20161,52 @@
         <v>2.05</v>
       </c>
       <c r="N221">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O221">
         <v>3.2</v>
       </c>
       <c r="P221">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q221">
         <v>0.25</v>
       </c>
       <c r="R221">
+        <v>2.02</v>
+      </c>
+      <c r="S221">
         <v>1.91</v>
-      </c>
-      <c r="S221">
-        <v>1.99</v>
       </c>
       <c r="T221">
         <v>2.25</v>
       </c>
       <c r="U221">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="V221">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="W221">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="X221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AA221">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB221">
+        <v>1.03</v>
+      </c>
+      <c r="AC221">
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20199,7 +20214,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6848039</v>
+        <v>6848037</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20211,61 +20226,76 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G222" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>2</v>
+      </c>
+      <c r="J222" t="s">
+        <v>52</v>
       </c>
       <c r="K222">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="L222">
+        <v>3.4</v>
+      </c>
+      <c r="M222">
+        <v>4.5</v>
+      </c>
+      <c r="N222">
+        <v>1.85</v>
+      </c>
+      <c r="O222">
+        <v>3.4</v>
+      </c>
+      <c r="P222">
+        <v>4.75</v>
+      </c>
+      <c r="Q222">
+        <v>-0.5</v>
+      </c>
+      <c r="R222">
+        <v>1.85</v>
+      </c>
+      <c r="S222">
+        <v>2</v>
+      </c>
+      <c r="T222">
+        <v>2</v>
+      </c>
+      <c r="U222">
+        <v>1.85</v>
+      </c>
+      <c r="V222">
+        <v>2</v>
+      </c>
+      <c r="W222">
+        <v>-1</v>
+      </c>
+      <c r="X222">
+        <v>-1</v>
+      </c>
+      <c r="Y222">
         <v>3.75</v>
       </c>
-      <c r="M222">
-        <v>5.25</v>
-      </c>
-      <c r="N222">
-        <v>1.6</v>
-      </c>
-      <c r="O222">
-        <v>4</v>
-      </c>
-      <c r="P222">
-        <v>5.75</v>
-      </c>
-      <c r="Q222">
-        <v>-0.75</v>
-      </c>
-      <c r="R222">
-        <v>1.81</v>
-      </c>
-      <c r="S222">
-        <v>2.09</v>
-      </c>
-      <c r="T222">
-        <v>2.25</v>
-      </c>
-      <c r="U222">
-        <v>1.83</v>
-      </c>
-      <c r="V222">
-        <v>2.07</v>
-      </c>
-      <c r="W222">
-        <v>0</v>
-      </c>
-      <c r="X222">
-        <v>0</v>
-      </c>
-      <c r="Y222">
-        <v>0</v>
-      </c>
       <c r="Z222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>-0</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20290,6 +20320,15 @@
       <c r="G223" t="s">
         <v>43</v>
       </c>
+      <c r="H223">
+        <v>2</v>
+      </c>
+      <c r="I223">
+        <v>2</v>
+      </c>
+      <c r="J223" t="s">
+        <v>53</v>
+      </c>
       <c r="K223">
         <v>2.35</v>
       </c>
@@ -20303,7 +20342,7 @@
         <v>2</v>
       </c>
       <c r="O223">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P223">
         <v>3.75</v>
@@ -20312,34 +20351,40 @@
         <v>-0.5</v>
       </c>
       <c r="R223">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S223">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V223">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="W223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X223">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>0</v>
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="AB223">
+        <v>0.98</v>
+      </c>
+      <c r="AC223">
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20347,7 +20392,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6848037</v>
+        <v>6848039</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20359,64 +20404,79 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G224" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224" t="s">
+        <v>51</v>
       </c>
       <c r="K224">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="L224">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M224">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="N224">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="O224">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P224">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q224">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R224">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S224">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="T224">
         <v>2.25</v>
       </c>
       <c r="U224">
-        <v>2.08</v>
+        <v>2.025</v>
       </c>
       <c r="V224">
-        <v>1.82</v>
+        <v>1.825</v>
       </c>
       <c r="W224">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="X224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
         <v>0</v>
       </c>
       <c r="AA224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:27">
+        <v>-0</v>
+      </c>
+      <c r="AB224">
+        <v>-1</v>
+      </c>
+      <c r="AC224">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -20436,7 +20496,16 @@
         <v>42</v>
       </c>
       <c r="G225" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="H225">
+        <v>1</v>
+      </c>
+      <c r="I225">
+        <v>2</v>
+      </c>
+      <c r="J225" t="s">
+        <v>52</v>
       </c>
       <c r="K225">
         <v>1.4</v>
@@ -20448,49 +20517,55 @@
         <v>7</v>
       </c>
       <c r="N225">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O225">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P225">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Q225">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R225">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="S225">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="T225">
         <v>2.75</v>
       </c>
       <c r="U225">
-        <v>2.01</v>
+        <v>2.025</v>
       </c>
       <c r="V225">
-        <v>1.89</v>
+        <v>1.825</v>
       </c>
       <c r="W225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="Z225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:27">
+        <v>1.05</v>
+      </c>
+      <c r="AB225">
+        <v>0.5125</v>
+      </c>
+      <c r="AC225">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -20512,6 +20587,15 @@
       <c r="G226" t="s">
         <v>49</v>
       </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>3</v>
+      </c>
+      <c r="J226" t="s">
+        <v>52</v>
+      </c>
       <c r="K226">
         <v>2.5</v>
       </c>
@@ -20525,46 +20609,52 @@
         <v>2.55</v>
       </c>
       <c r="O226">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P226">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q226">
         <v>0</v>
       </c>
       <c r="R226">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S226">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T226">
         <v>2.5</v>
       </c>
       <c r="U226">
-        <v>2.01</v>
+        <v>1.975</v>
       </c>
       <c r="V226">
-        <v>1.89</v>
+        <v>1.875</v>
       </c>
       <c r="W226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Z226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:27">
+        <v>1.025</v>
+      </c>
+      <c r="AB226">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC226">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -20581,7 +20671,7 @@
         <v>45359.70833333334</v>
       </c>
       <c r="F227" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G227" t="s">
         <v>41</v>
@@ -20596,10 +20686,10 @@
         <v>4.75</v>
       </c>
       <c r="N227">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="O227">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P227">
         <v>4.75</v>
@@ -20608,20 +20698,20 @@
         <v>-0.75</v>
       </c>
       <c r="R227">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="S227">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="T227">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U227">
+        <v>1.97</v>
+      </c>
+      <c r="V227">
         <v>1.93</v>
       </c>
-      <c r="V227">
-        <v>1.97</v>
-      </c>
       <c r="W227">
         <v>0</v>
       </c>
@@ -20638,7 +20728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:27">
+    <row r="228" spans="1:29">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -20655,7 +20745,7 @@
         <v>45360.54166666666</v>
       </c>
       <c r="F228" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G228" t="s">
         <v>45</v>
@@ -20670,31 +20760,31 @@
         <v>1.95</v>
       </c>
       <c r="N228">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O228">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P228">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="Q228">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R228">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="S228">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="T228">
         <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V228">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W228">
         <v>0</v>
@@ -20712,7 +20802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:27">
+    <row r="229" spans="1:29">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -20732,7 +20822,7 @@
         <v>49</v>
       </c>
       <c r="G229" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K229">
         <v>1.95</v>
@@ -20744,45 +20834,489 @@
         <v>4</v>
       </c>
       <c r="N229">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O229">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P229">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q229">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>2.01</v>
+        <v>1.81</v>
       </c>
       <c r="S229">
-        <v>1.89</v>
+        <v>2.09</v>
       </c>
       <c r="T229">
         <v>2.25</v>
       </c>
       <c r="U229">
+        <v>1.95</v>
+      </c>
+      <c r="V229">
+        <v>1.95</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>6848040</v>
+      </c>
+      <c r="C230" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45361.375</v>
+      </c>
+      <c r="F230" t="s">
+        <v>30</v>
+      </c>
+      <c r="G230" t="s">
+        <v>33</v>
+      </c>
+      <c r="K230">
+        <v>1.4</v>
+      </c>
+      <c r="L230">
+        <v>5</v>
+      </c>
+      <c r="M230">
+        <v>6.5</v>
+      </c>
+      <c r="N230">
+        <v>1.4</v>
+      </c>
+      <c r="O230">
+        <v>5</v>
+      </c>
+      <c r="P230">
+        <v>6.5</v>
+      </c>
+      <c r="Q230">
+        <v>-1.25</v>
+      </c>
+      <c r="R230">
+        <v>1.88</v>
+      </c>
+      <c r="S230">
+        <v>2.02</v>
+      </c>
+      <c r="T230">
+        <v>3.25</v>
+      </c>
+      <c r="U230">
+        <v>2.03</v>
+      </c>
+      <c r="V230">
+        <v>1.87</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>6848047</v>
+      </c>
+      <c r="C231" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45361.45833333334</v>
+      </c>
+      <c r="F231" t="s">
+        <v>48</v>
+      </c>
+      <c r="G231" t="s">
+        <v>46</v>
+      </c>
+      <c r="K231">
+        <v>2.45</v>
+      </c>
+      <c r="L231">
+        <v>3.2</v>
+      </c>
+      <c r="M231">
+        <v>2.9</v>
+      </c>
+      <c r="N231">
+        <v>2.8</v>
+      </c>
+      <c r="O231">
+        <v>3.1</v>
+      </c>
+      <c r="P231">
+        <v>2.6</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>2.01</v>
+      </c>
+      <c r="S231">
+        <v>1.89</v>
+      </c>
+      <c r="T231">
+        <v>2.25</v>
+      </c>
+      <c r="U231">
+        <v>1.98</v>
+      </c>
+      <c r="V231">
         <v>1.92</v>
       </c>
-      <c r="V229">
-        <v>1.98</v>
-      </c>
-      <c r="W229">
-        <v>0</v>
-      </c>
-      <c r="X229">
-        <v>0</v>
-      </c>
-      <c r="Y229">
-        <v>0</v>
-      </c>
-      <c r="Z229">
-        <v>0</v>
-      </c>
-      <c r="AA229">
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>6848048</v>
+      </c>
+      <c r="C232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45361.45833333334</v>
+      </c>
+      <c r="F232" t="s">
+        <v>44</v>
+      </c>
+      <c r="G232" t="s">
+        <v>40</v>
+      </c>
+      <c r="K232">
+        <v>2.45</v>
+      </c>
+      <c r="L232">
+        <v>3.2</v>
+      </c>
+      <c r="M232">
+        <v>3</v>
+      </c>
+      <c r="N232">
+        <v>2.25</v>
+      </c>
+      <c r="O232">
+        <v>3.2</v>
+      </c>
+      <c r="P232">
+        <v>3.25</v>
+      </c>
+      <c r="Q232">
+        <v>-0.25</v>
+      </c>
+      <c r="R232">
+        <v>1.97</v>
+      </c>
+      <c r="S232">
+        <v>1.93</v>
+      </c>
+      <c r="T232">
+        <v>2.25</v>
+      </c>
+      <c r="U232">
+        <v>1.91</v>
+      </c>
+      <c r="V232">
+        <v>1.99</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>6848041</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" t="s">
+        <v>28</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45361.5</v>
+      </c>
+      <c r="F233" t="s">
+        <v>43</v>
+      </c>
+      <c r="G233" t="s">
+        <v>35</v>
+      </c>
+      <c r="K233">
+        <v>3.4</v>
+      </c>
+      <c r="L233">
+        <v>3.6</v>
+      </c>
+      <c r="M233">
+        <v>2.05</v>
+      </c>
+      <c r="N233">
+        <v>3.6</v>
+      </c>
+      <c r="O233">
+        <v>3.75</v>
+      </c>
+      <c r="P233">
+        <v>1.95</v>
+      </c>
+      <c r="Q233">
+        <v>0.5</v>
+      </c>
+      <c r="R233">
+        <v>1.88</v>
+      </c>
+      <c r="S233">
+        <v>2.02</v>
+      </c>
+      <c r="T233">
+        <v>2.75</v>
+      </c>
+      <c r="U233">
+        <v>1.86</v>
+      </c>
+      <c r="V233">
+        <v>2.04</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>6848044</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45361.54166666666</v>
+      </c>
+      <c r="F234" t="s">
+        <v>47</v>
+      </c>
+      <c r="G234" t="s">
+        <v>42</v>
+      </c>
+      <c r="K234">
+        <v>2.05</v>
+      </c>
+      <c r="L234">
+        <v>3.4</v>
+      </c>
+      <c r="M234">
+        <v>3.75</v>
+      </c>
+      <c r="N234">
+        <v>2.05</v>
+      </c>
+      <c r="O234">
+        <v>3.4</v>
+      </c>
+      <c r="P234">
+        <v>3.6</v>
+      </c>
+      <c r="Q234">
+        <v>-0.5</v>
+      </c>
+      <c r="R234">
+        <v>2.09</v>
+      </c>
+      <c r="S234">
+        <v>1.81</v>
+      </c>
+      <c r="T234">
+        <v>2.5</v>
+      </c>
+      <c r="U234">
+        <v>2.05</v>
+      </c>
+      <c r="V234">
+        <v>1.85</v>
+      </c>
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234">
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>6848042</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45361.69791666666</v>
+      </c>
+      <c r="F235" t="s">
+        <v>39</v>
+      </c>
+      <c r="G235" t="s">
+        <v>31</v>
+      </c>
+      <c r="K235">
+        <v>1.571</v>
+      </c>
+      <c r="L235">
+        <v>4</v>
+      </c>
+      <c r="M235">
+        <v>5.75</v>
+      </c>
+      <c r="N235">
+        <v>1.5</v>
+      </c>
+      <c r="O235">
+        <v>4.2</v>
+      </c>
+      <c r="P235">
+        <v>6.5</v>
+      </c>
+      <c r="Q235">
+        <v>-1</v>
+      </c>
+      <c r="R235">
+        <v>1.83</v>
+      </c>
+      <c r="S235">
+        <v>2.07</v>
+      </c>
+      <c r="T235">
+        <v>2.5</v>
+      </c>
+      <c r="U235">
+        <v>1.88</v>
+      </c>
+      <c r="V235">
+        <v>2.02</v>
+      </c>
+      <c r="W235">
+        <v>0</v>
+      </c>
+      <c r="X235">
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <v>0</v>
+      </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
+      <c r="AA235">
         <v>0</v>
       </c>
     </row>

--- a/France Ligue 1/France Ligue 1.xlsx
+++ b/France Ligue 1/France Ligue 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -103,7 +103,10 @@
     <t>France Ligue 1</t>
   </si>
   <si>
-    <t>Nice</t>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Troyes</t>
   </si>
   <si>
     <t>PSG</t>
@@ -115,31 +118,28 @@
     <t>AC Ajaccio</t>
   </si>
   <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Monaco</t>
+    <t>Nice</t>
   </si>
   <si>
     <t>Auxerre</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
     <t>Marseille</t>
   </si>
   <si>
-    <t>Clermont Foot</t>
+    <t>Montpellier</t>
   </si>
   <si>
-    <t>Montpellier</t>
+    <t>Clermont Foot</t>
   </si>
   <si>
     <t>Rennes</t>
@@ -169,13 +169,13 @@
     <t>Angers</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC235"/>
+  <dimension ref="A1:AC238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5644619</v>
+        <v>5641663</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -649,73 +649,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>51</v>
       </c>
       <c r="K2">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="L2">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="N2">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="O2">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P2">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>1.85</v>
+      </c>
+      <c r="T2">
+        <v>2.75</v>
+      </c>
+      <c r="U2">
         <v>1.825</v>
       </c>
-      <c r="S2">
+      <c r="V2">
         <v>2.025</v>
       </c>
-      <c r="T2">
-        <v>3.5</v>
-      </c>
-      <c r="U2">
-        <v>1.9</v>
-      </c>
-      <c r="V2">
-        <v>1.95</v>
-      </c>
       <c r="W2">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z2">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB2">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5642185</v>
+        <v>5638915</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -738,73 +738,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>52</v>
       </c>
       <c r="K3">
-        <v>1.285</v>
+        <v>9</v>
       </c>
       <c r="L3">
         <v>6</v>
       </c>
       <c r="M3">
-        <v>9</v>
+        <v>1.285</v>
       </c>
       <c r="N3">
-        <v>1.3</v>
+        <v>15</v>
       </c>
       <c r="O3">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="P3">
-        <v>8</v>
+        <v>1.166</v>
       </c>
       <c r="Q3">
-        <v>-1.75</v>
+        <v>2.25</v>
       </c>
       <c r="R3">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U3">
+        <v>1.975</v>
+      </c>
+      <c r="V3">
         <v>1.875</v>
       </c>
-      <c r="V3">
-        <v>1.975</v>
-      </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y3">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
+        <v>-1</v>
+      </c>
+      <c r="AC3">
         <v>0.875</v>
-      </c>
-      <c r="AC3">
-        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5642021</v>
+        <v>5642185</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,73 +827,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>51</v>
       </c>
       <c r="K4">
-        <v>1.444</v>
+        <v>1.285</v>
       </c>
       <c r="L4">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M4">
+        <v>9</v>
+      </c>
+      <c r="N4">
+        <v>1.3</v>
+      </c>
+      <c r="O4">
+        <v>6.5</v>
+      </c>
+      <c r="P4">
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <v>-1.75</v>
+      </c>
+      <c r="R4">
+        <v>1.925</v>
+      </c>
+      <c r="S4">
+        <v>1.925</v>
+      </c>
+      <c r="T4">
+        <v>3.75</v>
+      </c>
+      <c r="U4">
+        <v>1.875</v>
+      </c>
+      <c r="V4">
+        <v>1.975</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
         <v>7</v>
       </c>
-      <c r="N4">
-        <v>1.5</v>
-      </c>
-      <c r="O4">
-        <v>4.5</v>
-      </c>
-      <c r="P4">
-        <v>6</v>
-      </c>
-      <c r="Q4">
-        <v>-1</v>
-      </c>
-      <c r="R4">
-        <v>1.8</v>
-      </c>
-      <c r="S4">
-        <v>2.05</v>
-      </c>
-      <c r="T4">
-        <v>2.75</v>
-      </c>
-      <c r="U4">
-        <v>1.8</v>
-      </c>
-      <c r="V4">
-        <v>2.05</v>
-      </c>
-      <c r="W4">
-        <v>0.5</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>-1</v>
-      </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5641662</v>
+        <v>5642021</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,7 +916,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -925,46 +925,46 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>8</v>
+        <v>1.444</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M5">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="N5">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="O5">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P5">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="Q5">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T5">
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W5">
-        <v>6.5</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -973,16 +973,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5639215</v>
+        <v>5641662</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1005,73 +1005,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>3.5</v>
+        <v>1.363</v>
       </c>
       <c r="N6">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="O6">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T6">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5638915</v>
+        <v>5638914</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1094,73 +1094,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="L7">
+        <v>4.5</v>
+      </c>
+      <c r="M7">
+        <v>5.75</v>
+      </c>
+      <c r="N7">
+        <v>1.4</v>
+      </c>
+      <c r="O7">
         <v>6</v>
       </c>
-      <c r="M7">
-        <v>1.285</v>
-      </c>
-      <c r="N7">
-        <v>15</v>
-      </c>
-      <c r="O7">
-        <v>8</v>
-      </c>
       <c r="P7">
-        <v>1.166</v>
+        <v>5.75</v>
       </c>
       <c r="Q7">
-        <v>2.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U7">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1168,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5638914</v>
+        <v>5635385</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1183,73 +1183,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="L8">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="N8">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O8">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q8">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC8">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1257,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5635384</v>
+        <v>5639215</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1272,7 +1272,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1281,61 +1281,61 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L9">
+        <v>3.75</v>
+      </c>
+      <c r="M9">
         <v>3.5</v>
       </c>
-      <c r="M9">
-        <v>3.1</v>
-      </c>
       <c r="N9">
+        <v>1.8</v>
+      </c>
+      <c r="O9">
+        <v>4.2</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>-0.75</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>1.85</v>
+      </c>
+      <c r="T9">
+        <v>3.5</v>
+      </c>
+      <c r="U9">
+        <v>1.975</v>
+      </c>
+      <c r="V9">
+        <v>1.875</v>
+      </c>
+      <c r="W9">
+        <v>-1</v>
+      </c>
+      <c r="X9">
+        <v>-1</v>
+      </c>
+      <c r="Y9">
         <v>3</v>
       </c>
-      <c r="O9">
-        <v>3.75</v>
-      </c>
-      <c r="P9">
-        <v>2.2</v>
-      </c>
-      <c r="Q9">
-        <v>0.25</v>
-      </c>
-      <c r="R9">
-        <v>1.89</v>
-      </c>
-      <c r="S9">
-        <v>2.01</v>
-      </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
-      <c r="U9">
-        <v>1.95</v>
-      </c>
-      <c r="V9">
-        <v>1.95</v>
-      </c>
-      <c r="W9">
-        <v>-1</v>
-      </c>
-      <c r="X9">
-        <v>-1</v>
-      </c>
-      <c r="Y9">
-        <v>1.2</v>
-      </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>1.01</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB9">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1346,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5641663</v>
+        <v>5644619</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1361,73 +1361,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M10">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="O10">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P10">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="Q10">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA10">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1435,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5635385</v>
+        <v>5635384</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1450,73 +1450,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
         <v>51</v>
       </c>
       <c r="K11">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="L11">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="N11">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P11">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q11">
         <v>0.25</v>
       </c>
       <c r="R11">
-        <v>1.825</v>
+        <v>1.89</v>
       </c>
       <c r="S11">
-        <v>2.025</v>
+        <v>2.01</v>
       </c>
       <c r="T11">
         <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB11">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1536,7 +1536,7 @@
         <v>45149.66666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
         <v>47</v>
@@ -1548,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K12">
         <v>2.625</v>
@@ -1628,7 +1628,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K13">
         <v>1.666</v>
@@ -1714,10 +1714,10 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14">
         <v>1.2</v>
@@ -1803,7 +1803,7 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
         <v>49</v>
@@ -1815,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K15">
         <v>4.5</v>
@@ -1880,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6847826</v>
+        <v>6847832</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1895,70 +1895,70 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>52</v>
       </c>
       <c r="K16">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="L16">
+        <v>3.3</v>
+      </c>
+      <c r="M16">
+        <v>2.8</v>
+      </c>
+      <c r="N16">
+        <v>1.7</v>
+      </c>
+      <c r="O16">
         <v>3.8</v>
       </c>
-      <c r="M16">
-        <v>1.8</v>
-      </c>
-      <c r="N16">
-        <v>3</v>
-      </c>
-      <c r="O16">
-        <v>3.4</v>
-      </c>
       <c r="P16">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="S16">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U16">
-        <v>2.025</v>
+        <v>1.87</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>2.03</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y16">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>1.05</v>
+        <v>0.98</v>
       </c>
       <c r="AB16">
-        <v>1.025</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6847831</v>
+        <v>6847826</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1981,28 +1981,28 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="L17">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M17">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N17">
         <v>3</v>
@@ -2011,26 +2011,26 @@
         <v>3.4</v>
       </c>
       <c r="P17">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q17">
         <v>0.25</v>
       </c>
       <c r="R17">
+        <v>1.8</v>
+      </c>
+      <c r="S17">
+        <v>2.05</v>
+      </c>
+      <c r="T17">
+        <v>2.75</v>
+      </c>
+      <c r="U17">
+        <v>2.025</v>
+      </c>
+      <c r="V17">
         <v>1.825</v>
       </c>
-      <c r="S17">
-        <v>2.025</v>
-      </c>
-      <c r="T17">
-        <v>2.5</v>
-      </c>
-      <c r="U17">
-        <v>1.9</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
       <c r="W17">
         <v>-1</v>
       </c>
@@ -2038,16 +2038,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.3</v>
+        <v>1.375</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
+        <v>1.05</v>
+      </c>
+      <c r="AB17">
         <v>1.025</v>
-      </c>
-      <c r="AB17">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6847832</v>
+        <v>6847831</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2070,73 +2070,73 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K18">
         <v>2.5</v>
       </c>
       <c r="L18">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N18">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O18">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.92</v>
+        <v>1.825</v>
       </c>
       <c r="S18">
-        <v>1.98</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.98</v>
+        <v>1.025</v>
       </c>
       <c r="AB18">
-        <v>0.8700000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K19">
         <v>1.333</v>
@@ -2260,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K20">
         <v>2.625</v>
@@ -2349,7 +2349,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K21">
         <v>4.2</v>
@@ -2429,7 +2429,7 @@
         <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2438,7 +2438,7 @@
         <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22">
         <v>1.666</v>
@@ -2518,7 +2518,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K23">
         <v>4.5</v>
@@ -2607,7 +2607,7 @@
         <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K24">
         <v>1.444</v>
@@ -2693,10 +2693,10 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2705,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K25">
         <v>3.1</v>
@@ -2770,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6847840</v>
+        <v>6847838</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2782,76 +2782,76 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26">
+        <v>1.8</v>
+      </c>
+      <c r="L26">
+        <v>3.8</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>1.833</v>
+      </c>
+      <c r="O26">
+        <v>3.75</v>
+      </c>
+      <c r="P26">
+        <v>4</v>
+      </c>
+      <c r="Q26">
+        <v>-0.5</v>
+      </c>
+      <c r="R26">
+        <v>1.85</v>
+      </c>
+      <c r="S26">
         <v>2</v>
       </c>
-      <c r="J26" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26">
-        <v>2.6</v>
-      </c>
-      <c r="L26">
-        <v>3.4</v>
-      </c>
-      <c r="M26">
-        <v>2.625</v>
-      </c>
-      <c r="N26">
-        <v>2.8</v>
-      </c>
-      <c r="O26">
-        <v>3.1</v>
-      </c>
-      <c r="P26">
-        <v>2.75</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>1.95</v>
-      </c>
-      <c r="S26">
-        <v>1.9</v>
-      </c>
       <c r="T26">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
+        <v>1.875</v>
+      </c>
+      <c r="V26">
         <v>1.975</v>
       </c>
-      <c r="V26">
-        <v>1.875</v>
-      </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
+        <v>-1</v>
+      </c>
+      <c r="AC26">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC26">
-        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6847838</v>
+        <v>6847840</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2871,76 +2871,76 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>2</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>51</v>
       </c>
       <c r="K27">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L27">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N27">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="O27">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S27">
+        <v>1.9</v>
+      </c>
+      <c r="T27">
         <v>2</v>
       </c>
-      <c r="T27">
-        <v>2.5</v>
-      </c>
       <c r="U27">
+        <v>1.975</v>
+      </c>
+      <c r="V27">
         <v>1.875</v>
       </c>
-      <c r="V27">
-        <v>1.975</v>
-      </c>
       <c r="W27">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z27">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC27">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2960,7 +2960,7 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
         <v>43</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K28">
         <v>1.909</v>
@@ -3061,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29">
         <v>2.3</v>
@@ -3138,10 +3138,10 @@
         <v>45163.66666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3150,7 +3150,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30">
         <v>3.6</v>
@@ -3230,7 +3230,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K31">
         <v>1.4</v>
@@ -3316,7 +3316,7 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
         <v>49</v>
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K32">
         <v>1.6</v>
@@ -3417,7 +3417,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K33">
         <v>1.4</v>
@@ -3482,7 +3482,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6847843</v>
+        <v>6847850</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3494,76 +3494,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" t="s">
         <v>51</v>
       </c>
       <c r="K34">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L34">
+        <v>3.4</v>
+      </c>
+      <c r="M34">
+        <v>2.8</v>
+      </c>
+      <c r="N34">
+        <v>2.2</v>
+      </c>
+      <c r="O34">
         <v>3.5</v>
       </c>
-      <c r="M34">
-        <v>3.75</v>
-      </c>
-      <c r="N34">
-        <v>2.15</v>
-      </c>
-      <c r="O34">
-        <v>3.3</v>
-      </c>
       <c r="P34">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q34">
         <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3583,7 +3583,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
         <v>44</v>
@@ -3595,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K35">
         <v>1.85</v>
@@ -3660,7 +3660,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6847850</v>
+        <v>6847843</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3672,76 +3672,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L36">
+        <v>3.5</v>
+      </c>
+      <c r="M36">
+        <v>3.75</v>
+      </c>
+      <c r="N36">
+        <v>2.15</v>
+      </c>
+      <c r="O36">
+        <v>3.3</v>
+      </c>
+      <c r="P36">
         <v>3.4</v>
-      </c>
-      <c r="M36">
-        <v>2.8</v>
-      </c>
-      <c r="N36">
-        <v>2.2</v>
-      </c>
-      <c r="O36">
-        <v>3.5</v>
-      </c>
-      <c r="P36">
-        <v>3.2</v>
       </c>
       <c r="Q36">
         <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA36">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3761,7 +3761,7 @@
         <v>45165.50347222222</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
         <v>47</v>
@@ -3773,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3850,7 +3850,7 @@
         <v>45165.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K38">
         <v>2.375</v>
@@ -3939,7 +3939,7 @@
         <v>45170.66666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -3951,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K39">
         <v>4.333</v>
@@ -4028,7 +4028,7 @@
         <v>45171.5</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
         <v>42</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K40">
         <v>4.2</v>
@@ -4117,7 +4117,7 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
         <v>49</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K41">
         <v>2.25</v>
@@ -4209,7 +4209,7 @@
         <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4218,7 +4218,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K42">
         <v>1.85</v>
@@ -4283,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6847858</v>
+        <v>6847853</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4295,76 +4295,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>53</v>
       </c>
       <c r="K43">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="L43">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="N43">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="O43">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P43">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q43">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T43">
         <v>2.75</v>
       </c>
       <c r="U43">
+        <v>1.875</v>
+      </c>
+      <c r="V43">
         <v>1.975</v>
       </c>
-      <c r="V43">
-        <v>1.875</v>
-      </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X43">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
+        <v>-1</v>
+      </c>
+      <c r="AC43">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC43">
-        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4372,7 +4372,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6847857</v>
+        <v>6847858</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4384,73 +4384,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K44">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="L44">
         <v>3.4</v>
       </c>
       <c r="M44">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N44">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="O44">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P44">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R44">
-        <v>1.82</v>
+        <v>1.875</v>
       </c>
       <c r="S44">
-        <v>2.11</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>2.09</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>1.81</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.8200000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>1.09</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4461,7 +4461,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6847853</v>
+        <v>6847857</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4473,59 +4473,59 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K45">
+        <v>2.7</v>
+      </c>
+      <c r="L45">
+        <v>3.4</v>
+      </c>
+      <c r="M45">
+        <v>2.5</v>
+      </c>
+      <c r="N45">
+        <v>2.6</v>
+      </c>
+      <c r="O45">
+        <v>3.2</v>
+      </c>
+      <c r="P45">
+        <v>2.875</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>1.82</v>
+      </c>
+      <c r="S45">
+        <v>2.11</v>
+      </c>
+      <c r="T45">
+        <v>2.25</v>
+      </c>
+      <c r="U45">
+        <v>2.09</v>
+      </c>
+      <c r="V45">
+        <v>1.81</v>
+      </c>
+      <c r="W45">
         <v>1.6</v>
       </c>
-      <c r="L45">
-        <v>4</v>
-      </c>
-      <c r="M45">
-        <v>5.25</v>
-      </c>
-      <c r="N45">
-        <v>1.909</v>
-      </c>
-      <c r="O45">
-        <v>3.75</v>
-      </c>
-      <c r="P45">
-        <v>3.75</v>
-      </c>
-      <c r="Q45">
-        <v>-0.5</v>
-      </c>
-      <c r="R45">
-        <v>1.925</v>
-      </c>
-      <c r="S45">
-        <v>1.925</v>
-      </c>
-      <c r="T45">
-        <v>2.75</v>
-      </c>
-      <c r="U45">
-        <v>1.875</v>
-      </c>
-      <c r="V45">
-        <v>1.975</v>
-      </c>
-      <c r="W45">
-        <v>0.909</v>
-      </c>
       <c r="X45">
         <v>-1</v>
       </c>
@@ -4533,16 +4533,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.925</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
       <c r="AC45">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4562,7 +4562,7 @@
         <v>45172.50347222222</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
         <v>43</v>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K46">
         <v>1.833</v>
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4663,7 +4663,7 @@
         <v>4</v>
       </c>
       <c r="J47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K47">
         <v>3.8</v>
@@ -4740,10 +4740,10 @@
         <v>45184.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4752,7 +4752,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K48">
         <v>1.444</v>
@@ -4841,7 +4841,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K49">
         <v>2.1</v>
@@ -4930,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -5007,10 +5007,10 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5019,7 +5019,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K51">
         <v>4</v>
@@ -5084,7 +5084,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6847861</v>
+        <v>6847866</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5096,46 +5096,46 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>51</v>
+      </c>
+      <c r="K52">
+        <v>1.95</v>
+      </c>
+      <c r="L52">
+        <v>3.5</v>
+      </c>
+      <c r="M52">
+        <v>3.7</v>
+      </c>
+      <c r="N52">
+        <v>1.85</v>
+      </c>
+      <c r="O52">
+        <v>3.75</v>
+      </c>
+      <c r="P52">
+        <v>4</v>
+      </c>
+      <c r="Q52">
+        <v>-0.5</v>
+      </c>
+      <c r="R52">
+        <v>1.85</v>
+      </c>
+      <c r="S52">
         <v>2</v>
-      </c>
-      <c r="I52">
-        <v>2</v>
-      </c>
-      <c r="J52" t="s">
-        <v>53</v>
-      </c>
-      <c r="K52">
-        <v>2.1</v>
-      </c>
-      <c r="L52">
-        <v>3.6</v>
-      </c>
-      <c r="M52">
-        <v>3.2</v>
-      </c>
-      <c r="N52">
-        <v>2.9</v>
-      </c>
-      <c r="O52">
-        <v>3.5</v>
-      </c>
-      <c r="P52">
-        <v>2.45</v>
-      </c>
-      <c r="Q52">
-        <v>0.25</v>
-      </c>
-      <c r="R52">
-        <v>1.8</v>
-      </c>
-      <c r="S52">
-        <v>2.05</v>
       </c>
       <c r="T52">
         <v>2.5</v>
@@ -5150,22 +5150,22 @@
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z52">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5185,10 +5185,10 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5197,7 +5197,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K53">
         <v>1.833</v>
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6847866</v>
+        <v>6847861</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,46 +5274,46 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G54" t="s">
         <v>40</v>
       </c>
-      <c r="G54" t="s">
-        <v>31</v>
-      </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
         <v>52</v>
       </c>
       <c r="K54">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L54">
+        <v>3.6</v>
+      </c>
+      <c r="M54">
+        <v>3.2</v>
+      </c>
+      <c r="N54">
+        <v>2.9</v>
+      </c>
+      <c r="O54">
         <v>3.5</v>
       </c>
-      <c r="M54">
-        <v>3.7</v>
-      </c>
-      <c r="N54">
-        <v>1.85</v>
-      </c>
-      <c r="O54">
-        <v>3.75</v>
-      </c>
       <c r="P54">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T54">
         <v>2.5</v>
@@ -5328,22 +5328,22 @@
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y54">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA54">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC54">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K55">
         <v>1.45</v>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5541,10 +5541,10 @@
         <v>45191.66666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5553,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K57">
         <v>1.909</v>
@@ -5630,10 +5630,10 @@
         <v>45192.5</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H58">
         <v>5</v>
@@ -5642,7 +5642,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K58">
         <v>2.2</v>
@@ -5719,7 +5719,7 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K59">
         <v>2.8</v>
@@ -5820,7 +5820,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K60">
         <v>3.1</v>
@@ -5885,7 +5885,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6847872</v>
+        <v>6847874</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5897,10 +5897,10 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5909,46 +5909,46 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K61">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M61">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="N61">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="O61">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P61">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q61">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S61">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U61">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W61">
-        <v>0.3999999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5957,16 +5957,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA61">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AC61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6847874</v>
+        <v>6847872</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5986,10 +5986,10 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G62" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -5998,46 +5998,46 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K62">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="L62">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M62">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="N62">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="O62">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P62">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R62">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T62">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
-        <v>1.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6046,16 +6046,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB62">
-        <v>0.925</v>
+        <v>0.5125</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6075,7 +6075,7 @@
         <v>45193.50347222222</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
         <v>42</v>
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K63">
         <v>2.75</v>
@@ -6164,7 +6164,7 @@
         <v>45193.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
         <v>39</v>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K64">
         <v>1.666</v>
@@ -6256,7 +6256,7 @@
         <v>47</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6265,7 +6265,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K65">
         <v>1.75</v>
@@ -6354,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K66">
         <v>2.9</v>
@@ -6431,10 +6431,10 @@
         <v>45199.5</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6443,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K67">
         <v>5</v>
@@ -6520,7 +6520,7 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
         <v>39</v>
@@ -6532,7 +6532,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K68">
         <v>2.375</v>
@@ -6609,7 +6609,7 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
         <v>45</v>
@@ -6621,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K69">
         <v>2.2</v>
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6847883</v>
+        <v>6847880</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6698,13 +6698,13 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6713,61 +6713,61 @@
         <v>53</v>
       </c>
       <c r="K70">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="L70">
         <v>4</v>
       </c>
       <c r="M70">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N70">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O70">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
         <v>4.2</v>
       </c>
       <c r="Q70">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S70">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
         <v>2.5</v>
       </c>
       <c r="U70">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V70">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X70">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA70">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC70">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6775,7 +6775,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6847886</v>
+        <v>6847883</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6787,76 +6787,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
         <v>52</v>
       </c>
       <c r="K71">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="L71">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M71">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="N71">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="O71">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P71">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q71">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T71">
         <v>2.5</v>
       </c>
       <c r="U71">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V71">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6864,7 +6864,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6847880</v>
+        <v>6847886</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6876,76 +6876,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G72" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
         <v>51</v>
       </c>
       <c r="K72">
+        <v>4.5</v>
+      </c>
+      <c r="L72">
+        <v>3.75</v>
+      </c>
+      <c r="M72">
         <v>1.727</v>
       </c>
-      <c r="L72">
-        <v>4</v>
-      </c>
-      <c r="M72">
-        <v>4.2</v>
-      </c>
       <c r="N72">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="O72">
         <v>3.6</v>
       </c>
       <c r="P72">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q72">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R72">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S72">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T72">
         <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z72">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6965,10 +6965,10 @@
         <v>45200.50347222222</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -6977,7 +6977,7 @@
         <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K73">
         <v>2.8</v>
@@ -7057,7 +7057,7 @@
         <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7066,7 +7066,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K74">
         <v>1.533</v>
@@ -7146,7 +7146,7 @@
         <v>43</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7155,7 +7155,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K75">
         <v>1.95</v>
@@ -7235,7 +7235,7 @@
         <v>44</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7244,7 +7244,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K76">
         <v>4.2</v>
@@ -7321,10 +7321,10 @@
         <v>45206.66666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7333,7 +7333,7 @@
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K77">
         <v>2.55</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K78">
         <v>1.45</v>
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6847888</v>
+        <v>6847892</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,61 +7499,61 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K79">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L79">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M79">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N79">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O79">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P79">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q79">
         <v>-0.75</v>
       </c>
       <c r="R79">
+        <v>1.95</v>
+      </c>
+      <c r="S79">
+        <v>1.9</v>
+      </c>
+      <c r="T79">
+        <v>2.75</v>
+      </c>
+      <c r="U79">
         <v>1.875</v>
       </c>
-      <c r="S79">
+      <c r="V79">
         <v>1.975</v>
       </c>
-      <c r="T79">
-        <v>2.5</v>
-      </c>
-      <c r="U79">
-        <v>2.025</v>
-      </c>
-      <c r="V79">
-        <v>1.825</v>
-      </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y79">
         <v>-1</v>
@@ -7562,13 +7562,13 @@
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC79">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7576,7 +7576,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6847892</v>
+        <v>6847888</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7588,62 +7588,62 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K80">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L80">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M80">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N80">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O80">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P80">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q80">
         <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S80">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T80">
+        <v>2.5</v>
+      </c>
+      <c r="U80">
+        <v>2.025</v>
+      </c>
+      <c r="V80">
+        <v>1.825</v>
+      </c>
+      <c r="W80">
+        <v>-1</v>
+      </c>
+      <c r="X80">
         <v>2.75</v>
       </c>
-      <c r="U80">
-        <v>1.875</v>
-      </c>
-      <c r="V80">
-        <v>1.975</v>
-      </c>
-      <c r="W80">
-        <v>-1</v>
-      </c>
-      <c r="X80">
-        <v>2.8</v>
-      </c>
       <c r="Y80">
         <v>-1</v>
       </c>
@@ -7651,13 +7651,13 @@
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB80">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7689,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K81">
         <v>2.35</v>
@@ -7769,7 +7769,7 @@
         <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7778,7 +7778,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K82">
         <v>3.5</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K83">
         <v>3.4</v>
@@ -7944,7 +7944,7 @@
         <v>45220.5</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
         <v>43</v>
@@ -7956,7 +7956,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K84">
         <v>1.285</v>
@@ -8033,7 +8033,7 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
         <v>39</v>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K85">
         <v>2.375</v>
@@ -8122,7 +8122,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8134,7 +8134,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K86">
         <v>3.8</v>
@@ -8199,7 +8199,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6847900</v>
+        <v>6847897</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8211,76 +8211,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K87">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="N87">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O87">
         <v>3.4</v>
       </c>
       <c r="P87">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S87">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
         <v>2.5</v>
       </c>
       <c r="U87">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8288,7 +8288,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6847897</v>
+        <v>6847903</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8300,76 +8300,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>53</v>
       </c>
       <c r="K88">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L88">
         <v>3.4</v>
       </c>
       <c r="M88">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="N88">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P88">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X88">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA88">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6847903</v>
+        <v>6847900</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,40 +8389,40 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K89">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L89">
+        <v>3.75</v>
+      </c>
+      <c r="M89">
+        <v>5</v>
+      </c>
+      <c r="N89">
+        <v>1.85</v>
+      </c>
+      <c r="O89">
         <v>3.4</v>
       </c>
-      <c r="M89">
-        <v>2.3</v>
-      </c>
-      <c r="N89">
-        <v>3.1</v>
-      </c>
-      <c r="O89">
-        <v>3.5</v>
-      </c>
       <c r="P89">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
         <v>1.875</v>
@@ -8431,16 +8431,16 @@
         <v>1.975</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V89">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
-        <v>2.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8458,7 +8458,7 @@
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8478,7 +8478,7 @@
         <v>45221.50347222222</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
         <v>44</v>
@@ -8490,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K90">
         <v>1.363</v>
@@ -8570,7 +8570,7 @@
         <v>45</v>
       </c>
       <c r="G91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8579,7 +8579,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K91">
         <v>1.7</v>
@@ -8656,10 +8656,10 @@
         <v>45226.66666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8668,7 +8668,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K92">
         <v>3.75</v>
@@ -8745,10 +8745,10 @@
         <v>45227.5</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K93">
         <v>1.75</v>
@@ -8837,7 +8837,7 @@
         <v>49</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -8846,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K94">
         <v>1.615</v>
@@ -8923,10 +8923,10 @@
         <v>45228.375</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8935,7 +8935,7 @@
         <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K95">
         <v>6</v>
@@ -9015,7 +9015,7 @@
         <v>47</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K96">
         <v>2.2</v>
@@ -9113,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K97">
         <v>2.25</v>
@@ -9190,7 +9190,7 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
         <v>46</v>
@@ -9202,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K98">
         <v>1.869</v>
@@ -9291,7 +9291,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K99">
         <v>1.727</v>
@@ -9368,10 +9368,10 @@
         <v>45233.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9380,7 +9380,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K100">
         <v>1.333</v>
@@ -9457,7 +9457,7 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
         <v>49</v>
@@ -9469,7 +9469,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K101">
         <v>3.8</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K102">
         <v>2.05</v>
@@ -9647,7 +9647,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K103">
         <v>1.615</v>
@@ -9736,7 +9736,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K104">
         <v>2.05</v>
@@ -9816,7 +9816,7 @@
         <v>43</v>
       </c>
       <c r="G105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K105">
         <v>2.25</v>
@@ -9902,10 +9902,10 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -9914,7 +9914,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K106">
         <v>2.9</v>
@@ -9991,10 +9991,10 @@
         <v>45235.54513888889</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10003,7 +10003,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K107">
         <v>1.533</v>
@@ -10080,7 +10080,7 @@
         <v>45235.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s">
         <v>42</v>
@@ -10092,7 +10092,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K108">
         <v>2.15</v>
@@ -10169,10 +10169,10 @@
         <v>45240.70833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K109">
         <v>3.2</v>
@@ -10258,10 +10258,10 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K110">
         <v>4.333</v>
@@ -10350,7 +10350,7 @@
         <v>48</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10359,7 +10359,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K111">
         <v>3.8</v>
@@ -10439,7 +10439,7 @@
         <v>44</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H112">
         <v>3</v>
@@ -10448,7 +10448,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K112">
         <v>2.75</v>
@@ -10525,10 +10525,10 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G113" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K113">
         <v>2</v>
@@ -10626,7 +10626,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K114">
         <v>1.5</v>
@@ -10715,7 +10715,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K115">
         <v>1.7</v>
@@ -10804,7 +10804,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K116">
         <v>2.375</v>
@@ -10881,10 +10881,10 @@
         <v>45254.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>5</v>
@@ -10893,7 +10893,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K117">
         <v>1.45</v>
@@ -10970,7 +10970,7 @@
         <v>45255.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
         <v>49</v>
@@ -10982,7 +10982,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K118">
         <v>3.4</v>
@@ -11071,7 +11071,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K119">
         <v>3.8</v>
@@ -11148,7 +11148,7 @@
         <v>45256.375</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
         <v>46</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K120">
         <v>1.55</v>
@@ -11237,7 +11237,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
         <v>44</v>
@@ -11249,7 +11249,7 @@
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K121">
         <v>1.95</v>
@@ -11314,7 +11314,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6847939</v>
+        <v>6847940</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11326,40 +11326,40 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K122">
         <v>2.15</v>
       </c>
       <c r="L122">
+        <v>3.4</v>
+      </c>
+      <c r="M122">
+        <v>3.25</v>
+      </c>
+      <c r="N122">
+        <v>2.25</v>
+      </c>
+      <c r="O122">
         <v>3.3</v>
       </c>
-      <c r="M122">
-        <v>3.4</v>
-      </c>
-      <c r="N122">
-        <v>1.95</v>
-      </c>
-      <c r="O122">
+      <c r="P122">
         <v>3.25</v>
       </c>
-      <c r="P122">
-        <v>4.333</v>
-      </c>
       <c r="Q122">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
         <v>1.95</v>
@@ -11368,22 +11368,22 @@
         <v>1.9</v>
       </c>
       <c r="T122">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V122">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
+        <v>-1</v>
+      </c>
+      <c r="Y122">
         <v>2.25</v>
-      </c>
-      <c r="Y122">
-        <v>-1</v>
       </c>
       <c r="Z122">
         <v>-1</v>
@@ -11392,10 +11392,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC122">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11403,7 +11403,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6847940</v>
+        <v>6847939</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11415,16 +11415,16 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
         <v>52</v>
@@ -11433,22 +11433,22 @@
         <v>2.15</v>
       </c>
       <c r="L123">
+        <v>3.3</v>
+      </c>
+      <c r="M123">
         <v>3.4</v>
       </c>
-      <c r="M123">
+      <c r="N123">
+        <v>1.95</v>
+      </c>
+      <c r="O123">
         <v>3.25</v>
       </c>
-      <c r="N123">
-        <v>2.25</v>
-      </c>
-      <c r="O123">
-        <v>3.3</v>
-      </c>
       <c r="P123">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R123">
         <v>1.95</v>
@@ -11457,22 +11457,22 @@
         <v>1.9</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U123">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y123">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
         <v>-1</v>
@@ -11481,10 +11481,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11507,7 +11507,7 @@
         <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11516,7 +11516,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K124">
         <v>1.8</v>
@@ -11605,7 +11605,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K125">
         <v>3.1</v>
@@ -11682,10 +11682,10 @@
         <v>45259.625</v>
       </c>
       <c r="F126" t="s">
+        <v>40</v>
+      </c>
+      <c r="G126" t="s">
         <v>41</v>
-      </c>
-      <c r="G126" t="s">
-        <v>40</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11694,7 +11694,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K126">
         <v>1.909</v>
@@ -11771,7 +11771,7 @@
         <v>45261.70833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G127" t="s">
         <v>43</v>
@@ -11783,7 +11783,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K127">
         <v>1.833</v>
@@ -11872,7 +11872,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K128">
         <v>1.833</v>
@@ -11949,10 +11949,10 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -11961,7 +11961,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K129">
         <v>3.8</v>
@@ -12041,7 +12041,7 @@
         <v>48</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12050,7 +12050,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K130">
         <v>9</v>
@@ -12115,7 +12115,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6847941</v>
+        <v>6847943</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12127,76 +12127,76 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
         <v>53</v>
       </c>
       <c r="K131">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L131">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M131">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N131">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P131">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.99</v>
       </c>
       <c r="S131">
-        <v>1.875</v>
+        <v>1.94</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V131">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X131">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AA131">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12204,7 +12204,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6847943</v>
+        <v>6847941</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12216,76 +12216,76 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F132" t="s">
+        <v>46</v>
+      </c>
+      <c r="G132" t="s">
         <v>35</v>
       </c>
-      <c r="G132" t="s">
-        <v>41</v>
-      </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K132">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L132">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M132">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N132">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O132">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P132">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
-        <v>1.99</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.94</v>
+        <v>1.875</v>
       </c>
       <c r="T132">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V132">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12305,10 +12305,10 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H133">
         <v>3</v>
@@ -12317,7 +12317,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K133">
         <v>1.833</v>
@@ -12406,7 +12406,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K134">
         <v>1.4</v>
@@ -12495,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K135">
         <v>1.909</v>
@@ -12584,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K136">
         <v>1.7</v>
@@ -12661,7 +12661,7 @@
         <v>45267.6875</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
         <v>43</v>
@@ -12673,7 +12673,7 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K137">
         <v>2</v>
@@ -12750,7 +12750,7 @@
         <v>45268.70833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
         <v>49</v>
@@ -12762,7 +12762,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K138">
         <v>3</v>
@@ -12842,7 +12842,7 @@
         <v>42</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12851,7 +12851,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K139">
         <v>2.55</v>
@@ -12928,10 +12928,10 @@
         <v>45269.70833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -12940,7 +12940,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K140">
         <v>1.2</v>
@@ -13017,10 +13017,10 @@
         <v>45270.375</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13029,7 +13029,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K141">
         <v>1.75</v>
@@ -13094,7 +13094,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6847957</v>
+        <v>6847951</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13106,76 +13106,76 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K142">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L142">
         <v>3.2</v>
       </c>
       <c r="M142">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N142">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="O142">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P142">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.975</v>
+        <v>2.02</v>
       </c>
       <c r="S142">
-        <v>1.875</v>
+        <v>1.88</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U142">
-        <v>2.025</v>
+        <v>1.86</v>
       </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>2.04</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA142">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13183,7 +13183,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6847951</v>
+        <v>6847956</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13195,76 +13195,76 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K143">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L143">
         <v>3.2</v>
       </c>
       <c r="M143">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="N143">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="O143">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P143">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R143">
-        <v>2.02</v>
+        <v>1.975</v>
       </c>
       <c r="S143">
-        <v>1.88</v>
+        <v>1.875</v>
       </c>
       <c r="T143">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V143">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1.02</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13272,7 +13272,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6847956</v>
+        <v>6847957</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13284,40 +13284,40 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G144" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K144">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L144">
         <v>3.2</v>
       </c>
       <c r="M144">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="N144">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="O144">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P144">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="Q144">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
         <v>1.975</v>
@@ -13326,34 +13326,34 @@
         <v>1.875</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z144">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13385,7 +13385,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K145">
         <v>1.85</v>
@@ -13462,7 +13462,7 @@
         <v>45270.69791666666</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
         <v>39</v>
@@ -13474,7 +13474,7 @@
         <v>4</v>
       </c>
       <c r="J146" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K146">
         <v>4.5</v>
@@ -13551,7 +13551,7 @@
         <v>45275.70833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G147" t="s">
         <v>45</v>
@@ -13563,7 +13563,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K147">
         <v>1.571</v>
@@ -13643,7 +13643,7 @@
         <v>48</v>
       </c>
       <c r="G148" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -13652,7 +13652,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K148">
         <v>4.333</v>
@@ -13732,7 +13732,7 @@
         <v>49</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13741,7 +13741,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K149">
         <v>1.8</v>
@@ -13818,10 +13818,10 @@
         <v>45277.375</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13830,7 +13830,7 @@
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K150">
         <v>2.5</v>
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6847967</v>
+        <v>6847961</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,55 +13907,55 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K151">
+        <v>2.3</v>
+      </c>
+      <c r="L151">
+        <v>3.25</v>
+      </c>
+      <c r="M151">
+        <v>3.1</v>
+      </c>
+      <c r="N151">
+        <v>2.375</v>
+      </c>
+      <c r="O151">
         <v>3.2</v>
       </c>
-      <c r="L151">
-        <v>3.5</v>
-      </c>
-      <c r="M151">
-        <v>2.15</v>
-      </c>
-      <c r="N151">
-        <v>3.3</v>
-      </c>
-      <c r="O151">
-        <v>3.25</v>
-      </c>
       <c r="P151">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R151">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S151">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T151">
         <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V151">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W151">
         <v>-1</v>
@@ -13964,19 +13964,19 @@
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC151">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14008,7 +14008,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K152">
         <v>3.2</v>
@@ -14073,7 +14073,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6847961</v>
+        <v>6847967</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14085,55 +14085,55 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
         <v>1</v>
       </c>
-      <c r="I153">
+      <c r="J153" t="s">
+        <v>51</v>
+      </c>
+      <c r="K153">
+        <v>3.2</v>
+      </c>
+      <c r="L153">
+        <v>3.5</v>
+      </c>
+      <c r="M153">
+        <v>2.15</v>
+      </c>
+      <c r="N153">
+        <v>3.3</v>
+      </c>
+      <c r="O153">
+        <v>3.25</v>
+      </c>
+      <c r="P153">
+        <v>2.25</v>
+      </c>
+      <c r="Q153">
+        <v>0.25</v>
+      </c>
+      <c r="R153">
+        <v>1.85</v>
+      </c>
+      <c r="S153">
         <v>2</v>
-      </c>
-      <c r="J153" t="s">
-        <v>52</v>
-      </c>
-      <c r="K153">
-        <v>2.3</v>
-      </c>
-      <c r="L153">
-        <v>3.25</v>
-      </c>
-      <c r="M153">
-        <v>3.1</v>
-      </c>
-      <c r="N153">
-        <v>2.375</v>
-      </c>
-      <c r="O153">
-        <v>3.2</v>
-      </c>
-      <c r="P153">
-        <v>3.1</v>
-      </c>
-      <c r="Q153">
-        <v>-0.25</v>
-      </c>
-      <c r="R153">
-        <v>2.075</v>
-      </c>
-      <c r="S153">
-        <v>1.725</v>
       </c>
       <c r="T153">
         <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V153">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W153">
         <v>-1</v>
@@ -14142,19 +14142,19 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14177,7 +14177,7 @@
         <v>39</v>
       </c>
       <c r="G154" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14186,7 +14186,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K154">
         <v>1.45</v>
@@ -14266,7 +14266,7 @@
         <v>47</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14275,7 +14275,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K155">
         <v>4</v>
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6847969</v>
+        <v>7579908</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,73 +14352,73 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J156" t="s">
         <v>51</v>
       </c>
       <c r="K156">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L156">
         <v>3.3</v>
       </c>
       <c r="M156">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="N156">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O156">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P156">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="Q156">
         <v>0.25</v>
       </c>
       <c r="R156">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S156">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U156">
-        <v>2.025</v>
+        <v>2.11</v>
       </c>
       <c r="V156">
-        <v>1.825</v>
+        <v>1.79</v>
       </c>
       <c r="W156">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z156">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AB156">
-        <v>1.025</v>
+        <v>1.11</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6847968</v>
+        <v>6847972</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,58 +14441,58 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K157">
-        <v>1.142</v>
+        <v>2.2</v>
       </c>
       <c r="L157">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="M157">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="N157">
-        <v>1.111</v>
+        <v>2.25</v>
       </c>
       <c r="O157">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="P157">
-        <v>23</v>
+        <v>3.3</v>
       </c>
       <c r="Q157">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="S157">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="T157">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U157">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="V157">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="W157">
-        <v>0.111</v>
+        <v>1.25</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14501,16 +14501,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
+        <v>0.99</v>
+      </c>
+      <c r="AA157">
+        <v>-1</v>
+      </c>
+      <c r="AB157">
         <v>-0.5</v>
       </c>
-      <c r="AA157">
-        <v>0.53</v>
-      </c>
-      <c r="AB157">
-        <v>0.8700000000000001</v>
-      </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14518,7 +14518,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6847970</v>
+        <v>6847971</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14530,76 +14530,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K158">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="L158">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M158">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="N158">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="O158">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P158">
-        <v>1.85</v>
+        <v>4.333</v>
       </c>
       <c r="Q158">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S158">
-        <v>1.875</v>
+        <v>1.98</v>
       </c>
       <c r="T158">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.925</v>
+        <v>2.02</v>
       </c>
       <c r="V158">
-        <v>1.925</v>
+        <v>1.88</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA158">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-0</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14607,7 +14607,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6847975</v>
+        <v>6847974</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14619,46 +14619,46 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H159">
         <v>1</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
         <v>53</v>
       </c>
       <c r="K159">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="L159">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M159">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="N159">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="O159">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P159">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="Q159">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R159">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S159">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T159">
         <v>2.5</v>
@@ -14670,19 +14670,19 @@
         <v>1.925</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X159">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB159">
         <v>-1</v>
@@ -14696,7 +14696,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6847971</v>
+        <v>6847975</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14708,67 +14708,67 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H160">
         <v>1</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K160">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M160">
+        <v>2.1</v>
+      </c>
+      <c r="N160">
         <v>4</v>
-      </c>
-      <c r="N160">
-        <v>1.8</v>
       </c>
       <c r="O160">
         <v>3.6</v>
       </c>
       <c r="P160">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="Q160">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R160">
+        <v>1.9</v>
+      </c>
+      <c r="S160">
         <v>1.95</v>
-      </c>
-      <c r="S160">
-        <v>1.98</v>
       </c>
       <c r="T160">
         <v>2.5</v>
       </c>
       <c r="U160">
-        <v>2.02</v>
+        <v>1.925</v>
       </c>
       <c r="V160">
-        <v>1.88</v>
+        <v>1.925</v>
       </c>
       <c r="W160">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA160">
         <v>-1</v>
@@ -14777,7 +14777,7 @@
         <v>-1</v>
       </c>
       <c r="AC160">
-        <v>0.8799999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6847974</v>
+        <v>6847968</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,58 +14797,58 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H161">
+        <v>3</v>
+      </c>
+      <c r="I161">
         <v>1</v>
       </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
       <c r="J161" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K161">
-        <v>1.65</v>
+        <v>1.142</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M161">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N161">
-        <v>1.727</v>
+        <v>1.111</v>
       </c>
       <c r="O161">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="P161">
-        <v>4.75</v>
+        <v>23</v>
       </c>
       <c r="Q161">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R161">
-        <v>1.975</v>
+        <v>1.87</v>
       </c>
       <c r="S161">
-        <v>1.875</v>
+        <v>2.06</v>
       </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U161">
-        <v>1.925</v>
+        <v>1.87</v>
       </c>
       <c r="V161">
-        <v>1.925</v>
+        <v>2.03</v>
       </c>
       <c r="W161">
-        <v>0.7270000000000001</v>
+        <v>0.111</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14857,16 +14857,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA161">
-        <v>-0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC161">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6847976</v>
+        <v>6847969</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,46 +14886,46 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G162" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H162">
+        <v>2</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162" t="s">
+        <v>53</v>
+      </c>
+      <c r="K162">
         <v>4</v>
       </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
-      <c r="J162" t="s">
-        <v>51</v>
-      </c>
-      <c r="K162">
-        <v>1.615</v>
-      </c>
       <c r="L162">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M162">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N162">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="O162">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P162">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q162">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R162">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S162">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T162">
         <v>2.5</v>
@@ -14937,7 +14937,7 @@
         <v>1.825</v>
       </c>
       <c r="W162">
-        <v>0.6499999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14946,7 +14946,7 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA162">
         <v>-1</v>
@@ -14963,7 +14963,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7579908</v>
+        <v>6847976</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14975,73 +14975,73 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K163">
-        <v>3.25</v>
+        <v>1.615</v>
       </c>
       <c r="L163">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M163">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="N163">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O163">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P163">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="Q163">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R163">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S163">
-        <v>2.08</v>
+        <v>1.975</v>
       </c>
       <c r="T163">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>2.11</v>
+        <v>2.025</v>
       </c>
       <c r="V163">
-        <v>1.79</v>
+        <v>1.825</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA163">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>1.11</v>
+        <v>1.025</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15052,7 +15052,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6847972</v>
+        <v>6847970</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15064,76 +15064,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G164" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
         <v>2</v>
-      </c>
-      <c r="I164">
-        <v>0</v>
       </c>
       <c r="J164" t="s">
         <v>51</v>
       </c>
       <c r="K164">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="L164">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M164">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="N164">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="O164">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P164">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R164">
-        <v>1.99</v>
+        <v>1.975</v>
       </c>
       <c r="S164">
-        <v>1.94</v>
+        <v>1.875</v>
       </c>
       <c r="T164">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U164">
-        <v>1.99</v>
+        <v>1.925</v>
       </c>
       <c r="V164">
-        <v>1.91</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z164">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC164">
-        <v>0.455</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15165,7 +15165,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K165">
         <v>1.363</v>
@@ -15242,10 +15242,10 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G166" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15254,7 +15254,7 @@
         <v>3</v>
       </c>
       <c r="J166" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K166">
         <v>1.727</v>
@@ -15334,7 +15334,7 @@
         <v>42</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15343,7 +15343,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K167">
         <v>2.5</v>
@@ -15423,7 +15423,7 @@
         <v>47</v>
       </c>
       <c r="G168" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -15432,7 +15432,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K168">
         <v>1.363</v>
@@ -15509,10 +15509,10 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -15521,7 +15521,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K169">
         <v>1.8</v>
@@ -15598,10 +15598,10 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15610,7 +15610,7 @@
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K170">
         <v>1.95</v>
@@ -15699,7 +15699,7 @@
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K171">
         <v>2.9</v>
@@ -15788,7 +15788,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K172">
         <v>3</v>
@@ -15868,7 +15868,7 @@
         <v>49</v>
       </c>
       <c r="G173" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -15877,7 +15877,7 @@
         <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K173">
         <v>3.6</v>
@@ -15966,7 +15966,7 @@
         <v>3</v>
       </c>
       <c r="J174" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K174">
         <v>2.25</v>
@@ -16043,7 +16043,7 @@
         <v>45318.54166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16055,7 +16055,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K175">
         <v>1.4</v>
@@ -16135,7 +16135,7 @@
         <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16144,7 +16144,7 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K176">
         <v>2</v>
@@ -16221,7 +16221,7 @@
         <v>45319.375</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G177" t="s">
         <v>47</v>
@@ -16233,7 +16233,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K177">
         <v>2.8</v>
@@ -16298,7 +16298,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6847989</v>
+        <v>6847993</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16310,76 +16310,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G178" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K178">
+        <v>2</v>
+      </c>
+      <c r="L178">
+        <v>3.5</v>
+      </c>
+      <c r="M178">
+        <v>3.6</v>
+      </c>
+      <c r="N178">
+        <v>1.95</v>
+      </c>
+      <c r="O178">
+        <v>3.4</v>
+      </c>
+      <c r="P178">
+        <v>4</v>
+      </c>
+      <c r="Q178">
+        <v>-0.5</v>
+      </c>
+      <c r="R178">
+        <v>2</v>
+      </c>
+      <c r="S178">
+        <v>1.93</v>
+      </c>
+      <c r="T178">
         <v>2.5</v>
       </c>
-      <c r="L178">
-        <v>3.25</v>
-      </c>
-      <c r="M178">
-        <v>2.8</v>
-      </c>
-      <c r="N178">
-        <v>3.1</v>
-      </c>
-      <c r="O178">
-        <v>3.1</v>
-      </c>
-      <c r="P178">
-        <v>2.5</v>
-      </c>
-      <c r="Q178">
-        <v>0.25</v>
-      </c>
-      <c r="R178">
-        <v>1.81</v>
-      </c>
-      <c r="S178">
-        <v>2.125</v>
-      </c>
-      <c r="T178">
-        <v>2</v>
-      </c>
       <c r="U178">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="V178">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.405</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-0.5</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB178">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16399,7 +16399,7 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
         <v>43</v>
@@ -16411,7 +16411,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K179">
         <v>2.8</v>
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6847993</v>
+        <v>6847989</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,76 +16488,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K180">
+        <v>2.5</v>
+      </c>
+      <c r="L180">
+        <v>3.25</v>
+      </c>
+      <c r="M180">
+        <v>2.8</v>
+      </c>
+      <c r="N180">
+        <v>3.1</v>
+      </c>
+      <c r="O180">
+        <v>3.1</v>
+      </c>
+      <c r="P180">
+        <v>2.5</v>
+      </c>
+      <c r="Q180">
+        <v>0.25</v>
+      </c>
+      <c r="R180">
+        <v>1.81</v>
+      </c>
+      <c r="S180">
+        <v>2.125</v>
+      </c>
+      <c r="T180">
         <v>2</v>
       </c>
-      <c r="L180">
-        <v>3.5</v>
-      </c>
-      <c r="M180">
-        <v>3.6</v>
-      </c>
-      <c r="N180">
-        <v>1.95</v>
-      </c>
-      <c r="O180">
-        <v>3.4</v>
-      </c>
-      <c r="P180">
-        <v>4</v>
-      </c>
-      <c r="Q180">
+      <c r="U180">
+        <v>2</v>
+      </c>
+      <c r="V180">
+        <v>1.9</v>
+      </c>
+      <c r="W180">
+        <v>-1</v>
+      </c>
+      <c r="X180">
+        <v>2.1</v>
+      </c>
+      <c r="Y180">
+        <v>-1</v>
+      </c>
+      <c r="Z180">
+        <v>0.405</v>
+      </c>
+      <c r="AA180">
         <v>-0.5</v>
       </c>
-      <c r="R180">
-        <v>2</v>
-      </c>
-      <c r="S180">
-        <v>1.93</v>
-      </c>
-      <c r="T180">
-        <v>2.5</v>
-      </c>
-      <c r="U180">
-        <v>2.07</v>
-      </c>
-      <c r="V180">
-        <v>1.83</v>
-      </c>
-      <c r="W180">
-        <v>-1</v>
-      </c>
-      <c r="X180">
-        <v>2.4</v>
-      </c>
-      <c r="Y180">
-        <v>-1</v>
-      </c>
-      <c r="Z180">
-        <v>-1</v>
-      </c>
-      <c r="AA180">
-        <v>0.9299999999999999</v>
-      </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC180">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16589,7 +16589,7 @@
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K181">
         <v>3.4</v>
@@ -16666,10 +16666,10 @@
         <v>45319.69791666666</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16678,7 +16678,7 @@
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K182">
         <v>1.25</v>
@@ -16758,7 +16758,7 @@
         <v>43</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16767,7 +16767,7 @@
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K183">
         <v>6</v>
@@ -16847,7 +16847,7 @@
         <v>42</v>
       </c>
       <c r="G184" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16856,7 +16856,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K184">
         <v>2</v>
@@ -16933,7 +16933,7 @@
         <v>45325.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
         <v>49</v>
@@ -16945,7 +16945,7 @@
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K185">
         <v>3.5</v>
@@ -17022,7 +17022,7 @@
         <v>45326.375</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
         <v>48</v>
@@ -17034,7 +17034,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K186">
         <v>1.5</v>
@@ -17114,7 +17114,7 @@
         <v>47</v>
       </c>
       <c r="G187" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H187">
         <v>4</v>
@@ -17123,7 +17123,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K187">
         <v>1.4</v>
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7728864</v>
+        <v>7728866</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,40 +17200,40 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G188" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188">
         <v>2</v>
       </c>
-      <c r="I188">
-        <v>3</v>
-      </c>
       <c r="J188" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K188">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L188">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M188">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="N188">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O188">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P188">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q188">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
         <v>2.05</v>
@@ -17242,13 +17242,13 @@
         <v>1.8</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U188">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V188">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
         <v>-1</v>
@@ -17257,7 +17257,7 @@
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Z188">
         <v>-1</v>
@@ -17266,7 +17266,7 @@
         <v>0.8</v>
       </c>
       <c r="AB188">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17277,7 +17277,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7728866</v>
+        <v>7728864</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17289,40 +17289,40 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J189" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K189">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L189">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M189">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N189">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O189">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P189">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q189">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R189">
         <v>2.05</v>
@@ -17331,13 +17331,13 @@
         <v>1.8</v>
       </c>
       <c r="T189">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W189">
         <v>-1</v>
@@ -17346,7 +17346,7 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Z189">
         <v>-1</v>
@@ -17355,7 +17355,7 @@
         <v>0.8</v>
       </c>
       <c r="AB189">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17378,11 +17378,11 @@
         <v>45326.54513888889</v>
       </c>
       <c r="F190" t="s">
+        <v>29</v>
+      </c>
+      <c r="G190" t="s">
         <v>37</v>
       </c>
-      <c r="G190" t="s">
-        <v>29</v>
-      </c>
       <c r="H190">
         <v>0</v>
       </c>
@@ -17390,7 +17390,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K190">
         <v>2.6</v>
@@ -17479,7 +17479,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K191">
         <v>2.8</v>
@@ -17568,7 +17568,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K192">
         <v>1.363</v>
@@ -17657,7 +17657,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K193">
         <v>1.666</v>
@@ -17734,7 +17734,7 @@
         <v>45332.70833333334</v>
       </c>
       <c r="F194" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G194" t="s">
         <v>47</v>
@@ -17746,7 +17746,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K194">
         <v>1.5</v>
@@ -17835,7 +17835,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K195">
         <v>3.75</v>
@@ -17912,10 +17912,10 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17924,7 +17924,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K196">
         <v>3.1</v>
@@ -18001,10 +18001,10 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H197">
         <v>2</v>
@@ -18013,7 +18013,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K197">
         <v>3.3</v>
@@ -18093,7 +18093,7 @@
         <v>46</v>
       </c>
       <c r="G198" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18102,7 +18102,7 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K198">
         <v>2.25</v>
@@ -18179,7 +18179,7 @@
         <v>45333.54513888889</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G199" t="s">
         <v>45</v>
@@ -18191,7 +18191,7 @@
         <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K199">
         <v>2.6</v>
@@ -18268,10 +18268,10 @@
         <v>45333.69791666666</v>
       </c>
       <c r="F200" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18280,7 +18280,7 @@
         <v>3</v>
       </c>
       <c r="J200" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K200">
         <v>2.3</v>
@@ -18360,7 +18360,7 @@
         <v>45</v>
       </c>
       <c r="G201" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18369,7 +18369,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K201">
         <v>2.625</v>
@@ -18446,10 +18446,10 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F202" t="s">
+        <v>32</v>
+      </c>
+      <c r="G202" t="s">
         <v>31</v>
-      </c>
-      <c r="G202" t="s">
-        <v>30</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -18458,7 +18458,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K202">
         <v>5.75</v>
@@ -18538,7 +18538,7 @@
         <v>43</v>
       </c>
       <c r="G203" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18547,7 +18547,7 @@
         <v>3</v>
       </c>
       <c r="J203" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K203">
         <v>1.7</v>
@@ -18612,7 +18612,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6848014</v>
+        <v>6848020</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18624,58 +18624,58 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G204" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H204">
         <v>3</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K204">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L204">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M204">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N204">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O204">
         <v>4</v>
       </c>
       <c r="P204">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q204">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R204">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
       <c r="S204">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T204">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U204">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V204">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W204">
-        <v>0.6000000000000001</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18684,13 +18684,13 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>1.08</v>
+        <v>0.8</v>
       </c>
       <c r="AA204">
         <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC204">
         <v>-1</v>
@@ -18701,7 +18701,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6848020</v>
+        <v>6848015</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18713,76 +18713,76 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G205" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J205" t="s">
         <v>51</v>
       </c>
       <c r="K205">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="L205">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M205">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N205">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O205">
         <v>4</v>
       </c>
       <c r="P205">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q205">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R205">
+        <v>2.05</v>
+      </c>
+      <c r="S205">
         <v>1.8</v>
       </c>
-      <c r="S205">
-        <v>2.05</v>
-      </c>
       <c r="T205">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V205">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W205">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z205">
+        <v>-1</v>
+      </c>
+      <c r="AA205">
         <v>0.8</v>
       </c>
-      <c r="AA205">
-        <v>-1</v>
-      </c>
       <c r="AB205">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18790,7 +18790,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6848015</v>
+        <v>6848014</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18802,25 +18802,25 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G206" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H206">
+        <v>3</v>
+      </c>
+      <c r="I206">
         <v>1</v>
       </c>
-      <c r="I206">
-        <v>2</v>
-      </c>
       <c r="J206" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K206">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="L206">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M206">
         <v>6</v>
@@ -18838,40 +18838,40 @@
         <v>-1</v>
       </c>
       <c r="R206">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S206">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T206">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U206">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V206">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AA206">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC206">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18891,7 +18891,7 @@
         <v>45340.54513888889</v>
       </c>
       <c r="F207" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G207" t="s">
         <v>49</v>
@@ -18903,7 +18903,7 @@
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K207">
         <v>2.6</v>
@@ -18980,7 +18980,7 @@
         <v>45340.69791666666</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G208" t="s">
         <v>39</v>
@@ -18992,7 +18992,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K208">
         <v>2.5</v>
@@ -19081,7 +19081,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K209">
         <v>4</v>
@@ -19158,10 +19158,10 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K210">
         <v>2.55</v>
@@ -19250,7 +19250,7 @@
         <v>43</v>
       </c>
       <c r="G211" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -19259,7 +19259,7 @@
         <v>3</v>
       </c>
       <c r="J211" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K211">
         <v>2.75</v>
@@ -19339,7 +19339,7 @@
         <v>49</v>
       </c>
       <c r="G212" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19348,7 +19348,7 @@
         <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K212">
         <v>2.375</v>
@@ -19413,7 +19413,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6848027</v>
+        <v>6848029</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19425,76 +19425,76 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F213" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G213" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K213">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="L213">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M213">
-        <v>7.5</v>
+        <v>2.25</v>
       </c>
       <c r="N213">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="O213">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P213">
-        <v>7.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q213">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R213">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="S213">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="T213">
         <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="V213">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.8400000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AC213">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19502,7 +19502,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6848029</v>
+        <v>6848027</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19514,76 +19514,76 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G214" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
         <v>52</v>
       </c>
       <c r="K214">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="L214">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M214">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="N214">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="O214">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P214">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="S214">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y214">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.98</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB214">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19615,7 +19615,7 @@
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K215">
         <v>4.2</v>
@@ -19692,7 +19692,7 @@
         <v>45347.54513888889</v>
       </c>
       <c r="F216" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G216" t="s">
         <v>42</v>
@@ -19704,7 +19704,7 @@
         <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K216">
         <v>1.55</v>
@@ -19784,7 +19784,7 @@
         <v>39</v>
       </c>
       <c r="G217" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H217">
         <v>4</v>
@@ -19793,7 +19793,7 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K217">
         <v>1.55</v>
@@ -19870,10 +19870,10 @@
         <v>45352.70833333334</v>
       </c>
       <c r="F218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G218" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -19882,7 +19882,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K218">
         <v>3.2</v>
@@ -19959,7 +19959,7 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F219" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G219" t="s">
         <v>47</v>
@@ -19971,7 +19971,7 @@
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K219">
         <v>2.75</v>
@@ -20048,7 +20048,7 @@
         <v>45353.70833333334</v>
       </c>
       <c r="F220" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G220" t="s">
         <v>39</v>
@@ -20060,7 +20060,7 @@
         <v>5</v>
       </c>
       <c r="J220" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K220">
         <v>4.2</v>
@@ -20140,7 +20140,7 @@
         <v>46</v>
       </c>
       <c r="G221" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20149,7 +20149,7 @@
         <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K221">
         <v>3.6</v>
@@ -20226,7 +20226,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G222" t="s">
         <v>44</v>
@@ -20238,7 +20238,7 @@
         <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K222">
         <v>1.8</v>
@@ -20315,7 +20315,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F223" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G223" t="s">
         <v>43</v>
@@ -20327,7 +20327,7 @@
         <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K223">
         <v>2.35</v>
@@ -20404,7 +20404,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F224" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G224" t="s">
         <v>48</v>
@@ -20416,7 +20416,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K224">
         <v>1.65</v>
@@ -20496,7 +20496,7 @@
         <v>42</v>
       </c>
       <c r="G225" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20505,7 +20505,7 @@
         <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K225">
         <v>1.4</v>
@@ -20594,7 +20594,7 @@
         <v>3</v>
       </c>
       <c r="J226" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K226">
         <v>2.5</v>
@@ -20671,10 +20671,19 @@
         <v>45359.70833333334</v>
       </c>
       <c r="F227" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G227" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227" t="s">
+        <v>51</v>
       </c>
       <c r="K227">
         <v>1.75</v>
@@ -20686,46 +20695,52 @@
         <v>4.75</v>
       </c>
       <c r="N227">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="O227">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P227">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q227">
         <v>-0.75</v>
       </c>
       <c r="R227">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S227">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T227">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U227">
-        <v>1.97</v>
+        <v>2.025</v>
       </c>
       <c r="V227">
-        <v>1.93</v>
+        <v>1.825</v>
       </c>
       <c r="W227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Z227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB227">
+        <v>0.5125</v>
+      </c>
+      <c r="AC227">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20745,7 +20760,7 @@
         <v>45360.54166666666</v>
       </c>
       <c r="F228" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G228" t="s">
         <v>45</v>
@@ -20760,7 +20775,7 @@
         <v>1.95</v>
       </c>
       <c r="N228">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O228">
         <v>3.4</v>
@@ -20772,7 +20787,7 @@
         <v>0.25</v>
       </c>
       <c r="R228">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S228">
         <v>1.9</v>
@@ -20781,10 +20796,10 @@
         <v>2.5</v>
       </c>
       <c r="U228">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="V228">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W228">
         <v>0</v>
@@ -20822,7 +20837,7 @@
         <v>49</v>
       </c>
       <c r="G229" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K229">
         <v>1.95</v>
@@ -20834,31 +20849,31 @@
         <v>4</v>
       </c>
       <c r="N229">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O229">
         <v>3.3</v>
       </c>
       <c r="P229">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q229">
         <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="S229">
-        <v>2.09</v>
+        <v>2.02</v>
       </c>
       <c r="T229">
         <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="W229">
         <v>0</v>
@@ -20893,10 +20908,10 @@
         <v>45361.375</v>
       </c>
       <c r="F230" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G230" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K230">
         <v>1.4</v>
@@ -20914,25 +20929,25 @@
         <v>5</v>
       </c>
       <c r="P230">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q230">
         <v>-1.25</v>
       </c>
       <c r="R230">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S230">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="T230">
         <v>3.25</v>
       </c>
       <c r="U230">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="V230">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W230">
         <v>0</v>
@@ -20955,7 +20970,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6848047</v>
+        <v>6848048</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -20967,10 +20982,10 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F231" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G231" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K231">
         <v>2.45</v>
@@ -20979,34 +20994,34 @@
         <v>3.2</v>
       </c>
       <c r="M231">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N231">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O231">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P231">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R231">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="S231">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="T231">
         <v>2.25</v>
       </c>
       <c r="U231">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="V231">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="W231">
         <v>0</v>
@@ -21029,7 +21044,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6848048</v>
+        <v>6848047</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21041,10 +21056,10 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F232" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G232" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K232">
         <v>2.45</v>
@@ -21053,22 +21068,22 @@
         <v>3.2</v>
       </c>
       <c r="M232">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N232">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O232">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P232">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q232">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R232">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="S232">
         <v>1.93</v>
@@ -21077,10 +21092,10 @@
         <v>2.25</v>
       </c>
       <c r="U232">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="V232">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="W232">
         <v>0</v>
@@ -21112,13 +21127,13 @@
         <v>28</v>
       </c>
       <c r="E233" s="2">
-        <v>45361.5</v>
+        <v>45361.45833333334</v>
       </c>
       <c r="F233" t="s">
         <v>43</v>
       </c>
       <c r="G233" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K233">
         <v>3.4</v>
@@ -21142,19 +21157,19 @@
         <v>0.5</v>
       </c>
       <c r="R233">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="S233">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T233">
         <v>2.75</v>
       </c>
       <c r="U233">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V233">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="W233">
         <v>0</v>
@@ -21204,22 +21219,22 @@
         <v>3.75</v>
       </c>
       <c r="N234">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O234">
         <v>3.4</v>
       </c>
       <c r="P234">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q234">
         <v>-0.5</v>
       </c>
       <c r="R234">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="S234">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="T234">
         <v>2.5</v>
@@ -21266,7 +21281,7 @@
         <v>39</v>
       </c>
       <c r="G235" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K235">
         <v>1.571</v>
@@ -21284,7 +21299,7 @@
         <v>4.2</v>
       </c>
       <c r="P235">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q235">
         <v>-1</v>
@@ -21293,16 +21308,16 @@
         <v>1.83</v>
       </c>
       <c r="S235">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="T235">
         <v>2.5</v>
       </c>
       <c r="U235">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="V235">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="W235">
         <v>0</v>
@@ -21317,6 +21332,228 @@
         <v>0</v>
       </c>
       <c r="AA235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>6848050</v>
+      </c>
+      <c r="C236" t="s">
+        <v>28</v>
+      </c>
+      <c r="D236" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45366.70833333334</v>
+      </c>
+      <c r="F236" t="s">
+        <v>46</v>
+      </c>
+      <c r="G236" t="s">
+        <v>45</v>
+      </c>
+      <c r="K236">
+        <v>2.6</v>
+      </c>
+      <c r="L236">
+        <v>3.3</v>
+      </c>
+      <c r="M236">
+        <v>2.6</v>
+      </c>
+      <c r="N236">
+        <v>2.6</v>
+      </c>
+      <c r="O236">
+        <v>3.3</v>
+      </c>
+      <c r="P236">
+        <v>2.6</v>
+      </c>
+      <c r="Q236">
+        <v>0</v>
+      </c>
+      <c r="R236">
+        <v>1.95</v>
+      </c>
+      <c r="S236">
+        <v>1.95</v>
+      </c>
+      <c r="T236">
+        <v>2.5</v>
+      </c>
+      <c r="U236">
+        <v>2.01</v>
+      </c>
+      <c r="V236">
+        <v>1.89</v>
+      </c>
+      <c r="W236">
+        <v>0</v>
+      </c>
+      <c r="X236">
+        <v>0</v>
+      </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
+      <c r="Z236">
+        <v>0</v>
+      </c>
+      <c r="AA236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>6848055</v>
+      </c>
+      <c r="C237" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45367.54166666666</v>
+      </c>
+      <c r="F237" t="s">
+        <v>32</v>
+      </c>
+      <c r="G237" t="s">
+        <v>43</v>
+      </c>
+      <c r="K237">
+        <v>2.3</v>
+      </c>
+      <c r="L237">
+        <v>3.25</v>
+      </c>
+      <c r="M237">
+        <v>3</v>
+      </c>
+      <c r="N237">
+        <v>2.3</v>
+      </c>
+      <c r="O237">
+        <v>3.25</v>
+      </c>
+      <c r="P237">
+        <v>3</v>
+      </c>
+      <c r="Q237">
+        <v>-0.25</v>
+      </c>
+      <c r="R237">
+        <v>2.07</v>
+      </c>
+      <c r="S237">
+        <v>1.83</v>
+      </c>
+      <c r="T237">
+        <v>2.25</v>
+      </c>
+      <c r="U237">
+        <v>1.9</v>
+      </c>
+      <c r="V237">
+        <v>2</v>
+      </c>
+      <c r="W237">
+        <v>0</v>
+      </c>
+      <c r="X237">
+        <v>0</v>
+      </c>
+      <c r="Y237">
+        <v>0</v>
+      </c>
+      <c r="Z237">
+        <v>0</v>
+      </c>
+      <c r="AA237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>7916095</v>
+      </c>
+      <c r="C238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45367.70833333334</v>
+      </c>
+      <c r="F238" t="s">
+        <v>49</v>
+      </c>
+      <c r="G238" t="s">
+        <v>37</v>
+      </c>
+      <c r="K238">
+        <v>2.2</v>
+      </c>
+      <c r="L238">
+        <v>3.2</v>
+      </c>
+      <c r="M238">
+        <v>3.3</v>
+      </c>
+      <c r="N238">
+        <v>2.05</v>
+      </c>
+      <c r="O238">
+        <v>3.3</v>
+      </c>
+      <c r="P238">
+        <v>3.6</v>
+      </c>
+      <c r="Q238">
+        <v>-0.5</v>
+      </c>
+      <c r="R238">
+        <v>2.09</v>
+      </c>
+      <c r="S238">
+        <v>1.81</v>
+      </c>
+      <c r="T238">
+        <v>2.25</v>
+      </c>
+      <c r="U238">
+        <v>2.01</v>
+      </c>
+      <c r="V238">
+        <v>1.89</v>
+      </c>
+      <c r="W238">
+        <v>0</v>
+      </c>
+      <c r="X238">
+        <v>0</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
         <v>0</v>
       </c>
     </row>

--- a/France Ligue 1/France Ligue 1.xlsx
+++ b/France Ligue 1/France Ligue 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -103,31 +103,31 @@
     <t>France Ligue 1</t>
   </si>
   <si>
-    <t>Brest</t>
+    <t>Monaco</t>
   </si>
   <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>PSG</t>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Brest</t>
   </si>
   <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>AC Ajaccio</t>
+    <t>PSG</t>
   </si>
   <si>
-    <t>Monaco</t>
+    <t>Nice</t>
   </si>
   <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Nice</t>
+    <t>AC Ajaccio</t>
   </si>
   <si>
     <t>Auxerre</t>
@@ -136,10 +136,10 @@
     <t>Marseille</t>
   </si>
   <si>
-    <t>Montpellier</t>
+    <t>Clermont Foot</t>
   </si>
   <si>
-    <t>Clermont Foot</t>
+    <t>Montpellier</t>
   </si>
   <si>
     <t>Rennes</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC238"/>
+  <dimension ref="A1:AC244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5641663</v>
+        <v>5638914</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -649,7 +649,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -661,40 +661,40 @@
         <v>51</v>
       </c>
       <c r="K2">
+        <v>1.5</v>
+      </c>
+      <c r="L2">
         <v>4.5</v>
       </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
       <c r="M2">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="N2">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="O2">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P2">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="Q2">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S2">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U2">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V2">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -703,19 +703,19 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>0.7</v>
+        <v>4.75</v>
       </c>
       <c r="Z2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
       <c r="AB2">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5642185</v>
+        <v>5639215</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -830,7 +830,7 @@
         <v>41</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -839,41 +839,41 @@
         <v>51</v>
       </c>
       <c r="K4">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N4">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="O4">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U4">
+        <v>1.975</v>
+      </c>
+      <c r="V4">
         <v>1.875</v>
       </c>
-      <c r="V4">
-        <v>1.975</v>
-      </c>
       <c r="W4">
         <v>-1</v>
       </c>
@@ -881,16 +881,16 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB4">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5642021</v>
+        <v>5641663</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="L5">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="N5">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="O5">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P5">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R5">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC5">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5641662</v>
+        <v>5642021</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1005,7 +1005,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1017,43 +1017,43 @@
         <v>53</v>
       </c>
       <c r="K6">
-        <v>8</v>
+        <v>1.444</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M6">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="N6">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="O6">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P6">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="Q6">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W6">
-        <v>6.5</v>
+        <v>0.5</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1062,16 +1062,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5638914</v>
+        <v>5642185</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1094,37 +1094,37 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
         <v>51</v>
       </c>
       <c r="K7">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="L7">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>5.75</v>
+        <v>9</v>
       </c>
       <c r="N7">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="O7">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P7">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="Q7">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R7">
         <v>1.925</v>
@@ -1136,10 +1136,10 @@
         <v>3.75</v>
       </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V7">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W7">
         <v>-1</v>
@@ -1148,7 +1148,7 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Z7">
         <v>-1</v>
@@ -1157,10 +1157,10 @@
         <v>0.925</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1168,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5635385</v>
+        <v>5644619</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1183,10 +1183,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1195,25 +1195,25 @@
         <v>53</v>
       </c>
       <c r="K8">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="N8">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P8">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>1.825</v>
@@ -1222,16 +1222,16 @@
         <v>2.025</v>
       </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1246,10 +1246,10 @@
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1257,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5639215</v>
+        <v>5635385</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1272,73 +1272,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
+        <v>2.375</v>
+      </c>
+      <c r="N9">
+        <v>3.1</v>
+      </c>
+      <c r="O9">
         <v>3.5</v>
       </c>
-      <c r="N9">
-        <v>1.8</v>
-      </c>
-      <c r="O9">
-        <v>4.2</v>
-      </c>
       <c r="P9">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q9">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
+        <v>1.875</v>
+      </c>
+      <c r="V9">
         <v>1.975</v>
       </c>
-      <c r="V9">
-        <v>1.875</v>
-      </c>
       <c r="W9">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1346,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5644619</v>
+        <v>5641662</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1361,55 +1361,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>53</v>
       </c>
       <c r="K10">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M10">
-        <v>2.7</v>
+        <v>1.363</v>
       </c>
       <c r="N10">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="O10">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P10">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R10">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S10">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V10">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W10">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1418,16 +1418,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1536,7 +1536,7 @@
         <v>45149.66666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
         <v>47</v>
@@ -1628,7 +1628,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1714,10 +1714,10 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>49</v>
@@ -1880,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6847832</v>
+        <v>6847826</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1895,70 +1895,70 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M16">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N16">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T16">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.87</v>
+        <v>2.025</v>
       </c>
       <c r="V16">
-        <v>2.03</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.98</v>
+        <v>1.05</v>
       </c>
       <c r="AB16">
-        <v>0.8700000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6847826</v>
+        <v>6847831</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1981,28 +1981,28 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>2</v>
-      </c>
-      <c r="I17">
-        <v>4</v>
       </c>
       <c r="J17" t="s">
         <v>51</v>
       </c>
       <c r="K17">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="L17">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N17">
         <v>3</v>
@@ -2011,25 +2011,25 @@
         <v>3.4</v>
       </c>
       <c r="P17">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="Q17">
         <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S17">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2038,16 +2038,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.375</v>
+        <v>1.3</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB17">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6847831</v>
+        <v>6847832</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2070,73 +2070,73 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K18">
         <v>2.5</v>
       </c>
       <c r="L18">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M18">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O18">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P18">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.825</v>
+        <v>1.92</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.98</v>
       </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y18">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>1.025</v>
+        <v>0.98</v>
       </c>
       <c r="AB18">
-        <v>0.8999999999999999</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2429,7 +2429,7 @@
         <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2518,7 +2518,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2607,7 +2607,7 @@
         <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2681,7 +2681,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6847834</v>
+        <v>6847838</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2693,49 +2693,49 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K25">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M25">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N25">
-        <v>3.3</v>
+        <v>1.833</v>
       </c>
       <c r="O25">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P25">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q25">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
         <v>1.875</v>
@@ -2744,25 +2744,25 @@
         <v>1.975</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X25">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2770,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6847838</v>
+        <v>6847840</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2782,76 +2782,76 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>2</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
       <c r="J26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K26">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L26">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N26">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="O26">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S26">
+        <v>1.9</v>
+      </c>
+      <c r="T26">
         <v>2</v>
       </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
       <c r="U26">
+        <v>1.975</v>
+      </c>
+      <c r="V26">
         <v>1.875</v>
       </c>
-      <c r="V26">
-        <v>1.975</v>
-      </c>
       <c r="W26">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z26">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6847840</v>
+        <v>6847834</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2871,76 +2871,76 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="L27">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="N27">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="O27">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P27">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
+        <v>1.9</v>
+      </c>
+      <c r="S27">
         <v>1.95</v>
       </c>
-      <c r="S27">
-        <v>1.9</v>
-      </c>
       <c r="T27">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
+        <v>1.875</v>
+      </c>
+      <c r="V27">
         <v>1.975</v>
       </c>
-      <c r="V27">
-        <v>1.875</v>
-      </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y27">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA27">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2960,7 +2960,7 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
         <v>43</v>
@@ -3138,10 +3138,10 @@
         <v>45163.66666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3230,7 +3230,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3316,7 +3316,7 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
         <v>49</v>
@@ -3482,7 +3482,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6847850</v>
+        <v>6847843</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3494,76 +3494,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L34">
+        <v>3.5</v>
+      </c>
+      <c r="M34">
+        <v>3.75</v>
+      </c>
+      <c r="N34">
+        <v>2.15</v>
+      </c>
+      <c r="O34">
+        <v>3.3</v>
+      </c>
+      <c r="P34">
         <v>3.4</v>
-      </c>
-      <c r="M34">
-        <v>2.8</v>
-      </c>
-      <c r="N34">
-        <v>2.2</v>
-      </c>
-      <c r="O34">
-        <v>3.5</v>
-      </c>
-      <c r="P34">
-        <v>3.2</v>
       </c>
       <c r="Q34">
         <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V34">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3583,7 +3583,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
         <v>44</v>
@@ -3660,7 +3660,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6847843</v>
+        <v>6847850</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3672,76 +3672,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L36">
+        <v>3.4</v>
+      </c>
+      <c r="M36">
+        <v>2.8</v>
+      </c>
+      <c r="N36">
+        <v>2.2</v>
+      </c>
+      <c r="O36">
         <v>3.5</v>
       </c>
-      <c r="M36">
-        <v>3.75</v>
-      </c>
-      <c r="N36">
-        <v>2.15</v>
-      </c>
-      <c r="O36">
-        <v>3.3</v>
-      </c>
       <c r="P36">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q36">
         <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3761,7 +3761,7 @@
         <v>45165.50347222222</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
         <v>47</v>
@@ -3850,7 +3850,7 @@
         <v>45165.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -3939,7 +3939,7 @@
         <v>45170.66666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -4028,7 +4028,7 @@
         <v>45171.5</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
         <v>42</v>
@@ -4117,7 +4117,7 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
         <v>49</v>
@@ -4209,7 +4209,7 @@
         <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4298,7 +4298,7 @@
         <v>47</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4372,7 +4372,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6847858</v>
+        <v>6847857</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4384,73 +4384,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G44" t="s">
         <v>36</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K44">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="L44">
         <v>3.4</v>
       </c>
       <c r="M44">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N44">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="O44">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P44">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q44">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.875</v>
+        <v>1.82</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>2.11</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>2.09</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.81</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X44">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.875</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.9750000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4461,7 +4461,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6847857</v>
+        <v>6847858</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4473,73 +4473,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K45">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="L45">
         <v>3.4</v>
       </c>
       <c r="M45">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N45">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="O45">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P45">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R45">
-        <v>1.82</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>2.11</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>2.09</v>
+        <v>1.975</v>
       </c>
       <c r="V45">
-        <v>1.81</v>
+        <v>1.875</v>
       </c>
       <c r="W45">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.8200000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>1.09</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4562,7 +4562,7 @@
         <v>45172.50347222222</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
         <v>43</v>
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4740,10 +4740,10 @@
         <v>45184.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -5007,10 +5007,10 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5084,7 +5084,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6847866</v>
+        <v>6847867</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5096,34 +5096,34 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
         <v>32</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
         <v>51</v>
       </c>
       <c r="K52">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="L52">
         <v>3.5</v>
       </c>
       <c r="M52">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="N52">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O52">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
         <v>4</v>
@@ -5132,19 +5132,19 @@
         <v>-0.5</v>
       </c>
       <c r="R52">
+        <v>2</v>
+      </c>
+      <c r="S52">
         <v>1.85</v>
-      </c>
-      <c r="S52">
-        <v>2</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5159,13 +5159,13 @@
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC52">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5173,7 +5173,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6847867</v>
+        <v>6847866</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5185,34 +5185,34 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
         <v>1</v>
-      </c>
-      <c r="I53">
-        <v>2</v>
       </c>
       <c r="J53" t="s">
         <v>51</v>
       </c>
       <c r="K53">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="L53">
         <v>3.5</v>
       </c>
       <c r="M53">
-        <v>4.333</v>
+        <v>3.7</v>
       </c>
       <c r="N53">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P53">
         <v>4</v>
@@ -5221,19 +5221,19 @@
         <v>-0.5</v>
       </c>
       <c r="R53">
+        <v>1.85</v>
+      </c>
+      <c r="S53">
         <v>2</v>
-      </c>
-      <c r="S53">
-        <v>1.85</v>
       </c>
       <c r="T53">
         <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V53">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5248,13 +5248,13 @@
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB53">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5277,7 +5277,7 @@
         <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5541,10 +5541,10 @@
         <v>45191.66666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5630,10 +5630,10 @@
         <v>45192.5</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H58">
         <v>5</v>
@@ -5719,7 +5719,7 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -5900,7 +5900,7 @@
         <v>48</v>
       </c>
       <c r="G61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -6075,7 +6075,7 @@
         <v>45193.50347222222</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s">
         <v>42</v>
@@ -6164,7 +6164,7 @@
         <v>45193.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G64" t="s">
         <v>39</v>
@@ -6256,7 +6256,7 @@
         <v>47</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6431,10 +6431,10 @@
         <v>45199.5</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6520,7 +6520,7 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
         <v>39</v>
@@ -6609,7 +6609,7 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
         <v>45</v>
@@ -6787,10 +6787,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6965,10 +6965,10 @@
         <v>45200.50347222222</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7057,7 +7057,7 @@
         <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7146,7 +7146,7 @@
         <v>43</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7235,7 +7235,7 @@
         <v>44</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7321,10 +7321,10 @@
         <v>45206.66666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7502,7 +7502,7 @@
         <v>45</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7588,7 +7588,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
         <v>46</v>
@@ -7769,7 +7769,7 @@
         <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7944,7 +7944,7 @@
         <v>45220.5</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
         <v>43</v>
@@ -8033,7 +8033,7 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
         <v>39</v>
@@ -8122,7 +8122,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8214,7 +8214,7 @@
         <v>46</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8288,7 +8288,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6847903</v>
+        <v>6847900</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8300,13 +8300,13 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F88" t="s">
+        <v>47</v>
+      </c>
+      <c r="G88" t="s">
         <v>32</v>
       </c>
-      <c r="G88" t="s">
-        <v>40</v>
-      </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -8315,25 +8315,25 @@
         <v>53</v>
       </c>
       <c r="K88">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L88">
+        <v>3.75</v>
+      </c>
+      <c r="M88">
+        <v>5</v>
+      </c>
+      <c r="N88">
+        <v>1.85</v>
+      </c>
+      <c r="O88">
         <v>3.4</v>
       </c>
-      <c r="M88">
-        <v>2.3</v>
-      </c>
-      <c r="N88">
-        <v>3.1</v>
-      </c>
-      <c r="O88">
-        <v>3.5</v>
-      </c>
       <c r="P88">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q88">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
         <v>1.875</v>
@@ -8342,16 +8342,16 @@
         <v>1.975</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
-        <v>2.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8369,7 +8369,7 @@
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6847900</v>
+        <v>6847903</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,13 +8389,13 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -8404,25 +8404,25 @@
         <v>53</v>
       </c>
       <c r="K89">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N89">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="O89">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
         <v>1.875</v>
@@ -8431,16 +8431,16 @@
         <v>1.975</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W89">
-        <v>0.8500000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8458,7 +8458,7 @@
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8478,7 +8478,7 @@
         <v>45221.50347222222</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
         <v>44</v>
@@ -8570,7 +8570,7 @@
         <v>45</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8656,10 +8656,10 @@
         <v>45226.66666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8745,10 +8745,10 @@
         <v>45227.5</v>
       </c>
       <c r="F93" t="s">
+        <v>31</v>
+      </c>
+      <c r="G93" t="s">
         <v>36</v>
-      </c>
-      <c r="G93" t="s">
-        <v>35</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8837,7 +8837,7 @@
         <v>49</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -8923,10 +8923,10 @@
         <v>45228.375</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9000,7 +9000,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6847907</v>
+        <v>6847911</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9012,76 +9012,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96" t="s">
+        <v>52</v>
+      </c>
+      <c r="K96">
+        <v>2.25</v>
+      </c>
+      <c r="L96">
+        <v>3.5</v>
+      </c>
+      <c r="M96">
+        <v>3</v>
+      </c>
+      <c r="N96">
+        <v>2.8</v>
+      </c>
+      <c r="O96">
+        <v>3.1</v>
+      </c>
+      <c r="P96">
+        <v>2.7</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
         <v>2</v>
       </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96" t="s">
-        <v>53</v>
-      </c>
-      <c r="K96">
-        <v>2.2</v>
-      </c>
-      <c r="L96">
-        <v>3.75</v>
-      </c>
-      <c r="M96">
-        <v>2.9</v>
-      </c>
-      <c r="N96">
-        <v>2.375</v>
-      </c>
-      <c r="O96">
-        <v>3.6</v>
-      </c>
-      <c r="P96">
-        <v>2.75</v>
-      </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
-      <c r="R96">
-        <v>1.825</v>
-      </c>
       <c r="S96">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T96">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V96">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W96">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9089,7 +9089,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6847911</v>
+        <v>6847907</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9101,76 +9101,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G97" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K97">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L97">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M97">
+        <v>2.9</v>
+      </c>
+      <c r="N97">
+        <v>2.375</v>
+      </c>
+      <c r="O97">
+        <v>3.6</v>
+      </c>
+      <c r="P97">
+        <v>2.75</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>1.825</v>
+      </c>
+      <c r="S97">
+        <v>2.025</v>
+      </c>
+      <c r="T97">
         <v>3</v>
       </c>
-      <c r="N97">
-        <v>2.8</v>
-      </c>
-      <c r="O97">
-        <v>3.1</v>
-      </c>
-      <c r="P97">
-        <v>2.7</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>2</v>
-      </c>
-      <c r="S97">
-        <v>1.85</v>
-      </c>
-      <c r="T97">
-        <v>2.25</v>
-      </c>
       <c r="U97">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V97">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X97">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA97">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9190,7 +9190,7 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
         <v>46</v>
@@ -9368,10 +9368,10 @@
         <v>45233.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9457,7 +9457,7 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
         <v>49</v>
@@ -9816,7 +9816,7 @@
         <v>43</v>
       </c>
       <c r="G105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9902,10 +9902,10 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -9991,10 +9991,10 @@
         <v>45235.54513888889</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10080,7 +10080,7 @@
         <v>45235.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
         <v>42</v>
@@ -10169,10 +10169,10 @@
         <v>45240.70833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10258,10 +10258,10 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10350,7 +10350,7 @@
         <v>48</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6847929</v>
+        <v>6847924</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10436,49 +10436,49 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K112">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="L112">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M112">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="N112">
-        <v>3.3</v>
+        <v>1.55</v>
       </c>
       <c r="O112">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P112">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q112">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R112">
+        <v>1.95</v>
+      </c>
+      <c r="S112">
         <v>1.9</v>
       </c>
-      <c r="S112">
-        <v>1.95</v>
-      </c>
       <c r="T112">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
         <v>1.85</v>
@@ -10487,25 +10487,25 @@
         <v>2</v>
       </c>
       <c r="W112">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
+        <v>-1</v>
+      </c>
+      <c r="AA112">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
       <c r="AB112">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10525,10 +10525,10 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10602,7 +10602,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6847924</v>
+        <v>6847929</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10614,49 +10614,49 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K114">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="L114">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M114">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="N114">
-        <v>1.55</v>
+        <v>3.3</v>
       </c>
       <c r="O114">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P114">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R114">
+        <v>1.9</v>
+      </c>
+      <c r="S114">
         <v>1.95</v>
       </c>
-      <c r="S114">
-        <v>1.9</v>
-      </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
         <v>1.85</v>
@@ -10665,25 +10665,25 @@
         <v>2</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X114">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA114">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC114">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10881,10 +10881,10 @@
         <v>45254.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H117">
         <v>5</v>
@@ -10970,7 +10970,7 @@
         <v>45255.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
         <v>49</v>
@@ -11148,7 +11148,7 @@
         <v>45256.375</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
         <v>46</v>
@@ -11237,7 +11237,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
         <v>44</v>
@@ -11314,7 +11314,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6847940</v>
+        <v>6847939</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11326,40 +11326,40 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K122">
         <v>2.15</v>
       </c>
       <c r="L122">
+        <v>3.3</v>
+      </c>
+      <c r="M122">
         <v>3.4</v>
       </c>
-      <c r="M122">
+      <c r="N122">
+        <v>1.95</v>
+      </c>
+      <c r="O122">
         <v>3.25</v>
       </c>
-      <c r="N122">
-        <v>2.25</v>
-      </c>
-      <c r="O122">
-        <v>3.3</v>
-      </c>
       <c r="P122">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
         <v>1.95</v>
@@ -11368,22 +11368,22 @@
         <v>1.9</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U122">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V122">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y122">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
         <v>-1</v>
@@ -11392,10 +11392,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB122">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11403,7 +11403,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6847939</v>
+        <v>6847940</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11415,40 +11415,40 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F123" t="s">
+        <v>41</v>
+      </c>
+      <c r="G123" t="s">
         <v>32</v>
       </c>
-      <c r="G123" t="s">
-        <v>48</v>
-      </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K123">
         <v>2.15</v>
       </c>
       <c r="L123">
+        <v>3.4</v>
+      </c>
+      <c r="M123">
+        <v>3.25</v>
+      </c>
+      <c r="N123">
+        <v>2.25</v>
+      </c>
+      <c r="O123">
         <v>3.3</v>
       </c>
-      <c r="M123">
-        <v>3.4</v>
-      </c>
-      <c r="N123">
-        <v>1.95</v>
-      </c>
-      <c r="O123">
+      <c r="P123">
         <v>3.25</v>
       </c>
-      <c r="P123">
-        <v>4.333</v>
-      </c>
       <c r="Q123">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
         <v>1.95</v>
@@ -11457,22 +11457,22 @@
         <v>1.9</v>
       </c>
       <c r="T123">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V123">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
+        <v>-1</v>
+      </c>
+      <c r="Y123">
         <v>2.25</v>
-      </c>
-      <c r="Y123">
-        <v>-1</v>
       </c>
       <c r="Z123">
         <v>-1</v>
@@ -11481,10 +11481,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC123">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11507,7 +11507,7 @@
         <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11682,10 +11682,10 @@
         <v>45259.625</v>
       </c>
       <c r="F126" t="s">
+        <v>41</v>
+      </c>
+      <c r="G126" t="s">
         <v>40</v>
-      </c>
-      <c r="G126" t="s">
-        <v>41</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11771,7 +11771,7 @@
         <v>45261.70833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
         <v>43</v>
@@ -11949,10 +11949,10 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12041,7 +12041,7 @@
         <v>48</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12127,10 +12127,10 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12219,7 +12219,7 @@
         <v>46</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12305,10 +12305,10 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H133">
         <v>3</v>
@@ -12661,7 +12661,7 @@
         <v>45267.6875</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
         <v>43</v>
@@ -12750,7 +12750,7 @@
         <v>45268.70833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
         <v>49</v>
@@ -12842,7 +12842,7 @@
         <v>42</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12928,10 +12928,10 @@
         <v>45269.70833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13017,10 +13017,10 @@
         <v>45270.375</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13094,7 +13094,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6847951</v>
+        <v>6847957</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13106,76 +13106,76 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G142" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K142">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="L142">
         <v>3.2</v>
       </c>
       <c r="M142">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N142">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="O142">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P142">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>2.02</v>
+        <v>1.975</v>
       </c>
       <c r="S142">
-        <v>1.88</v>
+        <v>1.875</v>
       </c>
       <c r="T142">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.86</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
-        <v>2.04</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z142">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB142">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13195,7 +13195,7 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
         <v>47</v>
@@ -13272,7 +13272,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6847957</v>
+        <v>6847951</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13284,76 +13284,76 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K144">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L144">
         <v>3.2</v>
       </c>
       <c r="M144">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N144">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="O144">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q144">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.975</v>
+        <v>2.02</v>
       </c>
       <c r="S144">
-        <v>1.875</v>
+        <v>1.88</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U144">
-        <v>2.025</v>
+        <v>1.86</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>2.04</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA144">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13462,7 +13462,7 @@
         <v>45270.69791666666</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
         <v>39</v>
@@ -13551,7 +13551,7 @@
         <v>45275.70833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G147" t="s">
         <v>45</v>
@@ -13643,7 +13643,7 @@
         <v>48</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -13732,7 +13732,7 @@
         <v>49</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13818,10 +13818,10 @@
         <v>45277.375</v>
       </c>
       <c r="F150" t="s">
+        <v>33</v>
+      </c>
+      <c r="G150" t="s">
         <v>32</v>
-      </c>
-      <c r="G150" t="s">
-        <v>29</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6847961</v>
+        <v>6847959</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,76 +13907,76 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G151" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K151">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L151">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M151">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="N151">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="O151">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P151">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q151">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R151">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S151">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T151">
         <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y151">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA151">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB151">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6847959</v>
+        <v>6847961</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13996,76 +13996,76 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F152" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K152">
+        <v>2.3</v>
+      </c>
+      <c r="L152">
+        <v>3.25</v>
+      </c>
+      <c r="M152">
+        <v>3.1</v>
+      </c>
+      <c r="N152">
+        <v>2.375</v>
+      </c>
+      <c r="O152">
         <v>3.2</v>
       </c>
-      <c r="L152">
-        <v>3.5</v>
-      </c>
-      <c r="M152">
-        <v>2.15</v>
-      </c>
-      <c r="N152">
-        <v>3.2</v>
-      </c>
-      <c r="O152">
-        <v>3.4</v>
-      </c>
       <c r="P152">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S152">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T152">
         <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z152">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC152">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14088,7 +14088,7 @@
         <v>44</v>
       </c>
       <c r="G153" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14177,7 +14177,7 @@
         <v>39</v>
       </c>
       <c r="G154" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14266,7 +14266,7 @@
         <v>47</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14340,7 +14340,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7579908</v>
+        <v>6847969</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14352,73 +14352,73 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H156">
+        <v>2</v>
+      </c>
+      <c r="I156">
         <v>1</v>
       </c>
-      <c r="I156">
-        <v>3</v>
-      </c>
       <c r="J156" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K156">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="L156">
         <v>3.3</v>
       </c>
       <c r="M156">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="N156">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O156">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P156">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="Q156">
         <v>0.25</v>
       </c>
       <c r="R156">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S156">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>2.11</v>
+        <v>2.025</v>
       </c>
       <c r="V156">
-        <v>1.79</v>
+        <v>1.825</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA156">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>1.11</v>
+        <v>1.025</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6847972</v>
+        <v>6847976</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,13 +14441,13 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -14456,43 +14456,43 @@
         <v>53</v>
       </c>
       <c r="K157">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L157">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M157">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N157">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O157">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P157">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R157">
-        <v>1.99</v>
+        <v>1.875</v>
       </c>
       <c r="S157">
-        <v>1.94</v>
+        <v>1.975</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.99</v>
+        <v>2.025</v>
       </c>
       <c r="V157">
-        <v>1.91</v>
+        <v>1.825</v>
       </c>
       <c r="W157">
-        <v>1.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14501,16 +14501,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.99</v>
+        <v>0.875</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC157">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14518,7 +14518,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6847971</v>
+        <v>6847970</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14530,76 +14530,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K158">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="L158">
+        <v>3.8</v>
+      </c>
+      <c r="M158">
+        <v>1.75</v>
+      </c>
+      <c r="N158">
         <v>3.75</v>
       </c>
-      <c r="M158">
+      <c r="O158">
         <v>4</v>
       </c>
-      <c r="N158">
-        <v>1.8</v>
-      </c>
-      <c r="O158">
-        <v>3.6</v>
-      </c>
       <c r="P158">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R158">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S158">
-        <v>1.98</v>
+        <v>1.875</v>
       </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U158">
-        <v>2.02</v>
+        <v>1.925</v>
       </c>
       <c r="V158">
-        <v>1.88</v>
+        <v>1.925</v>
       </c>
       <c r="W158">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC158">
-        <v>0.8799999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14607,7 +14607,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6847974</v>
+        <v>6847971</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14619,10 +14619,10 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G159" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14634,43 +14634,43 @@
         <v>53</v>
       </c>
       <c r="K159">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="L159">
+        <v>3.75</v>
+      </c>
+      <c r="M159">
         <v>4</v>
       </c>
-      <c r="M159">
-        <v>5</v>
-      </c>
       <c r="N159">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O159">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P159">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q159">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S159">
-        <v>1.875</v>
+        <v>1.98</v>
       </c>
       <c r="T159">
         <v>2.5</v>
       </c>
       <c r="U159">
-        <v>1.925</v>
+        <v>2.02</v>
       </c>
       <c r="V159">
-        <v>1.925</v>
+        <v>1.88</v>
       </c>
       <c r="W159">
-        <v>0.7270000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14679,16 +14679,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
         <v>-1</v>
       </c>
       <c r="AC159">
-        <v>0.925</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14696,7 +14696,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6847975</v>
+        <v>6847968</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14708,76 +14708,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G160" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I160">
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K160">
-        <v>3.4</v>
+        <v>1.142</v>
       </c>
       <c r="L160">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M160">
-        <v>2.1</v>
+        <v>17</v>
       </c>
       <c r="N160">
-        <v>4</v>
+        <v>1.111</v>
       </c>
       <c r="O160">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="P160">
-        <v>1.95</v>
+        <v>23</v>
       </c>
       <c r="Q160">
-        <v>0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R160">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S160">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U160">
-        <v>1.925</v>
+        <v>1.87</v>
       </c>
       <c r="V160">
-        <v>1.925</v>
+        <v>2.03</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X160">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC160">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14785,7 +14785,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6847968</v>
+        <v>6847972</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14797,58 +14797,58 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
         <v>53</v>
       </c>
       <c r="K161">
-        <v>1.142</v>
+        <v>2.2</v>
       </c>
       <c r="L161">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="M161">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="N161">
-        <v>1.111</v>
+        <v>2.25</v>
       </c>
       <c r="O161">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="P161">
-        <v>23</v>
+        <v>3.3</v>
       </c>
       <c r="Q161">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="S161">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="T161">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U161">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="V161">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="W161">
-        <v>0.111</v>
+        <v>1.25</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14857,16 +14857,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
+        <v>0.99</v>
+      </c>
+      <c r="AA161">
+        <v>-1</v>
+      </c>
+      <c r="AB161">
         <v>-0.5</v>
       </c>
-      <c r="AA161">
-        <v>0.53</v>
-      </c>
-      <c r="AB161">
-        <v>0.8700000000000001</v>
-      </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6847969</v>
+        <v>6847974</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14886,58 +14886,58 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G162" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
         <v>53</v>
       </c>
       <c r="K162">
+        <v>1.65</v>
+      </c>
+      <c r="L162">
         <v>4</v>
       </c>
-      <c r="L162">
-        <v>3.3</v>
-      </c>
       <c r="M162">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="N162">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="O162">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P162">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q162">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R162">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T162">
         <v>2.5</v>
       </c>
       <c r="U162">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W162">
-        <v>2.6</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14946,16 +14946,16 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB162">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14963,7 +14963,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6847976</v>
+        <v>6847975</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14975,76 +14975,76 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163" t="s">
+        <v>52</v>
+      </c>
+      <c r="K163">
+        <v>3.4</v>
+      </c>
+      <c r="L163">
+        <v>3.4</v>
+      </c>
+      <c r="M163">
+        <v>2.1</v>
+      </c>
+      <c r="N163">
         <v>4</v>
       </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
-      <c r="J163" t="s">
-        <v>53</v>
-      </c>
-      <c r="K163">
-        <v>1.615</v>
-      </c>
-      <c r="L163">
-        <v>3.75</v>
-      </c>
-      <c r="M163">
-        <v>5.25</v>
-      </c>
-      <c r="N163">
-        <v>1.65</v>
-      </c>
       <c r="O163">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P163">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q163">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R163">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S163">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T163">
         <v>2.5</v>
       </c>
       <c r="U163">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V163">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W163">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA163">
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15052,7 +15052,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6847970</v>
+        <v>7579908</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15064,55 +15064,55 @@
         <v>45280.70833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J164" t="s">
         <v>51</v>
       </c>
       <c r="K164">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="L164">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M164">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N164">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O164">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P164">
+        <v>2.375</v>
+      </c>
+      <c r="Q164">
+        <v>0.25</v>
+      </c>
+      <c r="R164">
         <v>1.85</v>
       </c>
-      <c r="Q164">
-        <v>0.5</v>
-      </c>
-      <c r="R164">
-        <v>1.975</v>
-      </c>
       <c r="S164">
-        <v>1.875</v>
+        <v>2.08</v>
       </c>
       <c r="T164">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.925</v>
+        <v>2.11</v>
       </c>
       <c r="V164">
-        <v>1.925</v>
+        <v>1.79</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15121,19 +15121,19 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>0.8500000000000001</v>
+        <v>1.375</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.875</v>
+        <v>1.08</v>
       </c>
       <c r="AB164">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AC164">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15242,10 +15242,10 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15334,7 +15334,7 @@
         <v>42</v>
       </c>
       <c r="G167" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15423,7 +15423,7 @@
         <v>47</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -15497,7 +15497,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6847985</v>
+        <v>6847982</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15509,76 +15509,76 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G169" t="s">
         <v>40</v>
       </c>
       <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
         <v>2</v>
       </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
       <c r="J169" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K169">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L169">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M169">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N169">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O169">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P169">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q169">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S169">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T169">
         <v>2.5</v>
       </c>
       <c r="U169">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V169">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W169">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z169">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC169">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15586,7 +15586,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6847982</v>
+        <v>6847984</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15598,55 +15598,55 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
         <v>1</v>
-      </c>
-      <c r="I170">
-        <v>2</v>
       </c>
       <c r="J170" t="s">
         <v>51</v>
       </c>
       <c r="K170">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="L170">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M170">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="N170">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O170">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P170">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q170">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R170">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S170">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T170">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V170">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15655,19 +15655,19 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB170">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15675,7 +15675,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6847984</v>
+        <v>6847985</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15687,76 +15687,76 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G171" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K171">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="L171">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M171">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="N171">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O171">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P171">
+        <v>4.5</v>
+      </c>
+      <c r="Q171">
+        <v>-0.75</v>
+      </c>
+      <c r="R171">
+        <v>2.05</v>
+      </c>
+      <c r="S171">
+        <v>1.8</v>
+      </c>
+      <c r="T171">
         <v>2.5</v>
       </c>
-      <c r="Q171">
-        <v>0</v>
-      </c>
-      <c r="R171">
+      <c r="U171">
         <v>2.025</v>
       </c>
-      <c r="S171">
+      <c r="V171">
         <v>1.825</v>
       </c>
-      <c r="T171">
-        <v>2.25</v>
-      </c>
-      <c r="U171">
-        <v>2.05</v>
-      </c>
-      <c r="V171">
-        <v>1.8</v>
-      </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA171">
+        <v>-1</v>
+      </c>
+      <c r="AB171">
+        <v>-1</v>
+      </c>
+      <c r="AC171">
         <v>0.825</v>
-      </c>
-      <c r="AB171">
-        <v>-1</v>
-      </c>
-      <c r="AC171">
-        <v>0.8</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15868,7 +15868,7 @@
         <v>49</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -16043,7 +16043,7 @@
         <v>45318.54166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16135,7 +16135,7 @@
         <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16221,7 +16221,7 @@
         <v>45319.375</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G177" t="s">
         <v>47</v>
@@ -16298,7 +16298,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6847993</v>
+        <v>6847989</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16313,73 +16313,73 @@
         <v>36</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J178" t="s">
         <v>52</v>
       </c>
       <c r="K178">
+        <v>2.5</v>
+      </c>
+      <c r="L178">
+        <v>3.25</v>
+      </c>
+      <c r="M178">
+        <v>2.8</v>
+      </c>
+      <c r="N178">
+        <v>3.1</v>
+      </c>
+      <c r="O178">
+        <v>3.1</v>
+      </c>
+      <c r="P178">
+        <v>2.5</v>
+      </c>
+      <c r="Q178">
+        <v>0.25</v>
+      </c>
+      <c r="R178">
+        <v>1.81</v>
+      </c>
+      <c r="S178">
+        <v>2.125</v>
+      </c>
+      <c r="T178">
         <v>2</v>
       </c>
-      <c r="L178">
-        <v>3.5</v>
-      </c>
-      <c r="M178">
-        <v>3.6</v>
-      </c>
-      <c r="N178">
-        <v>1.95</v>
-      </c>
-      <c r="O178">
-        <v>3.4</v>
-      </c>
-      <c r="P178">
-        <v>4</v>
-      </c>
-      <c r="Q178">
+      <c r="U178">
+        <v>2</v>
+      </c>
+      <c r="V178">
+        <v>1.9</v>
+      </c>
+      <c r="W178">
+        <v>-1</v>
+      </c>
+      <c r="X178">
+        <v>2.1</v>
+      </c>
+      <c r="Y178">
+        <v>-1</v>
+      </c>
+      <c r="Z178">
+        <v>0.405</v>
+      </c>
+      <c r="AA178">
         <v>-0.5</v>
       </c>
-      <c r="R178">
-        <v>2</v>
-      </c>
-      <c r="S178">
-        <v>1.93</v>
-      </c>
-      <c r="T178">
-        <v>2.5</v>
-      </c>
-      <c r="U178">
-        <v>2.07</v>
-      </c>
-      <c r="V178">
-        <v>1.83</v>
-      </c>
-      <c r="W178">
-        <v>-1</v>
-      </c>
-      <c r="X178">
-        <v>2.4</v>
-      </c>
-      <c r="Y178">
-        <v>-1</v>
-      </c>
-      <c r="Z178">
-        <v>-1</v>
-      </c>
-      <c r="AA178">
-        <v>0.9299999999999999</v>
-      </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC178">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16399,7 +16399,7 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G179" t="s">
         <v>43</v>
@@ -16476,7 +16476,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6847989</v>
+        <v>6847993</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16488,76 +16488,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
         <v>52</v>
       </c>
       <c r="K180">
+        <v>2</v>
+      </c>
+      <c r="L180">
+        <v>3.5</v>
+      </c>
+      <c r="M180">
+        <v>3.6</v>
+      </c>
+      <c r="N180">
+        <v>1.95</v>
+      </c>
+      <c r="O180">
+        <v>3.4</v>
+      </c>
+      <c r="P180">
+        <v>4</v>
+      </c>
+      <c r="Q180">
+        <v>-0.5</v>
+      </c>
+      <c r="R180">
+        <v>2</v>
+      </c>
+      <c r="S180">
+        <v>1.93</v>
+      </c>
+      <c r="T180">
         <v>2.5</v>
       </c>
-      <c r="L180">
-        <v>3.25</v>
-      </c>
-      <c r="M180">
-        <v>2.8</v>
-      </c>
-      <c r="N180">
-        <v>3.1</v>
-      </c>
-      <c r="O180">
-        <v>3.1</v>
-      </c>
-      <c r="P180">
-        <v>2.5</v>
-      </c>
-      <c r="Q180">
-        <v>0.25</v>
-      </c>
-      <c r="R180">
-        <v>1.81</v>
-      </c>
-      <c r="S180">
-        <v>2.125</v>
-      </c>
-      <c r="T180">
-        <v>2</v>
-      </c>
       <c r="U180">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="V180">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.405</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB180">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16666,10 +16666,10 @@
         <v>45319.69791666666</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G182" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16758,7 +16758,7 @@
         <v>43</v>
       </c>
       <c r="G183" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16847,7 +16847,7 @@
         <v>42</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16933,7 +16933,7 @@
         <v>45325.70833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G185" t="s">
         <v>49</v>
@@ -17022,7 +17022,7 @@
         <v>45326.375</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G186" t="s">
         <v>48</v>
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7728862</v>
+        <v>7728866</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,73 +17111,73 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G187" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187">
+        <v>2</v>
+      </c>
+      <c r="J187" t="s">
+        <v>51</v>
+      </c>
+      <c r="K187">
+        <v>2.25</v>
+      </c>
+      <c r="L187">
+        <v>3.2</v>
+      </c>
+      <c r="M187">
+        <v>3.3</v>
+      </c>
+      <c r="N187">
+        <v>2.05</v>
+      </c>
+      <c r="O187">
+        <v>3.2</v>
+      </c>
+      <c r="P187">
         <v>4</v>
       </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
-      <c r="J187" t="s">
-        <v>53</v>
-      </c>
-      <c r="K187">
-        <v>1.4</v>
-      </c>
-      <c r="L187">
-        <v>4.5</v>
-      </c>
-      <c r="M187">
-        <v>8</v>
-      </c>
-      <c r="N187">
-        <v>1.4</v>
-      </c>
-      <c r="O187">
-        <v>4.75</v>
-      </c>
-      <c r="P187">
-        <v>7.5</v>
-      </c>
       <c r="Q187">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R187">
+        <v>2.05</v>
+      </c>
+      <c r="S187">
+        <v>1.8</v>
+      </c>
+      <c r="T187">
         <v>2</v>
       </c>
-      <c r="S187">
-        <v>1.85</v>
-      </c>
-      <c r="T187">
-        <v>2.75</v>
-      </c>
       <c r="U187">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V187">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W187">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z187">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB187">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC187">
         <v>-1</v>
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7728866</v>
+        <v>7728864</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,40 +17200,40 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G188" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J188" t="s">
         <v>51</v>
       </c>
       <c r="K188">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L188">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M188">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N188">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O188">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P188">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q188">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
         <v>2.05</v>
@@ -17242,13 +17242,13 @@
         <v>1.8</v>
       </c>
       <c r="T188">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W188">
         <v>-1</v>
@@ -17257,7 +17257,7 @@
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Z188">
         <v>-1</v>
@@ -17266,7 +17266,7 @@
         <v>0.8</v>
       </c>
       <c r="AB188">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17277,7 +17277,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7728864</v>
+        <v>7728862</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17289,73 +17289,73 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G189" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H189">
+        <v>4</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189" t="s">
+        <v>53</v>
+      </c>
+      <c r="K189">
+        <v>1.4</v>
+      </c>
+      <c r="L189">
+        <v>4.5</v>
+      </c>
+      <c r="M189">
+        <v>8</v>
+      </c>
+      <c r="N189">
+        <v>1.4</v>
+      </c>
+      <c r="O189">
+        <v>4.75</v>
+      </c>
+      <c r="P189">
+        <v>7.5</v>
+      </c>
+      <c r="Q189">
+        <v>-1.25</v>
+      </c>
+      <c r="R189">
         <v>2</v>
       </c>
-      <c r="I189">
-        <v>3</v>
-      </c>
-      <c r="J189" t="s">
-        <v>51</v>
-      </c>
-      <c r="K189">
-        <v>1.75</v>
-      </c>
-      <c r="L189">
-        <v>3.5</v>
-      </c>
-      <c r="M189">
-        <v>4.75</v>
-      </c>
-      <c r="N189">
+      <c r="S189">
         <v>1.85</v>
       </c>
-      <c r="O189">
-        <v>3.4</v>
-      </c>
-      <c r="P189">
-        <v>4.5</v>
-      </c>
-      <c r="Q189">
-        <v>-0.75</v>
-      </c>
-      <c r="R189">
-        <v>2.05</v>
-      </c>
-      <c r="S189">
-        <v>1.8</v>
-      </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V189">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17378,10 +17378,10 @@
         <v>45326.54513888889</v>
       </c>
       <c r="F190" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17734,7 +17734,7 @@
         <v>45332.70833333334</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
         <v>47</v>
@@ -17900,7 +17900,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6848009</v>
+        <v>6848005</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17912,40 +17912,40 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G196" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H196">
         <v>1</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K196">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="L196">
         <v>3.25</v>
       </c>
       <c r="M196">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N196">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="O196">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P196">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="Q196">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R196">
         <v>2.05</v>
@@ -17954,34 +17954,34 @@
         <v>1.8</v>
       </c>
       <c r="T196">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V196">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z196">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB196">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC196">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18001,10 +18001,10 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G197" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H197">
         <v>2</v>
@@ -18078,7 +18078,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6848005</v>
+        <v>6848009</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18090,7 +18090,7 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G198" t="s">
         <v>32</v>
@@ -18099,31 +18099,31 @@
         <v>1</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K198">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="L198">
         <v>3.25</v>
       </c>
       <c r="M198">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N198">
+        <v>3.75</v>
+      </c>
+      <c r="O198">
+        <v>3.3</v>
+      </c>
+      <c r="P198">
         <v>2.05</v>
       </c>
-      <c r="O198">
-        <v>3.4</v>
-      </c>
-      <c r="P198">
-        <v>3.6</v>
-      </c>
       <c r="Q198">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R198">
         <v>2.05</v>
@@ -18132,34 +18132,34 @@
         <v>1.8</v>
       </c>
       <c r="T198">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U198">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y198">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA198">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB198">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18179,7 +18179,7 @@
         <v>45333.54513888889</v>
       </c>
       <c r="F199" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G199" t="s">
         <v>45</v>
@@ -18268,10 +18268,10 @@
         <v>45333.69791666666</v>
       </c>
       <c r="F200" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G200" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18360,7 +18360,7 @@
         <v>45</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18446,10 +18446,10 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F202" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -18538,7 +18538,7 @@
         <v>43</v>
       </c>
       <c r="G203" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18624,7 +18624,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G204" t="s">
         <v>44</v>
@@ -18713,7 +18713,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G205" t="s">
         <v>46</v>
@@ -18805,7 +18805,7 @@
         <v>42</v>
       </c>
       <c r="G206" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H206">
         <v>3</v>
@@ -18891,7 +18891,7 @@
         <v>45340.54513888889</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G207" t="s">
         <v>49</v>
@@ -18980,7 +18980,7 @@
         <v>45340.69791666666</v>
       </c>
       <c r="F208" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G208" t="s">
         <v>39</v>
@@ -19158,10 +19158,10 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G210" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19250,7 +19250,7 @@
         <v>43</v>
       </c>
       <c r="G211" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -19339,7 +19339,7 @@
         <v>49</v>
       </c>
       <c r="G212" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19413,7 +19413,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6848029</v>
+        <v>6848024</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19425,73 +19425,73 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F213" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G213" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H213">
+        <v>3</v>
+      </c>
+      <c r="I213">
         <v>1</v>
       </c>
-      <c r="I213">
-        <v>2</v>
-      </c>
       <c r="J213" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K213">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L213">
         <v>3.25</v>
       </c>
       <c r="M213">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="N213">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="O213">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q213">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S213">
-        <v>1.98</v>
+        <v>2.025</v>
       </c>
       <c r="T213">
         <v>2.5</v>
       </c>
       <c r="U213">
-        <v>2.06</v>
+        <v>2.025</v>
       </c>
       <c r="V213">
-        <v>1.84</v>
+        <v>1.825</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA213">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>1.06</v>
+        <v>1.025</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19514,10 +19514,10 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G214" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6848024</v>
+        <v>6848029</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19603,73 +19603,73 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G215" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K215">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="L215">
         <v>3.25</v>
       </c>
       <c r="M215">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="N215">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O215">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P215">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q215">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S215">
-        <v>2.025</v>
+        <v>1.98</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>2.025</v>
+        <v>2.06</v>
       </c>
       <c r="V215">
-        <v>1.825</v>
+        <v>1.84</v>
       </c>
       <c r="W215">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z215">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB215">
-        <v>1.025</v>
+        <v>1.06</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19692,7 +19692,7 @@
         <v>45347.54513888889</v>
       </c>
       <c r="F216" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G216" t="s">
         <v>42</v>
@@ -19784,7 +19784,7 @@
         <v>39</v>
       </c>
       <c r="G217" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H217">
         <v>4</v>
@@ -19870,10 +19870,10 @@
         <v>45352.70833333334</v>
       </c>
       <c r="F218" t="s">
+        <v>29</v>
+      </c>
+      <c r="G218" t="s">
         <v>34</v>
-      </c>
-      <c r="G218" t="s">
-        <v>31</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -19959,7 +19959,7 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G219" t="s">
         <v>47</v>
@@ -20048,7 +20048,7 @@
         <v>45353.70833333334</v>
       </c>
       <c r="F220" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G220" t="s">
         <v>39</v>
@@ -20140,7 +20140,7 @@
         <v>46</v>
       </c>
       <c r="G221" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20226,7 +20226,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G222" t="s">
         <v>44</v>
@@ -20315,7 +20315,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F223" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G223" t="s">
         <v>43</v>
@@ -20404,7 +20404,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F224" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G224" t="s">
         <v>48</v>
@@ -20496,7 +20496,7 @@
         <v>42</v>
       </c>
       <c r="G225" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20671,10 +20671,10 @@
         <v>45359.70833333334</v>
       </c>
       <c r="F227" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G227" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H227">
         <v>1</v>
@@ -20760,11 +20760,20 @@
         <v>45360.54166666666</v>
       </c>
       <c r="F228" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G228" t="s">
         <v>45</v>
       </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228" t="s">
+        <v>51</v>
+      </c>
       <c r="K228">
         <v>3.8</v>
       </c>
@@ -20787,34 +20796,40 @@
         <v>0.25</v>
       </c>
       <c r="R228">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S228">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T228">
         <v>2.5</v>
       </c>
       <c r="U228">
-        <v>2.03</v>
+        <v>1.975</v>
       </c>
       <c r="V228">
-        <v>1.87</v>
+        <v>1.875</v>
       </c>
       <c r="W228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="Z228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB228">
+        <v>-1</v>
+      </c>
+      <c r="AC228">
+        <v>0.875</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20837,7 +20852,16 @@
         <v>49</v>
       </c>
       <c r="G229" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229" t="s">
+        <v>53</v>
       </c>
       <c r="K229">
         <v>1.95</v>
@@ -20852,43 +20876,49 @@
         <v>2.15</v>
       </c>
       <c r="O229">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P229">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q229">
         <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="S229">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T229">
         <v>2.25</v>
       </c>
       <c r="U229">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="V229">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="W229">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA229">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB229">
+        <v>-1</v>
+      </c>
+      <c r="AC229">
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20908,10 +20938,19 @@
         <v>45361.375</v>
       </c>
       <c r="F230" t="s">
+        <v>34</v>
+      </c>
+      <c r="G230" t="s">
         <v>31</v>
       </c>
-      <c r="G230" t="s">
-        <v>36</v>
+      <c r="H230">
+        <v>2</v>
+      </c>
+      <c r="I230">
+        <v>2</v>
+      </c>
+      <c r="J230" t="s">
+        <v>52</v>
       </c>
       <c r="K230">
         <v>1.4</v>
@@ -20923,46 +20962,52 @@
         <v>6.5</v>
       </c>
       <c r="N230">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O230">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P230">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q230">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R230">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="S230">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="T230">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U230">
-        <v>2.01</v>
+        <v>1.975</v>
       </c>
       <c r="V230">
-        <v>1.89</v>
+        <v>1.875</v>
       </c>
       <c r="W230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="Y230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0</v>
+        <v>1.05</v>
+      </c>
+      <c r="AB230">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC230">
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20970,7 +21015,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6848048</v>
+        <v>6848041</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -20982,61 +21027,76 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F231" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G231" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231" t="s">
+        <v>51</v>
       </c>
       <c r="K231">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="L231">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M231">
+        <v>2.05</v>
+      </c>
+      <c r="N231">
+        <v>3.3</v>
+      </c>
+      <c r="O231">
+        <v>3.75</v>
+      </c>
+      <c r="P231">
+        <v>2.05</v>
+      </c>
+      <c r="Q231">
+        <v>0.5</v>
+      </c>
+      <c r="R231">
+        <v>1.84</v>
+      </c>
+      <c r="S231">
+        <v>2.09</v>
+      </c>
+      <c r="T231">
         <v>3</v>
       </c>
-      <c r="N231">
-        <v>2.25</v>
-      </c>
-      <c r="O231">
-        <v>3.3</v>
-      </c>
-      <c r="P231">
-        <v>3.25</v>
-      </c>
-      <c r="Q231">
-        <v>-0.25</v>
-      </c>
-      <c r="R231">
-        <v>1.95</v>
-      </c>
-      <c r="S231">
-        <v>1.98</v>
-      </c>
-      <c r="T231">
-        <v>2.25</v>
-      </c>
       <c r="U231">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="V231">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Z231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0</v>
+        <v>1.09</v>
+      </c>
+      <c r="AB231">
+        <v>-1</v>
+      </c>
+      <c r="AC231">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21044,7 +21104,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6848047</v>
+        <v>6848048</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21056,10 +21116,19 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F232" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G232" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232" t="s">
+        <v>53</v>
       </c>
       <c r="K232">
         <v>2.45</v>
@@ -21068,49 +21137,55 @@
         <v>3.2</v>
       </c>
       <c r="M232">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N232">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="O232">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P232">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="Q232">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
+        <v>1.85</v>
+      </c>
+      <c r="S232">
         <v>2</v>
-      </c>
-      <c r="S232">
-        <v>1.93</v>
       </c>
       <c r="T232">
         <v>2.25</v>
       </c>
       <c r="U232">
-        <v>1.98</v>
+        <v>1.975</v>
       </c>
       <c r="V232">
-        <v>1.92</v>
+        <v>1.875</v>
       </c>
       <c r="W232">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA232">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB232">
+        <v>-1</v>
+      </c>
+      <c r="AC232">
+        <v>0.875</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21118,7 +21193,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6848041</v>
+        <v>6848047</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21130,61 +21205,76 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F233" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G233" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233" t="s">
+        <v>53</v>
       </c>
       <c r="K233">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="L233">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M233">
+        <v>2.9</v>
+      </c>
+      <c r="N233">
+        <v>3</v>
+      </c>
+      <c r="O233">
+        <v>3</v>
+      </c>
+      <c r="P233">
+        <v>2.6</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
         <v>2.05</v>
       </c>
-      <c r="N233">
-        <v>3.6</v>
-      </c>
-      <c r="O233">
-        <v>3.75</v>
-      </c>
-      <c r="P233">
-        <v>1.95</v>
-      </c>
-      <c r="Q233">
-        <v>0.5</v>
-      </c>
-      <c r="R233">
-        <v>1.89</v>
-      </c>
       <c r="S233">
-        <v>2.04</v>
+        <v>1.8</v>
       </c>
       <c r="T233">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U233">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V233">
+        <v>1.775</v>
+      </c>
+      <c r="W233">
         <v>2</v>
       </c>
-      <c r="W233">
-        <v>0</v>
-      </c>
       <c r="X233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA233">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB233">
+        <v>-1</v>
+      </c>
+      <c r="AC233">
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21201,7 +21291,7 @@
         <v>28</v>
       </c>
       <c r="E234" s="2">
-        <v>45361.54166666666</v>
+        <v>45361.54513888889</v>
       </c>
       <c r="F234" t="s">
         <v>47</v>
@@ -21209,6 +21299,15 @@
       <c r="G234" t="s">
         <v>42</v>
       </c>
+      <c r="H234">
+        <v>2</v>
+      </c>
+      <c r="I234">
+        <v>2</v>
+      </c>
+      <c r="J234" t="s">
+        <v>52</v>
+      </c>
       <c r="K234">
         <v>2.05</v>
       </c>
@@ -21219,46 +21318,52 @@
         <v>3.75</v>
       </c>
       <c r="N234">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O234">
         <v>3.4</v>
       </c>
       <c r="P234">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q234">
         <v>-0.5</v>
       </c>
       <c r="R234">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="S234">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="T234">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U234">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V234">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W234">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X234">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y234">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0</v>
+        <v>0.99</v>
+      </c>
+      <c r="AB234">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC234">
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21281,7 +21386,16 @@
         <v>39</v>
       </c>
       <c r="G235" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H235">
+        <v>2</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235" t="s">
+        <v>53</v>
       </c>
       <c r="K235">
         <v>1.571</v>
@@ -21296,7 +21410,7 @@
         <v>1.5</v>
       </c>
       <c r="O235">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P235">
         <v>7</v>
@@ -21305,34 +21419,40 @@
         <v>-1</v>
       </c>
       <c r="R235">
-        <v>1.83</v>
+        <v>1.825</v>
       </c>
       <c r="S235">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T235">
         <v>2.5</v>
       </c>
       <c r="U235">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="V235">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="W235">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X235">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA235">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB235">
+        <v>-1</v>
+      </c>
+      <c r="AC235">
+        <v>0.8</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21388,10 +21508,10 @@
         <v>2.5</v>
       </c>
       <c r="U236">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="V236">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W236">
         <v>0</v>
@@ -21426,7 +21546,7 @@
         <v>45367.54166666666</v>
       </c>
       <c r="F237" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G237" t="s">
         <v>43</v>
@@ -21453,10 +21573,10 @@
         <v>-0.25</v>
       </c>
       <c r="R237">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="S237">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="T237">
         <v>2.25</v>
@@ -21503,7 +21623,7 @@
         <v>49</v>
       </c>
       <c r="G238" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K238">
         <v>2.2</v>
@@ -21515,7 +21635,7 @@
         <v>3.3</v>
       </c>
       <c r="N238">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O238">
         <v>3.3</v>
@@ -21536,24 +21656,468 @@
         <v>2.25</v>
       </c>
       <c r="U238">
+        <v>2</v>
+      </c>
+      <c r="V238">
+        <v>1.9</v>
+      </c>
+      <c r="W238">
+        <v>0</v>
+      </c>
+      <c r="X238">
+        <v>0</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>6848057</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45368.375</v>
+      </c>
+      <c r="F239" t="s">
+        <v>32</v>
+      </c>
+      <c r="G239" t="s">
+        <v>47</v>
+      </c>
+      <c r="K239">
+        <v>2.5</v>
+      </c>
+      <c r="L239">
+        <v>3.2</v>
+      </c>
+      <c r="M239">
+        <v>2.875</v>
+      </c>
+      <c r="N239">
+        <v>2.7</v>
+      </c>
+      <c r="O239">
+        <v>3.1</v>
+      </c>
+      <c r="P239">
+        <v>2.7</v>
+      </c>
+      <c r="Q239">
+        <v>0</v>
+      </c>
+      <c r="R239">
+        <v>1.95</v>
+      </c>
+      <c r="S239">
+        <v>1.95</v>
+      </c>
+      <c r="T239">
+        <v>2.25</v>
+      </c>
+      <c r="U239">
+        <v>2.09</v>
+      </c>
+      <c r="V239">
+        <v>1.81</v>
+      </c>
+      <c r="W239">
+        <v>0</v>
+      </c>
+      <c r="X239">
+        <v>0</v>
+      </c>
+      <c r="Y239">
+        <v>0</v>
+      </c>
+      <c r="Z239">
+        <v>0</v>
+      </c>
+      <c r="AA239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>6848053</v>
+      </c>
+      <c r="C240" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" t="s">
+        <v>28</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45368.45833333334</v>
+      </c>
+      <c r="F240" t="s">
+        <v>31</v>
+      </c>
+      <c r="G240" t="s">
+        <v>44</v>
+      </c>
+      <c r="K240">
+        <v>1.5</v>
+      </c>
+      <c r="L240">
+        <v>4</v>
+      </c>
+      <c r="M240">
+        <v>6.5</v>
+      </c>
+      <c r="N240">
+        <v>1.533</v>
+      </c>
+      <c r="O240">
+        <v>4</v>
+      </c>
+      <c r="P240">
+        <v>6</v>
+      </c>
+      <c r="Q240">
+        <v>-1</v>
+      </c>
+      <c r="R240">
+        <v>1.99</v>
+      </c>
+      <c r="S240">
+        <v>1.91</v>
+      </c>
+      <c r="T240">
+        <v>2.5</v>
+      </c>
+      <c r="U240">
         <v>2.01</v>
       </c>
-      <c r="V238">
+      <c r="V240">
         <v>1.89</v>
       </c>
-      <c r="W238">
-        <v>0</v>
-      </c>
-      <c r="X238">
-        <v>0</v>
-      </c>
-      <c r="Y238">
-        <v>0</v>
-      </c>
-      <c r="Z238">
-        <v>0</v>
-      </c>
-      <c r="AA238">
+      <c r="W240">
+        <v>0</v>
+      </c>
+      <c r="X240">
+        <v>0</v>
+      </c>
+      <c r="Y240">
+        <v>0</v>
+      </c>
+      <c r="Z240">
+        <v>0</v>
+      </c>
+      <c r="AA240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>6848052</v>
+      </c>
+      <c r="C241" t="s">
+        <v>28</v>
+      </c>
+      <c r="D241" t="s">
+        <v>28</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45368.45833333334</v>
+      </c>
+      <c r="F241" t="s">
+        <v>40</v>
+      </c>
+      <c r="G241" t="s">
+        <v>48</v>
+      </c>
+      <c r="K241">
+        <v>2.5</v>
+      </c>
+      <c r="L241">
+        <v>3.2</v>
+      </c>
+      <c r="M241">
+        <v>2.875</v>
+      </c>
+      <c r="N241">
+        <v>2.55</v>
+      </c>
+      <c r="O241">
+        <v>3.1</v>
+      </c>
+      <c r="P241">
+        <v>2.8</v>
+      </c>
+      <c r="Q241">
+        <v>0</v>
+      </c>
+      <c r="R241">
+        <v>1.86</v>
+      </c>
+      <c r="S241">
+        <v>2.04</v>
+      </c>
+      <c r="T241">
+        <v>2.25</v>
+      </c>
+      <c r="U241">
+        <v>2.04</v>
+      </c>
+      <c r="V241">
+        <v>1.86</v>
+      </c>
+      <c r="W241">
+        <v>0</v>
+      </c>
+      <c r="X241">
+        <v>0</v>
+      </c>
+      <c r="Y241">
+        <v>0</v>
+      </c>
+      <c r="Z241">
+        <v>0</v>
+      </c>
+      <c r="AA241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>6848051</v>
+      </c>
+      <c r="C242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242" t="s">
+        <v>28</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45368.45833333334</v>
+      </c>
+      <c r="F242" t="s">
+        <v>29</v>
+      </c>
+      <c r="G242" t="s">
+        <v>36</v>
+      </c>
+      <c r="K242">
+        <v>1.4</v>
+      </c>
+      <c r="L242">
+        <v>5</v>
+      </c>
+      <c r="M242">
+        <v>7</v>
+      </c>
+      <c r="N242">
+        <v>1.363</v>
+      </c>
+      <c r="O242">
+        <v>5.25</v>
+      </c>
+      <c r="P242">
+        <v>7.5</v>
+      </c>
+      <c r="Q242">
+        <v>-1.5</v>
+      </c>
+      <c r="R242">
+        <v>2.07</v>
+      </c>
+      <c r="S242">
+        <v>1.83</v>
+      </c>
+      <c r="T242">
+        <v>3</v>
+      </c>
+      <c r="U242">
+        <v>1.95</v>
+      </c>
+      <c r="V242">
+        <v>1.95</v>
+      </c>
+      <c r="W242">
+        <v>0</v>
+      </c>
+      <c r="X242">
+        <v>0</v>
+      </c>
+      <c r="Y242">
+        <v>0</v>
+      </c>
+      <c r="Z242">
+        <v>0</v>
+      </c>
+      <c r="AA242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>6848049</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45368.54166666666</v>
+      </c>
+      <c r="F243" t="s">
+        <v>42</v>
+      </c>
+      <c r="G243" t="s">
+        <v>39</v>
+      </c>
+      <c r="K243">
+        <v>2.375</v>
+      </c>
+      <c r="L243">
+        <v>3.4</v>
+      </c>
+      <c r="M243">
+        <v>2.875</v>
+      </c>
+      <c r="N243">
+        <v>2.5</v>
+      </c>
+      <c r="O243">
+        <v>3.4</v>
+      </c>
+      <c r="P243">
+        <v>2.7</v>
+      </c>
+      <c r="Q243">
+        <v>0</v>
+      </c>
+      <c r="R243">
+        <v>1.9</v>
+      </c>
+      <c r="S243">
+        <v>2</v>
+      </c>
+      <c r="T243">
+        <v>2.5</v>
+      </c>
+      <c r="U243">
+        <v>1.92</v>
+      </c>
+      <c r="V243">
+        <v>1.98</v>
+      </c>
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AA243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:27">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>6848056</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45368.69791666666</v>
+      </c>
+      <c r="F244" t="s">
+        <v>41</v>
+      </c>
+      <c r="G244" t="s">
+        <v>34</v>
+      </c>
+      <c r="K244">
+        <v>4.75</v>
+      </c>
+      <c r="L244">
+        <v>4.5</v>
+      </c>
+      <c r="M244">
+        <v>1.571</v>
+      </c>
+      <c r="N244">
+        <v>5</v>
+      </c>
+      <c r="O244">
+        <v>4.5</v>
+      </c>
+      <c r="P244">
+        <v>1.533</v>
+      </c>
+      <c r="Q244">
+        <v>1</v>
+      </c>
+      <c r="R244">
+        <v>1.99</v>
+      </c>
+      <c r="S244">
+        <v>1.91</v>
+      </c>
+      <c r="T244">
+        <v>3</v>
+      </c>
+      <c r="U244">
+        <v>1.84</v>
+      </c>
+      <c r="V244">
+        <v>2.06</v>
+      </c>
+      <c r="W244">
+        <v>0</v>
+      </c>
+      <c r="X244">
+        <v>0</v>
+      </c>
+      <c r="Y244">
+        <v>0</v>
+      </c>
+      <c r="Z244">
+        <v>0</v>
+      </c>
+      <c r="AA244">
         <v>0</v>
       </c>
     </row>

--- a/France Ligue 1/France Ligue 1.xlsx
+++ b/France Ligue 1/France Ligue 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,19 @@
     <t>Monaco</t>
   </si>
   <si>
-    <t>Troyes</t>
+    <t>Reims</t>
   </si>
   <si>
-    <t>Reims</t>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Troyes</t>
   </si>
   <si>
     <t>Brest</t>
@@ -121,25 +130,16 @@
     <t>PSG</t>
   </si>
   <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
     <t>AC Ajaccio</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
   </si>
   <si>
     <t>Marseille</t>
   </si>
   <si>
-    <t>Clermont Foot</t>
+    <t>Montpellier</t>
   </si>
   <si>
-    <t>Montpellier</t>
+    <t>Clermont Foot</t>
   </si>
   <si>
     <t>Rennes</t>
@@ -172,10 +172,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC244"/>
+  <dimension ref="A1:AC243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5638915</v>
+        <v>5639215</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -738,46 +738,46 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M3">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="N3">
-        <v>15</v>
+        <v>1.8</v>
       </c>
       <c r="O3">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="P3">
-        <v>1.166</v>
+        <v>4</v>
       </c>
       <c r="Q3">
-        <v>2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U3">
         <v>1.975</v>
@@ -789,22 +789,22 @@
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5639215</v>
+        <v>5635384</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,7 +827,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -839,40 +839,40 @@
         <v>51</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L4">
+        <v>3.5</v>
+      </c>
+      <c r="M4">
+        <v>3.1</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
         <v>3.75</v>
       </c>
-      <c r="M4">
-        <v>3.5</v>
-      </c>
-      <c r="N4">
-        <v>1.8</v>
-      </c>
-      <c r="O4">
-        <v>4.2</v>
-      </c>
       <c r="P4">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="T4">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -881,16 +881,16 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.8500000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AB4">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5641663</v>
+        <v>5644619</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K5">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M5">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="O5">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P5">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="Q5">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA5">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5642021</v>
+        <v>5635385</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1005,55 +1005,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K6">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="L6">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="N6">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O6">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S6">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1062,16 +1062,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC6">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5642185</v>
+        <v>5638915</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1094,73 +1094,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>1.285</v>
+        <v>9</v>
       </c>
       <c r="L7">
         <v>6</v>
       </c>
       <c r="M7">
-        <v>9</v>
+        <v>1.285</v>
       </c>
       <c r="N7">
-        <v>1.3</v>
+        <v>15</v>
       </c>
       <c r="O7">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="P7">
-        <v>8</v>
+        <v>1.166</v>
       </c>
       <c r="Q7">
-        <v>-1.75</v>
+        <v>2.25</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U7">
+        <v>1.975</v>
+      </c>
+      <c r="V7">
         <v>1.875</v>
       </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y7">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
+        <v>-1</v>
+      </c>
+      <c r="AC7">
         <v>0.875</v>
-      </c>
-      <c r="AC7">
-        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1168,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5644619</v>
+        <v>5641663</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1183,73 +1183,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="N8">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="O8">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P8">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>1.85</v>
+      </c>
+      <c r="T8">
+        <v>2.75</v>
+      </c>
+      <c r="U8">
         <v>1.825</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>2.025</v>
       </c>
-      <c r="T8">
-        <v>3.5</v>
-      </c>
-      <c r="U8">
-        <v>1.9</v>
-      </c>
-      <c r="V8">
-        <v>1.95</v>
-      </c>
       <c r="W8">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB8">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1257,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5635385</v>
+        <v>5642021</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1272,55 +1272,55 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M9">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="N9">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T9">
         <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W9">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1329,16 +1329,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1346,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5641662</v>
+        <v>5642185</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1361,73 +1361,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K10">
+        <v>1.285</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <v>1.3</v>
+      </c>
+      <c r="O10">
+        <v>6.5</v>
+      </c>
+      <c r="P10">
         <v>8</v>
       </c>
-      <c r="L10">
-        <v>5</v>
-      </c>
-      <c r="M10">
-        <v>1.363</v>
-      </c>
-      <c r="N10">
-        <v>7.5</v>
-      </c>
-      <c r="O10">
-        <v>4.75</v>
-      </c>
-      <c r="P10">
-        <v>1.4</v>
-      </c>
       <c r="Q10">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R10">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S10">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U10">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V10">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC10">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1435,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5635384</v>
+        <v>5641662</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1450,73 +1450,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M11">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="O11">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P11">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R11">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S11">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T11">
         <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA11">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1536,7 +1536,7 @@
         <v>45149.66666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
         <v>47</v>
@@ -1548,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12">
         <v>2.625</v>
@@ -1628,7 +1628,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13">
         <v>1.666</v>
@@ -1714,10 +1714,10 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14">
         <v>1.2</v>
@@ -1803,7 +1803,7 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
         <v>49</v>
@@ -1815,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15">
         <v>4.5</v>
@@ -1880,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6847826</v>
+        <v>6847832</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1895,70 +1895,70 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="L16">
+        <v>3.3</v>
+      </c>
+      <c r="M16">
+        <v>2.8</v>
+      </c>
+      <c r="N16">
+        <v>1.7</v>
+      </c>
+      <c r="O16">
         <v>3.8</v>
       </c>
-      <c r="M16">
-        <v>1.8</v>
-      </c>
-      <c r="N16">
-        <v>3</v>
-      </c>
-      <c r="O16">
-        <v>3.4</v>
-      </c>
       <c r="P16">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="S16">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U16">
-        <v>2.025</v>
+        <v>1.87</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>2.03</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y16">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>1.05</v>
+        <v>0.98</v>
       </c>
       <c r="AB16">
-        <v>1.025</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6847831</v>
+        <v>6847826</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1981,28 +1981,28 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" t="s">
         <v>51</v>
       </c>
       <c r="K17">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="L17">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M17">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N17">
         <v>3</v>
@@ -2011,26 +2011,26 @@
         <v>3.4</v>
       </c>
       <c r="P17">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q17">
         <v>0.25</v>
       </c>
       <c r="R17">
+        <v>1.8</v>
+      </c>
+      <c r="S17">
+        <v>2.05</v>
+      </c>
+      <c r="T17">
+        <v>2.75</v>
+      </c>
+      <c r="U17">
+        <v>2.025</v>
+      </c>
+      <c r="V17">
         <v>1.825</v>
       </c>
-      <c r="S17">
-        <v>2.025</v>
-      </c>
-      <c r="T17">
-        <v>2.5</v>
-      </c>
-      <c r="U17">
-        <v>1.9</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
       <c r="W17">
         <v>-1</v>
       </c>
@@ -2038,16 +2038,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.3</v>
+        <v>1.375</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
+        <v>1.05</v>
+      </c>
+      <c r="AB17">
         <v>1.025</v>
-      </c>
-      <c r="AB17">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6847832</v>
+        <v>6847831</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2070,73 +2070,73 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K18">
         <v>2.5</v>
       </c>
       <c r="L18">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N18">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O18">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.92</v>
+        <v>1.825</v>
       </c>
       <c r="S18">
-        <v>1.98</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.98</v>
+        <v>1.025</v>
       </c>
       <c r="AB18">
-        <v>0.8700000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K19">
         <v>1.333</v>
@@ -2260,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K20">
         <v>2.625</v>
@@ -2349,7 +2349,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21">
         <v>4.2</v>
@@ -2429,7 +2429,7 @@
         <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2518,7 +2518,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K23">
         <v>4.5</v>
@@ -2607,7 +2607,7 @@
         <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K24">
         <v>1.444</v>
@@ -2681,7 +2681,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6847838</v>
+        <v>6847840</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2693,76 +2693,76 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>2</v>
       </c>
-      <c r="I25">
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25">
+        <v>2.6</v>
+      </c>
+      <c r="L25">
+        <v>3.4</v>
+      </c>
+      <c r="M25">
+        <v>2.625</v>
+      </c>
+      <c r="N25">
+        <v>2.8</v>
+      </c>
+      <c r="O25">
+        <v>3.1</v>
+      </c>
+      <c r="P25">
+        <v>2.75</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
-      <c r="J25" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25">
-        <v>1.8</v>
-      </c>
-      <c r="L25">
-        <v>3.8</v>
-      </c>
-      <c r="M25">
-        <v>4</v>
-      </c>
-      <c r="N25">
-        <v>1.833</v>
-      </c>
-      <c r="O25">
-        <v>3.75</v>
-      </c>
-      <c r="P25">
-        <v>4</v>
-      </c>
-      <c r="Q25">
-        <v>-0.5</v>
-      </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S25">
+        <v>1.9</v>
+      </c>
+      <c r="T25">
         <v>2</v>
       </c>
-      <c r="T25">
-        <v>2.5</v>
-      </c>
       <c r="U25">
+        <v>1.975</v>
+      </c>
+      <c r="V25">
         <v>1.875</v>
       </c>
-      <c r="V25">
-        <v>1.975</v>
-      </c>
       <c r="W25">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z25">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2770,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6847840</v>
+        <v>6847838</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2782,76 +2782,76 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26">
+        <v>1.8</v>
+      </c>
+      <c r="L26">
+        <v>3.8</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>1.833</v>
+      </c>
+      <c r="O26">
+        <v>3.75</v>
+      </c>
+      <c r="P26">
+        <v>4</v>
+      </c>
+      <c r="Q26">
+        <v>-0.5</v>
+      </c>
+      <c r="R26">
+        <v>1.85</v>
+      </c>
+      <c r="S26">
         <v>2</v>
       </c>
-      <c r="J26" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26">
-        <v>2.6</v>
-      </c>
-      <c r="L26">
-        <v>3.4</v>
-      </c>
-      <c r="M26">
-        <v>2.625</v>
-      </c>
-      <c r="N26">
-        <v>2.8</v>
-      </c>
-      <c r="O26">
-        <v>3.1</v>
-      </c>
-      <c r="P26">
-        <v>2.75</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>1.95</v>
-      </c>
-      <c r="S26">
-        <v>1.9</v>
-      </c>
       <c r="T26">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
+        <v>1.875</v>
+      </c>
+      <c r="V26">
         <v>1.975</v>
       </c>
-      <c r="V26">
-        <v>1.875</v>
-      </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
+        <v>-1</v>
+      </c>
+      <c r="AC26">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC26">
-        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2871,10 +2871,10 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2883,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K27">
         <v>3.1</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K28">
         <v>1.909</v>
@@ -3061,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K29">
         <v>2.3</v>
@@ -3138,7 +3138,7 @@
         <v>45163.66666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
         <v>29</v>
@@ -3150,7 +3150,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K30">
         <v>3.6</v>
@@ -3230,7 +3230,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K31">
         <v>1.4</v>
@@ -3316,7 +3316,7 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
         <v>49</v>
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K32">
         <v>1.6</v>
@@ -3417,7 +3417,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33">
         <v>1.4</v>
@@ -3482,7 +3482,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6847843</v>
+        <v>6847850</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3494,76 +3494,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L34">
+        <v>3.4</v>
+      </c>
+      <c r="M34">
+        <v>2.8</v>
+      </c>
+      <c r="N34">
+        <v>2.2</v>
+      </c>
+      <c r="O34">
         <v>3.5</v>
       </c>
-      <c r="M34">
-        <v>3.75</v>
-      </c>
-      <c r="N34">
-        <v>2.15</v>
-      </c>
-      <c r="O34">
-        <v>3.3</v>
-      </c>
       <c r="P34">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q34">
         <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3583,7 +3583,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
         <v>44</v>
@@ -3660,7 +3660,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6847850</v>
+        <v>6847843</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3672,76 +3672,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L36">
+        <v>3.5</v>
+      </c>
+      <c r="M36">
+        <v>3.75</v>
+      </c>
+      <c r="N36">
+        <v>2.15</v>
+      </c>
+      <c r="O36">
+        <v>3.3</v>
+      </c>
+      <c r="P36">
         <v>3.4</v>
-      </c>
-      <c r="M36">
-        <v>2.8</v>
-      </c>
-      <c r="N36">
-        <v>2.2</v>
-      </c>
-      <c r="O36">
-        <v>3.5</v>
-      </c>
-      <c r="P36">
-        <v>3.2</v>
       </c>
       <c r="Q36">
         <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA36">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3761,7 +3761,7 @@
         <v>45165.50347222222</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
         <v>47</v>
@@ -3773,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3850,7 +3850,7 @@
         <v>45165.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K38">
         <v>2.375</v>
@@ -3939,7 +3939,7 @@
         <v>45170.66666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -3951,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K39">
         <v>4.333</v>
@@ -4028,7 +4028,7 @@
         <v>45171.5</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
         <v>42</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K40">
         <v>4.2</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K41">
         <v>2.25</v>
@@ -4209,7 +4209,7 @@
         <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4218,7 +4218,7 @@
         <v>2</v>
     